--- a/daily-work-schedule-template.xlsx
+++ b/daily-work-schedule-template.xlsx
@@ -5,11 +5,11 @@
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Enendu\Documents\DialectApp\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Enendu\Documents\GitHub\Dialect\DialectApp\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6950" tabRatio="500" firstSheet="1" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14380" windowHeight="4090" tabRatio="500" firstSheet="1" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Daily Schedule SUN" sheetId="4" r:id="rId1"/>
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="47">
   <si>
     <t>TIME</t>
   </si>
@@ -172,6 +172,24 @@
   </si>
   <si>
     <t>Confirm applications work with server</t>
+  </si>
+  <si>
+    <t>Done. But only works with tunneling localhost</t>
+  </si>
+  <si>
+    <t>Will work on it when I get home</t>
+  </si>
+  <si>
+    <t>Closed at 3pm</t>
+  </si>
+  <si>
+    <t>Work on volunteers front page</t>
+  </si>
+  <si>
+    <t>Build volunteers table</t>
+  </si>
+  <si>
+    <t>Build users table</t>
   </si>
 </sst>
 </file>
@@ -773,6 +791,129 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="17" fillId="11" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="18" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="18" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="10" fillId="17" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="10" fillId="17" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="10" fillId="17" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="10" fillId="17" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="165" fontId="10" fillId="13" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="10" fillId="13" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="10" fillId="13" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="10" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="10" fillId="13" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="10" fillId="13" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="10" fillId="17" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="10" fillId="17" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="18" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -800,137 +941,14 @@
     <xf numFmtId="0" fontId="14" fillId="18" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="10" fillId="13" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="10" fillId="13" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="10" fillId="13" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="10" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="10" fillId="13" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="10" fillId="13" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="10" fillId="17" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="10" fillId="17" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="10" fillId="17" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="10" fillId="17" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="10" fillId="17" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="10" fillId="17" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="13" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="13" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="10" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="17" fillId="11" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="18" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="18" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -1287,10 +1305,10 @@
     </row>
     <row r="2" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.65">
       <c r="A2" s="8"/>
-      <c r="B2" s="62" t="s">
+      <c r="B2" s="37" t="s">
         <v>25</v>
       </c>
-      <c r="C2" s="62"/>
+      <c r="C2" s="37"/>
       <c r="D2" s="9"/>
       <c r="E2" s="12" t="s">
         <v>13</v>
@@ -1307,8 +1325,8 @@
     </row>
     <row r="3" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.65">
       <c r="A3" s="8"/>
-      <c r="B3" s="62"/>
-      <c r="C3" s="62"/>
+      <c r="B3" s="37"/>
+      <c r="C3" s="37"/>
       <c r="D3" s="9"/>
       <c r="E3" s="13">
         <v>42863</v>
@@ -1340,40 +1358,40 @@
     </row>
     <row r="5" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="8"/>
-      <c r="B5" s="63" t="s">
+      <c r="B5" s="38" t="s">
         <v>0</v>
       </c>
       <c r="C5" s="23" t="s">
         <v>17</v>
       </c>
       <c r="D5" s="8"/>
-      <c r="E5" s="64" t="s">
+      <c r="E5" s="39" t="s">
         <v>14</v>
       </c>
       <c r="F5" s="8"/>
-      <c r="G5" s="65" t="s">
+      <c r="G5" s="50" t="s">
         <v>23</v>
       </c>
-      <c r="H5" s="66"/>
-      <c r="I5" s="66"/>
-      <c r="J5" s="67"/>
+      <c r="H5" s="51"/>
+      <c r="I5" s="51"/>
+      <c r="J5" s="52"/>
     </row>
     <row r="6" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="8"/>
-      <c r="B6" s="63"/>
+      <c r="B6" s="38"/>
       <c r="C6" s="24">
         <f>E3</f>
         <v>42863</v>
       </c>
       <c r="D6" s="8"/>
-      <c r="E6" s="64"/>
+      <c r="E6" s="39"/>
       <c r="F6" s="8"/>
-      <c r="G6" s="68" t="s">
+      <c r="G6" s="53" t="s">
         <v>24</v>
       </c>
-      <c r="H6" s="69"/>
-      <c r="I6" s="69"/>
-      <c r="J6" s="70"/>
+      <c r="H6" s="54"/>
+      <c r="I6" s="54"/>
+      <c r="J6" s="55"/>
     </row>
     <row r="7" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="8"/>
@@ -1385,13 +1403,13 @@
       <c r="D7" s="8"/>
       <c r="E7" s="16"/>
       <c r="F7" s="8"/>
-      <c r="G7" s="52">
+      <c r="G7" s="40">
         <f>E3</f>
         <v>42863</v>
       </c>
-      <c r="H7" s="53"/>
-      <c r="I7" s="46"/>
-      <c r="J7" s="47"/>
+      <c r="H7" s="41"/>
+      <c r="I7" s="44"/>
+      <c r="J7" s="45"/>
     </row>
     <row r="8" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="8"/>
@@ -1403,10 +1421,10 @@
       <c r="D8" s="8"/>
       <c r="E8" s="17"/>
       <c r="F8" s="8"/>
-      <c r="G8" s="52"/>
-      <c r="H8" s="53"/>
-      <c r="I8" s="44"/>
-      <c r="J8" s="45"/>
+      <c r="G8" s="40"/>
+      <c r="H8" s="41"/>
+      <c r="I8" s="46"/>
+      <c r="J8" s="47"/>
     </row>
     <row r="9" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="8"/>
@@ -1418,10 +1436,10 @@
       <c r="D9" s="8"/>
       <c r="E9" s="16"/>
       <c r="F9" s="8"/>
-      <c r="G9" s="54"/>
-      <c r="H9" s="55"/>
-      <c r="I9" s="58"/>
-      <c r="J9" s="59"/>
+      <c r="G9" s="42"/>
+      <c r="H9" s="43"/>
+      <c r="I9" s="48"/>
+      <c r="J9" s="49"/>
     </row>
     <row r="10" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="8"/>
@@ -1433,13 +1451,13 @@
       <c r="D10" s="8"/>
       <c r="E10" s="17"/>
       <c r="F10" s="8"/>
-      <c r="G10" s="38">
+      <c r="G10" s="56">
         <f>G7+1</f>
         <v>42864</v>
       </c>
-      <c r="H10" s="39"/>
-      <c r="I10" s="60"/>
-      <c r="J10" s="61"/>
+      <c r="H10" s="57"/>
+      <c r="I10" s="62"/>
+      <c r="J10" s="63"/>
     </row>
     <row r="11" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="8"/>
@@ -1451,10 +1469,10 @@
       <c r="D11" s="8"/>
       <c r="E11" s="16"/>
       <c r="F11" s="8"/>
-      <c r="G11" s="40"/>
-      <c r="H11" s="41"/>
-      <c r="I11" s="46"/>
-      <c r="J11" s="47"/>
+      <c r="G11" s="58"/>
+      <c r="H11" s="59"/>
+      <c r="I11" s="44"/>
+      <c r="J11" s="45"/>
     </row>
     <row r="12" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="8"/>
@@ -1466,10 +1484,10 @@
       <c r="D12" s="8"/>
       <c r="E12" s="17"/>
       <c r="F12" s="8"/>
-      <c r="G12" s="42"/>
-      <c r="H12" s="43"/>
-      <c r="I12" s="48"/>
-      <c r="J12" s="49"/>
+      <c r="G12" s="60"/>
+      <c r="H12" s="61"/>
+      <c r="I12" s="64"/>
+      <c r="J12" s="65"/>
     </row>
     <row r="13" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="8"/>
@@ -1481,13 +1499,13 @@
       <c r="D13" s="8"/>
       <c r="E13" s="16"/>
       <c r="F13" s="8"/>
-      <c r="G13" s="50">
+      <c r="G13" s="66">
         <f>G7+2</f>
         <v>42865</v>
       </c>
-      <c r="H13" s="51"/>
-      <c r="I13" s="56"/>
-      <c r="J13" s="57"/>
+      <c r="H13" s="67"/>
+      <c r="I13" s="68"/>
+      <c r="J13" s="69"/>
     </row>
     <row r="14" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="8"/>
@@ -1499,10 +1517,10 @@
       <c r="D14" s="8"/>
       <c r="E14" s="17"/>
       <c r="F14" s="8"/>
-      <c r="G14" s="52"/>
-      <c r="H14" s="53"/>
-      <c r="I14" s="44"/>
-      <c r="J14" s="45"/>
+      <c r="G14" s="40"/>
+      <c r="H14" s="41"/>
+      <c r="I14" s="46"/>
+      <c r="J14" s="47"/>
     </row>
     <row r="15" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="8"/>
@@ -1514,10 +1532,10 @@
       <c r="D15" s="8"/>
       <c r="E15" s="16"/>
       <c r="F15" s="8"/>
-      <c r="G15" s="54"/>
-      <c r="H15" s="55"/>
-      <c r="I15" s="58"/>
-      <c r="J15" s="59"/>
+      <c r="G15" s="42"/>
+      <c r="H15" s="43"/>
+      <c r="I15" s="48"/>
+      <c r="J15" s="49"/>
     </row>
     <row r="16" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="8"/>
@@ -1529,13 +1547,13 @@
       <c r="D16" s="8"/>
       <c r="E16" s="17"/>
       <c r="F16" s="8"/>
-      <c r="G16" s="38">
+      <c r="G16" s="56">
         <f>G7+3</f>
         <v>42866</v>
       </c>
-      <c r="H16" s="39"/>
-      <c r="I16" s="60"/>
-      <c r="J16" s="61"/>
+      <c r="H16" s="57"/>
+      <c r="I16" s="62"/>
+      <c r="J16" s="63"/>
     </row>
     <row r="17" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="8"/>
@@ -1547,10 +1565,10 @@
       <c r="D17" s="8"/>
       <c r="E17" s="16"/>
       <c r="F17" s="8"/>
-      <c r="G17" s="40"/>
-      <c r="H17" s="41"/>
-      <c r="I17" s="46"/>
-      <c r="J17" s="47"/>
+      <c r="G17" s="58"/>
+      <c r="H17" s="59"/>
+      <c r="I17" s="44"/>
+      <c r="J17" s="45"/>
     </row>
     <row r="18" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="8"/>
@@ -1562,10 +1580,10 @@
       <c r="D18" s="8"/>
       <c r="E18" s="17"/>
       <c r="F18" s="8"/>
-      <c r="G18" s="42"/>
-      <c r="H18" s="43"/>
-      <c r="I18" s="48"/>
-      <c r="J18" s="49"/>
+      <c r="G18" s="60"/>
+      <c r="H18" s="61"/>
+      <c r="I18" s="64"/>
+      <c r="J18" s="65"/>
     </row>
     <row r="19" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="8"/>
@@ -1577,13 +1595,13 @@
       <c r="D19" s="8"/>
       <c r="E19" s="16"/>
       <c r="F19" s="8"/>
-      <c r="G19" s="50">
+      <c r="G19" s="66">
         <f>G7+4</f>
         <v>42867</v>
       </c>
-      <c r="H19" s="51"/>
-      <c r="I19" s="56"/>
-      <c r="J19" s="57"/>
+      <c r="H19" s="67"/>
+      <c r="I19" s="68"/>
+      <c r="J19" s="69"/>
     </row>
     <row r="20" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="8"/>
@@ -1595,10 +1613,10 @@
       <c r="D20" s="8"/>
       <c r="E20" s="17"/>
       <c r="F20" s="8"/>
-      <c r="G20" s="52"/>
-      <c r="H20" s="53"/>
-      <c r="I20" s="44"/>
-      <c r="J20" s="45"/>
+      <c r="G20" s="40"/>
+      <c r="H20" s="41"/>
+      <c r="I20" s="46"/>
+      <c r="J20" s="47"/>
     </row>
     <row r="21" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="8"/>
@@ -1610,10 +1628,10 @@
       <c r="D21" s="8"/>
       <c r="E21" s="16"/>
       <c r="F21" s="8"/>
-      <c r="G21" s="54"/>
-      <c r="H21" s="55"/>
-      <c r="I21" s="58"/>
-      <c r="J21" s="59"/>
+      <c r="G21" s="42"/>
+      <c r="H21" s="43"/>
+      <c r="I21" s="48"/>
+      <c r="J21" s="49"/>
     </row>
     <row r="22" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="8"/>
@@ -1625,13 +1643,13 @@
       <c r="D22" s="8"/>
       <c r="E22" s="17"/>
       <c r="F22" s="8"/>
-      <c r="G22" s="38">
+      <c r="G22" s="56">
         <f>G7+5</f>
         <v>42868</v>
       </c>
-      <c r="H22" s="39"/>
-      <c r="I22" s="44"/>
-      <c r="J22" s="45"/>
+      <c r="H22" s="57"/>
+      <c r="I22" s="46"/>
+      <c r="J22" s="47"/>
     </row>
     <row r="23" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="8"/>
@@ -1643,10 +1661,10 @@
       <c r="D23" s="8"/>
       <c r="E23" s="16"/>
       <c r="F23" s="8"/>
-      <c r="G23" s="40"/>
-      <c r="H23" s="41"/>
-      <c r="I23" s="46"/>
-      <c r="J23" s="47"/>
+      <c r="G23" s="58"/>
+      <c r="H23" s="59"/>
+      <c r="I23" s="44"/>
+      <c r="J23" s="45"/>
     </row>
     <row r="24" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="8"/>
@@ -1658,10 +1676,10 @@
       <c r="D24" s="8"/>
       <c r="E24" s="17"/>
       <c r="F24" s="8"/>
-      <c r="G24" s="42"/>
-      <c r="H24" s="43"/>
-      <c r="I24" s="48"/>
-      <c r="J24" s="49"/>
+      <c r="G24" s="60"/>
+      <c r="H24" s="61"/>
+      <c r="I24" s="64"/>
+      <c r="J24" s="65"/>
     </row>
     <row r="25" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="8"/>
@@ -1673,13 +1691,13 @@
       <c r="D25" s="8"/>
       <c r="E25" s="16"/>
       <c r="F25" s="8"/>
-      <c r="G25" s="50">
+      <c r="G25" s="66">
         <f>G7+6</f>
         <v>42869</v>
       </c>
-      <c r="H25" s="51"/>
-      <c r="I25" s="56"/>
-      <c r="J25" s="57"/>
+      <c r="H25" s="67"/>
+      <c r="I25" s="68"/>
+      <c r="J25" s="69"/>
     </row>
     <row r="26" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="8"/>
@@ -1691,10 +1709,10 @@
       <c r="D26" s="8"/>
       <c r="E26" s="17"/>
       <c r="F26" s="8"/>
-      <c r="G26" s="52"/>
-      <c r="H26" s="53"/>
-      <c r="I26" s="44"/>
-      <c r="J26" s="45"/>
+      <c r="G26" s="40"/>
+      <c r="H26" s="41"/>
+      <c r="I26" s="46"/>
+      <c r="J26" s="47"/>
     </row>
     <row r="27" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="8"/>
@@ -1706,10 +1724,10 @@
       <c r="D27" s="8"/>
       <c r="E27" s="16"/>
       <c r="F27" s="8"/>
-      <c r="G27" s="54"/>
-      <c r="H27" s="55"/>
-      <c r="I27" s="58"/>
-      <c r="J27" s="59"/>
+      <c r="G27" s="42"/>
+      <c r="H27" s="43"/>
+      <c r="I27" s="48"/>
+      <c r="J27" s="49"/>
     </row>
     <row r="28" spans="1:10" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A28" s="8"/>
@@ -1736,12 +1754,12 @@
       <c r="D29" s="8"/>
       <c r="E29" s="16"/>
       <c r="F29" s="8"/>
-      <c r="G29" s="29" t="s">
+      <c r="G29" s="70" t="s">
         <v>26</v>
       </c>
-      <c r="H29" s="30"/>
-      <c r="I29" s="30"/>
-      <c r="J29" s="31"/>
+      <c r="H29" s="71"/>
+      <c r="I29" s="71"/>
+      <c r="J29" s="72"/>
     </row>
     <row r="30" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30" s="8"/>
@@ -1753,10 +1771,10 @@
       <c r="D30" s="8"/>
       <c r="E30" s="17"/>
       <c r="F30" s="8"/>
-      <c r="G30" s="32"/>
-      <c r="H30" s="33"/>
-      <c r="I30" s="33"/>
-      <c r="J30" s="34"/>
+      <c r="G30" s="73"/>
+      <c r="H30" s="74"/>
+      <c r="I30" s="74"/>
+      <c r="J30" s="75"/>
     </row>
     <row r="31" spans="1:10" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A31" s="8"/>
@@ -1768,10 +1786,10 @@
       <c r="D31" s="8"/>
       <c r="E31" s="16"/>
       <c r="F31" s="8"/>
-      <c r="G31" s="35"/>
-      <c r="H31" s="36"/>
-      <c r="I31" s="36"/>
-      <c r="J31" s="37"/>
+      <c r="G31" s="76"/>
+      <c r="H31" s="77"/>
+      <c r="I31" s="77"/>
+      <c r="J31" s="78"/>
     </row>
     <row r="32" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A32" s="8"/>
@@ -1895,6 +1913,31 @@
     </row>
   </sheetData>
   <mergeCells count="34">
+    <mergeCell ref="G29:J31"/>
+    <mergeCell ref="G22:H24"/>
+    <mergeCell ref="I22:J22"/>
+    <mergeCell ref="I23:J23"/>
+    <mergeCell ref="I24:J24"/>
+    <mergeCell ref="G25:H27"/>
+    <mergeCell ref="I25:J25"/>
+    <mergeCell ref="I26:J26"/>
+    <mergeCell ref="I27:J27"/>
+    <mergeCell ref="G16:H18"/>
+    <mergeCell ref="I16:J16"/>
+    <mergeCell ref="I17:J17"/>
+    <mergeCell ref="I18:J18"/>
+    <mergeCell ref="G19:H21"/>
+    <mergeCell ref="I19:J19"/>
+    <mergeCell ref="I20:J20"/>
+    <mergeCell ref="I21:J21"/>
+    <mergeCell ref="G10:H12"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="G13:H15"/>
+    <mergeCell ref="I13:J13"/>
+    <mergeCell ref="I14:J14"/>
+    <mergeCell ref="I15:J15"/>
     <mergeCell ref="B2:C3"/>
     <mergeCell ref="B5:B6"/>
     <mergeCell ref="E5:E6"/>
@@ -1904,31 +1947,6 @@
     <mergeCell ref="I9:J9"/>
     <mergeCell ref="G5:J5"/>
     <mergeCell ref="G6:J6"/>
-    <mergeCell ref="G10:H12"/>
-    <mergeCell ref="I10:J10"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="I12:J12"/>
-    <mergeCell ref="G13:H15"/>
-    <mergeCell ref="I13:J13"/>
-    <mergeCell ref="I14:J14"/>
-    <mergeCell ref="I15:J15"/>
-    <mergeCell ref="G16:H18"/>
-    <mergeCell ref="I16:J16"/>
-    <mergeCell ref="I17:J17"/>
-    <mergeCell ref="I18:J18"/>
-    <mergeCell ref="G19:H21"/>
-    <mergeCell ref="I19:J19"/>
-    <mergeCell ref="I20:J20"/>
-    <mergeCell ref="I21:J21"/>
-    <mergeCell ref="G29:J31"/>
-    <mergeCell ref="G22:H24"/>
-    <mergeCell ref="I22:J22"/>
-    <mergeCell ref="I23:J23"/>
-    <mergeCell ref="I24:J24"/>
-    <mergeCell ref="G25:H27"/>
-    <mergeCell ref="I25:J25"/>
-    <mergeCell ref="I26:J26"/>
-    <mergeCell ref="I27:J27"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="G29" r:id="rId1"/>
@@ -2010,10 +2028,10 @@
     </row>
     <row r="2" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.65">
       <c r="A2" s="8"/>
-      <c r="B2" s="62" t="s">
+      <c r="B2" s="37" t="s">
         <v>25</v>
       </c>
-      <c r="C2" s="62"/>
+      <c r="C2" s="37"/>
       <c r="D2" s="9"/>
       <c r="E2" s="12" t="s">
         <v>13</v>
@@ -2030,8 +2048,8 @@
     </row>
     <row r="3" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.65">
       <c r="A3" s="8"/>
-      <c r="B3" s="62"/>
-      <c r="C3" s="62"/>
+      <c r="B3" s="37"/>
+      <c r="C3" s="37"/>
       <c r="D3" s="9"/>
       <c r="E3" s="13">
         <f>'Daily Schedule SUN'!E3</f>
@@ -2064,475 +2082,475 @@
     </row>
     <row r="5" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="8"/>
-      <c r="B5" s="75" t="s">
-        <v>0</v>
-      </c>
-      <c r="C5" s="76" t="s">
+      <c r="B5" s="79" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5" s="31" t="s">
         <v>16</v>
       </c>
       <c r="D5" s="8"/>
-      <c r="E5" s="64" t="s">
+      <c r="E5" s="39" t="s">
         <v>14</v>
       </c>
       <c r="F5" s="8"/>
-      <c r="G5" s="71" t="s">
+      <c r="G5" s="80" t="s">
         <v>15</v>
       </c>
-      <c r="H5" s="72"/>
-      <c r="I5" s="71"/>
-      <c r="J5" s="71"/>
+      <c r="H5" s="81"/>
+      <c r="I5" s="80"/>
+      <c r="J5" s="80"/>
     </row>
     <row r="6" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="8"/>
-      <c r="B6" s="75"/>
-      <c r="C6" s="77">
+      <c r="B6" s="79"/>
+      <c r="C6" s="32">
         <f>E3+1</f>
         <v>42864</v>
       </c>
       <c r="D6" s="8"/>
-      <c r="E6" s="64"/>
+      <c r="E6" s="39"/>
       <c r="F6" s="8"/>
-      <c r="G6" s="71"/>
-      <c r="H6" s="71"/>
-      <c r="I6" s="71"/>
-      <c r="J6" s="71"/>
+      <c r="G6" s="80"/>
+      <c r="H6" s="80"/>
+      <c r="I6" s="80"/>
+      <c r="J6" s="80"/>
     </row>
     <row r="7" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="8"/>
-      <c r="B7" s="78">
+      <c r="B7" s="33">
         <f>G3</f>
         <v>0.29166666666666669</v>
       </c>
-      <c r="C7" s="79"/>
+      <c r="C7" s="34"/>
       <c r="D7" s="8"/>
       <c r="E7" s="16"/>
       <c r="F7" s="8"/>
-      <c r="G7" s="50">
+      <c r="G7" s="66">
         <f>E3</f>
         <v>42863</v>
       </c>
-      <c r="H7" s="51"/>
-      <c r="I7" s="56">
+      <c r="H7" s="67"/>
+      <c r="I7" s="68">
         <f>'Daily Schedule SUN'!I7:J7</f>
         <v>0</v>
       </c>
-      <c r="J7" s="57"/>
+      <c r="J7" s="69"/>
     </row>
     <row r="8" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="8"/>
-      <c r="B8" s="80">
+      <c r="B8" s="35">
         <f t="shared" ref="B8:B39" si="0">B7+TIME(0,Interval,0)</f>
         <v>0.3125</v>
       </c>
-      <c r="C8" s="73"/>
+      <c r="C8" s="29"/>
       <c r="D8" s="8"/>
       <c r="E8" s="17"/>
       <c r="F8" s="8"/>
-      <c r="G8" s="52"/>
-      <c r="H8" s="53"/>
-      <c r="I8" s="44">
+      <c r="G8" s="40"/>
+      <c r="H8" s="41"/>
+      <c r="I8" s="46">
         <f>'Daily Schedule SUN'!I8:J8</f>
         <v>0</v>
       </c>
-      <c r="J8" s="45"/>
+      <c r="J8" s="47"/>
     </row>
     <row r="9" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="8"/>
-      <c r="B9" s="78">
+      <c r="B9" s="33">
         <f t="shared" si="0"/>
         <v>0.33333333333333331</v>
       </c>
-      <c r="C9" s="74"/>
+      <c r="C9" s="30"/>
       <c r="D9" s="8"/>
       <c r="E9" s="16"/>
       <c r="F9" s="8"/>
-      <c r="G9" s="54"/>
-      <c r="H9" s="55"/>
-      <c r="I9" s="58">
+      <c r="G9" s="42"/>
+      <c r="H9" s="43"/>
+      <c r="I9" s="48">
         <f>'Daily Schedule SUN'!I9:J9</f>
         <v>0</v>
       </c>
-      <c r="J9" s="59"/>
+      <c r="J9" s="49"/>
     </row>
     <row r="10" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="8"/>
-      <c r="B10" s="80">
+      <c r="B10" s="35">
         <f t="shared" si="0"/>
         <v>0.35416666666666663</v>
       </c>
-      <c r="C10" s="73"/>
+      <c r="C10" s="29"/>
       <c r="D10" s="8"/>
       <c r="E10" s="17"/>
       <c r="F10" s="8"/>
-      <c r="G10" s="38">
+      <c r="G10" s="56">
         <f>G7+1</f>
         <v>42864</v>
       </c>
-      <c r="H10" s="39"/>
-      <c r="I10" s="60">
+      <c r="H10" s="57"/>
+      <c r="I10" s="62">
         <f>'Daily Schedule SUN'!I10:J10</f>
         <v>0</v>
       </c>
-      <c r="J10" s="61"/>
+      <c r="J10" s="63"/>
     </row>
     <row r="11" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="8"/>
-      <c r="B11" s="78">
+      <c r="B11" s="33">
         <f t="shared" si="0"/>
         <v>0.37499999999999994</v>
       </c>
-      <c r="C11" s="74"/>
+      <c r="C11" s="30"/>
       <c r="D11" s="8"/>
       <c r="E11" s="16"/>
       <c r="F11" s="8"/>
-      <c r="G11" s="40"/>
-      <c r="H11" s="41"/>
-      <c r="I11" s="46">
+      <c r="G11" s="58"/>
+      <c r="H11" s="59"/>
+      <c r="I11" s="44">
         <f>'Daily Schedule SUN'!I11:J11</f>
         <v>0</v>
       </c>
-      <c r="J11" s="47"/>
+      <c r="J11" s="45"/>
     </row>
     <row r="12" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="8"/>
-      <c r="B12" s="80">
+      <c r="B12" s="35">
         <f t="shared" si="0"/>
         <v>0.39583333333333326</v>
       </c>
-      <c r="C12" s="73"/>
+      <c r="C12" s="29"/>
       <c r="D12" s="8"/>
       <c r="E12" s="17"/>
       <c r="F12" s="8"/>
-      <c r="G12" s="42"/>
-      <c r="H12" s="43"/>
-      <c r="I12" s="48">
+      <c r="G12" s="60"/>
+      <c r="H12" s="61"/>
+      <c r="I12" s="64">
         <f>'Daily Schedule SUN'!I12:J12</f>
         <v>0</v>
       </c>
-      <c r="J12" s="49"/>
+      <c r="J12" s="65"/>
     </row>
     <row r="13" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="8"/>
-      <c r="B13" s="78">
+      <c r="B13" s="33">
         <f t="shared" si="0"/>
         <v>0.41666666666666657</v>
       </c>
-      <c r="C13" s="74"/>
+      <c r="C13" s="30"/>
       <c r="D13" s="8"/>
       <c r="E13" s="16"/>
       <c r="F13" s="8"/>
-      <c r="G13" s="50">
+      <c r="G13" s="66">
         <f>G7+2</f>
         <v>42865</v>
       </c>
-      <c r="H13" s="51"/>
-      <c r="I13" s="56">
+      <c r="H13" s="67"/>
+      <c r="I13" s="68">
         <f>'Daily Schedule SUN'!I13:J13</f>
         <v>0</v>
       </c>
-      <c r="J13" s="57"/>
+      <c r="J13" s="69"/>
     </row>
     <row r="14" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="8"/>
-      <c r="B14" s="80">
+      <c r="B14" s="35">
         <f t="shared" si="0"/>
         <v>0.43749999999999989</v>
       </c>
-      <c r="C14" s="73"/>
+      <c r="C14" s="29"/>
       <c r="D14" s="8"/>
       <c r="E14" s="17"/>
       <c r="F14" s="8"/>
-      <c r="G14" s="52"/>
-      <c r="H14" s="53"/>
-      <c r="I14" s="44">
+      <c r="G14" s="40"/>
+      <c r="H14" s="41"/>
+      <c r="I14" s="46">
         <f>'Daily Schedule SUN'!I14:J14</f>
         <v>0</v>
       </c>
-      <c r="J14" s="45"/>
+      <c r="J14" s="47"/>
     </row>
     <row r="15" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="8"/>
-      <c r="B15" s="78">
+      <c r="B15" s="33">
         <f t="shared" si="0"/>
         <v>0.4583333333333332</v>
       </c>
-      <c r="C15" s="74"/>
+      <c r="C15" s="30"/>
       <c r="D15" s="8"/>
       <c r="E15" s="16"/>
       <c r="F15" s="8"/>
-      <c r="G15" s="54"/>
-      <c r="H15" s="55"/>
-      <c r="I15" s="58">
+      <c r="G15" s="42"/>
+      <c r="H15" s="43"/>
+      <c r="I15" s="48">
         <f>'Daily Schedule SUN'!I15:J15</f>
         <v>0</v>
       </c>
-      <c r="J15" s="59"/>
+      <c r="J15" s="49"/>
     </row>
     <row r="16" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="8"/>
-      <c r="B16" s="80">
+      <c r="B16" s="35">
         <f t="shared" si="0"/>
         <v>0.47916666666666652</v>
       </c>
-      <c r="C16" s="73" t="s">
+      <c r="C16" s="29" t="s">
         <v>27</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="17"/>
       <c r="F16" s="8"/>
-      <c r="G16" s="38">
+      <c r="G16" s="56">
         <f>G7+3</f>
         <v>42866</v>
       </c>
-      <c r="H16" s="39"/>
-      <c r="I16" s="60">
+      <c r="H16" s="57"/>
+      <c r="I16" s="62">
         <f>'Daily Schedule SUN'!I16:J16</f>
         <v>0</v>
       </c>
-      <c r="J16" s="61"/>
+      <c r="J16" s="63"/>
     </row>
     <row r="17" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="8"/>
-      <c r="B17" s="78">
+      <c r="B17" s="33">
         <f t="shared" si="0"/>
         <v>0.49999999999999983</v>
       </c>
-      <c r="C17" s="74" t="s">
+      <c r="C17" s="30" t="s">
         <v>27</v>
       </c>
       <c r="D17" s="8"/>
-      <c r="E17" s="81" t="s">
+      <c r="E17" s="36" t="s">
         <v>34</v>
       </c>
       <c r="F17" s="8"/>
-      <c r="G17" s="40"/>
-      <c r="H17" s="41"/>
-      <c r="I17" s="46">
+      <c r="G17" s="58"/>
+      <c r="H17" s="59"/>
+      <c r="I17" s="44">
         <f>'Daily Schedule SUN'!I17:J17</f>
         <v>0</v>
       </c>
-      <c r="J17" s="47"/>
+      <c r="J17" s="45"/>
     </row>
     <row r="18" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="8"/>
-      <c r="B18" s="80">
+      <c r="B18" s="35">
         <f t="shared" si="0"/>
         <v>0.52083333333333315</v>
       </c>
-      <c r="C18" s="73" t="s">
+      <c r="C18" s="29" t="s">
         <v>28</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="17"/>
       <c r="F18" s="8"/>
-      <c r="G18" s="42"/>
-      <c r="H18" s="43"/>
-      <c r="I18" s="48">
+      <c r="G18" s="60"/>
+      <c r="H18" s="61"/>
+      <c r="I18" s="64">
         <f>'Daily Schedule SUN'!I18:J18</f>
         <v>0</v>
       </c>
-      <c r="J18" s="49"/>
+      <c r="J18" s="65"/>
     </row>
     <row r="19" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="8"/>
-      <c r="B19" s="78">
+      <c r="B19" s="33">
         <f t="shared" si="0"/>
         <v>0.54166666666666652</v>
       </c>
-      <c r="C19" s="74" t="s">
+      <c r="C19" s="30" t="s">
         <v>28</v>
       </c>
       <c r="D19" s="8"/>
-      <c r="E19" s="81" t="s">
+      <c r="E19" s="36" t="s">
         <v>35</v>
       </c>
       <c r="F19" s="8"/>
-      <c r="G19" s="50">
+      <c r="G19" s="66">
         <f>G7+4</f>
         <v>42867</v>
       </c>
-      <c r="H19" s="51"/>
-      <c r="I19" s="56">
+      <c r="H19" s="67"/>
+      <c r="I19" s="68">
         <f>'Daily Schedule SUN'!I19:J19</f>
         <v>0</v>
       </c>
-      <c r="J19" s="57"/>
+      <c r="J19" s="69"/>
     </row>
     <row r="20" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="8"/>
-      <c r="B20" s="80">
+      <c r="B20" s="35">
         <f t="shared" si="0"/>
         <v>0.56249999999999989</v>
       </c>
-      <c r="C20" s="73" t="s">
+      <c r="C20" s="29" t="s">
         <v>29</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="17"/>
       <c r="F20" s="8"/>
-      <c r="G20" s="52"/>
-      <c r="H20" s="53"/>
-      <c r="I20" s="44">
+      <c r="G20" s="40"/>
+      <c r="H20" s="41"/>
+      <c r="I20" s="46">
         <f>'Daily Schedule SUN'!I20:J20</f>
         <v>0</v>
       </c>
-      <c r="J20" s="45"/>
+      <c r="J20" s="47"/>
     </row>
     <row r="21" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="8"/>
-      <c r="B21" s="78">
+      <c r="B21" s="33">
         <f t="shared" si="0"/>
         <v>0.58333333333333326</v>
       </c>
-      <c r="C21" s="74" t="s">
+      <c r="C21" s="30" t="s">
         <v>30</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="16"/>
       <c r="F21" s="8"/>
-      <c r="G21" s="54"/>
-      <c r="H21" s="55"/>
-      <c r="I21" s="58">
+      <c r="G21" s="42"/>
+      <c r="H21" s="43"/>
+      <c r="I21" s="48">
         <f>'Daily Schedule SUN'!I21:J21</f>
         <v>0</v>
       </c>
-      <c r="J21" s="59"/>
+      <c r="J21" s="49"/>
     </row>
     <row r="22" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="8"/>
-      <c r="B22" s="80">
+      <c r="B22" s="35">
         <f t="shared" si="0"/>
         <v>0.60416666666666663</v>
       </c>
-      <c r="C22" s="73" t="s">
+      <c r="C22" s="29" t="s">
         <v>30</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="17"/>
       <c r="F22" s="8"/>
-      <c r="G22" s="38">
+      <c r="G22" s="56">
         <f>G7+5</f>
         <v>42868</v>
       </c>
-      <c r="H22" s="39"/>
-      <c r="I22" s="60">
+      <c r="H22" s="57"/>
+      <c r="I22" s="62">
         <f>'Daily Schedule SUN'!I22:J22</f>
         <v>0</v>
       </c>
-      <c r="J22" s="61"/>
+      <c r="J22" s="63"/>
     </row>
     <row r="23" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="8"/>
-      <c r="B23" s="78">
+      <c r="B23" s="33">
         <f t="shared" si="0"/>
         <v>0.625</v>
       </c>
-      <c r="C23" s="74" t="s">
+      <c r="C23" s="30" t="s">
         <v>31</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="16"/>
       <c r="F23" s="8"/>
-      <c r="G23" s="40"/>
-      <c r="H23" s="41"/>
-      <c r="I23" s="46">
+      <c r="G23" s="58"/>
+      <c r="H23" s="59"/>
+      <c r="I23" s="44">
         <f>'Daily Schedule SUN'!I23:J23</f>
         <v>0</v>
       </c>
-      <c r="J23" s="47"/>
+      <c r="J23" s="45"/>
     </row>
     <row r="24" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="8"/>
-      <c r="B24" s="80">
+      <c r="B24" s="35">
         <f t="shared" si="0"/>
         <v>0.64583333333333337</v>
       </c>
-      <c r="C24" s="73" t="s">
+      <c r="C24" s="29" t="s">
         <v>31</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="17"/>
       <c r="F24" s="8"/>
-      <c r="G24" s="42"/>
-      <c r="H24" s="43"/>
-      <c r="I24" s="48">
+      <c r="G24" s="60"/>
+      <c r="H24" s="61"/>
+      <c r="I24" s="64">
         <f>'Daily Schedule SUN'!I24:J24</f>
         <v>0</v>
       </c>
-      <c r="J24" s="49"/>
+      <c r="J24" s="65"/>
     </row>
     <row r="25" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="8"/>
-      <c r="B25" s="78">
+      <c r="B25" s="33">
         <f t="shared" si="0"/>
         <v>0.66666666666666674</v>
       </c>
-      <c r="C25" s="74" t="s">
+      <c r="C25" s="30" t="s">
         <v>31</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="16"/>
       <c r="F25" s="8"/>
-      <c r="G25" s="50">
+      <c r="G25" s="66">
         <f>G7+6</f>
         <v>42869</v>
       </c>
-      <c r="H25" s="51"/>
-      <c r="I25" s="56">
+      <c r="H25" s="67"/>
+      <c r="I25" s="68">
         <f>'Daily Schedule SUN'!I25:J25</f>
         <v>0</v>
       </c>
-      <c r="J25" s="57"/>
+      <c r="J25" s="69"/>
     </row>
     <row r="26" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="8"/>
-      <c r="B26" s="80">
+      <c r="B26" s="35">
         <f t="shared" si="0"/>
         <v>0.68750000000000011</v>
       </c>
-      <c r="C26" s="73" t="s">
+      <c r="C26" s="29" t="s">
         <v>31</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="17"/>
       <c r="F26" s="8"/>
-      <c r="G26" s="52"/>
-      <c r="H26" s="53"/>
-      <c r="I26" s="44">
+      <c r="G26" s="40"/>
+      <c r="H26" s="41"/>
+      <c r="I26" s="46">
         <f>'Daily Schedule SUN'!I26:J26</f>
         <v>0</v>
       </c>
-      <c r="J26" s="45"/>
+      <c r="J26" s="47"/>
     </row>
     <row r="27" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="8"/>
-      <c r="B27" s="78">
+      <c r="B27" s="33">
         <f t="shared" si="0"/>
         <v>0.70833333333333348</v>
       </c>
-      <c r="C27" s="74" t="s">
+      <c r="C27" s="30" t="s">
         <v>32</v>
       </c>
       <c r="D27" s="8"/>
-      <c r="E27" s="81" t="s">
+      <c r="E27" s="36" t="s">
         <v>36</v>
       </c>
       <c r="F27" s="8"/>
-      <c r="G27" s="54"/>
-      <c r="H27" s="55"/>
-      <c r="I27" s="58">
+      <c r="G27" s="42"/>
+      <c r="H27" s="43"/>
+      <c r="I27" s="48">
         <f>'Daily Schedule SUN'!I27:J27</f>
         <v>0</v>
       </c>
-      <c r="J27" s="59"/>
+      <c r="J27" s="49"/>
     </row>
     <row r="28" spans="1:10" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A28" s="8"/>
-      <c r="B28" s="80">
+      <c r="B28" s="35">
         <f t="shared" si="0"/>
         <v>0.72916666666666685</v>
       </c>
-      <c r="C28" s="73" t="s">
+      <c r="C28" s="29" t="s">
         <v>32</v>
       </c>
       <c r="D28" s="8"/>
@@ -2545,66 +2563,66 @@
     </row>
     <row r="29" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29" s="8"/>
-      <c r="B29" s="78">
+      <c r="B29" s="33">
         <f t="shared" si="0"/>
         <v>0.75000000000000022</v>
       </c>
-      <c r="C29" s="74" t="s">
+      <c r="C29" s="30" t="s">
         <v>33</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="16"/>
       <c r="F29" s="8"/>
-      <c r="G29" s="29" t="s">
+      <c r="G29" s="70" t="s">
         <v>26</v>
       </c>
-      <c r="H29" s="30"/>
-      <c r="I29" s="30"/>
-      <c r="J29" s="31"/>
+      <c r="H29" s="71"/>
+      <c r="I29" s="71"/>
+      <c r="J29" s="72"/>
     </row>
     <row r="30" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30" s="8"/>
-      <c r="B30" s="80">
+      <c r="B30" s="35">
         <f t="shared" si="0"/>
         <v>0.77083333333333359</v>
       </c>
-      <c r="C30" s="73" t="s">
+      <c r="C30" s="29" t="s">
         <v>33</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="17"/>
       <c r="F30" s="8"/>
-      <c r="G30" s="32"/>
-      <c r="H30" s="33"/>
-      <c r="I30" s="33"/>
-      <c r="J30" s="34"/>
+      <c r="G30" s="73"/>
+      <c r="H30" s="74"/>
+      <c r="I30" s="74"/>
+      <c r="J30" s="75"/>
     </row>
     <row r="31" spans="1:10" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A31" s="8"/>
-      <c r="B31" s="78">
+      <c r="B31" s="33">
         <f t="shared" si="0"/>
         <v>0.79166666666666696</v>
       </c>
-      <c r="C31" s="74" t="s">
+      <c r="C31" s="30" t="s">
         <v>33</v>
       </c>
       <c r="D31" s="8"/>
-      <c r="E31" s="81" t="s">
+      <c r="E31" s="36" t="s">
         <v>35</v>
       </c>
       <c r="F31" s="8"/>
-      <c r="G31" s="35"/>
-      <c r="H31" s="36"/>
-      <c r="I31" s="36"/>
-      <c r="J31" s="37"/>
+      <c r="G31" s="76"/>
+      <c r="H31" s="77"/>
+      <c r="I31" s="77"/>
+      <c r="J31" s="78"/>
     </row>
     <row r="32" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A32" s="8"/>
-      <c r="B32" s="80">
+      <c r="B32" s="35">
         <f t="shared" si="0"/>
         <v>0.81250000000000033</v>
       </c>
-      <c r="C32" s="73"/>
+      <c r="C32" s="29"/>
       <c r="D32" s="8"/>
       <c r="E32" s="17"/>
       <c r="F32" s="8"/>
@@ -2615,11 +2633,11 @@
     </row>
     <row r="33" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A33" s="8"/>
-      <c r="B33" s="78">
+      <c r="B33" s="33">
         <f t="shared" si="0"/>
         <v>0.8333333333333337</v>
       </c>
-      <c r="C33" s="74"/>
+      <c r="C33" s="30"/>
       <c r="D33" s="8"/>
       <c r="E33" s="16"/>
       <c r="F33" s="8"/>
@@ -2630,11 +2648,11 @@
     </row>
     <row r="34" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A34" s="8"/>
-      <c r="B34" s="80">
+      <c r="B34" s="35">
         <f t="shared" si="0"/>
         <v>0.85416666666666707</v>
       </c>
-      <c r="C34" s="73"/>
+      <c r="C34" s="29"/>
       <c r="D34" s="8"/>
       <c r="E34" s="17"/>
       <c r="F34" s="8"/>
@@ -2645,11 +2663,11 @@
     </row>
     <row r="35" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A35" s="8"/>
-      <c r="B35" s="78">
+      <c r="B35" s="33">
         <f t="shared" si="0"/>
         <v>0.87500000000000044</v>
       </c>
-      <c r="C35" s="74"/>
+      <c r="C35" s="30"/>
       <c r="D35" s="8"/>
       <c r="E35" s="16"/>
       <c r="F35" s="8"/>
@@ -2660,11 +2678,11 @@
     </row>
     <row r="36" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A36" s="8"/>
-      <c r="B36" s="80">
+      <c r="B36" s="35">
         <f t="shared" si="0"/>
         <v>0.89583333333333381</v>
       </c>
-      <c r="C36" s="73"/>
+      <c r="C36" s="29"/>
       <c r="D36" s="8"/>
       <c r="E36" s="17"/>
       <c r="F36" s="8"/>
@@ -2675,11 +2693,11 @@
     </row>
     <row r="37" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A37" s="8"/>
-      <c r="B37" s="78">
+      <c r="B37" s="33">
         <f t="shared" si="0"/>
         <v>0.91666666666666718</v>
       </c>
-      <c r="C37" s="74"/>
+      <c r="C37" s="30"/>
       <c r="D37" s="8"/>
       <c r="E37" s="16"/>
       <c r="F37" s="8"/>
@@ -2690,11 +2708,11 @@
     </row>
     <row r="38" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A38" s="8"/>
-      <c r="B38" s="80">
+      <c r="B38" s="35">
         <f t="shared" si="0"/>
         <v>0.93750000000000056</v>
       </c>
-      <c r="C38" s="73"/>
+      <c r="C38" s="29"/>
       <c r="D38" s="8"/>
       <c r="E38" s="17"/>
       <c r="F38" s="8"/>
@@ -2705,11 +2723,11 @@
     </row>
     <row r="39" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A39" s="8"/>
-      <c r="B39" s="78">
+      <c r="B39" s="33">
         <f t="shared" si="0"/>
         <v>0.95833333333333393</v>
       </c>
-      <c r="C39" s="74"/>
+      <c r="C39" s="30"/>
       <c r="D39" s="8"/>
       <c r="E39" s="16"/>
       <c r="F39" s="8"/>
@@ -2720,23 +2738,6 @@
     </row>
   </sheetData>
   <mergeCells count="33">
-    <mergeCell ref="I15:J15"/>
-    <mergeCell ref="I10:J10"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="I12:J12"/>
-    <mergeCell ref="I13:J13"/>
-    <mergeCell ref="I14:J14"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="I7:J7"/>
-    <mergeCell ref="I8:J8"/>
-    <mergeCell ref="I9:J9"/>
-    <mergeCell ref="I25:J25"/>
-    <mergeCell ref="I16:J16"/>
-    <mergeCell ref="I17:J17"/>
-    <mergeCell ref="I18:J18"/>
-    <mergeCell ref="I19:J19"/>
-    <mergeCell ref="I20:J20"/>
     <mergeCell ref="G29:J31"/>
     <mergeCell ref="I26:J26"/>
     <mergeCell ref="I27:J27"/>
@@ -2753,6 +2754,23 @@
     <mergeCell ref="I22:J22"/>
     <mergeCell ref="I23:J23"/>
     <mergeCell ref="I24:J24"/>
+    <mergeCell ref="I25:J25"/>
+    <mergeCell ref="I16:J16"/>
+    <mergeCell ref="I17:J17"/>
+    <mergeCell ref="I18:J18"/>
+    <mergeCell ref="I19:J19"/>
+    <mergeCell ref="I20:J20"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="I8:J8"/>
+    <mergeCell ref="I9:J9"/>
+    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="I13:J13"/>
+    <mergeCell ref="I14:J14"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="G29" r:id="rId1"/>
@@ -2801,8 +2819,8 @@
   </sheetPr>
   <dimension ref="A1:J39"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A22" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="80" workbookViewId="0">
-      <selection activeCell="C31" sqref="C31"/>
+    <sheetView showGridLines="0" topLeftCell="A17" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="80" workbookViewId="0">
+      <selection activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.69140625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -2834,10 +2852,10 @@
     </row>
     <row r="2" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.65">
       <c r="A2" s="8"/>
-      <c r="B2" s="62" t="s">
+      <c r="B2" s="37" t="s">
         <v>25</v>
       </c>
-      <c r="C2" s="62"/>
+      <c r="C2" s="37"/>
       <c r="D2" s="9"/>
       <c r="E2" s="12" t="s">
         <v>13</v>
@@ -2854,8 +2872,8 @@
     </row>
     <row r="3" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.65">
       <c r="A3" s="8"/>
-      <c r="B3" s="62"/>
-      <c r="C3" s="62"/>
+      <c r="B3" s="37"/>
+      <c r="C3" s="37"/>
       <c r="D3" s="9"/>
       <c r="E3" s="13">
         <f>'Daily Schedule SUN'!E3</f>
@@ -2888,38 +2906,38 @@
     </row>
     <row r="5" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="8"/>
-      <c r="B5" s="63" t="s">
+      <c r="B5" s="38" t="s">
         <v>0</v>
       </c>
       <c r="C5" s="23" t="s">
         <v>18</v>
       </c>
       <c r="D5" s="8"/>
-      <c r="E5" s="64" t="s">
+      <c r="E5" s="39" t="s">
         <v>14</v>
       </c>
       <c r="F5" s="8"/>
-      <c r="G5" s="71" t="s">
+      <c r="G5" s="80" t="s">
         <v>15</v>
       </c>
-      <c r="H5" s="72"/>
-      <c r="I5" s="71"/>
-      <c r="J5" s="71"/>
+      <c r="H5" s="81"/>
+      <c r="I5" s="80"/>
+      <c r="J5" s="80"/>
     </row>
     <row r="6" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="8"/>
-      <c r="B6" s="63"/>
+      <c r="B6" s="38"/>
       <c r="C6" s="24">
         <f>E3+2</f>
         <v>42865</v>
       </c>
       <c r="D6" s="8"/>
-      <c r="E6" s="64"/>
+      <c r="E6" s="39"/>
       <c r="F6" s="8"/>
-      <c r="G6" s="71"/>
-      <c r="H6" s="71"/>
-      <c r="I6" s="71"/>
-      <c r="J6" s="71"/>
+      <c r="G6" s="80"/>
+      <c r="H6" s="80"/>
+      <c r="I6" s="80"/>
+      <c r="J6" s="80"/>
     </row>
     <row r="7" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="8"/>
@@ -2931,16 +2949,16 @@
       <c r="D7" s="8"/>
       <c r="E7" s="16"/>
       <c r="F7" s="8"/>
-      <c r="G7" s="50">
+      <c r="G7" s="66">
         <f>E3</f>
         <v>42863</v>
       </c>
-      <c r="H7" s="51"/>
-      <c r="I7" s="56">
+      <c r="H7" s="67"/>
+      <c r="I7" s="68">
         <f>'Daily Schedule SUN'!I7:J7</f>
         <v>0</v>
       </c>
-      <c r="J7" s="57"/>
+      <c r="J7" s="69"/>
     </row>
     <row r="8" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="8"/>
@@ -2952,13 +2970,13 @@
       <c r="D8" s="8"/>
       <c r="E8" s="17"/>
       <c r="F8" s="8"/>
-      <c r="G8" s="52"/>
-      <c r="H8" s="53"/>
-      <c r="I8" s="44">
+      <c r="G8" s="40"/>
+      <c r="H8" s="41"/>
+      <c r="I8" s="46">
         <f>'Daily Schedule SUN'!I8:J8</f>
         <v>0</v>
       </c>
-      <c r="J8" s="45"/>
+      <c r="J8" s="47"/>
     </row>
     <row r="9" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="8"/>
@@ -2970,13 +2988,13 @@
       <c r="D9" s="8"/>
       <c r="E9" s="16"/>
       <c r="F9" s="8"/>
-      <c r="G9" s="54"/>
-      <c r="H9" s="55"/>
-      <c r="I9" s="58">
+      <c r="G9" s="42"/>
+      <c r="H9" s="43"/>
+      <c r="I9" s="48">
         <f>'Daily Schedule SUN'!I9:J9</f>
         <v>0</v>
       </c>
-      <c r="J9" s="59"/>
+      <c r="J9" s="49"/>
     </row>
     <row r="10" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="8"/>
@@ -2988,16 +3006,16 @@
       <c r="D10" s="8"/>
       <c r="E10" s="17"/>
       <c r="F10" s="8"/>
-      <c r="G10" s="38">
+      <c r="G10" s="56">
         <f>G7+1</f>
         <v>42864</v>
       </c>
-      <c r="H10" s="39"/>
-      <c r="I10" s="60">
+      <c r="H10" s="57"/>
+      <c r="I10" s="62">
         <f>'Daily Schedule SUN'!I10:J10</f>
         <v>0</v>
       </c>
-      <c r="J10" s="61"/>
+      <c r="J10" s="63"/>
     </row>
     <row r="11" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="8"/>
@@ -3009,13 +3027,13 @@
       <c r="D11" s="8"/>
       <c r="E11" s="16"/>
       <c r="F11" s="8"/>
-      <c r="G11" s="40"/>
-      <c r="H11" s="41"/>
-      <c r="I11" s="46">
+      <c r="G11" s="58"/>
+      <c r="H11" s="59"/>
+      <c r="I11" s="44">
         <f>'Daily Schedule SUN'!I11:J11</f>
         <v>0</v>
       </c>
-      <c r="J11" s="47"/>
+      <c r="J11" s="45"/>
     </row>
     <row r="12" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="8"/>
@@ -3027,13 +3045,13 @@
       <c r="D12" s="8"/>
       <c r="E12" s="17"/>
       <c r="F12" s="8"/>
-      <c r="G12" s="42"/>
-      <c r="H12" s="43"/>
-      <c r="I12" s="48">
+      <c r="G12" s="60"/>
+      <c r="H12" s="61"/>
+      <c r="I12" s="64">
         <f>'Daily Schedule SUN'!I12:J12</f>
         <v>0</v>
       </c>
-      <c r="J12" s="49"/>
+      <c r="J12" s="65"/>
     </row>
     <row r="13" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="8"/>
@@ -3045,16 +3063,16 @@
       <c r="D13" s="8"/>
       <c r="E13" s="16"/>
       <c r="F13" s="8"/>
-      <c r="G13" s="50">
+      <c r="G13" s="66">
         <f>G7+2</f>
         <v>42865</v>
       </c>
-      <c r="H13" s="51"/>
-      <c r="I13" s="56">
+      <c r="H13" s="67"/>
+      <c r="I13" s="68">
         <f>'Daily Schedule SUN'!I13:J13</f>
         <v>0</v>
       </c>
-      <c r="J13" s="57"/>
+      <c r="J13" s="69"/>
     </row>
     <row r="14" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="8"/>
@@ -3066,13 +3084,13 @@
       <c r="D14" s="8"/>
       <c r="E14" s="17"/>
       <c r="F14" s="8"/>
-      <c r="G14" s="52"/>
-      <c r="H14" s="53"/>
-      <c r="I14" s="44">
+      <c r="G14" s="40"/>
+      <c r="H14" s="41"/>
+      <c r="I14" s="46">
         <f>'Daily Schedule SUN'!I14:J14</f>
         <v>0</v>
       </c>
-      <c r="J14" s="45"/>
+      <c r="J14" s="47"/>
     </row>
     <row r="15" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="8"/>
@@ -3080,19 +3098,19 @@
         <f t="shared" si="0"/>
         <v>0.4583333333333332</v>
       </c>
-      <c r="C15" s="74" t="s">
+      <c r="C15" s="30" t="s">
         <v>37</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="16"/>
       <c r="F15" s="8"/>
-      <c r="G15" s="54"/>
-      <c r="H15" s="55"/>
-      <c r="I15" s="58">
+      <c r="G15" s="42"/>
+      <c r="H15" s="43"/>
+      <c r="I15" s="48">
         <f>'Daily Schedule SUN'!I15:J15</f>
         <v>0</v>
       </c>
-      <c r="J15" s="59"/>
+      <c r="J15" s="49"/>
     </row>
     <row r="16" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="8"/>
@@ -3100,22 +3118,22 @@
         <f t="shared" si="0"/>
         <v>0.47916666666666652</v>
       </c>
-      <c r="C16" s="73" t="s">
+      <c r="C16" s="29" t="s">
         <v>37</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="17"/>
       <c r="F16" s="8"/>
-      <c r="G16" s="38">
+      <c r="G16" s="56">
         <f>G7+3</f>
         <v>42866</v>
       </c>
-      <c r="H16" s="39"/>
-      <c r="I16" s="60">
+      <c r="H16" s="57"/>
+      <c r="I16" s="62">
         <f>'Daily Schedule SUN'!I16:J16</f>
         <v>0</v>
       </c>
-      <c r="J16" s="61"/>
+      <c r="J16" s="63"/>
     </row>
     <row r="17" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="8"/>
@@ -3123,19 +3141,19 @@
         <f t="shared" si="0"/>
         <v>0.49999999999999983</v>
       </c>
-      <c r="C17" s="74" t="s">
+      <c r="C17" s="30" t="s">
         <v>38</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="16"/>
       <c r="F17" s="8"/>
-      <c r="G17" s="40"/>
-      <c r="H17" s="41"/>
-      <c r="I17" s="46">
+      <c r="G17" s="58"/>
+      <c r="H17" s="59"/>
+      <c r="I17" s="44">
         <f>'Daily Schedule SUN'!I17:J17</f>
         <v>0</v>
       </c>
-      <c r="J17" s="47"/>
+      <c r="J17" s="45"/>
     </row>
     <row r="18" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="8"/>
@@ -3143,19 +3161,19 @@
         <f t="shared" si="0"/>
         <v>0.52083333333333315</v>
       </c>
-      <c r="C18" s="73" t="s">
+      <c r="C18" s="29" t="s">
         <v>38</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="17"/>
       <c r="F18" s="8"/>
-      <c r="G18" s="42"/>
-      <c r="H18" s="43"/>
-      <c r="I18" s="48">
+      <c r="G18" s="60"/>
+      <c r="H18" s="61"/>
+      <c r="I18" s="64">
         <f>'Daily Schedule SUN'!I18:J18</f>
         <v>0</v>
       </c>
-      <c r="J18" s="49"/>
+      <c r="J18" s="65"/>
     </row>
     <row r="19" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="8"/>
@@ -3163,22 +3181,22 @@
         <f t="shared" si="0"/>
         <v>0.54166666666666652</v>
       </c>
-      <c r="C19" s="74" t="s">
+      <c r="C19" s="30" t="s">
         <v>39</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="16"/>
       <c r="F19" s="8"/>
-      <c r="G19" s="50">
+      <c r="G19" s="66">
         <f>G7+4</f>
         <v>42867</v>
       </c>
-      <c r="H19" s="51"/>
-      <c r="I19" s="56">
+      <c r="H19" s="67"/>
+      <c r="I19" s="68">
         <f>'Daily Schedule SUN'!I19:J19</f>
         <v>0</v>
       </c>
-      <c r="J19" s="57"/>
+      <c r="J19" s="69"/>
     </row>
     <row r="20" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="8"/>
@@ -3186,19 +3204,19 @@
         <f t="shared" si="0"/>
         <v>0.56249999999999989</v>
       </c>
-      <c r="C20" s="73" t="s">
+      <c r="C20" s="29" t="s">
         <v>39</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="17"/>
       <c r="F20" s="8"/>
-      <c r="G20" s="52"/>
-      <c r="H20" s="53"/>
-      <c r="I20" s="44">
+      <c r="G20" s="40"/>
+      <c r="H20" s="41"/>
+      <c r="I20" s="46">
         <f>'Daily Schedule SUN'!I20:J20</f>
         <v>0</v>
       </c>
-      <c r="J20" s="45"/>
+      <c r="J20" s="47"/>
     </row>
     <row r="21" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="8"/>
@@ -3206,19 +3224,19 @@
         <f t="shared" si="0"/>
         <v>0.58333333333333326</v>
       </c>
-      <c r="C21" s="74" t="s">
+      <c r="C21" s="30" t="s">
         <v>40</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="16"/>
       <c r="F21" s="8"/>
-      <c r="G21" s="54"/>
-      <c r="H21" s="55"/>
-      <c r="I21" s="58">
+      <c r="G21" s="42"/>
+      <c r="H21" s="43"/>
+      <c r="I21" s="48">
         <f>'Daily Schedule SUN'!I21:J21</f>
         <v>0</v>
       </c>
-      <c r="J21" s="59"/>
+      <c r="J21" s="49"/>
     </row>
     <row r="22" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="8"/>
@@ -3226,22 +3244,22 @@
         <f t="shared" si="0"/>
         <v>0.60416666666666663</v>
       </c>
-      <c r="C22" s="73" t="s">
+      <c r="C22" s="29" t="s">
         <v>40</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="17"/>
       <c r="F22" s="8"/>
-      <c r="G22" s="38">
+      <c r="G22" s="56">
         <f>G7+5</f>
         <v>42868</v>
       </c>
-      <c r="H22" s="39"/>
-      <c r="I22" s="60">
+      <c r="H22" s="57"/>
+      <c r="I22" s="62">
         <f>'Daily Schedule SUN'!I22:J22</f>
         <v>0</v>
       </c>
-      <c r="J22" s="61"/>
+      <c r="J22" s="63"/>
     </row>
     <row r="23" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="8"/>
@@ -3249,19 +3267,21 @@
         <f t="shared" si="0"/>
         <v>0.625</v>
       </c>
-      <c r="C23" s="74" t="s">
+      <c r="C23" s="30" t="s">
         <v>40</v>
       </c>
       <c r="D23" s="8"/>
-      <c r="E23" s="16"/>
+      <c r="E23" s="16" t="s">
+        <v>41</v>
+      </c>
       <c r="F23" s="8"/>
-      <c r="G23" s="40"/>
-      <c r="H23" s="41"/>
-      <c r="I23" s="46">
+      <c r="G23" s="58"/>
+      <c r="H23" s="59"/>
+      <c r="I23" s="44">
         <f>'Daily Schedule SUN'!I23:J23</f>
         <v>0</v>
       </c>
-      <c r="J23" s="47"/>
+      <c r="J23" s="45"/>
     </row>
     <row r="24" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="8"/>
@@ -3269,19 +3289,19 @@
         <f t="shared" si="0"/>
         <v>0.64583333333333337</v>
       </c>
-      <c r="C24" s="73" t="s">
+      <c r="C24" s="29" t="s">
         <v>37</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="17"/>
       <c r="F24" s="8"/>
-      <c r="G24" s="42"/>
-      <c r="H24" s="43"/>
-      <c r="I24" s="48">
+      <c r="G24" s="60"/>
+      <c r="H24" s="61"/>
+      <c r="I24" s="64">
         <f>'Daily Schedule SUN'!I24:J24</f>
         <v>0</v>
       </c>
-      <c r="J24" s="49"/>
+      <c r="J24" s="65"/>
     </row>
     <row r="25" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="8"/>
@@ -3289,22 +3309,22 @@
         <f t="shared" si="0"/>
         <v>0.66666666666666674</v>
       </c>
-      <c r="C25" s="74" t="s">
+      <c r="C25" s="30" t="s">
         <v>37</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="16"/>
       <c r="F25" s="8"/>
-      <c r="G25" s="50">
+      <c r="G25" s="66">
         <f>G7+6</f>
         <v>42869</v>
       </c>
-      <c r="H25" s="51"/>
-      <c r="I25" s="56">
+      <c r="H25" s="67"/>
+      <c r="I25" s="68">
         <f>'Daily Schedule SUN'!I25:J25</f>
         <v>0</v>
       </c>
-      <c r="J25" s="57"/>
+      <c r="J25" s="69"/>
     </row>
     <row r="26" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="8"/>
@@ -3312,19 +3332,19 @@
         <f t="shared" si="0"/>
         <v>0.68750000000000011</v>
       </c>
-      <c r="C26" s="73" t="s">
+      <c r="C26" s="29" t="s">
         <v>37</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="17"/>
       <c r="F26" s="8"/>
-      <c r="G26" s="52"/>
-      <c r="H26" s="53"/>
-      <c r="I26" s="44">
+      <c r="G26" s="40"/>
+      <c r="H26" s="41"/>
+      <c r="I26" s="46">
         <f>'Daily Schedule SUN'!I26:J26</f>
         <v>0</v>
       </c>
-      <c r="J26" s="45"/>
+      <c r="J26" s="47"/>
     </row>
     <row r="27" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="8"/>
@@ -3332,19 +3352,19 @@
         <f t="shared" si="0"/>
         <v>0.70833333333333348</v>
       </c>
-      <c r="C27" s="74" t="s">
+      <c r="C27" s="30" t="s">
         <v>37</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="16"/>
       <c r="F27" s="8"/>
-      <c r="G27" s="54"/>
-      <c r="H27" s="55"/>
-      <c r="I27" s="58">
+      <c r="G27" s="42"/>
+      <c r="H27" s="43"/>
+      <c r="I27" s="48">
         <f>'Daily Schedule SUN'!I27:J27</f>
         <v>0</v>
       </c>
-      <c r="J27" s="59"/>
+      <c r="J27" s="49"/>
     </row>
     <row r="28" spans="1:10" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A28" s="8"/>
@@ -3352,7 +3372,7 @@
         <f t="shared" si="0"/>
         <v>0.72916666666666685</v>
       </c>
-      <c r="C28" s="73" t="s">
+      <c r="C28" s="29" t="s">
         <v>37</v>
       </c>
       <c r="D28" s="8"/>
@@ -3369,18 +3389,20 @@
         <f t="shared" si="0"/>
         <v>0.75000000000000022</v>
       </c>
-      <c r="C29" s="74" t="s">
+      <c r="C29" s="30" t="s">
         <v>37</v>
       </c>
       <c r="D29" s="8"/>
-      <c r="E29" s="16"/>
+      <c r="E29" s="16" t="s">
+        <v>42</v>
+      </c>
       <c r="F29" s="8"/>
-      <c r="G29" s="29" t="s">
+      <c r="G29" s="70" t="s">
         <v>26</v>
       </c>
-      <c r="H29" s="30"/>
-      <c r="I29" s="30"/>
-      <c r="J29" s="31"/>
+      <c r="H29" s="71"/>
+      <c r="I29" s="71"/>
+      <c r="J29" s="72"/>
     </row>
     <row r="30" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30" s="8"/>
@@ -3388,16 +3410,18 @@
         <f t="shared" si="0"/>
         <v>0.77083333333333359</v>
       </c>
-      <c r="C30" s="73" t="s">
+      <c r="C30" s="29" t="s">
         <v>37</v>
       </c>
       <c r="D30" s="8"/>
-      <c r="E30" s="17"/>
+      <c r="E30" s="17" t="s">
+        <v>43</v>
+      </c>
       <c r="F30" s="8"/>
-      <c r="G30" s="32"/>
-      <c r="H30" s="33"/>
-      <c r="I30" s="33"/>
-      <c r="J30" s="34"/>
+      <c r="G30" s="73"/>
+      <c r="H30" s="74"/>
+      <c r="I30" s="74"/>
+      <c r="J30" s="75"/>
     </row>
     <row r="31" spans="1:10" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A31" s="8"/>
@@ -3405,14 +3429,14 @@
         <f t="shared" si="0"/>
         <v>0.79166666666666696</v>
       </c>
-      <c r="C31" s="74"/>
+      <c r="C31" s="30"/>
       <c r="D31" s="8"/>
       <c r="E31" s="16"/>
       <c r="F31" s="8"/>
-      <c r="G31" s="35"/>
-      <c r="H31" s="36"/>
-      <c r="I31" s="36"/>
-      <c r="J31" s="37"/>
+      <c r="G31" s="76"/>
+      <c r="H31" s="77"/>
+      <c r="I31" s="77"/>
+      <c r="J31" s="78"/>
     </row>
     <row r="32" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A32" s="8"/>
@@ -3536,30 +3560,6 @@
     </row>
   </sheetData>
   <mergeCells count="33">
-    <mergeCell ref="B2:C3"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="G5:J6"/>
-    <mergeCell ref="G7:H9"/>
-    <mergeCell ref="I7:J7"/>
-    <mergeCell ref="I8:J8"/>
-    <mergeCell ref="I9:J9"/>
-    <mergeCell ref="G10:H12"/>
-    <mergeCell ref="I10:J10"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="I12:J12"/>
-    <mergeCell ref="G13:H15"/>
-    <mergeCell ref="I13:J13"/>
-    <mergeCell ref="I14:J14"/>
-    <mergeCell ref="I15:J15"/>
-    <mergeCell ref="G16:H18"/>
-    <mergeCell ref="I16:J16"/>
-    <mergeCell ref="I17:J17"/>
-    <mergeCell ref="I18:J18"/>
-    <mergeCell ref="G19:H21"/>
-    <mergeCell ref="I19:J19"/>
-    <mergeCell ref="I20:J20"/>
-    <mergeCell ref="I21:J21"/>
     <mergeCell ref="G29:J31"/>
     <mergeCell ref="G22:H24"/>
     <mergeCell ref="I22:J22"/>
@@ -3569,6 +3569,30 @@
     <mergeCell ref="I25:J25"/>
     <mergeCell ref="I26:J26"/>
     <mergeCell ref="I27:J27"/>
+    <mergeCell ref="G16:H18"/>
+    <mergeCell ref="I16:J16"/>
+    <mergeCell ref="I17:J17"/>
+    <mergeCell ref="I18:J18"/>
+    <mergeCell ref="G19:H21"/>
+    <mergeCell ref="I19:J19"/>
+    <mergeCell ref="I20:J20"/>
+    <mergeCell ref="I21:J21"/>
+    <mergeCell ref="G10:H12"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="G13:H15"/>
+    <mergeCell ref="I13:J13"/>
+    <mergeCell ref="I14:J14"/>
+    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="B2:C3"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="G5:J6"/>
+    <mergeCell ref="G7:H9"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="I8:J8"/>
+    <mergeCell ref="I9:J9"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="G29" r:id="rId1"/>
@@ -3617,8 +3641,8 @@
   </sheetPr>
   <dimension ref="A1:J39"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="80" workbookViewId="0">
-      <selection activeCell="G29" sqref="G29:J31"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A16" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="80" workbookViewId="0">
+      <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.69140625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -3650,10 +3674,10 @@
     </row>
     <row r="2" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.65">
       <c r="A2" s="8"/>
-      <c r="B2" s="62" t="s">
+      <c r="B2" s="37" t="s">
         <v>25</v>
       </c>
-      <c r="C2" s="62"/>
+      <c r="C2" s="37"/>
       <c r="D2" s="9"/>
       <c r="E2" s="12" t="s">
         <v>13</v>
@@ -3670,8 +3694,8 @@
     </row>
     <row r="3" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.65">
       <c r="A3" s="8"/>
-      <c r="B3" s="62"/>
-      <c r="C3" s="62"/>
+      <c r="B3" s="37"/>
+      <c r="C3" s="37"/>
       <c r="D3" s="9"/>
       <c r="E3" s="13">
         <f>'Daily Schedule SUN'!E3</f>
@@ -3704,38 +3728,38 @@
     </row>
     <row r="5" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="8"/>
-      <c r="B5" s="63" t="s">
+      <c r="B5" s="38" t="s">
         <v>0</v>
       </c>
       <c r="C5" s="23" t="s">
         <v>19</v>
       </c>
       <c r="D5" s="8"/>
-      <c r="E5" s="64" t="s">
+      <c r="E5" s="39" t="s">
         <v>14</v>
       </c>
       <c r="F5" s="8"/>
-      <c r="G5" s="71" t="s">
+      <c r="G5" s="80" t="s">
         <v>15</v>
       </c>
-      <c r="H5" s="72"/>
-      <c r="I5" s="71"/>
-      <c r="J5" s="71"/>
+      <c r="H5" s="81"/>
+      <c r="I5" s="80"/>
+      <c r="J5" s="80"/>
     </row>
     <row r="6" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="8"/>
-      <c r="B6" s="63"/>
+      <c r="B6" s="38"/>
       <c r="C6" s="24">
         <f>E3+3</f>
         <v>42866</v>
       </c>
       <c r="D6" s="8"/>
-      <c r="E6" s="64"/>
+      <c r="E6" s="39"/>
       <c r="F6" s="8"/>
-      <c r="G6" s="71"/>
-      <c r="H6" s="71"/>
-      <c r="I6" s="71"/>
-      <c r="J6" s="71"/>
+      <c r="G6" s="80"/>
+      <c r="H6" s="80"/>
+      <c r="I6" s="80"/>
+      <c r="J6" s="80"/>
     </row>
     <row r="7" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="8"/>
@@ -3747,16 +3771,16 @@
       <c r="D7" s="8"/>
       <c r="E7" s="16"/>
       <c r="F7" s="8"/>
-      <c r="G7" s="50">
+      <c r="G7" s="66">
         <f>E3</f>
         <v>42863</v>
       </c>
-      <c r="H7" s="51"/>
-      <c r="I7" s="56">
+      <c r="H7" s="67"/>
+      <c r="I7" s="68">
         <f>'Daily Schedule SUN'!I7:J7</f>
         <v>0</v>
       </c>
-      <c r="J7" s="57"/>
+      <c r="J7" s="69"/>
     </row>
     <row r="8" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="8"/>
@@ -3768,13 +3792,13 @@
       <c r="D8" s="8"/>
       <c r="E8" s="17"/>
       <c r="F8" s="8"/>
-      <c r="G8" s="52"/>
-      <c r="H8" s="53"/>
-      <c r="I8" s="44">
+      <c r="G8" s="40"/>
+      <c r="H8" s="41"/>
+      <c r="I8" s="46">
         <f>'Daily Schedule SUN'!I8:J8</f>
         <v>0</v>
       </c>
-      <c r="J8" s="45"/>
+      <c r="J8" s="47"/>
     </row>
     <row r="9" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="8"/>
@@ -3786,13 +3810,13 @@
       <c r="D9" s="8"/>
       <c r="E9" s="16"/>
       <c r="F9" s="8"/>
-      <c r="G9" s="54"/>
-      <c r="H9" s="55"/>
-      <c r="I9" s="58">
+      <c r="G9" s="42"/>
+      <c r="H9" s="43"/>
+      <c r="I9" s="48">
         <f>'Daily Schedule SUN'!I9:J9</f>
         <v>0</v>
       </c>
-      <c r="J9" s="59"/>
+      <c r="J9" s="49"/>
     </row>
     <row r="10" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="8"/>
@@ -3804,16 +3828,16 @@
       <c r="D10" s="8"/>
       <c r="E10" s="17"/>
       <c r="F10" s="8"/>
-      <c r="G10" s="38">
+      <c r="G10" s="56">
         <f>G7+1</f>
         <v>42864</v>
       </c>
-      <c r="H10" s="39"/>
-      <c r="I10" s="60">
+      <c r="H10" s="57"/>
+      <c r="I10" s="62">
         <f>'Daily Schedule SUN'!I10:J10</f>
         <v>0</v>
       </c>
-      <c r="J10" s="61"/>
+      <c r="J10" s="63"/>
     </row>
     <row r="11" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="8"/>
@@ -3825,13 +3849,13 @@
       <c r="D11" s="8"/>
       <c r="E11" s="16"/>
       <c r="F11" s="8"/>
-      <c r="G11" s="40"/>
-      <c r="H11" s="41"/>
-      <c r="I11" s="46">
+      <c r="G11" s="58"/>
+      <c r="H11" s="59"/>
+      <c r="I11" s="44">
         <f>'Daily Schedule SUN'!I11:J11</f>
         <v>0</v>
       </c>
-      <c r="J11" s="47"/>
+      <c r="J11" s="45"/>
     </row>
     <row r="12" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="8"/>
@@ -3843,13 +3867,13 @@
       <c r="D12" s="8"/>
       <c r="E12" s="17"/>
       <c r="F12" s="8"/>
-      <c r="G12" s="42"/>
-      <c r="H12" s="43"/>
-      <c r="I12" s="48">
+      <c r="G12" s="60"/>
+      <c r="H12" s="61"/>
+      <c r="I12" s="64">
         <f>'Daily Schedule SUN'!I12:J12</f>
         <v>0</v>
       </c>
-      <c r="J12" s="49"/>
+      <c r="J12" s="65"/>
     </row>
     <row r="13" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="8"/>
@@ -3861,16 +3885,16 @@
       <c r="D13" s="8"/>
       <c r="E13" s="16"/>
       <c r="F13" s="8"/>
-      <c r="G13" s="50">
+      <c r="G13" s="66">
         <f>G7+2</f>
         <v>42865</v>
       </c>
-      <c r="H13" s="51"/>
-      <c r="I13" s="56">
+      <c r="H13" s="67"/>
+      <c r="I13" s="68">
         <f>'Daily Schedule SUN'!I13:J13</f>
         <v>0</v>
       </c>
-      <c r="J13" s="57"/>
+      <c r="J13" s="69"/>
     </row>
     <row r="14" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="8"/>
@@ -3878,17 +3902,19 @@
         <f t="shared" si="0"/>
         <v>0.43749999999999989</v>
       </c>
-      <c r="C14" s="21"/>
+      <c r="C14" s="21" t="s">
+        <v>44</v>
+      </c>
       <c r="D14" s="8"/>
       <c r="E14" s="17"/>
       <c r="F14" s="8"/>
-      <c r="G14" s="52"/>
-      <c r="H14" s="53"/>
-      <c r="I14" s="44">
+      <c r="G14" s="40"/>
+      <c r="H14" s="41"/>
+      <c r="I14" s="46">
         <f>'Daily Schedule SUN'!I14:J14</f>
         <v>0</v>
       </c>
-      <c r="J14" s="45"/>
+      <c r="J14" s="47"/>
     </row>
     <row r="15" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="8"/>
@@ -3896,17 +3922,19 @@
         <f t="shared" si="0"/>
         <v>0.4583333333333332</v>
       </c>
-      <c r="C15" s="20"/>
+      <c r="C15" s="20" t="s">
+        <v>44</v>
+      </c>
       <c r="D15" s="8"/>
       <c r="E15" s="16"/>
       <c r="F15" s="8"/>
-      <c r="G15" s="54"/>
-      <c r="H15" s="55"/>
-      <c r="I15" s="58">
+      <c r="G15" s="42"/>
+      <c r="H15" s="43"/>
+      <c r="I15" s="48">
         <f>'Daily Schedule SUN'!I15:J15</f>
         <v>0</v>
       </c>
-      <c r="J15" s="59"/>
+      <c r="J15" s="49"/>
     </row>
     <row r="16" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="8"/>
@@ -3914,20 +3942,22 @@
         <f t="shared" si="0"/>
         <v>0.47916666666666652</v>
       </c>
-      <c r="C16" s="21"/>
+      <c r="C16" s="21" t="s">
+        <v>44</v>
+      </c>
       <c r="D16" s="8"/>
       <c r="E16" s="17"/>
       <c r="F16" s="8"/>
-      <c r="G16" s="38">
+      <c r="G16" s="56">
         <f>G7+3</f>
         <v>42866</v>
       </c>
-      <c r="H16" s="39"/>
-      <c r="I16" s="60">
+      <c r="H16" s="57"/>
+      <c r="I16" s="62">
         <f>'Daily Schedule SUN'!I16:J16</f>
         <v>0</v>
       </c>
-      <c r="J16" s="61"/>
+      <c r="J16" s="63"/>
     </row>
     <row r="17" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="8"/>
@@ -3935,17 +3965,19 @@
         <f t="shared" si="0"/>
         <v>0.49999999999999983</v>
       </c>
-      <c r="C17" s="20"/>
+      <c r="C17" s="20" t="s">
+        <v>44</v>
+      </c>
       <c r="D17" s="8"/>
       <c r="E17" s="16"/>
       <c r="F17" s="8"/>
-      <c r="G17" s="40"/>
-      <c r="H17" s="41"/>
-      <c r="I17" s="46">
+      <c r="G17" s="58"/>
+      <c r="H17" s="59"/>
+      <c r="I17" s="44">
         <f>'Daily Schedule SUN'!I17:J17</f>
         <v>0</v>
       </c>
-      <c r="J17" s="47"/>
+      <c r="J17" s="45"/>
     </row>
     <row r="18" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="8"/>
@@ -3953,17 +3985,19 @@
         <f t="shared" si="0"/>
         <v>0.52083333333333315</v>
       </c>
-      <c r="C18" s="21"/>
+      <c r="C18" s="21" t="s">
+        <v>44</v>
+      </c>
       <c r="D18" s="8"/>
       <c r="E18" s="17"/>
       <c r="F18" s="8"/>
-      <c r="G18" s="42"/>
-      <c r="H18" s="43"/>
-      <c r="I18" s="48">
+      <c r="G18" s="60"/>
+      <c r="H18" s="61"/>
+      <c r="I18" s="64">
         <f>'Daily Schedule SUN'!I18:J18</f>
         <v>0</v>
       </c>
-      <c r="J18" s="49"/>
+      <c r="J18" s="65"/>
     </row>
     <row r="19" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="8"/>
@@ -3971,20 +4005,22 @@
         <f t="shared" si="0"/>
         <v>0.54166666666666652</v>
       </c>
-      <c r="C19" s="20"/>
+      <c r="C19" s="20" t="s">
+        <v>29</v>
+      </c>
       <c r="D19" s="8"/>
       <c r="E19" s="16"/>
       <c r="F19" s="8"/>
-      <c r="G19" s="50">
+      <c r="G19" s="66">
         <f>G7+4</f>
         <v>42867</v>
       </c>
-      <c r="H19" s="51"/>
-      <c r="I19" s="56">
+      <c r="H19" s="67"/>
+      <c r="I19" s="68">
         <f>'Daily Schedule SUN'!I19:J19</f>
         <v>0</v>
       </c>
-      <c r="J19" s="57"/>
+      <c r="J19" s="69"/>
     </row>
     <row r="20" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="8"/>
@@ -3992,17 +4028,19 @@
         <f t="shared" si="0"/>
         <v>0.56249999999999989</v>
       </c>
-      <c r="C20" s="21"/>
+      <c r="C20" s="21" t="s">
+        <v>45</v>
+      </c>
       <c r="D20" s="8"/>
       <c r="E20" s="17"/>
       <c r="F20" s="8"/>
-      <c r="G20" s="52"/>
-      <c r="H20" s="53"/>
-      <c r="I20" s="44">
+      <c r="G20" s="40"/>
+      <c r="H20" s="41"/>
+      <c r="I20" s="46">
         <f>'Daily Schedule SUN'!I20:J20</f>
         <v>0</v>
       </c>
-      <c r="J20" s="45"/>
+      <c r="J20" s="47"/>
     </row>
     <row r="21" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="8"/>
@@ -4010,17 +4048,19 @@
         <f t="shared" si="0"/>
         <v>0.58333333333333326</v>
       </c>
-      <c r="C21" s="20"/>
+      <c r="C21" s="20" t="s">
+        <v>45</v>
+      </c>
       <c r="D21" s="8"/>
       <c r="E21" s="16"/>
       <c r="F21" s="8"/>
-      <c r="G21" s="54"/>
-      <c r="H21" s="55"/>
-      <c r="I21" s="58">
+      <c r="G21" s="42"/>
+      <c r="H21" s="43"/>
+      <c r="I21" s="48">
         <f>'Daily Schedule SUN'!I21:J21</f>
         <v>0</v>
       </c>
-      <c r="J21" s="59"/>
+      <c r="J21" s="49"/>
     </row>
     <row r="22" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="8"/>
@@ -4028,20 +4068,22 @@
         <f t="shared" si="0"/>
         <v>0.60416666666666663</v>
       </c>
-      <c r="C22" s="21"/>
+      <c r="C22" s="21" t="s">
+        <v>45</v>
+      </c>
       <c r="D22" s="8"/>
       <c r="E22" s="17"/>
       <c r="F22" s="8"/>
-      <c r="G22" s="38">
+      <c r="G22" s="56">
         <f>G7+5</f>
         <v>42868</v>
       </c>
-      <c r="H22" s="39"/>
-      <c r="I22" s="60">
+      <c r="H22" s="57"/>
+      <c r="I22" s="62">
         <f>'Daily Schedule SUN'!I22:J22</f>
         <v>0</v>
       </c>
-      <c r="J22" s="61"/>
+      <c r="J22" s="63"/>
     </row>
     <row r="23" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="8"/>
@@ -4049,17 +4091,19 @@
         <f t="shared" si="0"/>
         <v>0.625</v>
       </c>
-      <c r="C23" s="20"/>
+      <c r="C23" s="20" t="s">
+        <v>46</v>
+      </c>
       <c r="D23" s="8"/>
       <c r="E23" s="16"/>
       <c r="F23" s="8"/>
-      <c r="G23" s="40"/>
-      <c r="H23" s="41"/>
-      <c r="I23" s="46">
+      <c r="G23" s="58"/>
+      <c r="H23" s="59"/>
+      <c r="I23" s="44">
         <f>'Daily Schedule SUN'!I23:J23</f>
         <v>0</v>
       </c>
-      <c r="J23" s="47"/>
+      <c r="J23" s="45"/>
     </row>
     <row r="24" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="8"/>
@@ -4067,17 +4111,19 @@
         <f t="shared" si="0"/>
         <v>0.64583333333333337</v>
       </c>
-      <c r="C24" s="21"/>
+      <c r="C24" s="21" t="s">
+        <v>46</v>
+      </c>
       <c r="D24" s="8"/>
       <c r="E24" s="17"/>
       <c r="F24" s="8"/>
-      <c r="G24" s="42"/>
-      <c r="H24" s="43"/>
-      <c r="I24" s="48">
+      <c r="G24" s="60"/>
+      <c r="H24" s="61"/>
+      <c r="I24" s="64">
         <f>'Daily Schedule SUN'!I24:J24</f>
         <v>0</v>
       </c>
-      <c r="J24" s="49"/>
+      <c r="J24" s="65"/>
     </row>
     <row r="25" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="8"/>
@@ -4085,20 +4131,22 @@
         <f t="shared" si="0"/>
         <v>0.66666666666666674</v>
       </c>
-      <c r="C25" s="20"/>
+      <c r="C25" s="20" t="s">
+        <v>46</v>
+      </c>
       <c r="D25" s="8"/>
       <c r="E25" s="16"/>
       <c r="F25" s="8"/>
-      <c r="G25" s="50">
+      <c r="G25" s="66">
         <f>G7+6</f>
         <v>42869</v>
       </c>
-      <c r="H25" s="51"/>
-      <c r="I25" s="56">
+      <c r="H25" s="67"/>
+      <c r="I25" s="68">
         <f>'Daily Schedule SUN'!I25:J25</f>
         <v>0</v>
       </c>
-      <c r="J25" s="57"/>
+      <c r="J25" s="69"/>
     </row>
     <row r="26" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="8"/>
@@ -4106,17 +4154,19 @@
         <f t="shared" si="0"/>
         <v>0.68750000000000011</v>
       </c>
-      <c r="C26" s="21"/>
+      <c r="C26" s="21" t="s">
+        <v>37</v>
+      </c>
       <c r="D26" s="8"/>
       <c r="E26" s="17"/>
       <c r="F26" s="8"/>
-      <c r="G26" s="52"/>
-      <c r="H26" s="53"/>
-      <c r="I26" s="44">
+      <c r="G26" s="40"/>
+      <c r="H26" s="41"/>
+      <c r="I26" s="46">
         <f>'Daily Schedule SUN'!I26:J26</f>
         <v>0</v>
       </c>
-      <c r="J26" s="45"/>
+      <c r="J26" s="47"/>
     </row>
     <row r="27" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="8"/>
@@ -4124,17 +4174,19 @@
         <f t="shared" si="0"/>
         <v>0.70833333333333348</v>
       </c>
-      <c r="C27" s="20"/>
+      <c r="C27" s="20" t="s">
+        <v>37</v>
+      </c>
       <c r="D27" s="8"/>
       <c r="E27" s="16"/>
       <c r="F27" s="8"/>
-      <c r="G27" s="54"/>
-      <c r="H27" s="55"/>
-      <c r="I27" s="58">
+      <c r="G27" s="42"/>
+      <c r="H27" s="43"/>
+      <c r="I27" s="48">
         <f>'Daily Schedule SUN'!I27:J27</f>
         <v>0</v>
       </c>
-      <c r="J27" s="59"/>
+      <c r="J27" s="49"/>
     </row>
     <row r="28" spans="1:10" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A28" s="8"/>
@@ -4142,7 +4194,9 @@
         <f t="shared" si="0"/>
         <v>0.72916666666666685</v>
       </c>
-      <c r="C28" s="21"/>
+      <c r="C28" s="21" t="s">
+        <v>37</v>
+      </c>
       <c r="D28" s="8"/>
       <c r="E28" s="17"/>
       <c r="F28" s="8"/>
@@ -4157,16 +4211,18 @@
         <f t="shared" si="0"/>
         <v>0.75000000000000022</v>
       </c>
-      <c r="C29" s="20"/>
+      <c r="C29" s="20" t="s">
+        <v>37</v>
+      </c>
       <c r="D29" s="8"/>
       <c r="E29" s="16"/>
       <c r="F29" s="8"/>
-      <c r="G29" s="29" t="s">
+      <c r="G29" s="70" t="s">
         <v>26</v>
       </c>
-      <c r="H29" s="30"/>
-      <c r="I29" s="30"/>
-      <c r="J29" s="31"/>
+      <c r="H29" s="71"/>
+      <c r="I29" s="71"/>
+      <c r="J29" s="72"/>
     </row>
     <row r="30" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30" s="8"/>
@@ -4174,14 +4230,16 @@
         <f t="shared" si="0"/>
         <v>0.77083333333333359</v>
       </c>
-      <c r="C30" s="21"/>
+      <c r="C30" s="21" t="s">
+        <v>37</v>
+      </c>
       <c r="D30" s="8"/>
       <c r="E30" s="17"/>
       <c r="F30" s="8"/>
-      <c r="G30" s="32"/>
-      <c r="H30" s="33"/>
-      <c r="I30" s="33"/>
-      <c r="J30" s="34"/>
+      <c r="G30" s="73"/>
+      <c r="H30" s="74"/>
+      <c r="I30" s="74"/>
+      <c r="J30" s="75"/>
     </row>
     <row r="31" spans="1:10" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A31" s="8"/>
@@ -4193,10 +4251,10 @@
       <c r="D31" s="8"/>
       <c r="E31" s="16"/>
       <c r="F31" s="8"/>
-      <c r="G31" s="35"/>
-      <c r="H31" s="36"/>
-      <c r="I31" s="36"/>
-      <c r="J31" s="37"/>
+      <c r="G31" s="76"/>
+      <c r="H31" s="77"/>
+      <c r="I31" s="77"/>
+      <c r="J31" s="78"/>
     </row>
     <row r="32" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A32" s="8"/>
@@ -4320,30 +4378,6 @@
     </row>
   </sheetData>
   <mergeCells count="33">
-    <mergeCell ref="B2:C3"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="G5:J6"/>
-    <mergeCell ref="G7:H9"/>
-    <mergeCell ref="I7:J7"/>
-    <mergeCell ref="I8:J8"/>
-    <mergeCell ref="I9:J9"/>
-    <mergeCell ref="G10:H12"/>
-    <mergeCell ref="I10:J10"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="I12:J12"/>
-    <mergeCell ref="G13:H15"/>
-    <mergeCell ref="I13:J13"/>
-    <mergeCell ref="I14:J14"/>
-    <mergeCell ref="I15:J15"/>
-    <mergeCell ref="G16:H18"/>
-    <mergeCell ref="I16:J16"/>
-    <mergeCell ref="I17:J17"/>
-    <mergeCell ref="I18:J18"/>
-    <mergeCell ref="G19:H21"/>
-    <mergeCell ref="I19:J19"/>
-    <mergeCell ref="I20:J20"/>
-    <mergeCell ref="I21:J21"/>
     <mergeCell ref="G29:J31"/>
     <mergeCell ref="G22:H24"/>
     <mergeCell ref="I22:J22"/>
@@ -4353,6 +4387,30 @@
     <mergeCell ref="I25:J25"/>
     <mergeCell ref="I26:J26"/>
     <mergeCell ref="I27:J27"/>
+    <mergeCell ref="G16:H18"/>
+    <mergeCell ref="I16:J16"/>
+    <mergeCell ref="I17:J17"/>
+    <mergeCell ref="I18:J18"/>
+    <mergeCell ref="G19:H21"/>
+    <mergeCell ref="I19:J19"/>
+    <mergeCell ref="I20:J20"/>
+    <mergeCell ref="I21:J21"/>
+    <mergeCell ref="G10:H12"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="G13:H15"/>
+    <mergeCell ref="I13:J13"/>
+    <mergeCell ref="I14:J14"/>
+    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="B2:C3"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="G5:J6"/>
+    <mergeCell ref="G7:H9"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="I8:J8"/>
+    <mergeCell ref="I9:J9"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="G29" r:id="rId1"/>
@@ -4434,10 +4492,10 @@
     </row>
     <row r="2" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.65">
       <c r="A2" s="8"/>
-      <c r="B2" s="62" t="s">
+      <c r="B2" s="37" t="s">
         <v>25</v>
       </c>
-      <c r="C2" s="62"/>
+      <c r="C2" s="37"/>
       <c r="D2" s="9"/>
       <c r="E2" s="12" t="s">
         <v>13</v>
@@ -4454,8 +4512,8 @@
     </row>
     <row r="3" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.65">
       <c r="A3" s="8"/>
-      <c r="B3" s="62"/>
-      <c r="C3" s="62"/>
+      <c r="B3" s="37"/>
+      <c r="C3" s="37"/>
       <c r="D3" s="9"/>
       <c r="E3" s="13">
         <f>'Daily Schedule SUN'!E3</f>
@@ -4488,38 +4546,38 @@
     </row>
     <row r="5" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="8"/>
-      <c r="B5" s="63" t="s">
+      <c r="B5" s="38" t="s">
         <v>0</v>
       </c>
       <c r="C5" s="23" t="s">
         <v>20</v>
       </c>
       <c r="D5" s="8"/>
-      <c r="E5" s="64" t="s">
+      <c r="E5" s="39" t="s">
         <v>14</v>
       </c>
       <c r="F5" s="8"/>
-      <c r="G5" s="71" t="s">
+      <c r="G5" s="80" t="s">
         <v>15</v>
       </c>
-      <c r="H5" s="72"/>
-      <c r="I5" s="71"/>
-      <c r="J5" s="71"/>
+      <c r="H5" s="81"/>
+      <c r="I5" s="80"/>
+      <c r="J5" s="80"/>
     </row>
     <row r="6" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="8"/>
-      <c r="B6" s="63"/>
+      <c r="B6" s="38"/>
       <c r="C6" s="24">
         <f>E3+4</f>
         <v>42867</v>
       </c>
       <c r="D6" s="8"/>
-      <c r="E6" s="64"/>
+      <c r="E6" s="39"/>
       <c r="F6" s="8"/>
-      <c r="G6" s="71"/>
-      <c r="H6" s="71"/>
-      <c r="I6" s="71"/>
-      <c r="J6" s="71"/>
+      <c r="G6" s="80"/>
+      <c r="H6" s="80"/>
+      <c r="I6" s="80"/>
+      <c r="J6" s="80"/>
     </row>
     <row r="7" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="8"/>
@@ -4531,16 +4589,16 @@
       <c r="D7" s="8"/>
       <c r="E7" s="16"/>
       <c r="F7" s="8"/>
-      <c r="G7" s="50">
+      <c r="G7" s="66">
         <f>E3</f>
         <v>42863</v>
       </c>
-      <c r="H7" s="51"/>
-      <c r="I7" s="56">
+      <c r="H7" s="67"/>
+      <c r="I7" s="68">
         <f>'Daily Schedule SUN'!I7:J7</f>
         <v>0</v>
       </c>
-      <c r="J7" s="57"/>
+      <c r="J7" s="69"/>
     </row>
     <row r="8" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="8"/>
@@ -4552,13 +4610,13 @@
       <c r="D8" s="8"/>
       <c r="E8" s="17"/>
       <c r="F8" s="8"/>
-      <c r="G8" s="52"/>
-      <c r="H8" s="53"/>
-      <c r="I8" s="44">
+      <c r="G8" s="40"/>
+      <c r="H8" s="41"/>
+      <c r="I8" s="46">
         <f>'Daily Schedule SUN'!I8:J8</f>
         <v>0</v>
       </c>
-      <c r="J8" s="45"/>
+      <c r="J8" s="47"/>
     </row>
     <row r="9" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="8"/>
@@ -4570,13 +4628,13 @@
       <c r="D9" s="8"/>
       <c r="E9" s="16"/>
       <c r="F9" s="8"/>
-      <c r="G9" s="54"/>
-      <c r="H9" s="55"/>
-      <c r="I9" s="58">
+      <c r="G9" s="42"/>
+      <c r="H9" s="43"/>
+      <c r="I9" s="48">
         <f>'Daily Schedule SUN'!I9:J9</f>
         <v>0</v>
       </c>
-      <c r="J9" s="59"/>
+      <c r="J9" s="49"/>
     </row>
     <row r="10" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="8"/>
@@ -4588,16 +4646,16 @@
       <c r="D10" s="8"/>
       <c r="E10" s="17"/>
       <c r="F10" s="8"/>
-      <c r="G10" s="38">
+      <c r="G10" s="56">
         <f>G7+1</f>
         <v>42864</v>
       </c>
-      <c r="H10" s="39"/>
-      <c r="I10" s="60">
+      <c r="H10" s="57"/>
+      <c r="I10" s="62">
         <f>'Daily Schedule SUN'!I10:J10</f>
         <v>0</v>
       </c>
-      <c r="J10" s="61"/>
+      <c r="J10" s="63"/>
     </row>
     <row r="11" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="8"/>
@@ -4609,13 +4667,13 @@
       <c r="D11" s="8"/>
       <c r="E11" s="16"/>
       <c r="F11" s="8"/>
-      <c r="G11" s="40"/>
-      <c r="H11" s="41"/>
-      <c r="I11" s="46">
+      <c r="G11" s="58"/>
+      <c r="H11" s="59"/>
+      <c r="I11" s="44">
         <f>'Daily Schedule SUN'!I11:J11</f>
         <v>0</v>
       </c>
-      <c r="J11" s="47"/>
+      <c r="J11" s="45"/>
     </row>
     <row r="12" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="8"/>
@@ -4627,13 +4685,13 @@
       <c r="D12" s="8"/>
       <c r="E12" s="17"/>
       <c r="F12" s="8"/>
-      <c r="G12" s="42"/>
-      <c r="H12" s="43"/>
-      <c r="I12" s="48">
+      <c r="G12" s="60"/>
+      <c r="H12" s="61"/>
+      <c r="I12" s="64">
         <f>'Daily Schedule SUN'!I12:J12</f>
         <v>0</v>
       </c>
-      <c r="J12" s="49"/>
+      <c r="J12" s="65"/>
     </row>
     <row r="13" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="8"/>
@@ -4645,16 +4703,16 @@
       <c r="D13" s="8"/>
       <c r="E13" s="16"/>
       <c r="F13" s="8"/>
-      <c r="G13" s="50">
+      <c r="G13" s="66">
         <f>G7+2</f>
         <v>42865</v>
       </c>
-      <c r="H13" s="51"/>
-      <c r="I13" s="56">
+      <c r="H13" s="67"/>
+      <c r="I13" s="68">
         <f>'Daily Schedule SUN'!I13:J13</f>
         <v>0</v>
       </c>
-      <c r="J13" s="57"/>
+      <c r="J13" s="69"/>
     </row>
     <row r="14" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="8"/>
@@ -4666,13 +4724,13 @@
       <c r="D14" s="8"/>
       <c r="E14" s="17"/>
       <c r="F14" s="8"/>
-      <c r="G14" s="52"/>
-      <c r="H14" s="53"/>
-      <c r="I14" s="44">
+      <c r="G14" s="40"/>
+      <c r="H14" s="41"/>
+      <c r="I14" s="46">
         <f>'Daily Schedule SUN'!I14:J14</f>
         <v>0</v>
       </c>
-      <c r="J14" s="45"/>
+      <c r="J14" s="47"/>
     </row>
     <row r="15" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="8"/>
@@ -4684,13 +4742,13 @@
       <c r="D15" s="8"/>
       <c r="E15" s="16"/>
       <c r="F15" s="8"/>
-      <c r="G15" s="54"/>
-      <c r="H15" s="55"/>
-      <c r="I15" s="58">
+      <c r="G15" s="42"/>
+      <c r="H15" s="43"/>
+      <c r="I15" s="48">
         <f>'Daily Schedule SUN'!I15:J15</f>
         <v>0</v>
       </c>
-      <c r="J15" s="59"/>
+      <c r="J15" s="49"/>
     </row>
     <row r="16" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="8"/>
@@ -4702,16 +4760,16 @@
       <c r="D16" s="8"/>
       <c r="E16" s="17"/>
       <c r="F16" s="8"/>
-      <c r="G16" s="38">
+      <c r="G16" s="56">
         <f>G7+3</f>
         <v>42866</v>
       </c>
-      <c r="H16" s="39"/>
-      <c r="I16" s="60">
+      <c r="H16" s="57"/>
+      <c r="I16" s="62">
         <f>'Daily Schedule SUN'!I16:J16</f>
         <v>0</v>
       </c>
-      <c r="J16" s="61"/>
+      <c r="J16" s="63"/>
     </row>
     <row r="17" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="8"/>
@@ -4723,13 +4781,13 @@
       <c r="D17" s="8"/>
       <c r="E17" s="16"/>
       <c r="F17" s="8"/>
-      <c r="G17" s="40"/>
-      <c r="H17" s="41"/>
-      <c r="I17" s="46">
+      <c r="G17" s="58"/>
+      <c r="H17" s="59"/>
+      <c r="I17" s="44">
         <f>'Daily Schedule SUN'!I17:J17</f>
         <v>0</v>
       </c>
-      <c r="J17" s="47"/>
+      <c r="J17" s="45"/>
     </row>
     <row r="18" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="8"/>
@@ -4741,13 +4799,13 @@
       <c r="D18" s="8"/>
       <c r="E18" s="17"/>
       <c r="F18" s="8"/>
-      <c r="G18" s="42"/>
-      <c r="H18" s="43"/>
-      <c r="I18" s="48">
+      <c r="G18" s="60"/>
+      <c r="H18" s="61"/>
+      <c r="I18" s="64">
         <f>'Daily Schedule SUN'!I18:J18</f>
         <v>0</v>
       </c>
-      <c r="J18" s="49"/>
+      <c r="J18" s="65"/>
     </row>
     <row r="19" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="8"/>
@@ -4759,16 +4817,16 @@
       <c r="D19" s="8"/>
       <c r="E19" s="16"/>
       <c r="F19" s="8"/>
-      <c r="G19" s="50">
+      <c r="G19" s="66">
         <f>G7+4</f>
         <v>42867</v>
       </c>
-      <c r="H19" s="51"/>
-      <c r="I19" s="56">
+      <c r="H19" s="67"/>
+      <c r="I19" s="68">
         <f>'Daily Schedule SUN'!I19:J19</f>
         <v>0</v>
       </c>
-      <c r="J19" s="57"/>
+      <c r="J19" s="69"/>
     </row>
     <row r="20" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="8"/>
@@ -4780,13 +4838,13 @@
       <c r="D20" s="8"/>
       <c r="E20" s="17"/>
       <c r="F20" s="8"/>
-      <c r="G20" s="52"/>
-      <c r="H20" s="53"/>
-      <c r="I20" s="44">
+      <c r="G20" s="40"/>
+      <c r="H20" s="41"/>
+      <c r="I20" s="46">
         <f>'Daily Schedule SUN'!I20:J20</f>
         <v>0</v>
       </c>
-      <c r="J20" s="45"/>
+      <c r="J20" s="47"/>
     </row>
     <row r="21" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="8"/>
@@ -4798,13 +4856,13 @@
       <c r="D21" s="8"/>
       <c r="E21" s="16"/>
       <c r="F21" s="8"/>
-      <c r="G21" s="54"/>
-      <c r="H21" s="55"/>
-      <c r="I21" s="58">
+      <c r="G21" s="42"/>
+      <c r="H21" s="43"/>
+      <c r="I21" s="48">
         <f>'Daily Schedule SUN'!I21:J21</f>
         <v>0</v>
       </c>
-      <c r="J21" s="59"/>
+      <c r="J21" s="49"/>
     </row>
     <row r="22" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="8"/>
@@ -4816,16 +4874,16 @@
       <c r="D22" s="8"/>
       <c r="E22" s="17"/>
       <c r="F22" s="8"/>
-      <c r="G22" s="38">
+      <c r="G22" s="56">
         <f>G7+5</f>
         <v>42868</v>
       </c>
-      <c r="H22" s="39"/>
-      <c r="I22" s="60">
+      <c r="H22" s="57"/>
+      <c r="I22" s="62">
         <f>'Daily Schedule SUN'!I22:J22</f>
         <v>0</v>
       </c>
-      <c r="J22" s="61"/>
+      <c r="J22" s="63"/>
     </row>
     <row r="23" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="8"/>
@@ -4837,13 +4895,13 @@
       <c r="D23" s="8"/>
       <c r="E23" s="16"/>
       <c r="F23" s="8"/>
-      <c r="G23" s="40"/>
-      <c r="H23" s="41"/>
-      <c r="I23" s="46">
+      <c r="G23" s="58"/>
+      <c r="H23" s="59"/>
+      <c r="I23" s="44">
         <f>'Daily Schedule SUN'!I23:J23</f>
         <v>0</v>
       </c>
-      <c r="J23" s="47"/>
+      <c r="J23" s="45"/>
     </row>
     <row r="24" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="8"/>
@@ -4855,13 +4913,13 @@
       <c r="D24" s="8"/>
       <c r="E24" s="17"/>
       <c r="F24" s="8"/>
-      <c r="G24" s="42"/>
-      <c r="H24" s="43"/>
-      <c r="I24" s="48">
+      <c r="G24" s="60"/>
+      <c r="H24" s="61"/>
+      <c r="I24" s="64">
         <f>'Daily Schedule SUN'!I24:J24</f>
         <v>0</v>
       </c>
-      <c r="J24" s="49"/>
+      <c r="J24" s="65"/>
     </row>
     <row r="25" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="8"/>
@@ -4873,16 +4931,16 @@
       <c r="D25" s="8"/>
       <c r="E25" s="16"/>
       <c r="F25" s="8"/>
-      <c r="G25" s="50">
+      <c r="G25" s="66">
         <f>G7+6</f>
         <v>42869</v>
       </c>
-      <c r="H25" s="51"/>
-      <c r="I25" s="56">
+      <c r="H25" s="67"/>
+      <c r="I25" s="68">
         <f>'Daily Schedule SUN'!I25:J25</f>
         <v>0</v>
       </c>
-      <c r="J25" s="57"/>
+      <c r="J25" s="69"/>
     </row>
     <row r="26" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="8"/>
@@ -4894,13 +4952,13 @@
       <c r="D26" s="8"/>
       <c r="E26" s="17"/>
       <c r="F26" s="8"/>
-      <c r="G26" s="52"/>
-      <c r="H26" s="53"/>
-      <c r="I26" s="44">
+      <c r="G26" s="40"/>
+      <c r="H26" s="41"/>
+      <c r="I26" s="46">
         <f>'Daily Schedule SUN'!I26:J26</f>
         <v>0</v>
       </c>
-      <c r="J26" s="45"/>
+      <c r="J26" s="47"/>
     </row>
     <row r="27" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="8"/>
@@ -4912,13 +4970,13 @@
       <c r="D27" s="8"/>
       <c r="E27" s="16"/>
       <c r="F27" s="8"/>
-      <c r="G27" s="54"/>
-      <c r="H27" s="55"/>
-      <c r="I27" s="58">
+      <c r="G27" s="42"/>
+      <c r="H27" s="43"/>
+      <c r="I27" s="48">
         <f>'Daily Schedule SUN'!I27:J27</f>
         <v>0</v>
       </c>
-      <c r="J27" s="59"/>
+      <c r="J27" s="49"/>
     </row>
     <row r="28" spans="1:10" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A28" s="8"/>
@@ -4945,12 +5003,12 @@
       <c r="D29" s="8"/>
       <c r="E29" s="16"/>
       <c r="F29" s="8"/>
-      <c r="G29" s="29" t="s">
+      <c r="G29" s="70" t="s">
         <v>26</v>
       </c>
-      <c r="H29" s="30"/>
-      <c r="I29" s="30"/>
-      <c r="J29" s="31"/>
+      <c r="H29" s="71"/>
+      <c r="I29" s="71"/>
+      <c r="J29" s="72"/>
     </row>
     <row r="30" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30" s="8"/>
@@ -4962,10 +5020,10 @@
       <c r="D30" s="8"/>
       <c r="E30" s="17"/>
       <c r="F30" s="8"/>
-      <c r="G30" s="32"/>
-      <c r="H30" s="33"/>
-      <c r="I30" s="33"/>
-      <c r="J30" s="34"/>
+      <c r="G30" s="73"/>
+      <c r="H30" s="74"/>
+      <c r="I30" s="74"/>
+      <c r="J30" s="75"/>
     </row>
     <row r="31" spans="1:10" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A31" s="8"/>
@@ -4977,10 +5035,10 @@
       <c r="D31" s="8"/>
       <c r="E31" s="16"/>
       <c r="F31" s="8"/>
-      <c r="G31" s="35"/>
-      <c r="H31" s="36"/>
-      <c r="I31" s="36"/>
-      <c r="J31" s="37"/>
+      <c r="G31" s="76"/>
+      <c r="H31" s="77"/>
+      <c r="I31" s="77"/>
+      <c r="J31" s="78"/>
     </row>
     <row r="32" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A32" s="8"/>
@@ -5104,30 +5162,6 @@
     </row>
   </sheetData>
   <mergeCells count="33">
-    <mergeCell ref="B2:C3"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="G5:J6"/>
-    <mergeCell ref="G7:H9"/>
-    <mergeCell ref="I7:J7"/>
-    <mergeCell ref="I8:J8"/>
-    <mergeCell ref="I9:J9"/>
-    <mergeCell ref="G10:H12"/>
-    <mergeCell ref="I10:J10"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="I12:J12"/>
-    <mergeCell ref="G13:H15"/>
-    <mergeCell ref="I13:J13"/>
-    <mergeCell ref="I14:J14"/>
-    <mergeCell ref="I15:J15"/>
-    <mergeCell ref="G16:H18"/>
-    <mergeCell ref="I16:J16"/>
-    <mergeCell ref="I17:J17"/>
-    <mergeCell ref="I18:J18"/>
-    <mergeCell ref="G19:H21"/>
-    <mergeCell ref="I19:J19"/>
-    <mergeCell ref="I20:J20"/>
-    <mergeCell ref="I21:J21"/>
     <mergeCell ref="G29:J31"/>
     <mergeCell ref="G22:H24"/>
     <mergeCell ref="I22:J22"/>
@@ -5137,6 +5171,30 @@
     <mergeCell ref="I25:J25"/>
     <mergeCell ref="I26:J26"/>
     <mergeCell ref="I27:J27"/>
+    <mergeCell ref="G16:H18"/>
+    <mergeCell ref="I16:J16"/>
+    <mergeCell ref="I17:J17"/>
+    <mergeCell ref="I18:J18"/>
+    <mergeCell ref="G19:H21"/>
+    <mergeCell ref="I19:J19"/>
+    <mergeCell ref="I20:J20"/>
+    <mergeCell ref="I21:J21"/>
+    <mergeCell ref="G10:H12"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="G13:H15"/>
+    <mergeCell ref="I13:J13"/>
+    <mergeCell ref="I14:J14"/>
+    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="B2:C3"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="G5:J6"/>
+    <mergeCell ref="G7:H9"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="I8:J8"/>
+    <mergeCell ref="I9:J9"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="G29" r:id="rId1"/>
@@ -5218,10 +5276,10 @@
     </row>
     <row r="2" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.65">
       <c r="A2" s="8"/>
-      <c r="B2" s="62" t="s">
+      <c r="B2" s="37" t="s">
         <v>25</v>
       </c>
-      <c r="C2" s="62"/>
+      <c r="C2" s="37"/>
       <c r="D2" s="9"/>
       <c r="E2" s="12" t="s">
         <v>13</v>
@@ -5238,8 +5296,8 @@
     </row>
     <row r="3" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.65">
       <c r="A3" s="8"/>
-      <c r="B3" s="62"/>
-      <c r="C3" s="62"/>
+      <c r="B3" s="37"/>
+      <c r="C3" s="37"/>
       <c r="D3" s="9"/>
       <c r="E3" s="13">
         <f>'Daily Schedule SUN'!E3</f>
@@ -5272,38 +5330,38 @@
     </row>
     <row r="5" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="8"/>
-      <c r="B5" s="63" t="s">
+      <c r="B5" s="38" t="s">
         <v>0</v>
       </c>
       <c r="C5" s="23" t="s">
         <v>21</v>
       </c>
       <c r="D5" s="8"/>
-      <c r="E5" s="64" t="s">
+      <c r="E5" s="39" t="s">
         <v>14</v>
       </c>
       <c r="F5" s="8"/>
-      <c r="G5" s="71" t="s">
+      <c r="G5" s="80" t="s">
         <v>15</v>
       </c>
-      <c r="H5" s="72"/>
-      <c r="I5" s="71"/>
-      <c r="J5" s="71"/>
+      <c r="H5" s="81"/>
+      <c r="I5" s="80"/>
+      <c r="J5" s="80"/>
     </row>
     <row r="6" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="8"/>
-      <c r="B6" s="63"/>
+      <c r="B6" s="38"/>
       <c r="C6" s="24">
         <f>E3+5</f>
         <v>42868</v>
       </c>
       <c r="D6" s="8"/>
-      <c r="E6" s="64"/>
+      <c r="E6" s="39"/>
       <c r="F6" s="8"/>
-      <c r="G6" s="71"/>
-      <c r="H6" s="71"/>
-      <c r="I6" s="71"/>
-      <c r="J6" s="71"/>
+      <c r="G6" s="80"/>
+      <c r="H6" s="80"/>
+      <c r="I6" s="80"/>
+      <c r="J6" s="80"/>
     </row>
     <row r="7" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="8"/>
@@ -5315,16 +5373,16 @@
       <c r="D7" s="8"/>
       <c r="E7" s="16"/>
       <c r="F7" s="8"/>
-      <c r="G7" s="50">
+      <c r="G7" s="66">
         <f>E3</f>
         <v>42863</v>
       </c>
-      <c r="H7" s="51"/>
-      <c r="I7" s="56">
+      <c r="H7" s="67"/>
+      <c r="I7" s="68">
         <f>'Daily Schedule SUN'!I7:J7</f>
         <v>0</v>
       </c>
-      <c r="J7" s="57"/>
+      <c r="J7" s="69"/>
     </row>
     <row r="8" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="8"/>
@@ -5336,13 +5394,13 @@
       <c r="D8" s="8"/>
       <c r="E8" s="17"/>
       <c r="F8" s="8"/>
-      <c r="G8" s="52"/>
-      <c r="H8" s="53"/>
-      <c r="I8" s="44">
+      <c r="G8" s="40"/>
+      <c r="H8" s="41"/>
+      <c r="I8" s="46">
         <f>'Daily Schedule SUN'!I8:J8</f>
         <v>0</v>
       </c>
-      <c r="J8" s="45"/>
+      <c r="J8" s="47"/>
     </row>
     <row r="9" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="8"/>
@@ -5354,13 +5412,13 @@
       <c r="D9" s="8"/>
       <c r="E9" s="16"/>
       <c r="F9" s="8"/>
-      <c r="G9" s="54"/>
-      <c r="H9" s="55"/>
-      <c r="I9" s="58">
+      <c r="G9" s="42"/>
+      <c r="H9" s="43"/>
+      <c r="I9" s="48">
         <f>'Daily Schedule SUN'!I9:J9</f>
         <v>0</v>
       </c>
-      <c r="J9" s="59"/>
+      <c r="J9" s="49"/>
     </row>
     <row r="10" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="8"/>
@@ -5372,16 +5430,16 @@
       <c r="D10" s="8"/>
       <c r="E10" s="17"/>
       <c r="F10" s="8"/>
-      <c r="G10" s="38">
+      <c r="G10" s="56">
         <f>G7+1</f>
         <v>42864</v>
       </c>
-      <c r="H10" s="39"/>
-      <c r="I10" s="60">
+      <c r="H10" s="57"/>
+      <c r="I10" s="62">
         <f>'Daily Schedule SUN'!I10:J10</f>
         <v>0</v>
       </c>
-      <c r="J10" s="61"/>
+      <c r="J10" s="63"/>
     </row>
     <row r="11" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="8"/>
@@ -5393,13 +5451,13 @@
       <c r="D11" s="8"/>
       <c r="E11" s="16"/>
       <c r="F11" s="8"/>
-      <c r="G11" s="40"/>
-      <c r="H11" s="41"/>
-      <c r="I11" s="46">
+      <c r="G11" s="58"/>
+      <c r="H11" s="59"/>
+      <c r="I11" s="44">
         <f>'Daily Schedule SUN'!I11:J11</f>
         <v>0</v>
       </c>
-      <c r="J11" s="47"/>
+      <c r="J11" s="45"/>
     </row>
     <row r="12" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="8"/>
@@ -5411,13 +5469,13 @@
       <c r="D12" s="8"/>
       <c r="E12" s="17"/>
       <c r="F12" s="8"/>
-      <c r="G12" s="42"/>
-      <c r="H12" s="43"/>
-      <c r="I12" s="48">
+      <c r="G12" s="60"/>
+      <c r="H12" s="61"/>
+      <c r="I12" s="64">
         <f>'Daily Schedule SUN'!I12:J12</f>
         <v>0</v>
       </c>
-      <c r="J12" s="49"/>
+      <c r="J12" s="65"/>
     </row>
     <row r="13" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="8"/>
@@ -5429,16 +5487,16 @@
       <c r="D13" s="8"/>
       <c r="E13" s="16"/>
       <c r="F13" s="8"/>
-      <c r="G13" s="50">
+      <c r="G13" s="66">
         <f>G7+2</f>
         <v>42865</v>
       </c>
-      <c r="H13" s="51"/>
-      <c r="I13" s="56">
+      <c r="H13" s="67"/>
+      <c r="I13" s="68">
         <f>'Daily Schedule SUN'!I13:J13</f>
         <v>0</v>
       </c>
-      <c r="J13" s="57"/>
+      <c r="J13" s="69"/>
     </row>
     <row r="14" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="8"/>
@@ -5450,13 +5508,13 @@
       <c r="D14" s="8"/>
       <c r="E14" s="17"/>
       <c r="F14" s="8"/>
-      <c r="G14" s="52"/>
-      <c r="H14" s="53"/>
-      <c r="I14" s="44">
+      <c r="G14" s="40"/>
+      <c r="H14" s="41"/>
+      <c r="I14" s="46">
         <f>'Daily Schedule SUN'!I14:J14</f>
         <v>0</v>
       </c>
-      <c r="J14" s="45"/>
+      <c r="J14" s="47"/>
     </row>
     <row r="15" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="8"/>
@@ -5468,13 +5526,13 @@
       <c r="D15" s="8"/>
       <c r="E15" s="16"/>
       <c r="F15" s="8"/>
-      <c r="G15" s="54"/>
-      <c r="H15" s="55"/>
-      <c r="I15" s="58">
+      <c r="G15" s="42"/>
+      <c r="H15" s="43"/>
+      <c r="I15" s="48">
         <f>'Daily Schedule SUN'!I15:J15</f>
         <v>0</v>
       </c>
-      <c r="J15" s="59"/>
+      <c r="J15" s="49"/>
     </row>
     <row r="16" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="8"/>
@@ -5486,16 +5544,16 @@
       <c r="D16" s="8"/>
       <c r="E16" s="17"/>
       <c r="F16" s="8"/>
-      <c r="G16" s="38">
+      <c r="G16" s="56">
         <f>G7+3</f>
         <v>42866</v>
       </c>
-      <c r="H16" s="39"/>
-      <c r="I16" s="60">
+      <c r="H16" s="57"/>
+      <c r="I16" s="62">
         <f>'Daily Schedule SUN'!I16:J16</f>
         <v>0</v>
       </c>
-      <c r="J16" s="61"/>
+      <c r="J16" s="63"/>
     </row>
     <row r="17" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="8"/>
@@ -5507,13 +5565,13 @@
       <c r="D17" s="8"/>
       <c r="E17" s="16"/>
       <c r="F17" s="8"/>
-      <c r="G17" s="40"/>
-      <c r="H17" s="41"/>
-      <c r="I17" s="46">
+      <c r="G17" s="58"/>
+      <c r="H17" s="59"/>
+      <c r="I17" s="44">
         <f>'Daily Schedule SUN'!I17:J17</f>
         <v>0</v>
       </c>
-      <c r="J17" s="47"/>
+      <c r="J17" s="45"/>
     </row>
     <row r="18" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="8"/>
@@ -5525,13 +5583,13 @@
       <c r="D18" s="8"/>
       <c r="E18" s="17"/>
       <c r="F18" s="8"/>
-      <c r="G18" s="42"/>
-      <c r="H18" s="43"/>
-      <c r="I18" s="48">
+      <c r="G18" s="60"/>
+      <c r="H18" s="61"/>
+      <c r="I18" s="64">
         <f>'Daily Schedule SUN'!I18:J18</f>
         <v>0</v>
       </c>
-      <c r="J18" s="49"/>
+      <c r="J18" s="65"/>
     </row>
     <row r="19" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="8"/>
@@ -5543,16 +5601,16 @@
       <c r="D19" s="8"/>
       <c r="E19" s="16"/>
       <c r="F19" s="8"/>
-      <c r="G19" s="50">
+      <c r="G19" s="66">
         <f>G7+4</f>
         <v>42867</v>
       </c>
-      <c r="H19" s="51"/>
-      <c r="I19" s="56">
+      <c r="H19" s="67"/>
+      <c r="I19" s="68">
         <f>'Daily Schedule SUN'!I19:J19</f>
         <v>0</v>
       </c>
-      <c r="J19" s="57"/>
+      <c r="J19" s="69"/>
     </row>
     <row r="20" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="8"/>
@@ -5564,13 +5622,13 @@
       <c r="D20" s="8"/>
       <c r="E20" s="17"/>
       <c r="F20" s="8"/>
-      <c r="G20" s="52"/>
-      <c r="H20" s="53"/>
-      <c r="I20" s="44">
+      <c r="G20" s="40"/>
+      <c r="H20" s="41"/>
+      <c r="I20" s="46">
         <f>'Daily Schedule SUN'!I20:J20</f>
         <v>0</v>
       </c>
-      <c r="J20" s="45"/>
+      <c r="J20" s="47"/>
     </row>
     <row r="21" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="8"/>
@@ -5582,13 +5640,13 @@
       <c r="D21" s="8"/>
       <c r="E21" s="16"/>
       <c r="F21" s="8"/>
-      <c r="G21" s="54"/>
-      <c r="H21" s="55"/>
-      <c r="I21" s="58">
+      <c r="G21" s="42"/>
+      <c r="H21" s="43"/>
+      <c r="I21" s="48">
         <f>'Daily Schedule SUN'!I21:J21</f>
         <v>0</v>
       </c>
-      <c r="J21" s="59"/>
+      <c r="J21" s="49"/>
     </row>
     <row r="22" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="8"/>
@@ -5600,16 +5658,16 @@
       <c r="D22" s="8"/>
       <c r="E22" s="17"/>
       <c r="F22" s="8"/>
-      <c r="G22" s="38">
+      <c r="G22" s="56">
         <f>G7+5</f>
         <v>42868</v>
       </c>
-      <c r="H22" s="39"/>
-      <c r="I22" s="60">
+      <c r="H22" s="57"/>
+      <c r="I22" s="62">
         <f>'Daily Schedule SUN'!I22:J22</f>
         <v>0</v>
       </c>
-      <c r="J22" s="61"/>
+      <c r="J22" s="63"/>
     </row>
     <row r="23" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="8"/>
@@ -5621,13 +5679,13 @@
       <c r="D23" s="8"/>
       <c r="E23" s="16"/>
       <c r="F23" s="8"/>
-      <c r="G23" s="40"/>
-      <c r="H23" s="41"/>
-      <c r="I23" s="46">
+      <c r="G23" s="58"/>
+      <c r="H23" s="59"/>
+      <c r="I23" s="44">
         <f>'Daily Schedule SUN'!I23:J23</f>
         <v>0</v>
       </c>
-      <c r="J23" s="47"/>
+      <c r="J23" s="45"/>
     </row>
     <row r="24" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="8"/>
@@ -5639,13 +5697,13 @@
       <c r="D24" s="8"/>
       <c r="E24" s="17"/>
       <c r="F24" s="8"/>
-      <c r="G24" s="42"/>
-      <c r="H24" s="43"/>
-      <c r="I24" s="48">
+      <c r="G24" s="60"/>
+      <c r="H24" s="61"/>
+      <c r="I24" s="64">
         <f>'Daily Schedule SUN'!I24:J24</f>
         <v>0</v>
       </c>
-      <c r="J24" s="49"/>
+      <c r="J24" s="65"/>
     </row>
     <row r="25" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="8"/>
@@ -5657,16 +5715,16 @@
       <c r="D25" s="8"/>
       <c r="E25" s="16"/>
       <c r="F25" s="8"/>
-      <c r="G25" s="50">
+      <c r="G25" s="66">
         <f>G7+6</f>
         <v>42869</v>
       </c>
-      <c r="H25" s="51"/>
-      <c r="I25" s="56">
+      <c r="H25" s="67"/>
+      <c r="I25" s="68">
         <f>'Daily Schedule SUN'!I25:J25</f>
         <v>0</v>
       </c>
-      <c r="J25" s="57"/>
+      <c r="J25" s="69"/>
     </row>
     <row r="26" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="8"/>
@@ -5678,13 +5736,13 @@
       <c r="D26" s="8"/>
       <c r="E26" s="17"/>
       <c r="F26" s="8"/>
-      <c r="G26" s="52"/>
-      <c r="H26" s="53"/>
-      <c r="I26" s="44">
+      <c r="G26" s="40"/>
+      <c r="H26" s="41"/>
+      <c r="I26" s="46">
         <f>'Daily Schedule SUN'!I26:J26</f>
         <v>0</v>
       </c>
-      <c r="J26" s="45"/>
+      <c r="J26" s="47"/>
     </row>
     <row r="27" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="8"/>
@@ -5696,13 +5754,13 @@
       <c r="D27" s="8"/>
       <c r="E27" s="16"/>
       <c r="F27" s="8"/>
-      <c r="G27" s="54"/>
-      <c r="H27" s="55"/>
-      <c r="I27" s="58">
+      <c r="G27" s="42"/>
+      <c r="H27" s="43"/>
+      <c r="I27" s="48">
         <f>'Daily Schedule SUN'!I27:J27</f>
         <v>0</v>
       </c>
-      <c r="J27" s="59"/>
+      <c r="J27" s="49"/>
     </row>
     <row r="28" spans="1:10" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A28" s="8"/>
@@ -5729,12 +5787,12 @@
       <c r="D29" s="8"/>
       <c r="E29" s="16"/>
       <c r="F29" s="8"/>
-      <c r="G29" s="29" t="s">
+      <c r="G29" s="70" t="s">
         <v>26</v>
       </c>
-      <c r="H29" s="30"/>
-      <c r="I29" s="30"/>
-      <c r="J29" s="31"/>
+      <c r="H29" s="71"/>
+      <c r="I29" s="71"/>
+      <c r="J29" s="72"/>
     </row>
     <row r="30" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30" s="8"/>
@@ -5746,10 +5804,10 @@
       <c r="D30" s="8"/>
       <c r="E30" s="17"/>
       <c r="F30" s="8"/>
-      <c r="G30" s="32"/>
-      <c r="H30" s="33"/>
-      <c r="I30" s="33"/>
-      <c r="J30" s="34"/>
+      <c r="G30" s="73"/>
+      <c r="H30" s="74"/>
+      <c r="I30" s="74"/>
+      <c r="J30" s="75"/>
     </row>
     <row r="31" spans="1:10" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A31" s="8"/>
@@ -5761,10 +5819,10 @@
       <c r="D31" s="8"/>
       <c r="E31" s="16"/>
       <c r="F31" s="8"/>
-      <c r="G31" s="35"/>
-      <c r="H31" s="36"/>
-      <c r="I31" s="36"/>
-      <c r="J31" s="37"/>
+      <c r="G31" s="76"/>
+      <c r="H31" s="77"/>
+      <c r="I31" s="77"/>
+      <c r="J31" s="78"/>
     </row>
     <row r="32" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A32" s="8"/>
@@ -5888,30 +5946,6 @@
     </row>
   </sheetData>
   <mergeCells count="33">
-    <mergeCell ref="B2:C3"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="G5:J6"/>
-    <mergeCell ref="G7:H9"/>
-    <mergeCell ref="I7:J7"/>
-    <mergeCell ref="I8:J8"/>
-    <mergeCell ref="I9:J9"/>
-    <mergeCell ref="G10:H12"/>
-    <mergeCell ref="I10:J10"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="I12:J12"/>
-    <mergeCell ref="G13:H15"/>
-    <mergeCell ref="I13:J13"/>
-    <mergeCell ref="I14:J14"/>
-    <mergeCell ref="I15:J15"/>
-    <mergeCell ref="G16:H18"/>
-    <mergeCell ref="I16:J16"/>
-    <mergeCell ref="I17:J17"/>
-    <mergeCell ref="I18:J18"/>
-    <mergeCell ref="G19:H21"/>
-    <mergeCell ref="I19:J19"/>
-    <mergeCell ref="I20:J20"/>
-    <mergeCell ref="I21:J21"/>
     <mergeCell ref="G29:J31"/>
     <mergeCell ref="G22:H24"/>
     <mergeCell ref="I22:J22"/>
@@ -5921,6 +5955,30 @@
     <mergeCell ref="I25:J25"/>
     <mergeCell ref="I26:J26"/>
     <mergeCell ref="I27:J27"/>
+    <mergeCell ref="G16:H18"/>
+    <mergeCell ref="I16:J16"/>
+    <mergeCell ref="I17:J17"/>
+    <mergeCell ref="I18:J18"/>
+    <mergeCell ref="G19:H21"/>
+    <mergeCell ref="I19:J19"/>
+    <mergeCell ref="I20:J20"/>
+    <mergeCell ref="I21:J21"/>
+    <mergeCell ref="G10:H12"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="G13:H15"/>
+    <mergeCell ref="I13:J13"/>
+    <mergeCell ref="I14:J14"/>
+    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="B2:C3"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="G5:J6"/>
+    <mergeCell ref="G7:H9"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="I8:J8"/>
+    <mergeCell ref="I9:J9"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="G29" r:id="rId1"/>
@@ -6002,10 +6060,10 @@
     </row>
     <row r="2" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.65">
       <c r="A2" s="8"/>
-      <c r="B2" s="62" t="s">
+      <c r="B2" s="37" t="s">
         <v>25</v>
       </c>
-      <c r="C2" s="62"/>
+      <c r="C2" s="37"/>
       <c r="D2" s="9"/>
       <c r="E2" s="12" t="s">
         <v>13</v>
@@ -6022,8 +6080,8 @@
     </row>
     <row r="3" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.65">
       <c r="A3" s="8"/>
-      <c r="B3" s="62"/>
-      <c r="C3" s="62"/>
+      <c r="B3" s="37"/>
+      <c r="C3" s="37"/>
       <c r="D3" s="9"/>
       <c r="E3" s="13">
         <f>'Daily Schedule SUN'!E3</f>
@@ -6056,38 +6114,38 @@
     </row>
     <row r="5" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="8"/>
-      <c r="B5" s="63" t="s">
+      <c r="B5" s="38" t="s">
         <v>0</v>
       </c>
       <c r="C5" s="23" t="s">
         <v>22</v>
       </c>
       <c r="D5" s="8"/>
-      <c r="E5" s="64" t="s">
+      <c r="E5" s="39" t="s">
         <v>14</v>
       </c>
       <c r="F5" s="8"/>
-      <c r="G5" s="71" t="s">
+      <c r="G5" s="80" t="s">
         <v>15</v>
       </c>
-      <c r="H5" s="72"/>
-      <c r="I5" s="71"/>
-      <c r="J5" s="71"/>
+      <c r="H5" s="81"/>
+      <c r="I5" s="80"/>
+      <c r="J5" s="80"/>
     </row>
     <row r="6" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="8"/>
-      <c r="B6" s="63"/>
+      <c r="B6" s="38"/>
       <c r="C6" s="24">
         <f>E3+6</f>
         <v>42869</v>
       </c>
       <c r="D6" s="8"/>
-      <c r="E6" s="64"/>
+      <c r="E6" s="39"/>
       <c r="F6" s="8"/>
-      <c r="G6" s="71"/>
-      <c r="H6" s="71"/>
-      <c r="I6" s="71"/>
-      <c r="J6" s="71"/>
+      <c r="G6" s="80"/>
+      <c r="H6" s="80"/>
+      <c r="I6" s="80"/>
+      <c r="J6" s="80"/>
     </row>
     <row r="7" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="8"/>
@@ -6099,16 +6157,16 @@
       <c r="D7" s="8"/>
       <c r="E7" s="16"/>
       <c r="F7" s="8"/>
-      <c r="G7" s="50">
+      <c r="G7" s="66">
         <f>E3</f>
         <v>42863</v>
       </c>
-      <c r="H7" s="51"/>
-      <c r="I7" s="56">
+      <c r="H7" s="67"/>
+      <c r="I7" s="68">
         <f>'Daily Schedule SUN'!I7:J7</f>
         <v>0</v>
       </c>
-      <c r="J7" s="57"/>
+      <c r="J7" s="69"/>
     </row>
     <row r="8" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="8"/>
@@ -6120,13 +6178,13 @@
       <c r="D8" s="8"/>
       <c r="E8" s="17"/>
       <c r="F8" s="8"/>
-      <c r="G8" s="52"/>
-      <c r="H8" s="53"/>
-      <c r="I8" s="44">
+      <c r="G8" s="40"/>
+      <c r="H8" s="41"/>
+      <c r="I8" s="46">
         <f>'Daily Schedule SUN'!I8:J8</f>
         <v>0</v>
       </c>
-      <c r="J8" s="45"/>
+      <c r="J8" s="47"/>
     </row>
     <row r="9" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="8"/>
@@ -6138,13 +6196,13 @@
       <c r="D9" s="8"/>
       <c r="E9" s="16"/>
       <c r="F9" s="8"/>
-      <c r="G9" s="54"/>
-      <c r="H9" s="55"/>
-      <c r="I9" s="58">
+      <c r="G9" s="42"/>
+      <c r="H9" s="43"/>
+      <c r="I9" s="48">
         <f>'Daily Schedule SUN'!I9:J9</f>
         <v>0</v>
       </c>
-      <c r="J9" s="59"/>
+      <c r="J9" s="49"/>
     </row>
     <row r="10" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="8"/>
@@ -6156,16 +6214,16 @@
       <c r="D10" s="8"/>
       <c r="E10" s="17"/>
       <c r="F10" s="8"/>
-      <c r="G10" s="38">
+      <c r="G10" s="56">
         <f>G7+1</f>
         <v>42864</v>
       </c>
-      <c r="H10" s="39"/>
-      <c r="I10" s="60">
+      <c r="H10" s="57"/>
+      <c r="I10" s="62">
         <f>'Daily Schedule SUN'!I10:J10</f>
         <v>0</v>
       </c>
-      <c r="J10" s="61"/>
+      <c r="J10" s="63"/>
     </row>
     <row r="11" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="8"/>
@@ -6177,13 +6235,13 @@
       <c r="D11" s="8"/>
       <c r="E11" s="16"/>
       <c r="F11" s="8"/>
-      <c r="G11" s="40"/>
-      <c r="H11" s="41"/>
-      <c r="I11" s="46">
+      <c r="G11" s="58"/>
+      <c r="H11" s="59"/>
+      <c r="I11" s="44">
         <f>'Daily Schedule SUN'!I11:J11</f>
         <v>0</v>
       </c>
-      <c r="J11" s="47"/>
+      <c r="J11" s="45"/>
     </row>
     <row r="12" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="8"/>
@@ -6195,13 +6253,13 @@
       <c r="D12" s="8"/>
       <c r="E12" s="17"/>
       <c r="F12" s="8"/>
-      <c r="G12" s="42"/>
-      <c r="H12" s="43"/>
-      <c r="I12" s="48">
+      <c r="G12" s="60"/>
+      <c r="H12" s="61"/>
+      <c r="I12" s="64">
         <f>'Daily Schedule SUN'!I12:J12</f>
         <v>0</v>
       </c>
-      <c r="J12" s="49"/>
+      <c r="J12" s="65"/>
     </row>
     <row r="13" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="8"/>
@@ -6213,16 +6271,16 @@
       <c r="D13" s="8"/>
       <c r="E13" s="16"/>
       <c r="F13" s="8"/>
-      <c r="G13" s="50">
+      <c r="G13" s="66">
         <f>G7+2</f>
         <v>42865</v>
       </c>
-      <c r="H13" s="51"/>
-      <c r="I13" s="56">
+      <c r="H13" s="67"/>
+      <c r="I13" s="68">
         <f>'Daily Schedule SUN'!I13:J13</f>
         <v>0</v>
       </c>
-      <c r="J13" s="57"/>
+      <c r="J13" s="69"/>
     </row>
     <row r="14" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="8"/>
@@ -6234,13 +6292,13 @@
       <c r="D14" s="8"/>
       <c r="E14" s="17"/>
       <c r="F14" s="8"/>
-      <c r="G14" s="52"/>
-      <c r="H14" s="53"/>
-      <c r="I14" s="44">
+      <c r="G14" s="40"/>
+      <c r="H14" s="41"/>
+      <c r="I14" s="46">
         <f>'Daily Schedule SUN'!I14:J14</f>
         <v>0</v>
       </c>
-      <c r="J14" s="45"/>
+      <c r="J14" s="47"/>
     </row>
     <row r="15" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="8"/>
@@ -6252,13 +6310,13 @@
       <c r="D15" s="8"/>
       <c r="E15" s="16"/>
       <c r="F15" s="8"/>
-      <c r="G15" s="54"/>
-      <c r="H15" s="55"/>
-      <c r="I15" s="58">
+      <c r="G15" s="42"/>
+      <c r="H15" s="43"/>
+      <c r="I15" s="48">
         <f>'Daily Schedule SUN'!I15:J15</f>
         <v>0</v>
       </c>
-      <c r="J15" s="59"/>
+      <c r="J15" s="49"/>
     </row>
     <row r="16" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="8"/>
@@ -6270,16 +6328,16 @@
       <c r="D16" s="8"/>
       <c r="E16" s="17"/>
       <c r="F16" s="8"/>
-      <c r="G16" s="38">
+      <c r="G16" s="56">
         <f>G7+3</f>
         <v>42866</v>
       </c>
-      <c r="H16" s="39"/>
-      <c r="I16" s="60">
+      <c r="H16" s="57"/>
+      <c r="I16" s="62">
         <f>'Daily Schedule SUN'!I16:J16</f>
         <v>0</v>
       </c>
-      <c r="J16" s="61"/>
+      <c r="J16" s="63"/>
     </row>
     <row r="17" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="8"/>
@@ -6291,13 +6349,13 @@
       <c r="D17" s="8"/>
       <c r="E17" s="16"/>
       <c r="F17" s="8"/>
-      <c r="G17" s="40"/>
-      <c r="H17" s="41"/>
-      <c r="I17" s="46">
+      <c r="G17" s="58"/>
+      <c r="H17" s="59"/>
+      <c r="I17" s="44">
         <f>'Daily Schedule SUN'!I17:J17</f>
         <v>0</v>
       </c>
-      <c r="J17" s="47"/>
+      <c r="J17" s="45"/>
     </row>
     <row r="18" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="8"/>
@@ -6309,13 +6367,13 @@
       <c r="D18" s="8"/>
       <c r="E18" s="17"/>
       <c r="F18" s="8"/>
-      <c r="G18" s="42"/>
-      <c r="H18" s="43"/>
-      <c r="I18" s="48">
+      <c r="G18" s="60"/>
+      <c r="H18" s="61"/>
+      <c r="I18" s="64">
         <f>'Daily Schedule SUN'!I18:J18</f>
         <v>0</v>
       </c>
-      <c r="J18" s="49"/>
+      <c r="J18" s="65"/>
     </row>
     <row r="19" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="8"/>
@@ -6327,16 +6385,16 @@
       <c r="D19" s="8"/>
       <c r="E19" s="16"/>
       <c r="F19" s="8"/>
-      <c r="G19" s="50">
+      <c r="G19" s="66">
         <f>G7+4</f>
         <v>42867</v>
       </c>
-      <c r="H19" s="51"/>
-      <c r="I19" s="56">
+      <c r="H19" s="67"/>
+      <c r="I19" s="68">
         <f>'Daily Schedule SUN'!I19:J19</f>
         <v>0</v>
       </c>
-      <c r="J19" s="57"/>
+      <c r="J19" s="69"/>
     </row>
     <row r="20" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="8"/>
@@ -6348,13 +6406,13 @@
       <c r="D20" s="8"/>
       <c r="E20" s="17"/>
       <c r="F20" s="8"/>
-      <c r="G20" s="52"/>
-      <c r="H20" s="53"/>
-      <c r="I20" s="44">
+      <c r="G20" s="40"/>
+      <c r="H20" s="41"/>
+      <c r="I20" s="46">
         <f>'Daily Schedule SUN'!I20:J20</f>
         <v>0</v>
       </c>
-      <c r="J20" s="45"/>
+      <c r="J20" s="47"/>
     </row>
     <row r="21" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="8"/>
@@ -6366,13 +6424,13 @@
       <c r="D21" s="8"/>
       <c r="E21" s="16"/>
       <c r="F21" s="8"/>
-      <c r="G21" s="54"/>
-      <c r="H21" s="55"/>
-      <c r="I21" s="58">
+      <c r="G21" s="42"/>
+      <c r="H21" s="43"/>
+      <c r="I21" s="48">
         <f>'Daily Schedule SUN'!I21:J21</f>
         <v>0</v>
       </c>
-      <c r="J21" s="59"/>
+      <c r="J21" s="49"/>
     </row>
     <row r="22" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="8"/>
@@ -6384,16 +6442,16 @@
       <c r="D22" s="8"/>
       <c r="E22" s="17"/>
       <c r="F22" s="8"/>
-      <c r="G22" s="38">
+      <c r="G22" s="56">
         <f>G7+5</f>
         <v>42868</v>
       </c>
-      <c r="H22" s="39"/>
-      <c r="I22" s="60">
+      <c r="H22" s="57"/>
+      <c r="I22" s="62">
         <f>'Daily Schedule SUN'!I22:J22</f>
         <v>0</v>
       </c>
-      <c r="J22" s="61"/>
+      <c r="J22" s="63"/>
     </row>
     <row r="23" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="8"/>
@@ -6405,13 +6463,13 @@
       <c r="D23" s="8"/>
       <c r="E23" s="16"/>
       <c r="F23" s="8"/>
-      <c r="G23" s="40"/>
-      <c r="H23" s="41"/>
-      <c r="I23" s="46">
+      <c r="G23" s="58"/>
+      <c r="H23" s="59"/>
+      <c r="I23" s="44">
         <f>'Daily Schedule SUN'!I23:J23</f>
         <v>0</v>
       </c>
-      <c r="J23" s="47"/>
+      <c r="J23" s="45"/>
     </row>
     <row r="24" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="8"/>
@@ -6423,13 +6481,13 @@
       <c r="D24" s="8"/>
       <c r="E24" s="17"/>
       <c r="F24" s="8"/>
-      <c r="G24" s="42"/>
-      <c r="H24" s="43"/>
-      <c r="I24" s="48">
+      <c r="G24" s="60"/>
+      <c r="H24" s="61"/>
+      <c r="I24" s="64">
         <f>'Daily Schedule SUN'!I24:J24</f>
         <v>0</v>
       </c>
-      <c r="J24" s="49"/>
+      <c r="J24" s="65"/>
     </row>
     <row r="25" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="8"/>
@@ -6441,16 +6499,16 @@
       <c r="D25" s="8"/>
       <c r="E25" s="16"/>
       <c r="F25" s="8"/>
-      <c r="G25" s="50">
+      <c r="G25" s="66">
         <f>G7+6</f>
         <v>42869</v>
       </c>
-      <c r="H25" s="51"/>
-      <c r="I25" s="56">
+      <c r="H25" s="67"/>
+      <c r="I25" s="68">
         <f>'Daily Schedule SUN'!I25:J25</f>
         <v>0</v>
       </c>
-      <c r="J25" s="57"/>
+      <c r="J25" s="69"/>
     </row>
     <row r="26" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="8"/>
@@ -6462,13 +6520,13 @@
       <c r="D26" s="8"/>
       <c r="E26" s="17"/>
       <c r="F26" s="8"/>
-      <c r="G26" s="52"/>
-      <c r="H26" s="53"/>
-      <c r="I26" s="44">
+      <c r="G26" s="40"/>
+      <c r="H26" s="41"/>
+      <c r="I26" s="46">
         <f>'Daily Schedule SUN'!I26:J26</f>
         <v>0</v>
       </c>
-      <c r="J26" s="45"/>
+      <c r="J26" s="47"/>
     </row>
     <row r="27" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="8"/>
@@ -6480,13 +6538,13 @@
       <c r="D27" s="8"/>
       <c r="E27" s="16"/>
       <c r="F27" s="8"/>
-      <c r="G27" s="54"/>
-      <c r="H27" s="55"/>
-      <c r="I27" s="58">
+      <c r="G27" s="42"/>
+      <c r="H27" s="43"/>
+      <c r="I27" s="48">
         <f>'Daily Schedule SUN'!I27:J27</f>
         <v>0</v>
       </c>
-      <c r="J27" s="59"/>
+      <c r="J27" s="49"/>
     </row>
     <row r="28" spans="1:10" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A28" s="8"/>
@@ -6513,12 +6571,12 @@
       <c r="D29" s="8"/>
       <c r="E29" s="16"/>
       <c r="F29" s="8"/>
-      <c r="G29" s="29" t="s">
+      <c r="G29" s="70" t="s">
         <v>26</v>
       </c>
-      <c r="H29" s="30"/>
-      <c r="I29" s="30"/>
-      <c r="J29" s="31"/>
+      <c r="H29" s="71"/>
+      <c r="I29" s="71"/>
+      <c r="J29" s="72"/>
     </row>
     <row r="30" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30" s="8"/>
@@ -6530,10 +6588,10 @@
       <c r="D30" s="8"/>
       <c r="E30" s="17"/>
       <c r="F30" s="8"/>
-      <c r="G30" s="32"/>
-      <c r="H30" s="33"/>
-      <c r="I30" s="33"/>
-      <c r="J30" s="34"/>
+      <c r="G30" s="73"/>
+      <c r="H30" s="74"/>
+      <c r="I30" s="74"/>
+      <c r="J30" s="75"/>
     </row>
     <row r="31" spans="1:10" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A31" s="8"/>
@@ -6545,10 +6603,10 @@
       <c r="D31" s="8"/>
       <c r="E31" s="16"/>
       <c r="F31" s="8"/>
-      <c r="G31" s="35"/>
-      <c r="H31" s="36"/>
-      <c r="I31" s="36"/>
-      <c r="J31" s="37"/>
+      <c r="G31" s="76"/>
+      <c r="H31" s="77"/>
+      <c r="I31" s="77"/>
+      <c r="J31" s="78"/>
     </row>
     <row r="32" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A32" s="8"/>
@@ -6672,30 +6730,6 @@
     </row>
   </sheetData>
   <mergeCells count="33">
-    <mergeCell ref="B2:C3"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="G5:J6"/>
-    <mergeCell ref="G7:H9"/>
-    <mergeCell ref="I7:J7"/>
-    <mergeCell ref="I8:J8"/>
-    <mergeCell ref="I9:J9"/>
-    <mergeCell ref="G10:H12"/>
-    <mergeCell ref="I10:J10"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="I12:J12"/>
-    <mergeCell ref="G13:H15"/>
-    <mergeCell ref="I13:J13"/>
-    <mergeCell ref="I14:J14"/>
-    <mergeCell ref="I15:J15"/>
-    <mergeCell ref="G16:H18"/>
-    <mergeCell ref="I16:J16"/>
-    <mergeCell ref="I17:J17"/>
-    <mergeCell ref="I18:J18"/>
-    <mergeCell ref="G19:H21"/>
-    <mergeCell ref="I19:J19"/>
-    <mergeCell ref="I20:J20"/>
-    <mergeCell ref="I21:J21"/>
     <mergeCell ref="G29:J31"/>
     <mergeCell ref="G22:H24"/>
     <mergeCell ref="I22:J22"/>
@@ -6705,6 +6739,30 @@
     <mergeCell ref="I25:J25"/>
     <mergeCell ref="I26:J26"/>
     <mergeCell ref="I27:J27"/>
+    <mergeCell ref="G16:H18"/>
+    <mergeCell ref="I16:J16"/>
+    <mergeCell ref="I17:J17"/>
+    <mergeCell ref="I18:J18"/>
+    <mergeCell ref="G19:H21"/>
+    <mergeCell ref="I19:J19"/>
+    <mergeCell ref="I20:J20"/>
+    <mergeCell ref="I21:J21"/>
+    <mergeCell ref="G10:H12"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="G13:H15"/>
+    <mergeCell ref="I13:J13"/>
+    <mergeCell ref="I14:J14"/>
+    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="B2:C3"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="G5:J6"/>
+    <mergeCell ref="G7:H9"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="I8:J8"/>
+    <mergeCell ref="I9:J9"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="G29" r:id="rId1"/>

--- a/daily-work-schedule-template.xlsx
+++ b/daily-work-schedule-template.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17927"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Enendu\Documents\GitHub\Dialect\DialectApp\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\Cnas.ru.nl\u224159\Documents\Visual Studio 2017\Projects\DialectApp\DialectFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14380" windowHeight="4090" tabRatio="500" firstSheet="1" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14385" windowHeight="4095" tabRatio="500" firstSheet="1" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Daily Schedule SUN" sheetId="4" r:id="rId1"/>
@@ -39,7 +39,7 @@
     <definedName name="ScheduleStart" localSheetId="3">WED!#REF!</definedName>
     <definedName name="ScheduleStart">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="171027" concurrentCalc="0"/>
+  <calcPr calcId="162913" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="54">
   <si>
     <t>TIME</t>
   </si>
@@ -190,6 +190,27 @@
   </si>
   <si>
     <t>Build users table</t>
+  </si>
+  <si>
+    <t>Done</t>
+  </si>
+  <si>
+    <t>Create sentences db table</t>
+  </si>
+  <si>
+    <t>Create model for sentences</t>
+  </si>
+  <si>
+    <t>Add home link to sign in and sign up (Dialect App)</t>
+  </si>
+  <si>
+    <t>Add login required decorator function to pages to protect them</t>
+  </si>
+  <si>
+    <t>Create sentence pages for Pronounce app</t>
+  </si>
+  <si>
+    <t>Wrok on jquery footer for Dialect App</t>
   </si>
 </sst>
 </file>
@@ -719,7 +740,7 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="82">
+  <cellXfs count="83">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="18" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -815,6 +836,105 @@
     <xf numFmtId="0" fontId="19" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="10" fillId="13" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="10" fillId="13" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="10" fillId="13" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="10" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="10" fillId="13" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="10" fillId="13" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="10" fillId="17" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="10" fillId="17" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="10" fillId="17" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="10" fillId="17" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="10" fillId="17" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="10" fillId="17" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -824,36 +944,6 @@
     <xf numFmtId="0" fontId="6" fillId="12" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="10" fillId="17" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="10" fillId="17" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="10" fillId="17" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="10" fillId="17" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="13" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -872,83 +962,17 @@
     <xf numFmtId="0" fontId="11" fillId="13" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="165" fontId="10" fillId="13" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="10" fillId="13" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="10" fillId="13" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="10" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="10" fillId="13" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="10" fillId="13" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="10" fillId="17" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="10" fillId="17" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="10" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -1276,22 +1300,22 @@
       <selection activeCell="K3" sqref="K3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.69140625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="2.84375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="2.88671875" style="1" customWidth="1"/>
     <col min="2" max="2" width="13" style="1" customWidth="1"/>
-    <col min="3" max="3" width="55.69140625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="3.3828125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="55.84375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="3.3828125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="23.84375" style="1" customWidth="1"/>
-    <col min="8" max="8" width="3.3828125" style="1" customWidth="1"/>
-    <col min="9" max="9" width="23.84375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="21.3828125" style="1" customWidth="1"/>
-    <col min="11" max="16384" width="10.69140625" style="1"/>
+    <col min="3" max="3" width="55.6640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="3.33203125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="55.88671875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="3.33203125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="23.88671875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="3.33203125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="23.88671875" style="1" customWidth="1"/>
+    <col min="10" max="10" width="21.33203125" style="1" customWidth="1"/>
+    <col min="11" max="16384" width="10.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="11" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="8"/>
       <c r="B1" s="8"/>
       <c r="C1" s="8"/>
@@ -1303,12 +1327,12 @@
       <c r="I1" s="8"/>
       <c r="J1" s="8"/>
     </row>
-    <row r="2" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.65">
+    <row r="2" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A2" s="8"/>
-      <c r="B2" s="37" t="s">
+      <c r="B2" s="70" t="s">
         <v>25</v>
       </c>
-      <c r="C2" s="37"/>
+      <c r="C2" s="70"/>
       <c r="D2" s="9"/>
       <c r="E2" s="12" t="s">
         <v>13</v>
@@ -1323,10 +1347,10 @@
       </c>
       <c r="J2" s="8"/>
     </row>
-    <row r="3" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.65">
+    <row r="3" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A3" s="8"/>
-      <c r="B3" s="37"/>
-      <c r="C3" s="37"/>
+      <c r="B3" s="70"/>
+      <c r="C3" s="70"/>
       <c r="D3" s="9"/>
       <c r="E3" s="13">
         <v>42863</v>
@@ -1341,7 +1365,7 @@
       </c>
       <c r="J3" s="8"/>
     </row>
-    <row r="4" spans="1:10" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="8"/>
       <c r="B4" s="10"/>
       <c r="C4" s="10"/>
@@ -1356,44 +1380,44 @@
       </c>
       <c r="J4" s="8"/>
     </row>
-    <row r="5" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="8"/>
-      <c r="B5" s="38" t="s">
+      <c r="B5" s="71" t="s">
         <v>0</v>
       </c>
       <c r="C5" s="23" t="s">
         <v>17</v>
       </c>
       <c r="D5" s="8"/>
-      <c r="E5" s="39" t="s">
+      <c r="E5" s="72" t="s">
         <v>14</v>
       </c>
       <c r="F5" s="8"/>
-      <c r="G5" s="50" t="s">
+      <c r="G5" s="73" t="s">
         <v>23</v>
       </c>
-      <c r="H5" s="51"/>
-      <c r="I5" s="51"/>
-      <c r="J5" s="52"/>
-    </row>
-    <row r="6" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="H5" s="74"/>
+      <c r="I5" s="74"/>
+      <c r="J5" s="75"/>
+    </row>
+    <row r="6" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="8"/>
-      <c r="B6" s="38"/>
+      <c r="B6" s="71"/>
       <c r="C6" s="24">
         <f>E3</f>
         <v>42863</v>
       </c>
       <c r="D6" s="8"/>
-      <c r="E6" s="39"/>
+      <c r="E6" s="72"/>
       <c r="F6" s="8"/>
-      <c r="G6" s="53" t="s">
+      <c r="G6" s="76" t="s">
         <v>24</v>
       </c>
-      <c r="H6" s="54"/>
-      <c r="I6" s="54"/>
-      <c r="J6" s="55"/>
-    </row>
-    <row r="7" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="H6" s="77"/>
+      <c r="I6" s="77"/>
+      <c r="J6" s="78"/>
+    </row>
+    <row r="7" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="8"/>
       <c r="B7" s="18">
         <f>G3</f>
@@ -1403,15 +1427,15 @@
       <c r="D7" s="8"/>
       <c r="E7" s="16"/>
       <c r="F7" s="8"/>
-      <c r="G7" s="40">
+      <c r="G7" s="60">
         <f>E3</f>
         <v>42863</v>
       </c>
-      <c r="H7" s="41"/>
-      <c r="I7" s="44"/>
-      <c r="J7" s="45"/>
-    </row>
-    <row r="8" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="H7" s="61"/>
+      <c r="I7" s="54"/>
+      <c r="J7" s="55"/>
+    </row>
+    <row r="8" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="8"/>
       <c r="B8" s="19">
         <f t="shared" ref="B8:B39" si="0">B7+TIME(0,Interval,0)</f>
@@ -1421,12 +1445,12 @@
       <c r="D8" s="8"/>
       <c r="E8" s="17"/>
       <c r="F8" s="8"/>
-      <c r="G8" s="40"/>
-      <c r="H8" s="41"/>
-      <c r="I8" s="46"/>
-      <c r="J8" s="47"/>
-    </row>
-    <row r="9" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="G8" s="60"/>
+      <c r="H8" s="61"/>
+      <c r="I8" s="52"/>
+      <c r="J8" s="53"/>
+    </row>
+    <row r="9" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="8"/>
       <c r="B9" s="18">
         <f t="shared" si="0"/>
@@ -1436,12 +1460,12 @@
       <c r="D9" s="8"/>
       <c r="E9" s="16"/>
       <c r="F9" s="8"/>
-      <c r="G9" s="42"/>
-      <c r="H9" s="43"/>
-      <c r="I9" s="48"/>
-      <c r="J9" s="49"/>
-    </row>
-    <row r="10" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="G9" s="62"/>
+      <c r="H9" s="63"/>
+      <c r="I9" s="66"/>
+      <c r="J9" s="67"/>
+    </row>
+    <row r="10" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="8"/>
       <c r="B10" s="19">
         <f t="shared" si="0"/>
@@ -1451,15 +1475,15 @@
       <c r="D10" s="8"/>
       <c r="E10" s="17"/>
       <c r="F10" s="8"/>
-      <c r="G10" s="56">
+      <c r="G10" s="46">
         <f>G7+1</f>
         <v>42864</v>
       </c>
-      <c r="H10" s="57"/>
-      <c r="I10" s="62"/>
-      <c r="J10" s="63"/>
-    </row>
-    <row r="11" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="H10" s="47"/>
+      <c r="I10" s="68"/>
+      <c r="J10" s="69"/>
+    </row>
+    <row r="11" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="8"/>
       <c r="B11" s="18">
         <f t="shared" si="0"/>
@@ -1469,12 +1493,12 @@
       <c r="D11" s="8"/>
       <c r="E11" s="16"/>
       <c r="F11" s="8"/>
-      <c r="G11" s="58"/>
-      <c r="H11" s="59"/>
-      <c r="I11" s="44"/>
-      <c r="J11" s="45"/>
-    </row>
-    <row r="12" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="G11" s="48"/>
+      <c r="H11" s="49"/>
+      <c r="I11" s="54"/>
+      <c r="J11" s="55"/>
+    </row>
+    <row r="12" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="8"/>
       <c r="B12" s="19">
         <f t="shared" si="0"/>
@@ -1484,12 +1508,12 @@
       <c r="D12" s="8"/>
       <c r="E12" s="17"/>
       <c r="F12" s="8"/>
-      <c r="G12" s="60"/>
-      <c r="H12" s="61"/>
-      <c r="I12" s="64"/>
-      <c r="J12" s="65"/>
-    </row>
-    <row r="13" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="G12" s="50"/>
+      <c r="H12" s="51"/>
+      <c r="I12" s="56"/>
+      <c r="J12" s="57"/>
+    </row>
+    <row r="13" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="8"/>
       <c r="B13" s="18">
         <f t="shared" si="0"/>
@@ -1499,15 +1523,15 @@
       <c r="D13" s="8"/>
       <c r="E13" s="16"/>
       <c r="F13" s="8"/>
-      <c r="G13" s="66">
+      <c r="G13" s="58">
         <f>G7+2</f>
         <v>42865</v>
       </c>
-      <c r="H13" s="67"/>
-      <c r="I13" s="68"/>
-      <c r="J13" s="69"/>
-    </row>
-    <row r="14" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="H13" s="59"/>
+      <c r="I13" s="64"/>
+      <c r="J13" s="65"/>
+    </row>
+    <row r="14" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="8"/>
       <c r="B14" s="19">
         <f t="shared" si="0"/>
@@ -1517,12 +1541,12 @@
       <c r="D14" s="8"/>
       <c r="E14" s="17"/>
       <c r="F14" s="8"/>
-      <c r="G14" s="40"/>
-      <c r="H14" s="41"/>
-      <c r="I14" s="46"/>
-      <c r="J14" s="47"/>
-    </row>
-    <row r="15" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="G14" s="60"/>
+      <c r="H14" s="61"/>
+      <c r="I14" s="52"/>
+      <c r="J14" s="53"/>
+    </row>
+    <row r="15" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="8"/>
       <c r="B15" s="18">
         <f t="shared" si="0"/>
@@ -1532,12 +1556,12 @@
       <c r="D15" s="8"/>
       <c r="E15" s="16"/>
       <c r="F15" s="8"/>
-      <c r="G15" s="42"/>
-      <c r="H15" s="43"/>
-      <c r="I15" s="48"/>
-      <c r="J15" s="49"/>
-    </row>
-    <row r="16" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="G15" s="62"/>
+      <c r="H15" s="63"/>
+      <c r="I15" s="66"/>
+      <c r="J15" s="67"/>
+    </row>
+    <row r="16" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="8"/>
       <c r="B16" s="19">
         <f t="shared" si="0"/>
@@ -1547,15 +1571,15 @@
       <c r="D16" s="8"/>
       <c r="E16" s="17"/>
       <c r="F16" s="8"/>
-      <c r="G16" s="56">
+      <c r="G16" s="46">
         <f>G7+3</f>
         <v>42866</v>
       </c>
-      <c r="H16" s="57"/>
-      <c r="I16" s="62"/>
-      <c r="J16" s="63"/>
-    </row>
-    <row r="17" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="H16" s="47"/>
+      <c r="I16" s="68"/>
+      <c r="J16" s="69"/>
+    </row>
+    <row r="17" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="8"/>
       <c r="B17" s="18">
         <f t="shared" si="0"/>
@@ -1565,12 +1589,12 @@
       <c r="D17" s="8"/>
       <c r="E17" s="16"/>
       <c r="F17" s="8"/>
-      <c r="G17" s="58"/>
-      <c r="H17" s="59"/>
-      <c r="I17" s="44"/>
-      <c r="J17" s="45"/>
-    </row>
-    <row r="18" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="G17" s="48"/>
+      <c r="H17" s="49"/>
+      <c r="I17" s="54"/>
+      <c r="J17" s="55"/>
+    </row>
+    <row r="18" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="8"/>
       <c r="B18" s="19">
         <f t="shared" si="0"/>
@@ -1580,12 +1604,12 @@
       <c r="D18" s="8"/>
       <c r="E18" s="17"/>
       <c r="F18" s="8"/>
-      <c r="G18" s="60"/>
-      <c r="H18" s="61"/>
-      <c r="I18" s="64"/>
-      <c r="J18" s="65"/>
-    </row>
-    <row r="19" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="G18" s="50"/>
+      <c r="H18" s="51"/>
+      <c r="I18" s="56"/>
+      <c r="J18" s="57"/>
+    </row>
+    <row r="19" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="8"/>
       <c r="B19" s="18">
         <f t="shared" si="0"/>
@@ -1595,15 +1619,15 @@
       <c r="D19" s="8"/>
       <c r="E19" s="16"/>
       <c r="F19" s="8"/>
-      <c r="G19" s="66">
+      <c r="G19" s="58">
         <f>G7+4</f>
         <v>42867</v>
       </c>
-      <c r="H19" s="67"/>
-      <c r="I19" s="68"/>
-      <c r="J19" s="69"/>
-    </row>
-    <row r="20" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="H19" s="59"/>
+      <c r="I19" s="64"/>
+      <c r="J19" s="65"/>
+    </row>
+    <row r="20" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="8"/>
       <c r="B20" s="19">
         <f t="shared" si="0"/>
@@ -1613,12 +1637,12 @@
       <c r="D20" s="8"/>
       <c r="E20" s="17"/>
       <c r="F20" s="8"/>
-      <c r="G20" s="40"/>
-      <c r="H20" s="41"/>
-      <c r="I20" s="46"/>
-      <c r="J20" s="47"/>
-    </row>
-    <row r="21" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="G20" s="60"/>
+      <c r="H20" s="61"/>
+      <c r="I20" s="52"/>
+      <c r="J20" s="53"/>
+    </row>
+    <row r="21" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="8"/>
       <c r="B21" s="18">
         <f t="shared" si="0"/>
@@ -1628,12 +1652,12 @@
       <c r="D21" s="8"/>
       <c r="E21" s="16"/>
       <c r="F21" s="8"/>
-      <c r="G21" s="42"/>
-      <c r="H21" s="43"/>
-      <c r="I21" s="48"/>
-      <c r="J21" s="49"/>
-    </row>
-    <row r="22" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="G21" s="62"/>
+      <c r="H21" s="63"/>
+      <c r="I21" s="66"/>
+      <c r="J21" s="67"/>
+    </row>
+    <row r="22" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="8"/>
       <c r="B22" s="19">
         <f t="shared" si="0"/>
@@ -1643,15 +1667,15 @@
       <c r="D22" s="8"/>
       <c r="E22" s="17"/>
       <c r="F22" s="8"/>
-      <c r="G22" s="56">
+      <c r="G22" s="46">
         <f>G7+5</f>
         <v>42868</v>
       </c>
-      <c r="H22" s="57"/>
-      <c r="I22" s="46"/>
-      <c r="J22" s="47"/>
-    </row>
-    <row r="23" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="H22" s="47"/>
+      <c r="I22" s="52"/>
+      <c r="J22" s="53"/>
+    </row>
+    <row r="23" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="8"/>
       <c r="B23" s="18">
         <f t="shared" si="0"/>
@@ -1661,12 +1685,12 @@
       <c r="D23" s="8"/>
       <c r="E23" s="16"/>
       <c r="F23" s="8"/>
-      <c r="G23" s="58"/>
-      <c r="H23" s="59"/>
-      <c r="I23" s="44"/>
-      <c r="J23" s="45"/>
-    </row>
-    <row r="24" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="G23" s="48"/>
+      <c r="H23" s="49"/>
+      <c r="I23" s="54"/>
+      <c r="J23" s="55"/>
+    </row>
+    <row r="24" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="8"/>
       <c r="B24" s="19">
         <f t="shared" si="0"/>
@@ -1676,12 +1700,12 @@
       <c r="D24" s="8"/>
       <c r="E24" s="17"/>
       <c r="F24" s="8"/>
-      <c r="G24" s="60"/>
-      <c r="H24" s="61"/>
-      <c r="I24" s="64"/>
-      <c r="J24" s="65"/>
-    </row>
-    <row r="25" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="G24" s="50"/>
+      <c r="H24" s="51"/>
+      <c r="I24" s="56"/>
+      <c r="J24" s="57"/>
+    </row>
+    <row r="25" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="8"/>
       <c r="B25" s="18">
         <f t="shared" si="0"/>
@@ -1691,15 +1715,15 @@
       <c r="D25" s="8"/>
       <c r="E25" s="16"/>
       <c r="F25" s="8"/>
-      <c r="G25" s="66">
+      <c r="G25" s="58">
         <f>G7+6</f>
         <v>42869</v>
       </c>
-      <c r="H25" s="67"/>
-      <c r="I25" s="68"/>
-      <c r="J25" s="69"/>
-    </row>
-    <row r="26" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="H25" s="59"/>
+      <c r="I25" s="64"/>
+      <c r="J25" s="65"/>
+    </row>
+    <row r="26" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="8"/>
       <c r="B26" s="19">
         <f t="shared" si="0"/>
@@ -1709,12 +1733,12 @@
       <c r="D26" s="8"/>
       <c r="E26" s="17"/>
       <c r="F26" s="8"/>
-      <c r="G26" s="40"/>
-      <c r="H26" s="41"/>
-      <c r="I26" s="46"/>
-      <c r="J26" s="47"/>
-    </row>
-    <row r="27" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="G26" s="60"/>
+      <c r="H26" s="61"/>
+      <c r="I26" s="52"/>
+      <c r="J26" s="53"/>
+    </row>
+    <row r="27" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="8"/>
       <c r="B27" s="18">
         <f t="shared" si="0"/>
@@ -1724,12 +1748,12 @@
       <c r="D27" s="8"/>
       <c r="E27" s="16"/>
       <c r="F27" s="8"/>
-      <c r="G27" s="42"/>
-      <c r="H27" s="43"/>
-      <c r="I27" s="48"/>
-      <c r="J27" s="49"/>
-    </row>
-    <row r="28" spans="1:10" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="G27" s="62"/>
+      <c r="H27" s="63"/>
+      <c r="I27" s="66"/>
+      <c r="J27" s="67"/>
+    </row>
+    <row r="28" spans="1:10" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="8"/>
       <c r="B28" s="19">
         <f t="shared" si="0"/>
@@ -1744,7 +1768,7 @@
       <c r="I28" s="8"/>
       <c r="J28" s="8"/>
     </row>
-    <row r="29" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="8"/>
       <c r="B29" s="18">
         <f t="shared" si="0"/>
@@ -1754,14 +1778,14 @@
       <c r="D29" s="8"/>
       <c r="E29" s="16"/>
       <c r="F29" s="8"/>
-      <c r="G29" s="70" t="s">
+      <c r="G29" s="37" t="s">
         <v>26</v>
       </c>
-      <c r="H29" s="71"/>
-      <c r="I29" s="71"/>
-      <c r="J29" s="72"/>
-    </row>
-    <row r="30" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="H29" s="38"/>
+      <c r="I29" s="38"/>
+      <c r="J29" s="39"/>
+    </row>
+    <row r="30" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="8"/>
       <c r="B30" s="19">
         <f t="shared" si="0"/>
@@ -1771,12 +1795,12 @@
       <c r="D30" s="8"/>
       <c r="E30" s="17"/>
       <c r="F30" s="8"/>
-      <c r="G30" s="73"/>
-      <c r="H30" s="74"/>
-      <c r="I30" s="74"/>
-      <c r="J30" s="75"/>
-    </row>
-    <row r="31" spans="1:10" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="G30" s="40"/>
+      <c r="H30" s="41"/>
+      <c r="I30" s="41"/>
+      <c r="J30" s="42"/>
+    </row>
+    <row r="31" spans="1:10" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="8"/>
       <c r="B31" s="18">
         <f t="shared" si="0"/>
@@ -1786,12 +1810,12 @@
       <c r="D31" s="8"/>
       <c r="E31" s="16"/>
       <c r="F31" s="8"/>
-      <c r="G31" s="76"/>
-      <c r="H31" s="77"/>
-      <c r="I31" s="77"/>
-      <c r="J31" s="78"/>
-    </row>
-    <row r="32" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="G31" s="43"/>
+      <c r="H31" s="44"/>
+      <c r="I31" s="44"/>
+      <c r="J31" s="45"/>
+    </row>
+    <row r="32" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="8"/>
       <c r="B32" s="19">
         <f t="shared" si="0"/>
@@ -1806,7 +1830,7 @@
       <c r="I32" s="8"/>
       <c r="J32" s="8"/>
     </row>
-    <row r="33" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="8"/>
       <c r="B33" s="18">
         <f t="shared" si="0"/>
@@ -1821,7 +1845,7 @@
       <c r="I33" s="8"/>
       <c r="J33" s="8"/>
     </row>
-    <row r="34" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="8"/>
       <c r="B34" s="19">
         <f t="shared" si="0"/>
@@ -1836,7 +1860,7 @@
       <c r="I34" s="8"/>
       <c r="J34" s="8"/>
     </row>
-    <row r="35" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="8"/>
       <c r="B35" s="18">
         <f t="shared" si="0"/>
@@ -1851,7 +1875,7 @@
       <c r="I35" s="8"/>
       <c r="J35" s="8"/>
     </row>
-    <row r="36" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="8"/>
       <c r="B36" s="19">
         <f t="shared" si="0"/>
@@ -1866,7 +1890,7 @@
       <c r="I36" s="8"/>
       <c r="J36" s="8"/>
     </row>
-    <row r="37" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="8"/>
       <c r="B37" s="18">
         <f t="shared" si="0"/>
@@ -1881,7 +1905,7 @@
       <c r="I37" s="8"/>
       <c r="J37" s="8"/>
     </row>
-    <row r="38" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="8"/>
       <c r="B38" s="19">
         <f t="shared" si="0"/>
@@ -1896,7 +1920,7 @@
       <c r="I38" s="8"/>
       <c r="J38" s="8"/>
     </row>
-    <row r="39" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="8"/>
       <c r="B39" s="18">
         <f t="shared" si="0"/>
@@ -1913,6 +1937,31 @@
     </row>
   </sheetData>
   <mergeCells count="34">
+    <mergeCell ref="B2:C3"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="G7:H9"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="I8:J8"/>
+    <mergeCell ref="I9:J9"/>
+    <mergeCell ref="G5:J5"/>
+    <mergeCell ref="G6:J6"/>
+    <mergeCell ref="G10:H12"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="G13:H15"/>
+    <mergeCell ref="I13:J13"/>
+    <mergeCell ref="I14:J14"/>
+    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="G16:H18"/>
+    <mergeCell ref="I16:J16"/>
+    <mergeCell ref="I17:J17"/>
+    <mergeCell ref="I18:J18"/>
+    <mergeCell ref="G19:H21"/>
+    <mergeCell ref="I19:J19"/>
+    <mergeCell ref="I20:J20"/>
+    <mergeCell ref="I21:J21"/>
     <mergeCell ref="G29:J31"/>
     <mergeCell ref="G22:H24"/>
     <mergeCell ref="I22:J22"/>
@@ -1922,31 +1971,6 @@
     <mergeCell ref="I25:J25"/>
     <mergeCell ref="I26:J26"/>
     <mergeCell ref="I27:J27"/>
-    <mergeCell ref="G16:H18"/>
-    <mergeCell ref="I16:J16"/>
-    <mergeCell ref="I17:J17"/>
-    <mergeCell ref="I18:J18"/>
-    <mergeCell ref="G19:H21"/>
-    <mergeCell ref="I19:J19"/>
-    <mergeCell ref="I20:J20"/>
-    <mergeCell ref="I21:J21"/>
-    <mergeCell ref="G10:H12"/>
-    <mergeCell ref="I10:J10"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="I12:J12"/>
-    <mergeCell ref="G13:H15"/>
-    <mergeCell ref="I13:J13"/>
-    <mergeCell ref="I14:J14"/>
-    <mergeCell ref="I15:J15"/>
-    <mergeCell ref="B2:C3"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="G7:H9"/>
-    <mergeCell ref="I7:J7"/>
-    <mergeCell ref="I8:J8"/>
-    <mergeCell ref="I9:J9"/>
-    <mergeCell ref="G5:J5"/>
-    <mergeCell ref="G6:J6"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="G29" r:id="rId1"/>
@@ -1999,22 +2023,22 @@
       <selection activeCell="E33" sqref="E33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.69140625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="2.84375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="2.88671875" style="1" customWidth="1"/>
     <col min="2" max="2" width="13" style="1" customWidth="1"/>
-    <col min="3" max="3" width="55.69140625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="3.3828125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="55.84375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="3.3828125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="23.84375" style="1" customWidth="1"/>
-    <col min="8" max="8" width="3.3828125" style="1" customWidth="1"/>
-    <col min="9" max="9" width="23.84375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="21.3828125" style="1" customWidth="1"/>
-    <col min="11" max="16384" width="10.69140625" style="1"/>
+    <col min="3" max="3" width="55.6640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="3.33203125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="55.88671875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="3.33203125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="23.88671875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="3.33203125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="23.88671875" style="1" customWidth="1"/>
+    <col min="10" max="10" width="21.33203125" style="1" customWidth="1"/>
+    <col min="11" max="16384" width="10.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="11" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="8"/>
       <c r="B1" s="8"/>
       <c r="C1" s="8"/>
@@ -2026,12 +2050,12 @@
       <c r="I1" s="8"/>
       <c r="J1" s="8"/>
     </row>
-    <row r="2" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.65">
+    <row r="2" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A2" s="8"/>
-      <c r="B2" s="37" t="s">
+      <c r="B2" s="70" t="s">
         <v>25</v>
       </c>
-      <c r="C2" s="37"/>
+      <c r="C2" s="70"/>
       <c r="D2" s="9"/>
       <c r="E2" s="12" t="s">
         <v>13</v>
@@ -2046,10 +2070,10 @@
       </c>
       <c r="J2" s="8"/>
     </row>
-    <row r="3" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.65">
+    <row r="3" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A3" s="8"/>
-      <c r="B3" s="37"/>
-      <c r="C3" s="37"/>
+      <c r="B3" s="70"/>
+      <c r="C3" s="70"/>
       <c r="D3" s="9"/>
       <c r="E3" s="13">
         <f>'Daily Schedule SUN'!E3</f>
@@ -2065,7 +2089,7 @@
       </c>
       <c r="J3" s="8"/>
     </row>
-    <row r="4" spans="1:10" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="8"/>
       <c r="B4" s="10"/>
       <c r="C4" s="10"/>
@@ -2080,42 +2104,42 @@
       </c>
       <c r="J4" s="8"/>
     </row>
-    <row r="5" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="8"/>
-      <c r="B5" s="79" t="s">
+      <c r="B5" s="81" t="s">
         <v>0</v>
       </c>
       <c r="C5" s="31" t="s">
         <v>16</v>
       </c>
       <c r="D5" s="8"/>
-      <c r="E5" s="39" t="s">
+      <c r="E5" s="72" t="s">
         <v>14</v>
       </c>
       <c r="F5" s="8"/>
-      <c r="G5" s="80" t="s">
+      <c r="G5" s="79" t="s">
         <v>15</v>
       </c>
-      <c r="H5" s="81"/>
-      <c r="I5" s="80"/>
-      <c r="J5" s="80"/>
-    </row>
-    <row r="6" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="H5" s="80"/>
+      <c r="I5" s="79"/>
+      <c r="J5" s="79"/>
+    </row>
+    <row r="6" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="8"/>
-      <c r="B6" s="79"/>
+      <c r="B6" s="81"/>
       <c r="C6" s="32">
         <f>E3+1</f>
         <v>42864</v>
       </c>
       <c r="D6" s="8"/>
-      <c r="E6" s="39"/>
+      <c r="E6" s="72"/>
       <c r="F6" s="8"/>
-      <c r="G6" s="80"/>
-      <c r="H6" s="80"/>
-      <c r="I6" s="80"/>
-      <c r="J6" s="80"/>
-    </row>
-    <row r="7" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="G6" s="79"/>
+      <c r="H6" s="79"/>
+      <c r="I6" s="79"/>
+      <c r="J6" s="79"/>
+    </row>
+    <row r="7" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="8"/>
       <c r="B7" s="33">
         <f>G3</f>
@@ -2125,18 +2149,18 @@
       <c r="D7" s="8"/>
       <c r="E7" s="16"/>
       <c r="F7" s="8"/>
-      <c r="G7" s="66">
+      <c r="G7" s="58">
         <f>E3</f>
         <v>42863</v>
       </c>
-      <c r="H7" s="67"/>
-      <c r="I7" s="68">
+      <c r="H7" s="59"/>
+      <c r="I7" s="64">
         <f>'Daily Schedule SUN'!I7:J7</f>
         <v>0</v>
       </c>
-      <c r="J7" s="69"/>
-    </row>
-    <row r="8" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="J7" s="65"/>
+    </row>
+    <row r="8" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="8"/>
       <c r="B8" s="35">
         <f t="shared" ref="B8:B39" si="0">B7+TIME(0,Interval,0)</f>
@@ -2146,15 +2170,15 @@
       <c r="D8" s="8"/>
       <c r="E8" s="17"/>
       <c r="F8" s="8"/>
-      <c r="G8" s="40"/>
-      <c r="H8" s="41"/>
-      <c r="I8" s="46">
+      <c r="G8" s="60"/>
+      <c r="H8" s="61"/>
+      <c r="I8" s="52">
         <f>'Daily Schedule SUN'!I8:J8</f>
         <v>0</v>
       </c>
-      <c r="J8" s="47"/>
-    </row>
-    <row r="9" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="J8" s="53"/>
+    </row>
+    <row r="9" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="8"/>
       <c r="B9" s="33">
         <f t="shared" si="0"/>
@@ -2164,15 +2188,15 @@
       <c r="D9" s="8"/>
       <c r="E9" s="16"/>
       <c r="F9" s="8"/>
-      <c r="G9" s="42"/>
-      <c r="H9" s="43"/>
-      <c r="I9" s="48">
+      <c r="G9" s="62"/>
+      <c r="H9" s="63"/>
+      <c r="I9" s="66">
         <f>'Daily Schedule SUN'!I9:J9</f>
         <v>0</v>
       </c>
-      <c r="J9" s="49"/>
-    </row>
-    <row r="10" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="J9" s="67"/>
+    </row>
+    <row r="10" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="8"/>
       <c r="B10" s="35">
         <f t="shared" si="0"/>
@@ -2182,18 +2206,18 @@
       <c r="D10" s="8"/>
       <c r="E10" s="17"/>
       <c r="F10" s="8"/>
-      <c r="G10" s="56">
+      <c r="G10" s="46">
         <f>G7+1</f>
         <v>42864</v>
       </c>
-      <c r="H10" s="57"/>
-      <c r="I10" s="62">
+      <c r="H10" s="47"/>
+      <c r="I10" s="68">
         <f>'Daily Schedule SUN'!I10:J10</f>
         <v>0</v>
       </c>
-      <c r="J10" s="63"/>
-    </row>
-    <row r="11" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="J10" s="69"/>
+    </row>
+    <row r="11" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="8"/>
       <c r="B11" s="33">
         <f t="shared" si="0"/>
@@ -2203,15 +2227,15 @@
       <c r="D11" s="8"/>
       <c r="E11" s="16"/>
       <c r="F11" s="8"/>
-      <c r="G11" s="58"/>
-      <c r="H11" s="59"/>
-      <c r="I11" s="44">
+      <c r="G11" s="48"/>
+      <c r="H11" s="49"/>
+      <c r="I11" s="54">
         <f>'Daily Schedule SUN'!I11:J11</f>
         <v>0</v>
       </c>
-      <c r="J11" s="45"/>
-    </row>
-    <row r="12" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="J11" s="55"/>
+    </row>
+    <row r="12" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="8"/>
       <c r="B12" s="35">
         <f t="shared" si="0"/>
@@ -2221,15 +2245,15 @@
       <c r="D12" s="8"/>
       <c r="E12" s="17"/>
       <c r="F12" s="8"/>
-      <c r="G12" s="60"/>
-      <c r="H12" s="61"/>
-      <c r="I12" s="64">
+      <c r="G12" s="50"/>
+      <c r="H12" s="51"/>
+      <c r="I12" s="56">
         <f>'Daily Schedule SUN'!I12:J12</f>
         <v>0</v>
       </c>
-      <c r="J12" s="65"/>
-    </row>
-    <row r="13" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="J12" s="57"/>
+    </row>
+    <row r="13" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="8"/>
       <c r="B13" s="33">
         <f t="shared" si="0"/>
@@ -2239,18 +2263,18 @@
       <c r="D13" s="8"/>
       <c r="E13" s="16"/>
       <c r="F13" s="8"/>
-      <c r="G13" s="66">
+      <c r="G13" s="58">
         <f>G7+2</f>
         <v>42865</v>
       </c>
-      <c r="H13" s="67"/>
-      <c r="I13" s="68">
+      <c r="H13" s="59"/>
+      <c r="I13" s="64">
         <f>'Daily Schedule SUN'!I13:J13</f>
         <v>0</v>
       </c>
-      <c r="J13" s="69"/>
-    </row>
-    <row r="14" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="J13" s="65"/>
+    </row>
+    <row r="14" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="8"/>
       <c r="B14" s="35">
         <f t="shared" si="0"/>
@@ -2260,15 +2284,15 @@
       <c r="D14" s="8"/>
       <c r="E14" s="17"/>
       <c r="F14" s="8"/>
-      <c r="G14" s="40"/>
-      <c r="H14" s="41"/>
-      <c r="I14" s="46">
+      <c r="G14" s="60"/>
+      <c r="H14" s="61"/>
+      <c r="I14" s="52">
         <f>'Daily Schedule SUN'!I14:J14</f>
         <v>0</v>
       </c>
-      <c r="J14" s="47"/>
-    </row>
-    <row r="15" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="J14" s="53"/>
+    </row>
+    <row r="15" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="8"/>
       <c r="B15" s="33">
         <f t="shared" si="0"/>
@@ -2278,15 +2302,15 @@
       <c r="D15" s="8"/>
       <c r="E15" s="16"/>
       <c r="F15" s="8"/>
-      <c r="G15" s="42"/>
-      <c r="H15" s="43"/>
-      <c r="I15" s="48">
+      <c r="G15" s="62"/>
+      <c r="H15" s="63"/>
+      <c r="I15" s="66">
         <f>'Daily Schedule SUN'!I15:J15</f>
         <v>0</v>
       </c>
-      <c r="J15" s="49"/>
-    </row>
-    <row r="16" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="J15" s="67"/>
+    </row>
+    <row r="16" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="8"/>
       <c r="B16" s="35">
         <f t="shared" si="0"/>
@@ -2298,18 +2322,18 @@
       <c r="D16" s="8"/>
       <c r="E16" s="17"/>
       <c r="F16" s="8"/>
-      <c r="G16" s="56">
+      <c r="G16" s="46">
         <f>G7+3</f>
         <v>42866</v>
       </c>
-      <c r="H16" s="57"/>
-      <c r="I16" s="62">
+      <c r="H16" s="47"/>
+      <c r="I16" s="68">
         <f>'Daily Schedule SUN'!I16:J16</f>
         <v>0</v>
       </c>
-      <c r="J16" s="63"/>
-    </row>
-    <row r="17" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="J16" s="69"/>
+    </row>
+    <row r="17" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="8"/>
       <c r="B17" s="33">
         <f t="shared" si="0"/>
@@ -2323,15 +2347,15 @@
         <v>34</v>
       </c>
       <c r="F17" s="8"/>
-      <c r="G17" s="58"/>
-      <c r="H17" s="59"/>
-      <c r="I17" s="44">
+      <c r="G17" s="48"/>
+      <c r="H17" s="49"/>
+      <c r="I17" s="54">
         <f>'Daily Schedule SUN'!I17:J17</f>
         <v>0</v>
       </c>
-      <c r="J17" s="45"/>
-    </row>
-    <row r="18" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="J17" s="55"/>
+    </row>
+    <row r="18" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="8"/>
       <c r="B18" s="35">
         <f t="shared" si="0"/>
@@ -2343,15 +2367,15 @@
       <c r="D18" s="8"/>
       <c r="E18" s="17"/>
       <c r="F18" s="8"/>
-      <c r="G18" s="60"/>
-      <c r="H18" s="61"/>
-      <c r="I18" s="64">
+      <c r="G18" s="50"/>
+      <c r="H18" s="51"/>
+      <c r="I18" s="56">
         <f>'Daily Schedule SUN'!I18:J18</f>
         <v>0</v>
       </c>
-      <c r="J18" s="65"/>
-    </row>
-    <row r="19" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="J18" s="57"/>
+    </row>
+    <row r="19" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="8"/>
       <c r="B19" s="33">
         <f t="shared" si="0"/>
@@ -2365,18 +2389,18 @@
         <v>35</v>
       </c>
       <c r="F19" s="8"/>
-      <c r="G19" s="66">
+      <c r="G19" s="58">
         <f>G7+4</f>
         <v>42867</v>
       </c>
-      <c r="H19" s="67"/>
-      <c r="I19" s="68">
+      <c r="H19" s="59"/>
+      <c r="I19" s="64">
         <f>'Daily Schedule SUN'!I19:J19</f>
         <v>0</v>
       </c>
-      <c r="J19" s="69"/>
-    </row>
-    <row r="20" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="J19" s="65"/>
+    </row>
+    <row r="20" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="8"/>
       <c r="B20" s="35">
         <f t="shared" si="0"/>
@@ -2388,15 +2412,15 @@
       <c r="D20" s="8"/>
       <c r="E20" s="17"/>
       <c r="F20" s="8"/>
-      <c r="G20" s="40"/>
-      <c r="H20" s="41"/>
-      <c r="I20" s="46">
+      <c r="G20" s="60"/>
+      <c r="H20" s="61"/>
+      <c r="I20" s="52">
         <f>'Daily Schedule SUN'!I20:J20</f>
         <v>0</v>
       </c>
-      <c r="J20" s="47"/>
-    </row>
-    <row r="21" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="J20" s="53"/>
+    </row>
+    <row r="21" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="8"/>
       <c r="B21" s="33">
         <f t="shared" si="0"/>
@@ -2408,15 +2432,15 @@
       <c r="D21" s="8"/>
       <c r="E21" s="16"/>
       <c r="F21" s="8"/>
-      <c r="G21" s="42"/>
-      <c r="H21" s="43"/>
-      <c r="I21" s="48">
+      <c r="G21" s="62"/>
+      <c r="H21" s="63"/>
+      <c r="I21" s="66">
         <f>'Daily Schedule SUN'!I21:J21</f>
         <v>0</v>
       </c>
-      <c r="J21" s="49"/>
-    </row>
-    <row r="22" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="J21" s="67"/>
+    </row>
+    <row r="22" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="8"/>
       <c r="B22" s="35">
         <f t="shared" si="0"/>
@@ -2428,18 +2452,18 @@
       <c r="D22" s="8"/>
       <c r="E22" s="17"/>
       <c r="F22" s="8"/>
-      <c r="G22" s="56">
+      <c r="G22" s="46">
         <f>G7+5</f>
         <v>42868</v>
       </c>
-      <c r="H22" s="57"/>
-      <c r="I22" s="62">
+      <c r="H22" s="47"/>
+      <c r="I22" s="68">
         <f>'Daily Schedule SUN'!I22:J22</f>
         <v>0</v>
       </c>
-      <c r="J22" s="63"/>
-    </row>
-    <row r="23" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="J22" s="69"/>
+    </row>
+    <row r="23" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="8"/>
       <c r="B23" s="33">
         <f t="shared" si="0"/>
@@ -2451,15 +2475,15 @@
       <c r="D23" s="8"/>
       <c r="E23" s="16"/>
       <c r="F23" s="8"/>
-      <c r="G23" s="58"/>
-      <c r="H23" s="59"/>
-      <c r="I23" s="44">
+      <c r="G23" s="48"/>
+      <c r="H23" s="49"/>
+      <c r="I23" s="54">
         <f>'Daily Schedule SUN'!I23:J23</f>
         <v>0</v>
       </c>
-      <c r="J23" s="45"/>
-    </row>
-    <row r="24" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="J23" s="55"/>
+    </row>
+    <row r="24" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="8"/>
       <c r="B24" s="35">
         <f t="shared" si="0"/>
@@ -2471,15 +2495,15 @@
       <c r="D24" s="8"/>
       <c r="E24" s="17"/>
       <c r="F24" s="8"/>
-      <c r="G24" s="60"/>
-      <c r="H24" s="61"/>
-      <c r="I24" s="64">
+      <c r="G24" s="50"/>
+      <c r="H24" s="51"/>
+      <c r="I24" s="56">
         <f>'Daily Schedule SUN'!I24:J24</f>
         <v>0</v>
       </c>
-      <c r="J24" s="65"/>
-    </row>
-    <row r="25" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="J24" s="57"/>
+    </row>
+    <row r="25" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="8"/>
       <c r="B25" s="33">
         <f t="shared" si="0"/>
@@ -2491,18 +2515,18 @@
       <c r="D25" s="8"/>
       <c r="E25" s="16"/>
       <c r="F25" s="8"/>
-      <c r="G25" s="66">
+      <c r="G25" s="58">
         <f>G7+6</f>
         <v>42869</v>
       </c>
-      <c r="H25" s="67"/>
-      <c r="I25" s="68">
+      <c r="H25" s="59"/>
+      <c r="I25" s="64">
         <f>'Daily Schedule SUN'!I25:J25</f>
         <v>0</v>
       </c>
-      <c r="J25" s="69"/>
-    </row>
-    <row r="26" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="J25" s="65"/>
+    </row>
+    <row r="26" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="8"/>
       <c r="B26" s="35">
         <f t="shared" si="0"/>
@@ -2514,15 +2538,15 @@
       <c r="D26" s="8"/>
       <c r="E26" s="17"/>
       <c r="F26" s="8"/>
-      <c r="G26" s="40"/>
-      <c r="H26" s="41"/>
-      <c r="I26" s="46">
+      <c r="G26" s="60"/>
+      <c r="H26" s="61"/>
+      <c r="I26" s="52">
         <f>'Daily Schedule SUN'!I26:J26</f>
         <v>0</v>
       </c>
-      <c r="J26" s="47"/>
-    </row>
-    <row r="27" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="J26" s="53"/>
+    </row>
+    <row r="27" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="8"/>
       <c r="B27" s="33">
         <f t="shared" si="0"/>
@@ -2536,15 +2560,15 @@
         <v>36</v>
       </c>
       <c r="F27" s="8"/>
-      <c r="G27" s="42"/>
-      <c r="H27" s="43"/>
-      <c r="I27" s="48">
+      <c r="G27" s="62"/>
+      <c r="H27" s="63"/>
+      <c r="I27" s="66">
         <f>'Daily Schedule SUN'!I27:J27</f>
         <v>0</v>
       </c>
-      <c r="J27" s="49"/>
-    </row>
-    <row r="28" spans="1:10" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="J27" s="67"/>
+    </row>
+    <row r="28" spans="1:10" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="8"/>
       <c r="B28" s="35">
         <f t="shared" si="0"/>
@@ -2561,7 +2585,7 @@
       <c r="I28" s="8"/>
       <c r="J28" s="8"/>
     </row>
-    <row r="29" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="8"/>
       <c r="B29" s="33">
         <f t="shared" si="0"/>
@@ -2573,14 +2597,14 @@
       <c r="D29" s="8"/>
       <c r="E29" s="16"/>
       <c r="F29" s="8"/>
-      <c r="G29" s="70" t="s">
+      <c r="G29" s="37" t="s">
         <v>26</v>
       </c>
-      <c r="H29" s="71"/>
-      <c r="I29" s="71"/>
-      <c r="J29" s="72"/>
-    </row>
-    <row r="30" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="H29" s="38"/>
+      <c r="I29" s="38"/>
+      <c r="J29" s="39"/>
+    </row>
+    <row r="30" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="8"/>
       <c r="B30" s="35">
         <f t="shared" si="0"/>
@@ -2592,12 +2616,12 @@
       <c r="D30" s="8"/>
       <c r="E30" s="17"/>
       <c r="F30" s="8"/>
-      <c r="G30" s="73"/>
-      <c r="H30" s="74"/>
-      <c r="I30" s="74"/>
-      <c r="J30" s="75"/>
-    </row>
-    <row r="31" spans="1:10" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="G30" s="40"/>
+      <c r="H30" s="41"/>
+      <c r="I30" s="41"/>
+      <c r="J30" s="42"/>
+    </row>
+    <row r="31" spans="1:10" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="8"/>
       <c r="B31" s="33">
         <f t="shared" si="0"/>
@@ -2611,12 +2635,12 @@
         <v>35</v>
       </c>
       <c r="F31" s="8"/>
-      <c r="G31" s="76"/>
-      <c r="H31" s="77"/>
-      <c r="I31" s="77"/>
-      <c r="J31" s="78"/>
-    </row>
-    <row r="32" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="G31" s="43"/>
+      <c r="H31" s="44"/>
+      <c r="I31" s="44"/>
+      <c r="J31" s="45"/>
+    </row>
+    <row r="32" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="8"/>
       <c r="B32" s="35">
         <f t="shared" si="0"/>
@@ -2631,7 +2655,7 @@
       <c r="I32" s="8"/>
       <c r="J32" s="8"/>
     </row>
-    <row r="33" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="8"/>
       <c r="B33" s="33">
         <f t="shared" si="0"/>
@@ -2646,7 +2670,7 @@
       <c r="I33" s="8"/>
       <c r="J33" s="8"/>
     </row>
-    <row r="34" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="8"/>
       <c r="B34" s="35">
         <f t="shared" si="0"/>
@@ -2661,7 +2685,7 @@
       <c r="I34" s="8"/>
       <c r="J34" s="8"/>
     </row>
-    <row r="35" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="8"/>
       <c r="B35" s="33">
         <f t="shared" si="0"/>
@@ -2676,7 +2700,7 @@
       <c r="I35" s="8"/>
       <c r="J35" s="8"/>
     </row>
-    <row r="36" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="8"/>
       <c r="B36" s="35">
         <f t="shared" si="0"/>
@@ -2691,7 +2715,7 @@
       <c r="I36" s="8"/>
       <c r="J36" s="8"/>
     </row>
-    <row r="37" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="8"/>
       <c r="B37" s="33">
         <f t="shared" si="0"/>
@@ -2706,7 +2730,7 @@
       <c r="I37" s="8"/>
       <c r="J37" s="8"/>
     </row>
-    <row r="38" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="8"/>
       <c r="B38" s="35">
         <f t="shared" si="0"/>
@@ -2721,7 +2745,7 @@
       <c r="I38" s="8"/>
       <c r="J38" s="8"/>
     </row>
-    <row r="39" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="8"/>
       <c r="B39" s="33">
         <f t="shared" si="0"/>
@@ -2738,6 +2762,23 @@
     </row>
   </sheetData>
   <mergeCells count="33">
+    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="I13:J13"/>
+    <mergeCell ref="I14:J14"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="I8:J8"/>
+    <mergeCell ref="I9:J9"/>
+    <mergeCell ref="I25:J25"/>
+    <mergeCell ref="I16:J16"/>
+    <mergeCell ref="I17:J17"/>
+    <mergeCell ref="I18:J18"/>
+    <mergeCell ref="I19:J19"/>
+    <mergeCell ref="I20:J20"/>
     <mergeCell ref="G29:J31"/>
     <mergeCell ref="I26:J26"/>
     <mergeCell ref="I27:J27"/>
@@ -2754,23 +2795,6 @@
     <mergeCell ref="I22:J22"/>
     <mergeCell ref="I23:J23"/>
     <mergeCell ref="I24:J24"/>
-    <mergeCell ref="I25:J25"/>
-    <mergeCell ref="I16:J16"/>
-    <mergeCell ref="I17:J17"/>
-    <mergeCell ref="I18:J18"/>
-    <mergeCell ref="I19:J19"/>
-    <mergeCell ref="I20:J20"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="I7:J7"/>
-    <mergeCell ref="I8:J8"/>
-    <mergeCell ref="I9:J9"/>
-    <mergeCell ref="I15:J15"/>
-    <mergeCell ref="I10:J10"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="I12:J12"/>
-    <mergeCell ref="I13:J13"/>
-    <mergeCell ref="I14:J14"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="G29" r:id="rId1"/>
@@ -2823,22 +2847,22 @@
       <selection activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.69140625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="2.84375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="2.88671875" style="1" customWidth="1"/>
     <col min="2" max="2" width="13" style="1" customWidth="1"/>
-    <col min="3" max="3" width="55.69140625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="3.3828125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="55.84375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="3.3828125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="23.84375" style="1" customWidth="1"/>
-    <col min="8" max="8" width="3.3828125" style="1" customWidth="1"/>
-    <col min="9" max="9" width="23.84375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="21.3828125" style="1" customWidth="1"/>
-    <col min="11" max="16384" width="10.69140625" style="1"/>
+    <col min="3" max="3" width="55.6640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="3.33203125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="55.88671875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="3.33203125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="23.88671875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="3.33203125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="23.88671875" style="1" customWidth="1"/>
+    <col min="10" max="10" width="21.33203125" style="1" customWidth="1"/>
+    <col min="11" max="16384" width="10.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="11" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="8"/>
       <c r="B1" s="8"/>
       <c r="C1" s="8"/>
@@ -2850,12 +2874,12 @@
       <c r="I1" s="8"/>
       <c r="J1" s="8"/>
     </row>
-    <row r="2" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.65">
+    <row r="2" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A2" s="8"/>
-      <c r="B2" s="37" t="s">
+      <c r="B2" s="70" t="s">
         <v>25</v>
       </c>
-      <c r="C2" s="37"/>
+      <c r="C2" s="70"/>
       <c r="D2" s="9"/>
       <c r="E2" s="12" t="s">
         <v>13</v>
@@ -2870,10 +2894,10 @@
       </c>
       <c r="J2" s="8"/>
     </row>
-    <row r="3" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.65">
+    <row r="3" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A3" s="8"/>
-      <c r="B3" s="37"/>
-      <c r="C3" s="37"/>
+      <c r="B3" s="70"/>
+      <c r="C3" s="70"/>
       <c r="D3" s="9"/>
       <c r="E3" s="13">
         <f>'Daily Schedule SUN'!E3</f>
@@ -2889,7 +2913,7 @@
       </c>
       <c r="J3" s="8"/>
     </row>
-    <row r="4" spans="1:10" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="8"/>
       <c r="B4" s="10"/>
       <c r="C4" s="10"/>
@@ -2904,42 +2928,42 @@
       </c>
       <c r="J4" s="8"/>
     </row>
-    <row r="5" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="8"/>
-      <c r="B5" s="38" t="s">
+      <c r="B5" s="71" t="s">
         <v>0</v>
       </c>
       <c r="C5" s="23" t="s">
         <v>18</v>
       </c>
       <c r="D5" s="8"/>
-      <c r="E5" s="39" t="s">
+      <c r="E5" s="72" t="s">
         <v>14</v>
       </c>
       <c r="F5" s="8"/>
-      <c r="G5" s="80" t="s">
+      <c r="G5" s="79" t="s">
         <v>15</v>
       </c>
-      <c r="H5" s="81"/>
-      <c r="I5" s="80"/>
-      <c r="J5" s="80"/>
-    </row>
-    <row r="6" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="H5" s="80"/>
+      <c r="I5" s="79"/>
+      <c r="J5" s="79"/>
+    </row>
+    <row r="6" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="8"/>
-      <c r="B6" s="38"/>
+      <c r="B6" s="71"/>
       <c r="C6" s="24">
         <f>E3+2</f>
         <v>42865</v>
       </c>
       <c r="D6" s="8"/>
-      <c r="E6" s="39"/>
+      <c r="E6" s="72"/>
       <c r="F6" s="8"/>
-      <c r="G6" s="80"/>
-      <c r="H6" s="80"/>
-      <c r="I6" s="80"/>
-      <c r="J6" s="80"/>
-    </row>
-    <row r="7" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="G6" s="79"/>
+      <c r="H6" s="79"/>
+      <c r="I6" s="79"/>
+      <c r="J6" s="79"/>
+    </row>
+    <row r="7" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="8"/>
       <c r="B7" s="18">
         <f>G3</f>
@@ -2949,18 +2973,18 @@
       <c r="D7" s="8"/>
       <c r="E7" s="16"/>
       <c r="F7" s="8"/>
-      <c r="G7" s="66">
+      <c r="G7" s="58">
         <f>E3</f>
         <v>42863</v>
       </c>
-      <c r="H7" s="67"/>
-      <c r="I7" s="68">
+      <c r="H7" s="59"/>
+      <c r="I7" s="64">
         <f>'Daily Schedule SUN'!I7:J7</f>
         <v>0</v>
       </c>
-      <c r="J7" s="69"/>
-    </row>
-    <row r="8" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="J7" s="65"/>
+    </row>
+    <row r="8" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="8"/>
       <c r="B8" s="19">
         <f t="shared" ref="B8:B39" si="0">B7+TIME(0,Interval,0)</f>
@@ -2970,15 +2994,15 @@
       <c r="D8" s="8"/>
       <c r="E8" s="17"/>
       <c r="F8" s="8"/>
-      <c r="G8" s="40"/>
-      <c r="H8" s="41"/>
-      <c r="I8" s="46">
+      <c r="G8" s="60"/>
+      <c r="H8" s="61"/>
+      <c r="I8" s="52">
         <f>'Daily Schedule SUN'!I8:J8</f>
         <v>0</v>
       </c>
-      <c r="J8" s="47"/>
-    </row>
-    <row r="9" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="J8" s="53"/>
+    </row>
+    <row r="9" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="8"/>
       <c r="B9" s="18">
         <f t="shared" si="0"/>
@@ -2988,15 +3012,15 @@
       <c r="D9" s="8"/>
       <c r="E9" s="16"/>
       <c r="F9" s="8"/>
-      <c r="G9" s="42"/>
-      <c r="H9" s="43"/>
-      <c r="I9" s="48">
+      <c r="G9" s="62"/>
+      <c r="H9" s="63"/>
+      <c r="I9" s="66">
         <f>'Daily Schedule SUN'!I9:J9</f>
         <v>0</v>
       </c>
-      <c r="J9" s="49"/>
-    </row>
-    <row r="10" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="J9" s="67"/>
+    </row>
+    <row r="10" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="8"/>
       <c r="B10" s="19">
         <f t="shared" si="0"/>
@@ -3006,18 +3030,18 @@
       <c r="D10" s="8"/>
       <c r="E10" s="17"/>
       <c r="F10" s="8"/>
-      <c r="G10" s="56">
+      <c r="G10" s="46">
         <f>G7+1</f>
         <v>42864</v>
       </c>
-      <c r="H10" s="57"/>
-      <c r="I10" s="62">
+      <c r="H10" s="47"/>
+      <c r="I10" s="68">
         <f>'Daily Schedule SUN'!I10:J10</f>
         <v>0</v>
       </c>
-      <c r="J10" s="63"/>
-    </row>
-    <row r="11" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="J10" s="69"/>
+    </row>
+    <row r="11" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="8"/>
       <c r="B11" s="18">
         <f t="shared" si="0"/>
@@ -3027,15 +3051,15 @@
       <c r="D11" s="8"/>
       <c r="E11" s="16"/>
       <c r="F11" s="8"/>
-      <c r="G11" s="58"/>
-      <c r="H11" s="59"/>
-      <c r="I11" s="44">
+      <c r="G11" s="48"/>
+      <c r="H11" s="49"/>
+      <c r="I11" s="54">
         <f>'Daily Schedule SUN'!I11:J11</f>
         <v>0</v>
       </c>
-      <c r="J11" s="45"/>
-    </row>
-    <row r="12" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="J11" s="55"/>
+    </row>
+    <row r="12" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="8"/>
       <c r="B12" s="19">
         <f t="shared" si="0"/>
@@ -3045,15 +3069,15 @@
       <c r="D12" s="8"/>
       <c r="E12" s="17"/>
       <c r="F12" s="8"/>
-      <c r="G12" s="60"/>
-      <c r="H12" s="61"/>
-      <c r="I12" s="64">
+      <c r="G12" s="50"/>
+      <c r="H12" s="51"/>
+      <c r="I12" s="56">
         <f>'Daily Schedule SUN'!I12:J12</f>
         <v>0</v>
       </c>
-      <c r="J12" s="65"/>
-    </row>
-    <row r="13" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="J12" s="57"/>
+    </row>
+    <row r="13" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="8"/>
       <c r="B13" s="18">
         <f t="shared" si="0"/>
@@ -3063,18 +3087,18 @@
       <c r="D13" s="8"/>
       <c r="E13" s="16"/>
       <c r="F13" s="8"/>
-      <c r="G13" s="66">
+      <c r="G13" s="58">
         <f>G7+2</f>
         <v>42865</v>
       </c>
-      <c r="H13" s="67"/>
-      <c r="I13" s="68">
+      <c r="H13" s="59"/>
+      <c r="I13" s="64">
         <f>'Daily Schedule SUN'!I13:J13</f>
         <v>0</v>
       </c>
-      <c r="J13" s="69"/>
-    </row>
-    <row r="14" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="J13" s="65"/>
+    </row>
+    <row r="14" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="8"/>
       <c r="B14" s="19">
         <f t="shared" si="0"/>
@@ -3084,15 +3108,15 @@
       <c r="D14" s="8"/>
       <c r="E14" s="17"/>
       <c r="F14" s="8"/>
-      <c r="G14" s="40"/>
-      <c r="H14" s="41"/>
-      <c r="I14" s="46">
+      <c r="G14" s="60"/>
+      <c r="H14" s="61"/>
+      <c r="I14" s="52">
         <f>'Daily Schedule SUN'!I14:J14</f>
         <v>0</v>
       </c>
-      <c r="J14" s="47"/>
-    </row>
-    <row r="15" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="J14" s="53"/>
+    </row>
+    <row r="15" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="8"/>
       <c r="B15" s="18">
         <f t="shared" si="0"/>
@@ -3104,15 +3128,15 @@
       <c r="D15" s="8"/>
       <c r="E15" s="16"/>
       <c r="F15" s="8"/>
-      <c r="G15" s="42"/>
-      <c r="H15" s="43"/>
-      <c r="I15" s="48">
+      <c r="G15" s="62"/>
+      <c r="H15" s="63"/>
+      <c r="I15" s="66">
         <f>'Daily Schedule SUN'!I15:J15</f>
         <v>0</v>
       </c>
-      <c r="J15" s="49"/>
-    </row>
-    <row r="16" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="J15" s="67"/>
+    </row>
+    <row r="16" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="8"/>
       <c r="B16" s="19">
         <f t="shared" si="0"/>
@@ -3124,18 +3148,18 @@
       <c r="D16" s="8"/>
       <c r="E16" s="17"/>
       <c r="F16" s="8"/>
-      <c r="G16" s="56">
+      <c r="G16" s="46">
         <f>G7+3</f>
         <v>42866</v>
       </c>
-      <c r="H16" s="57"/>
-      <c r="I16" s="62">
+      <c r="H16" s="47"/>
+      <c r="I16" s="68">
         <f>'Daily Schedule SUN'!I16:J16</f>
         <v>0</v>
       </c>
-      <c r="J16" s="63"/>
-    </row>
-    <row r="17" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="J16" s="69"/>
+    </row>
+    <row r="17" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="8"/>
       <c r="B17" s="18">
         <f t="shared" si="0"/>
@@ -3147,15 +3171,15 @@
       <c r="D17" s="8"/>
       <c r="E17" s="16"/>
       <c r="F17" s="8"/>
-      <c r="G17" s="58"/>
-      <c r="H17" s="59"/>
-      <c r="I17" s="44">
+      <c r="G17" s="48"/>
+      <c r="H17" s="49"/>
+      <c r="I17" s="54">
         <f>'Daily Schedule SUN'!I17:J17</f>
         <v>0</v>
       </c>
-      <c r="J17" s="45"/>
-    </row>
-    <row r="18" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="J17" s="55"/>
+    </row>
+    <row r="18" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="8"/>
       <c r="B18" s="19">
         <f t="shared" si="0"/>
@@ -3167,15 +3191,15 @@
       <c r="D18" s="8"/>
       <c r="E18" s="17"/>
       <c r="F18" s="8"/>
-      <c r="G18" s="60"/>
-      <c r="H18" s="61"/>
-      <c r="I18" s="64">
+      <c r="G18" s="50"/>
+      <c r="H18" s="51"/>
+      <c r="I18" s="56">
         <f>'Daily Schedule SUN'!I18:J18</f>
         <v>0</v>
       </c>
-      <c r="J18" s="65"/>
-    </row>
-    <row r="19" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="J18" s="57"/>
+    </row>
+    <row r="19" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="8"/>
       <c r="B19" s="18">
         <f t="shared" si="0"/>
@@ -3187,18 +3211,18 @@
       <c r="D19" s="8"/>
       <c r="E19" s="16"/>
       <c r="F19" s="8"/>
-      <c r="G19" s="66">
+      <c r="G19" s="58">
         <f>G7+4</f>
         <v>42867</v>
       </c>
-      <c r="H19" s="67"/>
-      <c r="I19" s="68">
+      <c r="H19" s="59"/>
+      <c r="I19" s="64">
         <f>'Daily Schedule SUN'!I19:J19</f>
         <v>0</v>
       </c>
-      <c r="J19" s="69"/>
-    </row>
-    <row r="20" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="J19" s="65"/>
+    </row>
+    <row r="20" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="8"/>
       <c r="B20" s="19">
         <f t="shared" si="0"/>
@@ -3210,15 +3234,15 @@
       <c r="D20" s="8"/>
       <c r="E20" s="17"/>
       <c r="F20" s="8"/>
-      <c r="G20" s="40"/>
-      <c r="H20" s="41"/>
-      <c r="I20" s="46">
+      <c r="G20" s="60"/>
+      <c r="H20" s="61"/>
+      <c r="I20" s="52">
         <f>'Daily Schedule SUN'!I20:J20</f>
         <v>0</v>
       </c>
-      <c r="J20" s="47"/>
-    </row>
-    <row r="21" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="J20" s="53"/>
+    </row>
+    <row r="21" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="8"/>
       <c r="B21" s="18">
         <f t="shared" si="0"/>
@@ -3230,15 +3254,15 @@
       <c r="D21" s="8"/>
       <c r="E21" s="16"/>
       <c r="F21" s="8"/>
-      <c r="G21" s="42"/>
-      <c r="H21" s="43"/>
-      <c r="I21" s="48">
+      <c r="G21" s="62"/>
+      <c r="H21" s="63"/>
+      <c r="I21" s="66">
         <f>'Daily Schedule SUN'!I21:J21</f>
         <v>0</v>
       </c>
-      <c r="J21" s="49"/>
-    </row>
-    <row r="22" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="J21" s="67"/>
+    </row>
+    <row r="22" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="8"/>
       <c r="B22" s="19">
         <f t="shared" si="0"/>
@@ -3250,18 +3274,18 @@
       <c r="D22" s="8"/>
       <c r="E22" s="17"/>
       <c r="F22" s="8"/>
-      <c r="G22" s="56">
+      <c r="G22" s="46">
         <f>G7+5</f>
         <v>42868</v>
       </c>
-      <c r="H22" s="57"/>
-      <c r="I22" s="62">
+      <c r="H22" s="47"/>
+      <c r="I22" s="68">
         <f>'Daily Schedule SUN'!I22:J22</f>
         <v>0</v>
       </c>
-      <c r="J22" s="63"/>
-    </row>
-    <row r="23" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="J22" s="69"/>
+    </row>
+    <row r="23" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="8"/>
       <c r="B23" s="18">
         <f t="shared" si="0"/>
@@ -3275,15 +3299,15 @@
         <v>41</v>
       </c>
       <c r="F23" s="8"/>
-      <c r="G23" s="58"/>
-      <c r="H23" s="59"/>
-      <c r="I23" s="44">
+      <c r="G23" s="48"/>
+      <c r="H23" s="49"/>
+      <c r="I23" s="54">
         <f>'Daily Schedule SUN'!I23:J23</f>
         <v>0</v>
       </c>
-      <c r="J23" s="45"/>
-    </row>
-    <row r="24" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="J23" s="55"/>
+    </row>
+    <row r="24" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="8"/>
       <c r="B24" s="19">
         <f t="shared" si="0"/>
@@ -3295,15 +3319,15 @@
       <c r="D24" s="8"/>
       <c r="E24" s="17"/>
       <c r="F24" s="8"/>
-      <c r="G24" s="60"/>
-      <c r="H24" s="61"/>
-      <c r="I24" s="64">
+      <c r="G24" s="50"/>
+      <c r="H24" s="51"/>
+      <c r="I24" s="56">
         <f>'Daily Schedule SUN'!I24:J24</f>
         <v>0</v>
       </c>
-      <c r="J24" s="65"/>
-    </row>
-    <row r="25" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="J24" s="57"/>
+    </row>
+    <row r="25" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="8"/>
       <c r="B25" s="18">
         <f t="shared" si="0"/>
@@ -3315,18 +3339,18 @@
       <c r="D25" s="8"/>
       <c r="E25" s="16"/>
       <c r="F25" s="8"/>
-      <c r="G25" s="66">
+      <c r="G25" s="58">
         <f>G7+6</f>
         <v>42869</v>
       </c>
-      <c r="H25" s="67"/>
-      <c r="I25" s="68">
+      <c r="H25" s="59"/>
+      <c r="I25" s="64">
         <f>'Daily Schedule SUN'!I25:J25</f>
         <v>0</v>
       </c>
-      <c r="J25" s="69"/>
-    </row>
-    <row r="26" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="J25" s="65"/>
+    </row>
+    <row r="26" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="8"/>
       <c r="B26" s="19">
         <f t="shared" si="0"/>
@@ -3338,15 +3362,15 @@
       <c r="D26" s="8"/>
       <c r="E26" s="17"/>
       <c r="F26" s="8"/>
-      <c r="G26" s="40"/>
-      <c r="H26" s="41"/>
-      <c r="I26" s="46">
+      <c r="G26" s="60"/>
+      <c r="H26" s="61"/>
+      <c r="I26" s="52">
         <f>'Daily Schedule SUN'!I26:J26</f>
         <v>0</v>
       </c>
-      <c r="J26" s="47"/>
-    </row>
-    <row r="27" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="J26" s="53"/>
+    </row>
+    <row r="27" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="8"/>
       <c r="B27" s="18">
         <f t="shared" si="0"/>
@@ -3358,15 +3382,15 @@
       <c r="D27" s="8"/>
       <c r="E27" s="16"/>
       <c r="F27" s="8"/>
-      <c r="G27" s="42"/>
-      <c r="H27" s="43"/>
-      <c r="I27" s="48">
+      <c r="G27" s="62"/>
+      <c r="H27" s="63"/>
+      <c r="I27" s="66">
         <f>'Daily Schedule SUN'!I27:J27</f>
         <v>0</v>
       </c>
-      <c r="J27" s="49"/>
-    </row>
-    <row r="28" spans="1:10" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="J27" s="67"/>
+    </row>
+    <row r="28" spans="1:10" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="8"/>
       <c r="B28" s="19">
         <f t="shared" si="0"/>
@@ -3383,7 +3407,7 @@
       <c r="I28" s="8"/>
       <c r="J28" s="8"/>
     </row>
-    <row r="29" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="8"/>
       <c r="B29" s="18">
         <f t="shared" si="0"/>
@@ -3397,14 +3421,14 @@
         <v>42</v>
       </c>
       <c r="F29" s="8"/>
-      <c r="G29" s="70" t="s">
+      <c r="G29" s="37" t="s">
         <v>26</v>
       </c>
-      <c r="H29" s="71"/>
-      <c r="I29" s="71"/>
-      <c r="J29" s="72"/>
-    </row>
-    <row r="30" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="H29" s="38"/>
+      <c r="I29" s="38"/>
+      <c r="J29" s="39"/>
+    </row>
+    <row r="30" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="8"/>
       <c r="B30" s="19">
         <f t="shared" si="0"/>
@@ -3418,12 +3442,12 @@
         <v>43</v>
       </c>
       <c r="F30" s="8"/>
-      <c r="G30" s="73"/>
-      <c r="H30" s="74"/>
-      <c r="I30" s="74"/>
-      <c r="J30" s="75"/>
-    </row>
-    <row r="31" spans="1:10" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="G30" s="40"/>
+      <c r="H30" s="41"/>
+      <c r="I30" s="41"/>
+      <c r="J30" s="42"/>
+    </row>
+    <row r="31" spans="1:10" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="8"/>
       <c r="B31" s="18">
         <f t="shared" si="0"/>
@@ -3433,12 +3457,12 @@
       <c r="D31" s="8"/>
       <c r="E31" s="16"/>
       <c r="F31" s="8"/>
-      <c r="G31" s="76"/>
-      <c r="H31" s="77"/>
-      <c r="I31" s="77"/>
-      <c r="J31" s="78"/>
-    </row>
-    <row r="32" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="G31" s="43"/>
+      <c r="H31" s="44"/>
+      <c r="I31" s="44"/>
+      <c r="J31" s="45"/>
+    </row>
+    <row r="32" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="8"/>
       <c r="B32" s="19">
         <f t="shared" si="0"/>
@@ -3453,7 +3477,7 @@
       <c r="I32" s="8"/>
       <c r="J32" s="8"/>
     </row>
-    <row r="33" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="8"/>
       <c r="B33" s="18">
         <f t="shared" si="0"/>
@@ -3468,7 +3492,7 @@
       <c r="I33" s="8"/>
       <c r="J33" s="8"/>
     </row>
-    <row r="34" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="8"/>
       <c r="B34" s="19">
         <f t="shared" si="0"/>
@@ -3483,7 +3507,7 @@
       <c r="I34" s="8"/>
       <c r="J34" s="8"/>
     </row>
-    <row r="35" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="8"/>
       <c r="B35" s="18">
         <f t="shared" si="0"/>
@@ -3498,7 +3522,7 @@
       <c r="I35" s="8"/>
       <c r="J35" s="8"/>
     </row>
-    <row r="36" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="8"/>
       <c r="B36" s="19">
         <f t="shared" si="0"/>
@@ -3513,7 +3537,7 @@
       <c r="I36" s="8"/>
       <c r="J36" s="8"/>
     </row>
-    <row r="37" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="8"/>
       <c r="B37" s="18">
         <f t="shared" si="0"/>
@@ -3528,7 +3552,7 @@
       <c r="I37" s="8"/>
       <c r="J37" s="8"/>
     </row>
-    <row r="38" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="8"/>
       <c r="B38" s="19">
         <f t="shared" si="0"/>
@@ -3543,7 +3567,7 @@
       <c r="I38" s="8"/>
       <c r="J38" s="8"/>
     </row>
-    <row r="39" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="8"/>
       <c r="B39" s="18">
         <f t="shared" si="0"/>
@@ -3560,6 +3584,30 @@
     </row>
   </sheetData>
   <mergeCells count="33">
+    <mergeCell ref="B2:C3"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="G5:J6"/>
+    <mergeCell ref="G7:H9"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="I8:J8"/>
+    <mergeCell ref="I9:J9"/>
+    <mergeCell ref="G10:H12"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="G13:H15"/>
+    <mergeCell ref="I13:J13"/>
+    <mergeCell ref="I14:J14"/>
+    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="G16:H18"/>
+    <mergeCell ref="I16:J16"/>
+    <mergeCell ref="I17:J17"/>
+    <mergeCell ref="I18:J18"/>
+    <mergeCell ref="G19:H21"/>
+    <mergeCell ref="I19:J19"/>
+    <mergeCell ref="I20:J20"/>
+    <mergeCell ref="I21:J21"/>
     <mergeCell ref="G29:J31"/>
     <mergeCell ref="G22:H24"/>
     <mergeCell ref="I22:J22"/>
@@ -3569,30 +3617,6 @@
     <mergeCell ref="I25:J25"/>
     <mergeCell ref="I26:J26"/>
     <mergeCell ref="I27:J27"/>
-    <mergeCell ref="G16:H18"/>
-    <mergeCell ref="I16:J16"/>
-    <mergeCell ref="I17:J17"/>
-    <mergeCell ref="I18:J18"/>
-    <mergeCell ref="G19:H21"/>
-    <mergeCell ref="I19:J19"/>
-    <mergeCell ref="I20:J20"/>
-    <mergeCell ref="I21:J21"/>
-    <mergeCell ref="G10:H12"/>
-    <mergeCell ref="I10:J10"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="I12:J12"/>
-    <mergeCell ref="G13:H15"/>
-    <mergeCell ref="I13:J13"/>
-    <mergeCell ref="I14:J14"/>
-    <mergeCell ref="I15:J15"/>
-    <mergeCell ref="B2:C3"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="G5:J6"/>
-    <mergeCell ref="G7:H9"/>
-    <mergeCell ref="I7:J7"/>
-    <mergeCell ref="I8:J8"/>
-    <mergeCell ref="I9:J9"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="G29" r:id="rId1"/>
@@ -3641,26 +3665,26 @@
   </sheetPr>
   <dimension ref="A1:J39"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A16" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="80" workbookViewId="0">
-      <selection activeCell="C31" sqref="C31"/>
+    <sheetView showGridLines="0" topLeftCell="A19" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="80" workbookViewId="0">
+      <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.69140625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="2.84375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="2.88671875" style="1" customWidth="1"/>
     <col min="2" max="2" width="13" style="1" customWidth="1"/>
-    <col min="3" max="3" width="55.69140625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="3.3828125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="55.84375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="3.3828125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="23.84375" style="1" customWidth="1"/>
-    <col min="8" max="8" width="3.3828125" style="1" customWidth="1"/>
-    <col min="9" max="9" width="23.84375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="21.3828125" style="1" customWidth="1"/>
-    <col min="11" max="16384" width="10.69140625" style="1"/>
+    <col min="3" max="3" width="55.6640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="3.33203125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="55.88671875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="3.33203125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="23.88671875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="3.33203125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="23.88671875" style="1" customWidth="1"/>
+    <col min="10" max="10" width="21.33203125" style="1" customWidth="1"/>
+    <col min="11" max="16384" width="10.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="11" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="8"/>
       <c r="B1" s="8"/>
       <c r="C1" s="8"/>
@@ -3672,12 +3696,12 @@
       <c r="I1" s="8"/>
       <c r="J1" s="8"/>
     </row>
-    <row r="2" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.65">
+    <row r="2" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A2" s="8"/>
-      <c r="B2" s="37" t="s">
+      <c r="B2" s="70" t="s">
         <v>25</v>
       </c>
-      <c r="C2" s="37"/>
+      <c r="C2" s="70"/>
       <c r="D2" s="9"/>
       <c r="E2" s="12" t="s">
         <v>13</v>
@@ -3692,10 +3716,10 @@
       </c>
       <c r="J2" s="8"/>
     </row>
-    <row r="3" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.65">
+    <row r="3" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A3" s="8"/>
-      <c r="B3" s="37"/>
-      <c r="C3" s="37"/>
+      <c r="B3" s="70"/>
+      <c r="C3" s="70"/>
       <c r="D3" s="9"/>
       <c r="E3" s="13">
         <f>'Daily Schedule SUN'!E3</f>
@@ -3711,7 +3735,7 @@
       </c>
       <c r="J3" s="8"/>
     </row>
-    <row r="4" spans="1:10" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="8"/>
       <c r="B4" s="10"/>
       <c r="C4" s="10"/>
@@ -3726,42 +3750,42 @@
       </c>
       <c r="J4" s="8"/>
     </row>
-    <row r="5" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="8"/>
-      <c r="B5" s="38" t="s">
+      <c r="B5" s="71" t="s">
         <v>0</v>
       </c>
       <c r="C5" s="23" t="s">
         <v>19</v>
       </c>
       <c r="D5" s="8"/>
-      <c r="E5" s="39" t="s">
+      <c r="E5" s="72" t="s">
         <v>14</v>
       </c>
       <c r="F5" s="8"/>
-      <c r="G5" s="80" t="s">
+      <c r="G5" s="79" t="s">
         <v>15</v>
       </c>
-      <c r="H5" s="81"/>
-      <c r="I5" s="80"/>
-      <c r="J5" s="80"/>
-    </row>
-    <row r="6" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="H5" s="80"/>
+      <c r="I5" s="79"/>
+      <c r="J5" s="79"/>
+    </row>
+    <row r="6" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="8"/>
-      <c r="B6" s="38"/>
+      <c r="B6" s="71"/>
       <c r="C6" s="24">
         <f>E3+3</f>
         <v>42866</v>
       </c>
       <c r="D6" s="8"/>
-      <c r="E6" s="39"/>
+      <c r="E6" s="72"/>
       <c r="F6" s="8"/>
-      <c r="G6" s="80"/>
-      <c r="H6" s="80"/>
-      <c r="I6" s="80"/>
-      <c r="J6" s="80"/>
-    </row>
-    <row r="7" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="G6" s="79"/>
+      <c r="H6" s="79"/>
+      <c r="I6" s="79"/>
+      <c r="J6" s="79"/>
+    </row>
+    <row r="7" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="8"/>
       <c r="B7" s="18">
         <f>G3</f>
@@ -3771,18 +3795,18 @@
       <c r="D7" s="8"/>
       <c r="E7" s="16"/>
       <c r="F7" s="8"/>
-      <c r="G7" s="66">
+      <c r="G7" s="58">
         <f>E3</f>
         <v>42863</v>
       </c>
-      <c r="H7" s="67"/>
-      <c r="I7" s="68">
+      <c r="H7" s="59"/>
+      <c r="I7" s="64">
         <f>'Daily Schedule SUN'!I7:J7</f>
         <v>0</v>
       </c>
-      <c r="J7" s="69"/>
-    </row>
-    <row r="8" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="J7" s="65"/>
+    </row>
+    <row r="8" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="8"/>
       <c r="B8" s="19">
         <f t="shared" ref="B8:B39" si="0">B7+TIME(0,Interval,0)</f>
@@ -3792,15 +3816,15 @@
       <c r="D8" s="8"/>
       <c r="E8" s="17"/>
       <c r="F8" s="8"/>
-      <c r="G8" s="40"/>
-      <c r="H8" s="41"/>
-      <c r="I8" s="46">
+      <c r="G8" s="60"/>
+      <c r="H8" s="61"/>
+      <c r="I8" s="52">
         <f>'Daily Schedule SUN'!I8:J8</f>
         <v>0</v>
       </c>
-      <c r="J8" s="47"/>
-    </row>
-    <row r="9" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="J8" s="53"/>
+    </row>
+    <row r="9" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="8"/>
       <c r="B9" s="18">
         <f t="shared" si="0"/>
@@ -3810,15 +3834,15 @@
       <c r="D9" s="8"/>
       <c r="E9" s="16"/>
       <c r="F9" s="8"/>
-      <c r="G9" s="42"/>
-      <c r="H9" s="43"/>
-      <c r="I9" s="48">
+      <c r="G9" s="62"/>
+      <c r="H9" s="63"/>
+      <c r="I9" s="66">
         <f>'Daily Schedule SUN'!I9:J9</f>
         <v>0</v>
       </c>
-      <c r="J9" s="49"/>
-    </row>
-    <row r="10" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="J9" s="67"/>
+    </row>
+    <row r="10" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="8"/>
       <c r="B10" s="19">
         <f t="shared" si="0"/>
@@ -3828,18 +3852,18 @@
       <c r="D10" s="8"/>
       <c r="E10" s="17"/>
       <c r="F10" s="8"/>
-      <c r="G10" s="56">
+      <c r="G10" s="46">
         <f>G7+1</f>
         <v>42864</v>
       </c>
-      <c r="H10" s="57"/>
-      <c r="I10" s="62">
+      <c r="H10" s="47"/>
+      <c r="I10" s="68">
         <f>'Daily Schedule SUN'!I10:J10</f>
         <v>0</v>
       </c>
-      <c r="J10" s="63"/>
-    </row>
-    <row r="11" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="J10" s="69"/>
+    </row>
+    <row r="11" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="8"/>
       <c r="B11" s="18">
         <f t="shared" si="0"/>
@@ -3849,15 +3873,15 @@
       <c r="D11" s="8"/>
       <c r="E11" s="16"/>
       <c r="F11" s="8"/>
-      <c r="G11" s="58"/>
-      <c r="H11" s="59"/>
-      <c r="I11" s="44">
+      <c r="G11" s="48"/>
+      <c r="H11" s="49"/>
+      <c r="I11" s="54">
         <f>'Daily Schedule SUN'!I11:J11</f>
         <v>0</v>
       </c>
-      <c r="J11" s="45"/>
-    </row>
-    <row r="12" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="J11" s="55"/>
+    </row>
+    <row r="12" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="8"/>
       <c r="B12" s="19">
         <f t="shared" si="0"/>
@@ -3867,15 +3891,15 @@
       <c r="D12" s="8"/>
       <c r="E12" s="17"/>
       <c r="F12" s="8"/>
-      <c r="G12" s="60"/>
-      <c r="H12" s="61"/>
-      <c r="I12" s="64">
+      <c r="G12" s="50"/>
+      <c r="H12" s="51"/>
+      <c r="I12" s="56">
         <f>'Daily Schedule SUN'!I12:J12</f>
         <v>0</v>
       </c>
-      <c r="J12" s="65"/>
-    </row>
-    <row r="13" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="J12" s="57"/>
+    </row>
+    <row r="13" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="8"/>
       <c r="B13" s="18">
         <f t="shared" si="0"/>
@@ -3885,18 +3909,18 @@
       <c r="D13" s="8"/>
       <c r="E13" s="16"/>
       <c r="F13" s="8"/>
-      <c r="G13" s="66">
+      <c r="G13" s="58">
         <f>G7+2</f>
         <v>42865</v>
       </c>
-      <c r="H13" s="67"/>
-      <c r="I13" s="68">
+      <c r="H13" s="59"/>
+      <c r="I13" s="64">
         <f>'Daily Schedule SUN'!I13:J13</f>
         <v>0</v>
       </c>
-      <c r="J13" s="69"/>
-    </row>
-    <row r="14" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="J13" s="65"/>
+    </row>
+    <row r="14" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="8"/>
       <c r="B14" s="19">
         <f t="shared" si="0"/>
@@ -3908,15 +3932,15 @@
       <c r="D14" s="8"/>
       <c r="E14" s="17"/>
       <c r="F14" s="8"/>
-      <c r="G14" s="40"/>
-      <c r="H14" s="41"/>
-      <c r="I14" s="46">
+      <c r="G14" s="60"/>
+      <c r="H14" s="61"/>
+      <c r="I14" s="52">
         <f>'Daily Schedule SUN'!I14:J14</f>
         <v>0</v>
       </c>
-      <c r="J14" s="47"/>
-    </row>
-    <row r="15" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="J14" s="53"/>
+    </row>
+    <row r="15" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="8"/>
       <c r="B15" s="18">
         <f t="shared" si="0"/>
@@ -3928,15 +3952,15 @@
       <c r="D15" s="8"/>
       <c r="E15" s="16"/>
       <c r="F15" s="8"/>
-      <c r="G15" s="42"/>
-      <c r="H15" s="43"/>
-      <c r="I15" s="48">
+      <c r="G15" s="62"/>
+      <c r="H15" s="63"/>
+      <c r="I15" s="66">
         <f>'Daily Schedule SUN'!I15:J15</f>
         <v>0</v>
       </c>
-      <c r="J15" s="49"/>
-    </row>
-    <row r="16" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="J15" s="67"/>
+    </row>
+    <row r="16" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="8"/>
       <c r="B16" s="19">
         <f t="shared" si="0"/>
@@ -3948,18 +3972,18 @@
       <c r="D16" s="8"/>
       <c r="E16" s="17"/>
       <c r="F16" s="8"/>
-      <c r="G16" s="56">
+      <c r="G16" s="46">
         <f>G7+3</f>
         <v>42866</v>
       </c>
-      <c r="H16" s="57"/>
-      <c r="I16" s="62">
+      <c r="H16" s="47"/>
+      <c r="I16" s="68">
         <f>'Daily Schedule SUN'!I16:J16</f>
         <v>0</v>
       </c>
-      <c r="J16" s="63"/>
-    </row>
-    <row r="17" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="J16" s="69"/>
+    </row>
+    <row r="17" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="8"/>
       <c r="B17" s="18">
         <f t="shared" si="0"/>
@@ -3971,15 +3995,15 @@
       <c r="D17" s="8"/>
       <c r="E17" s="16"/>
       <c r="F17" s="8"/>
-      <c r="G17" s="58"/>
-      <c r="H17" s="59"/>
-      <c r="I17" s="44">
+      <c r="G17" s="48"/>
+      <c r="H17" s="49"/>
+      <c r="I17" s="54">
         <f>'Daily Schedule SUN'!I17:J17</f>
         <v>0</v>
       </c>
-      <c r="J17" s="45"/>
-    </row>
-    <row r="18" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="J17" s="55"/>
+    </row>
+    <row r="18" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="8"/>
       <c r="B18" s="19">
         <f t="shared" si="0"/>
@@ -3989,17 +4013,19 @@
         <v>44</v>
       </c>
       <c r="D18" s="8"/>
-      <c r="E18" s="17"/>
+      <c r="E18" s="17" t="s">
+        <v>47</v>
+      </c>
       <c r="F18" s="8"/>
-      <c r="G18" s="60"/>
-      <c r="H18" s="61"/>
-      <c r="I18" s="64">
+      <c r="G18" s="50"/>
+      <c r="H18" s="51"/>
+      <c r="I18" s="56">
         <f>'Daily Schedule SUN'!I18:J18</f>
         <v>0</v>
       </c>
-      <c r="J18" s="65"/>
-    </row>
-    <row r="19" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="J18" s="57"/>
+    </row>
+    <row r="19" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="8"/>
       <c r="B19" s="18">
         <f t="shared" si="0"/>
@@ -4011,18 +4037,18 @@
       <c r="D19" s="8"/>
       <c r="E19" s="16"/>
       <c r="F19" s="8"/>
-      <c r="G19" s="66">
+      <c r="G19" s="58">
         <f>G7+4</f>
         <v>42867</v>
       </c>
-      <c r="H19" s="67"/>
-      <c r="I19" s="68">
+      <c r="H19" s="59"/>
+      <c r="I19" s="64">
         <f>'Daily Schedule SUN'!I19:J19</f>
         <v>0</v>
       </c>
-      <c r="J19" s="69"/>
-    </row>
-    <row r="20" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="J19" s="65"/>
+    </row>
+    <row r="20" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="8"/>
       <c r="B20" s="19">
         <f t="shared" si="0"/>
@@ -4034,15 +4060,15 @@
       <c r="D20" s="8"/>
       <c r="E20" s="17"/>
       <c r="F20" s="8"/>
-      <c r="G20" s="40"/>
-      <c r="H20" s="41"/>
-      <c r="I20" s="46">
+      <c r="G20" s="60"/>
+      <c r="H20" s="61"/>
+      <c r="I20" s="52">
         <f>'Daily Schedule SUN'!I20:J20</f>
         <v>0</v>
       </c>
-      <c r="J20" s="47"/>
-    </row>
-    <row r="21" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="J20" s="53"/>
+    </row>
+    <row r="21" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="8"/>
       <c r="B21" s="18">
         <f t="shared" si="0"/>
@@ -4054,15 +4080,15 @@
       <c r="D21" s="8"/>
       <c r="E21" s="16"/>
       <c r="F21" s="8"/>
-      <c r="G21" s="42"/>
-      <c r="H21" s="43"/>
-      <c r="I21" s="48">
+      <c r="G21" s="62"/>
+      <c r="H21" s="63"/>
+      <c r="I21" s="66">
         <f>'Daily Schedule SUN'!I21:J21</f>
         <v>0</v>
       </c>
-      <c r="J21" s="49"/>
-    </row>
-    <row r="22" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="J21" s="67"/>
+    </row>
+    <row r="22" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="8"/>
       <c r="B22" s="19">
         <f t="shared" si="0"/>
@@ -4072,20 +4098,22 @@
         <v>45</v>
       </c>
       <c r="D22" s="8"/>
-      <c r="E22" s="17"/>
+      <c r="E22" s="17" t="s">
+        <v>47</v>
+      </c>
       <c r="F22" s="8"/>
-      <c r="G22" s="56">
+      <c r="G22" s="46">
         <f>G7+5</f>
         <v>42868</v>
       </c>
-      <c r="H22" s="57"/>
-      <c r="I22" s="62">
+      <c r="H22" s="47"/>
+      <c r="I22" s="68">
         <f>'Daily Schedule SUN'!I22:J22</f>
         <v>0</v>
       </c>
-      <c r="J22" s="63"/>
-    </row>
-    <row r="23" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="J22" s="69"/>
+    </row>
+    <row r="23" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="8"/>
       <c r="B23" s="18">
         <f t="shared" si="0"/>
@@ -4097,15 +4125,15 @@
       <c r="D23" s="8"/>
       <c r="E23" s="16"/>
       <c r="F23" s="8"/>
-      <c r="G23" s="58"/>
-      <c r="H23" s="59"/>
-      <c r="I23" s="44">
+      <c r="G23" s="48"/>
+      <c r="H23" s="49"/>
+      <c r="I23" s="54">
         <f>'Daily Schedule SUN'!I23:J23</f>
         <v>0</v>
       </c>
-      <c r="J23" s="45"/>
-    </row>
-    <row r="24" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="J23" s="55"/>
+    </row>
+    <row r="24" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="8"/>
       <c r="B24" s="19">
         <f t="shared" si="0"/>
@@ -4117,15 +4145,15 @@
       <c r="D24" s="8"/>
       <c r="E24" s="17"/>
       <c r="F24" s="8"/>
-      <c r="G24" s="60"/>
-      <c r="H24" s="61"/>
-      <c r="I24" s="64">
+      <c r="G24" s="50"/>
+      <c r="H24" s="51"/>
+      <c r="I24" s="56">
         <f>'Daily Schedule SUN'!I24:J24</f>
         <v>0</v>
       </c>
-      <c r="J24" s="65"/>
-    </row>
-    <row r="25" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="J24" s="57"/>
+    </row>
+    <row r="25" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="8"/>
       <c r="B25" s="18">
         <f t="shared" si="0"/>
@@ -4135,20 +4163,22 @@
         <v>46</v>
       </c>
       <c r="D25" s="8"/>
-      <c r="E25" s="16"/>
+      <c r="E25" s="16" t="s">
+        <v>47</v>
+      </c>
       <c r="F25" s="8"/>
-      <c r="G25" s="66">
+      <c r="G25" s="58">
         <f>G7+6</f>
         <v>42869</v>
       </c>
-      <c r="H25" s="67"/>
-      <c r="I25" s="68">
+      <c r="H25" s="59"/>
+      <c r="I25" s="64">
         <f>'Daily Schedule SUN'!I25:J25</f>
         <v>0</v>
       </c>
-      <c r="J25" s="69"/>
-    </row>
-    <row r="26" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="J25" s="65"/>
+    </row>
+    <row r="26" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="8"/>
       <c r="B26" s="19">
         <f t="shared" si="0"/>
@@ -4160,15 +4190,15 @@
       <c r="D26" s="8"/>
       <c r="E26" s="17"/>
       <c r="F26" s="8"/>
-      <c r="G26" s="40"/>
-      <c r="H26" s="41"/>
-      <c r="I26" s="46">
+      <c r="G26" s="60"/>
+      <c r="H26" s="61"/>
+      <c r="I26" s="52">
         <f>'Daily Schedule SUN'!I26:J26</f>
         <v>0</v>
       </c>
-      <c r="J26" s="47"/>
-    </row>
-    <row r="27" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="J26" s="53"/>
+    </row>
+    <row r="27" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="8"/>
       <c r="B27" s="18">
         <f t="shared" si="0"/>
@@ -4180,15 +4210,15 @@
       <c r="D27" s="8"/>
       <c r="E27" s="16"/>
       <c r="F27" s="8"/>
-      <c r="G27" s="42"/>
-      <c r="H27" s="43"/>
-      <c r="I27" s="48">
+      <c r="G27" s="62"/>
+      <c r="H27" s="63"/>
+      <c r="I27" s="66">
         <f>'Daily Schedule SUN'!I27:J27</f>
         <v>0</v>
       </c>
-      <c r="J27" s="49"/>
-    </row>
-    <row r="28" spans="1:10" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="J27" s="67"/>
+    </row>
+    <row r="28" spans="1:10" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="8"/>
       <c r="B28" s="19">
         <f t="shared" si="0"/>
@@ -4205,7 +4235,7 @@
       <c r="I28" s="8"/>
       <c r="J28" s="8"/>
     </row>
-    <row r="29" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="8"/>
       <c r="B29" s="18">
         <f t="shared" si="0"/>
@@ -4217,14 +4247,14 @@
       <c r="D29" s="8"/>
       <c r="E29" s="16"/>
       <c r="F29" s="8"/>
-      <c r="G29" s="70" t="s">
+      <c r="G29" s="37" t="s">
         <v>26</v>
       </c>
-      <c r="H29" s="71"/>
-      <c r="I29" s="71"/>
-      <c r="J29" s="72"/>
-    </row>
-    <row r="30" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="H29" s="38"/>
+      <c r="I29" s="38"/>
+      <c r="J29" s="39"/>
+    </row>
+    <row r="30" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="8"/>
       <c r="B30" s="19">
         <f t="shared" si="0"/>
@@ -4236,12 +4266,12 @@
       <c r="D30" s="8"/>
       <c r="E30" s="17"/>
       <c r="F30" s="8"/>
-      <c r="G30" s="73"/>
-      <c r="H30" s="74"/>
-      <c r="I30" s="74"/>
-      <c r="J30" s="75"/>
-    </row>
-    <row r="31" spans="1:10" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="G30" s="40"/>
+      <c r="H30" s="41"/>
+      <c r="I30" s="41"/>
+      <c r="J30" s="42"/>
+    </row>
+    <row r="31" spans="1:10" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="8"/>
       <c r="B31" s="18">
         <f t="shared" si="0"/>
@@ -4251,12 +4281,12 @@
       <c r="D31" s="8"/>
       <c r="E31" s="16"/>
       <c r="F31" s="8"/>
-      <c r="G31" s="76"/>
-      <c r="H31" s="77"/>
-      <c r="I31" s="77"/>
-      <c r="J31" s="78"/>
-    </row>
-    <row r="32" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="G31" s="43"/>
+      <c r="H31" s="44"/>
+      <c r="I31" s="44"/>
+      <c r="J31" s="45"/>
+    </row>
+    <row r="32" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="8"/>
       <c r="B32" s="19">
         <f t="shared" si="0"/>
@@ -4271,7 +4301,7 @@
       <c r="I32" s="8"/>
       <c r="J32" s="8"/>
     </row>
-    <row r="33" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="8"/>
       <c r="B33" s="18">
         <f t="shared" si="0"/>
@@ -4286,7 +4316,7 @@
       <c r="I33" s="8"/>
       <c r="J33" s="8"/>
     </row>
-    <row r="34" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="8"/>
       <c r="B34" s="19">
         <f t="shared" si="0"/>
@@ -4301,7 +4331,7 @@
       <c r="I34" s="8"/>
       <c r="J34" s="8"/>
     </row>
-    <row r="35" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="8"/>
       <c r="B35" s="18">
         <f t="shared" si="0"/>
@@ -4316,7 +4346,7 @@
       <c r="I35" s="8"/>
       <c r="J35" s="8"/>
     </row>
-    <row r="36" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="8"/>
       <c r="B36" s="19">
         <f t="shared" si="0"/>
@@ -4331,7 +4361,7 @@
       <c r="I36" s="8"/>
       <c r="J36" s="8"/>
     </row>
-    <row r="37" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="8"/>
       <c r="B37" s="18">
         <f t="shared" si="0"/>
@@ -4346,7 +4376,7 @@
       <c r="I37" s="8"/>
       <c r="J37" s="8"/>
     </row>
-    <row r="38" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="8"/>
       <c r="B38" s="19">
         <f t="shared" si="0"/>
@@ -4361,7 +4391,7 @@
       <c r="I38" s="8"/>
       <c r="J38" s="8"/>
     </row>
-    <row r="39" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="8"/>
       <c r="B39" s="18">
         <f t="shared" si="0"/>
@@ -4378,6 +4408,30 @@
     </row>
   </sheetData>
   <mergeCells count="33">
+    <mergeCell ref="B2:C3"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="G5:J6"/>
+    <mergeCell ref="G7:H9"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="I8:J8"/>
+    <mergeCell ref="I9:J9"/>
+    <mergeCell ref="G10:H12"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="G13:H15"/>
+    <mergeCell ref="I13:J13"/>
+    <mergeCell ref="I14:J14"/>
+    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="G16:H18"/>
+    <mergeCell ref="I16:J16"/>
+    <mergeCell ref="I17:J17"/>
+    <mergeCell ref="I18:J18"/>
+    <mergeCell ref="G19:H21"/>
+    <mergeCell ref="I19:J19"/>
+    <mergeCell ref="I20:J20"/>
+    <mergeCell ref="I21:J21"/>
     <mergeCell ref="G29:J31"/>
     <mergeCell ref="G22:H24"/>
     <mergeCell ref="I22:J22"/>
@@ -4387,30 +4441,6 @@
     <mergeCell ref="I25:J25"/>
     <mergeCell ref="I26:J26"/>
     <mergeCell ref="I27:J27"/>
-    <mergeCell ref="G16:H18"/>
-    <mergeCell ref="I16:J16"/>
-    <mergeCell ref="I17:J17"/>
-    <mergeCell ref="I18:J18"/>
-    <mergeCell ref="G19:H21"/>
-    <mergeCell ref="I19:J19"/>
-    <mergeCell ref="I20:J20"/>
-    <mergeCell ref="I21:J21"/>
-    <mergeCell ref="G10:H12"/>
-    <mergeCell ref="I10:J10"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="I12:J12"/>
-    <mergeCell ref="G13:H15"/>
-    <mergeCell ref="I13:J13"/>
-    <mergeCell ref="I14:J14"/>
-    <mergeCell ref="I15:J15"/>
-    <mergeCell ref="B2:C3"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="G5:J6"/>
-    <mergeCell ref="G7:H9"/>
-    <mergeCell ref="I7:J7"/>
-    <mergeCell ref="I8:J8"/>
-    <mergeCell ref="I9:J9"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="G29" r:id="rId1"/>
@@ -4463,22 +4493,22 @@
       <selection activeCell="G29" sqref="G29:J31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.69140625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="2.84375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="2.88671875" style="1" customWidth="1"/>
     <col min="2" max="2" width="13" style="1" customWidth="1"/>
-    <col min="3" max="3" width="55.69140625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="3.3828125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="55.84375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="3.3828125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="23.84375" style="1" customWidth="1"/>
-    <col min="8" max="8" width="3.3828125" style="1" customWidth="1"/>
-    <col min="9" max="9" width="23.84375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="21.3828125" style="1" customWidth="1"/>
-    <col min="11" max="16384" width="10.69140625" style="1"/>
+    <col min="3" max="3" width="55.6640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="3.33203125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="55.88671875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="3.33203125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="23.88671875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="3.33203125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="23.88671875" style="1" customWidth="1"/>
+    <col min="10" max="10" width="21.33203125" style="1" customWidth="1"/>
+    <col min="11" max="16384" width="10.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="11" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="8"/>
       <c r="B1" s="8"/>
       <c r="C1" s="8"/>
@@ -4490,12 +4520,12 @@
       <c r="I1" s="8"/>
       <c r="J1" s="8"/>
     </row>
-    <row r="2" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.65">
+    <row r="2" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A2" s="8"/>
-      <c r="B2" s="37" t="s">
+      <c r="B2" s="70" t="s">
         <v>25</v>
       </c>
-      <c r="C2" s="37"/>
+      <c r="C2" s="70"/>
       <c r="D2" s="9"/>
       <c r="E2" s="12" t="s">
         <v>13</v>
@@ -4510,10 +4540,10 @@
       </c>
       <c r="J2" s="8"/>
     </row>
-    <row r="3" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.65">
+    <row r="3" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A3" s="8"/>
-      <c r="B3" s="37"/>
-      <c r="C3" s="37"/>
+      <c r="B3" s="70"/>
+      <c r="C3" s="70"/>
       <c r="D3" s="9"/>
       <c r="E3" s="13">
         <f>'Daily Schedule SUN'!E3</f>
@@ -4529,7 +4559,7 @@
       </c>
       <c r="J3" s="8"/>
     </row>
-    <row r="4" spans="1:10" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="8"/>
       <c r="B4" s="10"/>
       <c r="C4" s="10"/>
@@ -4544,42 +4574,42 @@
       </c>
       <c r="J4" s="8"/>
     </row>
-    <row r="5" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="8"/>
-      <c r="B5" s="38" t="s">
+      <c r="B5" s="71" t="s">
         <v>0</v>
       </c>
       <c r="C5" s="23" t="s">
         <v>20</v>
       </c>
       <c r="D5" s="8"/>
-      <c r="E5" s="39" t="s">
+      <c r="E5" s="72" t="s">
         <v>14</v>
       </c>
       <c r="F5" s="8"/>
-      <c r="G5" s="80" t="s">
+      <c r="G5" s="79" t="s">
         <v>15</v>
       </c>
-      <c r="H5" s="81"/>
-      <c r="I5" s="80"/>
-      <c r="J5" s="80"/>
-    </row>
-    <row r="6" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="H5" s="80"/>
+      <c r="I5" s="79"/>
+      <c r="J5" s="79"/>
+    </row>
+    <row r="6" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="8"/>
-      <c r="B6" s="38"/>
+      <c r="B6" s="71"/>
       <c r="C6" s="24">
         <f>E3+4</f>
         <v>42867</v>
       </c>
       <c r="D6" s="8"/>
-      <c r="E6" s="39"/>
+      <c r="E6" s="72"/>
       <c r="F6" s="8"/>
-      <c r="G6" s="80"/>
-      <c r="H6" s="80"/>
-      <c r="I6" s="80"/>
-      <c r="J6" s="80"/>
-    </row>
-    <row r="7" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="G6" s="79"/>
+      <c r="H6" s="79"/>
+      <c r="I6" s="79"/>
+      <c r="J6" s="79"/>
+    </row>
+    <row r="7" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="8"/>
       <c r="B7" s="18">
         <f>G3</f>
@@ -4589,18 +4619,18 @@
       <c r="D7" s="8"/>
       <c r="E7" s="16"/>
       <c r="F7" s="8"/>
-      <c r="G7" s="66">
+      <c r="G7" s="58">
         <f>E3</f>
         <v>42863</v>
       </c>
-      <c r="H7" s="67"/>
-      <c r="I7" s="68">
+      <c r="H7" s="59"/>
+      <c r="I7" s="64">
         <f>'Daily Schedule SUN'!I7:J7</f>
         <v>0</v>
       </c>
-      <c r="J7" s="69"/>
-    </row>
-    <row r="8" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="J7" s="65"/>
+    </row>
+    <row r="8" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="8"/>
       <c r="B8" s="19">
         <f t="shared" ref="B8:B39" si="0">B7+TIME(0,Interval,0)</f>
@@ -4610,15 +4640,15 @@
       <c r="D8" s="8"/>
       <c r="E8" s="17"/>
       <c r="F8" s="8"/>
-      <c r="G8" s="40"/>
-      <c r="H8" s="41"/>
-      <c r="I8" s="46">
+      <c r="G8" s="60"/>
+      <c r="H8" s="61"/>
+      <c r="I8" s="52">
         <f>'Daily Schedule SUN'!I8:J8</f>
         <v>0</v>
       </c>
-      <c r="J8" s="47"/>
-    </row>
-    <row r="9" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="J8" s="53"/>
+    </row>
+    <row r="9" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="8"/>
       <c r="B9" s="18">
         <f t="shared" si="0"/>
@@ -4628,15 +4658,15 @@
       <c r="D9" s="8"/>
       <c r="E9" s="16"/>
       <c r="F9" s="8"/>
-      <c r="G9" s="42"/>
-      <c r="H9" s="43"/>
-      <c r="I9" s="48">
+      <c r="G9" s="62"/>
+      <c r="H9" s="63"/>
+      <c r="I9" s="66">
         <f>'Daily Schedule SUN'!I9:J9</f>
         <v>0</v>
       </c>
-      <c r="J9" s="49"/>
-    </row>
-    <row r="10" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="J9" s="67"/>
+    </row>
+    <row r="10" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="8"/>
       <c r="B10" s="19">
         <f t="shared" si="0"/>
@@ -4646,18 +4676,18 @@
       <c r="D10" s="8"/>
       <c r="E10" s="17"/>
       <c r="F10" s="8"/>
-      <c r="G10" s="56">
+      <c r="G10" s="46">
         <f>G7+1</f>
         <v>42864</v>
       </c>
-      <c r="H10" s="57"/>
-      <c r="I10" s="62">
+      <c r="H10" s="47"/>
+      <c r="I10" s="68">
         <f>'Daily Schedule SUN'!I10:J10</f>
         <v>0</v>
       </c>
-      <c r="J10" s="63"/>
-    </row>
-    <row r="11" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="J10" s="69"/>
+    </row>
+    <row r="11" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="8"/>
       <c r="B11" s="18">
         <f t="shared" si="0"/>
@@ -4667,15 +4697,15 @@
       <c r="D11" s="8"/>
       <c r="E11" s="16"/>
       <c r="F11" s="8"/>
-      <c r="G11" s="58"/>
-      <c r="H11" s="59"/>
-      <c r="I11" s="44">
+      <c r="G11" s="48"/>
+      <c r="H11" s="49"/>
+      <c r="I11" s="54">
         <f>'Daily Schedule SUN'!I11:J11</f>
         <v>0</v>
       </c>
-      <c r="J11" s="45"/>
-    </row>
-    <row r="12" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="J11" s="55"/>
+    </row>
+    <row r="12" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="8"/>
       <c r="B12" s="19">
         <f t="shared" si="0"/>
@@ -4685,15 +4715,15 @@
       <c r="D12" s="8"/>
       <c r="E12" s="17"/>
       <c r="F12" s="8"/>
-      <c r="G12" s="60"/>
-      <c r="H12" s="61"/>
-      <c r="I12" s="64">
+      <c r="G12" s="50"/>
+      <c r="H12" s="51"/>
+      <c r="I12" s="56">
         <f>'Daily Schedule SUN'!I12:J12</f>
         <v>0</v>
       </c>
-      <c r="J12" s="65"/>
-    </row>
-    <row r="13" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="J12" s="57"/>
+    </row>
+    <row r="13" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="8"/>
       <c r="B13" s="18">
         <f t="shared" si="0"/>
@@ -4703,18 +4733,18 @@
       <c r="D13" s="8"/>
       <c r="E13" s="16"/>
       <c r="F13" s="8"/>
-      <c r="G13" s="66">
+      <c r="G13" s="58">
         <f>G7+2</f>
         <v>42865</v>
       </c>
-      <c r="H13" s="67"/>
-      <c r="I13" s="68">
+      <c r="H13" s="59"/>
+      <c r="I13" s="64">
         <f>'Daily Schedule SUN'!I13:J13</f>
         <v>0</v>
       </c>
-      <c r="J13" s="69"/>
-    </row>
-    <row r="14" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="J13" s="65"/>
+    </row>
+    <row r="14" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="8"/>
       <c r="B14" s="19">
         <f t="shared" si="0"/>
@@ -4724,15 +4754,15 @@
       <c r="D14" s="8"/>
       <c r="E14" s="17"/>
       <c r="F14" s="8"/>
-      <c r="G14" s="40"/>
-      <c r="H14" s="41"/>
-      <c r="I14" s="46">
+      <c r="G14" s="60"/>
+      <c r="H14" s="61"/>
+      <c r="I14" s="52">
         <f>'Daily Schedule SUN'!I14:J14</f>
         <v>0</v>
       </c>
-      <c r="J14" s="47"/>
-    </row>
-    <row r="15" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="J14" s="53"/>
+    </row>
+    <row r="15" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="8"/>
       <c r="B15" s="18">
         <f t="shared" si="0"/>
@@ -4742,15 +4772,15 @@
       <c r="D15" s="8"/>
       <c r="E15" s="16"/>
       <c r="F15" s="8"/>
-      <c r="G15" s="42"/>
-      <c r="H15" s="43"/>
-      <c r="I15" s="48">
+      <c r="G15" s="62"/>
+      <c r="H15" s="63"/>
+      <c r="I15" s="66">
         <f>'Daily Schedule SUN'!I15:J15</f>
         <v>0</v>
       </c>
-      <c r="J15" s="49"/>
-    </row>
-    <row r="16" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="J15" s="67"/>
+    </row>
+    <row r="16" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="8"/>
       <c r="B16" s="19">
         <f t="shared" si="0"/>
@@ -4760,18 +4790,18 @@
       <c r="D16" s="8"/>
       <c r="E16" s="17"/>
       <c r="F16" s="8"/>
-      <c r="G16" s="56">
+      <c r="G16" s="46">
         <f>G7+3</f>
         <v>42866</v>
       </c>
-      <c r="H16" s="57"/>
-      <c r="I16" s="62">
+      <c r="H16" s="47"/>
+      <c r="I16" s="68">
         <f>'Daily Schedule SUN'!I16:J16</f>
         <v>0</v>
       </c>
-      <c r="J16" s="63"/>
-    </row>
-    <row r="17" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="J16" s="69"/>
+    </row>
+    <row r="17" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="8"/>
       <c r="B17" s="18">
         <f t="shared" si="0"/>
@@ -4781,15 +4811,15 @@
       <c r="D17" s="8"/>
       <c r="E17" s="16"/>
       <c r="F17" s="8"/>
-      <c r="G17" s="58"/>
-      <c r="H17" s="59"/>
-      <c r="I17" s="44">
+      <c r="G17" s="48"/>
+      <c r="H17" s="49"/>
+      <c r="I17" s="54">
         <f>'Daily Schedule SUN'!I17:J17</f>
         <v>0</v>
       </c>
-      <c r="J17" s="45"/>
-    </row>
-    <row r="18" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="J17" s="55"/>
+    </row>
+    <row r="18" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="8"/>
       <c r="B18" s="19">
         <f t="shared" si="0"/>
@@ -4799,15 +4829,15 @@
       <c r="D18" s="8"/>
       <c r="E18" s="17"/>
       <c r="F18" s="8"/>
-      <c r="G18" s="60"/>
-      <c r="H18" s="61"/>
-      <c r="I18" s="64">
+      <c r="G18" s="50"/>
+      <c r="H18" s="51"/>
+      <c r="I18" s="56">
         <f>'Daily Schedule SUN'!I18:J18</f>
         <v>0</v>
       </c>
-      <c r="J18" s="65"/>
-    </row>
-    <row r="19" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="J18" s="57"/>
+    </row>
+    <row r="19" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="8"/>
       <c r="B19" s="18">
         <f t="shared" si="0"/>
@@ -4817,18 +4847,18 @@
       <c r="D19" s="8"/>
       <c r="E19" s="16"/>
       <c r="F19" s="8"/>
-      <c r="G19" s="66">
+      <c r="G19" s="58">
         <f>G7+4</f>
         <v>42867</v>
       </c>
-      <c r="H19" s="67"/>
-      <c r="I19" s="68">
+      <c r="H19" s="59"/>
+      <c r="I19" s="64">
         <f>'Daily Schedule SUN'!I19:J19</f>
         <v>0</v>
       </c>
-      <c r="J19" s="69"/>
-    </row>
-    <row r="20" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="J19" s="65"/>
+    </row>
+    <row r="20" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="8"/>
       <c r="B20" s="19">
         <f t="shared" si="0"/>
@@ -4838,15 +4868,15 @@
       <c r="D20" s="8"/>
       <c r="E20" s="17"/>
       <c r="F20" s="8"/>
-      <c r="G20" s="40"/>
-      <c r="H20" s="41"/>
-      <c r="I20" s="46">
+      <c r="G20" s="60"/>
+      <c r="H20" s="61"/>
+      <c r="I20" s="52">
         <f>'Daily Schedule SUN'!I20:J20</f>
         <v>0</v>
       </c>
-      <c r="J20" s="47"/>
-    </row>
-    <row r="21" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="J20" s="53"/>
+    </row>
+    <row r="21" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="8"/>
       <c r="B21" s="18">
         <f t="shared" si="0"/>
@@ -4856,15 +4886,15 @@
       <c r="D21" s="8"/>
       <c r="E21" s="16"/>
       <c r="F21" s="8"/>
-      <c r="G21" s="42"/>
-      <c r="H21" s="43"/>
-      <c r="I21" s="48">
+      <c r="G21" s="62"/>
+      <c r="H21" s="63"/>
+      <c r="I21" s="66">
         <f>'Daily Schedule SUN'!I21:J21</f>
         <v>0</v>
       </c>
-      <c r="J21" s="49"/>
-    </row>
-    <row r="22" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="J21" s="67"/>
+    </row>
+    <row r="22" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="8"/>
       <c r="B22" s="19">
         <f t="shared" si="0"/>
@@ -4874,18 +4904,18 @@
       <c r="D22" s="8"/>
       <c r="E22" s="17"/>
       <c r="F22" s="8"/>
-      <c r="G22" s="56">
+      <c r="G22" s="46">
         <f>G7+5</f>
         <v>42868</v>
       </c>
-      <c r="H22" s="57"/>
-      <c r="I22" s="62">
+      <c r="H22" s="47"/>
+      <c r="I22" s="68">
         <f>'Daily Schedule SUN'!I22:J22</f>
         <v>0</v>
       </c>
-      <c r="J22" s="63"/>
-    </row>
-    <row r="23" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="J22" s="69"/>
+    </row>
+    <row r="23" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="8"/>
       <c r="B23" s="18">
         <f t="shared" si="0"/>
@@ -4895,15 +4925,15 @@
       <c r="D23" s="8"/>
       <c r="E23" s="16"/>
       <c r="F23" s="8"/>
-      <c r="G23" s="58"/>
-      <c r="H23" s="59"/>
-      <c r="I23" s="44">
+      <c r="G23" s="48"/>
+      <c r="H23" s="49"/>
+      <c r="I23" s="54">
         <f>'Daily Schedule SUN'!I23:J23</f>
         <v>0</v>
       </c>
-      <c r="J23" s="45"/>
-    </row>
-    <row r="24" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="J23" s="55"/>
+    </row>
+    <row r="24" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="8"/>
       <c r="B24" s="19">
         <f t="shared" si="0"/>
@@ -4913,15 +4943,15 @@
       <c r="D24" s="8"/>
       <c r="E24" s="17"/>
       <c r="F24" s="8"/>
-      <c r="G24" s="60"/>
-      <c r="H24" s="61"/>
-      <c r="I24" s="64">
+      <c r="G24" s="50"/>
+      <c r="H24" s="51"/>
+      <c r="I24" s="56">
         <f>'Daily Schedule SUN'!I24:J24</f>
         <v>0</v>
       </c>
-      <c r="J24" s="65"/>
-    </row>
-    <row r="25" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="J24" s="57"/>
+    </row>
+    <row r="25" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="8"/>
       <c r="B25" s="18">
         <f t="shared" si="0"/>
@@ -4931,18 +4961,18 @@
       <c r="D25" s="8"/>
       <c r="E25" s="16"/>
       <c r="F25" s="8"/>
-      <c r="G25" s="66">
+      <c r="G25" s="58">
         <f>G7+6</f>
         <v>42869</v>
       </c>
-      <c r="H25" s="67"/>
-      <c r="I25" s="68">
+      <c r="H25" s="59"/>
+      <c r="I25" s="64">
         <f>'Daily Schedule SUN'!I25:J25</f>
         <v>0</v>
       </c>
-      <c r="J25" s="69"/>
-    </row>
-    <row r="26" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="J25" s="65"/>
+    </row>
+    <row r="26" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="8"/>
       <c r="B26" s="19">
         <f t="shared" si="0"/>
@@ -4952,15 +4982,15 @@
       <c r="D26" s="8"/>
       <c r="E26" s="17"/>
       <c r="F26" s="8"/>
-      <c r="G26" s="40"/>
-      <c r="H26" s="41"/>
-      <c r="I26" s="46">
+      <c r="G26" s="60"/>
+      <c r="H26" s="61"/>
+      <c r="I26" s="52">
         <f>'Daily Schedule SUN'!I26:J26</f>
         <v>0</v>
       </c>
-      <c r="J26" s="47"/>
-    </row>
-    <row r="27" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="J26" s="53"/>
+    </row>
+    <row r="27" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="8"/>
       <c r="B27" s="18">
         <f t="shared" si="0"/>
@@ -4970,15 +5000,15 @@
       <c r="D27" s="8"/>
       <c r="E27" s="16"/>
       <c r="F27" s="8"/>
-      <c r="G27" s="42"/>
-      <c r="H27" s="43"/>
-      <c r="I27" s="48">
+      <c r="G27" s="62"/>
+      <c r="H27" s="63"/>
+      <c r="I27" s="66">
         <f>'Daily Schedule SUN'!I27:J27</f>
         <v>0</v>
       </c>
-      <c r="J27" s="49"/>
-    </row>
-    <row r="28" spans="1:10" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="J27" s="67"/>
+    </row>
+    <row r="28" spans="1:10" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="8"/>
       <c r="B28" s="19">
         <f t="shared" si="0"/>
@@ -4993,7 +5023,7 @@
       <c r="I28" s="8"/>
       <c r="J28" s="8"/>
     </row>
-    <row r="29" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="8"/>
       <c r="B29" s="18">
         <f t="shared" si="0"/>
@@ -5003,14 +5033,14 @@
       <c r="D29" s="8"/>
       <c r="E29" s="16"/>
       <c r="F29" s="8"/>
-      <c r="G29" s="70" t="s">
+      <c r="G29" s="37" t="s">
         <v>26</v>
       </c>
-      <c r="H29" s="71"/>
-      <c r="I29" s="71"/>
-      <c r="J29" s="72"/>
-    </row>
-    <row r="30" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="H29" s="38"/>
+      <c r="I29" s="38"/>
+      <c r="J29" s="39"/>
+    </row>
+    <row r="30" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="8"/>
       <c r="B30" s="19">
         <f t="shared" si="0"/>
@@ -5020,12 +5050,12 @@
       <c r="D30" s="8"/>
       <c r="E30" s="17"/>
       <c r="F30" s="8"/>
-      <c r="G30" s="73"/>
-      <c r="H30" s="74"/>
-      <c r="I30" s="74"/>
-      <c r="J30" s="75"/>
-    </row>
-    <row r="31" spans="1:10" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="G30" s="40"/>
+      <c r="H30" s="41"/>
+      <c r="I30" s="41"/>
+      <c r="J30" s="42"/>
+    </row>
+    <row r="31" spans="1:10" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="8"/>
       <c r="B31" s="18">
         <f t="shared" si="0"/>
@@ -5035,12 +5065,12 @@
       <c r="D31" s="8"/>
       <c r="E31" s="16"/>
       <c r="F31" s="8"/>
-      <c r="G31" s="76"/>
-      <c r="H31" s="77"/>
-      <c r="I31" s="77"/>
-      <c r="J31" s="78"/>
-    </row>
-    <row r="32" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="G31" s="43"/>
+      <c r="H31" s="44"/>
+      <c r="I31" s="44"/>
+      <c r="J31" s="45"/>
+    </row>
+    <row r="32" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="8"/>
       <c r="B32" s="19">
         <f t="shared" si="0"/>
@@ -5055,7 +5085,7 @@
       <c r="I32" s="8"/>
       <c r="J32" s="8"/>
     </row>
-    <row r="33" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="8"/>
       <c r="B33" s="18">
         <f t="shared" si="0"/>
@@ -5070,7 +5100,7 @@
       <c r="I33" s="8"/>
       <c r="J33" s="8"/>
     </row>
-    <row r="34" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="8"/>
       <c r="B34" s="19">
         <f t="shared" si="0"/>
@@ -5085,7 +5115,7 @@
       <c r="I34" s="8"/>
       <c r="J34" s="8"/>
     </row>
-    <row r="35" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="8"/>
       <c r="B35" s="18">
         <f t="shared" si="0"/>
@@ -5100,7 +5130,7 @@
       <c r="I35" s="8"/>
       <c r="J35" s="8"/>
     </row>
-    <row r="36" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="8"/>
       <c r="B36" s="19">
         <f t="shared" si="0"/>
@@ -5115,7 +5145,7 @@
       <c r="I36" s="8"/>
       <c r="J36" s="8"/>
     </row>
-    <row r="37" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="8"/>
       <c r="B37" s="18">
         <f t="shared" si="0"/>
@@ -5130,7 +5160,7 @@
       <c r="I37" s="8"/>
       <c r="J37" s="8"/>
     </row>
-    <row r="38" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="8"/>
       <c r="B38" s="19">
         <f t="shared" si="0"/>
@@ -5145,7 +5175,7 @@
       <c r="I38" s="8"/>
       <c r="J38" s="8"/>
     </row>
-    <row r="39" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="8"/>
       <c r="B39" s="18">
         <f t="shared" si="0"/>
@@ -5162,6 +5192,30 @@
     </row>
   </sheetData>
   <mergeCells count="33">
+    <mergeCell ref="B2:C3"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="G5:J6"/>
+    <mergeCell ref="G7:H9"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="I8:J8"/>
+    <mergeCell ref="I9:J9"/>
+    <mergeCell ref="G10:H12"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="G13:H15"/>
+    <mergeCell ref="I13:J13"/>
+    <mergeCell ref="I14:J14"/>
+    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="G16:H18"/>
+    <mergeCell ref="I16:J16"/>
+    <mergeCell ref="I17:J17"/>
+    <mergeCell ref="I18:J18"/>
+    <mergeCell ref="G19:H21"/>
+    <mergeCell ref="I19:J19"/>
+    <mergeCell ref="I20:J20"/>
+    <mergeCell ref="I21:J21"/>
     <mergeCell ref="G29:J31"/>
     <mergeCell ref="G22:H24"/>
     <mergeCell ref="I22:J22"/>
@@ -5171,30 +5225,6 @@
     <mergeCell ref="I25:J25"/>
     <mergeCell ref="I26:J26"/>
     <mergeCell ref="I27:J27"/>
-    <mergeCell ref="G16:H18"/>
-    <mergeCell ref="I16:J16"/>
-    <mergeCell ref="I17:J17"/>
-    <mergeCell ref="I18:J18"/>
-    <mergeCell ref="G19:H21"/>
-    <mergeCell ref="I19:J19"/>
-    <mergeCell ref="I20:J20"/>
-    <mergeCell ref="I21:J21"/>
-    <mergeCell ref="G10:H12"/>
-    <mergeCell ref="I10:J10"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="I12:J12"/>
-    <mergeCell ref="G13:H15"/>
-    <mergeCell ref="I13:J13"/>
-    <mergeCell ref="I14:J14"/>
-    <mergeCell ref="I15:J15"/>
-    <mergeCell ref="B2:C3"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="G5:J6"/>
-    <mergeCell ref="G7:H9"/>
-    <mergeCell ref="I7:J7"/>
-    <mergeCell ref="I8:J8"/>
-    <mergeCell ref="I9:J9"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="G29" r:id="rId1"/>
@@ -5243,26 +5273,26 @@
   </sheetPr>
   <dimension ref="A1:J39"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="80" workbookViewId="0">
-      <selection activeCell="G29" sqref="G29:J31"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A11" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="80" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.69140625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="2.84375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="2.88671875" style="1" customWidth="1"/>
     <col min="2" max="2" width="13" style="1" customWidth="1"/>
-    <col min="3" max="3" width="55.69140625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="3.3828125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="55.84375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="3.3828125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="23.84375" style="1" customWidth="1"/>
-    <col min="8" max="8" width="3.3828125" style="1" customWidth="1"/>
-    <col min="9" max="9" width="23.84375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="21.3828125" style="1" customWidth="1"/>
-    <col min="11" max="16384" width="10.69140625" style="1"/>
+    <col min="3" max="3" width="55.6640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="3.33203125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="55.88671875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="3.33203125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="23.88671875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="3.33203125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="23.88671875" style="1" customWidth="1"/>
+    <col min="10" max="10" width="21.33203125" style="1" customWidth="1"/>
+    <col min="11" max="16384" width="10.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="11" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="8"/>
       <c r="B1" s="8"/>
       <c r="C1" s="8"/>
@@ -5274,12 +5304,12 @@
       <c r="I1" s="8"/>
       <c r="J1" s="8"/>
     </row>
-    <row r="2" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.65">
+    <row r="2" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A2" s="8"/>
-      <c r="B2" s="37" t="s">
+      <c r="B2" s="70" t="s">
         <v>25</v>
       </c>
-      <c r="C2" s="37"/>
+      <c r="C2" s="70"/>
       <c r="D2" s="9"/>
       <c r="E2" s="12" t="s">
         <v>13</v>
@@ -5294,10 +5324,10 @@
       </c>
       <c r="J2" s="8"/>
     </row>
-    <row r="3" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.65">
+    <row r="3" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A3" s="8"/>
-      <c r="B3" s="37"/>
-      <c r="C3" s="37"/>
+      <c r="B3" s="70"/>
+      <c r="C3" s="70"/>
       <c r="D3" s="9"/>
       <c r="E3" s="13">
         <f>'Daily Schedule SUN'!E3</f>
@@ -5313,7 +5343,7 @@
       </c>
       <c r="J3" s="8"/>
     </row>
-    <row r="4" spans="1:10" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="8"/>
       <c r="B4" s="10"/>
       <c r="C4" s="10"/>
@@ -5328,42 +5358,42 @@
       </c>
       <c r="J4" s="8"/>
     </row>
-    <row r="5" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="8"/>
-      <c r="B5" s="38" t="s">
+      <c r="B5" s="71" t="s">
         <v>0</v>
       </c>
       <c r="C5" s="23" t="s">
         <v>21</v>
       </c>
       <c r="D5" s="8"/>
-      <c r="E5" s="39" t="s">
+      <c r="E5" s="72" t="s">
         <v>14</v>
       </c>
       <c r="F5" s="8"/>
-      <c r="G5" s="80" t="s">
+      <c r="G5" s="79" t="s">
         <v>15</v>
       </c>
-      <c r="H5" s="81"/>
-      <c r="I5" s="80"/>
-      <c r="J5" s="80"/>
-    </row>
-    <row r="6" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="H5" s="80"/>
+      <c r="I5" s="79"/>
+      <c r="J5" s="79"/>
+    </row>
+    <row r="6" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="8"/>
-      <c r="B6" s="38"/>
+      <c r="B6" s="71"/>
       <c r="C6" s="24">
         <f>E3+5</f>
         <v>42868</v>
       </c>
       <c r="D6" s="8"/>
-      <c r="E6" s="39"/>
+      <c r="E6" s="72"/>
       <c r="F6" s="8"/>
-      <c r="G6" s="80"/>
-      <c r="H6" s="80"/>
-      <c r="I6" s="80"/>
-      <c r="J6" s="80"/>
-    </row>
-    <row r="7" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="G6" s="79"/>
+      <c r="H6" s="79"/>
+      <c r="I6" s="79"/>
+      <c r="J6" s="79"/>
+    </row>
+    <row r="7" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="8"/>
       <c r="B7" s="18">
         <f>G3</f>
@@ -5373,18 +5403,18 @@
       <c r="D7" s="8"/>
       <c r="E7" s="16"/>
       <c r="F7" s="8"/>
-      <c r="G7" s="66">
+      <c r="G7" s="58">
         <f>E3</f>
         <v>42863</v>
       </c>
-      <c r="H7" s="67"/>
-      <c r="I7" s="68">
+      <c r="H7" s="59"/>
+      <c r="I7" s="64">
         <f>'Daily Schedule SUN'!I7:J7</f>
         <v>0</v>
       </c>
-      <c r="J7" s="69"/>
-    </row>
-    <row r="8" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="J7" s="65"/>
+    </row>
+    <row r="8" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="8"/>
       <c r="B8" s="19">
         <f t="shared" ref="B8:B39" si="0">B7+TIME(0,Interval,0)</f>
@@ -5394,15 +5424,15 @@
       <c r="D8" s="8"/>
       <c r="E8" s="17"/>
       <c r="F8" s="8"/>
-      <c r="G8" s="40"/>
-      <c r="H8" s="41"/>
-      <c r="I8" s="46">
+      <c r="G8" s="60"/>
+      <c r="H8" s="61"/>
+      <c r="I8" s="52">
         <f>'Daily Schedule SUN'!I8:J8</f>
         <v>0</v>
       </c>
-      <c r="J8" s="47"/>
-    </row>
-    <row r="9" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="J8" s="53"/>
+    </row>
+    <row r="9" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="8"/>
       <c r="B9" s="18">
         <f t="shared" si="0"/>
@@ -5412,15 +5442,15 @@
       <c r="D9" s="8"/>
       <c r="E9" s="16"/>
       <c r="F9" s="8"/>
-      <c r="G9" s="42"/>
-      <c r="H9" s="43"/>
-      <c r="I9" s="48">
+      <c r="G9" s="62"/>
+      <c r="H9" s="63"/>
+      <c r="I9" s="66">
         <f>'Daily Schedule SUN'!I9:J9</f>
         <v>0</v>
       </c>
-      <c r="J9" s="49"/>
-    </row>
-    <row r="10" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="J9" s="67"/>
+    </row>
+    <row r="10" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="8"/>
       <c r="B10" s="19">
         <f t="shared" si="0"/>
@@ -5430,18 +5460,18 @@
       <c r="D10" s="8"/>
       <c r="E10" s="17"/>
       <c r="F10" s="8"/>
-      <c r="G10" s="56">
+      <c r="G10" s="46">
         <f>G7+1</f>
         <v>42864</v>
       </c>
-      <c r="H10" s="57"/>
-      <c r="I10" s="62">
+      <c r="H10" s="47"/>
+      <c r="I10" s="68">
         <f>'Daily Schedule SUN'!I10:J10</f>
         <v>0</v>
       </c>
-      <c r="J10" s="63"/>
-    </row>
-    <row r="11" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="J10" s="69"/>
+    </row>
+    <row r="11" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="8"/>
       <c r="B11" s="18">
         <f t="shared" si="0"/>
@@ -5451,15 +5481,15 @@
       <c r="D11" s="8"/>
       <c r="E11" s="16"/>
       <c r="F11" s="8"/>
-      <c r="G11" s="58"/>
-      <c r="H11" s="59"/>
-      <c r="I11" s="44">
+      <c r="G11" s="48"/>
+      <c r="H11" s="49"/>
+      <c r="I11" s="54">
         <f>'Daily Schedule SUN'!I11:J11</f>
         <v>0</v>
       </c>
-      <c r="J11" s="45"/>
-    </row>
-    <row r="12" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="J11" s="55"/>
+    </row>
+    <row r="12" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="8"/>
       <c r="B12" s="19">
         <f t="shared" si="0"/>
@@ -5469,15 +5499,15 @@
       <c r="D12" s="8"/>
       <c r="E12" s="17"/>
       <c r="F12" s="8"/>
-      <c r="G12" s="60"/>
-      <c r="H12" s="61"/>
-      <c r="I12" s="64">
+      <c r="G12" s="50"/>
+      <c r="H12" s="51"/>
+      <c r="I12" s="56">
         <f>'Daily Schedule SUN'!I12:J12</f>
         <v>0</v>
       </c>
-      <c r="J12" s="65"/>
-    </row>
-    <row r="13" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="J12" s="57"/>
+    </row>
+    <row r="13" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="8"/>
       <c r="B13" s="18">
         <f t="shared" si="0"/>
@@ -5487,288 +5517,304 @@
       <c r="D13" s="8"/>
       <c r="E13" s="16"/>
       <c r="F13" s="8"/>
-      <c r="G13" s="66">
+      <c r="G13" s="58">
         <f>G7+2</f>
         <v>42865</v>
       </c>
-      <c r="H13" s="67"/>
-      <c r="I13" s="68">
+      <c r="H13" s="59"/>
+      <c r="I13" s="64">
         <f>'Daily Schedule SUN'!I13:J13</f>
         <v>0</v>
       </c>
-      <c r="J13" s="69"/>
-    </row>
-    <row r="14" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="J13" s="65"/>
+    </row>
+    <row r="14" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="8"/>
       <c r="B14" s="19">
         <f t="shared" si="0"/>
         <v>0.43749999999999989</v>
       </c>
-      <c r="C14" s="21"/>
+      <c r="C14" s="29" t="s">
+        <v>48</v>
+      </c>
       <c r="D14" s="8"/>
-      <c r="E14" s="17"/>
+      <c r="E14" s="82" t="s">
+        <v>47</v>
+      </c>
       <c r="F14" s="8"/>
-      <c r="G14" s="40"/>
-      <c r="H14" s="41"/>
-      <c r="I14" s="46">
+      <c r="G14" s="60"/>
+      <c r="H14" s="61"/>
+      <c r="I14" s="52">
         <f>'Daily Schedule SUN'!I14:J14</f>
         <v>0</v>
       </c>
-      <c r="J14" s="47"/>
-    </row>
-    <row r="15" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="J14" s="53"/>
+    </row>
+    <row r="15" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="8"/>
       <c r="B15" s="18">
         <f t="shared" si="0"/>
         <v>0.4583333333333332</v>
       </c>
-      <c r="C15" s="20"/>
+      <c r="C15" s="30" t="s">
+        <v>49</v>
+      </c>
       <c r="D15" s="8"/>
-      <c r="E15" s="16"/>
+      <c r="E15" s="36" t="s">
+        <v>47</v>
+      </c>
       <c r="F15" s="8"/>
-      <c r="G15" s="42"/>
-      <c r="H15" s="43"/>
-      <c r="I15" s="48">
+      <c r="G15" s="62"/>
+      <c r="H15" s="63"/>
+      <c r="I15" s="66">
         <f>'Daily Schedule SUN'!I15:J15</f>
         <v>0</v>
       </c>
-      <c r="J15" s="49"/>
-    </row>
-    <row r="16" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="J15" s="67"/>
+    </row>
+    <row r="16" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="8"/>
       <c r="B16" s="19">
         <f t="shared" si="0"/>
         <v>0.47916666666666652</v>
       </c>
-      <c r="C16" s="21"/>
+      <c r="C16" s="29" t="s">
+        <v>50</v>
+      </c>
       <c r="D16" s="8"/>
       <c r="E16" s="17"/>
       <c r="F16" s="8"/>
-      <c r="G16" s="56">
+      <c r="G16" s="46">
         <f>G7+3</f>
         <v>42866</v>
       </c>
-      <c r="H16" s="57"/>
-      <c r="I16" s="62">
+      <c r="H16" s="47"/>
+      <c r="I16" s="68">
         <f>'Daily Schedule SUN'!I16:J16</f>
         <v>0</v>
       </c>
-      <c r="J16" s="63"/>
-    </row>
-    <row r="17" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="J16" s="69"/>
+    </row>
+    <row r="17" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="8"/>
       <c r="B17" s="18">
         <f t="shared" si="0"/>
         <v>0.49999999999999983</v>
       </c>
-      <c r="C17" s="20"/>
+      <c r="C17" s="30" t="s">
+        <v>51</v>
+      </c>
       <c r="D17" s="8"/>
       <c r="E17" s="16"/>
       <c r="F17" s="8"/>
-      <c r="G17" s="58"/>
-      <c r="H17" s="59"/>
-      <c r="I17" s="44">
+      <c r="G17" s="48"/>
+      <c r="H17" s="49"/>
+      <c r="I17" s="54">
         <f>'Daily Schedule SUN'!I17:J17</f>
         <v>0</v>
       </c>
-      <c r="J17" s="45"/>
-    </row>
-    <row r="18" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="J17" s="55"/>
+    </row>
+    <row r="18" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="8"/>
       <c r="B18" s="19">
         <f t="shared" si="0"/>
         <v>0.52083333333333315</v>
       </c>
-      <c r="C18" s="21"/>
+      <c r="C18" s="29" t="s">
+        <v>52</v>
+      </c>
       <c r="D18" s="8"/>
       <c r="E18" s="17"/>
       <c r="F18" s="8"/>
-      <c r="G18" s="60"/>
-      <c r="H18" s="61"/>
-      <c r="I18" s="64">
+      <c r="G18" s="50"/>
+      <c r="H18" s="51"/>
+      <c r="I18" s="56">
         <f>'Daily Schedule SUN'!I18:J18</f>
         <v>0</v>
       </c>
-      <c r="J18" s="65"/>
-    </row>
-    <row r="19" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="J18" s="57"/>
+    </row>
+    <row r="19" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="8"/>
       <c r="B19" s="18">
         <f t="shared" si="0"/>
         <v>0.54166666666666652</v>
       </c>
-      <c r="C19" s="20"/>
+      <c r="C19" s="30" t="s">
+        <v>53</v>
+      </c>
       <c r="D19" s="8"/>
       <c r="E19" s="16"/>
       <c r="F19" s="8"/>
-      <c r="G19" s="66">
+      <c r="G19" s="58">
         <f>G7+4</f>
         <v>42867</v>
       </c>
-      <c r="H19" s="67"/>
-      <c r="I19" s="68">
+      <c r="H19" s="59"/>
+      <c r="I19" s="64">
         <f>'Daily Schedule SUN'!I19:J19</f>
         <v>0</v>
       </c>
-      <c r="J19" s="69"/>
-    </row>
-    <row r="20" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="J19" s="65"/>
+    </row>
+    <row r="20" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="8"/>
       <c r="B20" s="19">
         <f t="shared" si="0"/>
         <v>0.56249999999999989</v>
       </c>
-      <c r="C20" s="21"/>
+      <c r="C20" s="29"/>
       <c r="D20" s="8"/>
       <c r="E20" s="17"/>
       <c r="F20" s="8"/>
-      <c r="G20" s="40"/>
-      <c r="H20" s="41"/>
-      <c r="I20" s="46">
+      <c r="G20" s="60"/>
+      <c r="H20" s="61"/>
+      <c r="I20" s="52">
         <f>'Daily Schedule SUN'!I20:J20</f>
         <v>0</v>
       </c>
-      <c r="J20" s="47"/>
-    </row>
-    <row r="21" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="J20" s="53"/>
+    </row>
+    <row r="21" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="8"/>
       <c r="B21" s="18">
         <f t="shared" si="0"/>
         <v>0.58333333333333326</v>
       </c>
-      <c r="C21" s="20"/>
+      <c r="C21" s="30"/>
       <c r="D21" s="8"/>
       <c r="E21" s="16"/>
       <c r="F21" s="8"/>
-      <c r="G21" s="42"/>
-      <c r="H21" s="43"/>
-      <c r="I21" s="48">
+      <c r="G21" s="62"/>
+      <c r="H21" s="63"/>
+      <c r="I21" s="66">
         <f>'Daily Schedule SUN'!I21:J21</f>
         <v>0</v>
       </c>
-      <c r="J21" s="49"/>
-    </row>
-    <row r="22" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="J21" s="67"/>
+    </row>
+    <row r="22" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="8"/>
       <c r="B22" s="19">
         <f t="shared" si="0"/>
         <v>0.60416666666666663</v>
       </c>
-      <c r="C22" s="21"/>
+      <c r="C22" s="29"/>
       <c r="D22" s="8"/>
       <c r="E22" s="17"/>
       <c r="F22" s="8"/>
-      <c r="G22" s="56">
+      <c r="G22" s="46">
         <f>G7+5</f>
         <v>42868</v>
       </c>
-      <c r="H22" s="57"/>
-      <c r="I22" s="62">
+      <c r="H22" s="47"/>
+      <c r="I22" s="68">
         <f>'Daily Schedule SUN'!I22:J22</f>
         <v>0</v>
       </c>
-      <c r="J22" s="63"/>
-    </row>
-    <row r="23" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="J22" s="69"/>
+    </row>
+    <row r="23" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="8"/>
       <c r="B23" s="18">
         <f t="shared" si="0"/>
         <v>0.625</v>
       </c>
-      <c r="C23" s="20"/>
+      <c r="C23" s="30"/>
       <c r="D23" s="8"/>
       <c r="E23" s="16"/>
       <c r="F23" s="8"/>
-      <c r="G23" s="58"/>
-      <c r="H23" s="59"/>
-      <c r="I23" s="44">
+      <c r="G23" s="48"/>
+      <c r="H23" s="49"/>
+      <c r="I23" s="54">
         <f>'Daily Schedule SUN'!I23:J23</f>
         <v>0</v>
       </c>
-      <c r="J23" s="45"/>
-    </row>
-    <row r="24" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="J23" s="55"/>
+    </row>
+    <row r="24" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="8"/>
       <c r="B24" s="19">
         <f t="shared" si="0"/>
         <v>0.64583333333333337</v>
       </c>
-      <c r="C24" s="21"/>
+      <c r="C24" s="29"/>
       <c r="D24" s="8"/>
       <c r="E24" s="17"/>
       <c r="F24" s="8"/>
-      <c r="G24" s="60"/>
-      <c r="H24" s="61"/>
-      <c r="I24" s="64">
+      <c r="G24" s="50"/>
+      <c r="H24" s="51"/>
+      <c r="I24" s="56">
         <f>'Daily Schedule SUN'!I24:J24</f>
         <v>0</v>
       </c>
-      <c r="J24" s="65"/>
-    </row>
-    <row r="25" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="J24" s="57"/>
+    </row>
+    <row r="25" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="8"/>
       <c r="B25" s="18">
         <f t="shared" si="0"/>
         <v>0.66666666666666674</v>
       </c>
-      <c r="C25" s="20"/>
+      <c r="C25" s="30"/>
       <c r="D25" s="8"/>
       <c r="E25" s="16"/>
       <c r="F25" s="8"/>
-      <c r="G25" s="66">
+      <c r="G25" s="58">
         <f>G7+6</f>
         <v>42869</v>
       </c>
-      <c r="H25" s="67"/>
-      <c r="I25" s="68">
+      <c r="H25" s="59"/>
+      <c r="I25" s="64">
         <f>'Daily Schedule SUN'!I25:J25</f>
         <v>0</v>
       </c>
-      <c r="J25" s="69"/>
-    </row>
-    <row r="26" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="J25" s="65"/>
+    </row>
+    <row r="26" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="8"/>
       <c r="B26" s="19">
         <f t="shared" si="0"/>
         <v>0.68750000000000011</v>
       </c>
-      <c r="C26" s="21"/>
+      <c r="C26" s="29"/>
       <c r="D26" s="8"/>
       <c r="E26" s="17"/>
       <c r="F26" s="8"/>
-      <c r="G26" s="40"/>
-      <c r="H26" s="41"/>
-      <c r="I26" s="46">
+      <c r="G26" s="60"/>
+      <c r="H26" s="61"/>
+      <c r="I26" s="52">
         <f>'Daily Schedule SUN'!I26:J26</f>
         <v>0</v>
       </c>
-      <c r="J26" s="47"/>
-    </row>
-    <row r="27" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="J26" s="53"/>
+    </row>
+    <row r="27" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="8"/>
       <c r="B27" s="18">
         <f t="shared" si="0"/>
         <v>0.70833333333333348</v>
       </c>
-      <c r="C27" s="20"/>
+      <c r="C27" s="30"/>
       <c r="D27" s="8"/>
       <c r="E27" s="16"/>
       <c r="F27" s="8"/>
-      <c r="G27" s="42"/>
-      <c r="H27" s="43"/>
-      <c r="I27" s="48">
+      <c r="G27" s="62"/>
+      <c r="H27" s="63"/>
+      <c r="I27" s="66">
         <f>'Daily Schedule SUN'!I27:J27</f>
         <v>0</v>
       </c>
-      <c r="J27" s="49"/>
-    </row>
-    <row r="28" spans="1:10" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="J27" s="67"/>
+    </row>
+    <row r="28" spans="1:10" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="8"/>
       <c r="B28" s="19">
         <f t="shared" si="0"/>
         <v>0.72916666666666685</v>
       </c>
-      <c r="C28" s="21"/>
+      <c r="C28" s="29"/>
       <c r="D28" s="8"/>
       <c r="E28" s="17"/>
       <c r="F28" s="8"/>
@@ -5777,54 +5823,54 @@
       <c r="I28" s="8"/>
       <c r="J28" s="8"/>
     </row>
-    <row r="29" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="8"/>
       <c r="B29" s="18">
         <f t="shared" si="0"/>
         <v>0.75000000000000022</v>
       </c>
-      <c r="C29" s="20"/>
+      <c r="C29" s="30"/>
       <c r="D29" s="8"/>
       <c r="E29" s="16"/>
       <c r="F29" s="8"/>
-      <c r="G29" s="70" t="s">
+      <c r="G29" s="37" t="s">
         <v>26</v>
       </c>
-      <c r="H29" s="71"/>
-      <c r="I29" s="71"/>
-      <c r="J29" s="72"/>
-    </row>
-    <row r="30" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="H29" s="38"/>
+      <c r="I29" s="38"/>
+      <c r="J29" s="39"/>
+    </row>
+    <row r="30" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="8"/>
       <c r="B30" s="19">
         <f t="shared" si="0"/>
         <v>0.77083333333333359</v>
       </c>
-      <c r="C30" s="21"/>
+      <c r="C30" s="29"/>
       <c r="D30" s="8"/>
       <c r="E30" s="17"/>
       <c r="F30" s="8"/>
-      <c r="G30" s="73"/>
-      <c r="H30" s="74"/>
-      <c r="I30" s="74"/>
-      <c r="J30" s="75"/>
-    </row>
-    <row r="31" spans="1:10" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="G30" s="40"/>
+      <c r="H30" s="41"/>
+      <c r="I30" s="41"/>
+      <c r="J30" s="42"/>
+    </row>
+    <row r="31" spans="1:10" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="8"/>
       <c r="B31" s="18">
         <f t="shared" si="0"/>
         <v>0.79166666666666696</v>
       </c>
-      <c r="C31" s="20"/>
+      <c r="C31" s="30"/>
       <c r="D31" s="8"/>
       <c r="E31" s="16"/>
       <c r="F31" s="8"/>
-      <c r="G31" s="76"/>
-      <c r="H31" s="77"/>
-      <c r="I31" s="77"/>
-      <c r="J31" s="78"/>
-    </row>
-    <row r="32" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="G31" s="43"/>
+      <c r="H31" s="44"/>
+      <c r="I31" s="44"/>
+      <c r="J31" s="45"/>
+    </row>
+    <row r="32" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="8"/>
       <c r="B32" s="19">
         <f t="shared" si="0"/>
@@ -5839,7 +5885,7 @@
       <c r="I32" s="8"/>
       <c r="J32" s="8"/>
     </row>
-    <row r="33" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="8"/>
       <c r="B33" s="18">
         <f t="shared" si="0"/>
@@ -5854,7 +5900,7 @@
       <c r="I33" s="8"/>
       <c r="J33" s="8"/>
     </row>
-    <row r="34" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="8"/>
       <c r="B34" s="19">
         <f t="shared" si="0"/>
@@ -5869,7 +5915,7 @@
       <c r="I34" s="8"/>
       <c r="J34" s="8"/>
     </row>
-    <row r="35" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="8"/>
       <c r="B35" s="18">
         <f t="shared" si="0"/>
@@ -5884,7 +5930,7 @@
       <c r="I35" s="8"/>
       <c r="J35" s="8"/>
     </row>
-    <row r="36" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="8"/>
       <c r="B36" s="19">
         <f t="shared" si="0"/>
@@ -5899,7 +5945,7 @@
       <c r="I36" s="8"/>
       <c r="J36" s="8"/>
     </row>
-    <row r="37" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="8"/>
       <c r="B37" s="18">
         <f t="shared" si="0"/>
@@ -5914,7 +5960,7 @@
       <c r="I37" s="8"/>
       <c r="J37" s="8"/>
     </row>
-    <row r="38" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="8"/>
       <c r="B38" s="19">
         <f t="shared" si="0"/>
@@ -5929,7 +5975,7 @@
       <c r="I38" s="8"/>
       <c r="J38" s="8"/>
     </row>
-    <row r="39" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="8"/>
       <c r="B39" s="18">
         <f t="shared" si="0"/>
@@ -5946,6 +5992,30 @@
     </row>
   </sheetData>
   <mergeCells count="33">
+    <mergeCell ref="B2:C3"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="G5:J6"/>
+    <mergeCell ref="G7:H9"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="I8:J8"/>
+    <mergeCell ref="I9:J9"/>
+    <mergeCell ref="G10:H12"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="G13:H15"/>
+    <mergeCell ref="I13:J13"/>
+    <mergeCell ref="I14:J14"/>
+    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="G16:H18"/>
+    <mergeCell ref="I16:J16"/>
+    <mergeCell ref="I17:J17"/>
+    <mergeCell ref="I18:J18"/>
+    <mergeCell ref="G19:H21"/>
+    <mergeCell ref="I19:J19"/>
+    <mergeCell ref="I20:J20"/>
+    <mergeCell ref="I21:J21"/>
     <mergeCell ref="G29:J31"/>
     <mergeCell ref="G22:H24"/>
     <mergeCell ref="I22:J22"/>
@@ -5955,30 +6025,6 @@
     <mergeCell ref="I25:J25"/>
     <mergeCell ref="I26:J26"/>
     <mergeCell ref="I27:J27"/>
-    <mergeCell ref="G16:H18"/>
-    <mergeCell ref="I16:J16"/>
-    <mergeCell ref="I17:J17"/>
-    <mergeCell ref="I18:J18"/>
-    <mergeCell ref="G19:H21"/>
-    <mergeCell ref="I19:J19"/>
-    <mergeCell ref="I20:J20"/>
-    <mergeCell ref="I21:J21"/>
-    <mergeCell ref="G10:H12"/>
-    <mergeCell ref="I10:J10"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="I12:J12"/>
-    <mergeCell ref="G13:H15"/>
-    <mergeCell ref="I13:J13"/>
-    <mergeCell ref="I14:J14"/>
-    <mergeCell ref="I15:J15"/>
-    <mergeCell ref="B2:C3"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="G5:J6"/>
-    <mergeCell ref="G7:H9"/>
-    <mergeCell ref="I7:J7"/>
-    <mergeCell ref="I8:J8"/>
-    <mergeCell ref="I9:J9"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="G29" r:id="rId1"/>
@@ -5995,7 +6041,7 @@
     <hyperlink ref="J31" r:id="rId12" display="https://www.smartsheet.com/try-it?trp=8590&amp;utm_source=integrated+content&amp;utm_campaign=/free-daily-schedule-templates&amp;utm_medium=daily+work+schedule&amp;lx=8y8end44dKJOjkmzjFnZR12F3tjZfBYMXSEruozjq1E"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <pageSetup orientation="portrait" r:id="rId13"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
@@ -6031,22 +6077,22 @@
       <selection activeCell="G29" sqref="G29:J31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.69140625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="2.84375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="2.88671875" style="1" customWidth="1"/>
     <col min="2" max="2" width="13" style="1" customWidth="1"/>
-    <col min="3" max="3" width="55.69140625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="3.3828125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="55.84375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="3.3828125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="23.84375" style="1" customWidth="1"/>
-    <col min="8" max="8" width="3.3828125" style="1" customWidth="1"/>
-    <col min="9" max="9" width="23.84375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="21.3828125" style="1" customWidth="1"/>
-    <col min="11" max="16384" width="10.69140625" style="1"/>
+    <col min="3" max="3" width="55.6640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="3.33203125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="55.88671875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="3.33203125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="23.88671875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="3.33203125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="23.88671875" style="1" customWidth="1"/>
+    <col min="10" max="10" width="21.33203125" style="1" customWidth="1"/>
+    <col min="11" max="16384" width="10.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="11" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="8"/>
       <c r="B1" s="8"/>
       <c r="C1" s="8"/>
@@ -6058,12 +6104,12 @@
       <c r="I1" s="8"/>
       <c r="J1" s="8"/>
     </row>
-    <row r="2" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.65">
+    <row r="2" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A2" s="8"/>
-      <c r="B2" s="37" t="s">
+      <c r="B2" s="70" t="s">
         <v>25</v>
       </c>
-      <c r="C2" s="37"/>
+      <c r="C2" s="70"/>
       <c r="D2" s="9"/>
       <c r="E2" s="12" t="s">
         <v>13</v>
@@ -6078,10 +6124,10 @@
       </c>
       <c r="J2" s="8"/>
     </row>
-    <row r="3" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.65">
+    <row r="3" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A3" s="8"/>
-      <c r="B3" s="37"/>
-      <c r="C3" s="37"/>
+      <c r="B3" s="70"/>
+      <c r="C3" s="70"/>
       <c r="D3" s="9"/>
       <c r="E3" s="13">
         <f>'Daily Schedule SUN'!E3</f>
@@ -6097,7 +6143,7 @@
       </c>
       <c r="J3" s="8"/>
     </row>
-    <row r="4" spans="1:10" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="8"/>
       <c r="B4" s="10"/>
       <c r="C4" s="10"/>
@@ -6112,42 +6158,42 @@
       </c>
       <c r="J4" s="8"/>
     </row>
-    <row r="5" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="8"/>
-      <c r="B5" s="38" t="s">
+      <c r="B5" s="71" t="s">
         <v>0</v>
       </c>
       <c r="C5" s="23" t="s">
         <v>22</v>
       </c>
       <c r="D5" s="8"/>
-      <c r="E5" s="39" t="s">
+      <c r="E5" s="72" t="s">
         <v>14</v>
       </c>
       <c r="F5" s="8"/>
-      <c r="G5" s="80" t="s">
+      <c r="G5" s="79" t="s">
         <v>15</v>
       </c>
-      <c r="H5" s="81"/>
-      <c r="I5" s="80"/>
-      <c r="J5" s="80"/>
-    </row>
-    <row r="6" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="H5" s="80"/>
+      <c r="I5" s="79"/>
+      <c r="J5" s="79"/>
+    </row>
+    <row r="6" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="8"/>
-      <c r="B6" s="38"/>
+      <c r="B6" s="71"/>
       <c r="C6" s="24">
         <f>E3+6</f>
         <v>42869</v>
       </c>
       <c r="D6" s="8"/>
-      <c r="E6" s="39"/>
+      <c r="E6" s="72"/>
       <c r="F6" s="8"/>
-      <c r="G6" s="80"/>
-      <c r="H6" s="80"/>
-      <c r="I6" s="80"/>
-      <c r="J6" s="80"/>
-    </row>
-    <row r="7" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="G6" s="79"/>
+      <c r="H6" s="79"/>
+      <c r="I6" s="79"/>
+      <c r="J6" s="79"/>
+    </row>
+    <row r="7" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="8"/>
       <c r="B7" s="18">
         <f>G3</f>
@@ -6157,18 +6203,18 @@
       <c r="D7" s="8"/>
       <c r="E7" s="16"/>
       <c r="F7" s="8"/>
-      <c r="G7" s="66">
+      <c r="G7" s="58">
         <f>E3</f>
         <v>42863</v>
       </c>
-      <c r="H7" s="67"/>
-      <c r="I7" s="68">
+      <c r="H7" s="59"/>
+      <c r="I7" s="64">
         <f>'Daily Schedule SUN'!I7:J7</f>
         <v>0</v>
       </c>
-      <c r="J7" s="69"/>
-    </row>
-    <row r="8" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="J7" s="65"/>
+    </row>
+    <row r="8" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="8"/>
       <c r="B8" s="19">
         <f t="shared" ref="B8:B39" si="0">B7+TIME(0,Interval,0)</f>
@@ -6178,15 +6224,15 @@
       <c r="D8" s="8"/>
       <c r="E8" s="17"/>
       <c r="F8" s="8"/>
-      <c r="G8" s="40"/>
-      <c r="H8" s="41"/>
-      <c r="I8" s="46">
+      <c r="G8" s="60"/>
+      <c r="H8" s="61"/>
+      <c r="I8" s="52">
         <f>'Daily Schedule SUN'!I8:J8</f>
         <v>0</v>
       </c>
-      <c r="J8" s="47"/>
-    </row>
-    <row r="9" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="J8" s="53"/>
+    </row>
+    <row r="9" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="8"/>
       <c r="B9" s="18">
         <f t="shared" si="0"/>
@@ -6196,15 +6242,15 @@
       <c r="D9" s="8"/>
       <c r="E9" s="16"/>
       <c r="F9" s="8"/>
-      <c r="G9" s="42"/>
-      <c r="H9" s="43"/>
-      <c r="I9" s="48">
+      <c r="G9" s="62"/>
+      <c r="H9" s="63"/>
+      <c r="I9" s="66">
         <f>'Daily Schedule SUN'!I9:J9</f>
         <v>0</v>
       </c>
-      <c r="J9" s="49"/>
-    </row>
-    <row r="10" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="J9" s="67"/>
+    </row>
+    <row r="10" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="8"/>
       <c r="B10" s="19">
         <f t="shared" si="0"/>
@@ -6214,18 +6260,18 @@
       <c r="D10" s="8"/>
       <c r="E10" s="17"/>
       <c r="F10" s="8"/>
-      <c r="G10" s="56">
+      <c r="G10" s="46">
         <f>G7+1</f>
         <v>42864</v>
       </c>
-      <c r="H10" s="57"/>
-      <c r="I10" s="62">
+      <c r="H10" s="47"/>
+      <c r="I10" s="68">
         <f>'Daily Schedule SUN'!I10:J10</f>
         <v>0</v>
       </c>
-      <c r="J10" s="63"/>
-    </row>
-    <row r="11" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="J10" s="69"/>
+    </row>
+    <row r="11" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="8"/>
       <c r="B11" s="18">
         <f t="shared" si="0"/>
@@ -6235,15 +6281,15 @@
       <c r="D11" s="8"/>
       <c r="E11" s="16"/>
       <c r="F11" s="8"/>
-      <c r="G11" s="58"/>
-      <c r="H11" s="59"/>
-      <c r="I11" s="44">
+      <c r="G11" s="48"/>
+      <c r="H11" s="49"/>
+      <c r="I11" s="54">
         <f>'Daily Schedule SUN'!I11:J11</f>
         <v>0</v>
       </c>
-      <c r="J11" s="45"/>
-    </row>
-    <row r="12" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="J11" s="55"/>
+    </row>
+    <row r="12" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="8"/>
       <c r="B12" s="19">
         <f t="shared" si="0"/>
@@ -6253,15 +6299,15 @@
       <c r="D12" s="8"/>
       <c r="E12" s="17"/>
       <c r="F12" s="8"/>
-      <c r="G12" s="60"/>
-      <c r="H12" s="61"/>
-      <c r="I12" s="64">
+      <c r="G12" s="50"/>
+      <c r="H12" s="51"/>
+      <c r="I12" s="56">
         <f>'Daily Schedule SUN'!I12:J12</f>
         <v>0</v>
       </c>
-      <c r="J12" s="65"/>
-    </row>
-    <row r="13" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="J12" s="57"/>
+    </row>
+    <row r="13" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="8"/>
       <c r="B13" s="18">
         <f t="shared" si="0"/>
@@ -6271,18 +6317,18 @@
       <c r="D13" s="8"/>
       <c r="E13" s="16"/>
       <c r="F13" s="8"/>
-      <c r="G13" s="66">
+      <c r="G13" s="58">
         <f>G7+2</f>
         <v>42865</v>
       </c>
-      <c r="H13" s="67"/>
-      <c r="I13" s="68">
+      <c r="H13" s="59"/>
+      <c r="I13" s="64">
         <f>'Daily Schedule SUN'!I13:J13</f>
         <v>0</v>
       </c>
-      <c r="J13" s="69"/>
-    </row>
-    <row r="14" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="J13" s="65"/>
+    </row>
+    <row r="14" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="8"/>
       <c r="B14" s="19">
         <f t="shared" si="0"/>
@@ -6292,15 +6338,15 @@
       <c r="D14" s="8"/>
       <c r="E14" s="17"/>
       <c r="F14" s="8"/>
-      <c r="G14" s="40"/>
-      <c r="H14" s="41"/>
-      <c r="I14" s="46">
+      <c r="G14" s="60"/>
+      <c r="H14" s="61"/>
+      <c r="I14" s="52">
         <f>'Daily Schedule SUN'!I14:J14</f>
         <v>0</v>
       </c>
-      <c r="J14" s="47"/>
-    </row>
-    <row r="15" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="J14" s="53"/>
+    </row>
+    <row r="15" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="8"/>
       <c r="B15" s="18">
         <f t="shared" si="0"/>
@@ -6310,15 +6356,15 @@
       <c r="D15" s="8"/>
       <c r="E15" s="16"/>
       <c r="F15" s="8"/>
-      <c r="G15" s="42"/>
-      <c r="H15" s="43"/>
-      <c r="I15" s="48">
+      <c r="G15" s="62"/>
+      <c r="H15" s="63"/>
+      <c r="I15" s="66">
         <f>'Daily Schedule SUN'!I15:J15</f>
         <v>0</v>
       </c>
-      <c r="J15" s="49"/>
-    </row>
-    <row r="16" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="J15" s="67"/>
+    </row>
+    <row r="16" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="8"/>
       <c r="B16" s="19">
         <f t="shared" si="0"/>
@@ -6328,18 +6374,18 @@
       <c r="D16" s="8"/>
       <c r="E16" s="17"/>
       <c r="F16" s="8"/>
-      <c r="G16" s="56">
+      <c r="G16" s="46">
         <f>G7+3</f>
         <v>42866</v>
       </c>
-      <c r="H16" s="57"/>
-      <c r="I16" s="62">
+      <c r="H16" s="47"/>
+      <c r="I16" s="68">
         <f>'Daily Schedule SUN'!I16:J16</f>
         <v>0</v>
       </c>
-      <c r="J16" s="63"/>
-    </row>
-    <row r="17" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="J16" s="69"/>
+    </row>
+    <row r="17" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="8"/>
       <c r="B17" s="18">
         <f t="shared" si="0"/>
@@ -6349,15 +6395,15 @@
       <c r="D17" s="8"/>
       <c r="E17" s="16"/>
       <c r="F17" s="8"/>
-      <c r="G17" s="58"/>
-      <c r="H17" s="59"/>
-      <c r="I17" s="44">
+      <c r="G17" s="48"/>
+      <c r="H17" s="49"/>
+      <c r="I17" s="54">
         <f>'Daily Schedule SUN'!I17:J17</f>
         <v>0</v>
       </c>
-      <c r="J17" s="45"/>
-    </row>
-    <row r="18" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="J17" s="55"/>
+    </row>
+    <row r="18" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="8"/>
       <c r="B18" s="19">
         <f t="shared" si="0"/>
@@ -6367,15 +6413,15 @@
       <c r="D18" s="8"/>
       <c r="E18" s="17"/>
       <c r="F18" s="8"/>
-      <c r="G18" s="60"/>
-      <c r="H18" s="61"/>
-      <c r="I18" s="64">
+      <c r="G18" s="50"/>
+      <c r="H18" s="51"/>
+      <c r="I18" s="56">
         <f>'Daily Schedule SUN'!I18:J18</f>
         <v>0</v>
       </c>
-      <c r="J18" s="65"/>
-    </row>
-    <row r="19" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="J18" s="57"/>
+    </row>
+    <row r="19" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="8"/>
       <c r="B19" s="18">
         <f t="shared" si="0"/>
@@ -6385,18 +6431,18 @@
       <c r="D19" s="8"/>
       <c r="E19" s="16"/>
       <c r="F19" s="8"/>
-      <c r="G19" s="66">
+      <c r="G19" s="58">
         <f>G7+4</f>
         <v>42867</v>
       </c>
-      <c r="H19" s="67"/>
-      <c r="I19" s="68">
+      <c r="H19" s="59"/>
+      <c r="I19" s="64">
         <f>'Daily Schedule SUN'!I19:J19</f>
         <v>0</v>
       </c>
-      <c r="J19" s="69"/>
-    </row>
-    <row r="20" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="J19" s="65"/>
+    </row>
+    <row r="20" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="8"/>
       <c r="B20" s="19">
         <f t="shared" si="0"/>
@@ -6406,15 +6452,15 @@
       <c r="D20" s="8"/>
       <c r="E20" s="17"/>
       <c r="F20" s="8"/>
-      <c r="G20" s="40"/>
-      <c r="H20" s="41"/>
-      <c r="I20" s="46">
+      <c r="G20" s="60"/>
+      <c r="H20" s="61"/>
+      <c r="I20" s="52">
         <f>'Daily Schedule SUN'!I20:J20</f>
         <v>0</v>
       </c>
-      <c r="J20" s="47"/>
-    </row>
-    <row r="21" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="J20" s="53"/>
+    </row>
+    <row r="21" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="8"/>
       <c r="B21" s="18">
         <f t="shared" si="0"/>
@@ -6424,15 +6470,15 @@
       <c r="D21" s="8"/>
       <c r="E21" s="16"/>
       <c r="F21" s="8"/>
-      <c r="G21" s="42"/>
-      <c r="H21" s="43"/>
-      <c r="I21" s="48">
+      <c r="G21" s="62"/>
+      <c r="H21" s="63"/>
+      <c r="I21" s="66">
         <f>'Daily Schedule SUN'!I21:J21</f>
         <v>0</v>
       </c>
-      <c r="J21" s="49"/>
-    </row>
-    <row r="22" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="J21" s="67"/>
+    </row>
+    <row r="22" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="8"/>
       <c r="B22" s="19">
         <f t="shared" si="0"/>
@@ -6442,18 +6488,18 @@
       <c r="D22" s="8"/>
       <c r="E22" s="17"/>
       <c r="F22" s="8"/>
-      <c r="G22" s="56">
+      <c r="G22" s="46">
         <f>G7+5</f>
         <v>42868</v>
       </c>
-      <c r="H22" s="57"/>
-      <c r="I22" s="62">
+      <c r="H22" s="47"/>
+      <c r="I22" s="68">
         <f>'Daily Schedule SUN'!I22:J22</f>
         <v>0</v>
       </c>
-      <c r="J22" s="63"/>
-    </row>
-    <row r="23" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="J22" s="69"/>
+    </row>
+    <row r="23" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="8"/>
       <c r="B23" s="18">
         <f t="shared" si="0"/>
@@ -6463,15 +6509,15 @@
       <c r="D23" s="8"/>
       <c r="E23" s="16"/>
       <c r="F23" s="8"/>
-      <c r="G23" s="58"/>
-      <c r="H23" s="59"/>
-      <c r="I23" s="44">
+      <c r="G23" s="48"/>
+      <c r="H23" s="49"/>
+      <c r="I23" s="54">
         <f>'Daily Schedule SUN'!I23:J23</f>
         <v>0</v>
       </c>
-      <c r="J23" s="45"/>
-    </row>
-    <row r="24" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="J23" s="55"/>
+    </row>
+    <row r="24" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="8"/>
       <c r="B24" s="19">
         <f t="shared" si="0"/>
@@ -6481,15 +6527,15 @@
       <c r="D24" s="8"/>
       <c r="E24" s="17"/>
       <c r="F24" s="8"/>
-      <c r="G24" s="60"/>
-      <c r="H24" s="61"/>
-      <c r="I24" s="64">
+      <c r="G24" s="50"/>
+      <c r="H24" s="51"/>
+      <c r="I24" s="56">
         <f>'Daily Schedule SUN'!I24:J24</f>
         <v>0</v>
       </c>
-      <c r="J24" s="65"/>
-    </row>
-    <row r="25" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="J24" s="57"/>
+    </row>
+    <row r="25" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="8"/>
       <c r="B25" s="18">
         <f t="shared" si="0"/>
@@ -6499,18 +6545,18 @@
       <c r="D25" s="8"/>
       <c r="E25" s="16"/>
       <c r="F25" s="8"/>
-      <c r="G25" s="66">
+      <c r="G25" s="58">
         <f>G7+6</f>
         <v>42869</v>
       </c>
-      <c r="H25" s="67"/>
-      <c r="I25" s="68">
+      <c r="H25" s="59"/>
+      <c r="I25" s="64">
         <f>'Daily Schedule SUN'!I25:J25</f>
         <v>0</v>
       </c>
-      <c r="J25" s="69"/>
-    </row>
-    <row r="26" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="J25" s="65"/>
+    </row>
+    <row r="26" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="8"/>
       <c r="B26" s="19">
         <f t="shared" si="0"/>
@@ -6520,15 +6566,15 @@
       <c r="D26" s="8"/>
       <c r="E26" s="17"/>
       <c r="F26" s="8"/>
-      <c r="G26" s="40"/>
-      <c r="H26" s="41"/>
-      <c r="I26" s="46">
+      <c r="G26" s="60"/>
+      <c r="H26" s="61"/>
+      <c r="I26" s="52">
         <f>'Daily Schedule SUN'!I26:J26</f>
         <v>0</v>
       </c>
-      <c r="J26" s="47"/>
-    </row>
-    <row r="27" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="J26" s="53"/>
+    </row>
+    <row r="27" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="8"/>
       <c r="B27" s="18">
         <f t="shared" si="0"/>
@@ -6538,15 +6584,15 @@
       <c r="D27" s="8"/>
       <c r="E27" s="16"/>
       <c r="F27" s="8"/>
-      <c r="G27" s="42"/>
-      <c r="H27" s="43"/>
-      <c r="I27" s="48">
+      <c r="G27" s="62"/>
+      <c r="H27" s="63"/>
+      <c r="I27" s="66">
         <f>'Daily Schedule SUN'!I27:J27</f>
         <v>0</v>
       </c>
-      <c r="J27" s="49"/>
-    </row>
-    <row r="28" spans="1:10" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="J27" s="67"/>
+    </row>
+    <row r="28" spans="1:10" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="8"/>
       <c r="B28" s="19">
         <f t="shared" si="0"/>
@@ -6561,7 +6607,7 @@
       <c r="I28" s="8"/>
       <c r="J28" s="8"/>
     </row>
-    <row r="29" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="8"/>
       <c r="B29" s="18">
         <f t="shared" si="0"/>
@@ -6571,14 +6617,14 @@
       <c r="D29" s="8"/>
       <c r="E29" s="16"/>
       <c r="F29" s="8"/>
-      <c r="G29" s="70" t="s">
+      <c r="G29" s="37" t="s">
         <v>26</v>
       </c>
-      <c r="H29" s="71"/>
-      <c r="I29" s="71"/>
-      <c r="J29" s="72"/>
-    </row>
-    <row r="30" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="H29" s="38"/>
+      <c r="I29" s="38"/>
+      <c r="J29" s="39"/>
+    </row>
+    <row r="30" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="8"/>
       <c r="B30" s="19">
         <f t="shared" si="0"/>
@@ -6588,12 +6634,12 @@
       <c r="D30" s="8"/>
       <c r="E30" s="17"/>
       <c r="F30" s="8"/>
-      <c r="G30" s="73"/>
-      <c r="H30" s="74"/>
-      <c r="I30" s="74"/>
-      <c r="J30" s="75"/>
-    </row>
-    <row r="31" spans="1:10" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="G30" s="40"/>
+      <c r="H30" s="41"/>
+      <c r="I30" s="41"/>
+      <c r="J30" s="42"/>
+    </row>
+    <row r="31" spans="1:10" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="8"/>
       <c r="B31" s="18">
         <f t="shared" si="0"/>
@@ -6603,12 +6649,12 @@
       <c r="D31" s="8"/>
       <c r="E31" s="16"/>
       <c r="F31" s="8"/>
-      <c r="G31" s="76"/>
-      <c r="H31" s="77"/>
-      <c r="I31" s="77"/>
-      <c r="J31" s="78"/>
-    </row>
-    <row r="32" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="G31" s="43"/>
+      <c r="H31" s="44"/>
+      <c r="I31" s="44"/>
+      <c r="J31" s="45"/>
+    </row>
+    <row r="32" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="8"/>
       <c r="B32" s="19">
         <f t="shared" si="0"/>
@@ -6623,7 +6669,7 @@
       <c r="I32" s="8"/>
       <c r="J32" s="8"/>
     </row>
-    <row r="33" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="8"/>
       <c r="B33" s="18">
         <f t="shared" si="0"/>
@@ -6638,7 +6684,7 @@
       <c r="I33" s="8"/>
       <c r="J33" s="8"/>
     </row>
-    <row r="34" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="8"/>
       <c r="B34" s="19">
         <f t="shared" si="0"/>
@@ -6653,7 +6699,7 @@
       <c r="I34" s="8"/>
       <c r="J34" s="8"/>
     </row>
-    <row r="35" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="8"/>
       <c r="B35" s="18">
         <f t="shared" si="0"/>
@@ -6668,7 +6714,7 @@
       <c r="I35" s="8"/>
       <c r="J35" s="8"/>
     </row>
-    <row r="36" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="8"/>
       <c r="B36" s="19">
         <f t="shared" si="0"/>
@@ -6683,7 +6729,7 @@
       <c r="I36" s="8"/>
       <c r="J36" s="8"/>
     </row>
-    <row r="37" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="8"/>
       <c r="B37" s="18">
         <f t="shared" si="0"/>
@@ -6698,7 +6744,7 @@
       <c r="I37" s="8"/>
       <c r="J37" s="8"/>
     </row>
-    <row r="38" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="8"/>
       <c r="B38" s="19">
         <f t="shared" si="0"/>
@@ -6713,7 +6759,7 @@
       <c r="I38" s="8"/>
       <c r="J38" s="8"/>
     </row>
-    <row r="39" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="8"/>
       <c r="B39" s="18">
         <f t="shared" si="0"/>
@@ -6730,6 +6776,30 @@
     </row>
   </sheetData>
   <mergeCells count="33">
+    <mergeCell ref="B2:C3"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="G5:J6"/>
+    <mergeCell ref="G7:H9"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="I8:J8"/>
+    <mergeCell ref="I9:J9"/>
+    <mergeCell ref="G10:H12"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="G13:H15"/>
+    <mergeCell ref="I13:J13"/>
+    <mergeCell ref="I14:J14"/>
+    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="G16:H18"/>
+    <mergeCell ref="I16:J16"/>
+    <mergeCell ref="I17:J17"/>
+    <mergeCell ref="I18:J18"/>
+    <mergeCell ref="G19:H21"/>
+    <mergeCell ref="I19:J19"/>
+    <mergeCell ref="I20:J20"/>
+    <mergeCell ref="I21:J21"/>
     <mergeCell ref="G29:J31"/>
     <mergeCell ref="G22:H24"/>
     <mergeCell ref="I22:J22"/>
@@ -6739,30 +6809,6 @@
     <mergeCell ref="I25:J25"/>
     <mergeCell ref="I26:J26"/>
     <mergeCell ref="I27:J27"/>
-    <mergeCell ref="G16:H18"/>
-    <mergeCell ref="I16:J16"/>
-    <mergeCell ref="I17:J17"/>
-    <mergeCell ref="I18:J18"/>
-    <mergeCell ref="G19:H21"/>
-    <mergeCell ref="I19:J19"/>
-    <mergeCell ref="I20:J20"/>
-    <mergeCell ref="I21:J21"/>
-    <mergeCell ref="G10:H12"/>
-    <mergeCell ref="I10:J10"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="I12:J12"/>
-    <mergeCell ref="G13:H15"/>
-    <mergeCell ref="I13:J13"/>
-    <mergeCell ref="I14:J14"/>
-    <mergeCell ref="I15:J15"/>
-    <mergeCell ref="B2:C3"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="G5:J6"/>
-    <mergeCell ref="G7:H9"/>
-    <mergeCell ref="I7:J7"/>
-    <mergeCell ref="I8:J8"/>
-    <mergeCell ref="I9:J9"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="G29" r:id="rId1"/>
@@ -6815,22 +6861,22 @@
       <selection activeCell="D4" sqref="D3:D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.07421875" defaultRowHeight="16" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="11.109375" defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="2.84375" customWidth="1"/>
-    <col min="2" max="2" width="14.3828125" style="3" customWidth="1"/>
-    <col min="3" max="3" width="3.3046875" customWidth="1"/>
-    <col min="5" max="5" width="2.3828125" customWidth="1"/>
+    <col min="1" max="1" width="2.88671875" customWidth="1"/>
+    <col min="2" max="2" width="14.33203125" style="3" customWidth="1"/>
+    <col min="3" max="3" width="3.33203125" customWidth="1"/>
+    <col min="5" max="5" width="2.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="6"/>
       <c r="B1" s="7"/>
       <c r="C1" s="6"/>
       <c r="D1" s="6"/>
       <c r="E1" s="6"/>
     </row>
-    <row r="2" spans="1:5" ht="38" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" ht="38.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="6"/>
       <c r="B2" s="4" t="s">
         <v>1</v>
@@ -6841,7 +6887,7 @@
       </c>
       <c r="E2" s="6"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="6"/>
       <c r="B3" s="2">
         <v>0.25</v>
@@ -6852,7 +6898,7 @@
       </c>
       <c r="E3" s="6"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="6"/>
       <c r="B4" s="2">
         <v>0.29166666666666669</v>
@@ -6863,7 +6909,7 @@
       </c>
       <c r="E4" s="6"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="6"/>
       <c r="B5" s="2">
         <v>0.33333333333333331</v>
@@ -6874,7 +6920,7 @@
       </c>
       <c r="E5" s="6"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="6"/>
       <c r="B6" s="2">
         <v>0.375</v>
@@ -6885,7 +6931,7 @@
       </c>
       <c r="E6" s="6"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="6"/>
       <c r="B7" s="2">
         <v>0.41666666666666669</v>
@@ -6896,7 +6942,7 @@
       </c>
       <c r="E7" s="6"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="6"/>
       <c r="B8" s="2">
         <v>0.45833333333333331</v>
@@ -6907,7 +6953,7 @@
       </c>
       <c r="E8" s="6"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="6"/>
       <c r="B9" s="2">
         <v>0.5</v>
@@ -6918,7 +6964,7 @@
       </c>
       <c r="E9" s="6"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="6"/>
       <c r="B10" s="2">
         <v>0.54166666666666663</v>
@@ -6929,7 +6975,7 @@
       </c>
       <c r="E10" s="6"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="6"/>
       <c r="B11" s="2">
         <v>0.58333333333333337</v>
@@ -6940,7 +6986,7 @@
       </c>
       <c r="E11" s="6"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="6"/>
       <c r="B12" s="2">
         <v>0.625</v>
@@ -6951,7 +6997,7 @@
       </c>
       <c r="E12" s="6"/>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="6"/>
       <c r="B13" s="2">
         <v>0.66666666666666663</v>
@@ -6960,7 +7006,7 @@
       <c r="D13" s="6"/>
       <c r="E13" s="6"/>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="6"/>
       <c r="B14" s="2">
         <v>0.70833333333333337</v>
@@ -6969,7 +7015,7 @@
       <c r="D14" s="6"/>
       <c r="E14" s="6"/>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="6"/>
       <c r="B15" s="2">
         <v>0.75</v>
@@ -6978,7 +7024,7 @@
       <c r="D15" s="6"/>
       <c r="E15" s="6"/>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" s="6"/>
       <c r="B16" s="2">
         <v>0.79166666666666663</v>
@@ -6987,7 +7033,7 @@
       <c r="D16" s="6"/>
       <c r="E16" s="6"/>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="6"/>
       <c r="B17" s="2">
         <v>0.83333333333333337</v>
@@ -6996,7 +7042,7 @@
       <c r="D17" s="6"/>
       <c r="E17" s="6"/>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="6"/>
       <c r="B18" s="2">
         <v>0.875</v>
@@ -7005,7 +7051,7 @@
       <c r="D18" s="6"/>
       <c r="E18" s="6"/>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="6"/>
       <c r="B19" s="2">
         <v>0.91666666666666663</v>
@@ -7014,7 +7060,7 @@
       <c r="D19" s="6"/>
       <c r="E19" s="6"/>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" s="6"/>
       <c r="B20" s="2">
         <v>0.95833333333333337</v>
@@ -7023,7 +7069,7 @@
       <c r="D20" s="6"/>
       <c r="E20" s="6"/>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" s="6"/>
       <c r="B21" s="2">
         <v>0</v>
@@ -7032,7 +7078,7 @@
       <c r="D21" s="6"/>
       <c r="E21" s="6"/>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" s="6"/>
       <c r="B22" s="2">
         <v>4.1666666666666664E-2</v>
@@ -7041,7 +7087,7 @@
       <c r="D22" s="6"/>
       <c r="E22" s="6"/>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" s="6"/>
       <c r="B23" s="2">
         <v>8.3333333333333329E-2</v>
@@ -7050,7 +7096,7 @@
       <c r="D23" s="6"/>
       <c r="E23" s="6"/>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" s="6"/>
       <c r="B24" s="2">
         <v>0.125</v>
@@ -7059,7 +7105,7 @@
       <c r="D24" s="6"/>
       <c r="E24" s="6"/>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" s="6"/>
       <c r="B25" s="2">
         <v>0.16666666666666666</v>
@@ -7068,7 +7114,7 @@
       <c r="D25" s="6"/>
       <c r="E25" s="6"/>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" s="6"/>
       <c r="B26" s="2">
         <v>0.20833333333333334</v>
@@ -7077,7 +7123,7 @@
       <c r="D26" s="6"/>
       <c r="E26" s="6"/>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" s="6"/>
       <c r="B27" s="7"/>
       <c r="C27" s="6"/>

--- a/daily-work-schedule-template.xlsx
+++ b/daily-work-schedule-template.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14385" windowHeight="4095" tabRatio="500" firstSheet="1" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14385" windowHeight="4095" tabRatio="500" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Daily Schedule SUN" sheetId="4" r:id="rId1"/>
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="47">
   <si>
     <t>TIME</t>
   </si>
@@ -132,34 +132,7 @@
     <t>Create Your Schedule in Smartsheet</t>
   </si>
   <si>
-    <t>Get domain host running</t>
-  </si>
-  <si>
-    <t>Create users table in DB</t>
-  </si>
-  <si>
     <t>Lunch</t>
-  </si>
-  <si>
-    <t>Confirm application works with server</t>
-  </si>
-  <si>
-    <t>Start designing volunteers website</t>
-  </si>
-  <si>
-    <t>Put volunteers website on server</t>
-  </si>
-  <si>
-    <t>Try audio</t>
-  </si>
-  <si>
-    <t>Couldn't get it up and running</t>
-  </si>
-  <si>
-    <t>Didn't do this</t>
-  </si>
-  <si>
-    <t>Started volunteers website</t>
   </si>
   <si>
     <t>Continue work on volunteers website</t>
@@ -211,6 +184,12 @@
   </si>
   <si>
     <t>Wrok on jquery footer for Dialect App</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Not done </t>
+  </si>
+  <si>
+    <t>Not done</t>
   </si>
 </sst>
 </file>
@@ -836,6 +815,108 @@
     <xf numFmtId="0" fontId="19" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="10" fillId="17" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="10" fillId="17" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="10" fillId="17" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="10" fillId="17" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="165" fontId="10" fillId="13" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="10" fillId="13" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="10" fillId="13" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="10" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="10" fillId="13" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="10" fillId="13" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="10" fillId="17" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="10" fillId="17" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="18" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -863,116 +944,14 @@
     <xf numFmtId="0" fontId="14" fillId="18" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="10" fillId="13" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="10" fillId="13" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="10" fillId="13" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="10" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="10" fillId="13" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="10" fillId="13" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="10" fillId="17" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="10" fillId="17" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="10" fillId="17" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="10" fillId="17" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="10" fillId="17" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="10" fillId="17" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="13" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="13" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="10" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -1329,10 +1308,10 @@
     </row>
     <row r="2" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A2" s="8"/>
-      <c r="B2" s="70" t="s">
+      <c r="B2" s="38" t="s">
         <v>25</v>
       </c>
-      <c r="C2" s="70"/>
+      <c r="C2" s="38"/>
       <c r="D2" s="9"/>
       <c r="E2" s="12" t="s">
         <v>13</v>
@@ -1349,8 +1328,8 @@
     </row>
     <row r="3" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A3" s="8"/>
-      <c r="B3" s="70"/>
-      <c r="C3" s="70"/>
+      <c r="B3" s="38"/>
+      <c r="C3" s="38"/>
       <c r="D3" s="9"/>
       <c r="E3" s="13">
         <v>42863</v>
@@ -1382,40 +1361,40 @@
     </row>
     <row r="5" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="8"/>
-      <c r="B5" s="71" t="s">
+      <c r="B5" s="39" t="s">
         <v>0</v>
       </c>
       <c r="C5" s="23" t="s">
         <v>17</v>
       </c>
       <c r="D5" s="8"/>
-      <c r="E5" s="72" t="s">
+      <c r="E5" s="40" t="s">
         <v>14</v>
       </c>
       <c r="F5" s="8"/>
-      <c r="G5" s="73" t="s">
+      <c r="G5" s="51" t="s">
         <v>23</v>
       </c>
-      <c r="H5" s="74"/>
-      <c r="I5" s="74"/>
-      <c r="J5" s="75"/>
+      <c r="H5" s="52"/>
+      <c r="I5" s="52"/>
+      <c r="J5" s="53"/>
     </row>
     <row r="6" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="8"/>
-      <c r="B6" s="71"/>
+      <c r="B6" s="39"/>
       <c r="C6" s="24">
         <f>E3</f>
         <v>42863</v>
       </c>
       <c r="D6" s="8"/>
-      <c r="E6" s="72"/>
+      <c r="E6" s="40"/>
       <c r="F6" s="8"/>
-      <c r="G6" s="76" t="s">
+      <c r="G6" s="54" t="s">
         <v>24</v>
       </c>
-      <c r="H6" s="77"/>
-      <c r="I6" s="77"/>
-      <c r="J6" s="78"/>
+      <c r="H6" s="55"/>
+      <c r="I6" s="55"/>
+      <c r="J6" s="56"/>
     </row>
     <row r="7" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="8"/>
@@ -1427,13 +1406,13 @@
       <c r="D7" s="8"/>
       <c r="E7" s="16"/>
       <c r="F7" s="8"/>
-      <c r="G7" s="60">
+      <c r="G7" s="41">
         <f>E3</f>
         <v>42863</v>
       </c>
-      <c r="H7" s="61"/>
-      <c r="I7" s="54"/>
-      <c r="J7" s="55"/>
+      <c r="H7" s="42"/>
+      <c r="I7" s="45"/>
+      <c r="J7" s="46"/>
     </row>
     <row r="8" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="8"/>
@@ -1445,10 +1424,10 @@
       <c r="D8" s="8"/>
       <c r="E8" s="17"/>
       <c r="F8" s="8"/>
-      <c r="G8" s="60"/>
-      <c r="H8" s="61"/>
-      <c r="I8" s="52"/>
-      <c r="J8" s="53"/>
+      <c r="G8" s="41"/>
+      <c r="H8" s="42"/>
+      <c r="I8" s="47"/>
+      <c r="J8" s="48"/>
     </row>
     <row r="9" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="8"/>
@@ -1460,10 +1439,10 @@
       <c r="D9" s="8"/>
       <c r="E9" s="16"/>
       <c r="F9" s="8"/>
-      <c r="G9" s="62"/>
-      <c r="H9" s="63"/>
-      <c r="I9" s="66"/>
-      <c r="J9" s="67"/>
+      <c r="G9" s="43"/>
+      <c r="H9" s="44"/>
+      <c r="I9" s="49"/>
+      <c r="J9" s="50"/>
     </row>
     <row r="10" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="8"/>
@@ -1475,13 +1454,13 @@
       <c r="D10" s="8"/>
       <c r="E10" s="17"/>
       <c r="F10" s="8"/>
-      <c r="G10" s="46">
+      <c r="G10" s="57">
         <f>G7+1</f>
         <v>42864</v>
       </c>
-      <c r="H10" s="47"/>
-      <c r="I10" s="68"/>
-      <c r="J10" s="69"/>
+      <c r="H10" s="58"/>
+      <c r="I10" s="63"/>
+      <c r="J10" s="64"/>
     </row>
     <row r="11" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="8"/>
@@ -1493,10 +1472,10 @@
       <c r="D11" s="8"/>
       <c r="E11" s="16"/>
       <c r="F11" s="8"/>
-      <c r="G11" s="48"/>
-      <c r="H11" s="49"/>
-      <c r="I11" s="54"/>
-      <c r="J11" s="55"/>
+      <c r="G11" s="59"/>
+      <c r="H11" s="60"/>
+      <c r="I11" s="45"/>
+      <c r="J11" s="46"/>
     </row>
     <row r="12" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="8"/>
@@ -1508,10 +1487,10 @@
       <c r="D12" s="8"/>
       <c r="E12" s="17"/>
       <c r="F12" s="8"/>
-      <c r="G12" s="50"/>
-      <c r="H12" s="51"/>
-      <c r="I12" s="56"/>
-      <c r="J12" s="57"/>
+      <c r="G12" s="61"/>
+      <c r="H12" s="62"/>
+      <c r="I12" s="65"/>
+      <c r="J12" s="66"/>
     </row>
     <row r="13" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="8"/>
@@ -1523,13 +1502,13 @@
       <c r="D13" s="8"/>
       <c r="E13" s="16"/>
       <c r="F13" s="8"/>
-      <c r="G13" s="58">
+      <c r="G13" s="67">
         <f>G7+2</f>
         <v>42865</v>
       </c>
-      <c r="H13" s="59"/>
-      <c r="I13" s="64"/>
-      <c r="J13" s="65"/>
+      <c r="H13" s="68"/>
+      <c r="I13" s="69"/>
+      <c r="J13" s="70"/>
     </row>
     <row r="14" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="8"/>
@@ -1541,10 +1520,10 @@
       <c r="D14" s="8"/>
       <c r="E14" s="17"/>
       <c r="F14" s="8"/>
-      <c r="G14" s="60"/>
-      <c r="H14" s="61"/>
-      <c r="I14" s="52"/>
-      <c r="J14" s="53"/>
+      <c r="G14" s="41"/>
+      <c r="H14" s="42"/>
+      <c r="I14" s="47"/>
+      <c r="J14" s="48"/>
     </row>
     <row r="15" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="8"/>
@@ -1556,10 +1535,10 @@
       <c r="D15" s="8"/>
       <c r="E15" s="16"/>
       <c r="F15" s="8"/>
-      <c r="G15" s="62"/>
-      <c r="H15" s="63"/>
-      <c r="I15" s="66"/>
-      <c r="J15" s="67"/>
+      <c r="G15" s="43"/>
+      <c r="H15" s="44"/>
+      <c r="I15" s="49"/>
+      <c r="J15" s="50"/>
     </row>
     <row r="16" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="8"/>
@@ -1571,13 +1550,13 @@
       <c r="D16" s="8"/>
       <c r="E16" s="17"/>
       <c r="F16" s="8"/>
-      <c r="G16" s="46">
+      <c r="G16" s="57">
         <f>G7+3</f>
         <v>42866</v>
       </c>
-      <c r="H16" s="47"/>
-      <c r="I16" s="68"/>
-      <c r="J16" s="69"/>
+      <c r="H16" s="58"/>
+      <c r="I16" s="63"/>
+      <c r="J16" s="64"/>
     </row>
     <row r="17" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="8"/>
@@ -1589,10 +1568,10 @@
       <c r="D17" s="8"/>
       <c r="E17" s="16"/>
       <c r="F17" s="8"/>
-      <c r="G17" s="48"/>
-      <c r="H17" s="49"/>
-      <c r="I17" s="54"/>
-      <c r="J17" s="55"/>
+      <c r="G17" s="59"/>
+      <c r="H17" s="60"/>
+      <c r="I17" s="45"/>
+      <c r="J17" s="46"/>
     </row>
     <row r="18" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="8"/>
@@ -1604,10 +1583,10 @@
       <c r="D18" s="8"/>
       <c r="E18" s="17"/>
       <c r="F18" s="8"/>
-      <c r="G18" s="50"/>
-      <c r="H18" s="51"/>
-      <c r="I18" s="56"/>
-      <c r="J18" s="57"/>
+      <c r="G18" s="61"/>
+      <c r="H18" s="62"/>
+      <c r="I18" s="65"/>
+      <c r="J18" s="66"/>
     </row>
     <row r="19" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="8"/>
@@ -1619,13 +1598,13 @@
       <c r="D19" s="8"/>
       <c r="E19" s="16"/>
       <c r="F19" s="8"/>
-      <c r="G19" s="58">
+      <c r="G19" s="67">
         <f>G7+4</f>
         <v>42867</v>
       </c>
-      <c r="H19" s="59"/>
-      <c r="I19" s="64"/>
-      <c r="J19" s="65"/>
+      <c r="H19" s="68"/>
+      <c r="I19" s="69"/>
+      <c r="J19" s="70"/>
     </row>
     <row r="20" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="8"/>
@@ -1637,10 +1616,10 @@
       <c r="D20" s="8"/>
       <c r="E20" s="17"/>
       <c r="F20" s="8"/>
-      <c r="G20" s="60"/>
-      <c r="H20" s="61"/>
-      <c r="I20" s="52"/>
-      <c r="J20" s="53"/>
+      <c r="G20" s="41"/>
+      <c r="H20" s="42"/>
+      <c r="I20" s="47"/>
+      <c r="J20" s="48"/>
     </row>
     <row r="21" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="8"/>
@@ -1652,10 +1631,10 @@
       <c r="D21" s="8"/>
       <c r="E21" s="16"/>
       <c r="F21" s="8"/>
-      <c r="G21" s="62"/>
-      <c r="H21" s="63"/>
-      <c r="I21" s="66"/>
-      <c r="J21" s="67"/>
+      <c r="G21" s="43"/>
+      <c r="H21" s="44"/>
+      <c r="I21" s="49"/>
+      <c r="J21" s="50"/>
     </row>
     <row r="22" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="8"/>
@@ -1667,13 +1646,13 @@
       <c r="D22" s="8"/>
       <c r="E22" s="17"/>
       <c r="F22" s="8"/>
-      <c r="G22" s="46">
+      <c r="G22" s="57">
         <f>G7+5</f>
         <v>42868</v>
       </c>
-      <c r="H22" s="47"/>
-      <c r="I22" s="52"/>
-      <c r="J22" s="53"/>
+      <c r="H22" s="58"/>
+      <c r="I22" s="47"/>
+      <c r="J22" s="48"/>
     </row>
     <row r="23" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="8"/>
@@ -1685,10 +1664,10 @@
       <c r="D23" s="8"/>
       <c r="E23" s="16"/>
       <c r="F23" s="8"/>
-      <c r="G23" s="48"/>
-      <c r="H23" s="49"/>
-      <c r="I23" s="54"/>
-      <c r="J23" s="55"/>
+      <c r="G23" s="59"/>
+      <c r="H23" s="60"/>
+      <c r="I23" s="45"/>
+      <c r="J23" s="46"/>
     </row>
     <row r="24" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="8"/>
@@ -1700,10 +1679,10 @@
       <c r="D24" s="8"/>
       <c r="E24" s="17"/>
       <c r="F24" s="8"/>
-      <c r="G24" s="50"/>
-      <c r="H24" s="51"/>
-      <c r="I24" s="56"/>
-      <c r="J24" s="57"/>
+      <c r="G24" s="61"/>
+      <c r="H24" s="62"/>
+      <c r="I24" s="65"/>
+      <c r="J24" s="66"/>
     </row>
     <row r="25" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="8"/>
@@ -1715,13 +1694,13 @@
       <c r="D25" s="8"/>
       <c r="E25" s="16"/>
       <c r="F25" s="8"/>
-      <c r="G25" s="58">
+      <c r="G25" s="67">
         <f>G7+6</f>
         <v>42869</v>
       </c>
-      <c r="H25" s="59"/>
-      <c r="I25" s="64"/>
-      <c r="J25" s="65"/>
+      <c r="H25" s="68"/>
+      <c r="I25" s="69"/>
+      <c r="J25" s="70"/>
     </row>
     <row r="26" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="8"/>
@@ -1733,10 +1712,10 @@
       <c r="D26" s="8"/>
       <c r="E26" s="17"/>
       <c r="F26" s="8"/>
-      <c r="G26" s="60"/>
-      <c r="H26" s="61"/>
-      <c r="I26" s="52"/>
-      <c r="J26" s="53"/>
+      <c r="G26" s="41"/>
+      <c r="H26" s="42"/>
+      <c r="I26" s="47"/>
+      <c r="J26" s="48"/>
     </row>
     <row r="27" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="8"/>
@@ -1748,10 +1727,10 @@
       <c r="D27" s="8"/>
       <c r="E27" s="16"/>
       <c r="F27" s="8"/>
-      <c r="G27" s="62"/>
-      <c r="H27" s="63"/>
-      <c r="I27" s="66"/>
-      <c r="J27" s="67"/>
+      <c r="G27" s="43"/>
+      <c r="H27" s="44"/>
+      <c r="I27" s="49"/>
+      <c r="J27" s="50"/>
     </row>
     <row r="28" spans="1:10" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="8"/>
@@ -1778,12 +1757,12 @@
       <c r="D29" s="8"/>
       <c r="E29" s="16"/>
       <c r="F29" s="8"/>
-      <c r="G29" s="37" t="s">
+      <c r="G29" s="71" t="s">
         <v>26</v>
       </c>
-      <c r="H29" s="38"/>
-      <c r="I29" s="38"/>
-      <c r="J29" s="39"/>
+      <c r="H29" s="72"/>
+      <c r="I29" s="72"/>
+      <c r="J29" s="73"/>
     </row>
     <row r="30" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="8"/>
@@ -1795,10 +1774,10 @@
       <c r="D30" s="8"/>
       <c r="E30" s="17"/>
       <c r="F30" s="8"/>
-      <c r="G30" s="40"/>
-      <c r="H30" s="41"/>
-      <c r="I30" s="41"/>
-      <c r="J30" s="42"/>
+      <c r="G30" s="74"/>
+      <c r="H30" s="75"/>
+      <c r="I30" s="75"/>
+      <c r="J30" s="76"/>
     </row>
     <row r="31" spans="1:10" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="8"/>
@@ -1810,10 +1789,10 @@
       <c r="D31" s="8"/>
       <c r="E31" s="16"/>
       <c r="F31" s="8"/>
-      <c r="G31" s="43"/>
-      <c r="H31" s="44"/>
-      <c r="I31" s="44"/>
-      <c r="J31" s="45"/>
+      <c r="G31" s="77"/>
+      <c r="H31" s="78"/>
+      <c r="I31" s="78"/>
+      <c r="J31" s="79"/>
     </row>
     <row r="32" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="8"/>
@@ -1937,6 +1916,31 @@
     </row>
   </sheetData>
   <mergeCells count="34">
+    <mergeCell ref="G29:J31"/>
+    <mergeCell ref="G22:H24"/>
+    <mergeCell ref="I22:J22"/>
+    <mergeCell ref="I23:J23"/>
+    <mergeCell ref="I24:J24"/>
+    <mergeCell ref="G25:H27"/>
+    <mergeCell ref="I25:J25"/>
+    <mergeCell ref="I26:J26"/>
+    <mergeCell ref="I27:J27"/>
+    <mergeCell ref="G16:H18"/>
+    <mergeCell ref="I16:J16"/>
+    <mergeCell ref="I17:J17"/>
+    <mergeCell ref="I18:J18"/>
+    <mergeCell ref="G19:H21"/>
+    <mergeCell ref="I19:J19"/>
+    <mergeCell ref="I20:J20"/>
+    <mergeCell ref="I21:J21"/>
+    <mergeCell ref="G10:H12"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="G13:H15"/>
+    <mergeCell ref="I13:J13"/>
+    <mergeCell ref="I14:J14"/>
+    <mergeCell ref="I15:J15"/>
     <mergeCell ref="B2:C3"/>
     <mergeCell ref="B5:B6"/>
     <mergeCell ref="E5:E6"/>
@@ -1946,31 +1950,6 @@
     <mergeCell ref="I9:J9"/>
     <mergeCell ref="G5:J5"/>
     <mergeCell ref="G6:J6"/>
-    <mergeCell ref="G10:H12"/>
-    <mergeCell ref="I10:J10"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="I12:J12"/>
-    <mergeCell ref="G13:H15"/>
-    <mergeCell ref="I13:J13"/>
-    <mergeCell ref="I14:J14"/>
-    <mergeCell ref="I15:J15"/>
-    <mergeCell ref="G16:H18"/>
-    <mergeCell ref="I16:J16"/>
-    <mergeCell ref="I17:J17"/>
-    <mergeCell ref="I18:J18"/>
-    <mergeCell ref="G19:H21"/>
-    <mergeCell ref="I19:J19"/>
-    <mergeCell ref="I20:J20"/>
-    <mergeCell ref="I21:J21"/>
-    <mergeCell ref="G29:J31"/>
-    <mergeCell ref="G22:H24"/>
-    <mergeCell ref="I22:J22"/>
-    <mergeCell ref="I23:J23"/>
-    <mergeCell ref="I24:J24"/>
-    <mergeCell ref="G25:H27"/>
-    <mergeCell ref="I25:J25"/>
-    <mergeCell ref="I26:J26"/>
-    <mergeCell ref="I27:J27"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="G29" r:id="rId1"/>
@@ -2019,8 +1998,8 @@
   </sheetPr>
   <dimension ref="A1:J39"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A13" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="80" workbookViewId="0">
-      <selection activeCell="E33" sqref="E33"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A7" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="80" workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2052,10 +2031,10 @@
     </row>
     <row r="2" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A2" s="8"/>
-      <c r="B2" s="70" t="s">
+      <c r="B2" s="38" t="s">
         <v>25</v>
       </c>
-      <c r="C2" s="70"/>
+      <c r="C2" s="38"/>
       <c r="D2" s="9"/>
       <c r="E2" s="12" t="s">
         <v>13</v>
@@ -2072,8 +2051,8 @@
     </row>
     <row r="3" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A3" s="8"/>
-      <c r="B3" s="70"/>
-      <c r="C3" s="70"/>
+      <c r="B3" s="38"/>
+      <c r="C3" s="38"/>
       <c r="D3" s="9"/>
       <c r="E3" s="13">
         <f>'Daily Schedule SUN'!E3</f>
@@ -2106,38 +2085,38 @@
     </row>
     <row r="5" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="8"/>
-      <c r="B5" s="81" t="s">
+      <c r="B5" s="80" t="s">
         <v>0</v>
       </c>
       <c r="C5" s="31" t="s">
         <v>16</v>
       </c>
       <c r="D5" s="8"/>
-      <c r="E5" s="72" t="s">
+      <c r="E5" s="40" t="s">
         <v>14</v>
       </c>
       <c r="F5" s="8"/>
-      <c r="G5" s="79" t="s">
+      <c r="G5" s="81" t="s">
         <v>15</v>
       </c>
-      <c r="H5" s="80"/>
-      <c r="I5" s="79"/>
-      <c r="J5" s="79"/>
+      <c r="H5" s="82"/>
+      <c r="I5" s="81"/>
+      <c r="J5" s="81"/>
     </row>
     <row r="6" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="8"/>
-      <c r="B6" s="81"/>
+      <c r="B6" s="80"/>
       <c r="C6" s="32">
         <f>E3+1</f>
         <v>42864</v>
       </c>
       <c r="D6" s="8"/>
-      <c r="E6" s="72"/>
+      <c r="E6" s="40"/>
       <c r="F6" s="8"/>
-      <c r="G6" s="79"/>
-      <c r="H6" s="79"/>
-      <c r="I6" s="79"/>
-      <c r="J6" s="79"/>
+      <c r="G6" s="81"/>
+      <c r="H6" s="81"/>
+      <c r="I6" s="81"/>
+      <c r="J6" s="81"/>
     </row>
     <row r="7" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="8"/>
@@ -2149,16 +2128,16 @@
       <c r="D7" s="8"/>
       <c r="E7" s="16"/>
       <c r="F7" s="8"/>
-      <c r="G7" s="58">
+      <c r="G7" s="67">
         <f>E3</f>
         <v>42863</v>
       </c>
-      <c r="H7" s="59"/>
-      <c r="I7" s="64">
+      <c r="H7" s="68"/>
+      <c r="I7" s="69">
         <f>'Daily Schedule SUN'!I7:J7</f>
         <v>0</v>
       </c>
-      <c r="J7" s="65"/>
+      <c r="J7" s="70"/>
     </row>
     <row r="8" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="8"/>
@@ -2170,13 +2149,13 @@
       <c r="D8" s="8"/>
       <c r="E8" s="17"/>
       <c r="F8" s="8"/>
-      <c r="G8" s="60"/>
-      <c r="H8" s="61"/>
-      <c r="I8" s="52">
+      <c r="G8" s="41"/>
+      <c r="H8" s="42"/>
+      <c r="I8" s="47">
         <f>'Daily Schedule SUN'!I8:J8</f>
         <v>0</v>
       </c>
-      <c r="J8" s="53"/>
+      <c r="J8" s="48"/>
     </row>
     <row r="9" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="8"/>
@@ -2188,13 +2167,13 @@
       <c r="D9" s="8"/>
       <c r="E9" s="16"/>
       <c r="F9" s="8"/>
-      <c r="G9" s="62"/>
-      <c r="H9" s="63"/>
-      <c r="I9" s="66">
+      <c r="G9" s="43"/>
+      <c r="H9" s="44"/>
+      <c r="I9" s="49">
         <f>'Daily Schedule SUN'!I9:J9</f>
         <v>0</v>
       </c>
-      <c r="J9" s="67"/>
+      <c r="J9" s="50"/>
     </row>
     <row r="10" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="8"/>
@@ -2206,16 +2185,16 @@
       <c r="D10" s="8"/>
       <c r="E10" s="17"/>
       <c r="F10" s="8"/>
-      <c r="G10" s="46">
+      <c r="G10" s="57">
         <f>G7+1</f>
         <v>42864</v>
       </c>
-      <c r="H10" s="47"/>
-      <c r="I10" s="68">
+      <c r="H10" s="58"/>
+      <c r="I10" s="63">
         <f>'Daily Schedule SUN'!I10:J10</f>
         <v>0</v>
       </c>
-      <c r="J10" s="69"/>
+      <c r="J10" s="64"/>
     </row>
     <row r="11" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="8"/>
@@ -2227,13 +2206,13 @@
       <c r="D11" s="8"/>
       <c r="E11" s="16"/>
       <c r="F11" s="8"/>
-      <c r="G11" s="48"/>
-      <c r="H11" s="49"/>
-      <c r="I11" s="54">
+      <c r="G11" s="59"/>
+      <c r="H11" s="60"/>
+      <c r="I11" s="45">
         <f>'Daily Schedule SUN'!I11:J11</f>
         <v>0</v>
       </c>
-      <c r="J11" s="55"/>
+      <c r="J11" s="46"/>
     </row>
     <row r="12" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="8"/>
@@ -2245,13 +2224,13 @@
       <c r="D12" s="8"/>
       <c r="E12" s="17"/>
       <c r="F12" s="8"/>
-      <c r="G12" s="50"/>
-      <c r="H12" s="51"/>
-      <c r="I12" s="56">
+      <c r="G12" s="61"/>
+      <c r="H12" s="62"/>
+      <c r="I12" s="65">
         <f>'Daily Schedule SUN'!I12:J12</f>
         <v>0</v>
       </c>
-      <c r="J12" s="57"/>
+      <c r="J12" s="66"/>
     </row>
     <row r="13" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="8"/>
@@ -2263,16 +2242,16 @@
       <c r="D13" s="8"/>
       <c r="E13" s="16"/>
       <c r="F13" s="8"/>
-      <c r="G13" s="58">
+      <c r="G13" s="67">
         <f>G7+2</f>
         <v>42865</v>
       </c>
-      <c r="H13" s="59"/>
-      <c r="I13" s="64">
+      <c r="H13" s="68"/>
+      <c r="I13" s="69">
         <f>'Daily Schedule SUN'!I13:J13</f>
         <v>0</v>
       </c>
-      <c r="J13" s="65"/>
+      <c r="J13" s="70"/>
     </row>
     <row r="14" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="8"/>
@@ -2284,13 +2263,13 @@
       <c r="D14" s="8"/>
       <c r="E14" s="17"/>
       <c r="F14" s="8"/>
-      <c r="G14" s="60"/>
-      <c r="H14" s="61"/>
-      <c r="I14" s="52">
+      <c r="G14" s="41"/>
+      <c r="H14" s="42"/>
+      <c r="I14" s="47">
         <f>'Daily Schedule SUN'!I14:J14</f>
         <v>0</v>
       </c>
-      <c r="J14" s="53"/>
+      <c r="J14" s="48"/>
     </row>
     <row r="15" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="8"/>
@@ -2302,13 +2281,13 @@
       <c r="D15" s="8"/>
       <c r="E15" s="16"/>
       <c r="F15" s="8"/>
-      <c r="G15" s="62"/>
-      <c r="H15" s="63"/>
-      <c r="I15" s="66">
+      <c r="G15" s="43"/>
+      <c r="H15" s="44"/>
+      <c r="I15" s="49">
         <f>'Daily Schedule SUN'!I15:J15</f>
         <v>0</v>
       </c>
-      <c r="J15" s="67"/>
+      <c r="J15" s="50"/>
     </row>
     <row r="16" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="8"/>
@@ -2316,22 +2295,20 @@
         <f t="shared" si="0"/>
         <v>0.47916666666666652</v>
       </c>
-      <c r="C16" s="29" t="s">
-        <v>27</v>
-      </c>
+      <c r="C16" s="29"/>
       <c r="D16" s="8"/>
       <c r="E16" s="17"/>
       <c r="F16" s="8"/>
-      <c r="G16" s="46">
+      <c r="G16" s="57">
         <f>G7+3</f>
         <v>42866</v>
       </c>
-      <c r="H16" s="47"/>
-      <c r="I16" s="68">
+      <c r="H16" s="58"/>
+      <c r="I16" s="63">
         <f>'Daily Schedule SUN'!I16:J16</f>
         <v>0</v>
       </c>
-      <c r="J16" s="69"/>
+      <c r="J16" s="64"/>
     </row>
     <row r="17" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="8"/>
@@ -2339,21 +2316,17 @@
         <f t="shared" si="0"/>
         <v>0.49999999999999983</v>
       </c>
-      <c r="C17" s="30" t="s">
-        <v>27</v>
-      </c>
+      <c r="C17" s="30"/>
       <c r="D17" s="8"/>
-      <c r="E17" s="36" t="s">
-        <v>34</v>
-      </c>
+      <c r="E17" s="36"/>
       <c r="F17" s="8"/>
-      <c r="G17" s="48"/>
-      <c r="H17" s="49"/>
-      <c r="I17" s="54">
+      <c r="G17" s="59"/>
+      <c r="H17" s="60"/>
+      <c r="I17" s="45">
         <f>'Daily Schedule SUN'!I17:J17</f>
         <v>0</v>
       </c>
-      <c r="J17" s="55"/>
+      <c r="J17" s="46"/>
     </row>
     <row r="18" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="8"/>
@@ -2362,18 +2335,20 @@
         <v>0.52083333333333315</v>
       </c>
       <c r="C18" s="29" t="s">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="D18" s="8"/>
-      <c r="E18" s="17"/>
+      <c r="E18" s="17" t="s">
+        <v>38</v>
+      </c>
       <c r="F18" s="8"/>
-      <c r="G18" s="50"/>
-      <c r="H18" s="51"/>
-      <c r="I18" s="56">
+      <c r="G18" s="61"/>
+      <c r="H18" s="62"/>
+      <c r="I18" s="65">
         <f>'Daily Schedule SUN'!I18:J18</f>
         <v>0</v>
       </c>
-      <c r="J18" s="57"/>
+      <c r="J18" s="66"/>
     </row>
     <row r="19" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="8"/>
@@ -2382,23 +2357,23 @@
         <v>0.54166666666666652</v>
       </c>
       <c r="C19" s="30" t="s">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="36" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="F19" s="8"/>
-      <c r="G19" s="58">
+      <c r="G19" s="67">
         <f>G7+4</f>
         <v>42867</v>
       </c>
-      <c r="H19" s="59"/>
-      <c r="I19" s="64">
+      <c r="H19" s="68"/>
+      <c r="I19" s="69">
         <f>'Daily Schedule SUN'!I19:J19</f>
         <v>0</v>
       </c>
-      <c r="J19" s="65"/>
+      <c r="J19" s="70"/>
     </row>
     <row r="20" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="8"/>
@@ -2407,18 +2382,20 @@
         <v>0.56249999999999989</v>
       </c>
       <c r="C20" s="29" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="D20" s="8"/>
-      <c r="E20" s="17"/>
+      <c r="E20" s="17" t="s">
+        <v>46</v>
+      </c>
       <c r="F20" s="8"/>
-      <c r="G20" s="60"/>
-      <c r="H20" s="61"/>
-      <c r="I20" s="52">
+      <c r="G20" s="41"/>
+      <c r="H20" s="42"/>
+      <c r="I20" s="47">
         <f>'Daily Schedule SUN'!I20:J20</f>
         <v>0</v>
       </c>
-      <c r="J20" s="53"/>
+      <c r="J20" s="48"/>
     </row>
     <row r="21" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="8"/>
@@ -2427,18 +2404,20 @@
         <v>0.58333333333333326</v>
       </c>
       <c r="C21" s="30" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="D21" s="8"/>
-      <c r="E21" s="16"/>
+      <c r="E21" s="16" t="s">
+        <v>46</v>
+      </c>
       <c r="F21" s="8"/>
-      <c r="G21" s="62"/>
-      <c r="H21" s="63"/>
-      <c r="I21" s="66">
+      <c r="G21" s="43"/>
+      <c r="H21" s="44"/>
+      <c r="I21" s="49">
         <f>'Daily Schedule SUN'!I21:J21</f>
         <v>0</v>
       </c>
-      <c r="J21" s="67"/>
+      <c r="J21" s="50"/>
     </row>
     <row r="22" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="8"/>
@@ -2447,21 +2426,23 @@
         <v>0.60416666666666663</v>
       </c>
       <c r="C22" s="29" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="D22" s="8"/>
-      <c r="E22" s="17"/>
+      <c r="E22" s="17" t="s">
+        <v>38</v>
+      </c>
       <c r="F22" s="8"/>
-      <c r="G22" s="46">
+      <c r="G22" s="57">
         <f>G7+5</f>
         <v>42868</v>
       </c>
-      <c r="H22" s="47"/>
-      <c r="I22" s="68">
+      <c r="H22" s="58"/>
+      <c r="I22" s="63">
         <f>'Daily Schedule SUN'!I22:J22</f>
         <v>0</v>
       </c>
-      <c r="J22" s="69"/>
+      <c r="J22" s="64"/>
     </row>
     <row r="23" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="8"/>
@@ -2470,18 +2451,20 @@
         <v>0.625</v>
       </c>
       <c r="C23" s="30" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="D23" s="8"/>
-      <c r="E23" s="16"/>
+      <c r="E23" s="16" t="s">
+        <v>45</v>
+      </c>
       <c r="F23" s="8"/>
-      <c r="G23" s="48"/>
-      <c r="H23" s="49"/>
-      <c r="I23" s="54">
+      <c r="G23" s="59"/>
+      <c r="H23" s="60"/>
+      <c r="I23" s="45">
         <f>'Daily Schedule SUN'!I23:J23</f>
         <v>0</v>
       </c>
-      <c r="J23" s="55"/>
+      <c r="J23" s="46"/>
     </row>
     <row r="24" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="8"/>
@@ -2489,19 +2472,17 @@
         <f t="shared" si="0"/>
         <v>0.64583333333333337</v>
       </c>
-      <c r="C24" s="29" t="s">
-        <v>31</v>
-      </c>
+      <c r="C24" s="29"/>
       <c r="D24" s="8"/>
       <c r="E24" s="17"/>
       <c r="F24" s="8"/>
-      <c r="G24" s="50"/>
-      <c r="H24" s="51"/>
-      <c r="I24" s="56">
+      <c r="G24" s="61"/>
+      <c r="H24" s="62"/>
+      <c r="I24" s="65">
         <f>'Daily Schedule SUN'!I24:J24</f>
         <v>0</v>
       </c>
-      <c r="J24" s="57"/>
+      <c r="J24" s="66"/>
     </row>
     <row r="25" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="8"/>
@@ -2509,22 +2490,20 @@
         <f t="shared" si="0"/>
         <v>0.66666666666666674</v>
       </c>
-      <c r="C25" s="30" t="s">
-        <v>31</v>
-      </c>
+      <c r="C25" s="30"/>
       <c r="D25" s="8"/>
       <c r="E25" s="16"/>
       <c r="F25" s="8"/>
-      <c r="G25" s="58">
+      <c r="G25" s="67">
         <f>G7+6</f>
         <v>42869</v>
       </c>
-      <c r="H25" s="59"/>
-      <c r="I25" s="64">
+      <c r="H25" s="68"/>
+      <c r="I25" s="69">
         <f>'Daily Schedule SUN'!I25:J25</f>
         <v>0</v>
       </c>
-      <c r="J25" s="65"/>
+      <c r="J25" s="70"/>
     </row>
     <row r="26" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="8"/>
@@ -2532,19 +2511,17 @@
         <f t="shared" si="0"/>
         <v>0.68750000000000011</v>
       </c>
-      <c r="C26" s="29" t="s">
-        <v>31</v>
-      </c>
+      <c r="C26" s="29"/>
       <c r="D26" s="8"/>
       <c r="E26" s="17"/>
       <c r="F26" s="8"/>
-      <c r="G26" s="60"/>
-      <c r="H26" s="61"/>
-      <c r="I26" s="52">
+      <c r="G26" s="41"/>
+      <c r="H26" s="42"/>
+      <c r="I26" s="47">
         <f>'Daily Schedule SUN'!I26:J26</f>
         <v>0</v>
       </c>
-      <c r="J26" s="53"/>
+      <c r="J26" s="48"/>
     </row>
     <row r="27" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="8"/>
@@ -2552,21 +2529,17 @@
         <f t="shared" si="0"/>
         <v>0.70833333333333348</v>
       </c>
-      <c r="C27" s="30" t="s">
-        <v>32</v>
-      </c>
+      <c r="C27" s="30"/>
       <c r="D27" s="8"/>
-      <c r="E27" s="36" t="s">
-        <v>36</v>
-      </c>
+      <c r="E27" s="36"/>
       <c r="F27" s="8"/>
-      <c r="G27" s="62"/>
-      <c r="H27" s="63"/>
-      <c r="I27" s="66">
+      <c r="G27" s="43"/>
+      <c r="H27" s="44"/>
+      <c r="I27" s="49">
         <f>'Daily Schedule SUN'!I27:J27</f>
         <v>0</v>
       </c>
-      <c r="J27" s="67"/>
+      <c r="J27" s="50"/>
     </row>
     <row r="28" spans="1:10" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="8"/>
@@ -2574,9 +2547,7 @@
         <f t="shared" si="0"/>
         <v>0.72916666666666685</v>
       </c>
-      <c r="C28" s="29" t="s">
-        <v>32</v>
-      </c>
+      <c r="C28" s="29"/>
       <c r="D28" s="8"/>
       <c r="E28" s="17"/>
       <c r="F28" s="8"/>
@@ -2591,18 +2562,16 @@
         <f t="shared" si="0"/>
         <v>0.75000000000000022</v>
       </c>
-      <c r="C29" s="30" t="s">
-        <v>33</v>
-      </c>
+      <c r="C29" s="30"/>
       <c r="D29" s="8"/>
       <c r="E29" s="16"/>
       <c r="F29" s="8"/>
-      <c r="G29" s="37" t="s">
+      <c r="G29" s="71" t="s">
         <v>26</v>
       </c>
-      <c r="H29" s="38"/>
-      <c r="I29" s="38"/>
-      <c r="J29" s="39"/>
+      <c r="H29" s="72"/>
+      <c r="I29" s="72"/>
+      <c r="J29" s="73"/>
     </row>
     <row r="30" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="8"/>
@@ -2610,16 +2579,14 @@
         <f t="shared" si="0"/>
         <v>0.77083333333333359</v>
       </c>
-      <c r="C30" s="29" t="s">
-        <v>33</v>
-      </c>
+      <c r="C30" s="29"/>
       <c r="D30" s="8"/>
       <c r="E30" s="17"/>
       <c r="F30" s="8"/>
-      <c r="G30" s="40"/>
-      <c r="H30" s="41"/>
-      <c r="I30" s="41"/>
-      <c r="J30" s="42"/>
+      <c r="G30" s="74"/>
+      <c r="H30" s="75"/>
+      <c r="I30" s="75"/>
+      <c r="J30" s="76"/>
     </row>
     <row r="31" spans="1:10" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="8"/>
@@ -2627,18 +2594,14 @@
         <f t="shared" si="0"/>
         <v>0.79166666666666696</v>
       </c>
-      <c r="C31" s="30" t="s">
-        <v>33</v>
-      </c>
+      <c r="C31" s="30"/>
       <c r="D31" s="8"/>
-      <c r="E31" s="36" t="s">
-        <v>35</v>
-      </c>
+      <c r="E31" s="36"/>
       <c r="F31" s="8"/>
-      <c r="G31" s="43"/>
-      <c r="H31" s="44"/>
-      <c r="I31" s="44"/>
-      <c r="J31" s="45"/>
+      <c r="G31" s="77"/>
+      <c r="H31" s="78"/>
+      <c r="I31" s="78"/>
+      <c r="J31" s="79"/>
     </row>
     <row r="32" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="8"/>
@@ -2762,23 +2725,6 @@
     </row>
   </sheetData>
   <mergeCells count="33">
-    <mergeCell ref="I15:J15"/>
-    <mergeCell ref="I10:J10"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="I12:J12"/>
-    <mergeCell ref="I13:J13"/>
-    <mergeCell ref="I14:J14"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="I7:J7"/>
-    <mergeCell ref="I8:J8"/>
-    <mergeCell ref="I9:J9"/>
-    <mergeCell ref="I25:J25"/>
-    <mergeCell ref="I16:J16"/>
-    <mergeCell ref="I17:J17"/>
-    <mergeCell ref="I18:J18"/>
-    <mergeCell ref="I19:J19"/>
-    <mergeCell ref="I20:J20"/>
     <mergeCell ref="G29:J31"/>
     <mergeCell ref="I26:J26"/>
     <mergeCell ref="I27:J27"/>
@@ -2795,6 +2741,23 @@
     <mergeCell ref="I22:J22"/>
     <mergeCell ref="I23:J23"/>
     <mergeCell ref="I24:J24"/>
+    <mergeCell ref="I25:J25"/>
+    <mergeCell ref="I16:J16"/>
+    <mergeCell ref="I17:J17"/>
+    <mergeCell ref="I18:J18"/>
+    <mergeCell ref="I19:J19"/>
+    <mergeCell ref="I20:J20"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="I8:J8"/>
+    <mergeCell ref="I9:J9"/>
+    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="I13:J13"/>
+    <mergeCell ref="I14:J14"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="G29" r:id="rId1"/>
@@ -2876,10 +2839,10 @@
     </row>
     <row r="2" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A2" s="8"/>
-      <c r="B2" s="70" t="s">
+      <c r="B2" s="38" t="s">
         <v>25</v>
       </c>
-      <c r="C2" s="70"/>
+      <c r="C2" s="38"/>
       <c r="D2" s="9"/>
       <c r="E2" s="12" t="s">
         <v>13</v>
@@ -2896,8 +2859,8 @@
     </row>
     <row r="3" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A3" s="8"/>
-      <c r="B3" s="70"/>
-      <c r="C3" s="70"/>
+      <c r="B3" s="38"/>
+      <c r="C3" s="38"/>
       <c r="D3" s="9"/>
       <c r="E3" s="13">
         <f>'Daily Schedule SUN'!E3</f>
@@ -2930,38 +2893,38 @@
     </row>
     <row r="5" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="8"/>
-      <c r="B5" s="71" t="s">
+      <c r="B5" s="39" t="s">
         <v>0</v>
       </c>
       <c r="C5" s="23" t="s">
         <v>18</v>
       </c>
       <c r="D5" s="8"/>
-      <c r="E5" s="72" t="s">
+      <c r="E5" s="40" t="s">
         <v>14</v>
       </c>
       <c r="F5" s="8"/>
-      <c r="G5" s="79" t="s">
+      <c r="G5" s="81" t="s">
         <v>15</v>
       </c>
-      <c r="H5" s="80"/>
-      <c r="I5" s="79"/>
-      <c r="J5" s="79"/>
+      <c r="H5" s="82"/>
+      <c r="I5" s="81"/>
+      <c r="J5" s="81"/>
     </row>
     <row r="6" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="8"/>
-      <c r="B6" s="71"/>
+      <c r="B6" s="39"/>
       <c r="C6" s="24">
         <f>E3+2</f>
         <v>42865</v>
       </c>
       <c r="D6" s="8"/>
-      <c r="E6" s="72"/>
+      <c r="E6" s="40"/>
       <c r="F6" s="8"/>
-      <c r="G6" s="79"/>
-      <c r="H6" s="79"/>
-      <c r="I6" s="79"/>
-      <c r="J6" s="79"/>
+      <c r="G6" s="81"/>
+      <c r="H6" s="81"/>
+      <c r="I6" s="81"/>
+      <c r="J6" s="81"/>
     </row>
     <row r="7" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="8"/>
@@ -2973,16 +2936,16 @@
       <c r="D7" s="8"/>
       <c r="E7" s="16"/>
       <c r="F7" s="8"/>
-      <c r="G7" s="58">
+      <c r="G7" s="67">
         <f>E3</f>
         <v>42863</v>
       </c>
-      <c r="H7" s="59"/>
-      <c r="I7" s="64">
+      <c r="H7" s="68"/>
+      <c r="I7" s="69">
         <f>'Daily Schedule SUN'!I7:J7</f>
         <v>0</v>
       </c>
-      <c r="J7" s="65"/>
+      <c r="J7" s="70"/>
     </row>
     <row r="8" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="8"/>
@@ -2994,13 +2957,13 @@
       <c r="D8" s="8"/>
       <c r="E8" s="17"/>
       <c r="F8" s="8"/>
-      <c r="G8" s="60"/>
-      <c r="H8" s="61"/>
-      <c r="I8" s="52">
+      <c r="G8" s="41"/>
+      <c r="H8" s="42"/>
+      <c r="I8" s="47">
         <f>'Daily Schedule SUN'!I8:J8</f>
         <v>0</v>
       </c>
-      <c r="J8" s="53"/>
+      <c r="J8" s="48"/>
     </row>
     <row r="9" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="8"/>
@@ -3012,13 +2975,13 @@
       <c r="D9" s="8"/>
       <c r="E9" s="16"/>
       <c r="F9" s="8"/>
-      <c r="G9" s="62"/>
-      <c r="H9" s="63"/>
-      <c r="I9" s="66">
+      <c r="G9" s="43"/>
+      <c r="H9" s="44"/>
+      <c r="I9" s="49">
         <f>'Daily Schedule SUN'!I9:J9</f>
         <v>0</v>
       </c>
-      <c r="J9" s="67"/>
+      <c r="J9" s="50"/>
     </row>
     <row r="10" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="8"/>
@@ -3030,16 +2993,16 @@
       <c r="D10" s="8"/>
       <c r="E10" s="17"/>
       <c r="F10" s="8"/>
-      <c r="G10" s="46">
+      <c r="G10" s="57">
         <f>G7+1</f>
         <v>42864</v>
       </c>
-      <c r="H10" s="47"/>
-      <c r="I10" s="68">
+      <c r="H10" s="58"/>
+      <c r="I10" s="63">
         <f>'Daily Schedule SUN'!I10:J10</f>
         <v>0</v>
       </c>
-      <c r="J10" s="69"/>
+      <c r="J10" s="64"/>
     </row>
     <row r="11" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="8"/>
@@ -3051,13 +3014,13 @@
       <c r="D11" s="8"/>
       <c r="E11" s="16"/>
       <c r="F11" s="8"/>
-      <c r="G11" s="48"/>
-      <c r="H11" s="49"/>
-      <c r="I11" s="54">
+      <c r="G11" s="59"/>
+      <c r="H11" s="60"/>
+      <c r="I11" s="45">
         <f>'Daily Schedule SUN'!I11:J11</f>
         <v>0</v>
       </c>
-      <c r="J11" s="55"/>
+      <c r="J11" s="46"/>
     </row>
     <row r="12" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="8"/>
@@ -3069,13 +3032,13 @@
       <c r="D12" s="8"/>
       <c r="E12" s="17"/>
       <c r="F12" s="8"/>
-      <c r="G12" s="50"/>
-      <c r="H12" s="51"/>
-      <c r="I12" s="56">
+      <c r="G12" s="61"/>
+      <c r="H12" s="62"/>
+      <c r="I12" s="65">
         <f>'Daily Schedule SUN'!I12:J12</f>
         <v>0</v>
       </c>
-      <c r="J12" s="57"/>
+      <c r="J12" s="66"/>
     </row>
     <row r="13" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="8"/>
@@ -3087,16 +3050,16 @@
       <c r="D13" s="8"/>
       <c r="E13" s="16"/>
       <c r="F13" s="8"/>
-      <c r="G13" s="58">
+      <c r="G13" s="67">
         <f>G7+2</f>
         <v>42865</v>
       </c>
-      <c r="H13" s="59"/>
-      <c r="I13" s="64">
+      <c r="H13" s="68"/>
+      <c r="I13" s="69">
         <f>'Daily Schedule SUN'!I13:J13</f>
         <v>0</v>
       </c>
-      <c r="J13" s="65"/>
+      <c r="J13" s="70"/>
     </row>
     <row r="14" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="8"/>
@@ -3108,13 +3071,13 @@
       <c r="D14" s="8"/>
       <c r="E14" s="17"/>
       <c r="F14" s="8"/>
-      <c r="G14" s="60"/>
-      <c r="H14" s="61"/>
-      <c r="I14" s="52">
+      <c r="G14" s="41"/>
+      <c r="H14" s="42"/>
+      <c r="I14" s="47">
         <f>'Daily Schedule SUN'!I14:J14</f>
         <v>0</v>
       </c>
-      <c r="J14" s="53"/>
+      <c r="J14" s="48"/>
     </row>
     <row r="15" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="8"/>
@@ -3123,18 +3086,18 @@
         <v>0.4583333333333332</v>
       </c>
       <c r="C15" s="30" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="16"/>
       <c r="F15" s="8"/>
-      <c r="G15" s="62"/>
-      <c r="H15" s="63"/>
-      <c r="I15" s="66">
+      <c r="G15" s="43"/>
+      <c r="H15" s="44"/>
+      <c r="I15" s="49">
         <f>'Daily Schedule SUN'!I15:J15</f>
         <v>0</v>
       </c>
-      <c r="J15" s="67"/>
+      <c r="J15" s="50"/>
     </row>
     <row r="16" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="8"/>
@@ -3143,21 +3106,21 @@
         <v>0.47916666666666652</v>
       </c>
       <c r="C16" s="29" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="17"/>
       <c r="F16" s="8"/>
-      <c r="G16" s="46">
+      <c r="G16" s="57">
         <f>G7+3</f>
         <v>42866</v>
       </c>
-      <c r="H16" s="47"/>
-      <c r="I16" s="68">
+      <c r="H16" s="58"/>
+      <c r="I16" s="63">
         <f>'Daily Schedule SUN'!I16:J16</f>
         <v>0</v>
       </c>
-      <c r="J16" s="69"/>
+      <c r="J16" s="64"/>
     </row>
     <row r="17" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="8"/>
@@ -3166,18 +3129,18 @@
         <v>0.49999999999999983</v>
       </c>
       <c r="C17" s="30" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="16"/>
       <c r="F17" s="8"/>
-      <c r="G17" s="48"/>
-      <c r="H17" s="49"/>
-      <c r="I17" s="54">
+      <c r="G17" s="59"/>
+      <c r="H17" s="60"/>
+      <c r="I17" s="45">
         <f>'Daily Schedule SUN'!I17:J17</f>
         <v>0</v>
       </c>
-      <c r="J17" s="55"/>
+      <c r="J17" s="46"/>
     </row>
     <row r="18" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="8"/>
@@ -3186,18 +3149,18 @@
         <v>0.52083333333333315</v>
       </c>
       <c r="C18" s="29" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="17"/>
       <c r="F18" s="8"/>
-      <c r="G18" s="50"/>
-      <c r="H18" s="51"/>
-      <c r="I18" s="56">
+      <c r="G18" s="61"/>
+      <c r="H18" s="62"/>
+      <c r="I18" s="65">
         <f>'Daily Schedule SUN'!I18:J18</f>
         <v>0</v>
       </c>
-      <c r="J18" s="57"/>
+      <c r="J18" s="66"/>
     </row>
     <row r="19" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="8"/>
@@ -3206,21 +3169,21 @@
         <v>0.54166666666666652</v>
       </c>
       <c r="C19" s="30" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="16"/>
       <c r="F19" s="8"/>
-      <c r="G19" s="58">
+      <c r="G19" s="67">
         <f>G7+4</f>
         <v>42867</v>
       </c>
-      <c r="H19" s="59"/>
-      <c r="I19" s="64">
+      <c r="H19" s="68"/>
+      <c r="I19" s="69">
         <f>'Daily Schedule SUN'!I19:J19</f>
         <v>0</v>
       </c>
-      <c r="J19" s="65"/>
+      <c r="J19" s="70"/>
     </row>
     <row r="20" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="8"/>
@@ -3229,18 +3192,18 @@
         <v>0.56249999999999989</v>
       </c>
       <c r="C20" s="29" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="17"/>
       <c r="F20" s="8"/>
-      <c r="G20" s="60"/>
-      <c r="H20" s="61"/>
-      <c r="I20" s="52">
+      <c r="G20" s="41"/>
+      <c r="H20" s="42"/>
+      <c r="I20" s="47">
         <f>'Daily Schedule SUN'!I20:J20</f>
         <v>0</v>
       </c>
-      <c r="J20" s="53"/>
+      <c r="J20" s="48"/>
     </row>
     <row r="21" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="8"/>
@@ -3249,18 +3212,18 @@
         <v>0.58333333333333326</v>
       </c>
       <c r="C21" s="30" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="16"/>
       <c r="F21" s="8"/>
-      <c r="G21" s="62"/>
-      <c r="H21" s="63"/>
-      <c r="I21" s="66">
+      <c r="G21" s="43"/>
+      <c r="H21" s="44"/>
+      <c r="I21" s="49">
         <f>'Daily Schedule SUN'!I21:J21</f>
         <v>0</v>
       </c>
-      <c r="J21" s="67"/>
+      <c r="J21" s="50"/>
     </row>
     <row r="22" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="8"/>
@@ -3269,21 +3232,21 @@
         <v>0.60416666666666663</v>
       </c>
       <c r="C22" s="29" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="17"/>
       <c r="F22" s="8"/>
-      <c r="G22" s="46">
+      <c r="G22" s="57">
         <f>G7+5</f>
         <v>42868</v>
       </c>
-      <c r="H22" s="47"/>
-      <c r="I22" s="68">
+      <c r="H22" s="58"/>
+      <c r="I22" s="63">
         <f>'Daily Schedule SUN'!I22:J22</f>
         <v>0</v>
       </c>
-      <c r="J22" s="69"/>
+      <c r="J22" s="64"/>
     </row>
     <row r="23" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="8"/>
@@ -3292,20 +3255,20 @@
         <v>0.625</v>
       </c>
       <c r="C23" s="30" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="16" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="F23" s="8"/>
-      <c r="G23" s="48"/>
-      <c r="H23" s="49"/>
-      <c r="I23" s="54">
+      <c r="G23" s="59"/>
+      <c r="H23" s="60"/>
+      <c r="I23" s="45">
         <f>'Daily Schedule SUN'!I23:J23</f>
         <v>0</v>
       </c>
-      <c r="J23" s="55"/>
+      <c r="J23" s="46"/>
     </row>
     <row r="24" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="8"/>
@@ -3314,18 +3277,18 @@
         <v>0.64583333333333337</v>
       </c>
       <c r="C24" s="29" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="17"/>
       <c r="F24" s="8"/>
-      <c r="G24" s="50"/>
-      <c r="H24" s="51"/>
-      <c r="I24" s="56">
+      <c r="G24" s="61"/>
+      <c r="H24" s="62"/>
+      <c r="I24" s="65">
         <f>'Daily Schedule SUN'!I24:J24</f>
         <v>0</v>
       </c>
-      <c r="J24" s="57"/>
+      <c r="J24" s="66"/>
     </row>
     <row r="25" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="8"/>
@@ -3334,21 +3297,21 @@
         <v>0.66666666666666674</v>
       </c>
       <c r="C25" s="30" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="16"/>
       <c r="F25" s="8"/>
-      <c r="G25" s="58">
+      <c r="G25" s="67">
         <f>G7+6</f>
         <v>42869</v>
       </c>
-      <c r="H25" s="59"/>
-      <c r="I25" s="64">
+      <c r="H25" s="68"/>
+      <c r="I25" s="69">
         <f>'Daily Schedule SUN'!I25:J25</f>
         <v>0</v>
       </c>
-      <c r="J25" s="65"/>
+      <c r="J25" s="70"/>
     </row>
     <row r="26" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="8"/>
@@ -3357,18 +3320,18 @@
         <v>0.68750000000000011</v>
       </c>
       <c r="C26" s="29" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="17"/>
       <c r="F26" s="8"/>
-      <c r="G26" s="60"/>
-      <c r="H26" s="61"/>
-      <c r="I26" s="52">
+      <c r="G26" s="41"/>
+      <c r="H26" s="42"/>
+      <c r="I26" s="47">
         <f>'Daily Schedule SUN'!I26:J26</f>
         <v>0</v>
       </c>
-      <c r="J26" s="53"/>
+      <c r="J26" s="48"/>
     </row>
     <row r="27" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="8"/>
@@ -3377,18 +3340,18 @@
         <v>0.70833333333333348</v>
       </c>
       <c r="C27" s="30" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="16"/>
       <c r="F27" s="8"/>
-      <c r="G27" s="62"/>
-      <c r="H27" s="63"/>
-      <c r="I27" s="66">
+      <c r="G27" s="43"/>
+      <c r="H27" s="44"/>
+      <c r="I27" s="49">
         <f>'Daily Schedule SUN'!I27:J27</f>
         <v>0</v>
       </c>
-      <c r="J27" s="67"/>
+      <c r="J27" s="50"/>
     </row>
     <row r="28" spans="1:10" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="8"/>
@@ -3397,7 +3360,7 @@
         <v>0.72916666666666685</v>
       </c>
       <c r="C28" s="29" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="17"/>
@@ -3414,19 +3377,19 @@
         <v>0.75000000000000022</v>
       </c>
       <c r="C29" s="30" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="16" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="F29" s="8"/>
-      <c r="G29" s="37" t="s">
+      <c r="G29" s="71" t="s">
         <v>26</v>
       </c>
-      <c r="H29" s="38"/>
-      <c r="I29" s="38"/>
-      <c r="J29" s="39"/>
+      <c r="H29" s="72"/>
+      <c r="I29" s="72"/>
+      <c r="J29" s="73"/>
     </row>
     <row r="30" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="8"/>
@@ -3435,17 +3398,17 @@
         <v>0.77083333333333359</v>
       </c>
       <c r="C30" s="29" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="17" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="F30" s="8"/>
-      <c r="G30" s="40"/>
-      <c r="H30" s="41"/>
-      <c r="I30" s="41"/>
-      <c r="J30" s="42"/>
+      <c r="G30" s="74"/>
+      <c r="H30" s="75"/>
+      <c r="I30" s="75"/>
+      <c r="J30" s="76"/>
     </row>
     <row r="31" spans="1:10" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="8"/>
@@ -3457,10 +3420,10 @@
       <c r="D31" s="8"/>
       <c r="E31" s="16"/>
       <c r="F31" s="8"/>
-      <c r="G31" s="43"/>
-      <c r="H31" s="44"/>
-      <c r="I31" s="44"/>
-      <c r="J31" s="45"/>
+      <c r="G31" s="77"/>
+      <c r="H31" s="78"/>
+      <c r="I31" s="78"/>
+      <c r="J31" s="79"/>
     </row>
     <row r="32" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="8"/>
@@ -3584,30 +3547,6 @@
     </row>
   </sheetData>
   <mergeCells count="33">
-    <mergeCell ref="B2:C3"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="G5:J6"/>
-    <mergeCell ref="G7:H9"/>
-    <mergeCell ref="I7:J7"/>
-    <mergeCell ref="I8:J8"/>
-    <mergeCell ref="I9:J9"/>
-    <mergeCell ref="G10:H12"/>
-    <mergeCell ref="I10:J10"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="I12:J12"/>
-    <mergeCell ref="G13:H15"/>
-    <mergeCell ref="I13:J13"/>
-    <mergeCell ref="I14:J14"/>
-    <mergeCell ref="I15:J15"/>
-    <mergeCell ref="G16:H18"/>
-    <mergeCell ref="I16:J16"/>
-    <mergeCell ref="I17:J17"/>
-    <mergeCell ref="I18:J18"/>
-    <mergeCell ref="G19:H21"/>
-    <mergeCell ref="I19:J19"/>
-    <mergeCell ref="I20:J20"/>
-    <mergeCell ref="I21:J21"/>
     <mergeCell ref="G29:J31"/>
     <mergeCell ref="G22:H24"/>
     <mergeCell ref="I22:J22"/>
@@ -3617,6 +3556,30 @@
     <mergeCell ref="I25:J25"/>
     <mergeCell ref="I26:J26"/>
     <mergeCell ref="I27:J27"/>
+    <mergeCell ref="G16:H18"/>
+    <mergeCell ref="I16:J16"/>
+    <mergeCell ref="I17:J17"/>
+    <mergeCell ref="I18:J18"/>
+    <mergeCell ref="G19:H21"/>
+    <mergeCell ref="I19:J19"/>
+    <mergeCell ref="I20:J20"/>
+    <mergeCell ref="I21:J21"/>
+    <mergeCell ref="G10:H12"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="G13:H15"/>
+    <mergeCell ref="I13:J13"/>
+    <mergeCell ref="I14:J14"/>
+    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="B2:C3"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="G5:J6"/>
+    <mergeCell ref="G7:H9"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="I8:J8"/>
+    <mergeCell ref="I9:J9"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="G29" r:id="rId1"/>
@@ -3698,10 +3661,10 @@
     </row>
     <row r="2" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A2" s="8"/>
-      <c r="B2" s="70" t="s">
+      <c r="B2" s="38" t="s">
         <v>25</v>
       </c>
-      <c r="C2" s="70"/>
+      <c r="C2" s="38"/>
       <c r="D2" s="9"/>
       <c r="E2" s="12" t="s">
         <v>13</v>
@@ -3718,8 +3681,8 @@
     </row>
     <row r="3" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A3" s="8"/>
-      <c r="B3" s="70"/>
-      <c r="C3" s="70"/>
+      <c r="B3" s="38"/>
+      <c r="C3" s="38"/>
       <c r="D3" s="9"/>
       <c r="E3" s="13">
         <f>'Daily Schedule SUN'!E3</f>
@@ -3752,38 +3715,38 @@
     </row>
     <row r="5" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="8"/>
-      <c r="B5" s="71" t="s">
+      <c r="B5" s="39" t="s">
         <v>0</v>
       </c>
       <c r="C5" s="23" t="s">
         <v>19</v>
       </c>
       <c r="D5" s="8"/>
-      <c r="E5" s="72" t="s">
+      <c r="E5" s="40" t="s">
         <v>14</v>
       </c>
       <c r="F5" s="8"/>
-      <c r="G5" s="79" t="s">
+      <c r="G5" s="81" t="s">
         <v>15</v>
       </c>
-      <c r="H5" s="80"/>
-      <c r="I5" s="79"/>
-      <c r="J5" s="79"/>
+      <c r="H5" s="82"/>
+      <c r="I5" s="81"/>
+      <c r="J5" s="81"/>
     </row>
     <row r="6" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="8"/>
-      <c r="B6" s="71"/>
+      <c r="B6" s="39"/>
       <c r="C6" s="24">
         <f>E3+3</f>
         <v>42866</v>
       </c>
       <c r="D6" s="8"/>
-      <c r="E6" s="72"/>
+      <c r="E6" s="40"/>
       <c r="F6" s="8"/>
-      <c r="G6" s="79"/>
-      <c r="H6" s="79"/>
-      <c r="I6" s="79"/>
-      <c r="J6" s="79"/>
+      <c r="G6" s="81"/>
+      <c r="H6" s="81"/>
+      <c r="I6" s="81"/>
+      <c r="J6" s="81"/>
     </row>
     <row r="7" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="8"/>
@@ -3795,16 +3758,16 @@
       <c r="D7" s="8"/>
       <c r="E7" s="16"/>
       <c r="F7" s="8"/>
-      <c r="G7" s="58">
+      <c r="G7" s="67">
         <f>E3</f>
         <v>42863</v>
       </c>
-      <c r="H7" s="59"/>
-      <c r="I7" s="64">
+      <c r="H7" s="68"/>
+      <c r="I7" s="69">
         <f>'Daily Schedule SUN'!I7:J7</f>
         <v>0</v>
       </c>
-      <c r="J7" s="65"/>
+      <c r="J7" s="70"/>
     </row>
     <row r="8" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="8"/>
@@ -3816,13 +3779,13 @@
       <c r="D8" s="8"/>
       <c r="E8" s="17"/>
       <c r="F8" s="8"/>
-      <c r="G8" s="60"/>
-      <c r="H8" s="61"/>
-      <c r="I8" s="52">
+      <c r="G8" s="41"/>
+      <c r="H8" s="42"/>
+      <c r="I8" s="47">
         <f>'Daily Schedule SUN'!I8:J8</f>
         <v>0</v>
       </c>
-      <c r="J8" s="53"/>
+      <c r="J8" s="48"/>
     </row>
     <row r="9" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="8"/>
@@ -3834,13 +3797,13 @@
       <c r="D9" s="8"/>
       <c r="E9" s="16"/>
       <c r="F9" s="8"/>
-      <c r="G9" s="62"/>
-      <c r="H9" s="63"/>
-      <c r="I9" s="66">
+      <c r="G9" s="43"/>
+      <c r="H9" s="44"/>
+      <c r="I9" s="49">
         <f>'Daily Schedule SUN'!I9:J9</f>
         <v>0</v>
       </c>
-      <c r="J9" s="67"/>
+      <c r="J9" s="50"/>
     </row>
     <row r="10" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="8"/>
@@ -3852,16 +3815,16 @@
       <c r="D10" s="8"/>
       <c r="E10" s="17"/>
       <c r="F10" s="8"/>
-      <c r="G10" s="46">
+      <c r="G10" s="57">
         <f>G7+1</f>
         <v>42864</v>
       </c>
-      <c r="H10" s="47"/>
-      <c r="I10" s="68">
+      <c r="H10" s="58"/>
+      <c r="I10" s="63">
         <f>'Daily Schedule SUN'!I10:J10</f>
         <v>0</v>
       </c>
-      <c r="J10" s="69"/>
+      <c r="J10" s="64"/>
     </row>
     <row r="11" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="8"/>
@@ -3873,13 +3836,13 @@
       <c r="D11" s="8"/>
       <c r="E11" s="16"/>
       <c r="F11" s="8"/>
-      <c r="G11" s="48"/>
-      <c r="H11" s="49"/>
-      <c r="I11" s="54">
+      <c r="G11" s="59"/>
+      <c r="H11" s="60"/>
+      <c r="I11" s="45">
         <f>'Daily Schedule SUN'!I11:J11</f>
         <v>0</v>
       </c>
-      <c r="J11" s="55"/>
+      <c r="J11" s="46"/>
     </row>
     <row r="12" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="8"/>
@@ -3891,13 +3854,13 @@
       <c r="D12" s="8"/>
       <c r="E12" s="17"/>
       <c r="F12" s="8"/>
-      <c r="G12" s="50"/>
-      <c r="H12" s="51"/>
-      <c r="I12" s="56">
+      <c r="G12" s="61"/>
+      <c r="H12" s="62"/>
+      <c r="I12" s="65">
         <f>'Daily Schedule SUN'!I12:J12</f>
         <v>0</v>
       </c>
-      <c r="J12" s="57"/>
+      <c r="J12" s="66"/>
     </row>
     <row r="13" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="8"/>
@@ -3909,16 +3872,16 @@
       <c r="D13" s="8"/>
       <c r="E13" s="16"/>
       <c r="F13" s="8"/>
-      <c r="G13" s="58">
+      <c r="G13" s="67">
         <f>G7+2</f>
         <v>42865</v>
       </c>
-      <c r="H13" s="59"/>
-      <c r="I13" s="64">
+      <c r="H13" s="68"/>
+      <c r="I13" s="69">
         <f>'Daily Schedule SUN'!I13:J13</f>
         <v>0</v>
       </c>
-      <c r="J13" s="65"/>
+      <c r="J13" s="70"/>
     </row>
     <row r="14" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="8"/>
@@ -3927,18 +3890,18 @@
         <v>0.43749999999999989</v>
       </c>
       <c r="C14" s="21" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="17"/>
       <c r="F14" s="8"/>
-      <c r="G14" s="60"/>
-      <c r="H14" s="61"/>
-      <c r="I14" s="52">
+      <c r="G14" s="41"/>
+      <c r="H14" s="42"/>
+      <c r="I14" s="47">
         <f>'Daily Schedule SUN'!I14:J14</f>
         <v>0</v>
       </c>
-      <c r="J14" s="53"/>
+      <c r="J14" s="48"/>
     </row>
     <row r="15" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="8"/>
@@ -3947,18 +3910,18 @@
         <v>0.4583333333333332</v>
       </c>
       <c r="C15" s="20" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="16"/>
       <c r="F15" s="8"/>
-      <c r="G15" s="62"/>
-      <c r="H15" s="63"/>
-      <c r="I15" s="66">
+      <c r="G15" s="43"/>
+      <c r="H15" s="44"/>
+      <c r="I15" s="49">
         <f>'Daily Schedule SUN'!I15:J15</f>
         <v>0</v>
       </c>
-      <c r="J15" s="67"/>
+      <c r="J15" s="50"/>
     </row>
     <row r="16" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="8"/>
@@ -3967,21 +3930,21 @@
         <v>0.47916666666666652</v>
       </c>
       <c r="C16" s="21" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="17"/>
       <c r="F16" s="8"/>
-      <c r="G16" s="46">
+      <c r="G16" s="57">
         <f>G7+3</f>
         <v>42866</v>
       </c>
-      <c r="H16" s="47"/>
-      <c r="I16" s="68">
+      <c r="H16" s="58"/>
+      <c r="I16" s="63">
         <f>'Daily Schedule SUN'!I16:J16</f>
         <v>0</v>
       </c>
-      <c r="J16" s="69"/>
+      <c r="J16" s="64"/>
     </row>
     <row r="17" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="8"/>
@@ -3990,18 +3953,18 @@
         <v>0.49999999999999983</v>
       </c>
       <c r="C17" s="20" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="16"/>
       <c r="F17" s="8"/>
-      <c r="G17" s="48"/>
-      <c r="H17" s="49"/>
-      <c r="I17" s="54">
+      <c r="G17" s="59"/>
+      <c r="H17" s="60"/>
+      <c r="I17" s="45">
         <f>'Daily Schedule SUN'!I17:J17</f>
         <v>0</v>
       </c>
-      <c r="J17" s="55"/>
+      <c r="J17" s="46"/>
     </row>
     <row r="18" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="8"/>
@@ -4010,20 +3973,20 @@
         <v>0.52083333333333315</v>
       </c>
       <c r="C18" s="21" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="17" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="F18" s="8"/>
-      <c r="G18" s="50"/>
-      <c r="H18" s="51"/>
-      <c r="I18" s="56">
+      <c r="G18" s="61"/>
+      <c r="H18" s="62"/>
+      <c r="I18" s="65">
         <f>'Daily Schedule SUN'!I18:J18</f>
         <v>0</v>
       </c>
-      <c r="J18" s="57"/>
+      <c r="J18" s="66"/>
     </row>
     <row r="19" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="8"/>
@@ -4032,21 +3995,21 @@
         <v>0.54166666666666652</v>
       </c>
       <c r="C19" s="20" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="16"/>
       <c r="F19" s="8"/>
-      <c r="G19" s="58">
+      <c r="G19" s="67">
         <f>G7+4</f>
         <v>42867</v>
       </c>
-      <c r="H19" s="59"/>
-      <c r="I19" s="64">
+      <c r="H19" s="68"/>
+      <c r="I19" s="69">
         <f>'Daily Schedule SUN'!I19:J19</f>
         <v>0</v>
       </c>
-      <c r="J19" s="65"/>
+      <c r="J19" s="70"/>
     </row>
     <row r="20" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="8"/>
@@ -4055,18 +4018,18 @@
         <v>0.56249999999999989</v>
       </c>
       <c r="C20" s="21" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="17"/>
       <c r="F20" s="8"/>
-      <c r="G20" s="60"/>
-      <c r="H20" s="61"/>
-      <c r="I20" s="52">
+      <c r="G20" s="41"/>
+      <c r="H20" s="42"/>
+      <c r="I20" s="47">
         <f>'Daily Schedule SUN'!I20:J20</f>
         <v>0</v>
       </c>
-      <c r="J20" s="53"/>
+      <c r="J20" s="48"/>
     </row>
     <row r="21" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="8"/>
@@ -4075,18 +4038,18 @@
         <v>0.58333333333333326</v>
       </c>
       <c r="C21" s="20" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="16"/>
       <c r="F21" s="8"/>
-      <c r="G21" s="62"/>
-      <c r="H21" s="63"/>
-      <c r="I21" s="66">
+      <c r="G21" s="43"/>
+      <c r="H21" s="44"/>
+      <c r="I21" s="49">
         <f>'Daily Schedule SUN'!I21:J21</f>
         <v>0</v>
       </c>
-      <c r="J21" s="67"/>
+      <c r="J21" s="50"/>
     </row>
     <row r="22" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="8"/>
@@ -4095,23 +4058,23 @@
         <v>0.60416666666666663</v>
       </c>
       <c r="C22" s="21" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="17" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="F22" s="8"/>
-      <c r="G22" s="46">
+      <c r="G22" s="57">
         <f>G7+5</f>
         <v>42868</v>
       </c>
-      <c r="H22" s="47"/>
-      <c r="I22" s="68">
+      <c r="H22" s="58"/>
+      <c r="I22" s="63">
         <f>'Daily Schedule SUN'!I22:J22</f>
         <v>0</v>
       </c>
-      <c r="J22" s="69"/>
+      <c r="J22" s="64"/>
     </row>
     <row r="23" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="8"/>
@@ -4120,18 +4083,18 @@
         <v>0.625</v>
       </c>
       <c r="C23" s="20" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="16"/>
       <c r="F23" s="8"/>
-      <c r="G23" s="48"/>
-      <c r="H23" s="49"/>
-      <c r="I23" s="54">
+      <c r="G23" s="59"/>
+      <c r="H23" s="60"/>
+      <c r="I23" s="45">
         <f>'Daily Schedule SUN'!I23:J23</f>
         <v>0</v>
       </c>
-      <c r="J23" s="55"/>
+      <c r="J23" s="46"/>
     </row>
     <row r="24" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="8"/>
@@ -4140,18 +4103,18 @@
         <v>0.64583333333333337</v>
       </c>
       <c r="C24" s="21" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="17"/>
       <c r="F24" s="8"/>
-      <c r="G24" s="50"/>
-      <c r="H24" s="51"/>
-      <c r="I24" s="56">
+      <c r="G24" s="61"/>
+      <c r="H24" s="62"/>
+      <c r="I24" s="65">
         <f>'Daily Schedule SUN'!I24:J24</f>
         <v>0</v>
       </c>
-      <c r="J24" s="57"/>
+      <c r="J24" s="66"/>
     </row>
     <row r="25" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="8"/>
@@ -4160,23 +4123,23 @@
         <v>0.66666666666666674</v>
       </c>
       <c r="C25" s="20" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="16" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="F25" s="8"/>
-      <c r="G25" s="58">
+      <c r="G25" s="67">
         <f>G7+6</f>
         <v>42869</v>
       </c>
-      <c r="H25" s="59"/>
-      <c r="I25" s="64">
+      <c r="H25" s="68"/>
+      <c r="I25" s="69">
         <f>'Daily Schedule SUN'!I25:J25</f>
         <v>0</v>
       </c>
-      <c r="J25" s="65"/>
+      <c r="J25" s="70"/>
     </row>
     <row r="26" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="8"/>
@@ -4185,18 +4148,18 @@
         <v>0.68750000000000011</v>
       </c>
       <c r="C26" s="21" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="17"/>
       <c r="F26" s="8"/>
-      <c r="G26" s="60"/>
-      <c r="H26" s="61"/>
-      <c r="I26" s="52">
+      <c r="G26" s="41"/>
+      <c r="H26" s="42"/>
+      <c r="I26" s="47">
         <f>'Daily Schedule SUN'!I26:J26</f>
         <v>0</v>
       </c>
-      <c r="J26" s="53"/>
+      <c r="J26" s="48"/>
     </row>
     <row r="27" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="8"/>
@@ -4205,18 +4168,18 @@
         <v>0.70833333333333348</v>
       </c>
       <c r="C27" s="20" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="16"/>
       <c r="F27" s="8"/>
-      <c r="G27" s="62"/>
-      <c r="H27" s="63"/>
-      <c r="I27" s="66">
+      <c r="G27" s="43"/>
+      <c r="H27" s="44"/>
+      <c r="I27" s="49">
         <f>'Daily Schedule SUN'!I27:J27</f>
         <v>0</v>
       </c>
-      <c r="J27" s="67"/>
+      <c r="J27" s="50"/>
     </row>
     <row r="28" spans="1:10" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="8"/>
@@ -4225,7 +4188,7 @@
         <v>0.72916666666666685</v>
       </c>
       <c r="C28" s="21" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="17"/>
@@ -4242,17 +4205,17 @@
         <v>0.75000000000000022</v>
       </c>
       <c r="C29" s="20" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="16"/>
       <c r="F29" s="8"/>
-      <c r="G29" s="37" t="s">
+      <c r="G29" s="71" t="s">
         <v>26</v>
       </c>
-      <c r="H29" s="38"/>
-      <c r="I29" s="38"/>
-      <c r="J29" s="39"/>
+      <c r="H29" s="72"/>
+      <c r="I29" s="72"/>
+      <c r="J29" s="73"/>
     </row>
     <row r="30" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="8"/>
@@ -4261,15 +4224,15 @@
         <v>0.77083333333333359</v>
       </c>
       <c r="C30" s="21" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="17"/>
       <c r="F30" s="8"/>
-      <c r="G30" s="40"/>
-      <c r="H30" s="41"/>
-      <c r="I30" s="41"/>
-      <c r="J30" s="42"/>
+      <c r="G30" s="74"/>
+      <c r="H30" s="75"/>
+      <c r="I30" s="75"/>
+      <c r="J30" s="76"/>
     </row>
     <row r="31" spans="1:10" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="8"/>
@@ -4281,10 +4244,10 @@
       <c r="D31" s="8"/>
       <c r="E31" s="16"/>
       <c r="F31" s="8"/>
-      <c r="G31" s="43"/>
-      <c r="H31" s="44"/>
-      <c r="I31" s="44"/>
-      <c r="J31" s="45"/>
+      <c r="G31" s="77"/>
+      <c r="H31" s="78"/>
+      <c r="I31" s="78"/>
+      <c r="J31" s="79"/>
     </row>
     <row r="32" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="8"/>
@@ -4408,30 +4371,6 @@
     </row>
   </sheetData>
   <mergeCells count="33">
-    <mergeCell ref="B2:C3"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="G5:J6"/>
-    <mergeCell ref="G7:H9"/>
-    <mergeCell ref="I7:J7"/>
-    <mergeCell ref="I8:J8"/>
-    <mergeCell ref="I9:J9"/>
-    <mergeCell ref="G10:H12"/>
-    <mergeCell ref="I10:J10"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="I12:J12"/>
-    <mergeCell ref="G13:H15"/>
-    <mergeCell ref="I13:J13"/>
-    <mergeCell ref="I14:J14"/>
-    <mergeCell ref="I15:J15"/>
-    <mergeCell ref="G16:H18"/>
-    <mergeCell ref="I16:J16"/>
-    <mergeCell ref="I17:J17"/>
-    <mergeCell ref="I18:J18"/>
-    <mergeCell ref="G19:H21"/>
-    <mergeCell ref="I19:J19"/>
-    <mergeCell ref="I20:J20"/>
-    <mergeCell ref="I21:J21"/>
     <mergeCell ref="G29:J31"/>
     <mergeCell ref="G22:H24"/>
     <mergeCell ref="I22:J22"/>
@@ -4441,6 +4380,30 @@
     <mergeCell ref="I25:J25"/>
     <mergeCell ref="I26:J26"/>
     <mergeCell ref="I27:J27"/>
+    <mergeCell ref="G16:H18"/>
+    <mergeCell ref="I16:J16"/>
+    <mergeCell ref="I17:J17"/>
+    <mergeCell ref="I18:J18"/>
+    <mergeCell ref="G19:H21"/>
+    <mergeCell ref="I19:J19"/>
+    <mergeCell ref="I20:J20"/>
+    <mergeCell ref="I21:J21"/>
+    <mergeCell ref="G10:H12"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="G13:H15"/>
+    <mergeCell ref="I13:J13"/>
+    <mergeCell ref="I14:J14"/>
+    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="B2:C3"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="G5:J6"/>
+    <mergeCell ref="G7:H9"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="I8:J8"/>
+    <mergeCell ref="I9:J9"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="G29" r:id="rId1"/>
@@ -4522,10 +4485,10 @@
     </row>
     <row r="2" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A2" s="8"/>
-      <c r="B2" s="70" t="s">
+      <c r="B2" s="38" t="s">
         <v>25</v>
       </c>
-      <c r="C2" s="70"/>
+      <c r="C2" s="38"/>
       <c r="D2" s="9"/>
       <c r="E2" s="12" t="s">
         <v>13</v>
@@ -4542,8 +4505,8 @@
     </row>
     <row r="3" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A3" s="8"/>
-      <c r="B3" s="70"/>
-      <c r="C3" s="70"/>
+      <c r="B3" s="38"/>
+      <c r="C3" s="38"/>
       <c r="D3" s="9"/>
       <c r="E3" s="13">
         <f>'Daily Schedule SUN'!E3</f>
@@ -4576,38 +4539,38 @@
     </row>
     <row r="5" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="8"/>
-      <c r="B5" s="71" t="s">
+      <c r="B5" s="39" t="s">
         <v>0</v>
       </c>
       <c r="C5" s="23" t="s">
         <v>20</v>
       </c>
       <c r="D5" s="8"/>
-      <c r="E5" s="72" t="s">
+      <c r="E5" s="40" t="s">
         <v>14</v>
       </c>
       <c r="F5" s="8"/>
-      <c r="G5" s="79" t="s">
+      <c r="G5" s="81" t="s">
         <v>15</v>
       </c>
-      <c r="H5" s="80"/>
-      <c r="I5" s="79"/>
-      <c r="J5" s="79"/>
+      <c r="H5" s="82"/>
+      <c r="I5" s="81"/>
+      <c r="J5" s="81"/>
     </row>
     <row r="6" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="8"/>
-      <c r="B6" s="71"/>
+      <c r="B6" s="39"/>
       <c r="C6" s="24">
         <f>E3+4</f>
         <v>42867</v>
       </c>
       <c r="D6" s="8"/>
-      <c r="E6" s="72"/>
+      <c r="E6" s="40"/>
       <c r="F6" s="8"/>
-      <c r="G6" s="79"/>
-      <c r="H6" s="79"/>
-      <c r="I6" s="79"/>
-      <c r="J6" s="79"/>
+      <c r="G6" s="81"/>
+      <c r="H6" s="81"/>
+      <c r="I6" s="81"/>
+      <c r="J6" s="81"/>
     </row>
     <row r="7" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="8"/>
@@ -4619,16 +4582,16 @@
       <c r="D7" s="8"/>
       <c r="E7" s="16"/>
       <c r="F7" s="8"/>
-      <c r="G7" s="58">
+      <c r="G7" s="67">
         <f>E3</f>
         <v>42863</v>
       </c>
-      <c r="H7" s="59"/>
-      <c r="I7" s="64">
+      <c r="H7" s="68"/>
+      <c r="I7" s="69">
         <f>'Daily Schedule SUN'!I7:J7</f>
         <v>0</v>
       </c>
-      <c r="J7" s="65"/>
+      <c r="J7" s="70"/>
     </row>
     <row r="8" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="8"/>
@@ -4640,13 +4603,13 @@
       <c r="D8" s="8"/>
       <c r="E8" s="17"/>
       <c r="F8" s="8"/>
-      <c r="G8" s="60"/>
-      <c r="H8" s="61"/>
-      <c r="I8" s="52">
+      <c r="G8" s="41"/>
+      <c r="H8" s="42"/>
+      <c r="I8" s="47">
         <f>'Daily Schedule SUN'!I8:J8</f>
         <v>0</v>
       </c>
-      <c r="J8" s="53"/>
+      <c r="J8" s="48"/>
     </row>
     <row r="9" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="8"/>
@@ -4658,13 +4621,13 @@
       <c r="D9" s="8"/>
       <c r="E9" s="16"/>
       <c r="F9" s="8"/>
-      <c r="G9" s="62"/>
-      <c r="H9" s="63"/>
-      <c r="I9" s="66">
+      <c r="G9" s="43"/>
+      <c r="H9" s="44"/>
+      <c r="I9" s="49">
         <f>'Daily Schedule SUN'!I9:J9</f>
         <v>0</v>
       </c>
-      <c r="J9" s="67"/>
+      <c r="J9" s="50"/>
     </row>
     <row r="10" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="8"/>
@@ -4676,16 +4639,16 @@
       <c r="D10" s="8"/>
       <c r="E10" s="17"/>
       <c r="F10" s="8"/>
-      <c r="G10" s="46">
+      <c r="G10" s="57">
         <f>G7+1</f>
         <v>42864</v>
       </c>
-      <c r="H10" s="47"/>
-      <c r="I10" s="68">
+      <c r="H10" s="58"/>
+      <c r="I10" s="63">
         <f>'Daily Schedule SUN'!I10:J10</f>
         <v>0</v>
       </c>
-      <c r="J10" s="69"/>
+      <c r="J10" s="64"/>
     </row>
     <row r="11" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="8"/>
@@ -4697,13 +4660,13 @@
       <c r="D11" s="8"/>
       <c r="E11" s="16"/>
       <c r="F11" s="8"/>
-      <c r="G11" s="48"/>
-      <c r="H11" s="49"/>
-      <c r="I11" s="54">
+      <c r="G11" s="59"/>
+      <c r="H11" s="60"/>
+      <c r="I11" s="45">
         <f>'Daily Schedule SUN'!I11:J11</f>
         <v>0</v>
       </c>
-      <c r="J11" s="55"/>
+      <c r="J11" s="46"/>
     </row>
     <row r="12" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="8"/>
@@ -4715,13 +4678,13 @@
       <c r="D12" s="8"/>
       <c r="E12" s="17"/>
       <c r="F12" s="8"/>
-      <c r="G12" s="50"/>
-      <c r="H12" s="51"/>
-      <c r="I12" s="56">
+      <c r="G12" s="61"/>
+      <c r="H12" s="62"/>
+      <c r="I12" s="65">
         <f>'Daily Schedule SUN'!I12:J12</f>
         <v>0</v>
       </c>
-      <c r="J12" s="57"/>
+      <c r="J12" s="66"/>
     </row>
     <row r="13" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="8"/>
@@ -4733,16 +4696,16 @@
       <c r="D13" s="8"/>
       <c r="E13" s="16"/>
       <c r="F13" s="8"/>
-      <c r="G13" s="58">
+      <c r="G13" s="67">
         <f>G7+2</f>
         <v>42865</v>
       </c>
-      <c r="H13" s="59"/>
-      <c r="I13" s="64">
+      <c r="H13" s="68"/>
+      <c r="I13" s="69">
         <f>'Daily Schedule SUN'!I13:J13</f>
         <v>0</v>
       </c>
-      <c r="J13" s="65"/>
+      <c r="J13" s="70"/>
     </row>
     <row r="14" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="8"/>
@@ -4754,13 +4717,13 @@
       <c r="D14" s="8"/>
       <c r="E14" s="17"/>
       <c r="F14" s="8"/>
-      <c r="G14" s="60"/>
-      <c r="H14" s="61"/>
-      <c r="I14" s="52">
+      <c r="G14" s="41"/>
+      <c r="H14" s="42"/>
+      <c r="I14" s="47">
         <f>'Daily Schedule SUN'!I14:J14</f>
         <v>0</v>
       </c>
-      <c r="J14" s="53"/>
+      <c r="J14" s="48"/>
     </row>
     <row r="15" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="8"/>
@@ -4772,13 +4735,13 @@
       <c r="D15" s="8"/>
       <c r="E15" s="16"/>
       <c r="F15" s="8"/>
-      <c r="G15" s="62"/>
-      <c r="H15" s="63"/>
-      <c r="I15" s="66">
+      <c r="G15" s="43"/>
+      <c r="H15" s="44"/>
+      <c r="I15" s="49">
         <f>'Daily Schedule SUN'!I15:J15</f>
         <v>0</v>
       </c>
-      <c r="J15" s="67"/>
+      <c r="J15" s="50"/>
     </row>
     <row r="16" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="8"/>
@@ -4790,16 +4753,16 @@
       <c r="D16" s="8"/>
       <c r="E16" s="17"/>
       <c r="F16" s="8"/>
-      <c r="G16" s="46">
+      <c r="G16" s="57">
         <f>G7+3</f>
         <v>42866</v>
       </c>
-      <c r="H16" s="47"/>
-      <c r="I16" s="68">
+      <c r="H16" s="58"/>
+      <c r="I16" s="63">
         <f>'Daily Schedule SUN'!I16:J16</f>
         <v>0</v>
       </c>
-      <c r="J16" s="69"/>
+      <c r="J16" s="64"/>
     </row>
     <row r="17" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="8"/>
@@ -4811,13 +4774,13 @@
       <c r="D17" s="8"/>
       <c r="E17" s="16"/>
       <c r="F17" s="8"/>
-      <c r="G17" s="48"/>
-      <c r="H17" s="49"/>
-      <c r="I17" s="54">
+      <c r="G17" s="59"/>
+      <c r="H17" s="60"/>
+      <c r="I17" s="45">
         <f>'Daily Schedule SUN'!I17:J17</f>
         <v>0</v>
       </c>
-      <c r="J17" s="55"/>
+      <c r="J17" s="46"/>
     </row>
     <row r="18" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="8"/>
@@ -4829,13 +4792,13 @@
       <c r="D18" s="8"/>
       <c r="E18" s="17"/>
       <c r="F18" s="8"/>
-      <c r="G18" s="50"/>
-      <c r="H18" s="51"/>
-      <c r="I18" s="56">
+      <c r="G18" s="61"/>
+      <c r="H18" s="62"/>
+      <c r="I18" s="65">
         <f>'Daily Schedule SUN'!I18:J18</f>
         <v>0</v>
       </c>
-      <c r="J18" s="57"/>
+      <c r="J18" s="66"/>
     </row>
     <row r="19" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="8"/>
@@ -4847,16 +4810,16 @@
       <c r="D19" s="8"/>
       <c r="E19" s="16"/>
       <c r="F19" s="8"/>
-      <c r="G19" s="58">
+      <c r="G19" s="67">
         <f>G7+4</f>
         <v>42867</v>
       </c>
-      <c r="H19" s="59"/>
-      <c r="I19" s="64">
+      <c r="H19" s="68"/>
+      <c r="I19" s="69">
         <f>'Daily Schedule SUN'!I19:J19</f>
         <v>0</v>
       </c>
-      <c r="J19" s="65"/>
+      <c r="J19" s="70"/>
     </row>
     <row r="20" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="8"/>
@@ -4868,13 +4831,13 @@
       <c r="D20" s="8"/>
       <c r="E20" s="17"/>
       <c r="F20" s="8"/>
-      <c r="G20" s="60"/>
-      <c r="H20" s="61"/>
-      <c r="I20" s="52">
+      <c r="G20" s="41"/>
+      <c r="H20" s="42"/>
+      <c r="I20" s="47">
         <f>'Daily Schedule SUN'!I20:J20</f>
         <v>0</v>
       </c>
-      <c r="J20" s="53"/>
+      <c r="J20" s="48"/>
     </row>
     <row r="21" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="8"/>
@@ -4886,13 +4849,13 @@
       <c r="D21" s="8"/>
       <c r="E21" s="16"/>
       <c r="F21" s="8"/>
-      <c r="G21" s="62"/>
-      <c r="H21" s="63"/>
-      <c r="I21" s="66">
+      <c r="G21" s="43"/>
+      <c r="H21" s="44"/>
+      <c r="I21" s="49">
         <f>'Daily Schedule SUN'!I21:J21</f>
         <v>0</v>
       </c>
-      <c r="J21" s="67"/>
+      <c r="J21" s="50"/>
     </row>
     <row r="22" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="8"/>
@@ -4904,16 +4867,16 @@
       <c r="D22" s="8"/>
       <c r="E22" s="17"/>
       <c r="F22" s="8"/>
-      <c r="G22" s="46">
+      <c r="G22" s="57">
         <f>G7+5</f>
         <v>42868</v>
       </c>
-      <c r="H22" s="47"/>
-      <c r="I22" s="68">
+      <c r="H22" s="58"/>
+      <c r="I22" s="63">
         <f>'Daily Schedule SUN'!I22:J22</f>
         <v>0</v>
       </c>
-      <c r="J22" s="69"/>
+      <c r="J22" s="64"/>
     </row>
     <row r="23" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="8"/>
@@ -4925,13 +4888,13 @@
       <c r="D23" s="8"/>
       <c r="E23" s="16"/>
       <c r="F23" s="8"/>
-      <c r="G23" s="48"/>
-      <c r="H23" s="49"/>
-      <c r="I23" s="54">
+      <c r="G23" s="59"/>
+      <c r="H23" s="60"/>
+      <c r="I23" s="45">
         <f>'Daily Schedule SUN'!I23:J23</f>
         <v>0</v>
       </c>
-      <c r="J23" s="55"/>
+      <c r="J23" s="46"/>
     </row>
     <row r="24" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="8"/>
@@ -4943,13 +4906,13 @@
       <c r="D24" s="8"/>
       <c r="E24" s="17"/>
       <c r="F24" s="8"/>
-      <c r="G24" s="50"/>
-      <c r="H24" s="51"/>
-      <c r="I24" s="56">
+      <c r="G24" s="61"/>
+      <c r="H24" s="62"/>
+      <c r="I24" s="65">
         <f>'Daily Schedule SUN'!I24:J24</f>
         <v>0</v>
       </c>
-      <c r="J24" s="57"/>
+      <c r="J24" s="66"/>
     </row>
     <row r="25" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="8"/>
@@ -4961,16 +4924,16 @@
       <c r="D25" s="8"/>
       <c r="E25" s="16"/>
       <c r="F25" s="8"/>
-      <c r="G25" s="58">
+      <c r="G25" s="67">
         <f>G7+6</f>
         <v>42869</v>
       </c>
-      <c r="H25" s="59"/>
-      <c r="I25" s="64">
+      <c r="H25" s="68"/>
+      <c r="I25" s="69">
         <f>'Daily Schedule SUN'!I25:J25</f>
         <v>0</v>
       </c>
-      <c r="J25" s="65"/>
+      <c r="J25" s="70"/>
     </row>
     <row r="26" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="8"/>
@@ -4982,13 +4945,13 @@
       <c r="D26" s="8"/>
       <c r="E26" s="17"/>
       <c r="F26" s="8"/>
-      <c r="G26" s="60"/>
-      <c r="H26" s="61"/>
-      <c r="I26" s="52">
+      <c r="G26" s="41"/>
+      <c r="H26" s="42"/>
+      <c r="I26" s="47">
         <f>'Daily Schedule SUN'!I26:J26</f>
         <v>0</v>
       </c>
-      <c r="J26" s="53"/>
+      <c r="J26" s="48"/>
     </row>
     <row r="27" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="8"/>
@@ -5000,13 +4963,13 @@
       <c r="D27" s="8"/>
       <c r="E27" s="16"/>
       <c r="F27" s="8"/>
-      <c r="G27" s="62"/>
-      <c r="H27" s="63"/>
-      <c r="I27" s="66">
+      <c r="G27" s="43"/>
+      <c r="H27" s="44"/>
+      <c r="I27" s="49">
         <f>'Daily Schedule SUN'!I27:J27</f>
         <v>0</v>
       </c>
-      <c r="J27" s="67"/>
+      <c r="J27" s="50"/>
     </row>
     <row r="28" spans="1:10" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="8"/>
@@ -5033,12 +4996,12 @@
       <c r="D29" s="8"/>
       <c r="E29" s="16"/>
       <c r="F29" s="8"/>
-      <c r="G29" s="37" t="s">
+      <c r="G29" s="71" t="s">
         <v>26</v>
       </c>
-      <c r="H29" s="38"/>
-      <c r="I29" s="38"/>
-      <c r="J29" s="39"/>
+      <c r="H29" s="72"/>
+      <c r="I29" s="72"/>
+      <c r="J29" s="73"/>
     </row>
     <row r="30" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="8"/>
@@ -5050,10 +5013,10 @@
       <c r="D30" s="8"/>
       <c r="E30" s="17"/>
       <c r="F30" s="8"/>
-      <c r="G30" s="40"/>
-      <c r="H30" s="41"/>
-      <c r="I30" s="41"/>
-      <c r="J30" s="42"/>
+      <c r="G30" s="74"/>
+      <c r="H30" s="75"/>
+      <c r="I30" s="75"/>
+      <c r="J30" s="76"/>
     </row>
     <row r="31" spans="1:10" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="8"/>
@@ -5065,10 +5028,10 @@
       <c r="D31" s="8"/>
       <c r="E31" s="16"/>
       <c r="F31" s="8"/>
-      <c r="G31" s="43"/>
-      <c r="H31" s="44"/>
-      <c r="I31" s="44"/>
-      <c r="J31" s="45"/>
+      <c r="G31" s="77"/>
+      <c r="H31" s="78"/>
+      <c r="I31" s="78"/>
+      <c r="J31" s="79"/>
     </row>
     <row r="32" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="8"/>
@@ -5192,30 +5155,6 @@
     </row>
   </sheetData>
   <mergeCells count="33">
-    <mergeCell ref="B2:C3"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="G5:J6"/>
-    <mergeCell ref="G7:H9"/>
-    <mergeCell ref="I7:J7"/>
-    <mergeCell ref="I8:J8"/>
-    <mergeCell ref="I9:J9"/>
-    <mergeCell ref="G10:H12"/>
-    <mergeCell ref="I10:J10"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="I12:J12"/>
-    <mergeCell ref="G13:H15"/>
-    <mergeCell ref="I13:J13"/>
-    <mergeCell ref="I14:J14"/>
-    <mergeCell ref="I15:J15"/>
-    <mergeCell ref="G16:H18"/>
-    <mergeCell ref="I16:J16"/>
-    <mergeCell ref="I17:J17"/>
-    <mergeCell ref="I18:J18"/>
-    <mergeCell ref="G19:H21"/>
-    <mergeCell ref="I19:J19"/>
-    <mergeCell ref="I20:J20"/>
-    <mergeCell ref="I21:J21"/>
     <mergeCell ref="G29:J31"/>
     <mergeCell ref="G22:H24"/>
     <mergeCell ref="I22:J22"/>
@@ -5225,6 +5164,30 @@
     <mergeCell ref="I25:J25"/>
     <mergeCell ref="I26:J26"/>
     <mergeCell ref="I27:J27"/>
+    <mergeCell ref="G16:H18"/>
+    <mergeCell ref="I16:J16"/>
+    <mergeCell ref="I17:J17"/>
+    <mergeCell ref="I18:J18"/>
+    <mergeCell ref="G19:H21"/>
+    <mergeCell ref="I19:J19"/>
+    <mergeCell ref="I20:J20"/>
+    <mergeCell ref="I21:J21"/>
+    <mergeCell ref="G10:H12"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="G13:H15"/>
+    <mergeCell ref="I13:J13"/>
+    <mergeCell ref="I14:J14"/>
+    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="B2:C3"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="G5:J6"/>
+    <mergeCell ref="G7:H9"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="I8:J8"/>
+    <mergeCell ref="I9:J9"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="G29" r:id="rId1"/>
@@ -5273,8 +5236,8 @@
   </sheetPr>
   <dimension ref="A1:J39"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A11" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="80" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+    <sheetView showGridLines="0" topLeftCell="A11" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="80" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14:C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -5306,10 +5269,10 @@
     </row>
     <row r="2" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A2" s="8"/>
-      <c r="B2" s="70" t="s">
+      <c r="B2" s="38" t="s">
         <v>25</v>
       </c>
-      <c r="C2" s="70"/>
+      <c r="C2" s="38"/>
       <c r="D2" s="9"/>
       <c r="E2" s="12" t="s">
         <v>13</v>
@@ -5326,8 +5289,8 @@
     </row>
     <row r="3" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A3" s="8"/>
-      <c r="B3" s="70"/>
-      <c r="C3" s="70"/>
+      <c r="B3" s="38"/>
+      <c r="C3" s="38"/>
       <c r="D3" s="9"/>
       <c r="E3" s="13">
         <f>'Daily Schedule SUN'!E3</f>
@@ -5360,38 +5323,38 @@
     </row>
     <row r="5" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="8"/>
-      <c r="B5" s="71" t="s">
+      <c r="B5" s="39" t="s">
         <v>0</v>
       </c>
       <c r="C5" s="23" t="s">
         <v>21</v>
       </c>
       <c r="D5" s="8"/>
-      <c r="E5" s="72" t="s">
+      <c r="E5" s="40" t="s">
         <v>14</v>
       </c>
       <c r="F5" s="8"/>
-      <c r="G5" s="79" t="s">
+      <c r="G5" s="81" t="s">
         <v>15</v>
       </c>
-      <c r="H5" s="80"/>
-      <c r="I5" s="79"/>
-      <c r="J5" s="79"/>
+      <c r="H5" s="82"/>
+      <c r="I5" s="81"/>
+      <c r="J5" s="81"/>
     </row>
     <row r="6" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="8"/>
-      <c r="B6" s="71"/>
+      <c r="B6" s="39"/>
       <c r="C6" s="24">
         <f>E3+5</f>
         <v>42868</v>
       </c>
       <c r="D6" s="8"/>
-      <c r="E6" s="72"/>
+      <c r="E6" s="40"/>
       <c r="F6" s="8"/>
-      <c r="G6" s="79"/>
-      <c r="H6" s="79"/>
-      <c r="I6" s="79"/>
-      <c r="J6" s="79"/>
+      <c r="G6" s="81"/>
+      <c r="H6" s="81"/>
+      <c r="I6" s="81"/>
+      <c r="J6" s="81"/>
     </row>
     <row r="7" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="8"/>
@@ -5403,16 +5366,16 @@
       <c r="D7" s="8"/>
       <c r="E7" s="16"/>
       <c r="F7" s="8"/>
-      <c r="G7" s="58">
+      <c r="G7" s="67">
         <f>E3</f>
         <v>42863</v>
       </c>
-      <c r="H7" s="59"/>
-      <c r="I7" s="64">
+      <c r="H7" s="68"/>
+      <c r="I7" s="69">
         <f>'Daily Schedule SUN'!I7:J7</f>
         <v>0</v>
       </c>
-      <c r="J7" s="65"/>
+      <c r="J7" s="70"/>
     </row>
     <row r="8" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="8"/>
@@ -5424,13 +5387,13 @@
       <c r="D8" s="8"/>
       <c r="E8" s="17"/>
       <c r="F8" s="8"/>
-      <c r="G8" s="60"/>
-      <c r="H8" s="61"/>
-      <c r="I8" s="52">
+      <c r="G8" s="41"/>
+      <c r="H8" s="42"/>
+      <c r="I8" s="47">
         <f>'Daily Schedule SUN'!I8:J8</f>
         <v>0</v>
       </c>
-      <c r="J8" s="53"/>
+      <c r="J8" s="48"/>
     </row>
     <row r="9" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="8"/>
@@ -5442,13 +5405,13 @@
       <c r="D9" s="8"/>
       <c r="E9" s="16"/>
       <c r="F9" s="8"/>
-      <c r="G9" s="62"/>
-      <c r="H9" s="63"/>
-      <c r="I9" s="66">
+      <c r="G9" s="43"/>
+      <c r="H9" s="44"/>
+      <c r="I9" s="49">
         <f>'Daily Schedule SUN'!I9:J9</f>
         <v>0</v>
       </c>
-      <c r="J9" s="67"/>
+      <c r="J9" s="50"/>
     </row>
     <row r="10" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="8"/>
@@ -5460,16 +5423,16 @@
       <c r="D10" s="8"/>
       <c r="E10" s="17"/>
       <c r="F10" s="8"/>
-      <c r="G10" s="46">
+      <c r="G10" s="57">
         <f>G7+1</f>
         <v>42864</v>
       </c>
-      <c r="H10" s="47"/>
-      <c r="I10" s="68">
+      <c r="H10" s="58"/>
+      <c r="I10" s="63">
         <f>'Daily Schedule SUN'!I10:J10</f>
         <v>0</v>
       </c>
-      <c r="J10" s="69"/>
+      <c r="J10" s="64"/>
     </row>
     <row r="11" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="8"/>
@@ -5481,13 +5444,13 @@
       <c r="D11" s="8"/>
       <c r="E11" s="16"/>
       <c r="F11" s="8"/>
-      <c r="G11" s="48"/>
-      <c r="H11" s="49"/>
-      <c r="I11" s="54">
+      <c r="G11" s="59"/>
+      <c r="H11" s="60"/>
+      <c r="I11" s="45">
         <f>'Daily Schedule SUN'!I11:J11</f>
         <v>0</v>
       </c>
-      <c r="J11" s="55"/>
+      <c r="J11" s="46"/>
     </row>
     <row r="12" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="8"/>
@@ -5499,13 +5462,13 @@
       <c r="D12" s="8"/>
       <c r="E12" s="17"/>
       <c r="F12" s="8"/>
-      <c r="G12" s="50"/>
-      <c r="H12" s="51"/>
-      <c r="I12" s="56">
+      <c r="G12" s="61"/>
+      <c r="H12" s="62"/>
+      <c r="I12" s="65">
         <f>'Daily Schedule SUN'!I12:J12</f>
         <v>0</v>
       </c>
-      <c r="J12" s="57"/>
+      <c r="J12" s="66"/>
     </row>
     <row r="13" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="8"/>
@@ -5517,16 +5480,16 @@
       <c r="D13" s="8"/>
       <c r="E13" s="16"/>
       <c r="F13" s="8"/>
-      <c r="G13" s="58">
+      <c r="G13" s="67">
         <f>G7+2</f>
         <v>42865</v>
       </c>
-      <c r="H13" s="59"/>
-      <c r="I13" s="64">
+      <c r="H13" s="68"/>
+      <c r="I13" s="69">
         <f>'Daily Schedule SUN'!I13:J13</f>
         <v>0</v>
       </c>
-      <c r="J13" s="65"/>
+      <c r="J13" s="70"/>
     </row>
     <row r="14" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="8"/>
@@ -5535,20 +5498,20 @@
         <v>0.43749999999999989</v>
       </c>
       <c r="C14" s="29" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="D14" s="8"/>
-      <c r="E14" s="82" t="s">
-        <v>47</v>
+      <c r="E14" s="37" t="s">
+        <v>38</v>
       </c>
       <c r="F14" s="8"/>
-      <c r="G14" s="60"/>
-      <c r="H14" s="61"/>
-      <c r="I14" s="52">
+      <c r="G14" s="41"/>
+      <c r="H14" s="42"/>
+      <c r="I14" s="47">
         <f>'Daily Schedule SUN'!I14:J14</f>
         <v>0</v>
       </c>
-      <c r="J14" s="53"/>
+      <c r="J14" s="48"/>
     </row>
     <row r="15" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="8"/>
@@ -5557,20 +5520,20 @@
         <v>0.4583333333333332</v>
       </c>
       <c r="C15" s="30" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="36" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="F15" s="8"/>
-      <c r="G15" s="62"/>
-      <c r="H15" s="63"/>
-      <c r="I15" s="66">
+      <c r="G15" s="43"/>
+      <c r="H15" s="44"/>
+      <c r="I15" s="49">
         <f>'Daily Schedule SUN'!I15:J15</f>
         <v>0</v>
       </c>
-      <c r="J15" s="67"/>
+      <c r="J15" s="50"/>
     </row>
     <row r="16" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="8"/>
@@ -5579,21 +5542,21 @@
         <v>0.47916666666666652</v>
       </c>
       <c r="C16" s="29" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="17"/>
       <c r="F16" s="8"/>
-      <c r="G16" s="46">
+      <c r="G16" s="57">
         <f>G7+3</f>
         <v>42866</v>
       </c>
-      <c r="H16" s="47"/>
-      <c r="I16" s="68">
+      <c r="H16" s="58"/>
+      <c r="I16" s="63">
         <f>'Daily Schedule SUN'!I16:J16</f>
         <v>0</v>
       </c>
-      <c r="J16" s="69"/>
+      <c r="J16" s="64"/>
     </row>
     <row r="17" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="8"/>
@@ -5602,18 +5565,18 @@
         <v>0.49999999999999983</v>
       </c>
       <c r="C17" s="30" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="16"/>
       <c r="F17" s="8"/>
-      <c r="G17" s="48"/>
-      <c r="H17" s="49"/>
-      <c r="I17" s="54">
+      <c r="G17" s="59"/>
+      <c r="H17" s="60"/>
+      <c r="I17" s="45">
         <f>'Daily Schedule SUN'!I17:J17</f>
         <v>0</v>
       </c>
-      <c r="J17" s="55"/>
+      <c r="J17" s="46"/>
     </row>
     <row r="18" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="8"/>
@@ -5622,18 +5585,18 @@
         <v>0.52083333333333315</v>
       </c>
       <c r="C18" s="29" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="17"/>
       <c r="F18" s="8"/>
-      <c r="G18" s="50"/>
-      <c r="H18" s="51"/>
-      <c r="I18" s="56">
+      <c r="G18" s="61"/>
+      <c r="H18" s="62"/>
+      <c r="I18" s="65">
         <f>'Daily Schedule SUN'!I18:J18</f>
         <v>0</v>
       </c>
-      <c r="J18" s="57"/>
+      <c r="J18" s="66"/>
     </row>
     <row r="19" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="8"/>
@@ -5642,21 +5605,21 @@
         <v>0.54166666666666652</v>
       </c>
       <c r="C19" s="30" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="16"/>
       <c r="F19" s="8"/>
-      <c r="G19" s="58">
+      <c r="G19" s="67">
         <f>G7+4</f>
         <v>42867</v>
       </c>
-      <c r="H19" s="59"/>
-      <c r="I19" s="64">
+      <c r="H19" s="68"/>
+      <c r="I19" s="69">
         <f>'Daily Schedule SUN'!I19:J19</f>
         <v>0</v>
       </c>
-      <c r="J19" s="65"/>
+      <c r="J19" s="70"/>
     </row>
     <row r="20" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="8"/>
@@ -5668,13 +5631,13 @@
       <c r="D20" s="8"/>
       <c r="E20" s="17"/>
       <c r="F20" s="8"/>
-      <c r="G20" s="60"/>
-      <c r="H20" s="61"/>
-      <c r="I20" s="52">
+      <c r="G20" s="41"/>
+      <c r="H20" s="42"/>
+      <c r="I20" s="47">
         <f>'Daily Schedule SUN'!I20:J20</f>
         <v>0</v>
       </c>
-      <c r="J20" s="53"/>
+      <c r="J20" s="48"/>
     </row>
     <row r="21" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="8"/>
@@ -5686,13 +5649,13 @@
       <c r="D21" s="8"/>
       <c r="E21" s="16"/>
       <c r="F21" s="8"/>
-      <c r="G21" s="62"/>
-      <c r="H21" s="63"/>
-      <c r="I21" s="66">
+      <c r="G21" s="43"/>
+      <c r="H21" s="44"/>
+      <c r="I21" s="49">
         <f>'Daily Schedule SUN'!I21:J21</f>
         <v>0</v>
       </c>
-      <c r="J21" s="67"/>
+      <c r="J21" s="50"/>
     </row>
     <row r="22" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="8"/>
@@ -5704,16 +5667,16 @@
       <c r="D22" s="8"/>
       <c r="E22" s="17"/>
       <c r="F22" s="8"/>
-      <c r="G22" s="46">
+      <c r="G22" s="57">
         <f>G7+5</f>
         <v>42868</v>
       </c>
-      <c r="H22" s="47"/>
-      <c r="I22" s="68">
+      <c r="H22" s="58"/>
+      <c r="I22" s="63">
         <f>'Daily Schedule SUN'!I22:J22</f>
         <v>0</v>
       </c>
-      <c r="J22" s="69"/>
+      <c r="J22" s="64"/>
     </row>
     <row r="23" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="8"/>
@@ -5725,13 +5688,13 @@
       <c r="D23" s="8"/>
       <c r="E23" s="16"/>
       <c r="F23" s="8"/>
-      <c r="G23" s="48"/>
-      <c r="H23" s="49"/>
-      <c r="I23" s="54">
+      <c r="G23" s="59"/>
+      <c r="H23" s="60"/>
+      <c r="I23" s="45">
         <f>'Daily Schedule SUN'!I23:J23</f>
         <v>0</v>
       </c>
-      <c r="J23" s="55"/>
+      <c r="J23" s="46"/>
     </row>
     <row r="24" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="8"/>
@@ -5743,13 +5706,13 @@
       <c r="D24" s="8"/>
       <c r="E24" s="17"/>
       <c r="F24" s="8"/>
-      <c r="G24" s="50"/>
-      <c r="H24" s="51"/>
-      <c r="I24" s="56">
+      <c r="G24" s="61"/>
+      <c r="H24" s="62"/>
+      <c r="I24" s="65">
         <f>'Daily Schedule SUN'!I24:J24</f>
         <v>0</v>
       </c>
-      <c r="J24" s="57"/>
+      <c r="J24" s="66"/>
     </row>
     <row r="25" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="8"/>
@@ -5761,16 +5724,16 @@
       <c r="D25" s="8"/>
       <c r="E25" s="16"/>
       <c r="F25" s="8"/>
-      <c r="G25" s="58">
+      <c r="G25" s="67">
         <f>G7+6</f>
         <v>42869</v>
       </c>
-      <c r="H25" s="59"/>
-      <c r="I25" s="64">
+      <c r="H25" s="68"/>
+      <c r="I25" s="69">
         <f>'Daily Schedule SUN'!I25:J25</f>
         <v>0</v>
       </c>
-      <c r="J25" s="65"/>
+      <c r="J25" s="70"/>
     </row>
     <row r="26" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="8"/>
@@ -5782,13 +5745,13 @@
       <c r="D26" s="8"/>
       <c r="E26" s="17"/>
       <c r="F26" s="8"/>
-      <c r="G26" s="60"/>
-      <c r="H26" s="61"/>
-      <c r="I26" s="52">
+      <c r="G26" s="41"/>
+      <c r="H26" s="42"/>
+      <c r="I26" s="47">
         <f>'Daily Schedule SUN'!I26:J26</f>
         <v>0</v>
       </c>
-      <c r="J26" s="53"/>
+      <c r="J26" s="48"/>
     </row>
     <row r="27" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="8"/>
@@ -5800,13 +5763,13 @@
       <c r="D27" s="8"/>
       <c r="E27" s="16"/>
       <c r="F27" s="8"/>
-      <c r="G27" s="62"/>
-      <c r="H27" s="63"/>
-      <c r="I27" s="66">
+      <c r="G27" s="43"/>
+      <c r="H27" s="44"/>
+      <c r="I27" s="49">
         <f>'Daily Schedule SUN'!I27:J27</f>
         <v>0</v>
       </c>
-      <c r="J27" s="67"/>
+      <c r="J27" s="50"/>
     </row>
     <row r="28" spans="1:10" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="8"/>
@@ -5833,12 +5796,12 @@
       <c r="D29" s="8"/>
       <c r="E29" s="16"/>
       <c r="F29" s="8"/>
-      <c r="G29" s="37" t="s">
+      <c r="G29" s="71" t="s">
         <v>26</v>
       </c>
-      <c r="H29" s="38"/>
-      <c r="I29" s="38"/>
-      <c r="J29" s="39"/>
+      <c r="H29" s="72"/>
+      <c r="I29" s="72"/>
+      <c r="J29" s="73"/>
     </row>
     <row r="30" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="8"/>
@@ -5850,10 +5813,10 @@
       <c r="D30" s="8"/>
       <c r="E30" s="17"/>
       <c r="F30" s="8"/>
-      <c r="G30" s="40"/>
-      <c r="H30" s="41"/>
-      <c r="I30" s="41"/>
-      <c r="J30" s="42"/>
+      <c r="G30" s="74"/>
+      <c r="H30" s="75"/>
+      <c r="I30" s="75"/>
+      <c r="J30" s="76"/>
     </row>
     <row r="31" spans="1:10" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="8"/>
@@ -5865,10 +5828,10 @@
       <c r="D31" s="8"/>
       <c r="E31" s="16"/>
       <c r="F31" s="8"/>
-      <c r="G31" s="43"/>
-      <c r="H31" s="44"/>
-      <c r="I31" s="44"/>
-      <c r="J31" s="45"/>
+      <c r="G31" s="77"/>
+      <c r="H31" s="78"/>
+      <c r="I31" s="78"/>
+      <c r="J31" s="79"/>
     </row>
     <row r="32" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="8"/>
@@ -5992,30 +5955,6 @@
     </row>
   </sheetData>
   <mergeCells count="33">
-    <mergeCell ref="B2:C3"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="G5:J6"/>
-    <mergeCell ref="G7:H9"/>
-    <mergeCell ref="I7:J7"/>
-    <mergeCell ref="I8:J8"/>
-    <mergeCell ref="I9:J9"/>
-    <mergeCell ref="G10:H12"/>
-    <mergeCell ref="I10:J10"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="I12:J12"/>
-    <mergeCell ref="G13:H15"/>
-    <mergeCell ref="I13:J13"/>
-    <mergeCell ref="I14:J14"/>
-    <mergeCell ref="I15:J15"/>
-    <mergeCell ref="G16:H18"/>
-    <mergeCell ref="I16:J16"/>
-    <mergeCell ref="I17:J17"/>
-    <mergeCell ref="I18:J18"/>
-    <mergeCell ref="G19:H21"/>
-    <mergeCell ref="I19:J19"/>
-    <mergeCell ref="I20:J20"/>
-    <mergeCell ref="I21:J21"/>
     <mergeCell ref="G29:J31"/>
     <mergeCell ref="G22:H24"/>
     <mergeCell ref="I22:J22"/>
@@ -6025,6 +5964,30 @@
     <mergeCell ref="I25:J25"/>
     <mergeCell ref="I26:J26"/>
     <mergeCell ref="I27:J27"/>
+    <mergeCell ref="G16:H18"/>
+    <mergeCell ref="I16:J16"/>
+    <mergeCell ref="I17:J17"/>
+    <mergeCell ref="I18:J18"/>
+    <mergeCell ref="G19:H21"/>
+    <mergeCell ref="I19:J19"/>
+    <mergeCell ref="I20:J20"/>
+    <mergeCell ref="I21:J21"/>
+    <mergeCell ref="G10:H12"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="G13:H15"/>
+    <mergeCell ref="I13:J13"/>
+    <mergeCell ref="I14:J14"/>
+    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="B2:C3"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="G5:J6"/>
+    <mergeCell ref="G7:H9"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="I8:J8"/>
+    <mergeCell ref="I9:J9"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="G29" r:id="rId1"/>
@@ -6106,10 +6069,10 @@
     </row>
     <row r="2" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A2" s="8"/>
-      <c r="B2" s="70" t="s">
+      <c r="B2" s="38" t="s">
         <v>25</v>
       </c>
-      <c r="C2" s="70"/>
+      <c r="C2" s="38"/>
       <c r="D2" s="9"/>
       <c r="E2" s="12" t="s">
         <v>13</v>
@@ -6126,8 +6089,8 @@
     </row>
     <row r="3" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A3" s="8"/>
-      <c r="B3" s="70"/>
-      <c r="C3" s="70"/>
+      <c r="B3" s="38"/>
+      <c r="C3" s="38"/>
       <c r="D3" s="9"/>
       <c r="E3" s="13">
         <f>'Daily Schedule SUN'!E3</f>
@@ -6160,38 +6123,38 @@
     </row>
     <row r="5" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="8"/>
-      <c r="B5" s="71" t="s">
+      <c r="B5" s="39" t="s">
         <v>0</v>
       </c>
       <c r="C5" s="23" t="s">
         <v>22</v>
       </c>
       <c r="D5" s="8"/>
-      <c r="E5" s="72" t="s">
+      <c r="E5" s="40" t="s">
         <v>14</v>
       </c>
       <c r="F5" s="8"/>
-      <c r="G5" s="79" t="s">
+      <c r="G5" s="81" t="s">
         <v>15</v>
       </c>
-      <c r="H5" s="80"/>
-      <c r="I5" s="79"/>
-      <c r="J5" s="79"/>
+      <c r="H5" s="82"/>
+      <c r="I5" s="81"/>
+      <c r="J5" s="81"/>
     </row>
     <row r="6" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="8"/>
-      <c r="B6" s="71"/>
+      <c r="B6" s="39"/>
       <c r="C6" s="24">
         <f>E3+6</f>
         <v>42869</v>
       </c>
       <c r="D6" s="8"/>
-      <c r="E6" s="72"/>
+      <c r="E6" s="40"/>
       <c r="F6" s="8"/>
-      <c r="G6" s="79"/>
-      <c r="H6" s="79"/>
-      <c r="I6" s="79"/>
-      <c r="J6" s="79"/>
+      <c r="G6" s="81"/>
+      <c r="H6" s="81"/>
+      <c r="I6" s="81"/>
+      <c r="J6" s="81"/>
     </row>
     <row r="7" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="8"/>
@@ -6203,16 +6166,16 @@
       <c r="D7" s="8"/>
       <c r="E7" s="16"/>
       <c r="F7" s="8"/>
-      <c r="G7" s="58">
+      <c r="G7" s="67">
         <f>E3</f>
         <v>42863</v>
       </c>
-      <c r="H7" s="59"/>
-      <c r="I7" s="64">
+      <c r="H7" s="68"/>
+      <c r="I7" s="69">
         <f>'Daily Schedule SUN'!I7:J7</f>
         <v>0</v>
       </c>
-      <c r="J7" s="65"/>
+      <c r="J7" s="70"/>
     </row>
     <row r="8" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="8"/>
@@ -6224,13 +6187,13 @@
       <c r="D8" s="8"/>
       <c r="E8" s="17"/>
       <c r="F8" s="8"/>
-      <c r="G8" s="60"/>
-      <c r="H8" s="61"/>
-      <c r="I8" s="52">
+      <c r="G8" s="41"/>
+      <c r="H8" s="42"/>
+      <c r="I8" s="47">
         <f>'Daily Schedule SUN'!I8:J8</f>
         <v>0</v>
       </c>
-      <c r="J8" s="53"/>
+      <c r="J8" s="48"/>
     </row>
     <row r="9" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="8"/>
@@ -6242,13 +6205,13 @@
       <c r="D9" s="8"/>
       <c r="E9" s="16"/>
       <c r="F9" s="8"/>
-      <c r="G9" s="62"/>
-      <c r="H9" s="63"/>
-      <c r="I9" s="66">
+      <c r="G9" s="43"/>
+      <c r="H9" s="44"/>
+      <c r="I9" s="49">
         <f>'Daily Schedule SUN'!I9:J9</f>
         <v>0</v>
       </c>
-      <c r="J9" s="67"/>
+      <c r="J9" s="50"/>
     </row>
     <row r="10" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="8"/>
@@ -6260,16 +6223,16 @@
       <c r="D10" s="8"/>
       <c r="E10" s="17"/>
       <c r="F10" s="8"/>
-      <c r="G10" s="46">
+      <c r="G10" s="57">
         <f>G7+1</f>
         <v>42864</v>
       </c>
-      <c r="H10" s="47"/>
-      <c r="I10" s="68">
+      <c r="H10" s="58"/>
+      <c r="I10" s="63">
         <f>'Daily Schedule SUN'!I10:J10</f>
         <v>0</v>
       </c>
-      <c r="J10" s="69"/>
+      <c r="J10" s="64"/>
     </row>
     <row r="11" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="8"/>
@@ -6281,13 +6244,13 @@
       <c r="D11" s="8"/>
       <c r="E11" s="16"/>
       <c r="F11" s="8"/>
-      <c r="G11" s="48"/>
-      <c r="H11" s="49"/>
-      <c r="I11" s="54">
+      <c r="G11" s="59"/>
+      <c r="H11" s="60"/>
+      <c r="I11" s="45">
         <f>'Daily Schedule SUN'!I11:J11</f>
         <v>0</v>
       </c>
-      <c r="J11" s="55"/>
+      <c r="J11" s="46"/>
     </row>
     <row r="12" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="8"/>
@@ -6299,13 +6262,13 @@
       <c r="D12" s="8"/>
       <c r="E12" s="17"/>
       <c r="F12" s="8"/>
-      <c r="G12" s="50"/>
-      <c r="H12" s="51"/>
-      <c r="I12" s="56">
+      <c r="G12" s="61"/>
+      <c r="H12" s="62"/>
+      <c r="I12" s="65">
         <f>'Daily Schedule SUN'!I12:J12</f>
         <v>0</v>
       </c>
-      <c r="J12" s="57"/>
+      <c r="J12" s="66"/>
     </row>
     <row r="13" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="8"/>
@@ -6317,16 +6280,16 @@
       <c r="D13" s="8"/>
       <c r="E13" s="16"/>
       <c r="F13" s="8"/>
-      <c r="G13" s="58">
+      <c r="G13" s="67">
         <f>G7+2</f>
         <v>42865</v>
       </c>
-      <c r="H13" s="59"/>
-      <c r="I13" s="64">
+      <c r="H13" s="68"/>
+      <c r="I13" s="69">
         <f>'Daily Schedule SUN'!I13:J13</f>
         <v>0</v>
       </c>
-      <c r="J13" s="65"/>
+      <c r="J13" s="70"/>
     </row>
     <row r="14" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="8"/>
@@ -6338,13 +6301,13 @@
       <c r="D14" s="8"/>
       <c r="E14" s="17"/>
       <c r="F14" s="8"/>
-      <c r="G14" s="60"/>
-      <c r="H14" s="61"/>
-      <c r="I14" s="52">
+      <c r="G14" s="41"/>
+      <c r="H14" s="42"/>
+      <c r="I14" s="47">
         <f>'Daily Schedule SUN'!I14:J14</f>
         <v>0</v>
       </c>
-      <c r="J14" s="53"/>
+      <c r="J14" s="48"/>
     </row>
     <row r="15" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="8"/>
@@ -6356,13 +6319,13 @@
       <c r="D15" s="8"/>
       <c r="E15" s="16"/>
       <c r="F15" s="8"/>
-      <c r="G15" s="62"/>
-      <c r="H15" s="63"/>
-      <c r="I15" s="66">
+      <c r="G15" s="43"/>
+      <c r="H15" s="44"/>
+      <c r="I15" s="49">
         <f>'Daily Schedule SUN'!I15:J15</f>
         <v>0</v>
       </c>
-      <c r="J15" s="67"/>
+      <c r="J15" s="50"/>
     </row>
     <row r="16" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="8"/>
@@ -6374,16 +6337,16 @@
       <c r="D16" s="8"/>
       <c r="E16" s="17"/>
       <c r="F16" s="8"/>
-      <c r="G16" s="46">
+      <c r="G16" s="57">
         <f>G7+3</f>
         <v>42866</v>
       </c>
-      <c r="H16" s="47"/>
-      <c r="I16" s="68">
+      <c r="H16" s="58"/>
+      <c r="I16" s="63">
         <f>'Daily Schedule SUN'!I16:J16</f>
         <v>0</v>
       </c>
-      <c r="J16" s="69"/>
+      <c r="J16" s="64"/>
     </row>
     <row r="17" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="8"/>
@@ -6395,13 +6358,13 @@
       <c r="D17" s="8"/>
       <c r="E17" s="16"/>
       <c r="F17" s="8"/>
-      <c r="G17" s="48"/>
-      <c r="H17" s="49"/>
-      <c r="I17" s="54">
+      <c r="G17" s="59"/>
+      <c r="H17" s="60"/>
+      <c r="I17" s="45">
         <f>'Daily Schedule SUN'!I17:J17</f>
         <v>0</v>
       </c>
-      <c r="J17" s="55"/>
+      <c r="J17" s="46"/>
     </row>
     <row r="18" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="8"/>
@@ -6413,13 +6376,13 @@
       <c r="D18" s="8"/>
       <c r="E18" s="17"/>
       <c r="F18" s="8"/>
-      <c r="G18" s="50"/>
-      <c r="H18" s="51"/>
-      <c r="I18" s="56">
+      <c r="G18" s="61"/>
+      <c r="H18" s="62"/>
+      <c r="I18" s="65">
         <f>'Daily Schedule SUN'!I18:J18</f>
         <v>0</v>
       </c>
-      <c r="J18" s="57"/>
+      <c r="J18" s="66"/>
     </row>
     <row r="19" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="8"/>
@@ -6431,16 +6394,16 @@
       <c r="D19" s="8"/>
       <c r="E19" s="16"/>
       <c r="F19" s="8"/>
-      <c r="G19" s="58">
+      <c r="G19" s="67">
         <f>G7+4</f>
         <v>42867</v>
       </c>
-      <c r="H19" s="59"/>
-      <c r="I19" s="64">
+      <c r="H19" s="68"/>
+      <c r="I19" s="69">
         <f>'Daily Schedule SUN'!I19:J19</f>
         <v>0</v>
       </c>
-      <c r="J19" s="65"/>
+      <c r="J19" s="70"/>
     </row>
     <row r="20" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="8"/>
@@ -6452,13 +6415,13 @@
       <c r="D20" s="8"/>
       <c r="E20" s="17"/>
       <c r="F20" s="8"/>
-      <c r="G20" s="60"/>
-      <c r="H20" s="61"/>
-      <c r="I20" s="52">
+      <c r="G20" s="41"/>
+      <c r="H20" s="42"/>
+      <c r="I20" s="47">
         <f>'Daily Schedule SUN'!I20:J20</f>
         <v>0</v>
       </c>
-      <c r="J20" s="53"/>
+      <c r="J20" s="48"/>
     </row>
     <row r="21" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="8"/>
@@ -6470,13 +6433,13 @@
       <c r="D21" s="8"/>
       <c r="E21" s="16"/>
       <c r="F21" s="8"/>
-      <c r="G21" s="62"/>
-      <c r="H21" s="63"/>
-      <c r="I21" s="66">
+      <c r="G21" s="43"/>
+      <c r="H21" s="44"/>
+      <c r="I21" s="49">
         <f>'Daily Schedule SUN'!I21:J21</f>
         <v>0</v>
       </c>
-      <c r="J21" s="67"/>
+      <c r="J21" s="50"/>
     </row>
     <row r="22" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="8"/>
@@ -6488,16 +6451,16 @@
       <c r="D22" s="8"/>
       <c r="E22" s="17"/>
       <c r="F22" s="8"/>
-      <c r="G22" s="46">
+      <c r="G22" s="57">
         <f>G7+5</f>
         <v>42868</v>
       </c>
-      <c r="H22" s="47"/>
-      <c r="I22" s="68">
+      <c r="H22" s="58"/>
+      <c r="I22" s="63">
         <f>'Daily Schedule SUN'!I22:J22</f>
         <v>0</v>
       </c>
-      <c r="J22" s="69"/>
+      <c r="J22" s="64"/>
     </row>
     <row r="23" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="8"/>
@@ -6509,13 +6472,13 @@
       <c r="D23" s="8"/>
       <c r="E23" s="16"/>
       <c r="F23" s="8"/>
-      <c r="G23" s="48"/>
-      <c r="H23" s="49"/>
-      <c r="I23" s="54">
+      <c r="G23" s="59"/>
+      <c r="H23" s="60"/>
+      <c r="I23" s="45">
         <f>'Daily Schedule SUN'!I23:J23</f>
         <v>0</v>
       </c>
-      <c r="J23" s="55"/>
+      <c r="J23" s="46"/>
     </row>
     <row r="24" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="8"/>
@@ -6527,13 +6490,13 @@
       <c r="D24" s="8"/>
       <c r="E24" s="17"/>
       <c r="F24" s="8"/>
-      <c r="G24" s="50"/>
-      <c r="H24" s="51"/>
-      <c r="I24" s="56">
+      <c r="G24" s="61"/>
+      <c r="H24" s="62"/>
+      <c r="I24" s="65">
         <f>'Daily Schedule SUN'!I24:J24</f>
         <v>0</v>
       </c>
-      <c r="J24" s="57"/>
+      <c r="J24" s="66"/>
     </row>
     <row r="25" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="8"/>
@@ -6545,16 +6508,16 @@
       <c r="D25" s="8"/>
       <c r="E25" s="16"/>
       <c r="F25" s="8"/>
-      <c r="G25" s="58">
+      <c r="G25" s="67">
         <f>G7+6</f>
         <v>42869</v>
       </c>
-      <c r="H25" s="59"/>
-      <c r="I25" s="64">
+      <c r="H25" s="68"/>
+      <c r="I25" s="69">
         <f>'Daily Schedule SUN'!I25:J25</f>
         <v>0</v>
       </c>
-      <c r="J25" s="65"/>
+      <c r="J25" s="70"/>
     </row>
     <row r="26" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="8"/>
@@ -6566,13 +6529,13 @@
       <c r="D26" s="8"/>
       <c r="E26" s="17"/>
       <c r="F26" s="8"/>
-      <c r="G26" s="60"/>
-      <c r="H26" s="61"/>
-      <c r="I26" s="52">
+      <c r="G26" s="41"/>
+      <c r="H26" s="42"/>
+      <c r="I26" s="47">
         <f>'Daily Schedule SUN'!I26:J26</f>
         <v>0</v>
       </c>
-      <c r="J26" s="53"/>
+      <c r="J26" s="48"/>
     </row>
     <row r="27" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="8"/>
@@ -6584,13 +6547,13 @@
       <c r="D27" s="8"/>
       <c r="E27" s="16"/>
       <c r="F27" s="8"/>
-      <c r="G27" s="62"/>
-      <c r="H27" s="63"/>
-      <c r="I27" s="66">
+      <c r="G27" s="43"/>
+      <c r="H27" s="44"/>
+      <c r="I27" s="49">
         <f>'Daily Schedule SUN'!I27:J27</f>
         <v>0</v>
       </c>
-      <c r="J27" s="67"/>
+      <c r="J27" s="50"/>
     </row>
     <row r="28" spans="1:10" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="8"/>
@@ -6617,12 +6580,12 @@
       <c r="D29" s="8"/>
       <c r="E29" s="16"/>
       <c r="F29" s="8"/>
-      <c r="G29" s="37" t="s">
+      <c r="G29" s="71" t="s">
         <v>26</v>
       </c>
-      <c r="H29" s="38"/>
-      <c r="I29" s="38"/>
-      <c r="J29" s="39"/>
+      <c r="H29" s="72"/>
+      <c r="I29" s="72"/>
+      <c r="J29" s="73"/>
     </row>
     <row r="30" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="8"/>
@@ -6634,10 +6597,10 @@
       <c r="D30" s="8"/>
       <c r="E30" s="17"/>
       <c r="F30" s="8"/>
-      <c r="G30" s="40"/>
-      <c r="H30" s="41"/>
-      <c r="I30" s="41"/>
-      <c r="J30" s="42"/>
+      <c r="G30" s="74"/>
+      <c r="H30" s="75"/>
+      <c r="I30" s="75"/>
+      <c r="J30" s="76"/>
     </row>
     <row r="31" spans="1:10" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="8"/>
@@ -6649,10 +6612,10 @@
       <c r="D31" s="8"/>
       <c r="E31" s="16"/>
       <c r="F31" s="8"/>
-      <c r="G31" s="43"/>
-      <c r="H31" s="44"/>
-      <c r="I31" s="44"/>
-      <c r="J31" s="45"/>
+      <c r="G31" s="77"/>
+      <c r="H31" s="78"/>
+      <c r="I31" s="78"/>
+      <c r="J31" s="79"/>
     </row>
     <row r="32" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="8"/>
@@ -6776,30 +6739,6 @@
     </row>
   </sheetData>
   <mergeCells count="33">
-    <mergeCell ref="B2:C3"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="G5:J6"/>
-    <mergeCell ref="G7:H9"/>
-    <mergeCell ref="I7:J7"/>
-    <mergeCell ref="I8:J8"/>
-    <mergeCell ref="I9:J9"/>
-    <mergeCell ref="G10:H12"/>
-    <mergeCell ref="I10:J10"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="I12:J12"/>
-    <mergeCell ref="G13:H15"/>
-    <mergeCell ref="I13:J13"/>
-    <mergeCell ref="I14:J14"/>
-    <mergeCell ref="I15:J15"/>
-    <mergeCell ref="G16:H18"/>
-    <mergeCell ref="I16:J16"/>
-    <mergeCell ref="I17:J17"/>
-    <mergeCell ref="I18:J18"/>
-    <mergeCell ref="G19:H21"/>
-    <mergeCell ref="I19:J19"/>
-    <mergeCell ref="I20:J20"/>
-    <mergeCell ref="I21:J21"/>
     <mergeCell ref="G29:J31"/>
     <mergeCell ref="G22:H24"/>
     <mergeCell ref="I22:J22"/>
@@ -6809,6 +6748,30 @@
     <mergeCell ref="I25:J25"/>
     <mergeCell ref="I26:J26"/>
     <mergeCell ref="I27:J27"/>
+    <mergeCell ref="G16:H18"/>
+    <mergeCell ref="I16:J16"/>
+    <mergeCell ref="I17:J17"/>
+    <mergeCell ref="I18:J18"/>
+    <mergeCell ref="G19:H21"/>
+    <mergeCell ref="I19:J19"/>
+    <mergeCell ref="I20:J20"/>
+    <mergeCell ref="I21:J21"/>
+    <mergeCell ref="G10:H12"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="G13:H15"/>
+    <mergeCell ref="I13:J13"/>
+    <mergeCell ref="I14:J14"/>
+    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="B2:C3"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="G5:J6"/>
+    <mergeCell ref="G7:H9"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="I8:J8"/>
+    <mergeCell ref="I9:J9"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="G29" r:id="rId1"/>

--- a/daily-work-schedule-template.xlsx
+++ b/daily-work-schedule-template.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14380" windowHeight="4090" tabRatio="500" firstSheet="1" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14380" windowHeight="4090" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Daily Schedule SUN" sheetId="4" r:id="rId1"/>
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="38">
   <si>
     <t>TIME</t>
   </si>
@@ -132,55 +132,10 @@
     <t>Create Your Schedule in Smartsheet</t>
   </si>
   <si>
-    <t>Get domain host running</t>
-  </si>
-  <si>
-    <t>Create users table in DB</t>
-  </si>
-  <si>
     <t>Lunch</t>
   </si>
   <si>
-    <t>Confirm application works with server</t>
-  </si>
-  <si>
-    <t>Start designing volunteers website</t>
-  </si>
-  <si>
-    <t>Put volunteers website on server</t>
-  </si>
-  <si>
-    <t>Try audio</t>
-  </si>
-  <si>
-    <t>Couldn't get it up and running</t>
-  </si>
-  <si>
-    <t>Didn't do this</t>
-  </si>
-  <si>
-    <t>Started volunteers website</t>
-  </si>
-  <si>
     <t>Continue work on volunteers website</t>
-  </si>
-  <si>
-    <t>Create volunteers table in ooievaar</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lunch </t>
-  </si>
-  <si>
-    <t>Confirm applications work with server</t>
-  </si>
-  <si>
-    <t>Done. But only works with tunneling localhost</t>
-  </si>
-  <si>
-    <t>Will work on it when I get home</t>
-  </si>
-  <si>
-    <t>Closed at 3pm</t>
   </si>
   <si>
     <t>Work on volunteers front page</t>
@@ -190,6 +145,24 @@
   </si>
   <si>
     <t>Build users table</t>
+  </si>
+  <si>
+    <t>Get audio file to uploads folder</t>
+  </si>
+  <si>
+    <t>Put audio file path to database</t>
+  </si>
+  <si>
+    <t>Query database to play audio</t>
+  </si>
+  <si>
+    <t>Done</t>
+  </si>
+  <si>
+    <t>Experienced problems</t>
+  </si>
+  <si>
+    <t>Closed at 6:09pm</t>
   </si>
 </sst>
 </file>
@@ -815,6 +788,105 @@
     <xf numFmtId="0" fontId="19" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="10" fillId="13" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="10" fillId="13" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="10" fillId="13" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="10" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="10" fillId="13" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="10" fillId="13" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="10" fillId="17" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="10" fillId="17" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="10" fillId="17" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="10" fillId="17" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="10" fillId="17" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="10" fillId="17" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -824,36 +896,6 @@
     <xf numFmtId="0" fontId="6" fillId="12" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="10" fillId="17" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="10" fillId="17" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="10" fillId="17" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="10" fillId="17" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="13" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -872,82 +914,13 @@
     <xf numFmtId="0" fontId="11" fillId="13" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="165" fontId="10" fillId="13" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="10" fillId="13" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="10" fillId="13" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="10" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="10" fillId="13" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="10" fillId="13" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="10" fillId="17" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="10" fillId="17" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="10" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="13" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="13" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1273,7 +1246,7 @@
   <dimension ref="A1:J39"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="80" workbookViewId="0">
-      <selection activeCell="K3" sqref="K3"/>
+      <selection activeCell="L11" sqref="L11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.69140625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -1305,10 +1278,10 @@
     </row>
     <row r="2" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.65">
       <c r="A2" s="8"/>
-      <c r="B2" s="37" t="s">
+      <c r="B2" s="70" t="s">
         <v>25</v>
       </c>
-      <c r="C2" s="37"/>
+      <c r="C2" s="70"/>
       <c r="D2" s="9"/>
       <c r="E2" s="12" t="s">
         <v>13</v>
@@ -1325,11 +1298,11 @@
     </row>
     <row r="3" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.65">
       <c r="A3" s="8"/>
-      <c r="B3" s="37"/>
-      <c r="C3" s="37"/>
+      <c r="B3" s="70"/>
+      <c r="C3" s="70"/>
       <c r="D3" s="9"/>
       <c r="E3" s="13">
-        <v>42863</v>
+        <v>42876</v>
       </c>
       <c r="F3" s="9"/>
       <c r="G3" s="14">
@@ -1358,40 +1331,40 @@
     </row>
     <row r="5" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="8"/>
-      <c r="B5" s="38" t="s">
+      <c r="B5" s="71" t="s">
         <v>0</v>
       </c>
       <c r="C5" s="23" t="s">
         <v>17</v>
       </c>
       <c r="D5" s="8"/>
-      <c r="E5" s="39" t="s">
+      <c r="E5" s="72" t="s">
         <v>14</v>
       </c>
       <c r="F5" s="8"/>
-      <c r="G5" s="50" t="s">
+      <c r="G5" s="73" t="s">
         <v>23</v>
       </c>
-      <c r="H5" s="51"/>
-      <c r="I5" s="51"/>
-      <c r="J5" s="52"/>
+      <c r="H5" s="74"/>
+      <c r="I5" s="74"/>
+      <c r="J5" s="75"/>
     </row>
     <row r="6" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="8"/>
-      <c r="B6" s="38"/>
+      <c r="B6" s="71"/>
       <c r="C6" s="24">
         <f>E3</f>
-        <v>42863</v>
+        <v>42876</v>
       </c>
       <c r="D6" s="8"/>
-      <c r="E6" s="39"/>
+      <c r="E6" s="72"/>
       <c r="F6" s="8"/>
-      <c r="G6" s="53" t="s">
+      <c r="G6" s="76" t="s">
         <v>24</v>
       </c>
-      <c r="H6" s="54"/>
-      <c r="I6" s="54"/>
-      <c r="J6" s="55"/>
+      <c r="H6" s="77"/>
+      <c r="I6" s="77"/>
+      <c r="J6" s="78"/>
     </row>
     <row r="7" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="8"/>
@@ -1403,13 +1376,13 @@
       <c r="D7" s="8"/>
       <c r="E7" s="16"/>
       <c r="F7" s="8"/>
-      <c r="G7" s="40">
+      <c r="G7" s="60">
         <f>E3</f>
-        <v>42863</v>
-      </c>
-      <c r="H7" s="41"/>
-      <c r="I7" s="44"/>
-      <c r="J7" s="45"/>
+        <v>42876</v>
+      </c>
+      <c r="H7" s="61"/>
+      <c r="I7" s="54"/>
+      <c r="J7" s="55"/>
     </row>
     <row r="8" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="8"/>
@@ -1421,10 +1394,10 @@
       <c r="D8" s="8"/>
       <c r="E8" s="17"/>
       <c r="F8" s="8"/>
-      <c r="G8" s="40"/>
-      <c r="H8" s="41"/>
-      <c r="I8" s="46"/>
-      <c r="J8" s="47"/>
+      <c r="G8" s="60"/>
+      <c r="H8" s="61"/>
+      <c r="I8" s="52"/>
+      <c r="J8" s="53"/>
     </row>
     <row r="9" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="8"/>
@@ -1436,10 +1409,10 @@
       <c r="D9" s="8"/>
       <c r="E9" s="16"/>
       <c r="F9" s="8"/>
-      <c r="G9" s="42"/>
-      <c r="H9" s="43"/>
-      <c r="I9" s="48"/>
-      <c r="J9" s="49"/>
+      <c r="G9" s="62"/>
+      <c r="H9" s="63"/>
+      <c r="I9" s="66"/>
+      <c r="J9" s="67"/>
     </row>
     <row r="10" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="8"/>
@@ -1451,13 +1424,13 @@
       <c r="D10" s="8"/>
       <c r="E10" s="17"/>
       <c r="F10" s="8"/>
-      <c r="G10" s="56">
+      <c r="G10" s="46">
         <f>G7+1</f>
-        <v>42864</v>
-      </c>
-      <c r="H10" s="57"/>
-      <c r="I10" s="62"/>
-      <c r="J10" s="63"/>
+        <v>42877</v>
+      </c>
+      <c r="H10" s="47"/>
+      <c r="I10" s="68"/>
+      <c r="J10" s="69"/>
     </row>
     <row r="11" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="8"/>
@@ -1469,10 +1442,10 @@
       <c r="D11" s="8"/>
       <c r="E11" s="16"/>
       <c r="F11" s="8"/>
-      <c r="G11" s="58"/>
-      <c r="H11" s="59"/>
-      <c r="I11" s="44"/>
-      <c r="J11" s="45"/>
+      <c r="G11" s="48"/>
+      <c r="H11" s="49"/>
+      <c r="I11" s="54"/>
+      <c r="J11" s="55"/>
     </row>
     <row r="12" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="8"/>
@@ -1484,10 +1457,10 @@
       <c r="D12" s="8"/>
       <c r="E12" s="17"/>
       <c r="F12" s="8"/>
-      <c r="G12" s="60"/>
-      <c r="H12" s="61"/>
-      <c r="I12" s="64"/>
-      <c r="J12" s="65"/>
+      <c r="G12" s="50"/>
+      <c r="H12" s="51"/>
+      <c r="I12" s="56"/>
+      <c r="J12" s="57"/>
     </row>
     <row r="13" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="8"/>
@@ -1499,13 +1472,13 @@
       <c r="D13" s="8"/>
       <c r="E13" s="16"/>
       <c r="F13" s="8"/>
-      <c r="G13" s="66">
+      <c r="G13" s="58">
         <f>G7+2</f>
-        <v>42865</v>
-      </c>
-      <c r="H13" s="67"/>
-      <c r="I13" s="68"/>
-      <c r="J13" s="69"/>
+        <v>42878</v>
+      </c>
+      <c r="H13" s="59"/>
+      <c r="I13" s="64"/>
+      <c r="J13" s="65"/>
     </row>
     <row r="14" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="8"/>
@@ -1517,10 +1490,10 @@
       <c r="D14" s="8"/>
       <c r="E14" s="17"/>
       <c r="F14" s="8"/>
-      <c r="G14" s="40"/>
-      <c r="H14" s="41"/>
-      <c r="I14" s="46"/>
-      <c r="J14" s="47"/>
+      <c r="G14" s="60"/>
+      <c r="H14" s="61"/>
+      <c r="I14" s="52"/>
+      <c r="J14" s="53"/>
     </row>
     <row r="15" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="8"/>
@@ -1532,10 +1505,10 @@
       <c r="D15" s="8"/>
       <c r="E15" s="16"/>
       <c r="F15" s="8"/>
-      <c r="G15" s="42"/>
-      <c r="H15" s="43"/>
-      <c r="I15" s="48"/>
-      <c r="J15" s="49"/>
+      <c r="G15" s="62"/>
+      <c r="H15" s="63"/>
+      <c r="I15" s="66"/>
+      <c r="J15" s="67"/>
     </row>
     <row r="16" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="8"/>
@@ -1547,13 +1520,13 @@
       <c r="D16" s="8"/>
       <c r="E16" s="17"/>
       <c r="F16" s="8"/>
-      <c r="G16" s="56">
+      <c r="G16" s="46">
         <f>G7+3</f>
-        <v>42866</v>
-      </c>
-      <c r="H16" s="57"/>
-      <c r="I16" s="62"/>
-      <c r="J16" s="63"/>
+        <v>42879</v>
+      </c>
+      <c r="H16" s="47"/>
+      <c r="I16" s="68"/>
+      <c r="J16" s="69"/>
     </row>
     <row r="17" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="8"/>
@@ -1565,10 +1538,10 @@
       <c r="D17" s="8"/>
       <c r="E17" s="16"/>
       <c r="F17" s="8"/>
-      <c r="G17" s="58"/>
-      <c r="H17" s="59"/>
-      <c r="I17" s="44"/>
-      <c r="J17" s="45"/>
+      <c r="G17" s="48"/>
+      <c r="H17" s="49"/>
+      <c r="I17" s="54"/>
+      <c r="J17" s="55"/>
     </row>
     <row r="18" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="8"/>
@@ -1580,10 +1553,10 @@
       <c r="D18" s="8"/>
       <c r="E18" s="17"/>
       <c r="F18" s="8"/>
-      <c r="G18" s="60"/>
-      <c r="H18" s="61"/>
-      <c r="I18" s="64"/>
-      <c r="J18" s="65"/>
+      <c r="G18" s="50"/>
+      <c r="H18" s="51"/>
+      <c r="I18" s="56"/>
+      <c r="J18" s="57"/>
     </row>
     <row r="19" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="8"/>
@@ -1595,13 +1568,13 @@
       <c r="D19" s="8"/>
       <c r="E19" s="16"/>
       <c r="F19" s="8"/>
-      <c r="G19" s="66">
+      <c r="G19" s="58">
         <f>G7+4</f>
-        <v>42867</v>
-      </c>
-      <c r="H19" s="67"/>
-      <c r="I19" s="68"/>
-      <c r="J19" s="69"/>
+        <v>42880</v>
+      </c>
+      <c r="H19" s="59"/>
+      <c r="I19" s="64"/>
+      <c r="J19" s="65"/>
     </row>
     <row r="20" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="8"/>
@@ -1613,10 +1586,10 @@
       <c r="D20" s="8"/>
       <c r="E20" s="17"/>
       <c r="F20" s="8"/>
-      <c r="G20" s="40"/>
-      <c r="H20" s="41"/>
-      <c r="I20" s="46"/>
-      <c r="J20" s="47"/>
+      <c r="G20" s="60"/>
+      <c r="H20" s="61"/>
+      <c r="I20" s="52"/>
+      <c r="J20" s="53"/>
     </row>
     <row r="21" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="8"/>
@@ -1628,10 +1601,10 @@
       <c r="D21" s="8"/>
       <c r="E21" s="16"/>
       <c r="F21" s="8"/>
-      <c r="G21" s="42"/>
-      <c r="H21" s="43"/>
-      <c r="I21" s="48"/>
-      <c r="J21" s="49"/>
+      <c r="G21" s="62"/>
+      <c r="H21" s="63"/>
+      <c r="I21" s="66"/>
+      <c r="J21" s="67"/>
     </row>
     <row r="22" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="8"/>
@@ -1643,13 +1616,13 @@
       <c r="D22" s="8"/>
       <c r="E22" s="17"/>
       <c r="F22" s="8"/>
-      <c r="G22" s="56">
+      <c r="G22" s="46">
         <f>G7+5</f>
-        <v>42868</v>
-      </c>
-      <c r="H22" s="57"/>
-      <c r="I22" s="46"/>
-      <c r="J22" s="47"/>
+        <v>42881</v>
+      </c>
+      <c r="H22" s="47"/>
+      <c r="I22" s="52"/>
+      <c r="J22" s="53"/>
     </row>
     <row r="23" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="8"/>
@@ -1661,10 +1634,10 @@
       <c r="D23" s="8"/>
       <c r="E23" s="16"/>
       <c r="F23" s="8"/>
-      <c r="G23" s="58"/>
-      <c r="H23" s="59"/>
-      <c r="I23" s="44"/>
-      <c r="J23" s="45"/>
+      <c r="G23" s="48"/>
+      <c r="H23" s="49"/>
+      <c r="I23" s="54"/>
+      <c r="J23" s="55"/>
     </row>
     <row r="24" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="8"/>
@@ -1676,10 +1649,10 @@
       <c r="D24" s="8"/>
       <c r="E24" s="17"/>
       <c r="F24" s="8"/>
-      <c r="G24" s="60"/>
-      <c r="H24" s="61"/>
-      <c r="I24" s="64"/>
-      <c r="J24" s="65"/>
+      <c r="G24" s="50"/>
+      <c r="H24" s="51"/>
+      <c r="I24" s="56"/>
+      <c r="J24" s="57"/>
     </row>
     <row r="25" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="8"/>
@@ -1691,13 +1664,13 @@
       <c r="D25" s="8"/>
       <c r="E25" s="16"/>
       <c r="F25" s="8"/>
-      <c r="G25" s="66">
+      <c r="G25" s="58">
         <f>G7+6</f>
-        <v>42869</v>
-      </c>
-      <c r="H25" s="67"/>
-      <c r="I25" s="68"/>
-      <c r="J25" s="69"/>
+        <v>42882</v>
+      </c>
+      <c r="H25" s="59"/>
+      <c r="I25" s="64"/>
+      <c r="J25" s="65"/>
     </row>
     <row r="26" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="8"/>
@@ -1709,10 +1682,10 @@
       <c r="D26" s="8"/>
       <c r="E26" s="17"/>
       <c r="F26" s="8"/>
-      <c r="G26" s="40"/>
-      <c r="H26" s="41"/>
-      <c r="I26" s="46"/>
-      <c r="J26" s="47"/>
+      <c r="G26" s="60"/>
+      <c r="H26" s="61"/>
+      <c r="I26" s="52"/>
+      <c r="J26" s="53"/>
     </row>
     <row r="27" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="8"/>
@@ -1724,10 +1697,10 @@
       <c r="D27" s="8"/>
       <c r="E27" s="16"/>
       <c r="F27" s="8"/>
-      <c r="G27" s="42"/>
-      <c r="H27" s="43"/>
-      <c r="I27" s="48"/>
-      <c r="J27" s="49"/>
+      <c r="G27" s="62"/>
+      <c r="H27" s="63"/>
+      <c r="I27" s="66"/>
+      <c r="J27" s="67"/>
     </row>
     <row r="28" spans="1:10" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A28" s="8"/>
@@ -1754,12 +1727,12 @@
       <c r="D29" s="8"/>
       <c r="E29" s="16"/>
       <c r="F29" s="8"/>
-      <c r="G29" s="70" t="s">
+      <c r="G29" s="37" t="s">
         <v>26</v>
       </c>
-      <c r="H29" s="71"/>
-      <c r="I29" s="71"/>
-      <c r="J29" s="72"/>
+      <c r="H29" s="38"/>
+      <c r="I29" s="38"/>
+      <c r="J29" s="39"/>
     </row>
     <row r="30" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30" s="8"/>
@@ -1771,10 +1744,10 @@
       <c r="D30" s="8"/>
       <c r="E30" s="17"/>
       <c r="F30" s="8"/>
-      <c r="G30" s="73"/>
-      <c r="H30" s="74"/>
-      <c r="I30" s="74"/>
-      <c r="J30" s="75"/>
+      <c r="G30" s="40"/>
+      <c r="H30" s="41"/>
+      <c r="I30" s="41"/>
+      <c r="J30" s="42"/>
     </row>
     <row r="31" spans="1:10" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A31" s="8"/>
@@ -1786,10 +1759,10 @@
       <c r="D31" s="8"/>
       <c r="E31" s="16"/>
       <c r="F31" s="8"/>
-      <c r="G31" s="76"/>
-      <c r="H31" s="77"/>
-      <c r="I31" s="77"/>
-      <c r="J31" s="78"/>
+      <c r="G31" s="43"/>
+      <c r="H31" s="44"/>
+      <c r="I31" s="44"/>
+      <c r="J31" s="45"/>
     </row>
     <row r="32" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A32" s="8"/>
@@ -1913,6 +1886,31 @@
     </row>
   </sheetData>
   <mergeCells count="34">
+    <mergeCell ref="B2:C3"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="G7:H9"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="I8:J8"/>
+    <mergeCell ref="I9:J9"/>
+    <mergeCell ref="G5:J5"/>
+    <mergeCell ref="G6:J6"/>
+    <mergeCell ref="G10:H12"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="G13:H15"/>
+    <mergeCell ref="I13:J13"/>
+    <mergeCell ref="I14:J14"/>
+    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="G16:H18"/>
+    <mergeCell ref="I16:J16"/>
+    <mergeCell ref="I17:J17"/>
+    <mergeCell ref="I18:J18"/>
+    <mergeCell ref="G19:H21"/>
+    <mergeCell ref="I19:J19"/>
+    <mergeCell ref="I20:J20"/>
+    <mergeCell ref="I21:J21"/>
     <mergeCell ref="G29:J31"/>
     <mergeCell ref="G22:H24"/>
     <mergeCell ref="I22:J22"/>
@@ -1922,31 +1920,6 @@
     <mergeCell ref="I25:J25"/>
     <mergeCell ref="I26:J26"/>
     <mergeCell ref="I27:J27"/>
-    <mergeCell ref="G16:H18"/>
-    <mergeCell ref="I16:J16"/>
-    <mergeCell ref="I17:J17"/>
-    <mergeCell ref="I18:J18"/>
-    <mergeCell ref="G19:H21"/>
-    <mergeCell ref="I19:J19"/>
-    <mergeCell ref="I20:J20"/>
-    <mergeCell ref="I21:J21"/>
-    <mergeCell ref="G10:H12"/>
-    <mergeCell ref="I10:J10"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="I12:J12"/>
-    <mergeCell ref="G13:H15"/>
-    <mergeCell ref="I13:J13"/>
-    <mergeCell ref="I14:J14"/>
-    <mergeCell ref="I15:J15"/>
-    <mergeCell ref="B2:C3"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="G7:H9"/>
-    <mergeCell ref="I7:J7"/>
-    <mergeCell ref="I8:J8"/>
-    <mergeCell ref="I9:J9"/>
-    <mergeCell ref="G5:J5"/>
-    <mergeCell ref="G6:J6"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="G29" r:id="rId1"/>
@@ -1995,8 +1968,8 @@
   </sheetPr>
   <dimension ref="A1:J39"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A13" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="80" workbookViewId="0">
-      <selection activeCell="E33" sqref="E33"/>
+    <sheetView showGridLines="0" topLeftCell="A14" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="80" workbookViewId="0">
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.69140625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -2028,10 +2001,10 @@
     </row>
     <row r="2" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.65">
       <c r="A2" s="8"/>
-      <c r="B2" s="37" t="s">
+      <c r="B2" s="70" t="s">
         <v>25</v>
       </c>
-      <c r="C2" s="37"/>
+      <c r="C2" s="70"/>
       <c r="D2" s="9"/>
       <c r="E2" s="12" t="s">
         <v>13</v>
@@ -2048,12 +2021,12 @@
     </row>
     <row r="3" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.65">
       <c r="A3" s="8"/>
-      <c r="B3" s="37"/>
-      <c r="C3" s="37"/>
+      <c r="B3" s="70"/>
+      <c r="C3" s="70"/>
       <c r="D3" s="9"/>
       <c r="E3" s="13">
         <f>'Daily Schedule SUN'!E3</f>
-        <v>42863</v>
+        <v>42876</v>
       </c>
       <c r="F3" s="9"/>
       <c r="G3" s="14">
@@ -2082,38 +2055,38 @@
     </row>
     <row r="5" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="8"/>
-      <c r="B5" s="79" t="s">
+      <c r="B5" s="81" t="s">
         <v>0</v>
       </c>
       <c r="C5" s="31" t="s">
         <v>16</v>
       </c>
       <c r="D5" s="8"/>
-      <c r="E5" s="39" t="s">
+      <c r="E5" s="72" t="s">
         <v>14</v>
       </c>
       <c r="F5" s="8"/>
-      <c r="G5" s="80" t="s">
+      <c r="G5" s="79" t="s">
         <v>15</v>
       </c>
-      <c r="H5" s="81"/>
-      <c r="I5" s="80"/>
-      <c r="J5" s="80"/>
+      <c r="H5" s="80"/>
+      <c r="I5" s="79"/>
+      <c r="J5" s="79"/>
     </row>
     <row r="6" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="8"/>
-      <c r="B6" s="79"/>
+      <c r="B6" s="81"/>
       <c r="C6" s="32">
         <f>E3+1</f>
-        <v>42864</v>
+        <v>42877</v>
       </c>
       <c r="D6" s="8"/>
-      <c r="E6" s="39"/>
+      <c r="E6" s="72"/>
       <c r="F6" s="8"/>
-      <c r="G6" s="80"/>
-      <c r="H6" s="80"/>
-      <c r="I6" s="80"/>
-      <c r="J6" s="80"/>
+      <c r="G6" s="79"/>
+      <c r="H6" s="79"/>
+      <c r="I6" s="79"/>
+      <c r="J6" s="79"/>
     </row>
     <row r="7" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="8"/>
@@ -2125,16 +2098,16 @@
       <c r="D7" s="8"/>
       <c r="E7" s="16"/>
       <c r="F7" s="8"/>
-      <c r="G7" s="66">
+      <c r="G7" s="58">
         <f>E3</f>
-        <v>42863</v>
-      </c>
-      <c r="H7" s="67"/>
-      <c r="I7" s="68">
+        <v>42876</v>
+      </c>
+      <c r="H7" s="59"/>
+      <c r="I7" s="64">
         <f>'Daily Schedule SUN'!I7:J7</f>
         <v>0</v>
       </c>
-      <c r="J7" s="69"/>
+      <c r="J7" s="65"/>
     </row>
     <row r="8" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="8"/>
@@ -2146,13 +2119,13 @@
       <c r="D8" s="8"/>
       <c r="E8" s="17"/>
       <c r="F8" s="8"/>
-      <c r="G8" s="40"/>
-      <c r="H8" s="41"/>
-      <c r="I8" s="46">
+      <c r="G8" s="60"/>
+      <c r="H8" s="61"/>
+      <c r="I8" s="52">
         <f>'Daily Schedule SUN'!I8:J8</f>
         <v>0</v>
       </c>
-      <c r="J8" s="47"/>
+      <c r="J8" s="53"/>
     </row>
     <row r="9" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="8"/>
@@ -2164,13 +2137,13 @@
       <c r="D9" s="8"/>
       <c r="E9" s="16"/>
       <c r="F9" s="8"/>
-      <c r="G9" s="42"/>
-      <c r="H9" s="43"/>
-      <c r="I9" s="48">
+      <c r="G9" s="62"/>
+      <c r="H9" s="63"/>
+      <c r="I9" s="66">
         <f>'Daily Schedule SUN'!I9:J9</f>
         <v>0</v>
       </c>
-      <c r="J9" s="49"/>
+      <c r="J9" s="67"/>
     </row>
     <row r="10" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="8"/>
@@ -2182,16 +2155,16 @@
       <c r="D10" s="8"/>
       <c r="E10" s="17"/>
       <c r="F10" s="8"/>
-      <c r="G10" s="56">
+      <c r="G10" s="46">
         <f>G7+1</f>
-        <v>42864</v>
-      </c>
-      <c r="H10" s="57"/>
-      <c r="I10" s="62">
+        <v>42877</v>
+      </c>
+      <c r="H10" s="47"/>
+      <c r="I10" s="68">
         <f>'Daily Schedule SUN'!I10:J10</f>
         <v>0</v>
       </c>
-      <c r="J10" s="63"/>
+      <c r="J10" s="69"/>
     </row>
     <row r="11" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="8"/>
@@ -2203,13 +2176,13 @@
       <c r="D11" s="8"/>
       <c r="E11" s="16"/>
       <c r="F11" s="8"/>
-      <c r="G11" s="58"/>
-      <c r="H11" s="59"/>
-      <c r="I11" s="44">
+      <c r="G11" s="48"/>
+      <c r="H11" s="49"/>
+      <c r="I11" s="54">
         <f>'Daily Schedule SUN'!I11:J11</f>
         <v>0</v>
       </c>
-      <c r="J11" s="45"/>
+      <c r="J11" s="55"/>
     </row>
     <row r="12" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="8"/>
@@ -2221,13 +2194,13 @@
       <c r="D12" s="8"/>
       <c r="E12" s="17"/>
       <c r="F12" s="8"/>
-      <c r="G12" s="60"/>
-      <c r="H12" s="61"/>
-      <c r="I12" s="64">
+      <c r="G12" s="50"/>
+      <c r="H12" s="51"/>
+      <c r="I12" s="56">
         <f>'Daily Schedule SUN'!I12:J12</f>
         <v>0</v>
       </c>
-      <c r="J12" s="65"/>
+      <c r="J12" s="57"/>
     </row>
     <row r="13" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="8"/>
@@ -2239,16 +2212,16 @@
       <c r="D13" s="8"/>
       <c r="E13" s="16"/>
       <c r="F13" s="8"/>
-      <c r="G13" s="66">
+      <c r="G13" s="58">
         <f>G7+2</f>
-        <v>42865</v>
-      </c>
-      <c r="H13" s="67"/>
-      <c r="I13" s="68">
+        <v>42878</v>
+      </c>
+      <c r="H13" s="59"/>
+      <c r="I13" s="64">
         <f>'Daily Schedule SUN'!I13:J13</f>
         <v>0</v>
       </c>
-      <c r="J13" s="69"/>
+      <c r="J13" s="65"/>
     </row>
     <row r="14" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="8"/>
@@ -2260,13 +2233,13 @@
       <c r="D14" s="8"/>
       <c r="E14" s="17"/>
       <c r="F14" s="8"/>
-      <c r="G14" s="40"/>
-      <c r="H14" s="41"/>
-      <c r="I14" s="46">
+      <c r="G14" s="60"/>
+      <c r="H14" s="61"/>
+      <c r="I14" s="52">
         <f>'Daily Schedule SUN'!I14:J14</f>
         <v>0</v>
       </c>
-      <c r="J14" s="47"/>
+      <c r="J14" s="53"/>
     </row>
     <row r="15" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="8"/>
@@ -2274,17 +2247,19 @@
         <f t="shared" si="0"/>
         <v>0.4583333333333332</v>
       </c>
-      <c r="C15" s="30"/>
+      <c r="C15" s="30" t="s">
+        <v>32</v>
+      </c>
       <c r="D15" s="8"/>
       <c r="E15" s="16"/>
       <c r="F15" s="8"/>
-      <c r="G15" s="42"/>
-      <c r="H15" s="43"/>
-      <c r="I15" s="48">
+      <c r="G15" s="62"/>
+      <c r="H15" s="63"/>
+      <c r="I15" s="66">
         <f>'Daily Schedule SUN'!I15:J15</f>
         <v>0</v>
       </c>
-      <c r="J15" s="49"/>
+      <c r="J15" s="67"/>
     </row>
     <row r="16" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="8"/>
@@ -2293,21 +2268,23 @@
         <v>0.47916666666666652</v>
       </c>
       <c r="C16" s="29" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="D16" s="8"/>
-      <c r="E16" s="17"/>
+      <c r="E16" s="17" t="s">
+        <v>35</v>
+      </c>
       <c r="F16" s="8"/>
-      <c r="G16" s="56">
+      <c r="G16" s="46">
         <f>G7+3</f>
-        <v>42866</v>
-      </c>
-      <c r="H16" s="57"/>
-      <c r="I16" s="62">
+        <v>42879</v>
+      </c>
+      <c r="H16" s="47"/>
+      <c r="I16" s="68">
         <f>'Daily Schedule SUN'!I16:J16</f>
         <v>0</v>
       </c>
-      <c r="J16" s="63"/>
+      <c r="J16" s="69"/>
     </row>
     <row r="17" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="8"/>
@@ -2316,20 +2293,18 @@
         <v>0.49999999999999983</v>
       </c>
       <c r="C17" s="30" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D17" s="8"/>
-      <c r="E17" s="36" t="s">
-        <v>34</v>
-      </c>
+      <c r="E17" s="36"/>
       <c r="F17" s="8"/>
-      <c r="G17" s="58"/>
-      <c r="H17" s="59"/>
-      <c r="I17" s="44">
+      <c r="G17" s="48"/>
+      <c r="H17" s="49"/>
+      <c r="I17" s="54">
         <f>'Daily Schedule SUN'!I17:J17</f>
         <v>0</v>
       </c>
-      <c r="J17" s="45"/>
+      <c r="J17" s="55"/>
     </row>
     <row r="18" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="8"/>
@@ -2338,18 +2313,18 @@
         <v>0.52083333333333315</v>
       </c>
       <c r="C18" s="29" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="17"/>
       <c r="F18" s="8"/>
-      <c r="G18" s="60"/>
-      <c r="H18" s="61"/>
-      <c r="I18" s="64">
+      <c r="G18" s="50"/>
+      <c r="H18" s="51"/>
+      <c r="I18" s="56">
         <f>'Daily Schedule SUN'!I18:J18</f>
         <v>0</v>
       </c>
-      <c r="J18" s="65"/>
+      <c r="J18" s="57"/>
     </row>
     <row r="19" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="8"/>
@@ -2358,23 +2333,21 @@
         <v>0.54166666666666652</v>
       </c>
       <c r="C19" s="30" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D19" s="8"/>
-      <c r="E19" s="36" t="s">
-        <v>35</v>
-      </c>
+      <c r="E19" s="36"/>
       <c r="F19" s="8"/>
-      <c r="G19" s="66">
+      <c r="G19" s="58">
         <f>G7+4</f>
-        <v>42867</v>
-      </c>
-      <c r="H19" s="67"/>
-      <c r="I19" s="68">
+        <v>42880</v>
+      </c>
+      <c r="H19" s="59"/>
+      <c r="I19" s="64">
         <f>'Daily Schedule SUN'!I19:J19</f>
         <v>0</v>
       </c>
-      <c r="J19" s="69"/>
+      <c r="J19" s="65"/>
     </row>
     <row r="20" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="8"/>
@@ -2383,18 +2356,18 @@
         <v>0.56249999999999989</v>
       </c>
       <c r="C20" s="29" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="17"/>
       <c r="F20" s="8"/>
-      <c r="G20" s="40"/>
-      <c r="H20" s="41"/>
-      <c r="I20" s="46">
+      <c r="G20" s="60"/>
+      <c r="H20" s="61"/>
+      <c r="I20" s="52">
         <f>'Daily Schedule SUN'!I20:J20</f>
         <v>0</v>
       </c>
-      <c r="J20" s="47"/>
+      <c r="J20" s="53"/>
     </row>
     <row r="21" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="8"/>
@@ -2403,18 +2376,20 @@
         <v>0.58333333333333326</v>
       </c>
       <c r="C21" s="30" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="D21" s="8"/>
-      <c r="E21" s="16"/>
+      <c r="E21" s="16" t="s">
+        <v>35</v>
+      </c>
       <c r="F21" s="8"/>
-      <c r="G21" s="42"/>
-      <c r="H21" s="43"/>
-      <c r="I21" s="48">
+      <c r="G21" s="62"/>
+      <c r="H21" s="63"/>
+      <c r="I21" s="66">
         <f>'Daily Schedule SUN'!I21:J21</f>
         <v>0</v>
       </c>
-      <c r="J21" s="49"/>
+      <c r="J21" s="67"/>
     </row>
     <row r="22" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="8"/>
@@ -2423,21 +2398,21 @@
         <v>0.60416666666666663</v>
       </c>
       <c r="C22" s="29" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="17"/>
       <c r="F22" s="8"/>
-      <c r="G22" s="56">
+      <c r="G22" s="46">
         <f>G7+5</f>
-        <v>42868</v>
-      </c>
-      <c r="H22" s="57"/>
-      <c r="I22" s="62">
+        <v>42881</v>
+      </c>
+      <c r="H22" s="47"/>
+      <c r="I22" s="68">
         <f>'Daily Schedule SUN'!I22:J22</f>
         <v>0</v>
       </c>
-      <c r="J22" s="63"/>
+      <c r="J22" s="69"/>
     </row>
     <row r="23" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="8"/>
@@ -2446,18 +2421,18 @@
         <v>0.625</v>
       </c>
       <c r="C23" s="30" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="16"/>
       <c r="F23" s="8"/>
-      <c r="G23" s="58"/>
-      <c r="H23" s="59"/>
-      <c r="I23" s="44">
+      <c r="G23" s="48"/>
+      <c r="H23" s="49"/>
+      <c r="I23" s="54">
         <f>'Daily Schedule SUN'!I23:J23</f>
         <v>0</v>
       </c>
-      <c r="J23" s="45"/>
+      <c r="J23" s="55"/>
     </row>
     <row r="24" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="8"/>
@@ -2466,18 +2441,18 @@
         <v>0.64583333333333337</v>
       </c>
       <c r="C24" s="29" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="17"/>
       <c r="F24" s="8"/>
-      <c r="G24" s="60"/>
-      <c r="H24" s="61"/>
-      <c r="I24" s="64">
+      <c r="G24" s="50"/>
+      <c r="H24" s="51"/>
+      <c r="I24" s="56">
         <f>'Daily Schedule SUN'!I24:J24</f>
         <v>0</v>
       </c>
-      <c r="J24" s="65"/>
+      <c r="J24" s="57"/>
     </row>
     <row r="25" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="8"/>
@@ -2486,21 +2461,23 @@
         <v>0.66666666666666674</v>
       </c>
       <c r="C25" s="30" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="D25" s="8"/>
-      <c r="E25" s="16"/>
+      <c r="E25" s="16" t="s">
+        <v>36</v>
+      </c>
       <c r="F25" s="8"/>
-      <c r="G25" s="66">
+      <c r="G25" s="58">
         <f>G7+6</f>
-        <v>42869</v>
-      </c>
-      <c r="H25" s="67"/>
-      <c r="I25" s="68">
+        <v>42882</v>
+      </c>
+      <c r="H25" s="59"/>
+      <c r="I25" s="64">
         <f>'Daily Schedule SUN'!I25:J25</f>
         <v>0</v>
       </c>
-      <c r="J25" s="69"/>
+      <c r="J25" s="65"/>
     </row>
     <row r="26" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="8"/>
@@ -2508,19 +2485,19 @@
         <f t="shared" si="0"/>
         <v>0.68750000000000011</v>
       </c>
-      <c r="C26" s="29" t="s">
-        <v>31</v>
-      </c>
+      <c r="C26" s="29"/>
       <c r="D26" s="8"/>
-      <c r="E26" s="17"/>
+      <c r="E26" s="17" t="s">
+        <v>37</v>
+      </c>
       <c r="F26" s="8"/>
-      <c r="G26" s="40"/>
-      <c r="H26" s="41"/>
-      <c r="I26" s="46">
+      <c r="G26" s="60"/>
+      <c r="H26" s="61"/>
+      <c r="I26" s="52">
         <f>'Daily Schedule SUN'!I26:J26</f>
         <v>0</v>
       </c>
-      <c r="J26" s="47"/>
+      <c r="J26" s="53"/>
     </row>
     <row r="27" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="8"/>
@@ -2528,21 +2505,17 @@
         <f t="shared" si="0"/>
         <v>0.70833333333333348</v>
       </c>
-      <c r="C27" s="30" t="s">
-        <v>32</v>
-      </c>
+      <c r="C27" s="30"/>
       <c r="D27" s="8"/>
-      <c r="E27" s="36" t="s">
-        <v>36</v>
-      </c>
+      <c r="E27" s="36"/>
       <c r="F27" s="8"/>
-      <c r="G27" s="42"/>
-      <c r="H27" s="43"/>
-      <c r="I27" s="48">
+      <c r="G27" s="62"/>
+      <c r="H27" s="63"/>
+      <c r="I27" s="66">
         <f>'Daily Schedule SUN'!I27:J27</f>
         <v>0</v>
       </c>
-      <c r="J27" s="49"/>
+      <c r="J27" s="67"/>
     </row>
     <row r="28" spans="1:10" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A28" s="8"/>
@@ -2550,9 +2523,7 @@
         <f t="shared" si="0"/>
         <v>0.72916666666666685</v>
       </c>
-      <c r="C28" s="29" t="s">
-        <v>32</v>
-      </c>
+      <c r="C28" s="29"/>
       <c r="D28" s="8"/>
       <c r="E28" s="17"/>
       <c r="F28" s="8"/>
@@ -2567,18 +2538,16 @@
         <f t="shared" si="0"/>
         <v>0.75000000000000022</v>
       </c>
-      <c r="C29" s="30" t="s">
-        <v>33</v>
-      </c>
+      <c r="C29" s="30"/>
       <c r="D29" s="8"/>
       <c r="E29" s="16"/>
       <c r="F29" s="8"/>
-      <c r="G29" s="70" t="s">
+      <c r="G29" s="37" t="s">
         <v>26</v>
       </c>
-      <c r="H29" s="71"/>
-      <c r="I29" s="71"/>
-      <c r="J29" s="72"/>
+      <c r="H29" s="38"/>
+      <c r="I29" s="38"/>
+      <c r="J29" s="39"/>
     </row>
     <row r="30" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30" s="8"/>
@@ -2586,16 +2555,14 @@
         <f t="shared" si="0"/>
         <v>0.77083333333333359</v>
       </c>
-      <c r="C30" s="29" t="s">
-        <v>33</v>
-      </c>
+      <c r="C30" s="29"/>
       <c r="D30" s="8"/>
       <c r="E30" s="17"/>
       <c r="F30" s="8"/>
-      <c r="G30" s="73"/>
-      <c r="H30" s="74"/>
-      <c r="I30" s="74"/>
-      <c r="J30" s="75"/>
+      <c r="G30" s="40"/>
+      <c r="H30" s="41"/>
+      <c r="I30" s="41"/>
+      <c r="J30" s="42"/>
     </row>
     <row r="31" spans="1:10" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A31" s="8"/>
@@ -2603,18 +2570,14 @@
         <f t="shared" si="0"/>
         <v>0.79166666666666696</v>
       </c>
-      <c r="C31" s="30" t="s">
-        <v>33</v>
-      </c>
+      <c r="C31" s="30"/>
       <c r="D31" s="8"/>
-      <c r="E31" s="36" t="s">
-        <v>35</v>
-      </c>
+      <c r="E31" s="36"/>
       <c r="F31" s="8"/>
-      <c r="G31" s="76"/>
-      <c r="H31" s="77"/>
-      <c r="I31" s="77"/>
-      <c r="J31" s="78"/>
+      <c r="G31" s="43"/>
+      <c r="H31" s="44"/>
+      <c r="I31" s="44"/>
+      <c r="J31" s="45"/>
     </row>
     <row r="32" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A32" s="8"/>
@@ -2738,6 +2701,23 @@
     </row>
   </sheetData>
   <mergeCells count="33">
+    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="I13:J13"/>
+    <mergeCell ref="I14:J14"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="I8:J8"/>
+    <mergeCell ref="I9:J9"/>
+    <mergeCell ref="I25:J25"/>
+    <mergeCell ref="I16:J16"/>
+    <mergeCell ref="I17:J17"/>
+    <mergeCell ref="I18:J18"/>
+    <mergeCell ref="I19:J19"/>
+    <mergeCell ref="I20:J20"/>
     <mergeCell ref="G29:J31"/>
     <mergeCell ref="I26:J26"/>
     <mergeCell ref="I27:J27"/>
@@ -2754,23 +2734,6 @@
     <mergeCell ref="I22:J22"/>
     <mergeCell ref="I23:J23"/>
     <mergeCell ref="I24:J24"/>
-    <mergeCell ref="I25:J25"/>
-    <mergeCell ref="I16:J16"/>
-    <mergeCell ref="I17:J17"/>
-    <mergeCell ref="I18:J18"/>
-    <mergeCell ref="I19:J19"/>
-    <mergeCell ref="I20:J20"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="I7:J7"/>
-    <mergeCell ref="I8:J8"/>
-    <mergeCell ref="I9:J9"/>
-    <mergeCell ref="I15:J15"/>
-    <mergeCell ref="I10:J10"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="I12:J12"/>
-    <mergeCell ref="I13:J13"/>
-    <mergeCell ref="I14:J14"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="G29" r:id="rId1"/>
@@ -2819,8 +2782,8 @@
   </sheetPr>
   <dimension ref="A1:J39"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A17" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="80" workbookViewId="0">
-      <selection activeCell="E30" sqref="E30"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A7" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="80" workbookViewId="0">
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.69140625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -2852,10 +2815,10 @@
     </row>
     <row r="2" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.65">
       <c r="A2" s="8"/>
-      <c r="B2" s="37" t="s">
+      <c r="B2" s="70" t="s">
         <v>25</v>
       </c>
-      <c r="C2" s="37"/>
+      <c r="C2" s="70"/>
       <c r="D2" s="9"/>
       <c r="E2" s="12" t="s">
         <v>13</v>
@@ -2872,12 +2835,12 @@
     </row>
     <row r="3" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.65">
       <c r="A3" s="8"/>
-      <c r="B3" s="37"/>
-      <c r="C3" s="37"/>
+      <c r="B3" s="70"/>
+      <c r="C3" s="70"/>
       <c r="D3" s="9"/>
       <c r="E3" s="13">
         <f>'Daily Schedule SUN'!E3</f>
-        <v>42863</v>
+        <v>42876</v>
       </c>
       <c r="F3" s="9"/>
       <c r="G3" s="14">
@@ -2906,38 +2869,38 @@
     </row>
     <row r="5" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="8"/>
-      <c r="B5" s="38" t="s">
+      <c r="B5" s="71" t="s">
         <v>0</v>
       </c>
       <c r="C5" s="23" t="s">
         <v>18</v>
       </c>
       <c r="D5" s="8"/>
-      <c r="E5" s="39" t="s">
+      <c r="E5" s="72" t="s">
         <v>14</v>
       </c>
       <c r="F5" s="8"/>
-      <c r="G5" s="80" t="s">
+      <c r="G5" s="79" t="s">
         <v>15</v>
       </c>
-      <c r="H5" s="81"/>
-      <c r="I5" s="80"/>
-      <c r="J5" s="80"/>
+      <c r="H5" s="80"/>
+      <c r="I5" s="79"/>
+      <c r="J5" s="79"/>
     </row>
     <row r="6" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="8"/>
-      <c r="B6" s="38"/>
+      <c r="B6" s="71"/>
       <c r="C6" s="24">
         <f>E3+2</f>
-        <v>42865</v>
+        <v>42878</v>
       </c>
       <c r="D6" s="8"/>
-      <c r="E6" s="39"/>
+      <c r="E6" s="72"/>
       <c r="F6" s="8"/>
-      <c r="G6" s="80"/>
-      <c r="H6" s="80"/>
-      <c r="I6" s="80"/>
-      <c r="J6" s="80"/>
+      <c r="G6" s="79"/>
+      <c r="H6" s="79"/>
+      <c r="I6" s="79"/>
+      <c r="J6" s="79"/>
     </row>
     <row r="7" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="8"/>
@@ -2949,16 +2912,16 @@
       <c r="D7" s="8"/>
       <c r="E7" s="16"/>
       <c r="F7" s="8"/>
-      <c r="G7" s="66">
+      <c r="G7" s="58">
         <f>E3</f>
-        <v>42863</v>
-      </c>
-      <c r="H7" s="67"/>
-      <c r="I7" s="68">
+        <v>42876</v>
+      </c>
+      <c r="H7" s="59"/>
+      <c r="I7" s="64">
         <f>'Daily Schedule SUN'!I7:J7</f>
         <v>0</v>
       </c>
-      <c r="J7" s="69"/>
+      <c r="J7" s="65"/>
     </row>
     <row r="8" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="8"/>
@@ -2970,13 +2933,13 @@
       <c r="D8" s="8"/>
       <c r="E8" s="17"/>
       <c r="F8" s="8"/>
-      <c r="G8" s="40"/>
-      <c r="H8" s="41"/>
-      <c r="I8" s="46">
+      <c r="G8" s="60"/>
+      <c r="H8" s="61"/>
+      <c r="I8" s="52">
         <f>'Daily Schedule SUN'!I8:J8</f>
         <v>0</v>
       </c>
-      <c r="J8" s="47"/>
+      <c r="J8" s="53"/>
     </row>
     <row r="9" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="8"/>
@@ -2988,13 +2951,13 @@
       <c r="D9" s="8"/>
       <c r="E9" s="16"/>
       <c r="F9" s="8"/>
-      <c r="G9" s="42"/>
-      <c r="H9" s="43"/>
-      <c r="I9" s="48">
+      <c r="G9" s="62"/>
+      <c r="H9" s="63"/>
+      <c r="I9" s="66">
         <f>'Daily Schedule SUN'!I9:J9</f>
         <v>0</v>
       </c>
-      <c r="J9" s="49"/>
+      <c r="J9" s="67"/>
     </row>
     <row r="10" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="8"/>
@@ -3006,16 +2969,16 @@
       <c r="D10" s="8"/>
       <c r="E10" s="17"/>
       <c r="F10" s="8"/>
-      <c r="G10" s="56">
+      <c r="G10" s="46">
         <f>G7+1</f>
-        <v>42864</v>
-      </c>
-      <c r="H10" s="57"/>
-      <c r="I10" s="62">
+        <v>42877</v>
+      </c>
+      <c r="H10" s="47"/>
+      <c r="I10" s="68">
         <f>'Daily Schedule SUN'!I10:J10</f>
         <v>0</v>
       </c>
-      <c r="J10" s="63"/>
+      <c r="J10" s="69"/>
     </row>
     <row r="11" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="8"/>
@@ -3027,13 +2990,13 @@
       <c r="D11" s="8"/>
       <c r="E11" s="16"/>
       <c r="F11" s="8"/>
-      <c r="G11" s="58"/>
-      <c r="H11" s="59"/>
-      <c r="I11" s="44">
+      <c r="G11" s="48"/>
+      <c r="H11" s="49"/>
+      <c r="I11" s="54">
         <f>'Daily Schedule SUN'!I11:J11</f>
         <v>0</v>
       </c>
-      <c r="J11" s="45"/>
+      <c r="J11" s="55"/>
     </row>
     <row r="12" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="8"/>
@@ -3045,13 +3008,13 @@
       <c r="D12" s="8"/>
       <c r="E12" s="17"/>
       <c r="F12" s="8"/>
-      <c r="G12" s="60"/>
-      <c r="H12" s="61"/>
-      <c r="I12" s="64">
+      <c r="G12" s="50"/>
+      <c r="H12" s="51"/>
+      <c r="I12" s="56">
         <f>'Daily Schedule SUN'!I12:J12</f>
         <v>0</v>
       </c>
-      <c r="J12" s="65"/>
+      <c r="J12" s="57"/>
     </row>
     <row r="13" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="8"/>
@@ -3063,16 +3026,16 @@
       <c r="D13" s="8"/>
       <c r="E13" s="16"/>
       <c r="F13" s="8"/>
-      <c r="G13" s="66">
+      <c r="G13" s="58">
         <f>G7+2</f>
-        <v>42865</v>
-      </c>
-      <c r="H13" s="67"/>
-      <c r="I13" s="68">
+        <v>42878</v>
+      </c>
+      <c r="H13" s="59"/>
+      <c r="I13" s="64">
         <f>'Daily Schedule SUN'!I13:J13</f>
         <v>0</v>
       </c>
-      <c r="J13" s="69"/>
+      <c r="J13" s="65"/>
     </row>
     <row r="14" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="8"/>
@@ -3084,13 +3047,13 @@
       <c r="D14" s="8"/>
       <c r="E14" s="17"/>
       <c r="F14" s="8"/>
-      <c r="G14" s="40"/>
-      <c r="H14" s="41"/>
-      <c r="I14" s="46">
+      <c r="G14" s="60"/>
+      <c r="H14" s="61"/>
+      <c r="I14" s="52">
         <f>'Daily Schedule SUN'!I14:J14</f>
         <v>0</v>
       </c>
-      <c r="J14" s="47"/>
+      <c r="J14" s="53"/>
     </row>
     <row r="15" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="8"/>
@@ -3098,19 +3061,17 @@
         <f t="shared" si="0"/>
         <v>0.4583333333333332</v>
       </c>
-      <c r="C15" s="30" t="s">
-        <v>37</v>
-      </c>
+      <c r="C15" s="30"/>
       <c r="D15" s="8"/>
       <c r="E15" s="16"/>
       <c r="F15" s="8"/>
-      <c r="G15" s="42"/>
-      <c r="H15" s="43"/>
-      <c r="I15" s="48">
+      <c r="G15" s="62"/>
+      <c r="H15" s="63"/>
+      <c r="I15" s="66">
         <f>'Daily Schedule SUN'!I15:J15</f>
         <v>0</v>
       </c>
-      <c r="J15" s="49"/>
+      <c r="J15" s="67"/>
     </row>
     <row r="16" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="8"/>
@@ -3118,22 +3079,20 @@
         <f t="shared" si="0"/>
         <v>0.47916666666666652</v>
       </c>
-      <c r="C16" s="29" t="s">
-        <v>37</v>
-      </c>
+      <c r="C16" s="29"/>
       <c r="D16" s="8"/>
       <c r="E16" s="17"/>
       <c r="F16" s="8"/>
-      <c r="G16" s="56">
+      <c r="G16" s="46">
         <f>G7+3</f>
-        <v>42866</v>
-      </c>
-      <c r="H16" s="57"/>
-      <c r="I16" s="62">
+        <v>42879</v>
+      </c>
+      <c r="H16" s="47"/>
+      <c r="I16" s="68">
         <f>'Daily Schedule SUN'!I16:J16</f>
         <v>0</v>
       </c>
-      <c r="J16" s="63"/>
+      <c r="J16" s="69"/>
     </row>
     <row r="17" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="8"/>
@@ -3141,19 +3100,17 @@
         <f t="shared" si="0"/>
         <v>0.49999999999999983</v>
       </c>
-      <c r="C17" s="30" t="s">
-        <v>38</v>
-      </c>
+      <c r="C17" s="30"/>
       <c r="D17" s="8"/>
       <c r="E17" s="16"/>
       <c r="F17" s="8"/>
-      <c r="G17" s="58"/>
-      <c r="H17" s="59"/>
-      <c r="I17" s="44">
+      <c r="G17" s="48"/>
+      <c r="H17" s="49"/>
+      <c r="I17" s="54">
         <f>'Daily Schedule SUN'!I17:J17</f>
         <v>0</v>
       </c>
-      <c r="J17" s="45"/>
+      <c r="J17" s="55"/>
     </row>
     <row r="18" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="8"/>
@@ -3161,19 +3118,17 @@
         <f t="shared" si="0"/>
         <v>0.52083333333333315</v>
       </c>
-      <c r="C18" s="29" t="s">
-        <v>38</v>
-      </c>
+      <c r="C18" s="29"/>
       <c r="D18" s="8"/>
       <c r="E18" s="17"/>
       <c r="F18" s="8"/>
-      <c r="G18" s="60"/>
-      <c r="H18" s="61"/>
-      <c r="I18" s="64">
+      <c r="G18" s="50"/>
+      <c r="H18" s="51"/>
+      <c r="I18" s="56">
         <f>'Daily Schedule SUN'!I18:J18</f>
         <v>0</v>
       </c>
-      <c r="J18" s="65"/>
+      <c r="J18" s="57"/>
     </row>
     <row r="19" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="8"/>
@@ -3181,22 +3136,20 @@
         <f t="shared" si="0"/>
         <v>0.54166666666666652</v>
       </c>
-      <c r="C19" s="30" t="s">
-        <v>39</v>
-      </c>
+      <c r="C19" s="30"/>
       <c r="D19" s="8"/>
       <c r="E19" s="16"/>
       <c r="F19" s="8"/>
-      <c r="G19" s="66">
+      <c r="G19" s="58">
         <f>G7+4</f>
-        <v>42867</v>
-      </c>
-      <c r="H19" s="67"/>
-      <c r="I19" s="68">
+        <v>42880</v>
+      </c>
+      <c r="H19" s="59"/>
+      <c r="I19" s="64">
         <f>'Daily Schedule SUN'!I19:J19</f>
         <v>0</v>
       </c>
-      <c r="J19" s="69"/>
+      <c r="J19" s="65"/>
     </row>
     <row r="20" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="8"/>
@@ -3204,19 +3157,17 @@
         <f t="shared" si="0"/>
         <v>0.56249999999999989</v>
       </c>
-      <c r="C20" s="29" t="s">
-        <v>39</v>
-      </c>
+      <c r="C20" s="29"/>
       <c r="D20" s="8"/>
       <c r="E20" s="17"/>
       <c r="F20" s="8"/>
-      <c r="G20" s="40"/>
-      <c r="H20" s="41"/>
-      <c r="I20" s="46">
+      <c r="G20" s="60"/>
+      <c r="H20" s="61"/>
+      <c r="I20" s="52">
         <f>'Daily Schedule SUN'!I20:J20</f>
         <v>0</v>
       </c>
-      <c r="J20" s="47"/>
+      <c r="J20" s="53"/>
     </row>
     <row r="21" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="8"/>
@@ -3224,19 +3175,17 @@
         <f t="shared" si="0"/>
         <v>0.58333333333333326</v>
       </c>
-      <c r="C21" s="30" t="s">
-        <v>40</v>
-      </c>
+      <c r="C21" s="30"/>
       <c r="D21" s="8"/>
       <c r="E21" s="16"/>
       <c r="F21" s="8"/>
-      <c r="G21" s="42"/>
-      <c r="H21" s="43"/>
-      <c r="I21" s="48">
+      <c r="G21" s="62"/>
+      <c r="H21" s="63"/>
+      <c r="I21" s="66">
         <f>'Daily Schedule SUN'!I21:J21</f>
         <v>0</v>
       </c>
-      <c r="J21" s="49"/>
+      <c r="J21" s="67"/>
     </row>
     <row r="22" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="8"/>
@@ -3244,22 +3193,20 @@
         <f t="shared" si="0"/>
         <v>0.60416666666666663</v>
       </c>
-      <c r="C22" s="29" t="s">
-        <v>40</v>
-      </c>
+      <c r="C22" s="29"/>
       <c r="D22" s="8"/>
       <c r="E22" s="17"/>
       <c r="F22" s="8"/>
-      <c r="G22" s="56">
+      <c r="G22" s="46">
         <f>G7+5</f>
-        <v>42868</v>
-      </c>
-      <c r="H22" s="57"/>
-      <c r="I22" s="62">
+        <v>42881</v>
+      </c>
+      <c r="H22" s="47"/>
+      <c r="I22" s="68">
         <f>'Daily Schedule SUN'!I22:J22</f>
         <v>0</v>
       </c>
-      <c r="J22" s="63"/>
+      <c r="J22" s="69"/>
     </row>
     <row r="23" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="8"/>
@@ -3267,21 +3214,17 @@
         <f t="shared" si="0"/>
         <v>0.625</v>
       </c>
-      <c r="C23" s="30" t="s">
-        <v>40</v>
-      </c>
+      <c r="C23" s="30"/>
       <c r="D23" s="8"/>
-      <c r="E23" s="16" t="s">
-        <v>41</v>
-      </c>
+      <c r="E23" s="16"/>
       <c r="F23" s="8"/>
-      <c r="G23" s="58"/>
-      <c r="H23" s="59"/>
-      <c r="I23" s="44">
+      <c r="G23" s="48"/>
+      <c r="H23" s="49"/>
+      <c r="I23" s="54">
         <f>'Daily Schedule SUN'!I23:J23</f>
         <v>0</v>
       </c>
-      <c r="J23" s="45"/>
+      <c r="J23" s="55"/>
     </row>
     <row r="24" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="8"/>
@@ -3289,19 +3232,17 @@
         <f t="shared" si="0"/>
         <v>0.64583333333333337</v>
       </c>
-      <c r="C24" s="29" t="s">
-        <v>37</v>
-      </c>
+      <c r="C24" s="29"/>
       <c r="D24" s="8"/>
       <c r="E24" s="17"/>
       <c r="F24" s="8"/>
-      <c r="G24" s="60"/>
-      <c r="H24" s="61"/>
-      <c r="I24" s="64">
+      <c r="G24" s="50"/>
+      <c r="H24" s="51"/>
+      <c r="I24" s="56">
         <f>'Daily Schedule SUN'!I24:J24</f>
         <v>0</v>
       </c>
-      <c r="J24" s="65"/>
+      <c r="J24" s="57"/>
     </row>
     <row r="25" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="8"/>
@@ -3309,22 +3250,20 @@
         <f t="shared" si="0"/>
         <v>0.66666666666666674</v>
       </c>
-      <c r="C25" s="30" t="s">
-        <v>37</v>
-      </c>
+      <c r="C25" s="30"/>
       <c r="D25" s="8"/>
       <c r="E25" s="16"/>
       <c r="F25" s="8"/>
-      <c r="G25" s="66">
+      <c r="G25" s="58">
         <f>G7+6</f>
-        <v>42869</v>
-      </c>
-      <c r="H25" s="67"/>
-      <c r="I25" s="68">
+        <v>42882</v>
+      </c>
+      <c r="H25" s="59"/>
+      <c r="I25" s="64">
         <f>'Daily Schedule SUN'!I25:J25</f>
         <v>0</v>
       </c>
-      <c r="J25" s="69"/>
+      <c r="J25" s="65"/>
     </row>
     <row r="26" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="8"/>
@@ -3332,19 +3271,17 @@
         <f t="shared" si="0"/>
         <v>0.68750000000000011</v>
       </c>
-      <c r="C26" s="29" t="s">
-        <v>37</v>
-      </c>
+      <c r="C26" s="29"/>
       <c r="D26" s="8"/>
       <c r="E26" s="17"/>
       <c r="F26" s="8"/>
-      <c r="G26" s="40"/>
-      <c r="H26" s="41"/>
-      <c r="I26" s="46">
+      <c r="G26" s="60"/>
+      <c r="H26" s="61"/>
+      <c r="I26" s="52">
         <f>'Daily Schedule SUN'!I26:J26</f>
         <v>0</v>
       </c>
-      <c r="J26" s="47"/>
+      <c r="J26" s="53"/>
     </row>
     <row r="27" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="8"/>
@@ -3352,19 +3289,17 @@
         <f t="shared" si="0"/>
         <v>0.70833333333333348</v>
       </c>
-      <c r="C27" s="30" t="s">
-        <v>37</v>
-      </c>
+      <c r="C27" s="30"/>
       <c r="D27" s="8"/>
       <c r="E27" s="16"/>
       <c r="F27" s="8"/>
-      <c r="G27" s="42"/>
-      <c r="H27" s="43"/>
-      <c r="I27" s="48">
+      <c r="G27" s="62"/>
+      <c r="H27" s="63"/>
+      <c r="I27" s="66">
         <f>'Daily Schedule SUN'!I27:J27</f>
         <v>0</v>
       </c>
-      <c r="J27" s="49"/>
+      <c r="J27" s="67"/>
     </row>
     <row r="28" spans="1:10" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A28" s="8"/>
@@ -3372,9 +3307,7 @@
         <f t="shared" si="0"/>
         <v>0.72916666666666685</v>
       </c>
-      <c r="C28" s="29" t="s">
-        <v>37</v>
-      </c>
+      <c r="C28" s="29"/>
       <c r="D28" s="8"/>
       <c r="E28" s="17"/>
       <c r="F28" s="8"/>
@@ -3389,20 +3322,16 @@
         <f t="shared" si="0"/>
         <v>0.75000000000000022</v>
       </c>
-      <c r="C29" s="30" t="s">
-        <v>37</v>
-      </c>
+      <c r="C29" s="30"/>
       <c r="D29" s="8"/>
-      <c r="E29" s="16" t="s">
-        <v>42</v>
-      </c>
+      <c r="E29" s="16"/>
       <c r="F29" s="8"/>
-      <c r="G29" s="70" t="s">
+      <c r="G29" s="37" t="s">
         <v>26</v>
       </c>
-      <c r="H29" s="71"/>
-      <c r="I29" s="71"/>
-      <c r="J29" s="72"/>
+      <c r="H29" s="38"/>
+      <c r="I29" s="38"/>
+      <c r="J29" s="39"/>
     </row>
     <row r="30" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30" s="8"/>
@@ -3410,18 +3339,14 @@
         <f t="shared" si="0"/>
         <v>0.77083333333333359</v>
       </c>
-      <c r="C30" s="29" t="s">
-        <v>37</v>
-      </c>
+      <c r="C30" s="29"/>
       <c r="D30" s="8"/>
-      <c r="E30" s="17" t="s">
-        <v>43</v>
-      </c>
+      <c r="E30" s="17"/>
       <c r="F30" s="8"/>
-      <c r="G30" s="73"/>
-      <c r="H30" s="74"/>
-      <c r="I30" s="74"/>
-      <c r="J30" s="75"/>
+      <c r="G30" s="40"/>
+      <c r="H30" s="41"/>
+      <c r="I30" s="41"/>
+      <c r="J30" s="42"/>
     </row>
     <row r="31" spans="1:10" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A31" s="8"/>
@@ -3433,10 +3358,10 @@
       <c r="D31" s="8"/>
       <c r="E31" s="16"/>
       <c r="F31" s="8"/>
-      <c r="G31" s="76"/>
-      <c r="H31" s="77"/>
-      <c r="I31" s="77"/>
-      <c r="J31" s="78"/>
+      <c r="G31" s="43"/>
+      <c r="H31" s="44"/>
+      <c r="I31" s="44"/>
+      <c r="J31" s="45"/>
     </row>
     <row r="32" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A32" s="8"/>
@@ -3560,6 +3485,30 @@
     </row>
   </sheetData>
   <mergeCells count="33">
+    <mergeCell ref="B2:C3"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="G5:J6"/>
+    <mergeCell ref="G7:H9"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="I8:J8"/>
+    <mergeCell ref="I9:J9"/>
+    <mergeCell ref="G10:H12"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="G13:H15"/>
+    <mergeCell ref="I13:J13"/>
+    <mergeCell ref="I14:J14"/>
+    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="G16:H18"/>
+    <mergeCell ref="I16:J16"/>
+    <mergeCell ref="I17:J17"/>
+    <mergeCell ref="I18:J18"/>
+    <mergeCell ref="G19:H21"/>
+    <mergeCell ref="I19:J19"/>
+    <mergeCell ref="I20:J20"/>
+    <mergeCell ref="I21:J21"/>
     <mergeCell ref="G29:J31"/>
     <mergeCell ref="G22:H24"/>
     <mergeCell ref="I22:J22"/>
@@ -3569,30 +3518,6 @@
     <mergeCell ref="I25:J25"/>
     <mergeCell ref="I26:J26"/>
     <mergeCell ref="I27:J27"/>
-    <mergeCell ref="G16:H18"/>
-    <mergeCell ref="I16:J16"/>
-    <mergeCell ref="I17:J17"/>
-    <mergeCell ref="I18:J18"/>
-    <mergeCell ref="G19:H21"/>
-    <mergeCell ref="I19:J19"/>
-    <mergeCell ref="I20:J20"/>
-    <mergeCell ref="I21:J21"/>
-    <mergeCell ref="G10:H12"/>
-    <mergeCell ref="I10:J10"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="I12:J12"/>
-    <mergeCell ref="G13:H15"/>
-    <mergeCell ref="I13:J13"/>
-    <mergeCell ref="I14:J14"/>
-    <mergeCell ref="I15:J15"/>
-    <mergeCell ref="B2:C3"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="G5:J6"/>
-    <mergeCell ref="G7:H9"/>
-    <mergeCell ref="I7:J7"/>
-    <mergeCell ref="I8:J8"/>
-    <mergeCell ref="I9:J9"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="G29" r:id="rId1"/>
@@ -3641,7 +3566,7 @@
   </sheetPr>
   <dimension ref="A1:J39"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A16" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="80" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="80" workbookViewId="0">
       <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
@@ -3674,10 +3599,10 @@
     </row>
     <row r="2" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.65">
       <c r="A2" s="8"/>
-      <c r="B2" s="37" t="s">
+      <c r="B2" s="70" t="s">
         <v>25</v>
       </c>
-      <c r="C2" s="37"/>
+      <c r="C2" s="70"/>
       <c r="D2" s="9"/>
       <c r="E2" s="12" t="s">
         <v>13</v>
@@ -3694,12 +3619,12 @@
     </row>
     <row r="3" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.65">
       <c r="A3" s="8"/>
-      <c r="B3" s="37"/>
-      <c r="C3" s="37"/>
+      <c r="B3" s="70"/>
+      <c r="C3" s="70"/>
       <c r="D3" s="9"/>
       <c r="E3" s="13">
         <f>'Daily Schedule SUN'!E3</f>
-        <v>42863</v>
+        <v>42876</v>
       </c>
       <c r="F3" s="9"/>
       <c r="G3" s="14">
@@ -3728,38 +3653,38 @@
     </row>
     <row r="5" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="8"/>
-      <c r="B5" s="38" t="s">
+      <c r="B5" s="71" t="s">
         <v>0</v>
       </c>
       <c r="C5" s="23" t="s">
         <v>19</v>
       </c>
       <c r="D5" s="8"/>
-      <c r="E5" s="39" t="s">
+      <c r="E5" s="72" t="s">
         <v>14</v>
       </c>
       <c r="F5" s="8"/>
-      <c r="G5" s="80" t="s">
+      <c r="G5" s="79" t="s">
         <v>15</v>
       </c>
-      <c r="H5" s="81"/>
-      <c r="I5" s="80"/>
-      <c r="J5" s="80"/>
+      <c r="H5" s="80"/>
+      <c r="I5" s="79"/>
+      <c r="J5" s="79"/>
     </row>
     <row r="6" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="8"/>
-      <c r="B6" s="38"/>
+      <c r="B6" s="71"/>
       <c r="C6" s="24">
         <f>E3+3</f>
-        <v>42866</v>
+        <v>42879</v>
       </c>
       <c r="D6" s="8"/>
-      <c r="E6" s="39"/>
+      <c r="E6" s="72"/>
       <c r="F6" s="8"/>
-      <c r="G6" s="80"/>
-      <c r="H6" s="80"/>
-      <c r="I6" s="80"/>
-      <c r="J6" s="80"/>
+      <c r="G6" s="79"/>
+      <c r="H6" s="79"/>
+      <c r="I6" s="79"/>
+      <c r="J6" s="79"/>
     </row>
     <row r="7" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="8"/>
@@ -3771,16 +3696,16 @@
       <c r="D7" s="8"/>
       <c r="E7" s="16"/>
       <c r="F7" s="8"/>
-      <c r="G7" s="66">
+      <c r="G7" s="58">
         <f>E3</f>
-        <v>42863</v>
-      </c>
-      <c r="H7" s="67"/>
-      <c r="I7" s="68">
+        <v>42876</v>
+      </c>
+      <c r="H7" s="59"/>
+      <c r="I7" s="64">
         <f>'Daily Schedule SUN'!I7:J7</f>
         <v>0</v>
       </c>
-      <c r="J7" s="69"/>
+      <c r="J7" s="65"/>
     </row>
     <row r="8" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="8"/>
@@ -3792,13 +3717,13 @@
       <c r="D8" s="8"/>
       <c r="E8" s="17"/>
       <c r="F8" s="8"/>
-      <c r="G8" s="40"/>
-      <c r="H8" s="41"/>
-      <c r="I8" s="46">
+      <c r="G8" s="60"/>
+      <c r="H8" s="61"/>
+      <c r="I8" s="52">
         <f>'Daily Schedule SUN'!I8:J8</f>
         <v>0</v>
       </c>
-      <c r="J8" s="47"/>
+      <c r="J8" s="53"/>
     </row>
     <row r="9" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="8"/>
@@ -3810,13 +3735,13 @@
       <c r="D9" s="8"/>
       <c r="E9" s="16"/>
       <c r="F9" s="8"/>
-      <c r="G9" s="42"/>
-      <c r="H9" s="43"/>
-      <c r="I9" s="48">
+      <c r="G9" s="62"/>
+      <c r="H9" s="63"/>
+      <c r="I9" s="66">
         <f>'Daily Schedule SUN'!I9:J9</f>
         <v>0</v>
       </c>
-      <c r="J9" s="49"/>
+      <c r="J9" s="67"/>
     </row>
     <row r="10" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="8"/>
@@ -3828,16 +3753,16 @@
       <c r="D10" s="8"/>
       <c r="E10" s="17"/>
       <c r="F10" s="8"/>
-      <c r="G10" s="56">
+      <c r="G10" s="46">
         <f>G7+1</f>
-        <v>42864</v>
-      </c>
-      <c r="H10" s="57"/>
-      <c r="I10" s="62">
+        <v>42877</v>
+      </c>
+      <c r="H10" s="47"/>
+      <c r="I10" s="68">
         <f>'Daily Schedule SUN'!I10:J10</f>
         <v>0</v>
       </c>
-      <c r="J10" s="63"/>
+      <c r="J10" s="69"/>
     </row>
     <row r="11" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="8"/>
@@ -3849,13 +3774,13 @@
       <c r="D11" s="8"/>
       <c r="E11" s="16"/>
       <c r="F11" s="8"/>
-      <c r="G11" s="58"/>
-      <c r="H11" s="59"/>
-      <c r="I11" s="44">
+      <c r="G11" s="48"/>
+      <c r="H11" s="49"/>
+      <c r="I11" s="54">
         <f>'Daily Schedule SUN'!I11:J11</f>
         <v>0</v>
       </c>
-      <c r="J11" s="45"/>
+      <c r="J11" s="55"/>
     </row>
     <row r="12" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="8"/>
@@ -3867,13 +3792,13 @@
       <c r="D12" s="8"/>
       <c r="E12" s="17"/>
       <c r="F12" s="8"/>
-      <c r="G12" s="60"/>
-      <c r="H12" s="61"/>
-      <c r="I12" s="64">
+      <c r="G12" s="50"/>
+      <c r="H12" s="51"/>
+      <c r="I12" s="56">
         <f>'Daily Schedule SUN'!I12:J12</f>
         <v>0</v>
       </c>
-      <c r="J12" s="65"/>
+      <c r="J12" s="57"/>
     </row>
     <row r="13" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="8"/>
@@ -3885,16 +3810,16 @@
       <c r="D13" s="8"/>
       <c r="E13" s="16"/>
       <c r="F13" s="8"/>
-      <c r="G13" s="66">
+      <c r="G13" s="58">
         <f>G7+2</f>
-        <v>42865</v>
-      </c>
-      <c r="H13" s="67"/>
-      <c r="I13" s="68">
+        <v>42878</v>
+      </c>
+      <c r="H13" s="59"/>
+      <c r="I13" s="64">
         <f>'Daily Schedule SUN'!I13:J13</f>
         <v>0</v>
       </c>
-      <c r="J13" s="69"/>
+      <c r="J13" s="65"/>
     </row>
     <row r="14" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="8"/>
@@ -3903,18 +3828,18 @@
         <v>0.43749999999999989</v>
       </c>
       <c r="C14" s="21" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="17"/>
       <c r="F14" s="8"/>
-      <c r="G14" s="40"/>
-      <c r="H14" s="41"/>
-      <c r="I14" s="46">
+      <c r="G14" s="60"/>
+      <c r="H14" s="61"/>
+      <c r="I14" s="52">
         <f>'Daily Schedule SUN'!I14:J14</f>
         <v>0</v>
       </c>
-      <c r="J14" s="47"/>
+      <c r="J14" s="53"/>
     </row>
     <row r="15" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="8"/>
@@ -3923,18 +3848,18 @@
         <v>0.4583333333333332</v>
       </c>
       <c r="C15" s="20" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="16"/>
       <c r="F15" s="8"/>
-      <c r="G15" s="42"/>
-      <c r="H15" s="43"/>
-      <c r="I15" s="48">
+      <c r="G15" s="62"/>
+      <c r="H15" s="63"/>
+      <c r="I15" s="66">
         <f>'Daily Schedule SUN'!I15:J15</f>
         <v>0</v>
       </c>
-      <c r="J15" s="49"/>
+      <c r="J15" s="67"/>
     </row>
     <row r="16" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="8"/>
@@ -3943,21 +3868,21 @@
         <v>0.47916666666666652</v>
       </c>
       <c r="C16" s="21" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="17"/>
       <c r="F16" s="8"/>
-      <c r="G16" s="56">
+      <c r="G16" s="46">
         <f>G7+3</f>
-        <v>42866</v>
-      </c>
-      <c r="H16" s="57"/>
-      <c r="I16" s="62">
+        <v>42879</v>
+      </c>
+      <c r="H16" s="47"/>
+      <c r="I16" s="68">
         <f>'Daily Schedule SUN'!I16:J16</f>
         <v>0</v>
       </c>
-      <c r="J16" s="63"/>
+      <c r="J16" s="69"/>
     </row>
     <row r="17" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="8"/>
@@ -3966,18 +3891,18 @@
         <v>0.49999999999999983</v>
       </c>
       <c r="C17" s="20" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="16"/>
       <c r="F17" s="8"/>
-      <c r="G17" s="58"/>
-      <c r="H17" s="59"/>
-      <c r="I17" s="44">
+      <c r="G17" s="48"/>
+      <c r="H17" s="49"/>
+      <c r="I17" s="54">
         <f>'Daily Schedule SUN'!I17:J17</f>
         <v>0</v>
       </c>
-      <c r="J17" s="45"/>
+      <c r="J17" s="55"/>
     </row>
     <row r="18" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="8"/>
@@ -3986,18 +3911,18 @@
         <v>0.52083333333333315</v>
       </c>
       <c r="C18" s="21" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="17"/>
       <c r="F18" s="8"/>
-      <c r="G18" s="60"/>
-      <c r="H18" s="61"/>
-      <c r="I18" s="64">
+      <c r="G18" s="50"/>
+      <c r="H18" s="51"/>
+      <c r="I18" s="56">
         <f>'Daily Schedule SUN'!I18:J18</f>
         <v>0</v>
       </c>
-      <c r="J18" s="65"/>
+      <c r="J18" s="57"/>
     </row>
     <row r="19" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="8"/>
@@ -4006,21 +3931,21 @@
         <v>0.54166666666666652</v>
       </c>
       <c r="C19" s="20" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="16"/>
       <c r="F19" s="8"/>
-      <c r="G19" s="66">
+      <c r="G19" s="58">
         <f>G7+4</f>
-        <v>42867</v>
-      </c>
-      <c r="H19" s="67"/>
-      <c r="I19" s="68">
+        <v>42880</v>
+      </c>
+      <c r="H19" s="59"/>
+      <c r="I19" s="64">
         <f>'Daily Schedule SUN'!I19:J19</f>
         <v>0</v>
       </c>
-      <c r="J19" s="69"/>
+      <c r="J19" s="65"/>
     </row>
     <row r="20" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="8"/>
@@ -4029,18 +3954,18 @@
         <v>0.56249999999999989</v>
       </c>
       <c r="C20" s="21" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="17"/>
       <c r="F20" s="8"/>
-      <c r="G20" s="40"/>
-      <c r="H20" s="41"/>
-      <c r="I20" s="46">
+      <c r="G20" s="60"/>
+      <c r="H20" s="61"/>
+      <c r="I20" s="52">
         <f>'Daily Schedule SUN'!I20:J20</f>
         <v>0</v>
       </c>
-      <c r="J20" s="47"/>
+      <c r="J20" s="53"/>
     </row>
     <row r="21" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="8"/>
@@ -4049,18 +3974,18 @@
         <v>0.58333333333333326</v>
       </c>
       <c r="C21" s="20" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="16"/>
       <c r="F21" s="8"/>
-      <c r="G21" s="42"/>
-      <c r="H21" s="43"/>
-      <c r="I21" s="48">
+      <c r="G21" s="62"/>
+      <c r="H21" s="63"/>
+      <c r="I21" s="66">
         <f>'Daily Schedule SUN'!I21:J21</f>
         <v>0</v>
       </c>
-      <c r="J21" s="49"/>
+      <c r="J21" s="67"/>
     </row>
     <row r="22" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="8"/>
@@ -4069,21 +3994,21 @@
         <v>0.60416666666666663</v>
       </c>
       <c r="C22" s="21" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="17"/>
       <c r="F22" s="8"/>
-      <c r="G22" s="56">
+      <c r="G22" s="46">
         <f>G7+5</f>
-        <v>42868</v>
-      </c>
-      <c r="H22" s="57"/>
-      <c r="I22" s="62">
+        <v>42881</v>
+      </c>
+      <c r="H22" s="47"/>
+      <c r="I22" s="68">
         <f>'Daily Schedule SUN'!I22:J22</f>
         <v>0</v>
       </c>
-      <c r="J22" s="63"/>
+      <c r="J22" s="69"/>
     </row>
     <row r="23" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="8"/>
@@ -4092,18 +4017,18 @@
         <v>0.625</v>
       </c>
       <c r="C23" s="20" t="s">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="16"/>
       <c r="F23" s="8"/>
-      <c r="G23" s="58"/>
-      <c r="H23" s="59"/>
-      <c r="I23" s="44">
+      <c r="G23" s="48"/>
+      <c r="H23" s="49"/>
+      <c r="I23" s="54">
         <f>'Daily Schedule SUN'!I23:J23</f>
         <v>0</v>
       </c>
-      <c r="J23" s="45"/>
+      <c r="J23" s="55"/>
     </row>
     <row r="24" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="8"/>
@@ -4112,18 +4037,18 @@
         <v>0.64583333333333337</v>
       </c>
       <c r="C24" s="21" t="s">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="17"/>
       <c r="F24" s="8"/>
-      <c r="G24" s="60"/>
-      <c r="H24" s="61"/>
-      <c r="I24" s="64">
+      <c r="G24" s="50"/>
+      <c r="H24" s="51"/>
+      <c r="I24" s="56">
         <f>'Daily Schedule SUN'!I24:J24</f>
         <v>0</v>
       </c>
-      <c r="J24" s="65"/>
+      <c r="J24" s="57"/>
     </row>
     <row r="25" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="8"/>
@@ -4132,21 +4057,21 @@
         <v>0.66666666666666674</v>
       </c>
       <c r="C25" s="20" t="s">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="16"/>
       <c r="F25" s="8"/>
-      <c r="G25" s="66">
+      <c r="G25" s="58">
         <f>G7+6</f>
-        <v>42869</v>
-      </c>
-      <c r="H25" s="67"/>
-      <c r="I25" s="68">
+        <v>42882</v>
+      </c>
+      <c r="H25" s="59"/>
+      <c r="I25" s="64">
         <f>'Daily Schedule SUN'!I25:J25</f>
         <v>0</v>
       </c>
-      <c r="J25" s="69"/>
+      <c r="J25" s="65"/>
     </row>
     <row r="26" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="8"/>
@@ -4155,18 +4080,18 @@
         <v>0.68750000000000011</v>
       </c>
       <c r="C26" s="21" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="17"/>
       <c r="F26" s="8"/>
-      <c r="G26" s="40"/>
-      <c r="H26" s="41"/>
-      <c r="I26" s="46">
+      <c r="G26" s="60"/>
+      <c r="H26" s="61"/>
+      <c r="I26" s="52">
         <f>'Daily Schedule SUN'!I26:J26</f>
         <v>0</v>
       </c>
-      <c r="J26" s="47"/>
+      <c r="J26" s="53"/>
     </row>
     <row r="27" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="8"/>
@@ -4175,18 +4100,18 @@
         <v>0.70833333333333348</v>
       </c>
       <c r="C27" s="20" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="16"/>
       <c r="F27" s="8"/>
-      <c r="G27" s="42"/>
-      <c r="H27" s="43"/>
-      <c r="I27" s="48">
+      <c r="G27" s="62"/>
+      <c r="H27" s="63"/>
+      <c r="I27" s="66">
         <f>'Daily Schedule SUN'!I27:J27</f>
         <v>0</v>
       </c>
-      <c r="J27" s="49"/>
+      <c r="J27" s="67"/>
     </row>
     <row r="28" spans="1:10" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A28" s="8"/>
@@ -4195,7 +4120,7 @@
         <v>0.72916666666666685</v>
       </c>
       <c r="C28" s="21" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="17"/>
@@ -4212,17 +4137,17 @@
         <v>0.75000000000000022</v>
       </c>
       <c r="C29" s="20" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="16"/>
       <c r="F29" s="8"/>
-      <c r="G29" s="70" t="s">
+      <c r="G29" s="37" t="s">
         <v>26</v>
       </c>
-      <c r="H29" s="71"/>
-      <c r="I29" s="71"/>
-      <c r="J29" s="72"/>
+      <c r="H29" s="38"/>
+      <c r="I29" s="38"/>
+      <c r="J29" s="39"/>
     </row>
     <row r="30" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30" s="8"/>
@@ -4231,15 +4156,15 @@
         <v>0.77083333333333359</v>
       </c>
       <c r="C30" s="21" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="17"/>
       <c r="F30" s="8"/>
-      <c r="G30" s="73"/>
-      <c r="H30" s="74"/>
-      <c r="I30" s="74"/>
-      <c r="J30" s="75"/>
+      <c r="G30" s="40"/>
+      <c r="H30" s="41"/>
+      <c r="I30" s="41"/>
+      <c r="J30" s="42"/>
     </row>
     <row r="31" spans="1:10" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A31" s="8"/>
@@ -4251,10 +4176,10 @@
       <c r="D31" s="8"/>
       <c r="E31" s="16"/>
       <c r="F31" s="8"/>
-      <c r="G31" s="76"/>
-      <c r="H31" s="77"/>
-      <c r="I31" s="77"/>
-      <c r="J31" s="78"/>
+      <c r="G31" s="43"/>
+      <c r="H31" s="44"/>
+      <c r="I31" s="44"/>
+      <c r="J31" s="45"/>
     </row>
     <row r="32" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A32" s="8"/>
@@ -4378,6 +4303,30 @@
     </row>
   </sheetData>
   <mergeCells count="33">
+    <mergeCell ref="B2:C3"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="G5:J6"/>
+    <mergeCell ref="G7:H9"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="I8:J8"/>
+    <mergeCell ref="I9:J9"/>
+    <mergeCell ref="G10:H12"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="G13:H15"/>
+    <mergeCell ref="I13:J13"/>
+    <mergeCell ref="I14:J14"/>
+    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="G16:H18"/>
+    <mergeCell ref="I16:J16"/>
+    <mergeCell ref="I17:J17"/>
+    <mergeCell ref="I18:J18"/>
+    <mergeCell ref="G19:H21"/>
+    <mergeCell ref="I19:J19"/>
+    <mergeCell ref="I20:J20"/>
+    <mergeCell ref="I21:J21"/>
     <mergeCell ref="G29:J31"/>
     <mergeCell ref="G22:H24"/>
     <mergeCell ref="I22:J22"/>
@@ -4387,30 +4336,6 @@
     <mergeCell ref="I25:J25"/>
     <mergeCell ref="I26:J26"/>
     <mergeCell ref="I27:J27"/>
-    <mergeCell ref="G16:H18"/>
-    <mergeCell ref="I16:J16"/>
-    <mergeCell ref="I17:J17"/>
-    <mergeCell ref="I18:J18"/>
-    <mergeCell ref="G19:H21"/>
-    <mergeCell ref="I19:J19"/>
-    <mergeCell ref="I20:J20"/>
-    <mergeCell ref="I21:J21"/>
-    <mergeCell ref="G10:H12"/>
-    <mergeCell ref="I10:J10"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="I12:J12"/>
-    <mergeCell ref="G13:H15"/>
-    <mergeCell ref="I13:J13"/>
-    <mergeCell ref="I14:J14"/>
-    <mergeCell ref="I15:J15"/>
-    <mergeCell ref="B2:C3"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="G5:J6"/>
-    <mergeCell ref="G7:H9"/>
-    <mergeCell ref="I7:J7"/>
-    <mergeCell ref="I8:J8"/>
-    <mergeCell ref="I9:J9"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="G29" r:id="rId1"/>
@@ -4492,10 +4417,10 @@
     </row>
     <row r="2" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.65">
       <c r="A2" s="8"/>
-      <c r="B2" s="37" t="s">
+      <c r="B2" s="70" t="s">
         <v>25</v>
       </c>
-      <c r="C2" s="37"/>
+      <c r="C2" s="70"/>
       <c r="D2" s="9"/>
       <c r="E2" s="12" t="s">
         <v>13</v>
@@ -4512,12 +4437,12 @@
     </row>
     <row r="3" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.65">
       <c r="A3" s="8"/>
-      <c r="B3" s="37"/>
-      <c r="C3" s="37"/>
+      <c r="B3" s="70"/>
+      <c r="C3" s="70"/>
       <c r="D3" s="9"/>
       <c r="E3" s="13">
         <f>'Daily Schedule SUN'!E3</f>
-        <v>42863</v>
+        <v>42876</v>
       </c>
       <c r="F3" s="9"/>
       <c r="G3" s="14">
@@ -4546,38 +4471,38 @@
     </row>
     <row r="5" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="8"/>
-      <c r="B5" s="38" t="s">
+      <c r="B5" s="71" t="s">
         <v>0</v>
       </c>
       <c r="C5" s="23" t="s">
         <v>20</v>
       </c>
       <c r="D5" s="8"/>
-      <c r="E5" s="39" t="s">
+      <c r="E5" s="72" t="s">
         <v>14</v>
       </c>
       <c r="F5" s="8"/>
-      <c r="G5" s="80" t="s">
+      <c r="G5" s="79" t="s">
         <v>15</v>
       </c>
-      <c r="H5" s="81"/>
-      <c r="I5" s="80"/>
-      <c r="J5" s="80"/>
+      <c r="H5" s="80"/>
+      <c r="I5" s="79"/>
+      <c r="J5" s="79"/>
     </row>
     <row r="6" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="8"/>
-      <c r="B6" s="38"/>
+      <c r="B6" s="71"/>
       <c r="C6" s="24">
         <f>E3+4</f>
-        <v>42867</v>
+        <v>42880</v>
       </c>
       <c r="D6" s="8"/>
-      <c r="E6" s="39"/>
+      <c r="E6" s="72"/>
       <c r="F6" s="8"/>
-      <c r="G6" s="80"/>
-      <c r="H6" s="80"/>
-      <c r="I6" s="80"/>
-      <c r="J6" s="80"/>
+      <c r="G6" s="79"/>
+      <c r="H6" s="79"/>
+      <c r="I6" s="79"/>
+      <c r="J6" s="79"/>
     </row>
     <row r="7" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="8"/>
@@ -4589,16 +4514,16 @@
       <c r="D7" s="8"/>
       <c r="E7" s="16"/>
       <c r="F7" s="8"/>
-      <c r="G7" s="66">
+      <c r="G7" s="58">
         <f>E3</f>
-        <v>42863</v>
-      </c>
-      <c r="H7" s="67"/>
-      <c r="I7" s="68">
+        <v>42876</v>
+      </c>
+      <c r="H7" s="59"/>
+      <c r="I7" s="64">
         <f>'Daily Schedule SUN'!I7:J7</f>
         <v>0</v>
       </c>
-      <c r="J7" s="69"/>
+      <c r="J7" s="65"/>
     </row>
     <row r="8" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="8"/>
@@ -4610,13 +4535,13 @@
       <c r="D8" s="8"/>
       <c r="E8" s="17"/>
       <c r="F8" s="8"/>
-      <c r="G8" s="40"/>
-      <c r="H8" s="41"/>
-      <c r="I8" s="46">
+      <c r="G8" s="60"/>
+      <c r="H8" s="61"/>
+      <c r="I8" s="52">
         <f>'Daily Schedule SUN'!I8:J8</f>
         <v>0</v>
       </c>
-      <c r="J8" s="47"/>
+      <c r="J8" s="53"/>
     </row>
     <row r="9" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="8"/>
@@ -4628,13 +4553,13 @@
       <c r="D9" s="8"/>
       <c r="E9" s="16"/>
       <c r="F9" s="8"/>
-      <c r="G9" s="42"/>
-      <c r="H9" s="43"/>
-      <c r="I9" s="48">
+      <c r="G9" s="62"/>
+      <c r="H9" s="63"/>
+      <c r="I9" s="66">
         <f>'Daily Schedule SUN'!I9:J9</f>
         <v>0</v>
       </c>
-      <c r="J9" s="49"/>
+      <c r="J9" s="67"/>
     </row>
     <row r="10" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="8"/>
@@ -4646,16 +4571,16 @@
       <c r="D10" s="8"/>
       <c r="E10" s="17"/>
       <c r="F10" s="8"/>
-      <c r="G10" s="56">
+      <c r="G10" s="46">
         <f>G7+1</f>
-        <v>42864</v>
-      </c>
-      <c r="H10" s="57"/>
-      <c r="I10" s="62">
+        <v>42877</v>
+      </c>
+      <c r="H10" s="47"/>
+      <c r="I10" s="68">
         <f>'Daily Schedule SUN'!I10:J10</f>
         <v>0</v>
       </c>
-      <c r="J10" s="63"/>
+      <c r="J10" s="69"/>
     </row>
     <row r="11" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="8"/>
@@ -4667,13 +4592,13 @@
       <c r="D11" s="8"/>
       <c r="E11" s="16"/>
       <c r="F11" s="8"/>
-      <c r="G11" s="58"/>
-      <c r="H11" s="59"/>
-      <c r="I11" s="44">
+      <c r="G11" s="48"/>
+      <c r="H11" s="49"/>
+      <c r="I11" s="54">
         <f>'Daily Schedule SUN'!I11:J11</f>
         <v>0</v>
       </c>
-      <c r="J11" s="45"/>
+      <c r="J11" s="55"/>
     </row>
     <row r="12" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="8"/>
@@ -4685,13 +4610,13 @@
       <c r="D12" s="8"/>
       <c r="E12" s="17"/>
       <c r="F12" s="8"/>
-      <c r="G12" s="60"/>
-      <c r="H12" s="61"/>
-      <c r="I12" s="64">
+      <c r="G12" s="50"/>
+      <c r="H12" s="51"/>
+      <c r="I12" s="56">
         <f>'Daily Schedule SUN'!I12:J12</f>
         <v>0</v>
       </c>
-      <c r="J12" s="65"/>
+      <c r="J12" s="57"/>
     </row>
     <row r="13" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="8"/>
@@ -4703,16 +4628,16 @@
       <c r="D13" s="8"/>
       <c r="E13" s="16"/>
       <c r="F13" s="8"/>
-      <c r="G13" s="66">
+      <c r="G13" s="58">
         <f>G7+2</f>
-        <v>42865</v>
-      </c>
-      <c r="H13" s="67"/>
-      <c r="I13" s="68">
+        <v>42878</v>
+      </c>
+      <c r="H13" s="59"/>
+      <c r="I13" s="64">
         <f>'Daily Schedule SUN'!I13:J13</f>
         <v>0</v>
       </c>
-      <c r="J13" s="69"/>
+      <c r="J13" s="65"/>
     </row>
     <row r="14" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="8"/>
@@ -4724,13 +4649,13 @@
       <c r="D14" s="8"/>
       <c r="E14" s="17"/>
       <c r="F14" s="8"/>
-      <c r="G14" s="40"/>
-      <c r="H14" s="41"/>
-      <c r="I14" s="46">
+      <c r="G14" s="60"/>
+      <c r="H14" s="61"/>
+      <c r="I14" s="52">
         <f>'Daily Schedule SUN'!I14:J14</f>
         <v>0</v>
       </c>
-      <c r="J14" s="47"/>
+      <c r="J14" s="53"/>
     </row>
     <row r="15" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="8"/>
@@ -4742,13 +4667,13 @@
       <c r="D15" s="8"/>
       <c r="E15" s="16"/>
       <c r="F15" s="8"/>
-      <c r="G15" s="42"/>
-      <c r="H15" s="43"/>
-      <c r="I15" s="48">
+      <c r="G15" s="62"/>
+      <c r="H15" s="63"/>
+      <c r="I15" s="66">
         <f>'Daily Schedule SUN'!I15:J15</f>
         <v>0</v>
       </c>
-      <c r="J15" s="49"/>
+      <c r="J15" s="67"/>
     </row>
     <row r="16" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="8"/>
@@ -4760,16 +4685,16 @@
       <c r="D16" s="8"/>
       <c r="E16" s="17"/>
       <c r="F16" s="8"/>
-      <c r="G16" s="56">
+      <c r="G16" s="46">
         <f>G7+3</f>
-        <v>42866</v>
-      </c>
-      <c r="H16" s="57"/>
-      <c r="I16" s="62">
+        <v>42879</v>
+      </c>
+      <c r="H16" s="47"/>
+      <c r="I16" s="68">
         <f>'Daily Schedule SUN'!I16:J16</f>
         <v>0</v>
       </c>
-      <c r="J16" s="63"/>
+      <c r="J16" s="69"/>
     </row>
     <row r="17" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="8"/>
@@ -4781,13 +4706,13 @@
       <c r="D17" s="8"/>
       <c r="E17" s="16"/>
       <c r="F17" s="8"/>
-      <c r="G17" s="58"/>
-      <c r="H17" s="59"/>
-      <c r="I17" s="44">
+      <c r="G17" s="48"/>
+      <c r="H17" s="49"/>
+      <c r="I17" s="54">
         <f>'Daily Schedule SUN'!I17:J17</f>
         <v>0</v>
       </c>
-      <c r="J17" s="45"/>
+      <c r="J17" s="55"/>
     </row>
     <row r="18" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="8"/>
@@ -4799,13 +4724,13 @@
       <c r="D18" s="8"/>
       <c r="E18" s="17"/>
       <c r="F18" s="8"/>
-      <c r="G18" s="60"/>
-      <c r="H18" s="61"/>
-      <c r="I18" s="64">
+      <c r="G18" s="50"/>
+      <c r="H18" s="51"/>
+      <c r="I18" s="56">
         <f>'Daily Schedule SUN'!I18:J18</f>
         <v>0</v>
       </c>
-      <c r="J18" s="65"/>
+      <c r="J18" s="57"/>
     </row>
     <row r="19" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="8"/>
@@ -4817,16 +4742,16 @@
       <c r="D19" s="8"/>
       <c r="E19" s="16"/>
       <c r="F19" s="8"/>
-      <c r="G19" s="66">
+      <c r="G19" s="58">
         <f>G7+4</f>
-        <v>42867</v>
-      </c>
-      <c r="H19" s="67"/>
-      <c r="I19" s="68">
+        <v>42880</v>
+      </c>
+      <c r="H19" s="59"/>
+      <c r="I19" s="64">
         <f>'Daily Schedule SUN'!I19:J19</f>
         <v>0</v>
       </c>
-      <c r="J19" s="69"/>
+      <c r="J19" s="65"/>
     </row>
     <row r="20" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="8"/>
@@ -4838,13 +4763,13 @@
       <c r="D20" s="8"/>
       <c r="E20" s="17"/>
       <c r="F20" s="8"/>
-      <c r="G20" s="40"/>
-      <c r="H20" s="41"/>
-      <c r="I20" s="46">
+      <c r="G20" s="60"/>
+      <c r="H20" s="61"/>
+      <c r="I20" s="52">
         <f>'Daily Schedule SUN'!I20:J20</f>
         <v>0</v>
       </c>
-      <c r="J20" s="47"/>
+      <c r="J20" s="53"/>
     </row>
     <row r="21" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="8"/>
@@ -4856,13 +4781,13 @@
       <c r="D21" s="8"/>
       <c r="E21" s="16"/>
       <c r="F21" s="8"/>
-      <c r="G21" s="42"/>
-      <c r="H21" s="43"/>
-      <c r="I21" s="48">
+      <c r="G21" s="62"/>
+      <c r="H21" s="63"/>
+      <c r="I21" s="66">
         <f>'Daily Schedule SUN'!I21:J21</f>
         <v>0</v>
       </c>
-      <c r="J21" s="49"/>
+      <c r="J21" s="67"/>
     </row>
     <row r="22" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="8"/>
@@ -4874,16 +4799,16 @@
       <c r="D22" s="8"/>
       <c r="E22" s="17"/>
       <c r="F22" s="8"/>
-      <c r="G22" s="56">
+      <c r="G22" s="46">
         <f>G7+5</f>
-        <v>42868</v>
-      </c>
-      <c r="H22" s="57"/>
-      <c r="I22" s="62">
+        <v>42881</v>
+      </c>
+      <c r="H22" s="47"/>
+      <c r="I22" s="68">
         <f>'Daily Schedule SUN'!I22:J22</f>
         <v>0</v>
       </c>
-      <c r="J22" s="63"/>
+      <c r="J22" s="69"/>
     </row>
     <row r="23" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="8"/>
@@ -4895,13 +4820,13 @@
       <c r="D23" s="8"/>
       <c r="E23" s="16"/>
       <c r="F23" s="8"/>
-      <c r="G23" s="58"/>
-      <c r="H23" s="59"/>
-      <c r="I23" s="44">
+      <c r="G23" s="48"/>
+      <c r="H23" s="49"/>
+      <c r="I23" s="54">
         <f>'Daily Schedule SUN'!I23:J23</f>
         <v>0</v>
       </c>
-      <c r="J23" s="45"/>
+      <c r="J23" s="55"/>
     </row>
     <row r="24" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="8"/>
@@ -4913,13 +4838,13 @@
       <c r="D24" s="8"/>
       <c r="E24" s="17"/>
       <c r="F24" s="8"/>
-      <c r="G24" s="60"/>
-      <c r="H24" s="61"/>
-      <c r="I24" s="64">
+      <c r="G24" s="50"/>
+      <c r="H24" s="51"/>
+      <c r="I24" s="56">
         <f>'Daily Schedule SUN'!I24:J24</f>
         <v>0</v>
       </c>
-      <c r="J24" s="65"/>
+      <c r="J24" s="57"/>
     </row>
     <row r="25" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="8"/>
@@ -4931,16 +4856,16 @@
       <c r="D25" s="8"/>
       <c r="E25" s="16"/>
       <c r="F25" s="8"/>
-      <c r="G25" s="66">
+      <c r="G25" s="58">
         <f>G7+6</f>
-        <v>42869</v>
-      </c>
-      <c r="H25" s="67"/>
-      <c r="I25" s="68">
+        <v>42882</v>
+      </c>
+      <c r="H25" s="59"/>
+      <c r="I25" s="64">
         <f>'Daily Schedule SUN'!I25:J25</f>
         <v>0</v>
       </c>
-      <c r="J25" s="69"/>
+      <c r="J25" s="65"/>
     </row>
     <row r="26" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="8"/>
@@ -4952,13 +4877,13 @@
       <c r="D26" s="8"/>
       <c r="E26" s="17"/>
       <c r="F26" s="8"/>
-      <c r="G26" s="40"/>
-      <c r="H26" s="41"/>
-      <c r="I26" s="46">
+      <c r="G26" s="60"/>
+      <c r="H26" s="61"/>
+      <c r="I26" s="52">
         <f>'Daily Schedule SUN'!I26:J26</f>
         <v>0</v>
       </c>
-      <c r="J26" s="47"/>
+      <c r="J26" s="53"/>
     </row>
     <row r="27" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="8"/>
@@ -4970,13 +4895,13 @@
       <c r="D27" s="8"/>
       <c r="E27" s="16"/>
       <c r="F27" s="8"/>
-      <c r="G27" s="42"/>
-      <c r="H27" s="43"/>
-      <c r="I27" s="48">
+      <c r="G27" s="62"/>
+      <c r="H27" s="63"/>
+      <c r="I27" s="66">
         <f>'Daily Schedule SUN'!I27:J27</f>
         <v>0</v>
       </c>
-      <c r="J27" s="49"/>
+      <c r="J27" s="67"/>
     </row>
     <row r="28" spans="1:10" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A28" s="8"/>
@@ -5003,12 +4928,12 @@
       <c r="D29" s="8"/>
       <c r="E29" s="16"/>
       <c r="F29" s="8"/>
-      <c r="G29" s="70" t="s">
+      <c r="G29" s="37" t="s">
         <v>26</v>
       </c>
-      <c r="H29" s="71"/>
-      <c r="I29" s="71"/>
-      <c r="J29" s="72"/>
+      <c r="H29" s="38"/>
+      <c r="I29" s="38"/>
+      <c r="J29" s="39"/>
     </row>
     <row r="30" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30" s="8"/>
@@ -5020,10 +4945,10 @@
       <c r="D30" s="8"/>
       <c r="E30" s="17"/>
       <c r="F30" s="8"/>
-      <c r="G30" s="73"/>
-      <c r="H30" s="74"/>
-      <c r="I30" s="74"/>
-      <c r="J30" s="75"/>
+      <c r="G30" s="40"/>
+      <c r="H30" s="41"/>
+      <c r="I30" s="41"/>
+      <c r="J30" s="42"/>
     </row>
     <row r="31" spans="1:10" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A31" s="8"/>
@@ -5035,10 +4960,10 @@
       <c r="D31" s="8"/>
       <c r="E31" s="16"/>
       <c r="F31" s="8"/>
-      <c r="G31" s="76"/>
-      <c r="H31" s="77"/>
-      <c r="I31" s="77"/>
-      <c r="J31" s="78"/>
+      <c r="G31" s="43"/>
+      <c r="H31" s="44"/>
+      <c r="I31" s="44"/>
+      <c r="J31" s="45"/>
     </row>
     <row r="32" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A32" s="8"/>
@@ -5162,6 +5087,30 @@
     </row>
   </sheetData>
   <mergeCells count="33">
+    <mergeCell ref="B2:C3"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="G5:J6"/>
+    <mergeCell ref="G7:H9"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="I8:J8"/>
+    <mergeCell ref="I9:J9"/>
+    <mergeCell ref="G10:H12"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="G13:H15"/>
+    <mergeCell ref="I13:J13"/>
+    <mergeCell ref="I14:J14"/>
+    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="G16:H18"/>
+    <mergeCell ref="I16:J16"/>
+    <mergeCell ref="I17:J17"/>
+    <mergeCell ref="I18:J18"/>
+    <mergeCell ref="G19:H21"/>
+    <mergeCell ref="I19:J19"/>
+    <mergeCell ref="I20:J20"/>
+    <mergeCell ref="I21:J21"/>
     <mergeCell ref="G29:J31"/>
     <mergeCell ref="G22:H24"/>
     <mergeCell ref="I22:J22"/>
@@ -5171,30 +5120,6 @@
     <mergeCell ref="I25:J25"/>
     <mergeCell ref="I26:J26"/>
     <mergeCell ref="I27:J27"/>
-    <mergeCell ref="G16:H18"/>
-    <mergeCell ref="I16:J16"/>
-    <mergeCell ref="I17:J17"/>
-    <mergeCell ref="I18:J18"/>
-    <mergeCell ref="G19:H21"/>
-    <mergeCell ref="I19:J19"/>
-    <mergeCell ref="I20:J20"/>
-    <mergeCell ref="I21:J21"/>
-    <mergeCell ref="G10:H12"/>
-    <mergeCell ref="I10:J10"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="I12:J12"/>
-    <mergeCell ref="G13:H15"/>
-    <mergeCell ref="I13:J13"/>
-    <mergeCell ref="I14:J14"/>
-    <mergeCell ref="I15:J15"/>
-    <mergeCell ref="B2:C3"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="G5:J6"/>
-    <mergeCell ref="G7:H9"/>
-    <mergeCell ref="I7:J7"/>
-    <mergeCell ref="I8:J8"/>
-    <mergeCell ref="I9:J9"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="G29" r:id="rId1"/>
@@ -5276,10 +5201,10 @@
     </row>
     <row r="2" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.65">
       <c r="A2" s="8"/>
-      <c r="B2" s="37" t="s">
+      <c r="B2" s="70" t="s">
         <v>25</v>
       </c>
-      <c r="C2" s="37"/>
+      <c r="C2" s="70"/>
       <c r="D2" s="9"/>
       <c r="E2" s="12" t="s">
         <v>13</v>
@@ -5296,12 +5221,12 @@
     </row>
     <row r="3" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.65">
       <c r="A3" s="8"/>
-      <c r="B3" s="37"/>
-      <c r="C3" s="37"/>
+      <c r="B3" s="70"/>
+      <c r="C3" s="70"/>
       <c r="D3" s="9"/>
       <c r="E3" s="13">
         <f>'Daily Schedule SUN'!E3</f>
-        <v>42863</v>
+        <v>42876</v>
       </c>
       <c r="F3" s="9"/>
       <c r="G3" s="14">
@@ -5330,38 +5255,38 @@
     </row>
     <row r="5" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="8"/>
-      <c r="B5" s="38" t="s">
+      <c r="B5" s="71" t="s">
         <v>0</v>
       </c>
       <c r="C5" s="23" t="s">
         <v>21</v>
       </c>
       <c r="D5" s="8"/>
-      <c r="E5" s="39" t="s">
+      <c r="E5" s="72" t="s">
         <v>14</v>
       </c>
       <c r="F5" s="8"/>
-      <c r="G5" s="80" t="s">
+      <c r="G5" s="79" t="s">
         <v>15</v>
       </c>
-      <c r="H5" s="81"/>
-      <c r="I5" s="80"/>
-      <c r="J5" s="80"/>
+      <c r="H5" s="80"/>
+      <c r="I5" s="79"/>
+      <c r="J5" s="79"/>
     </row>
     <row r="6" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="8"/>
-      <c r="B6" s="38"/>
+      <c r="B6" s="71"/>
       <c r="C6" s="24">
         <f>E3+5</f>
-        <v>42868</v>
+        <v>42881</v>
       </c>
       <c r="D6" s="8"/>
-      <c r="E6" s="39"/>
+      <c r="E6" s="72"/>
       <c r="F6" s="8"/>
-      <c r="G6" s="80"/>
-      <c r="H6" s="80"/>
-      <c r="I6" s="80"/>
-      <c r="J6" s="80"/>
+      <c r="G6" s="79"/>
+      <c r="H6" s="79"/>
+      <c r="I6" s="79"/>
+      <c r="J6" s="79"/>
     </row>
     <row r="7" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="8"/>
@@ -5373,16 +5298,16 @@
       <c r="D7" s="8"/>
       <c r="E7" s="16"/>
       <c r="F7" s="8"/>
-      <c r="G7" s="66">
+      <c r="G7" s="58">
         <f>E3</f>
-        <v>42863</v>
-      </c>
-      <c r="H7" s="67"/>
-      <c r="I7" s="68">
+        <v>42876</v>
+      </c>
+      <c r="H7" s="59"/>
+      <c r="I7" s="64">
         <f>'Daily Schedule SUN'!I7:J7</f>
         <v>0</v>
       </c>
-      <c r="J7" s="69"/>
+      <c r="J7" s="65"/>
     </row>
     <row r="8" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="8"/>
@@ -5394,13 +5319,13 @@
       <c r="D8" s="8"/>
       <c r="E8" s="17"/>
       <c r="F8" s="8"/>
-      <c r="G8" s="40"/>
-      <c r="H8" s="41"/>
-      <c r="I8" s="46">
+      <c r="G8" s="60"/>
+      <c r="H8" s="61"/>
+      <c r="I8" s="52">
         <f>'Daily Schedule SUN'!I8:J8</f>
         <v>0</v>
       </c>
-      <c r="J8" s="47"/>
+      <c r="J8" s="53"/>
     </row>
     <row r="9" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="8"/>
@@ -5412,13 +5337,13 @@
       <c r="D9" s="8"/>
       <c r="E9" s="16"/>
       <c r="F9" s="8"/>
-      <c r="G9" s="42"/>
-      <c r="H9" s="43"/>
-      <c r="I9" s="48">
+      <c r="G9" s="62"/>
+      <c r="H9" s="63"/>
+      <c r="I9" s="66">
         <f>'Daily Schedule SUN'!I9:J9</f>
         <v>0</v>
       </c>
-      <c r="J9" s="49"/>
+      <c r="J9" s="67"/>
     </row>
     <row r="10" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="8"/>
@@ -5430,16 +5355,16 @@
       <c r="D10" s="8"/>
       <c r="E10" s="17"/>
       <c r="F10" s="8"/>
-      <c r="G10" s="56">
+      <c r="G10" s="46">
         <f>G7+1</f>
-        <v>42864</v>
-      </c>
-      <c r="H10" s="57"/>
-      <c r="I10" s="62">
+        <v>42877</v>
+      </c>
+      <c r="H10" s="47"/>
+      <c r="I10" s="68">
         <f>'Daily Schedule SUN'!I10:J10</f>
         <v>0</v>
       </c>
-      <c r="J10" s="63"/>
+      <c r="J10" s="69"/>
     </row>
     <row r="11" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="8"/>
@@ -5451,13 +5376,13 @@
       <c r="D11" s="8"/>
       <c r="E11" s="16"/>
       <c r="F11" s="8"/>
-      <c r="G11" s="58"/>
-      <c r="H11" s="59"/>
-      <c r="I11" s="44">
+      <c r="G11" s="48"/>
+      <c r="H11" s="49"/>
+      <c r="I11" s="54">
         <f>'Daily Schedule SUN'!I11:J11</f>
         <v>0</v>
       </c>
-      <c r="J11" s="45"/>
+      <c r="J11" s="55"/>
     </row>
     <row r="12" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="8"/>
@@ -5469,13 +5394,13 @@
       <c r="D12" s="8"/>
       <c r="E12" s="17"/>
       <c r="F12" s="8"/>
-      <c r="G12" s="60"/>
-      <c r="H12" s="61"/>
-      <c r="I12" s="64">
+      <c r="G12" s="50"/>
+      <c r="H12" s="51"/>
+      <c r="I12" s="56">
         <f>'Daily Schedule SUN'!I12:J12</f>
         <v>0</v>
       </c>
-      <c r="J12" s="65"/>
+      <c r="J12" s="57"/>
     </row>
     <row r="13" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="8"/>
@@ -5487,16 +5412,16 @@
       <c r="D13" s="8"/>
       <c r="E13" s="16"/>
       <c r="F13" s="8"/>
-      <c r="G13" s="66">
+      <c r="G13" s="58">
         <f>G7+2</f>
-        <v>42865</v>
-      </c>
-      <c r="H13" s="67"/>
-      <c r="I13" s="68">
+        <v>42878</v>
+      </c>
+      <c r="H13" s="59"/>
+      <c r="I13" s="64">
         <f>'Daily Schedule SUN'!I13:J13</f>
         <v>0</v>
       </c>
-      <c r="J13" s="69"/>
+      <c r="J13" s="65"/>
     </row>
     <row r="14" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="8"/>
@@ -5508,13 +5433,13 @@
       <c r="D14" s="8"/>
       <c r="E14" s="17"/>
       <c r="F14" s="8"/>
-      <c r="G14" s="40"/>
-      <c r="H14" s="41"/>
-      <c r="I14" s="46">
+      <c r="G14" s="60"/>
+      <c r="H14" s="61"/>
+      <c r="I14" s="52">
         <f>'Daily Schedule SUN'!I14:J14</f>
         <v>0</v>
       </c>
-      <c r="J14" s="47"/>
+      <c r="J14" s="53"/>
     </row>
     <row r="15" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="8"/>
@@ -5526,13 +5451,13 @@
       <c r="D15" s="8"/>
       <c r="E15" s="16"/>
       <c r="F15" s="8"/>
-      <c r="G15" s="42"/>
-      <c r="H15" s="43"/>
-      <c r="I15" s="48">
+      <c r="G15" s="62"/>
+      <c r="H15" s="63"/>
+      <c r="I15" s="66">
         <f>'Daily Schedule SUN'!I15:J15</f>
         <v>0</v>
       </c>
-      <c r="J15" s="49"/>
+      <c r="J15" s="67"/>
     </row>
     <row r="16" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="8"/>
@@ -5544,16 +5469,16 @@
       <c r="D16" s="8"/>
       <c r="E16" s="17"/>
       <c r="F16" s="8"/>
-      <c r="G16" s="56">
+      <c r="G16" s="46">
         <f>G7+3</f>
-        <v>42866</v>
-      </c>
-      <c r="H16" s="57"/>
-      <c r="I16" s="62">
+        <v>42879</v>
+      </c>
+      <c r="H16" s="47"/>
+      <c r="I16" s="68">
         <f>'Daily Schedule SUN'!I16:J16</f>
         <v>0</v>
       </c>
-      <c r="J16" s="63"/>
+      <c r="J16" s="69"/>
     </row>
     <row r="17" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="8"/>
@@ -5565,13 +5490,13 @@
       <c r="D17" s="8"/>
       <c r="E17" s="16"/>
       <c r="F17" s="8"/>
-      <c r="G17" s="58"/>
-      <c r="H17" s="59"/>
-      <c r="I17" s="44">
+      <c r="G17" s="48"/>
+      <c r="H17" s="49"/>
+      <c r="I17" s="54">
         <f>'Daily Schedule SUN'!I17:J17</f>
         <v>0</v>
       </c>
-      <c r="J17" s="45"/>
+      <c r="J17" s="55"/>
     </row>
     <row r="18" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="8"/>
@@ -5583,13 +5508,13 @@
       <c r="D18" s="8"/>
       <c r="E18" s="17"/>
       <c r="F18" s="8"/>
-      <c r="G18" s="60"/>
-      <c r="H18" s="61"/>
-      <c r="I18" s="64">
+      <c r="G18" s="50"/>
+      <c r="H18" s="51"/>
+      <c r="I18" s="56">
         <f>'Daily Schedule SUN'!I18:J18</f>
         <v>0</v>
       </c>
-      <c r="J18" s="65"/>
+      <c r="J18" s="57"/>
     </row>
     <row r="19" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="8"/>
@@ -5601,16 +5526,16 @@
       <c r="D19" s="8"/>
       <c r="E19" s="16"/>
       <c r="F19" s="8"/>
-      <c r="G19" s="66">
+      <c r="G19" s="58">
         <f>G7+4</f>
-        <v>42867</v>
-      </c>
-      <c r="H19" s="67"/>
-      <c r="I19" s="68">
+        <v>42880</v>
+      </c>
+      <c r="H19" s="59"/>
+      <c r="I19" s="64">
         <f>'Daily Schedule SUN'!I19:J19</f>
         <v>0</v>
       </c>
-      <c r="J19" s="69"/>
+      <c r="J19" s="65"/>
     </row>
     <row r="20" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="8"/>
@@ -5622,13 +5547,13 @@
       <c r="D20" s="8"/>
       <c r="E20" s="17"/>
       <c r="F20" s="8"/>
-      <c r="G20" s="40"/>
-      <c r="H20" s="41"/>
-      <c r="I20" s="46">
+      <c r="G20" s="60"/>
+      <c r="H20" s="61"/>
+      <c r="I20" s="52">
         <f>'Daily Schedule SUN'!I20:J20</f>
         <v>0</v>
       </c>
-      <c r="J20" s="47"/>
+      <c r="J20" s="53"/>
     </row>
     <row r="21" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="8"/>
@@ -5640,13 +5565,13 @@
       <c r="D21" s="8"/>
       <c r="E21" s="16"/>
       <c r="F21" s="8"/>
-      <c r="G21" s="42"/>
-      <c r="H21" s="43"/>
-      <c r="I21" s="48">
+      <c r="G21" s="62"/>
+      <c r="H21" s="63"/>
+      <c r="I21" s="66">
         <f>'Daily Schedule SUN'!I21:J21</f>
         <v>0</v>
       </c>
-      <c r="J21" s="49"/>
+      <c r="J21" s="67"/>
     </row>
     <row r="22" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="8"/>
@@ -5658,16 +5583,16 @@
       <c r="D22" s="8"/>
       <c r="E22" s="17"/>
       <c r="F22" s="8"/>
-      <c r="G22" s="56">
+      <c r="G22" s="46">
         <f>G7+5</f>
-        <v>42868</v>
-      </c>
-      <c r="H22" s="57"/>
-      <c r="I22" s="62">
+        <v>42881</v>
+      </c>
+      <c r="H22" s="47"/>
+      <c r="I22" s="68">
         <f>'Daily Schedule SUN'!I22:J22</f>
         <v>0</v>
       </c>
-      <c r="J22" s="63"/>
+      <c r="J22" s="69"/>
     </row>
     <row r="23" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="8"/>
@@ -5679,13 +5604,13 @@
       <c r="D23" s="8"/>
       <c r="E23" s="16"/>
       <c r="F23" s="8"/>
-      <c r="G23" s="58"/>
-      <c r="H23" s="59"/>
-      <c r="I23" s="44">
+      <c r="G23" s="48"/>
+      <c r="H23" s="49"/>
+      <c r="I23" s="54">
         <f>'Daily Schedule SUN'!I23:J23</f>
         <v>0</v>
       </c>
-      <c r="J23" s="45"/>
+      <c r="J23" s="55"/>
     </row>
     <row r="24" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="8"/>
@@ -5697,13 +5622,13 @@
       <c r="D24" s="8"/>
       <c r="E24" s="17"/>
       <c r="F24" s="8"/>
-      <c r="G24" s="60"/>
-      <c r="H24" s="61"/>
-      <c r="I24" s="64">
+      <c r="G24" s="50"/>
+      <c r="H24" s="51"/>
+      <c r="I24" s="56">
         <f>'Daily Schedule SUN'!I24:J24</f>
         <v>0</v>
       </c>
-      <c r="J24" s="65"/>
+      <c r="J24" s="57"/>
     </row>
     <row r="25" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="8"/>
@@ -5715,16 +5640,16 @@
       <c r="D25" s="8"/>
       <c r="E25" s="16"/>
       <c r="F25" s="8"/>
-      <c r="G25" s="66">
+      <c r="G25" s="58">
         <f>G7+6</f>
-        <v>42869</v>
-      </c>
-      <c r="H25" s="67"/>
-      <c r="I25" s="68">
+        <v>42882</v>
+      </c>
+      <c r="H25" s="59"/>
+      <c r="I25" s="64">
         <f>'Daily Schedule SUN'!I25:J25</f>
         <v>0</v>
       </c>
-      <c r="J25" s="69"/>
+      <c r="J25" s="65"/>
     </row>
     <row r="26" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="8"/>
@@ -5736,13 +5661,13 @@
       <c r="D26" s="8"/>
       <c r="E26" s="17"/>
       <c r="F26" s="8"/>
-      <c r="G26" s="40"/>
-      <c r="H26" s="41"/>
-      <c r="I26" s="46">
+      <c r="G26" s="60"/>
+      <c r="H26" s="61"/>
+      <c r="I26" s="52">
         <f>'Daily Schedule SUN'!I26:J26</f>
         <v>0</v>
       </c>
-      <c r="J26" s="47"/>
+      <c r="J26" s="53"/>
     </row>
     <row r="27" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="8"/>
@@ -5754,13 +5679,13 @@
       <c r="D27" s="8"/>
       <c r="E27" s="16"/>
       <c r="F27" s="8"/>
-      <c r="G27" s="42"/>
-      <c r="H27" s="43"/>
-      <c r="I27" s="48">
+      <c r="G27" s="62"/>
+      <c r="H27" s="63"/>
+      <c r="I27" s="66">
         <f>'Daily Schedule SUN'!I27:J27</f>
         <v>0</v>
       </c>
-      <c r="J27" s="49"/>
+      <c r="J27" s="67"/>
     </row>
     <row r="28" spans="1:10" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A28" s="8"/>
@@ -5787,12 +5712,12 @@
       <c r="D29" s="8"/>
       <c r="E29" s="16"/>
       <c r="F29" s="8"/>
-      <c r="G29" s="70" t="s">
+      <c r="G29" s="37" t="s">
         <v>26</v>
       </c>
-      <c r="H29" s="71"/>
-      <c r="I29" s="71"/>
-      <c r="J29" s="72"/>
+      <c r="H29" s="38"/>
+      <c r="I29" s="38"/>
+      <c r="J29" s="39"/>
     </row>
     <row r="30" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30" s="8"/>
@@ -5804,10 +5729,10 @@
       <c r="D30" s="8"/>
       <c r="E30" s="17"/>
       <c r="F30" s="8"/>
-      <c r="G30" s="73"/>
-      <c r="H30" s="74"/>
-      <c r="I30" s="74"/>
-      <c r="J30" s="75"/>
+      <c r="G30" s="40"/>
+      <c r="H30" s="41"/>
+      <c r="I30" s="41"/>
+      <c r="J30" s="42"/>
     </row>
     <row r="31" spans="1:10" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A31" s="8"/>
@@ -5819,10 +5744,10 @@
       <c r="D31" s="8"/>
       <c r="E31" s="16"/>
       <c r="F31" s="8"/>
-      <c r="G31" s="76"/>
-      <c r="H31" s="77"/>
-      <c r="I31" s="77"/>
-      <c r="J31" s="78"/>
+      <c r="G31" s="43"/>
+      <c r="H31" s="44"/>
+      <c r="I31" s="44"/>
+      <c r="J31" s="45"/>
     </row>
     <row r="32" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A32" s="8"/>
@@ -5946,6 +5871,30 @@
     </row>
   </sheetData>
   <mergeCells count="33">
+    <mergeCell ref="B2:C3"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="G5:J6"/>
+    <mergeCell ref="G7:H9"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="I8:J8"/>
+    <mergeCell ref="I9:J9"/>
+    <mergeCell ref="G10:H12"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="G13:H15"/>
+    <mergeCell ref="I13:J13"/>
+    <mergeCell ref="I14:J14"/>
+    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="G16:H18"/>
+    <mergeCell ref="I16:J16"/>
+    <mergeCell ref="I17:J17"/>
+    <mergeCell ref="I18:J18"/>
+    <mergeCell ref="G19:H21"/>
+    <mergeCell ref="I19:J19"/>
+    <mergeCell ref="I20:J20"/>
+    <mergeCell ref="I21:J21"/>
     <mergeCell ref="G29:J31"/>
     <mergeCell ref="G22:H24"/>
     <mergeCell ref="I22:J22"/>
@@ -5955,30 +5904,6 @@
     <mergeCell ref="I25:J25"/>
     <mergeCell ref="I26:J26"/>
     <mergeCell ref="I27:J27"/>
-    <mergeCell ref="G16:H18"/>
-    <mergeCell ref="I16:J16"/>
-    <mergeCell ref="I17:J17"/>
-    <mergeCell ref="I18:J18"/>
-    <mergeCell ref="G19:H21"/>
-    <mergeCell ref="I19:J19"/>
-    <mergeCell ref="I20:J20"/>
-    <mergeCell ref="I21:J21"/>
-    <mergeCell ref="G10:H12"/>
-    <mergeCell ref="I10:J10"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="I12:J12"/>
-    <mergeCell ref="G13:H15"/>
-    <mergeCell ref="I13:J13"/>
-    <mergeCell ref="I14:J14"/>
-    <mergeCell ref="I15:J15"/>
-    <mergeCell ref="B2:C3"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="G5:J6"/>
-    <mergeCell ref="G7:H9"/>
-    <mergeCell ref="I7:J7"/>
-    <mergeCell ref="I8:J8"/>
-    <mergeCell ref="I9:J9"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="G29" r:id="rId1"/>
@@ -6060,10 +5985,10 @@
     </row>
     <row r="2" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.65">
       <c r="A2" s="8"/>
-      <c r="B2" s="37" t="s">
+      <c r="B2" s="70" t="s">
         <v>25</v>
       </c>
-      <c r="C2" s="37"/>
+      <c r="C2" s="70"/>
       <c r="D2" s="9"/>
       <c r="E2" s="12" t="s">
         <v>13</v>
@@ -6080,12 +6005,12 @@
     </row>
     <row r="3" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.65">
       <c r="A3" s="8"/>
-      <c r="B3" s="37"/>
-      <c r="C3" s="37"/>
+      <c r="B3" s="70"/>
+      <c r="C3" s="70"/>
       <c r="D3" s="9"/>
       <c r="E3" s="13">
         <f>'Daily Schedule SUN'!E3</f>
-        <v>42863</v>
+        <v>42876</v>
       </c>
       <c r="F3" s="9"/>
       <c r="G3" s="14">
@@ -6114,38 +6039,38 @@
     </row>
     <row r="5" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="8"/>
-      <c r="B5" s="38" t="s">
+      <c r="B5" s="71" t="s">
         <v>0</v>
       </c>
       <c r="C5" s="23" t="s">
         <v>22</v>
       </c>
       <c r="D5" s="8"/>
-      <c r="E5" s="39" t="s">
+      <c r="E5" s="72" t="s">
         <v>14</v>
       </c>
       <c r="F5" s="8"/>
-      <c r="G5" s="80" t="s">
+      <c r="G5" s="79" t="s">
         <v>15</v>
       </c>
-      <c r="H5" s="81"/>
-      <c r="I5" s="80"/>
-      <c r="J5" s="80"/>
+      <c r="H5" s="80"/>
+      <c r="I5" s="79"/>
+      <c r="J5" s="79"/>
     </row>
     <row r="6" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="8"/>
-      <c r="B6" s="38"/>
+      <c r="B6" s="71"/>
       <c r="C6" s="24">
         <f>E3+6</f>
-        <v>42869</v>
+        <v>42882</v>
       </c>
       <c r="D6" s="8"/>
-      <c r="E6" s="39"/>
+      <c r="E6" s="72"/>
       <c r="F6" s="8"/>
-      <c r="G6" s="80"/>
-      <c r="H6" s="80"/>
-      <c r="I6" s="80"/>
-      <c r="J6" s="80"/>
+      <c r="G6" s="79"/>
+      <c r="H6" s="79"/>
+      <c r="I6" s="79"/>
+      <c r="J6" s="79"/>
     </row>
     <row r="7" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="8"/>
@@ -6157,16 +6082,16 @@
       <c r="D7" s="8"/>
       <c r="E7" s="16"/>
       <c r="F7" s="8"/>
-      <c r="G7" s="66">
+      <c r="G7" s="58">
         <f>E3</f>
-        <v>42863</v>
-      </c>
-      <c r="H7" s="67"/>
-      <c r="I7" s="68">
+        <v>42876</v>
+      </c>
+      <c r="H7" s="59"/>
+      <c r="I7" s="64">
         <f>'Daily Schedule SUN'!I7:J7</f>
         <v>0</v>
       </c>
-      <c r="J7" s="69"/>
+      <c r="J7" s="65"/>
     </row>
     <row r="8" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="8"/>
@@ -6178,13 +6103,13 @@
       <c r="D8" s="8"/>
       <c r="E8" s="17"/>
       <c r="F8" s="8"/>
-      <c r="G8" s="40"/>
-      <c r="H8" s="41"/>
-      <c r="I8" s="46">
+      <c r="G8" s="60"/>
+      <c r="H8" s="61"/>
+      <c r="I8" s="52">
         <f>'Daily Schedule SUN'!I8:J8</f>
         <v>0</v>
       </c>
-      <c r="J8" s="47"/>
+      <c r="J8" s="53"/>
     </row>
     <row r="9" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="8"/>
@@ -6196,13 +6121,13 @@
       <c r="D9" s="8"/>
       <c r="E9" s="16"/>
       <c r="F9" s="8"/>
-      <c r="G9" s="42"/>
-      <c r="H9" s="43"/>
-      <c r="I9" s="48">
+      <c r="G9" s="62"/>
+      <c r="H9" s="63"/>
+      <c r="I9" s="66">
         <f>'Daily Schedule SUN'!I9:J9</f>
         <v>0</v>
       </c>
-      <c r="J9" s="49"/>
+      <c r="J9" s="67"/>
     </row>
     <row r="10" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="8"/>
@@ -6214,16 +6139,16 @@
       <c r="D10" s="8"/>
       <c r="E10" s="17"/>
       <c r="F10" s="8"/>
-      <c r="G10" s="56">
+      <c r="G10" s="46">
         <f>G7+1</f>
-        <v>42864</v>
-      </c>
-      <c r="H10" s="57"/>
-      <c r="I10" s="62">
+        <v>42877</v>
+      </c>
+      <c r="H10" s="47"/>
+      <c r="I10" s="68">
         <f>'Daily Schedule SUN'!I10:J10</f>
         <v>0</v>
       </c>
-      <c r="J10" s="63"/>
+      <c r="J10" s="69"/>
     </row>
     <row r="11" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="8"/>
@@ -6235,13 +6160,13 @@
       <c r="D11" s="8"/>
       <c r="E11" s="16"/>
       <c r="F11" s="8"/>
-      <c r="G11" s="58"/>
-      <c r="H11" s="59"/>
-      <c r="I11" s="44">
+      <c r="G11" s="48"/>
+      <c r="H11" s="49"/>
+      <c r="I11" s="54">
         <f>'Daily Schedule SUN'!I11:J11</f>
         <v>0</v>
       </c>
-      <c r="J11" s="45"/>
+      <c r="J11" s="55"/>
     </row>
     <row r="12" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="8"/>
@@ -6253,13 +6178,13 @@
       <c r="D12" s="8"/>
       <c r="E12" s="17"/>
       <c r="F12" s="8"/>
-      <c r="G12" s="60"/>
-      <c r="H12" s="61"/>
-      <c r="I12" s="64">
+      <c r="G12" s="50"/>
+      <c r="H12" s="51"/>
+      <c r="I12" s="56">
         <f>'Daily Schedule SUN'!I12:J12</f>
         <v>0</v>
       </c>
-      <c r="J12" s="65"/>
+      <c r="J12" s="57"/>
     </row>
     <row r="13" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="8"/>
@@ -6271,16 +6196,16 @@
       <c r="D13" s="8"/>
       <c r="E13" s="16"/>
       <c r="F13" s="8"/>
-      <c r="G13" s="66">
+      <c r="G13" s="58">
         <f>G7+2</f>
-        <v>42865</v>
-      </c>
-      <c r="H13" s="67"/>
-      <c r="I13" s="68">
+        <v>42878</v>
+      </c>
+      <c r="H13" s="59"/>
+      <c r="I13" s="64">
         <f>'Daily Schedule SUN'!I13:J13</f>
         <v>0</v>
       </c>
-      <c r="J13" s="69"/>
+      <c r="J13" s="65"/>
     </row>
     <row r="14" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="8"/>
@@ -6292,13 +6217,13 @@
       <c r="D14" s="8"/>
       <c r="E14" s="17"/>
       <c r="F14" s="8"/>
-      <c r="G14" s="40"/>
-      <c r="H14" s="41"/>
-      <c r="I14" s="46">
+      <c r="G14" s="60"/>
+      <c r="H14" s="61"/>
+      <c r="I14" s="52">
         <f>'Daily Schedule SUN'!I14:J14</f>
         <v>0</v>
       </c>
-      <c r="J14" s="47"/>
+      <c r="J14" s="53"/>
     </row>
     <row r="15" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="8"/>
@@ -6310,13 +6235,13 @@
       <c r="D15" s="8"/>
       <c r="E15" s="16"/>
       <c r="F15" s="8"/>
-      <c r="G15" s="42"/>
-      <c r="H15" s="43"/>
-      <c r="I15" s="48">
+      <c r="G15" s="62"/>
+      <c r="H15" s="63"/>
+      <c r="I15" s="66">
         <f>'Daily Schedule SUN'!I15:J15</f>
         <v>0</v>
       </c>
-      <c r="J15" s="49"/>
+      <c r="J15" s="67"/>
     </row>
     <row r="16" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="8"/>
@@ -6328,16 +6253,16 @@
       <c r="D16" s="8"/>
       <c r="E16" s="17"/>
       <c r="F16" s="8"/>
-      <c r="G16" s="56">
+      <c r="G16" s="46">
         <f>G7+3</f>
-        <v>42866</v>
-      </c>
-      <c r="H16" s="57"/>
-      <c r="I16" s="62">
+        <v>42879</v>
+      </c>
+      <c r="H16" s="47"/>
+      <c r="I16" s="68">
         <f>'Daily Schedule SUN'!I16:J16</f>
         <v>0</v>
       </c>
-      <c r="J16" s="63"/>
+      <c r="J16" s="69"/>
     </row>
     <row r="17" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="8"/>
@@ -6349,13 +6274,13 @@
       <c r="D17" s="8"/>
       <c r="E17" s="16"/>
       <c r="F17" s="8"/>
-      <c r="G17" s="58"/>
-      <c r="H17" s="59"/>
-      <c r="I17" s="44">
+      <c r="G17" s="48"/>
+      <c r="H17" s="49"/>
+      <c r="I17" s="54">
         <f>'Daily Schedule SUN'!I17:J17</f>
         <v>0</v>
       </c>
-      <c r="J17" s="45"/>
+      <c r="J17" s="55"/>
     </row>
     <row r="18" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="8"/>
@@ -6367,13 +6292,13 @@
       <c r="D18" s="8"/>
       <c r="E18" s="17"/>
       <c r="F18" s="8"/>
-      <c r="G18" s="60"/>
-      <c r="H18" s="61"/>
-      <c r="I18" s="64">
+      <c r="G18" s="50"/>
+      <c r="H18" s="51"/>
+      <c r="I18" s="56">
         <f>'Daily Schedule SUN'!I18:J18</f>
         <v>0</v>
       </c>
-      <c r="J18" s="65"/>
+      <c r="J18" s="57"/>
     </row>
     <row r="19" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="8"/>
@@ -6385,16 +6310,16 @@
       <c r="D19" s="8"/>
       <c r="E19" s="16"/>
       <c r="F19" s="8"/>
-      <c r="G19" s="66">
+      <c r="G19" s="58">
         <f>G7+4</f>
-        <v>42867</v>
-      </c>
-      <c r="H19" s="67"/>
-      <c r="I19" s="68">
+        <v>42880</v>
+      </c>
+      <c r="H19" s="59"/>
+      <c r="I19" s="64">
         <f>'Daily Schedule SUN'!I19:J19</f>
         <v>0</v>
       </c>
-      <c r="J19" s="69"/>
+      <c r="J19" s="65"/>
     </row>
     <row r="20" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="8"/>
@@ -6406,13 +6331,13 @@
       <c r="D20" s="8"/>
       <c r="E20" s="17"/>
       <c r="F20" s="8"/>
-      <c r="G20" s="40"/>
-      <c r="H20" s="41"/>
-      <c r="I20" s="46">
+      <c r="G20" s="60"/>
+      <c r="H20" s="61"/>
+      <c r="I20" s="52">
         <f>'Daily Schedule SUN'!I20:J20</f>
         <v>0</v>
       </c>
-      <c r="J20" s="47"/>
+      <c r="J20" s="53"/>
     </row>
     <row r="21" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="8"/>
@@ -6424,13 +6349,13 @@
       <c r="D21" s="8"/>
       <c r="E21" s="16"/>
       <c r="F21" s="8"/>
-      <c r="G21" s="42"/>
-      <c r="H21" s="43"/>
-      <c r="I21" s="48">
+      <c r="G21" s="62"/>
+      <c r="H21" s="63"/>
+      <c r="I21" s="66">
         <f>'Daily Schedule SUN'!I21:J21</f>
         <v>0</v>
       </c>
-      <c r="J21" s="49"/>
+      <c r="J21" s="67"/>
     </row>
     <row r="22" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="8"/>
@@ -6442,16 +6367,16 @@
       <c r="D22" s="8"/>
       <c r="E22" s="17"/>
       <c r="F22" s="8"/>
-      <c r="G22" s="56">
+      <c r="G22" s="46">
         <f>G7+5</f>
-        <v>42868</v>
-      </c>
-      <c r="H22" s="57"/>
-      <c r="I22" s="62">
+        <v>42881</v>
+      </c>
+      <c r="H22" s="47"/>
+      <c r="I22" s="68">
         <f>'Daily Schedule SUN'!I22:J22</f>
         <v>0</v>
       </c>
-      <c r="J22" s="63"/>
+      <c r="J22" s="69"/>
     </row>
     <row r="23" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="8"/>
@@ -6463,13 +6388,13 @@
       <c r="D23" s="8"/>
       <c r="E23" s="16"/>
       <c r="F23" s="8"/>
-      <c r="G23" s="58"/>
-      <c r="H23" s="59"/>
-      <c r="I23" s="44">
+      <c r="G23" s="48"/>
+      <c r="H23" s="49"/>
+      <c r="I23" s="54">
         <f>'Daily Schedule SUN'!I23:J23</f>
         <v>0</v>
       </c>
-      <c r="J23" s="45"/>
+      <c r="J23" s="55"/>
     </row>
     <row r="24" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="8"/>
@@ -6481,13 +6406,13 @@
       <c r="D24" s="8"/>
       <c r="E24" s="17"/>
       <c r="F24" s="8"/>
-      <c r="G24" s="60"/>
-      <c r="H24" s="61"/>
-      <c r="I24" s="64">
+      <c r="G24" s="50"/>
+      <c r="H24" s="51"/>
+      <c r="I24" s="56">
         <f>'Daily Schedule SUN'!I24:J24</f>
         <v>0</v>
       </c>
-      <c r="J24" s="65"/>
+      <c r="J24" s="57"/>
     </row>
     <row r="25" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="8"/>
@@ -6499,16 +6424,16 @@
       <c r="D25" s="8"/>
       <c r="E25" s="16"/>
       <c r="F25" s="8"/>
-      <c r="G25" s="66">
+      <c r="G25" s="58">
         <f>G7+6</f>
-        <v>42869</v>
-      </c>
-      <c r="H25" s="67"/>
-      <c r="I25" s="68">
+        <v>42882</v>
+      </c>
+      <c r="H25" s="59"/>
+      <c r="I25" s="64">
         <f>'Daily Schedule SUN'!I25:J25</f>
         <v>0</v>
       </c>
-      <c r="J25" s="69"/>
+      <c r="J25" s="65"/>
     </row>
     <row r="26" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="8"/>
@@ -6520,13 +6445,13 @@
       <c r="D26" s="8"/>
       <c r="E26" s="17"/>
       <c r="F26" s="8"/>
-      <c r="G26" s="40"/>
-      <c r="H26" s="41"/>
-      <c r="I26" s="46">
+      <c r="G26" s="60"/>
+      <c r="H26" s="61"/>
+      <c r="I26" s="52">
         <f>'Daily Schedule SUN'!I26:J26</f>
         <v>0</v>
       </c>
-      <c r="J26" s="47"/>
+      <c r="J26" s="53"/>
     </row>
     <row r="27" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="8"/>
@@ -6538,13 +6463,13 @@
       <c r="D27" s="8"/>
       <c r="E27" s="16"/>
       <c r="F27" s="8"/>
-      <c r="G27" s="42"/>
-      <c r="H27" s="43"/>
-      <c r="I27" s="48">
+      <c r="G27" s="62"/>
+      <c r="H27" s="63"/>
+      <c r="I27" s="66">
         <f>'Daily Schedule SUN'!I27:J27</f>
         <v>0</v>
       </c>
-      <c r="J27" s="49"/>
+      <c r="J27" s="67"/>
     </row>
     <row r="28" spans="1:10" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A28" s="8"/>
@@ -6571,12 +6496,12 @@
       <c r="D29" s="8"/>
       <c r="E29" s="16"/>
       <c r="F29" s="8"/>
-      <c r="G29" s="70" t="s">
+      <c r="G29" s="37" t="s">
         <v>26</v>
       </c>
-      <c r="H29" s="71"/>
-      <c r="I29" s="71"/>
-      <c r="J29" s="72"/>
+      <c r="H29" s="38"/>
+      <c r="I29" s="38"/>
+      <c r="J29" s="39"/>
     </row>
     <row r="30" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30" s="8"/>
@@ -6588,10 +6513,10 @@
       <c r="D30" s="8"/>
       <c r="E30" s="17"/>
       <c r="F30" s="8"/>
-      <c r="G30" s="73"/>
-      <c r="H30" s="74"/>
-      <c r="I30" s="74"/>
-      <c r="J30" s="75"/>
+      <c r="G30" s="40"/>
+      <c r="H30" s="41"/>
+      <c r="I30" s="41"/>
+      <c r="J30" s="42"/>
     </row>
     <row r="31" spans="1:10" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A31" s="8"/>
@@ -6603,10 +6528,10 @@
       <c r="D31" s="8"/>
       <c r="E31" s="16"/>
       <c r="F31" s="8"/>
-      <c r="G31" s="76"/>
-      <c r="H31" s="77"/>
-      <c r="I31" s="77"/>
-      <c r="J31" s="78"/>
+      <c r="G31" s="43"/>
+      <c r="H31" s="44"/>
+      <c r="I31" s="44"/>
+      <c r="J31" s="45"/>
     </row>
     <row r="32" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A32" s="8"/>
@@ -6730,6 +6655,30 @@
     </row>
   </sheetData>
   <mergeCells count="33">
+    <mergeCell ref="B2:C3"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="G5:J6"/>
+    <mergeCell ref="G7:H9"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="I8:J8"/>
+    <mergeCell ref="I9:J9"/>
+    <mergeCell ref="G10:H12"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="G13:H15"/>
+    <mergeCell ref="I13:J13"/>
+    <mergeCell ref="I14:J14"/>
+    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="G16:H18"/>
+    <mergeCell ref="I16:J16"/>
+    <mergeCell ref="I17:J17"/>
+    <mergeCell ref="I18:J18"/>
+    <mergeCell ref="G19:H21"/>
+    <mergeCell ref="I19:J19"/>
+    <mergeCell ref="I20:J20"/>
+    <mergeCell ref="I21:J21"/>
     <mergeCell ref="G29:J31"/>
     <mergeCell ref="G22:H24"/>
     <mergeCell ref="I22:J22"/>
@@ -6739,30 +6688,6 @@
     <mergeCell ref="I25:J25"/>
     <mergeCell ref="I26:J26"/>
     <mergeCell ref="I27:J27"/>
-    <mergeCell ref="G16:H18"/>
-    <mergeCell ref="I16:J16"/>
-    <mergeCell ref="I17:J17"/>
-    <mergeCell ref="I18:J18"/>
-    <mergeCell ref="G19:H21"/>
-    <mergeCell ref="I19:J19"/>
-    <mergeCell ref="I20:J20"/>
-    <mergeCell ref="I21:J21"/>
-    <mergeCell ref="G10:H12"/>
-    <mergeCell ref="I10:J10"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="I12:J12"/>
-    <mergeCell ref="G13:H15"/>
-    <mergeCell ref="I13:J13"/>
-    <mergeCell ref="I14:J14"/>
-    <mergeCell ref="I15:J15"/>
-    <mergeCell ref="B2:C3"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="G5:J6"/>
-    <mergeCell ref="G7:H9"/>
-    <mergeCell ref="I7:J7"/>
-    <mergeCell ref="I8:J8"/>
-    <mergeCell ref="I9:J9"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="G29" r:id="rId1"/>

--- a/daily-work-schedule-template.xlsx
+++ b/daily-work-schedule-template.xlsx
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="39">
   <si>
     <t>TIME</t>
   </si>
@@ -163,6 +163,9 @@
   </si>
   <si>
     <t>Closed at 6:09pm</t>
+  </si>
+  <si>
+    <t>Fix sentence pages</t>
   </si>
 </sst>
 </file>
@@ -788,6 +791,105 @@
     <xf numFmtId="0" fontId="19" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="10" fillId="17" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="10" fillId="17" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="10" fillId="17" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="10" fillId="17" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="165" fontId="10" fillId="13" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="10" fillId="13" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="10" fillId="13" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="10" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="10" fillId="13" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="10" fillId="13" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="10" fillId="17" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="10" fillId="17" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="18" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -815,112 +917,13 @@
     <xf numFmtId="0" fontId="14" fillId="18" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="10" fillId="13" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="10" fillId="13" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="10" fillId="13" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="10" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="10" fillId="13" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="10" fillId="13" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="10" fillId="17" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="10" fillId="17" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="10" fillId="17" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="10" fillId="17" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="10" fillId="17" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="10" fillId="17" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="13" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="13" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="10" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1278,10 +1281,10 @@
     </row>
     <row r="2" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.65">
       <c r="A2" s="8"/>
-      <c r="B2" s="70" t="s">
+      <c r="B2" s="37" t="s">
         <v>25</v>
       </c>
-      <c r="C2" s="70"/>
+      <c r="C2" s="37"/>
       <c r="D2" s="9"/>
       <c r="E2" s="12" t="s">
         <v>13</v>
@@ -1298,8 +1301,8 @@
     </row>
     <row r="3" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.65">
       <c r="A3" s="8"/>
-      <c r="B3" s="70"/>
-      <c r="C3" s="70"/>
+      <c r="B3" s="37"/>
+      <c r="C3" s="37"/>
       <c r="D3" s="9"/>
       <c r="E3" s="13">
         <v>42876</v>
@@ -1331,40 +1334,40 @@
     </row>
     <row r="5" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="8"/>
-      <c r="B5" s="71" t="s">
+      <c r="B5" s="38" t="s">
         <v>0</v>
       </c>
       <c r="C5" s="23" t="s">
         <v>17</v>
       </c>
       <c r="D5" s="8"/>
-      <c r="E5" s="72" t="s">
+      <c r="E5" s="39" t="s">
         <v>14</v>
       </c>
       <c r="F5" s="8"/>
-      <c r="G5" s="73" t="s">
+      <c r="G5" s="50" t="s">
         <v>23</v>
       </c>
-      <c r="H5" s="74"/>
-      <c r="I5" s="74"/>
-      <c r="J5" s="75"/>
+      <c r="H5" s="51"/>
+      <c r="I5" s="51"/>
+      <c r="J5" s="52"/>
     </row>
     <row r="6" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="8"/>
-      <c r="B6" s="71"/>
+      <c r="B6" s="38"/>
       <c r="C6" s="24">
         <f>E3</f>
         <v>42876</v>
       </c>
       <c r="D6" s="8"/>
-      <c r="E6" s="72"/>
+      <c r="E6" s="39"/>
       <c r="F6" s="8"/>
-      <c r="G6" s="76" t="s">
+      <c r="G6" s="53" t="s">
         <v>24</v>
       </c>
-      <c r="H6" s="77"/>
-      <c r="I6" s="77"/>
-      <c r="J6" s="78"/>
+      <c r="H6" s="54"/>
+      <c r="I6" s="54"/>
+      <c r="J6" s="55"/>
     </row>
     <row r="7" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="8"/>
@@ -1376,13 +1379,13 @@
       <c r="D7" s="8"/>
       <c r="E7" s="16"/>
       <c r="F7" s="8"/>
-      <c r="G7" s="60">
+      <c r="G7" s="40">
         <f>E3</f>
         <v>42876</v>
       </c>
-      <c r="H7" s="61"/>
-      <c r="I7" s="54"/>
-      <c r="J7" s="55"/>
+      <c r="H7" s="41"/>
+      <c r="I7" s="44"/>
+      <c r="J7" s="45"/>
     </row>
     <row r="8" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="8"/>
@@ -1394,10 +1397,10 @@
       <c r="D8" s="8"/>
       <c r="E8" s="17"/>
       <c r="F8" s="8"/>
-      <c r="G8" s="60"/>
-      <c r="H8" s="61"/>
-      <c r="I8" s="52"/>
-      <c r="J8" s="53"/>
+      <c r="G8" s="40"/>
+      <c r="H8" s="41"/>
+      <c r="I8" s="46"/>
+      <c r="J8" s="47"/>
     </row>
     <row r="9" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="8"/>
@@ -1409,10 +1412,10 @@
       <c r="D9" s="8"/>
       <c r="E9" s="16"/>
       <c r="F9" s="8"/>
-      <c r="G9" s="62"/>
-      <c r="H9" s="63"/>
-      <c r="I9" s="66"/>
-      <c r="J9" s="67"/>
+      <c r="G9" s="42"/>
+      <c r="H9" s="43"/>
+      <c r="I9" s="48"/>
+      <c r="J9" s="49"/>
     </row>
     <row r="10" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="8"/>
@@ -1424,13 +1427,13 @@
       <c r="D10" s="8"/>
       <c r="E10" s="17"/>
       <c r="F10" s="8"/>
-      <c r="G10" s="46">
+      <c r="G10" s="56">
         <f>G7+1</f>
         <v>42877</v>
       </c>
-      <c r="H10" s="47"/>
-      <c r="I10" s="68"/>
-      <c r="J10" s="69"/>
+      <c r="H10" s="57"/>
+      <c r="I10" s="62"/>
+      <c r="J10" s="63"/>
     </row>
     <row r="11" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="8"/>
@@ -1442,10 +1445,10 @@
       <c r="D11" s="8"/>
       <c r="E11" s="16"/>
       <c r="F11" s="8"/>
-      <c r="G11" s="48"/>
-      <c r="H11" s="49"/>
-      <c r="I11" s="54"/>
-      <c r="J11" s="55"/>
+      <c r="G11" s="58"/>
+      <c r="H11" s="59"/>
+      <c r="I11" s="44"/>
+      <c r="J11" s="45"/>
     </row>
     <row r="12" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="8"/>
@@ -1457,10 +1460,10 @@
       <c r="D12" s="8"/>
       <c r="E12" s="17"/>
       <c r="F12" s="8"/>
-      <c r="G12" s="50"/>
-      <c r="H12" s="51"/>
-      <c r="I12" s="56"/>
-      <c r="J12" s="57"/>
+      <c r="G12" s="60"/>
+      <c r="H12" s="61"/>
+      <c r="I12" s="64"/>
+      <c r="J12" s="65"/>
     </row>
     <row r="13" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="8"/>
@@ -1472,13 +1475,13 @@
       <c r="D13" s="8"/>
       <c r="E13" s="16"/>
       <c r="F13" s="8"/>
-      <c r="G13" s="58">
+      <c r="G13" s="66">
         <f>G7+2</f>
         <v>42878</v>
       </c>
-      <c r="H13" s="59"/>
-      <c r="I13" s="64"/>
-      <c r="J13" s="65"/>
+      <c r="H13" s="67"/>
+      <c r="I13" s="68"/>
+      <c r="J13" s="69"/>
     </row>
     <row r="14" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="8"/>
@@ -1490,10 +1493,10 @@
       <c r="D14" s="8"/>
       <c r="E14" s="17"/>
       <c r="F14" s="8"/>
-      <c r="G14" s="60"/>
-      <c r="H14" s="61"/>
-      <c r="I14" s="52"/>
-      <c r="J14" s="53"/>
+      <c r="G14" s="40"/>
+      <c r="H14" s="41"/>
+      <c r="I14" s="46"/>
+      <c r="J14" s="47"/>
     </row>
     <row r="15" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="8"/>
@@ -1505,10 +1508,10 @@
       <c r="D15" s="8"/>
       <c r="E15" s="16"/>
       <c r="F15" s="8"/>
-      <c r="G15" s="62"/>
-      <c r="H15" s="63"/>
-      <c r="I15" s="66"/>
-      <c r="J15" s="67"/>
+      <c r="G15" s="42"/>
+      <c r="H15" s="43"/>
+      <c r="I15" s="48"/>
+      <c r="J15" s="49"/>
     </row>
     <row r="16" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="8"/>
@@ -1520,13 +1523,13 @@
       <c r="D16" s="8"/>
       <c r="E16" s="17"/>
       <c r="F16" s="8"/>
-      <c r="G16" s="46">
+      <c r="G16" s="56">
         <f>G7+3</f>
         <v>42879</v>
       </c>
-      <c r="H16" s="47"/>
-      <c r="I16" s="68"/>
-      <c r="J16" s="69"/>
+      <c r="H16" s="57"/>
+      <c r="I16" s="62"/>
+      <c r="J16" s="63"/>
     </row>
     <row r="17" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="8"/>
@@ -1538,10 +1541,10 @@
       <c r="D17" s="8"/>
       <c r="E17" s="16"/>
       <c r="F17" s="8"/>
-      <c r="G17" s="48"/>
-      <c r="H17" s="49"/>
-      <c r="I17" s="54"/>
-      <c r="J17" s="55"/>
+      <c r="G17" s="58"/>
+      <c r="H17" s="59"/>
+      <c r="I17" s="44"/>
+      <c r="J17" s="45"/>
     </row>
     <row r="18" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="8"/>
@@ -1553,10 +1556,10 @@
       <c r="D18" s="8"/>
       <c r="E18" s="17"/>
       <c r="F18" s="8"/>
-      <c r="G18" s="50"/>
-      <c r="H18" s="51"/>
-      <c r="I18" s="56"/>
-      <c r="J18" s="57"/>
+      <c r="G18" s="60"/>
+      <c r="H18" s="61"/>
+      <c r="I18" s="64"/>
+      <c r="J18" s="65"/>
     </row>
     <row r="19" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="8"/>
@@ -1568,13 +1571,13 @@
       <c r="D19" s="8"/>
       <c r="E19" s="16"/>
       <c r="F19" s="8"/>
-      <c r="G19" s="58">
+      <c r="G19" s="66">
         <f>G7+4</f>
         <v>42880</v>
       </c>
-      <c r="H19" s="59"/>
-      <c r="I19" s="64"/>
-      <c r="J19" s="65"/>
+      <c r="H19" s="67"/>
+      <c r="I19" s="68"/>
+      <c r="J19" s="69"/>
     </row>
     <row r="20" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="8"/>
@@ -1586,10 +1589,10 @@
       <c r="D20" s="8"/>
       <c r="E20" s="17"/>
       <c r="F20" s="8"/>
-      <c r="G20" s="60"/>
-      <c r="H20" s="61"/>
-      <c r="I20" s="52"/>
-      <c r="J20" s="53"/>
+      <c r="G20" s="40"/>
+      <c r="H20" s="41"/>
+      <c r="I20" s="46"/>
+      <c r="J20" s="47"/>
     </row>
     <row r="21" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="8"/>
@@ -1601,10 +1604,10 @@
       <c r="D21" s="8"/>
       <c r="E21" s="16"/>
       <c r="F21" s="8"/>
-      <c r="G21" s="62"/>
-      <c r="H21" s="63"/>
-      <c r="I21" s="66"/>
-      <c r="J21" s="67"/>
+      <c r="G21" s="42"/>
+      <c r="H21" s="43"/>
+      <c r="I21" s="48"/>
+      <c r="J21" s="49"/>
     </row>
     <row r="22" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="8"/>
@@ -1616,13 +1619,13 @@
       <c r="D22" s="8"/>
       <c r="E22" s="17"/>
       <c r="F22" s="8"/>
-      <c r="G22" s="46">
+      <c r="G22" s="56">
         <f>G7+5</f>
         <v>42881</v>
       </c>
-      <c r="H22" s="47"/>
-      <c r="I22" s="52"/>
-      <c r="J22" s="53"/>
+      <c r="H22" s="57"/>
+      <c r="I22" s="46"/>
+      <c r="J22" s="47"/>
     </row>
     <row r="23" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="8"/>
@@ -1634,10 +1637,10 @@
       <c r="D23" s="8"/>
       <c r="E23" s="16"/>
       <c r="F23" s="8"/>
-      <c r="G23" s="48"/>
-      <c r="H23" s="49"/>
-      <c r="I23" s="54"/>
-      <c r="J23" s="55"/>
+      <c r="G23" s="58"/>
+      <c r="H23" s="59"/>
+      <c r="I23" s="44"/>
+      <c r="J23" s="45"/>
     </row>
     <row r="24" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="8"/>
@@ -1649,10 +1652,10 @@
       <c r="D24" s="8"/>
       <c r="E24" s="17"/>
       <c r="F24" s="8"/>
-      <c r="G24" s="50"/>
-      <c r="H24" s="51"/>
-      <c r="I24" s="56"/>
-      <c r="J24" s="57"/>
+      <c r="G24" s="60"/>
+      <c r="H24" s="61"/>
+      <c r="I24" s="64"/>
+      <c r="J24" s="65"/>
     </row>
     <row r="25" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="8"/>
@@ -1664,13 +1667,13 @@
       <c r="D25" s="8"/>
       <c r="E25" s="16"/>
       <c r="F25" s="8"/>
-      <c r="G25" s="58">
+      <c r="G25" s="66">
         <f>G7+6</f>
         <v>42882</v>
       </c>
-      <c r="H25" s="59"/>
-      <c r="I25" s="64"/>
-      <c r="J25" s="65"/>
+      <c r="H25" s="67"/>
+      <c r="I25" s="68"/>
+      <c r="J25" s="69"/>
     </row>
     <row r="26" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="8"/>
@@ -1682,10 +1685,10 @@
       <c r="D26" s="8"/>
       <c r="E26" s="17"/>
       <c r="F26" s="8"/>
-      <c r="G26" s="60"/>
-      <c r="H26" s="61"/>
-      <c r="I26" s="52"/>
-      <c r="J26" s="53"/>
+      <c r="G26" s="40"/>
+      <c r="H26" s="41"/>
+      <c r="I26" s="46"/>
+      <c r="J26" s="47"/>
     </row>
     <row r="27" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="8"/>
@@ -1697,10 +1700,10 @@
       <c r="D27" s="8"/>
       <c r="E27" s="16"/>
       <c r="F27" s="8"/>
-      <c r="G27" s="62"/>
-      <c r="H27" s="63"/>
-      <c r="I27" s="66"/>
-      <c r="J27" s="67"/>
+      <c r="G27" s="42"/>
+      <c r="H27" s="43"/>
+      <c r="I27" s="48"/>
+      <c r="J27" s="49"/>
     </row>
     <row r="28" spans="1:10" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A28" s="8"/>
@@ -1727,12 +1730,12 @@
       <c r="D29" s="8"/>
       <c r="E29" s="16"/>
       <c r="F29" s="8"/>
-      <c r="G29" s="37" t="s">
+      <c r="G29" s="70" t="s">
         <v>26</v>
       </c>
-      <c r="H29" s="38"/>
-      <c r="I29" s="38"/>
-      <c r="J29" s="39"/>
+      <c r="H29" s="71"/>
+      <c r="I29" s="71"/>
+      <c r="J29" s="72"/>
     </row>
     <row r="30" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30" s="8"/>
@@ -1744,10 +1747,10 @@
       <c r="D30" s="8"/>
       <c r="E30" s="17"/>
       <c r="F30" s="8"/>
-      <c r="G30" s="40"/>
-      <c r="H30" s="41"/>
-      <c r="I30" s="41"/>
-      <c r="J30" s="42"/>
+      <c r="G30" s="73"/>
+      <c r="H30" s="74"/>
+      <c r="I30" s="74"/>
+      <c r="J30" s="75"/>
     </row>
     <row r="31" spans="1:10" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A31" s="8"/>
@@ -1759,10 +1762,10 @@
       <c r="D31" s="8"/>
       <c r="E31" s="16"/>
       <c r="F31" s="8"/>
-      <c r="G31" s="43"/>
-      <c r="H31" s="44"/>
-      <c r="I31" s="44"/>
-      <c r="J31" s="45"/>
+      <c r="G31" s="76"/>
+      <c r="H31" s="77"/>
+      <c r="I31" s="77"/>
+      <c r="J31" s="78"/>
     </row>
     <row r="32" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A32" s="8"/>
@@ -1886,6 +1889,31 @@
     </row>
   </sheetData>
   <mergeCells count="34">
+    <mergeCell ref="G29:J31"/>
+    <mergeCell ref="G22:H24"/>
+    <mergeCell ref="I22:J22"/>
+    <mergeCell ref="I23:J23"/>
+    <mergeCell ref="I24:J24"/>
+    <mergeCell ref="G25:H27"/>
+    <mergeCell ref="I25:J25"/>
+    <mergeCell ref="I26:J26"/>
+    <mergeCell ref="I27:J27"/>
+    <mergeCell ref="G16:H18"/>
+    <mergeCell ref="I16:J16"/>
+    <mergeCell ref="I17:J17"/>
+    <mergeCell ref="I18:J18"/>
+    <mergeCell ref="G19:H21"/>
+    <mergeCell ref="I19:J19"/>
+    <mergeCell ref="I20:J20"/>
+    <mergeCell ref="I21:J21"/>
+    <mergeCell ref="G10:H12"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="G13:H15"/>
+    <mergeCell ref="I13:J13"/>
+    <mergeCell ref="I14:J14"/>
+    <mergeCell ref="I15:J15"/>
     <mergeCell ref="B2:C3"/>
     <mergeCell ref="B5:B6"/>
     <mergeCell ref="E5:E6"/>
@@ -1895,31 +1923,6 @@
     <mergeCell ref="I9:J9"/>
     <mergeCell ref="G5:J5"/>
     <mergeCell ref="G6:J6"/>
-    <mergeCell ref="G10:H12"/>
-    <mergeCell ref="I10:J10"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="I12:J12"/>
-    <mergeCell ref="G13:H15"/>
-    <mergeCell ref="I13:J13"/>
-    <mergeCell ref="I14:J14"/>
-    <mergeCell ref="I15:J15"/>
-    <mergeCell ref="G16:H18"/>
-    <mergeCell ref="I16:J16"/>
-    <mergeCell ref="I17:J17"/>
-    <mergeCell ref="I18:J18"/>
-    <mergeCell ref="G19:H21"/>
-    <mergeCell ref="I19:J19"/>
-    <mergeCell ref="I20:J20"/>
-    <mergeCell ref="I21:J21"/>
-    <mergeCell ref="G29:J31"/>
-    <mergeCell ref="G22:H24"/>
-    <mergeCell ref="I22:J22"/>
-    <mergeCell ref="I23:J23"/>
-    <mergeCell ref="I24:J24"/>
-    <mergeCell ref="G25:H27"/>
-    <mergeCell ref="I25:J25"/>
-    <mergeCell ref="I26:J26"/>
-    <mergeCell ref="I27:J27"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="G29" r:id="rId1"/>
@@ -2001,10 +2004,10 @@
     </row>
     <row r="2" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.65">
       <c r="A2" s="8"/>
-      <c r="B2" s="70" t="s">
+      <c r="B2" s="37" t="s">
         <v>25</v>
       </c>
-      <c r="C2" s="70"/>
+      <c r="C2" s="37"/>
       <c r="D2" s="9"/>
       <c r="E2" s="12" t="s">
         <v>13</v>
@@ -2021,8 +2024,8 @@
     </row>
     <row r="3" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.65">
       <c r="A3" s="8"/>
-      <c r="B3" s="70"/>
-      <c r="C3" s="70"/>
+      <c r="B3" s="37"/>
+      <c r="C3" s="37"/>
       <c r="D3" s="9"/>
       <c r="E3" s="13">
         <f>'Daily Schedule SUN'!E3</f>
@@ -2055,38 +2058,38 @@
     </row>
     <row r="5" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="8"/>
-      <c r="B5" s="81" t="s">
+      <c r="B5" s="79" t="s">
         <v>0</v>
       </c>
       <c r="C5" s="31" t="s">
         <v>16</v>
       </c>
       <c r="D5" s="8"/>
-      <c r="E5" s="72" t="s">
+      <c r="E5" s="39" t="s">
         <v>14</v>
       </c>
       <c r="F5" s="8"/>
-      <c r="G5" s="79" t="s">
+      <c r="G5" s="80" t="s">
         <v>15</v>
       </c>
-      <c r="H5" s="80"/>
-      <c r="I5" s="79"/>
-      <c r="J5" s="79"/>
+      <c r="H5" s="81"/>
+      <c r="I5" s="80"/>
+      <c r="J5" s="80"/>
     </row>
     <row r="6" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="8"/>
-      <c r="B6" s="81"/>
+      <c r="B6" s="79"/>
       <c r="C6" s="32">
         <f>E3+1</f>
         <v>42877</v>
       </c>
       <c r="D6" s="8"/>
-      <c r="E6" s="72"/>
+      <c r="E6" s="39"/>
       <c r="F6" s="8"/>
-      <c r="G6" s="79"/>
-      <c r="H6" s="79"/>
-      <c r="I6" s="79"/>
-      <c r="J6" s="79"/>
+      <c r="G6" s="80"/>
+      <c r="H6" s="80"/>
+      <c r="I6" s="80"/>
+      <c r="J6" s="80"/>
     </row>
     <row r="7" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="8"/>
@@ -2098,16 +2101,16 @@
       <c r="D7" s="8"/>
       <c r="E7" s="16"/>
       <c r="F7" s="8"/>
-      <c r="G7" s="58">
+      <c r="G7" s="66">
         <f>E3</f>
         <v>42876</v>
       </c>
-      <c r="H7" s="59"/>
-      <c r="I7" s="64">
+      <c r="H7" s="67"/>
+      <c r="I7" s="68">
         <f>'Daily Schedule SUN'!I7:J7</f>
         <v>0</v>
       </c>
-      <c r="J7" s="65"/>
+      <c r="J7" s="69"/>
     </row>
     <row r="8" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="8"/>
@@ -2119,13 +2122,13 @@
       <c r="D8" s="8"/>
       <c r="E8" s="17"/>
       <c r="F8" s="8"/>
-      <c r="G8" s="60"/>
-      <c r="H8" s="61"/>
-      <c r="I8" s="52">
+      <c r="G8" s="40"/>
+      <c r="H8" s="41"/>
+      <c r="I8" s="46">
         <f>'Daily Schedule SUN'!I8:J8</f>
         <v>0</v>
       </c>
-      <c r="J8" s="53"/>
+      <c r="J8" s="47"/>
     </row>
     <row r="9" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="8"/>
@@ -2137,13 +2140,13 @@
       <c r="D9" s="8"/>
       <c r="E9" s="16"/>
       <c r="F9" s="8"/>
-      <c r="G9" s="62"/>
-      <c r="H9" s="63"/>
-      <c r="I9" s="66">
+      <c r="G9" s="42"/>
+      <c r="H9" s="43"/>
+      <c r="I9" s="48">
         <f>'Daily Schedule SUN'!I9:J9</f>
         <v>0</v>
       </c>
-      <c r="J9" s="67"/>
+      <c r="J9" s="49"/>
     </row>
     <row r="10" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="8"/>
@@ -2155,16 +2158,16 @@
       <c r="D10" s="8"/>
       <c r="E10" s="17"/>
       <c r="F10" s="8"/>
-      <c r="G10" s="46">
+      <c r="G10" s="56">
         <f>G7+1</f>
         <v>42877</v>
       </c>
-      <c r="H10" s="47"/>
-      <c r="I10" s="68">
+      <c r="H10" s="57"/>
+      <c r="I10" s="62">
         <f>'Daily Schedule SUN'!I10:J10</f>
         <v>0</v>
       </c>
-      <c r="J10" s="69"/>
+      <c r="J10" s="63"/>
     </row>
     <row r="11" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="8"/>
@@ -2176,13 +2179,13 @@
       <c r="D11" s="8"/>
       <c r="E11" s="16"/>
       <c r="F11" s="8"/>
-      <c r="G11" s="48"/>
-      <c r="H11" s="49"/>
-      <c r="I11" s="54">
+      <c r="G11" s="58"/>
+      <c r="H11" s="59"/>
+      <c r="I11" s="44">
         <f>'Daily Schedule SUN'!I11:J11</f>
         <v>0</v>
       </c>
-      <c r="J11" s="55"/>
+      <c r="J11" s="45"/>
     </row>
     <row r="12" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="8"/>
@@ -2194,13 +2197,13 @@
       <c r="D12" s="8"/>
       <c r="E12" s="17"/>
       <c r="F12" s="8"/>
-      <c r="G12" s="50"/>
-      <c r="H12" s="51"/>
-      <c r="I12" s="56">
+      <c r="G12" s="60"/>
+      <c r="H12" s="61"/>
+      <c r="I12" s="64">
         <f>'Daily Schedule SUN'!I12:J12</f>
         <v>0</v>
       </c>
-      <c r="J12" s="57"/>
+      <c r="J12" s="65"/>
     </row>
     <row r="13" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="8"/>
@@ -2212,16 +2215,16 @@
       <c r="D13" s="8"/>
       <c r="E13" s="16"/>
       <c r="F13" s="8"/>
-      <c r="G13" s="58">
+      <c r="G13" s="66">
         <f>G7+2</f>
         <v>42878</v>
       </c>
-      <c r="H13" s="59"/>
-      <c r="I13" s="64">
+      <c r="H13" s="67"/>
+      <c r="I13" s="68">
         <f>'Daily Schedule SUN'!I13:J13</f>
         <v>0</v>
       </c>
-      <c r="J13" s="65"/>
+      <c r="J13" s="69"/>
     </row>
     <row r="14" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="8"/>
@@ -2233,13 +2236,13 @@
       <c r="D14" s="8"/>
       <c r="E14" s="17"/>
       <c r="F14" s="8"/>
-      <c r="G14" s="60"/>
-      <c r="H14" s="61"/>
-      <c r="I14" s="52">
+      <c r="G14" s="40"/>
+      <c r="H14" s="41"/>
+      <c r="I14" s="46">
         <f>'Daily Schedule SUN'!I14:J14</f>
         <v>0</v>
       </c>
-      <c r="J14" s="53"/>
+      <c r="J14" s="47"/>
     </row>
     <row r="15" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="8"/>
@@ -2253,13 +2256,13 @@
       <c r="D15" s="8"/>
       <c r="E15" s="16"/>
       <c r="F15" s="8"/>
-      <c r="G15" s="62"/>
-      <c r="H15" s="63"/>
-      <c r="I15" s="66">
+      <c r="G15" s="42"/>
+      <c r="H15" s="43"/>
+      <c r="I15" s="48">
         <f>'Daily Schedule SUN'!I15:J15</f>
         <v>0</v>
       </c>
-      <c r="J15" s="67"/>
+      <c r="J15" s="49"/>
     </row>
     <row r="16" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="8"/>
@@ -2275,16 +2278,16 @@
         <v>35</v>
       </c>
       <c r="F16" s="8"/>
-      <c r="G16" s="46">
+      <c r="G16" s="56">
         <f>G7+3</f>
         <v>42879</v>
       </c>
-      <c r="H16" s="47"/>
-      <c r="I16" s="68">
+      <c r="H16" s="57"/>
+      <c r="I16" s="62">
         <f>'Daily Schedule SUN'!I16:J16</f>
         <v>0</v>
       </c>
-      <c r="J16" s="69"/>
+      <c r="J16" s="63"/>
     </row>
     <row r="17" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="8"/>
@@ -2298,13 +2301,13 @@
       <c r="D17" s="8"/>
       <c r="E17" s="36"/>
       <c r="F17" s="8"/>
-      <c r="G17" s="48"/>
-      <c r="H17" s="49"/>
-      <c r="I17" s="54">
+      <c r="G17" s="58"/>
+      <c r="H17" s="59"/>
+      <c r="I17" s="44">
         <f>'Daily Schedule SUN'!I17:J17</f>
         <v>0</v>
       </c>
-      <c r="J17" s="55"/>
+      <c r="J17" s="45"/>
     </row>
     <row r="18" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="8"/>
@@ -2318,13 +2321,13 @@
       <c r="D18" s="8"/>
       <c r="E18" s="17"/>
       <c r="F18" s="8"/>
-      <c r="G18" s="50"/>
-      <c r="H18" s="51"/>
-      <c r="I18" s="56">
+      <c r="G18" s="60"/>
+      <c r="H18" s="61"/>
+      <c r="I18" s="64">
         <f>'Daily Schedule SUN'!I18:J18</f>
         <v>0</v>
       </c>
-      <c r="J18" s="57"/>
+      <c r="J18" s="65"/>
     </row>
     <row r="19" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="8"/>
@@ -2338,16 +2341,16 @@
       <c r="D19" s="8"/>
       <c r="E19" s="36"/>
       <c r="F19" s="8"/>
-      <c r="G19" s="58">
+      <c r="G19" s="66">
         <f>G7+4</f>
         <v>42880</v>
       </c>
-      <c r="H19" s="59"/>
-      <c r="I19" s="64">
+      <c r="H19" s="67"/>
+      <c r="I19" s="68">
         <f>'Daily Schedule SUN'!I19:J19</f>
         <v>0</v>
       </c>
-      <c r="J19" s="65"/>
+      <c r="J19" s="69"/>
     </row>
     <row r="20" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="8"/>
@@ -2361,13 +2364,13 @@
       <c r="D20" s="8"/>
       <c r="E20" s="17"/>
       <c r="F20" s="8"/>
-      <c r="G20" s="60"/>
-      <c r="H20" s="61"/>
-      <c r="I20" s="52">
+      <c r="G20" s="40"/>
+      <c r="H20" s="41"/>
+      <c r="I20" s="46">
         <f>'Daily Schedule SUN'!I20:J20</f>
         <v>0</v>
       </c>
-      <c r="J20" s="53"/>
+      <c r="J20" s="47"/>
     </row>
     <row r="21" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="8"/>
@@ -2383,13 +2386,13 @@
         <v>35</v>
       </c>
       <c r="F21" s="8"/>
-      <c r="G21" s="62"/>
-      <c r="H21" s="63"/>
-      <c r="I21" s="66">
+      <c r="G21" s="42"/>
+      <c r="H21" s="43"/>
+      <c r="I21" s="48">
         <f>'Daily Schedule SUN'!I21:J21</f>
         <v>0</v>
       </c>
-      <c r="J21" s="67"/>
+      <c r="J21" s="49"/>
     </row>
     <row r="22" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="8"/>
@@ -2403,16 +2406,16 @@
       <c r="D22" s="8"/>
       <c r="E22" s="17"/>
       <c r="F22" s="8"/>
-      <c r="G22" s="46">
+      <c r="G22" s="56">
         <f>G7+5</f>
         <v>42881</v>
       </c>
-      <c r="H22" s="47"/>
-      <c r="I22" s="68">
+      <c r="H22" s="57"/>
+      <c r="I22" s="62">
         <f>'Daily Schedule SUN'!I22:J22</f>
         <v>0</v>
       </c>
-      <c r="J22" s="69"/>
+      <c r="J22" s="63"/>
     </row>
     <row r="23" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="8"/>
@@ -2426,13 +2429,13 @@
       <c r="D23" s="8"/>
       <c r="E23" s="16"/>
       <c r="F23" s="8"/>
-      <c r="G23" s="48"/>
-      <c r="H23" s="49"/>
-      <c r="I23" s="54">
+      <c r="G23" s="58"/>
+      <c r="H23" s="59"/>
+      <c r="I23" s="44">
         <f>'Daily Schedule SUN'!I23:J23</f>
         <v>0</v>
       </c>
-      <c r="J23" s="55"/>
+      <c r="J23" s="45"/>
     </row>
     <row r="24" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="8"/>
@@ -2446,13 +2449,13 @@
       <c r="D24" s="8"/>
       <c r="E24" s="17"/>
       <c r="F24" s="8"/>
-      <c r="G24" s="50"/>
-      <c r="H24" s="51"/>
-      <c r="I24" s="56">
+      <c r="G24" s="60"/>
+      <c r="H24" s="61"/>
+      <c r="I24" s="64">
         <f>'Daily Schedule SUN'!I24:J24</f>
         <v>0</v>
       </c>
-      <c r="J24" s="57"/>
+      <c r="J24" s="65"/>
     </row>
     <row r="25" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="8"/>
@@ -2468,16 +2471,16 @@
         <v>36</v>
       </c>
       <c r="F25" s="8"/>
-      <c r="G25" s="58">
+      <c r="G25" s="66">
         <f>G7+6</f>
         <v>42882</v>
       </c>
-      <c r="H25" s="59"/>
-      <c r="I25" s="64">
+      <c r="H25" s="67"/>
+      <c r="I25" s="68">
         <f>'Daily Schedule SUN'!I25:J25</f>
         <v>0</v>
       </c>
-      <c r="J25" s="65"/>
+      <c r="J25" s="69"/>
     </row>
     <row r="26" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="8"/>
@@ -2491,13 +2494,13 @@
         <v>37</v>
       </c>
       <c r="F26" s="8"/>
-      <c r="G26" s="60"/>
-      <c r="H26" s="61"/>
-      <c r="I26" s="52">
+      <c r="G26" s="40"/>
+      <c r="H26" s="41"/>
+      <c r="I26" s="46">
         <f>'Daily Schedule SUN'!I26:J26</f>
         <v>0</v>
       </c>
-      <c r="J26" s="53"/>
+      <c r="J26" s="47"/>
     </row>
     <row r="27" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="8"/>
@@ -2509,13 +2512,13 @@
       <c r="D27" s="8"/>
       <c r="E27" s="36"/>
       <c r="F27" s="8"/>
-      <c r="G27" s="62"/>
-      <c r="H27" s="63"/>
-      <c r="I27" s="66">
+      <c r="G27" s="42"/>
+      <c r="H27" s="43"/>
+      <c r="I27" s="48">
         <f>'Daily Schedule SUN'!I27:J27</f>
         <v>0</v>
       </c>
-      <c r="J27" s="67"/>
+      <c r="J27" s="49"/>
     </row>
     <row r="28" spans="1:10" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A28" s="8"/>
@@ -2542,12 +2545,12 @@
       <c r="D29" s="8"/>
       <c r="E29" s="16"/>
       <c r="F29" s="8"/>
-      <c r="G29" s="37" t="s">
+      <c r="G29" s="70" t="s">
         <v>26</v>
       </c>
-      <c r="H29" s="38"/>
-      <c r="I29" s="38"/>
-      <c r="J29" s="39"/>
+      <c r="H29" s="71"/>
+      <c r="I29" s="71"/>
+      <c r="J29" s="72"/>
     </row>
     <row r="30" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30" s="8"/>
@@ -2559,10 +2562,10 @@
       <c r="D30" s="8"/>
       <c r="E30" s="17"/>
       <c r="F30" s="8"/>
-      <c r="G30" s="40"/>
-      <c r="H30" s="41"/>
-      <c r="I30" s="41"/>
-      <c r="J30" s="42"/>
+      <c r="G30" s="73"/>
+      <c r="H30" s="74"/>
+      <c r="I30" s="74"/>
+      <c r="J30" s="75"/>
     </row>
     <row r="31" spans="1:10" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A31" s="8"/>
@@ -2574,10 +2577,10 @@
       <c r="D31" s="8"/>
       <c r="E31" s="36"/>
       <c r="F31" s="8"/>
-      <c r="G31" s="43"/>
-      <c r="H31" s="44"/>
-      <c r="I31" s="44"/>
-      <c r="J31" s="45"/>
+      <c r="G31" s="76"/>
+      <c r="H31" s="77"/>
+      <c r="I31" s="77"/>
+      <c r="J31" s="78"/>
     </row>
     <row r="32" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A32" s="8"/>
@@ -2701,23 +2704,6 @@
     </row>
   </sheetData>
   <mergeCells count="33">
-    <mergeCell ref="I15:J15"/>
-    <mergeCell ref="I10:J10"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="I12:J12"/>
-    <mergeCell ref="I13:J13"/>
-    <mergeCell ref="I14:J14"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="I7:J7"/>
-    <mergeCell ref="I8:J8"/>
-    <mergeCell ref="I9:J9"/>
-    <mergeCell ref="I25:J25"/>
-    <mergeCell ref="I16:J16"/>
-    <mergeCell ref="I17:J17"/>
-    <mergeCell ref="I18:J18"/>
-    <mergeCell ref="I19:J19"/>
-    <mergeCell ref="I20:J20"/>
     <mergeCell ref="G29:J31"/>
     <mergeCell ref="I26:J26"/>
     <mergeCell ref="I27:J27"/>
@@ -2734,6 +2720,23 @@
     <mergeCell ref="I22:J22"/>
     <mergeCell ref="I23:J23"/>
     <mergeCell ref="I24:J24"/>
+    <mergeCell ref="I25:J25"/>
+    <mergeCell ref="I16:J16"/>
+    <mergeCell ref="I17:J17"/>
+    <mergeCell ref="I18:J18"/>
+    <mergeCell ref="I19:J19"/>
+    <mergeCell ref="I20:J20"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="I8:J8"/>
+    <mergeCell ref="I9:J9"/>
+    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="I13:J13"/>
+    <mergeCell ref="I14:J14"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="G29" r:id="rId1"/>
@@ -2782,8 +2785,8 @@
   </sheetPr>
   <dimension ref="A1:J39"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A7" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="80" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A13" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="80" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.69140625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -2815,10 +2818,10 @@
     </row>
     <row r="2" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.65">
       <c r="A2" s="8"/>
-      <c r="B2" s="70" t="s">
+      <c r="B2" s="37" t="s">
         <v>25</v>
       </c>
-      <c r="C2" s="70"/>
+      <c r="C2" s="37"/>
       <c r="D2" s="9"/>
       <c r="E2" s="12" t="s">
         <v>13</v>
@@ -2835,8 +2838,8 @@
     </row>
     <row r="3" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.65">
       <c r="A3" s="8"/>
-      <c r="B3" s="70"/>
-      <c r="C3" s="70"/>
+      <c r="B3" s="37"/>
+      <c r="C3" s="37"/>
       <c r="D3" s="9"/>
       <c r="E3" s="13">
         <f>'Daily Schedule SUN'!E3</f>
@@ -2869,38 +2872,38 @@
     </row>
     <row r="5" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="8"/>
-      <c r="B5" s="71" t="s">
+      <c r="B5" s="38" t="s">
         <v>0</v>
       </c>
       <c r="C5" s="23" t="s">
         <v>18</v>
       </c>
       <c r="D5" s="8"/>
-      <c r="E5" s="72" t="s">
+      <c r="E5" s="39" t="s">
         <v>14</v>
       </c>
       <c r="F5" s="8"/>
-      <c r="G5" s="79" t="s">
+      <c r="G5" s="80" t="s">
         <v>15</v>
       </c>
-      <c r="H5" s="80"/>
-      <c r="I5" s="79"/>
-      <c r="J5" s="79"/>
+      <c r="H5" s="81"/>
+      <c r="I5" s="80"/>
+      <c r="J5" s="80"/>
     </row>
     <row r="6" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="8"/>
-      <c r="B6" s="71"/>
+      <c r="B6" s="38"/>
       <c r="C6" s="24">
         <f>E3+2</f>
         <v>42878</v>
       </c>
       <c r="D6" s="8"/>
-      <c r="E6" s="72"/>
+      <c r="E6" s="39"/>
       <c r="F6" s="8"/>
-      <c r="G6" s="79"/>
-      <c r="H6" s="79"/>
-      <c r="I6" s="79"/>
-      <c r="J6" s="79"/>
+      <c r="G6" s="80"/>
+      <c r="H6" s="80"/>
+      <c r="I6" s="80"/>
+      <c r="J6" s="80"/>
     </row>
     <row r="7" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="8"/>
@@ -2912,16 +2915,16 @@
       <c r="D7" s="8"/>
       <c r="E7" s="16"/>
       <c r="F7" s="8"/>
-      <c r="G7" s="58">
+      <c r="G7" s="66">
         <f>E3</f>
         <v>42876</v>
       </c>
-      <c r="H7" s="59"/>
-      <c r="I7" s="64">
+      <c r="H7" s="67"/>
+      <c r="I7" s="68">
         <f>'Daily Schedule SUN'!I7:J7</f>
         <v>0</v>
       </c>
-      <c r="J7" s="65"/>
+      <c r="J7" s="69"/>
     </row>
     <row r="8" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="8"/>
@@ -2933,13 +2936,13 @@
       <c r="D8" s="8"/>
       <c r="E8" s="17"/>
       <c r="F8" s="8"/>
-      <c r="G8" s="60"/>
-      <c r="H8" s="61"/>
-      <c r="I8" s="52">
+      <c r="G8" s="40"/>
+      <c r="H8" s="41"/>
+      <c r="I8" s="46">
         <f>'Daily Schedule SUN'!I8:J8</f>
         <v>0</v>
       </c>
-      <c r="J8" s="53"/>
+      <c r="J8" s="47"/>
     </row>
     <row r="9" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="8"/>
@@ -2951,13 +2954,13 @@
       <c r="D9" s="8"/>
       <c r="E9" s="16"/>
       <c r="F9" s="8"/>
-      <c r="G9" s="62"/>
-      <c r="H9" s="63"/>
-      <c r="I9" s="66">
+      <c r="G9" s="42"/>
+      <c r="H9" s="43"/>
+      <c r="I9" s="48">
         <f>'Daily Schedule SUN'!I9:J9</f>
         <v>0</v>
       </c>
-      <c r="J9" s="67"/>
+      <c r="J9" s="49"/>
     </row>
     <row r="10" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="8"/>
@@ -2969,16 +2972,16 @@
       <c r="D10" s="8"/>
       <c r="E10" s="17"/>
       <c r="F10" s="8"/>
-      <c r="G10" s="46">
+      <c r="G10" s="56">
         <f>G7+1</f>
         <v>42877</v>
       </c>
-      <c r="H10" s="47"/>
-      <c r="I10" s="68">
+      <c r="H10" s="57"/>
+      <c r="I10" s="62">
         <f>'Daily Schedule SUN'!I10:J10</f>
         <v>0</v>
       </c>
-      <c r="J10" s="69"/>
+      <c r="J10" s="63"/>
     </row>
     <row r="11" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="8"/>
@@ -2990,13 +2993,13 @@
       <c r="D11" s="8"/>
       <c r="E11" s="16"/>
       <c r="F11" s="8"/>
-      <c r="G11" s="48"/>
-      <c r="H11" s="49"/>
-      <c r="I11" s="54">
+      <c r="G11" s="58"/>
+      <c r="H11" s="59"/>
+      <c r="I11" s="44">
         <f>'Daily Schedule SUN'!I11:J11</f>
         <v>0</v>
       </c>
-      <c r="J11" s="55"/>
+      <c r="J11" s="45"/>
     </row>
     <row r="12" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="8"/>
@@ -3008,13 +3011,13 @@
       <c r="D12" s="8"/>
       <c r="E12" s="17"/>
       <c r="F12" s="8"/>
-      <c r="G12" s="50"/>
-      <c r="H12" s="51"/>
-      <c r="I12" s="56">
+      <c r="G12" s="60"/>
+      <c r="H12" s="61"/>
+      <c r="I12" s="64">
         <f>'Daily Schedule SUN'!I12:J12</f>
         <v>0</v>
       </c>
-      <c r="J12" s="57"/>
+      <c r="J12" s="65"/>
     </row>
     <row r="13" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="8"/>
@@ -3026,16 +3029,16 @@
       <c r="D13" s="8"/>
       <c r="E13" s="16"/>
       <c r="F13" s="8"/>
-      <c r="G13" s="58">
+      <c r="G13" s="66">
         <f>G7+2</f>
         <v>42878</v>
       </c>
-      <c r="H13" s="59"/>
-      <c r="I13" s="64">
+      <c r="H13" s="67"/>
+      <c r="I13" s="68">
         <f>'Daily Schedule SUN'!I13:J13</f>
         <v>0</v>
       </c>
-      <c r="J13" s="65"/>
+      <c r="J13" s="69"/>
     </row>
     <row r="14" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="8"/>
@@ -3047,13 +3050,13 @@
       <c r="D14" s="8"/>
       <c r="E14" s="17"/>
       <c r="F14" s="8"/>
-      <c r="G14" s="60"/>
-      <c r="H14" s="61"/>
-      <c r="I14" s="52">
+      <c r="G14" s="40"/>
+      <c r="H14" s="41"/>
+      <c r="I14" s="46">
         <f>'Daily Schedule SUN'!I14:J14</f>
         <v>0</v>
       </c>
-      <c r="J14" s="53"/>
+      <c r="J14" s="47"/>
     </row>
     <row r="15" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="8"/>
@@ -3061,17 +3064,19 @@
         <f t="shared" si="0"/>
         <v>0.4583333333333332</v>
       </c>
-      <c r="C15" s="30"/>
+      <c r="C15" s="30" t="s">
+        <v>38</v>
+      </c>
       <c r="D15" s="8"/>
       <c r="E15" s="16"/>
       <c r="F15" s="8"/>
-      <c r="G15" s="62"/>
-      <c r="H15" s="63"/>
-      <c r="I15" s="66">
+      <c r="G15" s="42"/>
+      <c r="H15" s="43"/>
+      <c r="I15" s="48">
         <f>'Daily Schedule SUN'!I15:J15</f>
         <v>0</v>
       </c>
-      <c r="J15" s="67"/>
+      <c r="J15" s="49"/>
     </row>
     <row r="16" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="8"/>
@@ -3083,16 +3088,16 @@
       <c r="D16" s="8"/>
       <c r="E16" s="17"/>
       <c r="F16" s="8"/>
-      <c r="G16" s="46">
+      <c r="G16" s="56">
         <f>G7+3</f>
         <v>42879</v>
       </c>
-      <c r="H16" s="47"/>
-      <c r="I16" s="68">
+      <c r="H16" s="57"/>
+      <c r="I16" s="62">
         <f>'Daily Schedule SUN'!I16:J16</f>
         <v>0</v>
       </c>
-      <c r="J16" s="69"/>
+      <c r="J16" s="63"/>
     </row>
     <row r="17" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="8"/>
@@ -3104,13 +3109,13 @@
       <c r="D17" s="8"/>
       <c r="E17" s="16"/>
       <c r="F17" s="8"/>
-      <c r="G17" s="48"/>
-      <c r="H17" s="49"/>
-      <c r="I17" s="54">
+      <c r="G17" s="58"/>
+      <c r="H17" s="59"/>
+      <c r="I17" s="44">
         <f>'Daily Schedule SUN'!I17:J17</f>
         <v>0</v>
       </c>
-      <c r="J17" s="55"/>
+      <c r="J17" s="45"/>
     </row>
     <row r="18" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="8"/>
@@ -3122,13 +3127,13 @@
       <c r="D18" s="8"/>
       <c r="E18" s="17"/>
       <c r="F18" s="8"/>
-      <c r="G18" s="50"/>
-      <c r="H18" s="51"/>
-      <c r="I18" s="56">
+      <c r="G18" s="60"/>
+      <c r="H18" s="61"/>
+      <c r="I18" s="64">
         <f>'Daily Schedule SUN'!I18:J18</f>
         <v>0</v>
       </c>
-      <c r="J18" s="57"/>
+      <c r="J18" s="65"/>
     </row>
     <row r="19" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="8"/>
@@ -3140,16 +3145,16 @@
       <c r="D19" s="8"/>
       <c r="E19" s="16"/>
       <c r="F19" s="8"/>
-      <c r="G19" s="58">
+      <c r="G19" s="66">
         <f>G7+4</f>
         <v>42880</v>
       </c>
-      <c r="H19" s="59"/>
-      <c r="I19" s="64">
+      <c r="H19" s="67"/>
+      <c r="I19" s="68">
         <f>'Daily Schedule SUN'!I19:J19</f>
         <v>0</v>
       </c>
-      <c r="J19" s="65"/>
+      <c r="J19" s="69"/>
     </row>
     <row r="20" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="8"/>
@@ -3161,13 +3166,13 @@
       <c r="D20" s="8"/>
       <c r="E20" s="17"/>
       <c r="F20" s="8"/>
-      <c r="G20" s="60"/>
-      <c r="H20" s="61"/>
-      <c r="I20" s="52">
+      <c r="G20" s="40"/>
+      <c r="H20" s="41"/>
+      <c r="I20" s="46">
         <f>'Daily Schedule SUN'!I20:J20</f>
         <v>0</v>
       </c>
-      <c r="J20" s="53"/>
+      <c r="J20" s="47"/>
     </row>
     <row r="21" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="8"/>
@@ -3179,13 +3184,13 @@
       <c r="D21" s="8"/>
       <c r="E21" s="16"/>
       <c r="F21" s="8"/>
-      <c r="G21" s="62"/>
-      <c r="H21" s="63"/>
-      <c r="I21" s="66">
+      <c r="G21" s="42"/>
+      <c r="H21" s="43"/>
+      <c r="I21" s="48">
         <f>'Daily Schedule SUN'!I21:J21</f>
         <v>0</v>
       </c>
-      <c r="J21" s="67"/>
+      <c r="J21" s="49"/>
     </row>
     <row r="22" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="8"/>
@@ -3197,16 +3202,16 @@
       <c r="D22" s="8"/>
       <c r="E22" s="17"/>
       <c r="F22" s="8"/>
-      <c r="G22" s="46">
+      <c r="G22" s="56">
         <f>G7+5</f>
         <v>42881</v>
       </c>
-      <c r="H22" s="47"/>
-      <c r="I22" s="68">
+      <c r="H22" s="57"/>
+      <c r="I22" s="62">
         <f>'Daily Schedule SUN'!I22:J22</f>
         <v>0</v>
       </c>
-      <c r="J22" s="69"/>
+      <c r="J22" s="63"/>
     </row>
     <row r="23" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="8"/>
@@ -3218,13 +3223,13 @@
       <c r="D23" s="8"/>
       <c r="E23" s="16"/>
       <c r="F23" s="8"/>
-      <c r="G23" s="48"/>
-      <c r="H23" s="49"/>
-      <c r="I23" s="54">
+      <c r="G23" s="58"/>
+      <c r="H23" s="59"/>
+      <c r="I23" s="44">
         <f>'Daily Schedule SUN'!I23:J23</f>
         <v>0</v>
       </c>
-      <c r="J23" s="55"/>
+      <c r="J23" s="45"/>
     </row>
     <row r="24" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="8"/>
@@ -3236,13 +3241,13 @@
       <c r="D24" s="8"/>
       <c r="E24" s="17"/>
       <c r="F24" s="8"/>
-      <c r="G24" s="50"/>
-      <c r="H24" s="51"/>
-      <c r="I24" s="56">
+      <c r="G24" s="60"/>
+      <c r="H24" s="61"/>
+      <c r="I24" s="64">
         <f>'Daily Schedule SUN'!I24:J24</f>
         <v>0</v>
       </c>
-      <c r="J24" s="57"/>
+      <c r="J24" s="65"/>
     </row>
     <row r="25" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="8"/>
@@ -3254,16 +3259,16 @@
       <c r="D25" s="8"/>
       <c r="E25" s="16"/>
       <c r="F25" s="8"/>
-      <c r="G25" s="58">
+      <c r="G25" s="66">
         <f>G7+6</f>
         <v>42882</v>
       </c>
-      <c r="H25" s="59"/>
-      <c r="I25" s="64">
+      <c r="H25" s="67"/>
+      <c r="I25" s="68">
         <f>'Daily Schedule SUN'!I25:J25</f>
         <v>0</v>
       </c>
-      <c r="J25" s="65"/>
+      <c r="J25" s="69"/>
     </row>
     <row r="26" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="8"/>
@@ -3275,13 +3280,13 @@
       <c r="D26" s="8"/>
       <c r="E26" s="17"/>
       <c r="F26" s="8"/>
-      <c r="G26" s="60"/>
-      <c r="H26" s="61"/>
-      <c r="I26" s="52">
+      <c r="G26" s="40"/>
+      <c r="H26" s="41"/>
+      <c r="I26" s="46">
         <f>'Daily Schedule SUN'!I26:J26</f>
         <v>0</v>
       </c>
-      <c r="J26" s="53"/>
+      <c r="J26" s="47"/>
     </row>
     <row r="27" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="8"/>
@@ -3293,13 +3298,13 @@
       <c r="D27" s="8"/>
       <c r="E27" s="16"/>
       <c r="F27" s="8"/>
-      <c r="G27" s="62"/>
-      <c r="H27" s="63"/>
-      <c r="I27" s="66">
+      <c r="G27" s="42"/>
+      <c r="H27" s="43"/>
+      <c r="I27" s="48">
         <f>'Daily Schedule SUN'!I27:J27</f>
         <v>0</v>
       </c>
-      <c r="J27" s="67"/>
+      <c r="J27" s="49"/>
     </row>
     <row r="28" spans="1:10" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A28" s="8"/>
@@ -3326,12 +3331,12 @@
       <c r="D29" s="8"/>
       <c r="E29" s="16"/>
       <c r="F29" s="8"/>
-      <c r="G29" s="37" t="s">
+      <c r="G29" s="70" t="s">
         <v>26</v>
       </c>
-      <c r="H29" s="38"/>
-      <c r="I29" s="38"/>
-      <c r="J29" s="39"/>
+      <c r="H29" s="71"/>
+      <c r="I29" s="71"/>
+      <c r="J29" s="72"/>
     </row>
     <row r="30" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30" s="8"/>
@@ -3343,10 +3348,10 @@
       <c r="D30" s="8"/>
       <c r="E30" s="17"/>
       <c r="F30" s="8"/>
-      <c r="G30" s="40"/>
-      <c r="H30" s="41"/>
-      <c r="I30" s="41"/>
-      <c r="J30" s="42"/>
+      <c r="G30" s="73"/>
+      <c r="H30" s="74"/>
+      <c r="I30" s="74"/>
+      <c r="J30" s="75"/>
     </row>
     <row r="31" spans="1:10" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A31" s="8"/>
@@ -3358,10 +3363,10 @@
       <c r="D31" s="8"/>
       <c r="E31" s="16"/>
       <c r="F31" s="8"/>
-      <c r="G31" s="43"/>
-      <c r="H31" s="44"/>
-      <c r="I31" s="44"/>
-      <c r="J31" s="45"/>
+      <c r="G31" s="76"/>
+      <c r="H31" s="77"/>
+      <c r="I31" s="77"/>
+      <c r="J31" s="78"/>
     </row>
     <row r="32" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A32" s="8"/>
@@ -3485,30 +3490,6 @@
     </row>
   </sheetData>
   <mergeCells count="33">
-    <mergeCell ref="B2:C3"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="G5:J6"/>
-    <mergeCell ref="G7:H9"/>
-    <mergeCell ref="I7:J7"/>
-    <mergeCell ref="I8:J8"/>
-    <mergeCell ref="I9:J9"/>
-    <mergeCell ref="G10:H12"/>
-    <mergeCell ref="I10:J10"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="I12:J12"/>
-    <mergeCell ref="G13:H15"/>
-    <mergeCell ref="I13:J13"/>
-    <mergeCell ref="I14:J14"/>
-    <mergeCell ref="I15:J15"/>
-    <mergeCell ref="G16:H18"/>
-    <mergeCell ref="I16:J16"/>
-    <mergeCell ref="I17:J17"/>
-    <mergeCell ref="I18:J18"/>
-    <mergeCell ref="G19:H21"/>
-    <mergeCell ref="I19:J19"/>
-    <mergeCell ref="I20:J20"/>
-    <mergeCell ref="I21:J21"/>
     <mergeCell ref="G29:J31"/>
     <mergeCell ref="G22:H24"/>
     <mergeCell ref="I22:J22"/>
@@ -3518,6 +3499,30 @@
     <mergeCell ref="I25:J25"/>
     <mergeCell ref="I26:J26"/>
     <mergeCell ref="I27:J27"/>
+    <mergeCell ref="G16:H18"/>
+    <mergeCell ref="I16:J16"/>
+    <mergeCell ref="I17:J17"/>
+    <mergeCell ref="I18:J18"/>
+    <mergeCell ref="G19:H21"/>
+    <mergeCell ref="I19:J19"/>
+    <mergeCell ref="I20:J20"/>
+    <mergeCell ref="I21:J21"/>
+    <mergeCell ref="G10:H12"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="G13:H15"/>
+    <mergeCell ref="I13:J13"/>
+    <mergeCell ref="I14:J14"/>
+    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="B2:C3"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="G5:J6"/>
+    <mergeCell ref="G7:H9"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="I8:J8"/>
+    <mergeCell ref="I9:J9"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="G29" r:id="rId1"/>
@@ -3599,10 +3604,10 @@
     </row>
     <row r="2" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.65">
       <c r="A2" s="8"/>
-      <c r="B2" s="70" t="s">
+      <c r="B2" s="37" t="s">
         <v>25</v>
       </c>
-      <c r="C2" s="70"/>
+      <c r="C2" s="37"/>
       <c r="D2" s="9"/>
       <c r="E2" s="12" t="s">
         <v>13</v>
@@ -3619,8 +3624,8 @@
     </row>
     <row r="3" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.65">
       <c r="A3" s="8"/>
-      <c r="B3" s="70"/>
-      <c r="C3" s="70"/>
+      <c r="B3" s="37"/>
+      <c r="C3" s="37"/>
       <c r="D3" s="9"/>
       <c r="E3" s="13">
         <f>'Daily Schedule SUN'!E3</f>
@@ -3653,38 +3658,38 @@
     </row>
     <row r="5" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="8"/>
-      <c r="B5" s="71" t="s">
+      <c r="B5" s="38" t="s">
         <v>0</v>
       </c>
       <c r="C5" s="23" t="s">
         <v>19</v>
       </c>
       <c r="D5" s="8"/>
-      <c r="E5" s="72" t="s">
+      <c r="E5" s="39" t="s">
         <v>14</v>
       </c>
       <c r="F5" s="8"/>
-      <c r="G5" s="79" t="s">
+      <c r="G5" s="80" t="s">
         <v>15</v>
       </c>
-      <c r="H5" s="80"/>
-      <c r="I5" s="79"/>
-      <c r="J5" s="79"/>
+      <c r="H5" s="81"/>
+      <c r="I5" s="80"/>
+      <c r="J5" s="80"/>
     </row>
     <row r="6" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="8"/>
-      <c r="B6" s="71"/>
+      <c r="B6" s="38"/>
       <c r="C6" s="24">
         <f>E3+3</f>
         <v>42879</v>
       </c>
       <c r="D6" s="8"/>
-      <c r="E6" s="72"/>
+      <c r="E6" s="39"/>
       <c r="F6" s="8"/>
-      <c r="G6" s="79"/>
-      <c r="H6" s="79"/>
-      <c r="I6" s="79"/>
-      <c r="J6" s="79"/>
+      <c r="G6" s="80"/>
+      <c r="H6" s="80"/>
+      <c r="I6" s="80"/>
+      <c r="J6" s="80"/>
     </row>
     <row r="7" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="8"/>
@@ -3696,16 +3701,16 @@
       <c r="D7" s="8"/>
       <c r="E7" s="16"/>
       <c r="F7" s="8"/>
-      <c r="G7" s="58">
+      <c r="G7" s="66">
         <f>E3</f>
         <v>42876</v>
       </c>
-      <c r="H7" s="59"/>
-      <c r="I7" s="64">
+      <c r="H7" s="67"/>
+      <c r="I7" s="68">
         <f>'Daily Schedule SUN'!I7:J7</f>
         <v>0</v>
       </c>
-      <c r="J7" s="65"/>
+      <c r="J7" s="69"/>
     </row>
     <row r="8" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="8"/>
@@ -3717,13 +3722,13 @@
       <c r="D8" s="8"/>
       <c r="E8" s="17"/>
       <c r="F8" s="8"/>
-      <c r="G8" s="60"/>
-      <c r="H8" s="61"/>
-      <c r="I8" s="52">
+      <c r="G8" s="40"/>
+      <c r="H8" s="41"/>
+      <c r="I8" s="46">
         <f>'Daily Schedule SUN'!I8:J8</f>
         <v>0</v>
       </c>
-      <c r="J8" s="53"/>
+      <c r="J8" s="47"/>
     </row>
     <row r="9" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="8"/>
@@ -3735,13 +3740,13 @@
       <c r="D9" s="8"/>
       <c r="E9" s="16"/>
       <c r="F9" s="8"/>
-      <c r="G9" s="62"/>
-      <c r="H9" s="63"/>
-      <c r="I9" s="66">
+      <c r="G9" s="42"/>
+      <c r="H9" s="43"/>
+      <c r="I9" s="48">
         <f>'Daily Schedule SUN'!I9:J9</f>
         <v>0</v>
       </c>
-      <c r="J9" s="67"/>
+      <c r="J9" s="49"/>
     </row>
     <row r="10" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="8"/>
@@ -3753,16 +3758,16 @@
       <c r="D10" s="8"/>
       <c r="E10" s="17"/>
       <c r="F10" s="8"/>
-      <c r="G10" s="46">
+      <c r="G10" s="56">
         <f>G7+1</f>
         <v>42877</v>
       </c>
-      <c r="H10" s="47"/>
-      <c r="I10" s="68">
+      <c r="H10" s="57"/>
+      <c r="I10" s="62">
         <f>'Daily Schedule SUN'!I10:J10</f>
         <v>0</v>
       </c>
-      <c r="J10" s="69"/>
+      <c r="J10" s="63"/>
     </row>
     <row r="11" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="8"/>
@@ -3774,13 +3779,13 @@
       <c r="D11" s="8"/>
       <c r="E11" s="16"/>
       <c r="F11" s="8"/>
-      <c r="G11" s="48"/>
-      <c r="H11" s="49"/>
-      <c r="I11" s="54">
+      <c r="G11" s="58"/>
+      <c r="H11" s="59"/>
+      <c r="I11" s="44">
         <f>'Daily Schedule SUN'!I11:J11</f>
         <v>0</v>
       </c>
-      <c r="J11" s="55"/>
+      <c r="J11" s="45"/>
     </row>
     <row r="12" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="8"/>
@@ -3792,13 +3797,13 @@
       <c r="D12" s="8"/>
       <c r="E12" s="17"/>
       <c r="F12" s="8"/>
-      <c r="G12" s="50"/>
-      <c r="H12" s="51"/>
-      <c r="I12" s="56">
+      <c r="G12" s="60"/>
+      <c r="H12" s="61"/>
+      <c r="I12" s="64">
         <f>'Daily Schedule SUN'!I12:J12</f>
         <v>0</v>
       </c>
-      <c r="J12" s="57"/>
+      <c r="J12" s="65"/>
     </row>
     <row r="13" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="8"/>
@@ -3810,16 +3815,16 @@
       <c r="D13" s="8"/>
       <c r="E13" s="16"/>
       <c r="F13" s="8"/>
-      <c r="G13" s="58">
+      <c r="G13" s="66">
         <f>G7+2</f>
         <v>42878</v>
       </c>
-      <c r="H13" s="59"/>
-      <c r="I13" s="64">
+      <c r="H13" s="67"/>
+      <c r="I13" s="68">
         <f>'Daily Schedule SUN'!I13:J13</f>
         <v>0</v>
       </c>
-      <c r="J13" s="65"/>
+      <c r="J13" s="69"/>
     </row>
     <row r="14" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="8"/>
@@ -3833,13 +3838,13 @@
       <c r="D14" s="8"/>
       <c r="E14" s="17"/>
       <c r="F14" s="8"/>
-      <c r="G14" s="60"/>
-      <c r="H14" s="61"/>
-      <c r="I14" s="52">
+      <c r="G14" s="40"/>
+      <c r="H14" s="41"/>
+      <c r="I14" s="46">
         <f>'Daily Schedule SUN'!I14:J14</f>
         <v>0</v>
       </c>
-      <c r="J14" s="53"/>
+      <c r="J14" s="47"/>
     </row>
     <row r="15" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="8"/>
@@ -3853,13 +3858,13 @@
       <c r="D15" s="8"/>
       <c r="E15" s="16"/>
       <c r="F15" s="8"/>
-      <c r="G15" s="62"/>
-      <c r="H15" s="63"/>
-      <c r="I15" s="66">
+      <c r="G15" s="42"/>
+      <c r="H15" s="43"/>
+      <c r="I15" s="48">
         <f>'Daily Schedule SUN'!I15:J15</f>
         <v>0</v>
       </c>
-      <c r="J15" s="67"/>
+      <c r="J15" s="49"/>
     </row>
     <row r="16" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="8"/>
@@ -3873,16 +3878,16 @@
       <c r="D16" s="8"/>
       <c r="E16" s="17"/>
       <c r="F16" s="8"/>
-      <c r="G16" s="46">
+      <c r="G16" s="56">
         <f>G7+3</f>
         <v>42879</v>
       </c>
-      <c r="H16" s="47"/>
-      <c r="I16" s="68">
+      <c r="H16" s="57"/>
+      <c r="I16" s="62">
         <f>'Daily Schedule SUN'!I16:J16</f>
         <v>0</v>
       </c>
-      <c r="J16" s="69"/>
+      <c r="J16" s="63"/>
     </row>
     <row r="17" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="8"/>
@@ -3896,13 +3901,13 @@
       <c r="D17" s="8"/>
       <c r="E17" s="16"/>
       <c r="F17" s="8"/>
-      <c r="G17" s="48"/>
-      <c r="H17" s="49"/>
-      <c r="I17" s="54">
+      <c r="G17" s="58"/>
+      <c r="H17" s="59"/>
+      <c r="I17" s="44">
         <f>'Daily Schedule SUN'!I17:J17</f>
         <v>0</v>
       </c>
-      <c r="J17" s="55"/>
+      <c r="J17" s="45"/>
     </row>
     <row r="18" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="8"/>
@@ -3916,13 +3921,13 @@
       <c r="D18" s="8"/>
       <c r="E18" s="17"/>
       <c r="F18" s="8"/>
-      <c r="G18" s="50"/>
-      <c r="H18" s="51"/>
-      <c r="I18" s="56">
+      <c r="G18" s="60"/>
+      <c r="H18" s="61"/>
+      <c r="I18" s="64">
         <f>'Daily Schedule SUN'!I18:J18</f>
         <v>0</v>
       </c>
-      <c r="J18" s="57"/>
+      <c r="J18" s="65"/>
     </row>
     <row r="19" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="8"/>
@@ -3936,16 +3941,16 @@
       <c r="D19" s="8"/>
       <c r="E19" s="16"/>
       <c r="F19" s="8"/>
-      <c r="G19" s="58">
+      <c r="G19" s="66">
         <f>G7+4</f>
         <v>42880</v>
       </c>
-      <c r="H19" s="59"/>
-      <c r="I19" s="64">
+      <c r="H19" s="67"/>
+      <c r="I19" s="68">
         <f>'Daily Schedule SUN'!I19:J19</f>
         <v>0</v>
       </c>
-      <c r="J19" s="65"/>
+      <c r="J19" s="69"/>
     </row>
     <row r="20" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="8"/>
@@ -3959,13 +3964,13 @@
       <c r="D20" s="8"/>
       <c r="E20" s="17"/>
       <c r="F20" s="8"/>
-      <c r="G20" s="60"/>
-      <c r="H20" s="61"/>
-      <c r="I20" s="52">
+      <c r="G20" s="40"/>
+      <c r="H20" s="41"/>
+      <c r="I20" s="46">
         <f>'Daily Schedule SUN'!I20:J20</f>
         <v>0</v>
       </c>
-      <c r="J20" s="53"/>
+      <c r="J20" s="47"/>
     </row>
     <row r="21" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="8"/>
@@ -3979,13 +3984,13 @@
       <c r="D21" s="8"/>
       <c r="E21" s="16"/>
       <c r="F21" s="8"/>
-      <c r="G21" s="62"/>
-      <c r="H21" s="63"/>
-      <c r="I21" s="66">
+      <c r="G21" s="42"/>
+      <c r="H21" s="43"/>
+      <c r="I21" s="48">
         <f>'Daily Schedule SUN'!I21:J21</f>
         <v>0</v>
       </c>
-      <c r="J21" s="67"/>
+      <c r="J21" s="49"/>
     </row>
     <row r="22" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="8"/>
@@ -3999,16 +4004,16 @@
       <c r="D22" s="8"/>
       <c r="E22" s="17"/>
       <c r="F22" s="8"/>
-      <c r="G22" s="46">
+      <c r="G22" s="56">
         <f>G7+5</f>
         <v>42881</v>
       </c>
-      <c r="H22" s="47"/>
-      <c r="I22" s="68">
+      <c r="H22" s="57"/>
+      <c r="I22" s="62">
         <f>'Daily Schedule SUN'!I22:J22</f>
         <v>0</v>
       </c>
-      <c r="J22" s="69"/>
+      <c r="J22" s="63"/>
     </row>
     <row r="23" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="8"/>
@@ -4022,13 +4027,13 @@
       <c r="D23" s="8"/>
       <c r="E23" s="16"/>
       <c r="F23" s="8"/>
-      <c r="G23" s="48"/>
-      <c r="H23" s="49"/>
-      <c r="I23" s="54">
+      <c r="G23" s="58"/>
+      <c r="H23" s="59"/>
+      <c r="I23" s="44">
         <f>'Daily Schedule SUN'!I23:J23</f>
         <v>0</v>
       </c>
-      <c r="J23" s="55"/>
+      <c r="J23" s="45"/>
     </row>
     <row r="24" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="8"/>
@@ -4042,13 +4047,13 @@
       <c r="D24" s="8"/>
       <c r="E24" s="17"/>
       <c r="F24" s="8"/>
-      <c r="G24" s="50"/>
-      <c r="H24" s="51"/>
-      <c r="I24" s="56">
+      <c r="G24" s="60"/>
+      <c r="H24" s="61"/>
+      <c r="I24" s="64">
         <f>'Daily Schedule SUN'!I24:J24</f>
         <v>0</v>
       </c>
-      <c r="J24" s="57"/>
+      <c r="J24" s="65"/>
     </row>
     <row r="25" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="8"/>
@@ -4062,16 +4067,16 @@
       <c r="D25" s="8"/>
       <c r="E25" s="16"/>
       <c r="F25" s="8"/>
-      <c r="G25" s="58">
+      <c r="G25" s="66">
         <f>G7+6</f>
         <v>42882</v>
       </c>
-      <c r="H25" s="59"/>
-      <c r="I25" s="64">
+      <c r="H25" s="67"/>
+      <c r="I25" s="68">
         <f>'Daily Schedule SUN'!I25:J25</f>
         <v>0</v>
       </c>
-      <c r="J25" s="65"/>
+      <c r="J25" s="69"/>
     </row>
     <row r="26" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="8"/>
@@ -4085,13 +4090,13 @@
       <c r="D26" s="8"/>
       <c r="E26" s="17"/>
       <c r="F26" s="8"/>
-      <c r="G26" s="60"/>
-      <c r="H26" s="61"/>
-      <c r="I26" s="52">
+      <c r="G26" s="40"/>
+      <c r="H26" s="41"/>
+      <c r="I26" s="46">
         <f>'Daily Schedule SUN'!I26:J26</f>
         <v>0</v>
       </c>
-      <c r="J26" s="53"/>
+      <c r="J26" s="47"/>
     </row>
     <row r="27" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="8"/>
@@ -4105,13 +4110,13 @@
       <c r="D27" s="8"/>
       <c r="E27" s="16"/>
       <c r="F27" s="8"/>
-      <c r="G27" s="62"/>
-      <c r="H27" s="63"/>
-      <c r="I27" s="66">
+      <c r="G27" s="42"/>
+      <c r="H27" s="43"/>
+      <c r="I27" s="48">
         <f>'Daily Schedule SUN'!I27:J27</f>
         <v>0</v>
       </c>
-      <c r="J27" s="67"/>
+      <c r="J27" s="49"/>
     </row>
     <row r="28" spans="1:10" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A28" s="8"/>
@@ -4142,12 +4147,12 @@
       <c r="D29" s="8"/>
       <c r="E29" s="16"/>
       <c r="F29" s="8"/>
-      <c r="G29" s="37" t="s">
+      <c r="G29" s="70" t="s">
         <v>26</v>
       </c>
-      <c r="H29" s="38"/>
-      <c r="I29" s="38"/>
-      <c r="J29" s="39"/>
+      <c r="H29" s="71"/>
+      <c r="I29" s="71"/>
+      <c r="J29" s="72"/>
     </row>
     <row r="30" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30" s="8"/>
@@ -4161,10 +4166,10 @@
       <c r="D30" s="8"/>
       <c r="E30" s="17"/>
       <c r="F30" s="8"/>
-      <c r="G30" s="40"/>
-      <c r="H30" s="41"/>
-      <c r="I30" s="41"/>
-      <c r="J30" s="42"/>
+      <c r="G30" s="73"/>
+      <c r="H30" s="74"/>
+      <c r="I30" s="74"/>
+      <c r="J30" s="75"/>
     </row>
     <row r="31" spans="1:10" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A31" s="8"/>
@@ -4176,10 +4181,10 @@
       <c r="D31" s="8"/>
       <c r="E31" s="16"/>
       <c r="F31" s="8"/>
-      <c r="G31" s="43"/>
-      <c r="H31" s="44"/>
-      <c r="I31" s="44"/>
-      <c r="J31" s="45"/>
+      <c r="G31" s="76"/>
+      <c r="H31" s="77"/>
+      <c r="I31" s="77"/>
+      <c r="J31" s="78"/>
     </row>
     <row r="32" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A32" s="8"/>
@@ -4303,30 +4308,6 @@
     </row>
   </sheetData>
   <mergeCells count="33">
-    <mergeCell ref="B2:C3"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="G5:J6"/>
-    <mergeCell ref="G7:H9"/>
-    <mergeCell ref="I7:J7"/>
-    <mergeCell ref="I8:J8"/>
-    <mergeCell ref="I9:J9"/>
-    <mergeCell ref="G10:H12"/>
-    <mergeCell ref="I10:J10"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="I12:J12"/>
-    <mergeCell ref="G13:H15"/>
-    <mergeCell ref="I13:J13"/>
-    <mergeCell ref="I14:J14"/>
-    <mergeCell ref="I15:J15"/>
-    <mergeCell ref="G16:H18"/>
-    <mergeCell ref="I16:J16"/>
-    <mergeCell ref="I17:J17"/>
-    <mergeCell ref="I18:J18"/>
-    <mergeCell ref="G19:H21"/>
-    <mergeCell ref="I19:J19"/>
-    <mergeCell ref="I20:J20"/>
-    <mergeCell ref="I21:J21"/>
     <mergeCell ref="G29:J31"/>
     <mergeCell ref="G22:H24"/>
     <mergeCell ref="I22:J22"/>
@@ -4336,6 +4317,30 @@
     <mergeCell ref="I25:J25"/>
     <mergeCell ref="I26:J26"/>
     <mergeCell ref="I27:J27"/>
+    <mergeCell ref="G16:H18"/>
+    <mergeCell ref="I16:J16"/>
+    <mergeCell ref="I17:J17"/>
+    <mergeCell ref="I18:J18"/>
+    <mergeCell ref="G19:H21"/>
+    <mergeCell ref="I19:J19"/>
+    <mergeCell ref="I20:J20"/>
+    <mergeCell ref="I21:J21"/>
+    <mergeCell ref="G10:H12"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="G13:H15"/>
+    <mergeCell ref="I13:J13"/>
+    <mergeCell ref="I14:J14"/>
+    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="B2:C3"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="G5:J6"/>
+    <mergeCell ref="G7:H9"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="I8:J8"/>
+    <mergeCell ref="I9:J9"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="G29" r:id="rId1"/>
@@ -4417,10 +4422,10 @@
     </row>
     <row r="2" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.65">
       <c r="A2" s="8"/>
-      <c r="B2" s="70" t="s">
+      <c r="B2" s="37" t="s">
         <v>25</v>
       </c>
-      <c r="C2" s="70"/>
+      <c r="C2" s="37"/>
       <c r="D2" s="9"/>
       <c r="E2" s="12" t="s">
         <v>13</v>
@@ -4437,8 +4442,8 @@
     </row>
     <row r="3" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.65">
       <c r="A3" s="8"/>
-      <c r="B3" s="70"/>
-      <c r="C3" s="70"/>
+      <c r="B3" s="37"/>
+      <c r="C3" s="37"/>
       <c r="D3" s="9"/>
       <c r="E3" s="13">
         <f>'Daily Schedule SUN'!E3</f>
@@ -4471,38 +4476,38 @@
     </row>
     <row r="5" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="8"/>
-      <c r="B5" s="71" t="s">
+      <c r="B5" s="38" t="s">
         <v>0</v>
       </c>
       <c r="C5" s="23" t="s">
         <v>20</v>
       </c>
       <c r="D5" s="8"/>
-      <c r="E5" s="72" t="s">
+      <c r="E5" s="39" t="s">
         <v>14</v>
       </c>
       <c r="F5" s="8"/>
-      <c r="G5" s="79" t="s">
+      <c r="G5" s="80" t="s">
         <v>15</v>
       </c>
-      <c r="H5" s="80"/>
-      <c r="I5" s="79"/>
-      <c r="J5" s="79"/>
+      <c r="H5" s="81"/>
+      <c r="I5" s="80"/>
+      <c r="J5" s="80"/>
     </row>
     <row r="6" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="8"/>
-      <c r="B6" s="71"/>
+      <c r="B6" s="38"/>
       <c r="C6" s="24">
         <f>E3+4</f>
         <v>42880</v>
       </c>
       <c r="D6" s="8"/>
-      <c r="E6" s="72"/>
+      <c r="E6" s="39"/>
       <c r="F6" s="8"/>
-      <c r="G6" s="79"/>
-      <c r="H6" s="79"/>
-      <c r="I6" s="79"/>
-      <c r="J6" s="79"/>
+      <c r="G6" s="80"/>
+      <c r="H6" s="80"/>
+      <c r="I6" s="80"/>
+      <c r="J6" s="80"/>
     </row>
     <row r="7" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="8"/>
@@ -4514,16 +4519,16 @@
       <c r="D7" s="8"/>
       <c r="E7" s="16"/>
       <c r="F7" s="8"/>
-      <c r="G7" s="58">
+      <c r="G7" s="66">
         <f>E3</f>
         <v>42876</v>
       </c>
-      <c r="H7" s="59"/>
-      <c r="I7" s="64">
+      <c r="H7" s="67"/>
+      <c r="I7" s="68">
         <f>'Daily Schedule SUN'!I7:J7</f>
         <v>0</v>
       </c>
-      <c r="J7" s="65"/>
+      <c r="J7" s="69"/>
     </row>
     <row r="8" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="8"/>
@@ -4535,13 +4540,13 @@
       <c r="D8" s="8"/>
       <c r="E8" s="17"/>
       <c r="F8" s="8"/>
-      <c r="G8" s="60"/>
-      <c r="H8" s="61"/>
-      <c r="I8" s="52">
+      <c r="G8" s="40"/>
+      <c r="H8" s="41"/>
+      <c r="I8" s="46">
         <f>'Daily Schedule SUN'!I8:J8</f>
         <v>0</v>
       </c>
-      <c r="J8" s="53"/>
+      <c r="J8" s="47"/>
     </row>
     <row r="9" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="8"/>
@@ -4553,13 +4558,13 @@
       <c r="D9" s="8"/>
       <c r="E9" s="16"/>
       <c r="F9" s="8"/>
-      <c r="G9" s="62"/>
-      <c r="H9" s="63"/>
-      <c r="I9" s="66">
+      <c r="G9" s="42"/>
+      <c r="H9" s="43"/>
+      <c r="I9" s="48">
         <f>'Daily Schedule SUN'!I9:J9</f>
         <v>0</v>
       </c>
-      <c r="J9" s="67"/>
+      <c r="J9" s="49"/>
     </row>
     <row r="10" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="8"/>
@@ -4571,16 +4576,16 @@
       <c r="D10" s="8"/>
       <c r="E10" s="17"/>
       <c r="F10" s="8"/>
-      <c r="G10" s="46">
+      <c r="G10" s="56">
         <f>G7+1</f>
         <v>42877</v>
       </c>
-      <c r="H10" s="47"/>
-      <c r="I10" s="68">
+      <c r="H10" s="57"/>
+      <c r="I10" s="62">
         <f>'Daily Schedule SUN'!I10:J10</f>
         <v>0</v>
       </c>
-      <c r="J10" s="69"/>
+      <c r="J10" s="63"/>
     </row>
     <row r="11" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="8"/>
@@ -4592,13 +4597,13 @@
       <c r="D11" s="8"/>
       <c r="E11" s="16"/>
       <c r="F11" s="8"/>
-      <c r="G11" s="48"/>
-      <c r="H11" s="49"/>
-      <c r="I11" s="54">
+      <c r="G11" s="58"/>
+      <c r="H11" s="59"/>
+      <c r="I11" s="44">
         <f>'Daily Schedule SUN'!I11:J11</f>
         <v>0</v>
       </c>
-      <c r="J11" s="55"/>
+      <c r="J11" s="45"/>
     </row>
     <row r="12" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="8"/>
@@ -4610,13 +4615,13 @@
       <c r="D12" s="8"/>
       <c r="E12" s="17"/>
       <c r="F12" s="8"/>
-      <c r="G12" s="50"/>
-      <c r="H12" s="51"/>
-      <c r="I12" s="56">
+      <c r="G12" s="60"/>
+      <c r="H12" s="61"/>
+      <c r="I12" s="64">
         <f>'Daily Schedule SUN'!I12:J12</f>
         <v>0</v>
       </c>
-      <c r="J12" s="57"/>
+      <c r="J12" s="65"/>
     </row>
     <row r="13" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="8"/>
@@ -4628,16 +4633,16 @@
       <c r="D13" s="8"/>
       <c r="E13" s="16"/>
       <c r="F13" s="8"/>
-      <c r="G13" s="58">
+      <c r="G13" s="66">
         <f>G7+2</f>
         <v>42878</v>
       </c>
-      <c r="H13" s="59"/>
-      <c r="I13" s="64">
+      <c r="H13" s="67"/>
+      <c r="I13" s="68">
         <f>'Daily Schedule SUN'!I13:J13</f>
         <v>0</v>
       </c>
-      <c r="J13" s="65"/>
+      <c r="J13" s="69"/>
     </row>
     <row r="14" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="8"/>
@@ -4649,13 +4654,13 @@
       <c r="D14" s="8"/>
       <c r="E14" s="17"/>
       <c r="F14" s="8"/>
-      <c r="G14" s="60"/>
-      <c r="H14" s="61"/>
-      <c r="I14" s="52">
+      <c r="G14" s="40"/>
+      <c r="H14" s="41"/>
+      <c r="I14" s="46">
         <f>'Daily Schedule SUN'!I14:J14</f>
         <v>0</v>
       </c>
-      <c r="J14" s="53"/>
+      <c r="J14" s="47"/>
     </row>
     <row r="15" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="8"/>
@@ -4667,13 +4672,13 @@
       <c r="D15" s="8"/>
       <c r="E15" s="16"/>
       <c r="F15" s="8"/>
-      <c r="G15" s="62"/>
-      <c r="H15" s="63"/>
-      <c r="I15" s="66">
+      <c r="G15" s="42"/>
+      <c r="H15" s="43"/>
+      <c r="I15" s="48">
         <f>'Daily Schedule SUN'!I15:J15</f>
         <v>0</v>
       </c>
-      <c r="J15" s="67"/>
+      <c r="J15" s="49"/>
     </row>
     <row r="16" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="8"/>
@@ -4685,16 +4690,16 @@
       <c r="D16" s="8"/>
       <c r="E16" s="17"/>
       <c r="F16" s="8"/>
-      <c r="G16" s="46">
+      <c r="G16" s="56">
         <f>G7+3</f>
         <v>42879</v>
       </c>
-      <c r="H16" s="47"/>
-      <c r="I16" s="68">
+      <c r="H16" s="57"/>
+      <c r="I16" s="62">
         <f>'Daily Schedule SUN'!I16:J16</f>
         <v>0</v>
       </c>
-      <c r="J16" s="69"/>
+      <c r="J16" s="63"/>
     </row>
     <row r="17" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="8"/>
@@ -4706,13 +4711,13 @@
       <c r="D17" s="8"/>
       <c r="E17" s="16"/>
       <c r="F17" s="8"/>
-      <c r="G17" s="48"/>
-      <c r="H17" s="49"/>
-      <c r="I17" s="54">
+      <c r="G17" s="58"/>
+      <c r="H17" s="59"/>
+      <c r="I17" s="44">
         <f>'Daily Schedule SUN'!I17:J17</f>
         <v>0</v>
       </c>
-      <c r="J17" s="55"/>
+      <c r="J17" s="45"/>
     </row>
     <row r="18" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="8"/>
@@ -4724,13 +4729,13 @@
       <c r="D18" s="8"/>
       <c r="E18" s="17"/>
       <c r="F18" s="8"/>
-      <c r="G18" s="50"/>
-      <c r="H18" s="51"/>
-      <c r="I18" s="56">
+      <c r="G18" s="60"/>
+      <c r="H18" s="61"/>
+      <c r="I18" s="64">
         <f>'Daily Schedule SUN'!I18:J18</f>
         <v>0</v>
       </c>
-      <c r="J18" s="57"/>
+      <c r="J18" s="65"/>
     </row>
     <row r="19" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="8"/>
@@ -4742,16 +4747,16 @@
       <c r="D19" s="8"/>
       <c r="E19" s="16"/>
       <c r="F19" s="8"/>
-      <c r="G19" s="58">
+      <c r="G19" s="66">
         <f>G7+4</f>
         <v>42880</v>
       </c>
-      <c r="H19" s="59"/>
-      <c r="I19" s="64">
+      <c r="H19" s="67"/>
+      <c r="I19" s="68">
         <f>'Daily Schedule SUN'!I19:J19</f>
         <v>0</v>
       </c>
-      <c r="J19" s="65"/>
+      <c r="J19" s="69"/>
     </row>
     <row r="20" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="8"/>
@@ -4763,13 +4768,13 @@
       <c r="D20" s="8"/>
       <c r="E20" s="17"/>
       <c r="F20" s="8"/>
-      <c r="G20" s="60"/>
-      <c r="H20" s="61"/>
-      <c r="I20" s="52">
+      <c r="G20" s="40"/>
+      <c r="H20" s="41"/>
+      <c r="I20" s="46">
         <f>'Daily Schedule SUN'!I20:J20</f>
         <v>0</v>
       </c>
-      <c r="J20" s="53"/>
+      <c r="J20" s="47"/>
     </row>
     <row r="21" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="8"/>
@@ -4781,13 +4786,13 @@
       <c r="D21" s="8"/>
       <c r="E21" s="16"/>
       <c r="F21" s="8"/>
-      <c r="G21" s="62"/>
-      <c r="H21" s="63"/>
-      <c r="I21" s="66">
+      <c r="G21" s="42"/>
+      <c r="H21" s="43"/>
+      <c r="I21" s="48">
         <f>'Daily Schedule SUN'!I21:J21</f>
         <v>0</v>
       </c>
-      <c r="J21" s="67"/>
+      <c r="J21" s="49"/>
     </row>
     <row r="22" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="8"/>
@@ -4799,16 +4804,16 @@
       <c r="D22" s="8"/>
       <c r="E22" s="17"/>
       <c r="F22" s="8"/>
-      <c r="G22" s="46">
+      <c r="G22" s="56">
         <f>G7+5</f>
         <v>42881</v>
       </c>
-      <c r="H22" s="47"/>
-      <c r="I22" s="68">
+      <c r="H22" s="57"/>
+      <c r="I22" s="62">
         <f>'Daily Schedule SUN'!I22:J22</f>
         <v>0</v>
       </c>
-      <c r="J22" s="69"/>
+      <c r="J22" s="63"/>
     </row>
     <row r="23" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="8"/>
@@ -4820,13 +4825,13 @@
       <c r="D23" s="8"/>
       <c r="E23" s="16"/>
       <c r="F23" s="8"/>
-      <c r="G23" s="48"/>
-      <c r="H23" s="49"/>
-      <c r="I23" s="54">
+      <c r="G23" s="58"/>
+      <c r="H23" s="59"/>
+      <c r="I23" s="44">
         <f>'Daily Schedule SUN'!I23:J23</f>
         <v>0</v>
       </c>
-      <c r="J23" s="55"/>
+      <c r="J23" s="45"/>
     </row>
     <row r="24" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="8"/>
@@ -4838,13 +4843,13 @@
       <c r="D24" s="8"/>
       <c r="E24" s="17"/>
       <c r="F24" s="8"/>
-      <c r="G24" s="50"/>
-      <c r="H24" s="51"/>
-      <c r="I24" s="56">
+      <c r="G24" s="60"/>
+      <c r="H24" s="61"/>
+      <c r="I24" s="64">
         <f>'Daily Schedule SUN'!I24:J24</f>
         <v>0</v>
       </c>
-      <c r="J24" s="57"/>
+      <c r="J24" s="65"/>
     </row>
     <row r="25" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="8"/>
@@ -4856,16 +4861,16 @@
       <c r="D25" s="8"/>
       <c r="E25" s="16"/>
       <c r="F25" s="8"/>
-      <c r="G25" s="58">
+      <c r="G25" s="66">
         <f>G7+6</f>
         <v>42882</v>
       </c>
-      <c r="H25" s="59"/>
-      <c r="I25" s="64">
+      <c r="H25" s="67"/>
+      <c r="I25" s="68">
         <f>'Daily Schedule SUN'!I25:J25</f>
         <v>0</v>
       </c>
-      <c r="J25" s="65"/>
+      <c r="J25" s="69"/>
     </row>
     <row r="26" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="8"/>
@@ -4877,13 +4882,13 @@
       <c r="D26" s="8"/>
       <c r="E26" s="17"/>
       <c r="F26" s="8"/>
-      <c r="G26" s="60"/>
-      <c r="H26" s="61"/>
-      <c r="I26" s="52">
+      <c r="G26" s="40"/>
+      <c r="H26" s="41"/>
+      <c r="I26" s="46">
         <f>'Daily Schedule SUN'!I26:J26</f>
         <v>0</v>
       </c>
-      <c r="J26" s="53"/>
+      <c r="J26" s="47"/>
     </row>
     <row r="27" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="8"/>
@@ -4895,13 +4900,13 @@
       <c r="D27" s="8"/>
       <c r="E27" s="16"/>
       <c r="F27" s="8"/>
-      <c r="G27" s="62"/>
-      <c r="H27" s="63"/>
-      <c r="I27" s="66">
+      <c r="G27" s="42"/>
+      <c r="H27" s="43"/>
+      <c r="I27" s="48">
         <f>'Daily Schedule SUN'!I27:J27</f>
         <v>0</v>
       </c>
-      <c r="J27" s="67"/>
+      <c r="J27" s="49"/>
     </row>
     <row r="28" spans="1:10" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A28" s="8"/>
@@ -4928,12 +4933,12 @@
       <c r="D29" s="8"/>
       <c r="E29" s="16"/>
       <c r="F29" s="8"/>
-      <c r="G29" s="37" t="s">
+      <c r="G29" s="70" t="s">
         <v>26</v>
       </c>
-      <c r="H29" s="38"/>
-      <c r="I29" s="38"/>
-      <c r="J29" s="39"/>
+      <c r="H29" s="71"/>
+      <c r="I29" s="71"/>
+      <c r="J29" s="72"/>
     </row>
     <row r="30" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30" s="8"/>
@@ -4945,10 +4950,10 @@
       <c r="D30" s="8"/>
       <c r="E30" s="17"/>
       <c r="F30" s="8"/>
-      <c r="G30" s="40"/>
-      <c r="H30" s="41"/>
-      <c r="I30" s="41"/>
-      <c r="J30" s="42"/>
+      <c r="G30" s="73"/>
+      <c r="H30" s="74"/>
+      <c r="I30" s="74"/>
+      <c r="J30" s="75"/>
     </row>
     <row r="31" spans="1:10" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A31" s="8"/>
@@ -4960,10 +4965,10 @@
       <c r="D31" s="8"/>
       <c r="E31" s="16"/>
       <c r="F31" s="8"/>
-      <c r="G31" s="43"/>
-      <c r="H31" s="44"/>
-      <c r="I31" s="44"/>
-      <c r="J31" s="45"/>
+      <c r="G31" s="76"/>
+      <c r="H31" s="77"/>
+      <c r="I31" s="77"/>
+      <c r="J31" s="78"/>
     </row>
     <row r="32" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A32" s="8"/>
@@ -5087,30 +5092,6 @@
     </row>
   </sheetData>
   <mergeCells count="33">
-    <mergeCell ref="B2:C3"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="G5:J6"/>
-    <mergeCell ref="G7:H9"/>
-    <mergeCell ref="I7:J7"/>
-    <mergeCell ref="I8:J8"/>
-    <mergeCell ref="I9:J9"/>
-    <mergeCell ref="G10:H12"/>
-    <mergeCell ref="I10:J10"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="I12:J12"/>
-    <mergeCell ref="G13:H15"/>
-    <mergeCell ref="I13:J13"/>
-    <mergeCell ref="I14:J14"/>
-    <mergeCell ref="I15:J15"/>
-    <mergeCell ref="G16:H18"/>
-    <mergeCell ref="I16:J16"/>
-    <mergeCell ref="I17:J17"/>
-    <mergeCell ref="I18:J18"/>
-    <mergeCell ref="G19:H21"/>
-    <mergeCell ref="I19:J19"/>
-    <mergeCell ref="I20:J20"/>
-    <mergeCell ref="I21:J21"/>
     <mergeCell ref="G29:J31"/>
     <mergeCell ref="G22:H24"/>
     <mergeCell ref="I22:J22"/>
@@ -5120,6 +5101,30 @@
     <mergeCell ref="I25:J25"/>
     <mergeCell ref="I26:J26"/>
     <mergeCell ref="I27:J27"/>
+    <mergeCell ref="G16:H18"/>
+    <mergeCell ref="I16:J16"/>
+    <mergeCell ref="I17:J17"/>
+    <mergeCell ref="I18:J18"/>
+    <mergeCell ref="G19:H21"/>
+    <mergeCell ref="I19:J19"/>
+    <mergeCell ref="I20:J20"/>
+    <mergeCell ref="I21:J21"/>
+    <mergeCell ref="G10:H12"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="G13:H15"/>
+    <mergeCell ref="I13:J13"/>
+    <mergeCell ref="I14:J14"/>
+    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="B2:C3"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="G5:J6"/>
+    <mergeCell ref="G7:H9"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="I8:J8"/>
+    <mergeCell ref="I9:J9"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="G29" r:id="rId1"/>
@@ -5201,10 +5206,10 @@
     </row>
     <row r="2" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.65">
       <c r="A2" s="8"/>
-      <c r="B2" s="70" t="s">
+      <c r="B2" s="37" t="s">
         <v>25</v>
       </c>
-      <c r="C2" s="70"/>
+      <c r="C2" s="37"/>
       <c r="D2" s="9"/>
       <c r="E2" s="12" t="s">
         <v>13</v>
@@ -5221,8 +5226,8 @@
     </row>
     <row r="3" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.65">
       <c r="A3" s="8"/>
-      <c r="B3" s="70"/>
-      <c r="C3" s="70"/>
+      <c r="B3" s="37"/>
+      <c r="C3" s="37"/>
       <c r="D3" s="9"/>
       <c r="E3" s="13">
         <f>'Daily Schedule SUN'!E3</f>
@@ -5255,38 +5260,38 @@
     </row>
     <row r="5" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="8"/>
-      <c r="B5" s="71" t="s">
+      <c r="B5" s="38" t="s">
         <v>0</v>
       </c>
       <c r="C5" s="23" t="s">
         <v>21</v>
       </c>
       <c r="D5" s="8"/>
-      <c r="E5" s="72" t="s">
+      <c r="E5" s="39" t="s">
         <v>14</v>
       </c>
       <c r="F5" s="8"/>
-      <c r="G5" s="79" t="s">
+      <c r="G5" s="80" t="s">
         <v>15</v>
       </c>
-      <c r="H5" s="80"/>
-      <c r="I5" s="79"/>
-      <c r="J5" s="79"/>
+      <c r="H5" s="81"/>
+      <c r="I5" s="80"/>
+      <c r="J5" s="80"/>
     </row>
     <row r="6" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="8"/>
-      <c r="B6" s="71"/>
+      <c r="B6" s="38"/>
       <c r="C6" s="24">
         <f>E3+5</f>
         <v>42881</v>
       </c>
       <c r="D6" s="8"/>
-      <c r="E6" s="72"/>
+      <c r="E6" s="39"/>
       <c r="F6" s="8"/>
-      <c r="G6" s="79"/>
-      <c r="H6" s="79"/>
-      <c r="I6" s="79"/>
-      <c r="J6" s="79"/>
+      <c r="G6" s="80"/>
+      <c r="H6" s="80"/>
+      <c r="I6" s="80"/>
+      <c r="J6" s="80"/>
     </row>
     <row r="7" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="8"/>
@@ -5298,16 +5303,16 @@
       <c r="D7" s="8"/>
       <c r="E7" s="16"/>
       <c r="F7" s="8"/>
-      <c r="G7" s="58">
+      <c r="G7" s="66">
         <f>E3</f>
         <v>42876</v>
       </c>
-      <c r="H7" s="59"/>
-      <c r="I7" s="64">
+      <c r="H7" s="67"/>
+      <c r="I7" s="68">
         <f>'Daily Schedule SUN'!I7:J7</f>
         <v>0</v>
       </c>
-      <c r="J7" s="65"/>
+      <c r="J7" s="69"/>
     </row>
     <row r="8" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="8"/>
@@ -5319,13 +5324,13 @@
       <c r="D8" s="8"/>
       <c r="E8" s="17"/>
       <c r="F8" s="8"/>
-      <c r="G8" s="60"/>
-      <c r="H8" s="61"/>
-      <c r="I8" s="52">
+      <c r="G8" s="40"/>
+      <c r="H8" s="41"/>
+      <c r="I8" s="46">
         <f>'Daily Schedule SUN'!I8:J8</f>
         <v>0</v>
       </c>
-      <c r="J8" s="53"/>
+      <c r="J8" s="47"/>
     </row>
     <row r="9" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="8"/>
@@ -5337,13 +5342,13 @@
       <c r="D9" s="8"/>
       <c r="E9" s="16"/>
       <c r="F9" s="8"/>
-      <c r="G9" s="62"/>
-      <c r="H9" s="63"/>
-      <c r="I9" s="66">
+      <c r="G9" s="42"/>
+      <c r="H9" s="43"/>
+      <c r="I9" s="48">
         <f>'Daily Schedule SUN'!I9:J9</f>
         <v>0</v>
       </c>
-      <c r="J9" s="67"/>
+      <c r="J9" s="49"/>
     </row>
     <row r="10" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="8"/>
@@ -5355,16 +5360,16 @@
       <c r="D10" s="8"/>
       <c r="E10" s="17"/>
       <c r="F10" s="8"/>
-      <c r="G10" s="46">
+      <c r="G10" s="56">
         <f>G7+1</f>
         <v>42877</v>
       </c>
-      <c r="H10" s="47"/>
-      <c r="I10" s="68">
+      <c r="H10" s="57"/>
+      <c r="I10" s="62">
         <f>'Daily Schedule SUN'!I10:J10</f>
         <v>0</v>
       </c>
-      <c r="J10" s="69"/>
+      <c r="J10" s="63"/>
     </row>
     <row r="11" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="8"/>
@@ -5376,13 +5381,13 @@
       <c r="D11" s="8"/>
       <c r="E11" s="16"/>
       <c r="F11" s="8"/>
-      <c r="G11" s="48"/>
-      <c r="H11" s="49"/>
-      <c r="I11" s="54">
+      <c r="G11" s="58"/>
+      <c r="H11" s="59"/>
+      <c r="I11" s="44">
         <f>'Daily Schedule SUN'!I11:J11</f>
         <v>0</v>
       </c>
-      <c r="J11" s="55"/>
+      <c r="J11" s="45"/>
     </row>
     <row r="12" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="8"/>
@@ -5394,13 +5399,13 @@
       <c r="D12" s="8"/>
       <c r="E12" s="17"/>
       <c r="F12" s="8"/>
-      <c r="G12" s="50"/>
-      <c r="H12" s="51"/>
-      <c r="I12" s="56">
+      <c r="G12" s="60"/>
+      <c r="H12" s="61"/>
+      <c r="I12" s="64">
         <f>'Daily Schedule SUN'!I12:J12</f>
         <v>0</v>
       </c>
-      <c r="J12" s="57"/>
+      <c r="J12" s="65"/>
     </row>
     <row r="13" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="8"/>
@@ -5412,16 +5417,16 @@
       <c r="D13" s="8"/>
       <c r="E13" s="16"/>
       <c r="F13" s="8"/>
-      <c r="G13" s="58">
+      <c r="G13" s="66">
         <f>G7+2</f>
         <v>42878</v>
       </c>
-      <c r="H13" s="59"/>
-      <c r="I13" s="64">
+      <c r="H13" s="67"/>
+      <c r="I13" s="68">
         <f>'Daily Schedule SUN'!I13:J13</f>
         <v>0</v>
       </c>
-      <c r="J13" s="65"/>
+      <c r="J13" s="69"/>
     </row>
     <row r="14" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="8"/>
@@ -5433,13 +5438,13 @@
       <c r="D14" s="8"/>
       <c r="E14" s="17"/>
       <c r="F14" s="8"/>
-      <c r="G14" s="60"/>
-      <c r="H14" s="61"/>
-      <c r="I14" s="52">
+      <c r="G14" s="40"/>
+      <c r="H14" s="41"/>
+      <c r="I14" s="46">
         <f>'Daily Schedule SUN'!I14:J14</f>
         <v>0</v>
       </c>
-      <c r="J14" s="53"/>
+      <c r="J14" s="47"/>
     </row>
     <row r="15" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="8"/>
@@ -5451,13 +5456,13 @@
       <c r="D15" s="8"/>
       <c r="E15" s="16"/>
       <c r="F15" s="8"/>
-      <c r="G15" s="62"/>
-      <c r="H15" s="63"/>
-      <c r="I15" s="66">
+      <c r="G15" s="42"/>
+      <c r="H15" s="43"/>
+      <c r="I15" s="48">
         <f>'Daily Schedule SUN'!I15:J15</f>
         <v>0</v>
       </c>
-      <c r="J15" s="67"/>
+      <c r="J15" s="49"/>
     </row>
     <row r="16" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="8"/>
@@ -5469,16 +5474,16 @@
       <c r="D16" s="8"/>
       <c r="E16" s="17"/>
       <c r="F16" s="8"/>
-      <c r="G16" s="46">
+      <c r="G16" s="56">
         <f>G7+3</f>
         <v>42879</v>
       </c>
-      <c r="H16" s="47"/>
-      <c r="I16" s="68">
+      <c r="H16" s="57"/>
+      <c r="I16" s="62">
         <f>'Daily Schedule SUN'!I16:J16</f>
         <v>0</v>
       </c>
-      <c r="J16" s="69"/>
+      <c r="J16" s="63"/>
     </row>
     <row r="17" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="8"/>
@@ -5490,13 +5495,13 @@
       <c r="D17" s="8"/>
       <c r="E17" s="16"/>
       <c r="F17" s="8"/>
-      <c r="G17" s="48"/>
-      <c r="H17" s="49"/>
-      <c r="I17" s="54">
+      <c r="G17" s="58"/>
+      <c r="H17" s="59"/>
+      <c r="I17" s="44">
         <f>'Daily Schedule SUN'!I17:J17</f>
         <v>0</v>
       </c>
-      <c r="J17" s="55"/>
+      <c r="J17" s="45"/>
     </row>
     <row r="18" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="8"/>
@@ -5508,13 +5513,13 @@
       <c r="D18" s="8"/>
       <c r="E18" s="17"/>
       <c r="F18" s="8"/>
-      <c r="G18" s="50"/>
-      <c r="H18" s="51"/>
-      <c r="I18" s="56">
+      <c r="G18" s="60"/>
+      <c r="H18" s="61"/>
+      <c r="I18" s="64">
         <f>'Daily Schedule SUN'!I18:J18</f>
         <v>0</v>
       </c>
-      <c r="J18" s="57"/>
+      <c r="J18" s="65"/>
     </row>
     <row r="19" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="8"/>
@@ -5526,16 +5531,16 @@
       <c r="D19" s="8"/>
       <c r="E19" s="16"/>
       <c r="F19" s="8"/>
-      <c r="G19" s="58">
+      <c r="G19" s="66">
         <f>G7+4</f>
         <v>42880</v>
       </c>
-      <c r="H19" s="59"/>
-      <c r="I19" s="64">
+      <c r="H19" s="67"/>
+      <c r="I19" s="68">
         <f>'Daily Schedule SUN'!I19:J19</f>
         <v>0</v>
       </c>
-      <c r="J19" s="65"/>
+      <c r="J19" s="69"/>
     </row>
     <row r="20" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="8"/>
@@ -5547,13 +5552,13 @@
       <c r="D20" s="8"/>
       <c r="E20" s="17"/>
       <c r="F20" s="8"/>
-      <c r="G20" s="60"/>
-      <c r="H20" s="61"/>
-      <c r="I20" s="52">
+      <c r="G20" s="40"/>
+      <c r="H20" s="41"/>
+      <c r="I20" s="46">
         <f>'Daily Schedule SUN'!I20:J20</f>
         <v>0</v>
       </c>
-      <c r="J20" s="53"/>
+      <c r="J20" s="47"/>
     </row>
     <row r="21" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="8"/>
@@ -5565,13 +5570,13 @@
       <c r="D21" s="8"/>
       <c r="E21" s="16"/>
       <c r="F21" s="8"/>
-      <c r="G21" s="62"/>
-      <c r="H21" s="63"/>
-      <c r="I21" s="66">
+      <c r="G21" s="42"/>
+      <c r="H21" s="43"/>
+      <c r="I21" s="48">
         <f>'Daily Schedule SUN'!I21:J21</f>
         <v>0</v>
       </c>
-      <c r="J21" s="67"/>
+      <c r="J21" s="49"/>
     </row>
     <row r="22" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="8"/>
@@ -5583,16 +5588,16 @@
       <c r="D22" s="8"/>
       <c r="E22" s="17"/>
       <c r="F22" s="8"/>
-      <c r="G22" s="46">
+      <c r="G22" s="56">
         <f>G7+5</f>
         <v>42881</v>
       </c>
-      <c r="H22" s="47"/>
-      <c r="I22" s="68">
+      <c r="H22" s="57"/>
+      <c r="I22" s="62">
         <f>'Daily Schedule SUN'!I22:J22</f>
         <v>0</v>
       </c>
-      <c r="J22" s="69"/>
+      <c r="J22" s="63"/>
     </row>
     <row r="23" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="8"/>
@@ -5604,13 +5609,13 @@
       <c r="D23" s="8"/>
       <c r="E23" s="16"/>
       <c r="F23" s="8"/>
-      <c r="G23" s="48"/>
-      <c r="H23" s="49"/>
-      <c r="I23" s="54">
+      <c r="G23" s="58"/>
+      <c r="H23" s="59"/>
+      <c r="I23" s="44">
         <f>'Daily Schedule SUN'!I23:J23</f>
         <v>0</v>
       </c>
-      <c r="J23" s="55"/>
+      <c r="J23" s="45"/>
     </row>
     <row r="24" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="8"/>
@@ -5622,13 +5627,13 @@
       <c r="D24" s="8"/>
       <c r="E24" s="17"/>
       <c r="F24" s="8"/>
-      <c r="G24" s="50"/>
-      <c r="H24" s="51"/>
-      <c r="I24" s="56">
+      <c r="G24" s="60"/>
+      <c r="H24" s="61"/>
+      <c r="I24" s="64">
         <f>'Daily Schedule SUN'!I24:J24</f>
         <v>0</v>
       </c>
-      <c r="J24" s="57"/>
+      <c r="J24" s="65"/>
     </row>
     <row r="25" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="8"/>
@@ -5640,16 +5645,16 @@
       <c r="D25" s="8"/>
       <c r="E25" s="16"/>
       <c r="F25" s="8"/>
-      <c r="G25" s="58">
+      <c r="G25" s="66">
         <f>G7+6</f>
         <v>42882</v>
       </c>
-      <c r="H25" s="59"/>
-      <c r="I25" s="64">
+      <c r="H25" s="67"/>
+      <c r="I25" s="68">
         <f>'Daily Schedule SUN'!I25:J25</f>
         <v>0</v>
       </c>
-      <c r="J25" s="65"/>
+      <c r="J25" s="69"/>
     </row>
     <row r="26" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="8"/>
@@ -5661,13 +5666,13 @@
       <c r="D26" s="8"/>
       <c r="E26" s="17"/>
       <c r="F26" s="8"/>
-      <c r="G26" s="60"/>
-      <c r="H26" s="61"/>
-      <c r="I26" s="52">
+      <c r="G26" s="40"/>
+      <c r="H26" s="41"/>
+      <c r="I26" s="46">
         <f>'Daily Schedule SUN'!I26:J26</f>
         <v>0</v>
       </c>
-      <c r="J26" s="53"/>
+      <c r="J26" s="47"/>
     </row>
     <row r="27" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="8"/>
@@ -5679,13 +5684,13 @@
       <c r="D27" s="8"/>
       <c r="E27" s="16"/>
       <c r="F27" s="8"/>
-      <c r="G27" s="62"/>
-      <c r="H27" s="63"/>
-      <c r="I27" s="66">
+      <c r="G27" s="42"/>
+      <c r="H27" s="43"/>
+      <c r="I27" s="48">
         <f>'Daily Schedule SUN'!I27:J27</f>
         <v>0</v>
       </c>
-      <c r="J27" s="67"/>
+      <c r="J27" s="49"/>
     </row>
     <row r="28" spans="1:10" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A28" s="8"/>
@@ -5712,12 +5717,12 @@
       <c r="D29" s="8"/>
       <c r="E29" s="16"/>
       <c r="F29" s="8"/>
-      <c r="G29" s="37" t="s">
+      <c r="G29" s="70" t="s">
         <v>26</v>
       </c>
-      <c r="H29" s="38"/>
-      <c r="I29" s="38"/>
-      <c r="J29" s="39"/>
+      <c r="H29" s="71"/>
+      <c r="I29" s="71"/>
+      <c r="J29" s="72"/>
     </row>
     <row r="30" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30" s="8"/>
@@ -5729,10 +5734,10 @@
       <c r="D30" s="8"/>
       <c r="E30" s="17"/>
       <c r="F30" s="8"/>
-      <c r="G30" s="40"/>
-      <c r="H30" s="41"/>
-      <c r="I30" s="41"/>
-      <c r="J30" s="42"/>
+      <c r="G30" s="73"/>
+      <c r="H30" s="74"/>
+      <c r="I30" s="74"/>
+      <c r="J30" s="75"/>
     </row>
     <row r="31" spans="1:10" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A31" s="8"/>
@@ -5744,10 +5749,10 @@
       <c r="D31" s="8"/>
       <c r="E31" s="16"/>
       <c r="F31" s="8"/>
-      <c r="G31" s="43"/>
-      <c r="H31" s="44"/>
-      <c r="I31" s="44"/>
-      <c r="J31" s="45"/>
+      <c r="G31" s="76"/>
+      <c r="H31" s="77"/>
+      <c r="I31" s="77"/>
+      <c r="J31" s="78"/>
     </row>
     <row r="32" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A32" s="8"/>
@@ -5871,30 +5876,6 @@
     </row>
   </sheetData>
   <mergeCells count="33">
-    <mergeCell ref="B2:C3"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="G5:J6"/>
-    <mergeCell ref="G7:H9"/>
-    <mergeCell ref="I7:J7"/>
-    <mergeCell ref="I8:J8"/>
-    <mergeCell ref="I9:J9"/>
-    <mergeCell ref="G10:H12"/>
-    <mergeCell ref="I10:J10"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="I12:J12"/>
-    <mergeCell ref="G13:H15"/>
-    <mergeCell ref="I13:J13"/>
-    <mergeCell ref="I14:J14"/>
-    <mergeCell ref="I15:J15"/>
-    <mergeCell ref="G16:H18"/>
-    <mergeCell ref="I16:J16"/>
-    <mergeCell ref="I17:J17"/>
-    <mergeCell ref="I18:J18"/>
-    <mergeCell ref="G19:H21"/>
-    <mergeCell ref="I19:J19"/>
-    <mergeCell ref="I20:J20"/>
-    <mergeCell ref="I21:J21"/>
     <mergeCell ref="G29:J31"/>
     <mergeCell ref="G22:H24"/>
     <mergeCell ref="I22:J22"/>
@@ -5904,6 +5885,30 @@
     <mergeCell ref="I25:J25"/>
     <mergeCell ref="I26:J26"/>
     <mergeCell ref="I27:J27"/>
+    <mergeCell ref="G16:H18"/>
+    <mergeCell ref="I16:J16"/>
+    <mergeCell ref="I17:J17"/>
+    <mergeCell ref="I18:J18"/>
+    <mergeCell ref="G19:H21"/>
+    <mergeCell ref="I19:J19"/>
+    <mergeCell ref="I20:J20"/>
+    <mergeCell ref="I21:J21"/>
+    <mergeCell ref="G10:H12"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="G13:H15"/>
+    <mergeCell ref="I13:J13"/>
+    <mergeCell ref="I14:J14"/>
+    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="B2:C3"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="G5:J6"/>
+    <mergeCell ref="G7:H9"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="I8:J8"/>
+    <mergeCell ref="I9:J9"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="G29" r:id="rId1"/>
@@ -5985,10 +5990,10 @@
     </row>
     <row r="2" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.65">
       <c r="A2" s="8"/>
-      <c r="B2" s="70" t="s">
+      <c r="B2" s="37" t="s">
         <v>25</v>
       </c>
-      <c r="C2" s="70"/>
+      <c r="C2" s="37"/>
       <c r="D2" s="9"/>
       <c r="E2" s="12" t="s">
         <v>13</v>
@@ -6005,8 +6010,8 @@
     </row>
     <row r="3" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.65">
       <c r="A3" s="8"/>
-      <c r="B3" s="70"/>
-      <c r="C3" s="70"/>
+      <c r="B3" s="37"/>
+      <c r="C3" s="37"/>
       <c r="D3" s="9"/>
       <c r="E3" s="13">
         <f>'Daily Schedule SUN'!E3</f>
@@ -6039,38 +6044,38 @@
     </row>
     <row r="5" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="8"/>
-      <c r="B5" s="71" t="s">
+      <c r="B5" s="38" t="s">
         <v>0</v>
       </c>
       <c r="C5" s="23" t="s">
         <v>22</v>
       </c>
       <c r="D5" s="8"/>
-      <c r="E5" s="72" t="s">
+      <c r="E5" s="39" t="s">
         <v>14</v>
       </c>
       <c r="F5" s="8"/>
-      <c r="G5" s="79" t="s">
+      <c r="G5" s="80" t="s">
         <v>15</v>
       </c>
-      <c r="H5" s="80"/>
-      <c r="I5" s="79"/>
-      <c r="J5" s="79"/>
+      <c r="H5" s="81"/>
+      <c r="I5" s="80"/>
+      <c r="J5" s="80"/>
     </row>
     <row r="6" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="8"/>
-      <c r="B6" s="71"/>
+      <c r="B6" s="38"/>
       <c r="C6" s="24">
         <f>E3+6</f>
         <v>42882</v>
       </c>
       <c r="D6" s="8"/>
-      <c r="E6" s="72"/>
+      <c r="E6" s="39"/>
       <c r="F6" s="8"/>
-      <c r="G6" s="79"/>
-      <c r="H6" s="79"/>
-      <c r="I6" s="79"/>
-      <c r="J6" s="79"/>
+      <c r="G6" s="80"/>
+      <c r="H6" s="80"/>
+      <c r="I6" s="80"/>
+      <c r="J6" s="80"/>
     </row>
     <row r="7" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="8"/>
@@ -6082,16 +6087,16 @@
       <c r="D7" s="8"/>
       <c r="E7" s="16"/>
       <c r="F7" s="8"/>
-      <c r="G7" s="58">
+      <c r="G7" s="66">
         <f>E3</f>
         <v>42876</v>
       </c>
-      <c r="H7" s="59"/>
-      <c r="I7" s="64">
+      <c r="H7" s="67"/>
+      <c r="I7" s="68">
         <f>'Daily Schedule SUN'!I7:J7</f>
         <v>0</v>
       </c>
-      <c r="J7" s="65"/>
+      <c r="J7" s="69"/>
     </row>
     <row r="8" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="8"/>
@@ -6103,13 +6108,13 @@
       <c r="D8" s="8"/>
       <c r="E8" s="17"/>
       <c r="F8" s="8"/>
-      <c r="G8" s="60"/>
-      <c r="H8" s="61"/>
-      <c r="I8" s="52">
+      <c r="G8" s="40"/>
+      <c r="H8" s="41"/>
+      <c r="I8" s="46">
         <f>'Daily Schedule SUN'!I8:J8</f>
         <v>0</v>
       </c>
-      <c r="J8" s="53"/>
+      <c r="J8" s="47"/>
     </row>
     <row r="9" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="8"/>
@@ -6121,13 +6126,13 @@
       <c r="D9" s="8"/>
       <c r="E9" s="16"/>
       <c r="F9" s="8"/>
-      <c r="G9" s="62"/>
-      <c r="H9" s="63"/>
-      <c r="I9" s="66">
+      <c r="G9" s="42"/>
+      <c r="H9" s="43"/>
+      <c r="I9" s="48">
         <f>'Daily Schedule SUN'!I9:J9</f>
         <v>0</v>
       </c>
-      <c r="J9" s="67"/>
+      <c r="J9" s="49"/>
     </row>
     <row r="10" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="8"/>
@@ -6139,16 +6144,16 @@
       <c r="D10" s="8"/>
       <c r="E10" s="17"/>
       <c r="F10" s="8"/>
-      <c r="G10" s="46">
+      <c r="G10" s="56">
         <f>G7+1</f>
         <v>42877</v>
       </c>
-      <c r="H10" s="47"/>
-      <c r="I10" s="68">
+      <c r="H10" s="57"/>
+      <c r="I10" s="62">
         <f>'Daily Schedule SUN'!I10:J10</f>
         <v>0</v>
       </c>
-      <c r="J10" s="69"/>
+      <c r="J10" s="63"/>
     </row>
     <row r="11" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="8"/>
@@ -6160,13 +6165,13 @@
       <c r="D11" s="8"/>
       <c r="E11" s="16"/>
       <c r="F11" s="8"/>
-      <c r="G11" s="48"/>
-      <c r="H11" s="49"/>
-      <c r="I11" s="54">
+      <c r="G11" s="58"/>
+      <c r="H11" s="59"/>
+      <c r="I11" s="44">
         <f>'Daily Schedule SUN'!I11:J11</f>
         <v>0</v>
       </c>
-      <c r="J11" s="55"/>
+      <c r="J11" s="45"/>
     </row>
     <row r="12" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="8"/>
@@ -6178,13 +6183,13 @@
       <c r="D12" s="8"/>
       <c r="E12" s="17"/>
       <c r="F12" s="8"/>
-      <c r="G12" s="50"/>
-      <c r="H12" s="51"/>
-      <c r="I12" s="56">
+      <c r="G12" s="60"/>
+      <c r="H12" s="61"/>
+      <c r="I12" s="64">
         <f>'Daily Schedule SUN'!I12:J12</f>
         <v>0</v>
       </c>
-      <c r="J12" s="57"/>
+      <c r="J12" s="65"/>
     </row>
     <row r="13" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="8"/>
@@ -6196,16 +6201,16 @@
       <c r="D13" s="8"/>
       <c r="E13" s="16"/>
       <c r="F13" s="8"/>
-      <c r="G13" s="58">
+      <c r="G13" s="66">
         <f>G7+2</f>
         <v>42878</v>
       </c>
-      <c r="H13" s="59"/>
-      <c r="I13" s="64">
+      <c r="H13" s="67"/>
+      <c r="I13" s="68">
         <f>'Daily Schedule SUN'!I13:J13</f>
         <v>0</v>
       </c>
-      <c r="J13" s="65"/>
+      <c r="J13" s="69"/>
     </row>
     <row r="14" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="8"/>
@@ -6217,13 +6222,13 @@
       <c r="D14" s="8"/>
       <c r="E14" s="17"/>
       <c r="F14" s="8"/>
-      <c r="G14" s="60"/>
-      <c r="H14" s="61"/>
-      <c r="I14" s="52">
+      <c r="G14" s="40"/>
+      <c r="H14" s="41"/>
+      <c r="I14" s="46">
         <f>'Daily Schedule SUN'!I14:J14</f>
         <v>0</v>
       </c>
-      <c r="J14" s="53"/>
+      <c r="J14" s="47"/>
     </row>
     <row r="15" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="8"/>
@@ -6235,13 +6240,13 @@
       <c r="D15" s="8"/>
       <c r="E15" s="16"/>
       <c r="F15" s="8"/>
-      <c r="G15" s="62"/>
-      <c r="H15" s="63"/>
-      <c r="I15" s="66">
+      <c r="G15" s="42"/>
+      <c r="H15" s="43"/>
+      <c r="I15" s="48">
         <f>'Daily Schedule SUN'!I15:J15</f>
         <v>0</v>
       </c>
-      <c r="J15" s="67"/>
+      <c r="J15" s="49"/>
     </row>
     <row r="16" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="8"/>
@@ -6253,16 +6258,16 @@
       <c r="D16" s="8"/>
       <c r="E16" s="17"/>
       <c r="F16" s="8"/>
-      <c r="G16" s="46">
+      <c r="G16" s="56">
         <f>G7+3</f>
         <v>42879</v>
       </c>
-      <c r="H16" s="47"/>
-      <c r="I16" s="68">
+      <c r="H16" s="57"/>
+      <c r="I16" s="62">
         <f>'Daily Schedule SUN'!I16:J16</f>
         <v>0</v>
       </c>
-      <c r="J16" s="69"/>
+      <c r="J16" s="63"/>
     </row>
     <row r="17" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="8"/>
@@ -6274,13 +6279,13 @@
       <c r="D17" s="8"/>
       <c r="E17" s="16"/>
       <c r="F17" s="8"/>
-      <c r="G17" s="48"/>
-      <c r="H17" s="49"/>
-      <c r="I17" s="54">
+      <c r="G17" s="58"/>
+      <c r="H17" s="59"/>
+      <c r="I17" s="44">
         <f>'Daily Schedule SUN'!I17:J17</f>
         <v>0</v>
       </c>
-      <c r="J17" s="55"/>
+      <c r="J17" s="45"/>
     </row>
     <row r="18" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="8"/>
@@ -6292,13 +6297,13 @@
       <c r="D18" s="8"/>
       <c r="E18" s="17"/>
       <c r="F18" s="8"/>
-      <c r="G18" s="50"/>
-      <c r="H18" s="51"/>
-      <c r="I18" s="56">
+      <c r="G18" s="60"/>
+      <c r="H18" s="61"/>
+      <c r="I18" s="64">
         <f>'Daily Schedule SUN'!I18:J18</f>
         <v>0</v>
       </c>
-      <c r="J18" s="57"/>
+      <c r="J18" s="65"/>
     </row>
     <row r="19" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="8"/>
@@ -6310,16 +6315,16 @@
       <c r="D19" s="8"/>
       <c r="E19" s="16"/>
       <c r="F19" s="8"/>
-      <c r="G19" s="58">
+      <c r="G19" s="66">
         <f>G7+4</f>
         <v>42880</v>
       </c>
-      <c r="H19" s="59"/>
-      <c r="I19" s="64">
+      <c r="H19" s="67"/>
+      <c r="I19" s="68">
         <f>'Daily Schedule SUN'!I19:J19</f>
         <v>0</v>
       </c>
-      <c r="J19" s="65"/>
+      <c r="J19" s="69"/>
     </row>
     <row r="20" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="8"/>
@@ -6331,13 +6336,13 @@
       <c r="D20" s="8"/>
       <c r="E20" s="17"/>
       <c r="F20" s="8"/>
-      <c r="G20" s="60"/>
-      <c r="H20" s="61"/>
-      <c r="I20" s="52">
+      <c r="G20" s="40"/>
+      <c r="H20" s="41"/>
+      <c r="I20" s="46">
         <f>'Daily Schedule SUN'!I20:J20</f>
         <v>0</v>
       </c>
-      <c r="J20" s="53"/>
+      <c r="J20" s="47"/>
     </row>
     <row r="21" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="8"/>
@@ -6349,13 +6354,13 @@
       <c r="D21" s="8"/>
       <c r="E21" s="16"/>
       <c r="F21" s="8"/>
-      <c r="G21" s="62"/>
-      <c r="H21" s="63"/>
-      <c r="I21" s="66">
+      <c r="G21" s="42"/>
+      <c r="H21" s="43"/>
+      <c r="I21" s="48">
         <f>'Daily Schedule SUN'!I21:J21</f>
         <v>0</v>
       </c>
-      <c r="J21" s="67"/>
+      <c r="J21" s="49"/>
     </row>
     <row r="22" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="8"/>
@@ -6367,16 +6372,16 @@
       <c r="D22" s="8"/>
       <c r="E22" s="17"/>
       <c r="F22" s="8"/>
-      <c r="G22" s="46">
+      <c r="G22" s="56">
         <f>G7+5</f>
         <v>42881</v>
       </c>
-      <c r="H22" s="47"/>
-      <c r="I22" s="68">
+      <c r="H22" s="57"/>
+      <c r="I22" s="62">
         <f>'Daily Schedule SUN'!I22:J22</f>
         <v>0</v>
       </c>
-      <c r="J22" s="69"/>
+      <c r="J22" s="63"/>
     </row>
     <row r="23" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="8"/>
@@ -6388,13 +6393,13 @@
       <c r="D23" s="8"/>
       <c r="E23" s="16"/>
       <c r="F23" s="8"/>
-      <c r="G23" s="48"/>
-      <c r="H23" s="49"/>
-      <c r="I23" s="54">
+      <c r="G23" s="58"/>
+      <c r="H23" s="59"/>
+      <c r="I23" s="44">
         <f>'Daily Schedule SUN'!I23:J23</f>
         <v>0</v>
       </c>
-      <c r="J23" s="55"/>
+      <c r="J23" s="45"/>
     </row>
     <row r="24" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="8"/>
@@ -6406,13 +6411,13 @@
       <c r="D24" s="8"/>
       <c r="E24" s="17"/>
       <c r="F24" s="8"/>
-      <c r="G24" s="50"/>
-      <c r="H24" s="51"/>
-      <c r="I24" s="56">
+      <c r="G24" s="60"/>
+      <c r="H24" s="61"/>
+      <c r="I24" s="64">
         <f>'Daily Schedule SUN'!I24:J24</f>
         <v>0</v>
       </c>
-      <c r="J24" s="57"/>
+      <c r="J24" s="65"/>
     </row>
     <row r="25" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="8"/>
@@ -6424,16 +6429,16 @@
       <c r="D25" s="8"/>
       <c r="E25" s="16"/>
       <c r="F25" s="8"/>
-      <c r="G25" s="58">
+      <c r="G25" s="66">
         <f>G7+6</f>
         <v>42882</v>
       </c>
-      <c r="H25" s="59"/>
-      <c r="I25" s="64">
+      <c r="H25" s="67"/>
+      <c r="I25" s="68">
         <f>'Daily Schedule SUN'!I25:J25</f>
         <v>0</v>
       </c>
-      <c r="J25" s="65"/>
+      <c r="J25" s="69"/>
     </row>
     <row r="26" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="8"/>
@@ -6445,13 +6450,13 @@
       <c r="D26" s="8"/>
       <c r="E26" s="17"/>
       <c r="F26" s="8"/>
-      <c r="G26" s="60"/>
-      <c r="H26" s="61"/>
-      <c r="I26" s="52">
+      <c r="G26" s="40"/>
+      <c r="H26" s="41"/>
+      <c r="I26" s="46">
         <f>'Daily Schedule SUN'!I26:J26</f>
         <v>0</v>
       </c>
-      <c r="J26" s="53"/>
+      <c r="J26" s="47"/>
     </row>
     <row r="27" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="8"/>
@@ -6463,13 +6468,13 @@
       <c r="D27" s="8"/>
       <c r="E27" s="16"/>
       <c r="F27" s="8"/>
-      <c r="G27" s="62"/>
-      <c r="H27" s="63"/>
-      <c r="I27" s="66">
+      <c r="G27" s="42"/>
+      <c r="H27" s="43"/>
+      <c r="I27" s="48">
         <f>'Daily Schedule SUN'!I27:J27</f>
         <v>0</v>
       </c>
-      <c r="J27" s="67"/>
+      <c r="J27" s="49"/>
     </row>
     <row r="28" spans="1:10" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A28" s="8"/>
@@ -6496,12 +6501,12 @@
       <c r="D29" s="8"/>
       <c r="E29" s="16"/>
       <c r="F29" s="8"/>
-      <c r="G29" s="37" t="s">
+      <c r="G29" s="70" t="s">
         <v>26</v>
       </c>
-      <c r="H29" s="38"/>
-      <c r="I29" s="38"/>
-      <c r="J29" s="39"/>
+      <c r="H29" s="71"/>
+      <c r="I29" s="71"/>
+      <c r="J29" s="72"/>
     </row>
     <row r="30" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30" s="8"/>
@@ -6513,10 +6518,10 @@
       <c r="D30" s="8"/>
       <c r="E30" s="17"/>
       <c r="F30" s="8"/>
-      <c r="G30" s="40"/>
-      <c r="H30" s="41"/>
-      <c r="I30" s="41"/>
-      <c r="J30" s="42"/>
+      <c r="G30" s="73"/>
+      <c r="H30" s="74"/>
+      <c r="I30" s="74"/>
+      <c r="J30" s="75"/>
     </row>
     <row r="31" spans="1:10" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A31" s="8"/>
@@ -6528,10 +6533,10 @@
       <c r="D31" s="8"/>
       <c r="E31" s="16"/>
       <c r="F31" s="8"/>
-      <c r="G31" s="43"/>
-      <c r="H31" s="44"/>
-      <c r="I31" s="44"/>
-      <c r="J31" s="45"/>
+      <c r="G31" s="76"/>
+      <c r="H31" s="77"/>
+      <c r="I31" s="77"/>
+      <c r="J31" s="78"/>
     </row>
     <row r="32" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A32" s="8"/>
@@ -6655,30 +6660,6 @@
     </row>
   </sheetData>
   <mergeCells count="33">
-    <mergeCell ref="B2:C3"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="G5:J6"/>
-    <mergeCell ref="G7:H9"/>
-    <mergeCell ref="I7:J7"/>
-    <mergeCell ref="I8:J8"/>
-    <mergeCell ref="I9:J9"/>
-    <mergeCell ref="G10:H12"/>
-    <mergeCell ref="I10:J10"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="I12:J12"/>
-    <mergeCell ref="G13:H15"/>
-    <mergeCell ref="I13:J13"/>
-    <mergeCell ref="I14:J14"/>
-    <mergeCell ref="I15:J15"/>
-    <mergeCell ref="G16:H18"/>
-    <mergeCell ref="I16:J16"/>
-    <mergeCell ref="I17:J17"/>
-    <mergeCell ref="I18:J18"/>
-    <mergeCell ref="G19:H21"/>
-    <mergeCell ref="I19:J19"/>
-    <mergeCell ref="I20:J20"/>
-    <mergeCell ref="I21:J21"/>
     <mergeCell ref="G29:J31"/>
     <mergeCell ref="G22:H24"/>
     <mergeCell ref="I22:J22"/>
@@ -6688,6 +6669,30 @@
     <mergeCell ref="I25:J25"/>
     <mergeCell ref="I26:J26"/>
     <mergeCell ref="I27:J27"/>
+    <mergeCell ref="G16:H18"/>
+    <mergeCell ref="I16:J16"/>
+    <mergeCell ref="I17:J17"/>
+    <mergeCell ref="I18:J18"/>
+    <mergeCell ref="G19:H21"/>
+    <mergeCell ref="I19:J19"/>
+    <mergeCell ref="I20:J20"/>
+    <mergeCell ref="I21:J21"/>
+    <mergeCell ref="G10:H12"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="G13:H15"/>
+    <mergeCell ref="I13:J13"/>
+    <mergeCell ref="I14:J14"/>
+    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="B2:C3"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="G5:J6"/>
+    <mergeCell ref="G7:H9"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="I8:J8"/>
+    <mergeCell ref="I9:J9"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="G29" r:id="rId1"/>

--- a/daily-work-schedule-template.xlsx
+++ b/daily-work-schedule-template.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14380" windowHeight="4090" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14380" windowHeight="4090" tabRatio="500" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Daily Schedule SUN" sheetId="4" r:id="rId1"/>
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="41">
   <si>
     <t>TIME</t>
   </si>
@@ -135,18 +135,6 @@
     <t>Lunch</t>
   </si>
   <si>
-    <t>Continue work on volunteers website</t>
-  </si>
-  <si>
-    <t>Work on volunteers front page</t>
-  </si>
-  <si>
-    <t>Build volunteers table</t>
-  </si>
-  <si>
-    <t>Build users table</t>
-  </si>
-  <si>
     <t>Get audio file to uploads folder</t>
   </si>
   <si>
@@ -166,6 +154,24 @@
   </si>
   <si>
     <t>Fix sentence pages</t>
+  </si>
+  <si>
+    <t>Update Sentence table</t>
+  </si>
+  <si>
+    <t>Update sentence table</t>
+  </si>
+  <si>
+    <t>Work on page protection (login required)</t>
+  </si>
+  <si>
+    <t>Fix pager if end of sentences is reached</t>
+  </si>
+  <si>
+    <t>Add dutch and meestrech text to sentences</t>
+  </si>
+  <si>
+    <t>Done with randomizer added as well</t>
   </si>
 </sst>
 </file>
@@ -695,7 +701,7 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="82">
+  <cellXfs count="83">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="18" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -791,6 +797,105 @@
     <xf numFmtId="0" fontId="19" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="10" fillId="13" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="10" fillId="13" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="10" fillId="13" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="10" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="10" fillId="13" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="10" fillId="13" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="10" fillId="17" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="10" fillId="17" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="10" fillId="17" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="10" fillId="17" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="10" fillId="17" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="10" fillId="17" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -800,36 +905,6 @@
     <xf numFmtId="0" fontId="6" fillId="12" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="10" fillId="17" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="10" fillId="17" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="10" fillId="17" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="10" fillId="17" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="13" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -848,83 +923,17 @@
     <xf numFmtId="0" fontId="11" fillId="13" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="165" fontId="10" fillId="13" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="10" fillId="13" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="10" fillId="13" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="10" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="10" fillId="13" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="10" fillId="13" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="10" fillId="17" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="10" fillId="17" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="10" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -1281,10 +1290,10 @@
     </row>
     <row r="2" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.65">
       <c r="A2" s="8"/>
-      <c r="B2" s="37" t="s">
+      <c r="B2" s="70" t="s">
         <v>25</v>
       </c>
-      <c r="C2" s="37"/>
+      <c r="C2" s="70"/>
       <c r="D2" s="9"/>
       <c r="E2" s="12" t="s">
         <v>13</v>
@@ -1301,8 +1310,8 @@
     </row>
     <row r="3" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.65">
       <c r="A3" s="8"/>
-      <c r="B3" s="37"/>
-      <c r="C3" s="37"/>
+      <c r="B3" s="70"/>
+      <c r="C3" s="70"/>
       <c r="D3" s="9"/>
       <c r="E3" s="13">
         <v>42876</v>
@@ -1334,40 +1343,40 @@
     </row>
     <row r="5" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="8"/>
-      <c r="B5" s="38" t="s">
+      <c r="B5" s="71" t="s">
         <v>0</v>
       </c>
       <c r="C5" s="23" t="s">
         <v>17</v>
       </c>
       <c r="D5" s="8"/>
-      <c r="E5" s="39" t="s">
+      <c r="E5" s="72" t="s">
         <v>14</v>
       </c>
       <c r="F5" s="8"/>
-      <c r="G5" s="50" t="s">
+      <c r="G5" s="73" t="s">
         <v>23</v>
       </c>
-      <c r="H5" s="51"/>
-      <c r="I5" s="51"/>
-      <c r="J5" s="52"/>
+      <c r="H5" s="74"/>
+      <c r="I5" s="74"/>
+      <c r="J5" s="75"/>
     </row>
     <row r="6" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="8"/>
-      <c r="B6" s="38"/>
+      <c r="B6" s="71"/>
       <c r="C6" s="24">
         <f>E3</f>
         <v>42876</v>
       </c>
       <c r="D6" s="8"/>
-      <c r="E6" s="39"/>
+      <c r="E6" s="72"/>
       <c r="F6" s="8"/>
-      <c r="G6" s="53" t="s">
+      <c r="G6" s="76" t="s">
         <v>24</v>
       </c>
-      <c r="H6" s="54"/>
-      <c r="I6" s="54"/>
-      <c r="J6" s="55"/>
+      <c r="H6" s="77"/>
+      <c r="I6" s="77"/>
+      <c r="J6" s="78"/>
     </row>
     <row r="7" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="8"/>
@@ -1379,13 +1388,13 @@
       <c r="D7" s="8"/>
       <c r="E7" s="16"/>
       <c r="F7" s="8"/>
-      <c r="G7" s="40">
+      <c r="G7" s="60">
         <f>E3</f>
         <v>42876</v>
       </c>
-      <c r="H7" s="41"/>
-      <c r="I7" s="44"/>
-      <c r="J7" s="45"/>
+      <c r="H7" s="61"/>
+      <c r="I7" s="54"/>
+      <c r="J7" s="55"/>
     </row>
     <row r="8" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="8"/>
@@ -1397,10 +1406,10 @@
       <c r="D8" s="8"/>
       <c r="E8" s="17"/>
       <c r="F8" s="8"/>
-      <c r="G8" s="40"/>
-      <c r="H8" s="41"/>
-      <c r="I8" s="46"/>
-      <c r="J8" s="47"/>
+      <c r="G8" s="60"/>
+      <c r="H8" s="61"/>
+      <c r="I8" s="52"/>
+      <c r="J8" s="53"/>
     </row>
     <row r="9" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="8"/>
@@ -1412,10 +1421,10 @@
       <c r="D9" s="8"/>
       <c r="E9" s="16"/>
       <c r="F9" s="8"/>
-      <c r="G9" s="42"/>
-      <c r="H9" s="43"/>
-      <c r="I9" s="48"/>
-      <c r="J9" s="49"/>
+      <c r="G9" s="62"/>
+      <c r="H9" s="63"/>
+      <c r="I9" s="66"/>
+      <c r="J9" s="67"/>
     </row>
     <row r="10" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="8"/>
@@ -1427,13 +1436,13 @@
       <c r="D10" s="8"/>
       <c r="E10" s="17"/>
       <c r="F10" s="8"/>
-      <c r="G10" s="56">
+      <c r="G10" s="46">
         <f>G7+1</f>
         <v>42877</v>
       </c>
-      <c r="H10" s="57"/>
-      <c r="I10" s="62"/>
-      <c r="J10" s="63"/>
+      <c r="H10" s="47"/>
+      <c r="I10" s="68"/>
+      <c r="J10" s="69"/>
     </row>
     <row r="11" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="8"/>
@@ -1445,10 +1454,10 @@
       <c r="D11" s="8"/>
       <c r="E11" s="16"/>
       <c r="F11" s="8"/>
-      <c r="G11" s="58"/>
-      <c r="H11" s="59"/>
-      <c r="I11" s="44"/>
-      <c r="J11" s="45"/>
+      <c r="G11" s="48"/>
+      <c r="H11" s="49"/>
+      <c r="I11" s="54"/>
+      <c r="J11" s="55"/>
     </row>
     <row r="12" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="8"/>
@@ -1460,10 +1469,10 @@
       <c r="D12" s="8"/>
       <c r="E12" s="17"/>
       <c r="F12" s="8"/>
-      <c r="G12" s="60"/>
-      <c r="H12" s="61"/>
-      <c r="I12" s="64"/>
-      <c r="J12" s="65"/>
+      <c r="G12" s="50"/>
+      <c r="H12" s="51"/>
+      <c r="I12" s="56"/>
+      <c r="J12" s="57"/>
     </row>
     <row r="13" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="8"/>
@@ -1475,13 +1484,13 @@
       <c r="D13" s="8"/>
       <c r="E13" s="16"/>
       <c r="F13" s="8"/>
-      <c r="G13" s="66">
+      <c r="G13" s="58">
         <f>G7+2</f>
         <v>42878</v>
       </c>
-      <c r="H13" s="67"/>
-      <c r="I13" s="68"/>
-      <c r="J13" s="69"/>
+      <c r="H13" s="59"/>
+      <c r="I13" s="64"/>
+      <c r="J13" s="65"/>
     </row>
     <row r="14" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="8"/>
@@ -1493,10 +1502,10 @@
       <c r="D14" s="8"/>
       <c r="E14" s="17"/>
       <c r="F14" s="8"/>
-      <c r="G14" s="40"/>
-      <c r="H14" s="41"/>
-      <c r="I14" s="46"/>
-      <c r="J14" s="47"/>
+      <c r="G14" s="60"/>
+      <c r="H14" s="61"/>
+      <c r="I14" s="52"/>
+      <c r="J14" s="53"/>
     </row>
     <row r="15" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="8"/>
@@ -1508,10 +1517,10 @@
       <c r="D15" s="8"/>
       <c r="E15" s="16"/>
       <c r="F15" s="8"/>
-      <c r="G15" s="42"/>
-      <c r="H15" s="43"/>
-      <c r="I15" s="48"/>
-      <c r="J15" s="49"/>
+      <c r="G15" s="62"/>
+      <c r="H15" s="63"/>
+      <c r="I15" s="66"/>
+      <c r="J15" s="67"/>
     </row>
     <row r="16" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="8"/>
@@ -1523,13 +1532,13 @@
       <c r="D16" s="8"/>
       <c r="E16" s="17"/>
       <c r="F16" s="8"/>
-      <c r="G16" s="56">
+      <c r="G16" s="46">
         <f>G7+3</f>
         <v>42879</v>
       </c>
-      <c r="H16" s="57"/>
-      <c r="I16" s="62"/>
-      <c r="J16" s="63"/>
+      <c r="H16" s="47"/>
+      <c r="I16" s="68"/>
+      <c r="J16" s="69"/>
     </row>
     <row r="17" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="8"/>
@@ -1541,10 +1550,10 @@
       <c r="D17" s="8"/>
       <c r="E17" s="16"/>
       <c r="F17" s="8"/>
-      <c r="G17" s="58"/>
-      <c r="H17" s="59"/>
-      <c r="I17" s="44"/>
-      <c r="J17" s="45"/>
+      <c r="G17" s="48"/>
+      <c r="H17" s="49"/>
+      <c r="I17" s="54"/>
+      <c r="J17" s="55"/>
     </row>
     <row r="18" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="8"/>
@@ -1556,10 +1565,10 @@
       <c r="D18" s="8"/>
       <c r="E18" s="17"/>
       <c r="F18" s="8"/>
-      <c r="G18" s="60"/>
-      <c r="H18" s="61"/>
-      <c r="I18" s="64"/>
-      <c r="J18" s="65"/>
+      <c r="G18" s="50"/>
+      <c r="H18" s="51"/>
+      <c r="I18" s="56"/>
+      <c r="J18" s="57"/>
     </row>
     <row r="19" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="8"/>
@@ -1571,13 +1580,13 @@
       <c r="D19" s="8"/>
       <c r="E19" s="16"/>
       <c r="F19" s="8"/>
-      <c r="G19" s="66">
+      <c r="G19" s="58">
         <f>G7+4</f>
         <v>42880</v>
       </c>
-      <c r="H19" s="67"/>
-      <c r="I19" s="68"/>
-      <c r="J19" s="69"/>
+      <c r="H19" s="59"/>
+      <c r="I19" s="64"/>
+      <c r="J19" s="65"/>
     </row>
     <row r="20" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="8"/>
@@ -1589,10 +1598,10 @@
       <c r="D20" s="8"/>
       <c r="E20" s="17"/>
       <c r="F20" s="8"/>
-      <c r="G20" s="40"/>
-      <c r="H20" s="41"/>
-      <c r="I20" s="46"/>
-      <c r="J20" s="47"/>
+      <c r="G20" s="60"/>
+      <c r="H20" s="61"/>
+      <c r="I20" s="52"/>
+      <c r="J20" s="53"/>
     </row>
     <row r="21" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="8"/>
@@ -1604,10 +1613,10 @@
       <c r="D21" s="8"/>
       <c r="E21" s="16"/>
       <c r="F21" s="8"/>
-      <c r="G21" s="42"/>
-      <c r="H21" s="43"/>
-      <c r="I21" s="48"/>
-      <c r="J21" s="49"/>
+      <c r="G21" s="62"/>
+      <c r="H21" s="63"/>
+      <c r="I21" s="66"/>
+      <c r="J21" s="67"/>
     </row>
     <row r="22" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="8"/>
@@ -1619,13 +1628,13 @@
       <c r="D22" s="8"/>
       <c r="E22" s="17"/>
       <c r="F22" s="8"/>
-      <c r="G22" s="56">
+      <c r="G22" s="46">
         <f>G7+5</f>
         <v>42881</v>
       </c>
-      <c r="H22" s="57"/>
-      <c r="I22" s="46"/>
-      <c r="J22" s="47"/>
+      <c r="H22" s="47"/>
+      <c r="I22" s="52"/>
+      <c r="J22" s="53"/>
     </row>
     <row r="23" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="8"/>
@@ -1637,10 +1646,10 @@
       <c r="D23" s="8"/>
       <c r="E23" s="16"/>
       <c r="F23" s="8"/>
-      <c r="G23" s="58"/>
-      <c r="H23" s="59"/>
-      <c r="I23" s="44"/>
-      <c r="J23" s="45"/>
+      <c r="G23" s="48"/>
+      <c r="H23" s="49"/>
+      <c r="I23" s="54"/>
+      <c r="J23" s="55"/>
     </row>
     <row r="24" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="8"/>
@@ -1652,10 +1661,10 @@
       <c r="D24" s="8"/>
       <c r="E24" s="17"/>
       <c r="F24" s="8"/>
-      <c r="G24" s="60"/>
-      <c r="H24" s="61"/>
-      <c r="I24" s="64"/>
-      <c r="J24" s="65"/>
+      <c r="G24" s="50"/>
+      <c r="H24" s="51"/>
+      <c r="I24" s="56"/>
+      <c r="J24" s="57"/>
     </row>
     <row r="25" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="8"/>
@@ -1667,13 +1676,13 @@
       <c r="D25" s="8"/>
       <c r="E25" s="16"/>
       <c r="F25" s="8"/>
-      <c r="G25" s="66">
+      <c r="G25" s="58">
         <f>G7+6</f>
         <v>42882</v>
       </c>
-      <c r="H25" s="67"/>
-      <c r="I25" s="68"/>
-      <c r="J25" s="69"/>
+      <c r="H25" s="59"/>
+      <c r="I25" s="64"/>
+      <c r="J25" s="65"/>
     </row>
     <row r="26" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="8"/>
@@ -1685,10 +1694,10 @@
       <c r="D26" s="8"/>
       <c r="E26" s="17"/>
       <c r="F26" s="8"/>
-      <c r="G26" s="40"/>
-      <c r="H26" s="41"/>
-      <c r="I26" s="46"/>
-      <c r="J26" s="47"/>
+      <c r="G26" s="60"/>
+      <c r="H26" s="61"/>
+      <c r="I26" s="52"/>
+      <c r="J26" s="53"/>
     </row>
     <row r="27" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="8"/>
@@ -1700,10 +1709,10 @@
       <c r="D27" s="8"/>
       <c r="E27" s="16"/>
       <c r="F27" s="8"/>
-      <c r="G27" s="42"/>
-      <c r="H27" s="43"/>
-      <c r="I27" s="48"/>
-      <c r="J27" s="49"/>
+      <c r="G27" s="62"/>
+      <c r="H27" s="63"/>
+      <c r="I27" s="66"/>
+      <c r="J27" s="67"/>
     </row>
     <row r="28" spans="1:10" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A28" s="8"/>
@@ -1730,12 +1739,12 @@
       <c r="D29" s="8"/>
       <c r="E29" s="16"/>
       <c r="F29" s="8"/>
-      <c r="G29" s="70" t="s">
+      <c r="G29" s="37" t="s">
         <v>26</v>
       </c>
-      <c r="H29" s="71"/>
-      <c r="I29" s="71"/>
-      <c r="J29" s="72"/>
+      <c r="H29" s="38"/>
+      <c r="I29" s="38"/>
+      <c r="J29" s="39"/>
     </row>
     <row r="30" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30" s="8"/>
@@ -1747,10 +1756,10 @@
       <c r="D30" s="8"/>
       <c r="E30" s="17"/>
       <c r="F30" s="8"/>
-      <c r="G30" s="73"/>
-      <c r="H30" s="74"/>
-      <c r="I30" s="74"/>
-      <c r="J30" s="75"/>
+      <c r="G30" s="40"/>
+      <c r="H30" s="41"/>
+      <c r="I30" s="41"/>
+      <c r="J30" s="42"/>
     </row>
     <row r="31" spans="1:10" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A31" s="8"/>
@@ -1762,10 +1771,10 @@
       <c r="D31" s="8"/>
       <c r="E31" s="16"/>
       <c r="F31" s="8"/>
-      <c r="G31" s="76"/>
-      <c r="H31" s="77"/>
-      <c r="I31" s="77"/>
-      <c r="J31" s="78"/>
+      <c r="G31" s="43"/>
+      <c r="H31" s="44"/>
+      <c r="I31" s="44"/>
+      <c r="J31" s="45"/>
     </row>
     <row r="32" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A32" s="8"/>
@@ -1889,6 +1898,31 @@
     </row>
   </sheetData>
   <mergeCells count="34">
+    <mergeCell ref="B2:C3"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="G7:H9"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="I8:J8"/>
+    <mergeCell ref="I9:J9"/>
+    <mergeCell ref="G5:J5"/>
+    <mergeCell ref="G6:J6"/>
+    <mergeCell ref="G10:H12"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="G13:H15"/>
+    <mergeCell ref="I13:J13"/>
+    <mergeCell ref="I14:J14"/>
+    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="G16:H18"/>
+    <mergeCell ref="I16:J16"/>
+    <mergeCell ref="I17:J17"/>
+    <mergeCell ref="I18:J18"/>
+    <mergeCell ref="G19:H21"/>
+    <mergeCell ref="I19:J19"/>
+    <mergeCell ref="I20:J20"/>
+    <mergeCell ref="I21:J21"/>
     <mergeCell ref="G29:J31"/>
     <mergeCell ref="G22:H24"/>
     <mergeCell ref="I22:J22"/>
@@ -1898,31 +1932,6 @@
     <mergeCell ref="I25:J25"/>
     <mergeCell ref="I26:J26"/>
     <mergeCell ref="I27:J27"/>
-    <mergeCell ref="G16:H18"/>
-    <mergeCell ref="I16:J16"/>
-    <mergeCell ref="I17:J17"/>
-    <mergeCell ref="I18:J18"/>
-    <mergeCell ref="G19:H21"/>
-    <mergeCell ref="I19:J19"/>
-    <mergeCell ref="I20:J20"/>
-    <mergeCell ref="I21:J21"/>
-    <mergeCell ref="G10:H12"/>
-    <mergeCell ref="I10:J10"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="I12:J12"/>
-    <mergeCell ref="G13:H15"/>
-    <mergeCell ref="I13:J13"/>
-    <mergeCell ref="I14:J14"/>
-    <mergeCell ref="I15:J15"/>
-    <mergeCell ref="B2:C3"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="G7:H9"/>
-    <mergeCell ref="I7:J7"/>
-    <mergeCell ref="I8:J8"/>
-    <mergeCell ref="I9:J9"/>
-    <mergeCell ref="G5:J5"/>
-    <mergeCell ref="G6:J6"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="G29" r:id="rId1"/>
@@ -2004,10 +2013,10 @@
     </row>
     <row r="2" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.65">
       <c r="A2" s="8"/>
-      <c r="B2" s="37" t="s">
+      <c r="B2" s="70" t="s">
         <v>25</v>
       </c>
-      <c r="C2" s="37"/>
+      <c r="C2" s="70"/>
       <c r="D2" s="9"/>
       <c r="E2" s="12" t="s">
         <v>13</v>
@@ -2024,8 +2033,8 @@
     </row>
     <row r="3" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.65">
       <c r="A3" s="8"/>
-      <c r="B3" s="37"/>
-      <c r="C3" s="37"/>
+      <c r="B3" s="70"/>
+      <c r="C3" s="70"/>
       <c r="D3" s="9"/>
       <c r="E3" s="13">
         <f>'Daily Schedule SUN'!E3</f>
@@ -2058,38 +2067,38 @@
     </row>
     <row r="5" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="8"/>
-      <c r="B5" s="79" t="s">
+      <c r="B5" s="81" t="s">
         <v>0</v>
       </c>
       <c r="C5" s="31" t="s">
         <v>16</v>
       </c>
       <c r="D5" s="8"/>
-      <c r="E5" s="39" t="s">
+      <c r="E5" s="72" t="s">
         <v>14</v>
       </c>
       <c r="F5" s="8"/>
-      <c r="G5" s="80" t="s">
+      <c r="G5" s="79" t="s">
         <v>15</v>
       </c>
-      <c r="H5" s="81"/>
-      <c r="I5" s="80"/>
-      <c r="J5" s="80"/>
+      <c r="H5" s="80"/>
+      <c r="I5" s="79"/>
+      <c r="J5" s="79"/>
     </row>
     <row r="6" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="8"/>
-      <c r="B6" s="79"/>
+      <c r="B6" s="81"/>
       <c r="C6" s="32">
         <f>E3+1</f>
         <v>42877</v>
       </c>
       <c r="D6" s="8"/>
-      <c r="E6" s="39"/>
+      <c r="E6" s="72"/>
       <c r="F6" s="8"/>
-      <c r="G6" s="80"/>
-      <c r="H6" s="80"/>
-      <c r="I6" s="80"/>
-      <c r="J6" s="80"/>
+      <c r="G6" s="79"/>
+      <c r="H6" s="79"/>
+      <c r="I6" s="79"/>
+      <c r="J6" s="79"/>
     </row>
     <row r="7" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="8"/>
@@ -2101,16 +2110,16 @@
       <c r="D7" s="8"/>
       <c r="E7" s="16"/>
       <c r="F7" s="8"/>
-      <c r="G7" s="66">
+      <c r="G7" s="58">
         <f>E3</f>
         <v>42876</v>
       </c>
-      <c r="H7" s="67"/>
-      <c r="I7" s="68">
+      <c r="H7" s="59"/>
+      <c r="I7" s="64">
         <f>'Daily Schedule SUN'!I7:J7</f>
         <v>0</v>
       </c>
-      <c r="J7" s="69"/>
+      <c r="J7" s="65"/>
     </row>
     <row r="8" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="8"/>
@@ -2122,13 +2131,13 @@
       <c r="D8" s="8"/>
       <c r="E8" s="17"/>
       <c r="F8" s="8"/>
-      <c r="G8" s="40"/>
-      <c r="H8" s="41"/>
-      <c r="I8" s="46">
+      <c r="G8" s="60"/>
+      <c r="H8" s="61"/>
+      <c r="I8" s="52">
         <f>'Daily Schedule SUN'!I8:J8</f>
         <v>0</v>
       </c>
-      <c r="J8" s="47"/>
+      <c r="J8" s="53"/>
     </row>
     <row r="9" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="8"/>
@@ -2140,13 +2149,13 @@
       <c r="D9" s="8"/>
       <c r="E9" s="16"/>
       <c r="F9" s="8"/>
-      <c r="G9" s="42"/>
-      <c r="H9" s="43"/>
-      <c r="I9" s="48">
+      <c r="G9" s="62"/>
+      <c r="H9" s="63"/>
+      <c r="I9" s="66">
         <f>'Daily Schedule SUN'!I9:J9</f>
         <v>0</v>
       </c>
-      <c r="J9" s="49"/>
+      <c r="J9" s="67"/>
     </row>
     <row r="10" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="8"/>
@@ -2158,16 +2167,16 @@
       <c r="D10" s="8"/>
       <c r="E10" s="17"/>
       <c r="F10" s="8"/>
-      <c r="G10" s="56">
+      <c r="G10" s="46">
         <f>G7+1</f>
         <v>42877</v>
       </c>
-      <c r="H10" s="57"/>
-      <c r="I10" s="62">
+      <c r="H10" s="47"/>
+      <c r="I10" s="68">
         <f>'Daily Schedule SUN'!I10:J10</f>
         <v>0</v>
       </c>
-      <c r="J10" s="63"/>
+      <c r="J10" s="69"/>
     </row>
     <row r="11" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="8"/>
@@ -2179,13 +2188,13 @@
       <c r="D11" s="8"/>
       <c r="E11" s="16"/>
       <c r="F11" s="8"/>
-      <c r="G11" s="58"/>
-      <c r="H11" s="59"/>
-      <c r="I11" s="44">
+      <c r="G11" s="48"/>
+      <c r="H11" s="49"/>
+      <c r="I11" s="54">
         <f>'Daily Schedule SUN'!I11:J11</f>
         <v>0</v>
       </c>
-      <c r="J11" s="45"/>
+      <c r="J11" s="55"/>
     </row>
     <row r="12" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="8"/>
@@ -2197,13 +2206,13 @@
       <c r="D12" s="8"/>
       <c r="E12" s="17"/>
       <c r="F12" s="8"/>
-      <c r="G12" s="60"/>
-      <c r="H12" s="61"/>
-      <c r="I12" s="64">
+      <c r="G12" s="50"/>
+      <c r="H12" s="51"/>
+      <c r="I12" s="56">
         <f>'Daily Schedule SUN'!I12:J12</f>
         <v>0</v>
       </c>
-      <c r="J12" s="65"/>
+      <c r="J12" s="57"/>
     </row>
     <row r="13" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="8"/>
@@ -2215,16 +2224,16 @@
       <c r="D13" s="8"/>
       <c r="E13" s="16"/>
       <c r="F13" s="8"/>
-      <c r="G13" s="66">
+      <c r="G13" s="58">
         <f>G7+2</f>
         <v>42878</v>
       </c>
-      <c r="H13" s="67"/>
-      <c r="I13" s="68">
+      <c r="H13" s="59"/>
+      <c r="I13" s="64">
         <f>'Daily Schedule SUN'!I13:J13</f>
         <v>0</v>
       </c>
-      <c r="J13" s="69"/>
+      <c r="J13" s="65"/>
     </row>
     <row r="14" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="8"/>
@@ -2236,13 +2245,13 @@
       <c r="D14" s="8"/>
       <c r="E14" s="17"/>
       <c r="F14" s="8"/>
-      <c r="G14" s="40"/>
-      <c r="H14" s="41"/>
-      <c r="I14" s="46">
+      <c r="G14" s="60"/>
+      <c r="H14" s="61"/>
+      <c r="I14" s="52">
         <f>'Daily Schedule SUN'!I14:J14</f>
         <v>0</v>
       </c>
-      <c r="J14" s="47"/>
+      <c r="J14" s="53"/>
     </row>
     <row r="15" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="8"/>
@@ -2251,18 +2260,18 @@
         <v>0.4583333333333332</v>
       </c>
       <c r="C15" s="30" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="16"/>
       <c r="F15" s="8"/>
-      <c r="G15" s="42"/>
-      <c r="H15" s="43"/>
-      <c r="I15" s="48">
+      <c r="G15" s="62"/>
+      <c r="H15" s="63"/>
+      <c r="I15" s="66">
         <f>'Daily Schedule SUN'!I15:J15</f>
         <v>0</v>
       </c>
-      <c r="J15" s="49"/>
+      <c r="J15" s="67"/>
     </row>
     <row r="16" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="8"/>
@@ -2271,23 +2280,23 @@
         <v>0.47916666666666652</v>
       </c>
       <c r="C16" s="29" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="17" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="F16" s="8"/>
-      <c r="G16" s="56">
+      <c r="G16" s="46">
         <f>G7+3</f>
         <v>42879</v>
       </c>
-      <c r="H16" s="57"/>
-      <c r="I16" s="62">
+      <c r="H16" s="47"/>
+      <c r="I16" s="68">
         <f>'Daily Schedule SUN'!I16:J16</f>
         <v>0</v>
       </c>
-      <c r="J16" s="63"/>
+      <c r="J16" s="69"/>
     </row>
     <row r="17" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="8"/>
@@ -2296,18 +2305,18 @@
         <v>0.49999999999999983</v>
       </c>
       <c r="C17" s="30" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="36"/>
       <c r="F17" s="8"/>
-      <c r="G17" s="58"/>
-      <c r="H17" s="59"/>
-      <c r="I17" s="44">
+      <c r="G17" s="48"/>
+      <c r="H17" s="49"/>
+      <c r="I17" s="54">
         <f>'Daily Schedule SUN'!I17:J17</f>
         <v>0</v>
       </c>
-      <c r="J17" s="45"/>
+      <c r="J17" s="55"/>
     </row>
     <row r="18" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="8"/>
@@ -2316,18 +2325,18 @@
         <v>0.52083333333333315</v>
       </c>
       <c r="C18" s="29" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="17"/>
       <c r="F18" s="8"/>
-      <c r="G18" s="60"/>
-      <c r="H18" s="61"/>
-      <c r="I18" s="64">
+      <c r="G18" s="50"/>
+      <c r="H18" s="51"/>
+      <c r="I18" s="56">
         <f>'Daily Schedule SUN'!I18:J18</f>
         <v>0</v>
       </c>
-      <c r="J18" s="65"/>
+      <c r="J18" s="57"/>
     </row>
     <row r="19" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="8"/>
@@ -2341,16 +2350,16 @@
       <c r="D19" s="8"/>
       <c r="E19" s="36"/>
       <c r="F19" s="8"/>
-      <c r="G19" s="66">
+      <c r="G19" s="58">
         <f>G7+4</f>
         <v>42880</v>
       </c>
-      <c r="H19" s="67"/>
-      <c r="I19" s="68">
+      <c r="H19" s="59"/>
+      <c r="I19" s="64">
         <f>'Daily Schedule SUN'!I19:J19</f>
         <v>0</v>
       </c>
-      <c r="J19" s="69"/>
+      <c r="J19" s="65"/>
     </row>
     <row r="20" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="8"/>
@@ -2359,18 +2368,18 @@
         <v>0.56249999999999989</v>
       </c>
       <c r="C20" s="29" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="17"/>
       <c r="F20" s="8"/>
-      <c r="G20" s="40"/>
-      <c r="H20" s="41"/>
-      <c r="I20" s="46">
+      <c r="G20" s="60"/>
+      <c r="H20" s="61"/>
+      <c r="I20" s="52">
         <f>'Daily Schedule SUN'!I20:J20</f>
         <v>0</v>
       </c>
-      <c r="J20" s="47"/>
+      <c r="J20" s="53"/>
     </row>
     <row r="21" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="8"/>
@@ -2379,20 +2388,20 @@
         <v>0.58333333333333326</v>
       </c>
       <c r="C21" s="30" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="16" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="F21" s="8"/>
-      <c r="G21" s="42"/>
-      <c r="H21" s="43"/>
-      <c r="I21" s="48">
+      <c r="G21" s="62"/>
+      <c r="H21" s="63"/>
+      <c r="I21" s="66">
         <f>'Daily Schedule SUN'!I21:J21</f>
         <v>0</v>
       </c>
-      <c r="J21" s="49"/>
+      <c r="J21" s="67"/>
     </row>
     <row r="22" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="8"/>
@@ -2401,21 +2410,21 @@
         <v>0.60416666666666663</v>
       </c>
       <c r="C22" s="29" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="17"/>
       <c r="F22" s="8"/>
-      <c r="G22" s="56">
+      <c r="G22" s="46">
         <f>G7+5</f>
         <v>42881</v>
       </c>
-      <c r="H22" s="57"/>
-      <c r="I22" s="62">
+      <c r="H22" s="47"/>
+      <c r="I22" s="68">
         <f>'Daily Schedule SUN'!I22:J22</f>
         <v>0</v>
       </c>
-      <c r="J22" s="63"/>
+      <c r="J22" s="69"/>
     </row>
     <row r="23" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="8"/>
@@ -2424,18 +2433,18 @@
         <v>0.625</v>
       </c>
       <c r="C23" s="30" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="16"/>
       <c r="F23" s="8"/>
-      <c r="G23" s="58"/>
-      <c r="H23" s="59"/>
-      <c r="I23" s="44">
+      <c r="G23" s="48"/>
+      <c r="H23" s="49"/>
+      <c r="I23" s="54">
         <f>'Daily Schedule SUN'!I23:J23</f>
         <v>0</v>
       </c>
-      <c r="J23" s="45"/>
+      <c r="J23" s="55"/>
     </row>
     <row r="24" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="8"/>
@@ -2444,18 +2453,18 @@
         <v>0.64583333333333337</v>
       </c>
       <c r="C24" s="29" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="17"/>
       <c r="F24" s="8"/>
-      <c r="G24" s="60"/>
-      <c r="H24" s="61"/>
-      <c r="I24" s="64">
+      <c r="G24" s="50"/>
+      <c r="H24" s="51"/>
+      <c r="I24" s="56">
         <f>'Daily Schedule SUN'!I24:J24</f>
         <v>0</v>
       </c>
-      <c r="J24" s="65"/>
+      <c r="J24" s="57"/>
     </row>
     <row r="25" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="8"/>
@@ -2464,23 +2473,23 @@
         <v>0.66666666666666674</v>
       </c>
       <c r="C25" s="30" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="16" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="F25" s="8"/>
-      <c r="G25" s="66">
+      <c r="G25" s="58">
         <f>G7+6</f>
         <v>42882</v>
       </c>
-      <c r="H25" s="67"/>
-      <c r="I25" s="68">
+      <c r="H25" s="59"/>
+      <c r="I25" s="64">
         <f>'Daily Schedule SUN'!I25:J25</f>
         <v>0</v>
       </c>
-      <c r="J25" s="69"/>
+      <c r="J25" s="65"/>
     </row>
     <row r="26" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="8"/>
@@ -2491,16 +2500,16 @@
       <c r="C26" s="29"/>
       <c r="D26" s="8"/>
       <c r="E26" s="17" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="F26" s="8"/>
-      <c r="G26" s="40"/>
-      <c r="H26" s="41"/>
-      <c r="I26" s="46">
+      <c r="G26" s="60"/>
+      <c r="H26" s="61"/>
+      <c r="I26" s="52">
         <f>'Daily Schedule SUN'!I26:J26</f>
         <v>0</v>
       </c>
-      <c r="J26" s="47"/>
+      <c r="J26" s="53"/>
     </row>
     <row r="27" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="8"/>
@@ -2512,13 +2521,13 @@
       <c r="D27" s="8"/>
       <c r="E27" s="36"/>
       <c r="F27" s="8"/>
-      <c r="G27" s="42"/>
-      <c r="H27" s="43"/>
-      <c r="I27" s="48">
+      <c r="G27" s="62"/>
+      <c r="H27" s="63"/>
+      <c r="I27" s="66">
         <f>'Daily Schedule SUN'!I27:J27</f>
         <v>0</v>
       </c>
-      <c r="J27" s="49"/>
+      <c r="J27" s="67"/>
     </row>
     <row r="28" spans="1:10" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A28" s="8"/>
@@ -2545,12 +2554,12 @@
       <c r="D29" s="8"/>
       <c r="E29" s="16"/>
       <c r="F29" s="8"/>
-      <c r="G29" s="70" t="s">
+      <c r="G29" s="37" t="s">
         <v>26</v>
       </c>
-      <c r="H29" s="71"/>
-      <c r="I29" s="71"/>
-      <c r="J29" s="72"/>
+      <c r="H29" s="38"/>
+      <c r="I29" s="38"/>
+      <c r="J29" s="39"/>
     </row>
     <row r="30" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30" s="8"/>
@@ -2562,10 +2571,10 @@
       <c r="D30" s="8"/>
       <c r="E30" s="17"/>
       <c r="F30" s="8"/>
-      <c r="G30" s="73"/>
-      <c r="H30" s="74"/>
-      <c r="I30" s="74"/>
-      <c r="J30" s="75"/>
+      <c r="G30" s="40"/>
+      <c r="H30" s="41"/>
+      <c r="I30" s="41"/>
+      <c r="J30" s="42"/>
     </row>
     <row r="31" spans="1:10" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A31" s="8"/>
@@ -2577,10 +2586,10 @@
       <c r="D31" s="8"/>
       <c r="E31" s="36"/>
       <c r="F31" s="8"/>
-      <c r="G31" s="76"/>
-      <c r="H31" s="77"/>
-      <c r="I31" s="77"/>
-      <c r="J31" s="78"/>
+      <c r="G31" s="43"/>
+      <c r="H31" s="44"/>
+      <c r="I31" s="44"/>
+      <c r="J31" s="45"/>
     </row>
     <row r="32" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A32" s="8"/>
@@ -2704,6 +2713,23 @@
     </row>
   </sheetData>
   <mergeCells count="33">
+    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="I13:J13"/>
+    <mergeCell ref="I14:J14"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="I8:J8"/>
+    <mergeCell ref="I9:J9"/>
+    <mergeCell ref="I25:J25"/>
+    <mergeCell ref="I16:J16"/>
+    <mergeCell ref="I17:J17"/>
+    <mergeCell ref="I18:J18"/>
+    <mergeCell ref="I19:J19"/>
+    <mergeCell ref="I20:J20"/>
     <mergeCell ref="G29:J31"/>
     <mergeCell ref="I26:J26"/>
     <mergeCell ref="I27:J27"/>
@@ -2720,23 +2746,6 @@
     <mergeCell ref="I22:J22"/>
     <mergeCell ref="I23:J23"/>
     <mergeCell ref="I24:J24"/>
-    <mergeCell ref="I25:J25"/>
-    <mergeCell ref="I16:J16"/>
-    <mergeCell ref="I17:J17"/>
-    <mergeCell ref="I18:J18"/>
-    <mergeCell ref="I19:J19"/>
-    <mergeCell ref="I20:J20"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="I7:J7"/>
-    <mergeCell ref="I8:J8"/>
-    <mergeCell ref="I9:J9"/>
-    <mergeCell ref="I15:J15"/>
-    <mergeCell ref="I10:J10"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="I12:J12"/>
-    <mergeCell ref="I13:J13"/>
-    <mergeCell ref="I14:J14"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="G29" r:id="rId1"/>
@@ -2785,8 +2794,8 @@
   </sheetPr>
   <dimension ref="A1:J39"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A13" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="80" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView showGridLines="0" topLeftCell="A13" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="80" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.69140625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -2818,10 +2827,10 @@
     </row>
     <row r="2" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.65">
       <c r="A2" s="8"/>
-      <c r="B2" s="37" t="s">
+      <c r="B2" s="70" t="s">
         <v>25</v>
       </c>
-      <c r="C2" s="37"/>
+      <c r="C2" s="70"/>
       <c r="D2" s="9"/>
       <c r="E2" s="12" t="s">
         <v>13</v>
@@ -2838,8 +2847,8 @@
     </row>
     <row r="3" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.65">
       <c r="A3" s="8"/>
-      <c r="B3" s="37"/>
-      <c r="C3" s="37"/>
+      <c r="B3" s="70"/>
+      <c r="C3" s="70"/>
       <c r="D3" s="9"/>
       <c r="E3" s="13">
         <f>'Daily Schedule SUN'!E3</f>
@@ -2872,38 +2881,38 @@
     </row>
     <row r="5" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="8"/>
-      <c r="B5" s="38" t="s">
+      <c r="B5" s="71" t="s">
         <v>0</v>
       </c>
       <c r="C5" s="23" t="s">
         <v>18</v>
       </c>
       <c r="D5" s="8"/>
-      <c r="E5" s="39" t="s">
+      <c r="E5" s="72" t="s">
         <v>14</v>
       </c>
       <c r="F5" s="8"/>
-      <c r="G5" s="80" t="s">
+      <c r="G5" s="79" t="s">
         <v>15</v>
       </c>
-      <c r="H5" s="81"/>
-      <c r="I5" s="80"/>
-      <c r="J5" s="80"/>
+      <c r="H5" s="80"/>
+      <c r="I5" s="79"/>
+      <c r="J5" s="79"/>
     </row>
     <row r="6" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="8"/>
-      <c r="B6" s="38"/>
+      <c r="B6" s="71"/>
       <c r="C6" s="24">
         <f>E3+2</f>
         <v>42878</v>
       </c>
       <c r="D6" s="8"/>
-      <c r="E6" s="39"/>
+      <c r="E6" s="72"/>
       <c r="F6" s="8"/>
-      <c r="G6" s="80"/>
-      <c r="H6" s="80"/>
-      <c r="I6" s="80"/>
-      <c r="J6" s="80"/>
+      <c r="G6" s="79"/>
+      <c r="H6" s="79"/>
+      <c r="I6" s="79"/>
+      <c r="J6" s="79"/>
     </row>
     <row r="7" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="8"/>
@@ -2915,16 +2924,16 @@
       <c r="D7" s="8"/>
       <c r="E7" s="16"/>
       <c r="F7" s="8"/>
-      <c r="G7" s="66">
+      <c r="G7" s="58">
         <f>E3</f>
         <v>42876</v>
       </c>
-      <c r="H7" s="67"/>
-      <c r="I7" s="68">
+      <c r="H7" s="59"/>
+      <c r="I7" s="64">
         <f>'Daily Schedule SUN'!I7:J7</f>
         <v>0</v>
       </c>
-      <c r="J7" s="69"/>
+      <c r="J7" s="65"/>
     </row>
     <row r="8" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="8"/>
@@ -2936,13 +2945,13 @@
       <c r="D8" s="8"/>
       <c r="E8" s="17"/>
       <c r="F8" s="8"/>
-      <c r="G8" s="40"/>
-      <c r="H8" s="41"/>
-      <c r="I8" s="46">
+      <c r="G8" s="60"/>
+      <c r="H8" s="61"/>
+      <c r="I8" s="52">
         <f>'Daily Schedule SUN'!I8:J8</f>
         <v>0</v>
       </c>
-      <c r="J8" s="47"/>
+      <c r="J8" s="53"/>
     </row>
     <row r="9" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="8"/>
@@ -2954,13 +2963,13 @@
       <c r="D9" s="8"/>
       <c r="E9" s="16"/>
       <c r="F9" s="8"/>
-      <c r="G9" s="42"/>
-      <c r="H9" s="43"/>
-      <c r="I9" s="48">
+      <c r="G9" s="62"/>
+      <c r="H9" s="63"/>
+      <c r="I9" s="66">
         <f>'Daily Schedule SUN'!I9:J9</f>
         <v>0</v>
       </c>
-      <c r="J9" s="49"/>
+      <c r="J9" s="67"/>
     </row>
     <row r="10" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="8"/>
@@ -2972,16 +2981,16 @@
       <c r="D10" s="8"/>
       <c r="E10" s="17"/>
       <c r="F10" s="8"/>
-      <c r="G10" s="56">
+      <c r="G10" s="46">
         <f>G7+1</f>
         <v>42877</v>
       </c>
-      <c r="H10" s="57"/>
-      <c r="I10" s="62">
+      <c r="H10" s="47"/>
+      <c r="I10" s="68">
         <f>'Daily Schedule SUN'!I10:J10</f>
         <v>0</v>
       </c>
-      <c r="J10" s="63"/>
+      <c r="J10" s="69"/>
     </row>
     <row r="11" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="8"/>
@@ -2993,13 +3002,13 @@
       <c r="D11" s="8"/>
       <c r="E11" s="16"/>
       <c r="F11" s="8"/>
-      <c r="G11" s="58"/>
-      <c r="H11" s="59"/>
-      <c r="I11" s="44">
+      <c r="G11" s="48"/>
+      <c r="H11" s="49"/>
+      <c r="I11" s="54">
         <f>'Daily Schedule SUN'!I11:J11</f>
         <v>0</v>
       </c>
-      <c r="J11" s="45"/>
+      <c r="J11" s="55"/>
     </row>
     <row r="12" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="8"/>
@@ -3011,13 +3020,13 @@
       <c r="D12" s="8"/>
       <c r="E12" s="17"/>
       <c r="F12" s="8"/>
-      <c r="G12" s="60"/>
-      <c r="H12" s="61"/>
-      <c r="I12" s="64">
+      <c r="G12" s="50"/>
+      <c r="H12" s="51"/>
+      <c r="I12" s="56">
         <f>'Daily Schedule SUN'!I12:J12</f>
         <v>0</v>
       </c>
-      <c r="J12" s="65"/>
+      <c r="J12" s="57"/>
     </row>
     <row r="13" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="8"/>
@@ -3029,16 +3038,16 @@
       <c r="D13" s="8"/>
       <c r="E13" s="16"/>
       <c r="F13" s="8"/>
-      <c r="G13" s="66">
+      <c r="G13" s="58">
         <f>G7+2</f>
         <v>42878</v>
       </c>
-      <c r="H13" s="67"/>
-      <c r="I13" s="68">
+      <c r="H13" s="59"/>
+      <c r="I13" s="64">
         <f>'Daily Schedule SUN'!I13:J13</f>
         <v>0</v>
       </c>
-      <c r="J13" s="69"/>
+      <c r="J13" s="65"/>
     </row>
     <row r="14" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="8"/>
@@ -3050,13 +3059,13 @@
       <c r="D14" s="8"/>
       <c r="E14" s="17"/>
       <c r="F14" s="8"/>
-      <c r="G14" s="40"/>
-      <c r="H14" s="41"/>
-      <c r="I14" s="46">
+      <c r="G14" s="60"/>
+      <c r="H14" s="61"/>
+      <c r="I14" s="52">
         <f>'Daily Schedule SUN'!I14:J14</f>
         <v>0</v>
       </c>
-      <c r="J14" s="47"/>
+      <c r="J14" s="53"/>
     </row>
     <row r="15" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="8"/>
@@ -3065,18 +3074,20 @@
         <v>0.4583333333333332</v>
       </c>
       <c r="C15" s="30" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="D15" s="8"/>
-      <c r="E15" s="16"/>
+      <c r="E15" s="16" t="s">
+        <v>31</v>
+      </c>
       <c r="F15" s="8"/>
-      <c r="G15" s="42"/>
-      <c r="H15" s="43"/>
-      <c r="I15" s="48">
+      <c r="G15" s="62"/>
+      <c r="H15" s="63"/>
+      <c r="I15" s="66">
         <f>'Daily Schedule SUN'!I15:J15</f>
         <v>0</v>
       </c>
-      <c r="J15" s="49"/>
+      <c r="J15" s="67"/>
     </row>
     <row r="16" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="8"/>
@@ -3088,16 +3099,16 @@
       <c r="D16" s="8"/>
       <c r="E16" s="17"/>
       <c r="F16" s="8"/>
-      <c r="G16" s="56">
+      <c r="G16" s="46">
         <f>G7+3</f>
         <v>42879</v>
       </c>
-      <c r="H16" s="57"/>
-      <c r="I16" s="62">
+      <c r="H16" s="47"/>
+      <c r="I16" s="68">
         <f>'Daily Schedule SUN'!I16:J16</f>
         <v>0</v>
       </c>
-      <c r="J16" s="63"/>
+      <c r="J16" s="69"/>
     </row>
     <row r="17" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="8"/>
@@ -3109,13 +3120,13 @@
       <c r="D17" s="8"/>
       <c r="E17" s="16"/>
       <c r="F17" s="8"/>
-      <c r="G17" s="58"/>
-      <c r="H17" s="59"/>
-      <c r="I17" s="44">
+      <c r="G17" s="48"/>
+      <c r="H17" s="49"/>
+      <c r="I17" s="54">
         <f>'Daily Schedule SUN'!I17:J17</f>
         <v>0</v>
       </c>
-      <c r="J17" s="45"/>
+      <c r="J17" s="55"/>
     </row>
     <row r="18" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="8"/>
@@ -3127,13 +3138,13 @@
       <c r="D18" s="8"/>
       <c r="E18" s="17"/>
       <c r="F18" s="8"/>
-      <c r="G18" s="60"/>
-      <c r="H18" s="61"/>
-      <c r="I18" s="64">
+      <c r="G18" s="50"/>
+      <c r="H18" s="51"/>
+      <c r="I18" s="56">
         <f>'Daily Schedule SUN'!I18:J18</f>
         <v>0</v>
       </c>
-      <c r="J18" s="65"/>
+      <c r="J18" s="57"/>
     </row>
     <row r="19" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="8"/>
@@ -3145,16 +3156,16 @@
       <c r="D19" s="8"/>
       <c r="E19" s="16"/>
       <c r="F19" s="8"/>
-      <c r="G19" s="66">
+      <c r="G19" s="58">
         <f>G7+4</f>
         <v>42880</v>
       </c>
-      <c r="H19" s="67"/>
-      <c r="I19" s="68">
+      <c r="H19" s="59"/>
+      <c r="I19" s="64">
         <f>'Daily Schedule SUN'!I19:J19</f>
         <v>0</v>
       </c>
-      <c r="J19" s="69"/>
+      <c r="J19" s="65"/>
     </row>
     <row r="20" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="8"/>
@@ -3166,13 +3177,13 @@
       <c r="D20" s="8"/>
       <c r="E20" s="17"/>
       <c r="F20" s="8"/>
-      <c r="G20" s="40"/>
-      <c r="H20" s="41"/>
-      <c r="I20" s="46">
+      <c r="G20" s="60"/>
+      <c r="H20" s="61"/>
+      <c r="I20" s="52">
         <f>'Daily Schedule SUN'!I20:J20</f>
         <v>0</v>
       </c>
-      <c r="J20" s="47"/>
+      <c r="J20" s="53"/>
     </row>
     <row r="21" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="8"/>
@@ -3184,13 +3195,13 @@
       <c r="D21" s="8"/>
       <c r="E21" s="16"/>
       <c r="F21" s="8"/>
-      <c r="G21" s="42"/>
-      <c r="H21" s="43"/>
-      <c r="I21" s="48">
+      <c r="G21" s="62"/>
+      <c r="H21" s="63"/>
+      <c r="I21" s="66">
         <f>'Daily Schedule SUN'!I21:J21</f>
         <v>0</v>
       </c>
-      <c r="J21" s="49"/>
+      <c r="J21" s="67"/>
     </row>
     <row r="22" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="8"/>
@@ -3202,16 +3213,16 @@
       <c r="D22" s="8"/>
       <c r="E22" s="17"/>
       <c r="F22" s="8"/>
-      <c r="G22" s="56">
+      <c r="G22" s="46">
         <f>G7+5</f>
         <v>42881</v>
       </c>
-      <c r="H22" s="57"/>
-      <c r="I22" s="62">
+      <c r="H22" s="47"/>
+      <c r="I22" s="68">
         <f>'Daily Schedule SUN'!I22:J22</f>
         <v>0</v>
       </c>
-      <c r="J22" s="63"/>
+      <c r="J22" s="69"/>
     </row>
     <row r="23" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="8"/>
@@ -3223,13 +3234,13 @@
       <c r="D23" s="8"/>
       <c r="E23" s="16"/>
       <c r="F23" s="8"/>
-      <c r="G23" s="58"/>
-      <c r="H23" s="59"/>
-      <c r="I23" s="44">
+      <c r="G23" s="48"/>
+      <c r="H23" s="49"/>
+      <c r="I23" s="54">
         <f>'Daily Schedule SUN'!I23:J23</f>
         <v>0</v>
       </c>
-      <c r="J23" s="45"/>
+      <c r="J23" s="55"/>
     </row>
     <row r="24" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="8"/>
@@ -3241,13 +3252,13 @@
       <c r="D24" s="8"/>
       <c r="E24" s="17"/>
       <c r="F24" s="8"/>
-      <c r="G24" s="60"/>
-      <c r="H24" s="61"/>
-      <c r="I24" s="64">
+      <c r="G24" s="50"/>
+      <c r="H24" s="51"/>
+      <c r="I24" s="56">
         <f>'Daily Schedule SUN'!I24:J24</f>
         <v>0</v>
       </c>
-      <c r="J24" s="65"/>
+      <c r="J24" s="57"/>
     </row>
     <row r="25" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="8"/>
@@ -3259,16 +3270,16 @@
       <c r="D25" s="8"/>
       <c r="E25" s="16"/>
       <c r="F25" s="8"/>
-      <c r="G25" s="66">
+      <c r="G25" s="58">
         <f>G7+6</f>
         <v>42882</v>
       </c>
-      <c r="H25" s="67"/>
-      <c r="I25" s="68">
+      <c r="H25" s="59"/>
+      <c r="I25" s="64">
         <f>'Daily Schedule SUN'!I25:J25</f>
         <v>0</v>
       </c>
-      <c r="J25" s="69"/>
+      <c r="J25" s="65"/>
     </row>
     <row r="26" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="8"/>
@@ -3280,13 +3291,13 @@
       <c r="D26" s="8"/>
       <c r="E26" s="17"/>
       <c r="F26" s="8"/>
-      <c r="G26" s="40"/>
-      <c r="H26" s="41"/>
-      <c r="I26" s="46">
+      <c r="G26" s="60"/>
+      <c r="H26" s="61"/>
+      <c r="I26" s="52">
         <f>'Daily Schedule SUN'!I26:J26</f>
         <v>0</v>
       </c>
-      <c r="J26" s="47"/>
+      <c r="J26" s="53"/>
     </row>
     <row r="27" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="8"/>
@@ -3298,13 +3309,13 @@
       <c r="D27" s="8"/>
       <c r="E27" s="16"/>
       <c r="F27" s="8"/>
-      <c r="G27" s="42"/>
-      <c r="H27" s="43"/>
-      <c r="I27" s="48">
+      <c r="G27" s="62"/>
+      <c r="H27" s="63"/>
+      <c r="I27" s="66">
         <f>'Daily Schedule SUN'!I27:J27</f>
         <v>0</v>
       </c>
-      <c r="J27" s="49"/>
+      <c r="J27" s="67"/>
     </row>
     <row r="28" spans="1:10" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A28" s="8"/>
@@ -3331,12 +3342,12 @@
       <c r="D29" s="8"/>
       <c r="E29" s="16"/>
       <c r="F29" s="8"/>
-      <c r="G29" s="70" t="s">
+      <c r="G29" s="37" t="s">
         <v>26</v>
       </c>
-      <c r="H29" s="71"/>
-      <c r="I29" s="71"/>
-      <c r="J29" s="72"/>
+      <c r="H29" s="38"/>
+      <c r="I29" s="38"/>
+      <c r="J29" s="39"/>
     </row>
     <row r="30" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30" s="8"/>
@@ -3348,10 +3359,10 @@
       <c r="D30" s="8"/>
       <c r="E30" s="17"/>
       <c r="F30" s="8"/>
-      <c r="G30" s="73"/>
-      <c r="H30" s="74"/>
-      <c r="I30" s="74"/>
-      <c r="J30" s="75"/>
+      <c r="G30" s="40"/>
+      <c r="H30" s="41"/>
+      <c r="I30" s="41"/>
+      <c r="J30" s="42"/>
     </row>
     <row r="31" spans="1:10" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A31" s="8"/>
@@ -3363,10 +3374,10 @@
       <c r="D31" s="8"/>
       <c r="E31" s="16"/>
       <c r="F31" s="8"/>
-      <c r="G31" s="76"/>
-      <c r="H31" s="77"/>
-      <c r="I31" s="77"/>
-      <c r="J31" s="78"/>
+      <c r="G31" s="43"/>
+      <c r="H31" s="44"/>
+      <c r="I31" s="44"/>
+      <c r="J31" s="45"/>
     </row>
     <row r="32" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A32" s="8"/>
@@ -3490,6 +3501,30 @@
     </row>
   </sheetData>
   <mergeCells count="33">
+    <mergeCell ref="B2:C3"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="G5:J6"/>
+    <mergeCell ref="G7:H9"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="I8:J8"/>
+    <mergeCell ref="I9:J9"/>
+    <mergeCell ref="G10:H12"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="G13:H15"/>
+    <mergeCell ref="I13:J13"/>
+    <mergeCell ref="I14:J14"/>
+    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="G16:H18"/>
+    <mergeCell ref="I16:J16"/>
+    <mergeCell ref="I17:J17"/>
+    <mergeCell ref="I18:J18"/>
+    <mergeCell ref="G19:H21"/>
+    <mergeCell ref="I19:J19"/>
+    <mergeCell ref="I20:J20"/>
+    <mergeCell ref="I21:J21"/>
     <mergeCell ref="G29:J31"/>
     <mergeCell ref="G22:H24"/>
     <mergeCell ref="I22:J22"/>
@@ -3499,30 +3534,6 @@
     <mergeCell ref="I25:J25"/>
     <mergeCell ref="I26:J26"/>
     <mergeCell ref="I27:J27"/>
-    <mergeCell ref="G16:H18"/>
-    <mergeCell ref="I16:J16"/>
-    <mergeCell ref="I17:J17"/>
-    <mergeCell ref="I18:J18"/>
-    <mergeCell ref="G19:H21"/>
-    <mergeCell ref="I19:J19"/>
-    <mergeCell ref="I20:J20"/>
-    <mergeCell ref="I21:J21"/>
-    <mergeCell ref="G10:H12"/>
-    <mergeCell ref="I10:J10"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="I12:J12"/>
-    <mergeCell ref="G13:H15"/>
-    <mergeCell ref="I13:J13"/>
-    <mergeCell ref="I14:J14"/>
-    <mergeCell ref="I15:J15"/>
-    <mergeCell ref="B2:C3"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="G5:J6"/>
-    <mergeCell ref="G7:H9"/>
-    <mergeCell ref="I7:J7"/>
-    <mergeCell ref="I8:J8"/>
-    <mergeCell ref="I9:J9"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="G29" r:id="rId1"/>
@@ -3571,8 +3582,8 @@
   </sheetPr>
   <dimension ref="A1:J39"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="80" workbookViewId="0">
-      <selection activeCell="C31" sqref="C31"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A16" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="80" workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.69140625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -3604,10 +3615,10 @@
     </row>
     <row r="2" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.65">
       <c r="A2" s="8"/>
-      <c r="B2" s="37" t="s">
+      <c r="B2" s="70" t="s">
         <v>25</v>
       </c>
-      <c r="C2" s="37"/>
+      <c r="C2" s="70"/>
       <c r="D2" s="9"/>
       <c r="E2" s="12" t="s">
         <v>13</v>
@@ -3624,8 +3635,8 @@
     </row>
     <row r="3" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.65">
       <c r="A3" s="8"/>
-      <c r="B3" s="37"/>
-      <c r="C3" s="37"/>
+      <c r="B3" s="70"/>
+      <c r="C3" s="70"/>
       <c r="D3" s="9"/>
       <c r="E3" s="13">
         <f>'Daily Schedule SUN'!E3</f>
@@ -3658,38 +3669,38 @@
     </row>
     <row r="5" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="8"/>
-      <c r="B5" s="38" t="s">
+      <c r="B5" s="71" t="s">
         <v>0</v>
       </c>
       <c r="C5" s="23" t="s">
         <v>19</v>
       </c>
       <c r="D5" s="8"/>
-      <c r="E5" s="39" t="s">
+      <c r="E5" s="72" t="s">
         <v>14</v>
       </c>
       <c r="F5" s="8"/>
-      <c r="G5" s="80" t="s">
+      <c r="G5" s="79" t="s">
         <v>15</v>
       </c>
-      <c r="H5" s="81"/>
-      <c r="I5" s="80"/>
-      <c r="J5" s="80"/>
+      <c r="H5" s="80"/>
+      <c r="I5" s="79"/>
+      <c r="J5" s="79"/>
     </row>
     <row r="6" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="8"/>
-      <c r="B6" s="38"/>
+      <c r="B6" s="71"/>
       <c r="C6" s="24">
         <f>E3+3</f>
         <v>42879</v>
       </c>
       <c r="D6" s="8"/>
-      <c r="E6" s="39"/>
+      <c r="E6" s="72"/>
       <c r="F6" s="8"/>
-      <c r="G6" s="80"/>
-      <c r="H6" s="80"/>
-      <c r="I6" s="80"/>
-      <c r="J6" s="80"/>
+      <c r="G6" s="79"/>
+      <c r="H6" s="79"/>
+      <c r="I6" s="79"/>
+      <c r="J6" s="79"/>
     </row>
     <row r="7" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="8"/>
@@ -3701,16 +3712,16 @@
       <c r="D7" s="8"/>
       <c r="E7" s="16"/>
       <c r="F7" s="8"/>
-      <c r="G7" s="66">
+      <c r="G7" s="58">
         <f>E3</f>
         <v>42876</v>
       </c>
-      <c r="H7" s="67"/>
-      <c r="I7" s="68">
+      <c r="H7" s="59"/>
+      <c r="I7" s="64">
         <f>'Daily Schedule SUN'!I7:J7</f>
         <v>0</v>
       </c>
-      <c r="J7" s="69"/>
+      <c r="J7" s="65"/>
     </row>
     <row r="8" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="8"/>
@@ -3722,13 +3733,13 @@
       <c r="D8" s="8"/>
       <c r="E8" s="17"/>
       <c r="F8" s="8"/>
-      <c r="G8" s="40"/>
-      <c r="H8" s="41"/>
-      <c r="I8" s="46">
+      <c r="G8" s="60"/>
+      <c r="H8" s="61"/>
+      <c r="I8" s="52">
         <f>'Daily Schedule SUN'!I8:J8</f>
         <v>0</v>
       </c>
-      <c r="J8" s="47"/>
+      <c r="J8" s="53"/>
     </row>
     <row r="9" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="8"/>
@@ -3740,13 +3751,13 @@
       <c r="D9" s="8"/>
       <c r="E9" s="16"/>
       <c r="F9" s="8"/>
-      <c r="G9" s="42"/>
-      <c r="H9" s="43"/>
-      <c r="I9" s="48">
+      <c r="G9" s="62"/>
+      <c r="H9" s="63"/>
+      <c r="I9" s="66">
         <f>'Daily Schedule SUN'!I9:J9</f>
         <v>0</v>
       </c>
-      <c r="J9" s="49"/>
+      <c r="J9" s="67"/>
     </row>
     <row r="10" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="8"/>
@@ -3758,16 +3769,16 @@
       <c r="D10" s="8"/>
       <c r="E10" s="17"/>
       <c r="F10" s="8"/>
-      <c r="G10" s="56">
+      <c r="G10" s="46">
         <f>G7+1</f>
         <v>42877</v>
       </c>
-      <c r="H10" s="57"/>
-      <c r="I10" s="62">
+      <c r="H10" s="47"/>
+      <c r="I10" s="68">
         <f>'Daily Schedule SUN'!I10:J10</f>
         <v>0</v>
       </c>
-      <c r="J10" s="63"/>
+      <c r="J10" s="69"/>
     </row>
     <row r="11" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="8"/>
@@ -3779,13 +3790,13 @@
       <c r="D11" s="8"/>
       <c r="E11" s="16"/>
       <c r="F11" s="8"/>
-      <c r="G11" s="58"/>
-      <c r="H11" s="59"/>
-      <c r="I11" s="44">
+      <c r="G11" s="48"/>
+      <c r="H11" s="49"/>
+      <c r="I11" s="54">
         <f>'Daily Schedule SUN'!I11:J11</f>
         <v>0</v>
       </c>
-      <c r="J11" s="45"/>
+      <c r="J11" s="55"/>
     </row>
     <row r="12" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="8"/>
@@ -3797,13 +3808,13 @@
       <c r="D12" s="8"/>
       <c r="E12" s="17"/>
       <c r="F12" s="8"/>
-      <c r="G12" s="60"/>
-      <c r="H12" s="61"/>
-      <c r="I12" s="64">
+      <c r="G12" s="50"/>
+      <c r="H12" s="51"/>
+      <c r="I12" s="56">
         <f>'Daily Schedule SUN'!I12:J12</f>
         <v>0</v>
       </c>
-      <c r="J12" s="65"/>
+      <c r="J12" s="57"/>
     </row>
     <row r="13" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="8"/>
@@ -3815,16 +3826,16 @@
       <c r="D13" s="8"/>
       <c r="E13" s="16"/>
       <c r="F13" s="8"/>
-      <c r="G13" s="66">
+      <c r="G13" s="58">
         <f>G7+2</f>
         <v>42878</v>
       </c>
-      <c r="H13" s="67"/>
-      <c r="I13" s="68">
+      <c r="H13" s="59"/>
+      <c r="I13" s="64">
         <f>'Daily Schedule SUN'!I13:J13</f>
         <v>0</v>
       </c>
-      <c r="J13" s="69"/>
+      <c r="J13" s="65"/>
     </row>
     <row r="14" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="8"/>
@@ -3832,19 +3843,17 @@
         <f t="shared" si="0"/>
         <v>0.43749999999999989</v>
       </c>
-      <c r="C14" s="21" t="s">
-        <v>29</v>
-      </c>
+      <c r="C14" s="21"/>
       <c r="D14" s="8"/>
       <c r="E14" s="17"/>
       <c r="F14" s="8"/>
-      <c r="G14" s="40"/>
-      <c r="H14" s="41"/>
-      <c r="I14" s="46">
+      <c r="G14" s="60"/>
+      <c r="H14" s="61"/>
+      <c r="I14" s="52">
         <f>'Daily Schedule SUN'!I14:J14</f>
         <v>0</v>
       </c>
-      <c r="J14" s="47"/>
+      <c r="J14" s="53"/>
     </row>
     <row r="15" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="8"/>
@@ -3852,19 +3861,17 @@
         <f t="shared" si="0"/>
         <v>0.4583333333333332</v>
       </c>
-      <c r="C15" s="20" t="s">
-        <v>29</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="8"/>
       <c r="E15" s="16"/>
       <c r="F15" s="8"/>
-      <c r="G15" s="42"/>
-      <c r="H15" s="43"/>
-      <c r="I15" s="48">
+      <c r="G15" s="62"/>
+      <c r="H15" s="63"/>
+      <c r="I15" s="66">
         <f>'Daily Schedule SUN'!I15:J15</f>
         <v>0</v>
       </c>
-      <c r="J15" s="49"/>
+      <c r="J15" s="67"/>
     </row>
     <row r="16" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="8"/>
@@ -3872,22 +3879,20 @@
         <f t="shared" si="0"/>
         <v>0.47916666666666652</v>
       </c>
-      <c r="C16" s="21" t="s">
-        <v>29</v>
-      </c>
+      <c r="C16" s="21"/>
       <c r="D16" s="8"/>
       <c r="E16" s="17"/>
       <c r="F16" s="8"/>
-      <c r="G16" s="56">
+      <c r="G16" s="46">
         <f>G7+3</f>
         <v>42879</v>
       </c>
-      <c r="H16" s="57"/>
-      <c r="I16" s="62">
+      <c r="H16" s="47"/>
+      <c r="I16" s="68">
         <f>'Daily Schedule SUN'!I16:J16</f>
         <v>0</v>
       </c>
-      <c r="J16" s="63"/>
+      <c r="J16" s="69"/>
     </row>
     <row r="17" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="8"/>
@@ -3895,19 +3900,17 @@
         <f t="shared" si="0"/>
         <v>0.49999999999999983</v>
       </c>
-      <c r="C17" s="20" t="s">
-        <v>29</v>
-      </c>
+      <c r="C17" s="20"/>
       <c r="D17" s="8"/>
       <c r="E17" s="16"/>
       <c r="F17" s="8"/>
-      <c r="G17" s="58"/>
-      <c r="H17" s="59"/>
-      <c r="I17" s="44">
+      <c r="G17" s="48"/>
+      <c r="H17" s="49"/>
+      <c r="I17" s="54">
         <f>'Daily Schedule SUN'!I17:J17</f>
         <v>0</v>
       </c>
-      <c r="J17" s="45"/>
+      <c r="J17" s="55"/>
     </row>
     <row r="18" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="8"/>
@@ -3915,19 +3918,17 @@
         <f t="shared" si="0"/>
         <v>0.52083333333333315</v>
       </c>
-      <c r="C18" s="21" t="s">
-        <v>29</v>
-      </c>
+      <c r="C18" s="21"/>
       <c r="D18" s="8"/>
       <c r="E18" s="17"/>
       <c r="F18" s="8"/>
-      <c r="G18" s="60"/>
-      <c r="H18" s="61"/>
-      <c r="I18" s="64">
+      <c r="G18" s="50"/>
+      <c r="H18" s="51"/>
+      <c r="I18" s="56">
         <f>'Daily Schedule SUN'!I18:J18</f>
         <v>0</v>
       </c>
-      <c r="J18" s="65"/>
+      <c r="J18" s="57"/>
     </row>
     <row r="19" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="8"/>
@@ -3935,22 +3936,22 @@
         <f t="shared" si="0"/>
         <v>0.54166666666666652</v>
       </c>
-      <c r="C19" s="20" t="s">
-        <v>27</v>
+      <c r="C19" s="30" t="s">
+        <v>35</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="16"/>
       <c r="F19" s="8"/>
-      <c r="G19" s="66">
+      <c r="G19" s="58">
         <f>G7+4</f>
         <v>42880</v>
       </c>
-      <c r="H19" s="67"/>
-      <c r="I19" s="68">
+      <c r="H19" s="59"/>
+      <c r="I19" s="64">
         <f>'Daily Schedule SUN'!I19:J19</f>
         <v>0</v>
       </c>
-      <c r="J19" s="69"/>
+      <c r="J19" s="65"/>
     </row>
     <row r="20" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="8"/>
@@ -3958,19 +3959,19 @@
         <f t="shared" si="0"/>
         <v>0.56249999999999989</v>
       </c>
-      <c r="C20" s="21" t="s">
-        <v>30</v>
+      <c r="C20" s="29" t="s">
+        <v>36</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="17"/>
       <c r="F20" s="8"/>
-      <c r="G20" s="40"/>
-      <c r="H20" s="41"/>
-      <c r="I20" s="46">
+      <c r="G20" s="60"/>
+      <c r="H20" s="61"/>
+      <c r="I20" s="52">
         <f>'Daily Schedule SUN'!I20:J20</f>
         <v>0</v>
       </c>
-      <c r="J20" s="47"/>
+      <c r="J20" s="53"/>
     </row>
     <row r="21" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="8"/>
@@ -3978,19 +3979,19 @@
         <f t="shared" si="0"/>
         <v>0.58333333333333326</v>
       </c>
-      <c r="C21" s="20" t="s">
-        <v>30</v>
+      <c r="C21" s="30" t="s">
+        <v>37</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="16"/>
       <c r="F21" s="8"/>
-      <c r="G21" s="42"/>
-      <c r="H21" s="43"/>
-      <c r="I21" s="48">
+      <c r="G21" s="62"/>
+      <c r="H21" s="63"/>
+      <c r="I21" s="66">
         <f>'Daily Schedule SUN'!I21:J21</f>
         <v>0</v>
       </c>
-      <c r="J21" s="49"/>
+      <c r="J21" s="67"/>
     </row>
     <row r="22" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="8"/>
@@ -3998,22 +3999,22 @@
         <f t="shared" si="0"/>
         <v>0.60416666666666663</v>
       </c>
-      <c r="C22" s="21" t="s">
-        <v>30</v>
+      <c r="C22" s="29" t="s">
+        <v>37</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="17"/>
       <c r="F22" s="8"/>
-      <c r="G22" s="56">
+      <c r="G22" s="46">
         <f>G7+5</f>
         <v>42881</v>
       </c>
-      <c r="H22" s="57"/>
-      <c r="I22" s="62">
+      <c r="H22" s="47"/>
+      <c r="I22" s="68">
         <f>'Daily Schedule SUN'!I22:J22</f>
         <v>0</v>
       </c>
-      <c r="J22" s="63"/>
+      <c r="J22" s="69"/>
     </row>
     <row r="23" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="8"/>
@@ -4021,19 +4022,19 @@
         <f t="shared" si="0"/>
         <v>0.625</v>
       </c>
-      <c r="C23" s="20" t="s">
-        <v>31</v>
+      <c r="C23" s="30" t="s">
+        <v>38</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="16"/>
       <c r="F23" s="8"/>
-      <c r="G23" s="58"/>
-      <c r="H23" s="59"/>
-      <c r="I23" s="44">
+      <c r="G23" s="48"/>
+      <c r="H23" s="49"/>
+      <c r="I23" s="54">
         <f>'Daily Schedule SUN'!I23:J23</f>
         <v>0</v>
       </c>
-      <c r="J23" s="45"/>
+      <c r="J23" s="55"/>
     </row>
     <row r="24" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="8"/>
@@ -4041,19 +4042,21 @@
         <f t="shared" si="0"/>
         <v>0.64583333333333337</v>
       </c>
-      <c r="C24" s="21" t="s">
-        <v>31</v>
+      <c r="C24" s="29" t="s">
+        <v>38</v>
       </c>
       <c r="D24" s="8"/>
-      <c r="E24" s="17"/>
+      <c r="E24" s="82" t="s">
+        <v>40</v>
+      </c>
       <c r="F24" s="8"/>
-      <c r="G24" s="60"/>
-      <c r="H24" s="61"/>
-      <c r="I24" s="64">
+      <c r="G24" s="50"/>
+      <c r="H24" s="51"/>
+      <c r="I24" s="56">
         <f>'Daily Schedule SUN'!I24:J24</f>
         <v>0</v>
       </c>
-      <c r="J24" s="65"/>
+      <c r="J24" s="57"/>
     </row>
     <row r="25" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="8"/>
@@ -4061,22 +4064,22 @@
         <f t="shared" si="0"/>
         <v>0.66666666666666674</v>
       </c>
-      <c r="C25" s="20" t="s">
-        <v>31</v>
+      <c r="C25" s="30" t="s">
+        <v>39</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="16"/>
       <c r="F25" s="8"/>
-      <c r="G25" s="66">
+      <c r="G25" s="58">
         <f>G7+6</f>
         <v>42882</v>
       </c>
-      <c r="H25" s="67"/>
-      <c r="I25" s="68">
+      <c r="H25" s="59"/>
+      <c r="I25" s="64">
         <f>'Daily Schedule SUN'!I25:J25</f>
         <v>0</v>
       </c>
-      <c r="J25" s="69"/>
+      <c r="J25" s="65"/>
     </row>
     <row r="26" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="8"/>
@@ -4084,19 +4087,19 @@
         <f t="shared" si="0"/>
         <v>0.68750000000000011</v>
       </c>
-      <c r="C26" s="21" t="s">
-        <v>28</v>
+      <c r="C26" s="29" t="s">
+        <v>39</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="17"/>
       <c r="F26" s="8"/>
-      <c r="G26" s="40"/>
-      <c r="H26" s="41"/>
-      <c r="I26" s="46">
+      <c r="G26" s="60"/>
+      <c r="H26" s="61"/>
+      <c r="I26" s="52">
         <f>'Daily Schedule SUN'!I26:J26</f>
         <v>0</v>
       </c>
-      <c r="J26" s="47"/>
+      <c r="J26" s="53"/>
     </row>
     <row r="27" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="8"/>
@@ -4104,19 +4107,17 @@
         <f t="shared" si="0"/>
         <v>0.70833333333333348</v>
       </c>
-      <c r="C27" s="20" t="s">
-        <v>28</v>
-      </c>
+      <c r="C27" s="30"/>
       <c r="D27" s="8"/>
       <c r="E27" s="16"/>
       <c r="F27" s="8"/>
-      <c r="G27" s="42"/>
-      <c r="H27" s="43"/>
-      <c r="I27" s="48">
+      <c r="G27" s="62"/>
+      <c r="H27" s="63"/>
+      <c r="I27" s="66">
         <f>'Daily Schedule SUN'!I27:J27</f>
         <v>0</v>
       </c>
-      <c r="J27" s="49"/>
+      <c r="J27" s="67"/>
     </row>
     <row r="28" spans="1:10" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A28" s="8"/>
@@ -4124,9 +4125,7 @@
         <f t="shared" si="0"/>
         <v>0.72916666666666685</v>
       </c>
-      <c r="C28" s="21" t="s">
-        <v>28</v>
-      </c>
+      <c r="C28" s="29"/>
       <c r="D28" s="8"/>
       <c r="E28" s="17"/>
       <c r="F28" s="8"/>
@@ -4141,18 +4140,16 @@
         <f t="shared" si="0"/>
         <v>0.75000000000000022</v>
       </c>
-      <c r="C29" s="20" t="s">
-        <v>28</v>
-      </c>
+      <c r="C29" s="30"/>
       <c r="D29" s="8"/>
       <c r="E29" s="16"/>
       <c r="F29" s="8"/>
-      <c r="G29" s="70" t="s">
+      <c r="G29" s="37" t="s">
         <v>26</v>
       </c>
-      <c r="H29" s="71"/>
-      <c r="I29" s="71"/>
-      <c r="J29" s="72"/>
+      <c r="H29" s="38"/>
+      <c r="I29" s="38"/>
+      <c r="J29" s="39"/>
     </row>
     <row r="30" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30" s="8"/>
@@ -4160,16 +4157,14 @@
         <f t="shared" si="0"/>
         <v>0.77083333333333359</v>
       </c>
-      <c r="C30" s="21" t="s">
-        <v>28</v>
-      </c>
+      <c r="C30" s="21"/>
       <c r="D30" s="8"/>
       <c r="E30" s="17"/>
       <c r="F30" s="8"/>
-      <c r="G30" s="73"/>
-      <c r="H30" s="74"/>
-      <c r="I30" s="74"/>
-      <c r="J30" s="75"/>
+      <c r="G30" s="40"/>
+      <c r="H30" s="41"/>
+      <c r="I30" s="41"/>
+      <c r="J30" s="42"/>
     </row>
     <row r="31" spans="1:10" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A31" s="8"/>
@@ -4181,10 +4176,10 @@
       <c r="D31" s="8"/>
       <c r="E31" s="16"/>
       <c r="F31" s="8"/>
-      <c r="G31" s="76"/>
-      <c r="H31" s="77"/>
-      <c r="I31" s="77"/>
-      <c r="J31" s="78"/>
+      <c r="G31" s="43"/>
+      <c r="H31" s="44"/>
+      <c r="I31" s="44"/>
+      <c r="J31" s="45"/>
     </row>
     <row r="32" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A32" s="8"/>
@@ -4308,6 +4303,30 @@
     </row>
   </sheetData>
   <mergeCells count="33">
+    <mergeCell ref="B2:C3"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="G5:J6"/>
+    <mergeCell ref="G7:H9"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="I8:J8"/>
+    <mergeCell ref="I9:J9"/>
+    <mergeCell ref="G10:H12"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="G13:H15"/>
+    <mergeCell ref="I13:J13"/>
+    <mergeCell ref="I14:J14"/>
+    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="G16:H18"/>
+    <mergeCell ref="I16:J16"/>
+    <mergeCell ref="I17:J17"/>
+    <mergeCell ref="I18:J18"/>
+    <mergeCell ref="G19:H21"/>
+    <mergeCell ref="I19:J19"/>
+    <mergeCell ref="I20:J20"/>
+    <mergeCell ref="I21:J21"/>
     <mergeCell ref="G29:J31"/>
     <mergeCell ref="G22:H24"/>
     <mergeCell ref="I22:J22"/>
@@ -4317,30 +4336,6 @@
     <mergeCell ref="I25:J25"/>
     <mergeCell ref="I26:J26"/>
     <mergeCell ref="I27:J27"/>
-    <mergeCell ref="G16:H18"/>
-    <mergeCell ref="I16:J16"/>
-    <mergeCell ref="I17:J17"/>
-    <mergeCell ref="I18:J18"/>
-    <mergeCell ref="G19:H21"/>
-    <mergeCell ref="I19:J19"/>
-    <mergeCell ref="I20:J20"/>
-    <mergeCell ref="I21:J21"/>
-    <mergeCell ref="G10:H12"/>
-    <mergeCell ref="I10:J10"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="I12:J12"/>
-    <mergeCell ref="G13:H15"/>
-    <mergeCell ref="I13:J13"/>
-    <mergeCell ref="I14:J14"/>
-    <mergeCell ref="I15:J15"/>
-    <mergeCell ref="B2:C3"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="G5:J6"/>
-    <mergeCell ref="G7:H9"/>
-    <mergeCell ref="I7:J7"/>
-    <mergeCell ref="I8:J8"/>
-    <mergeCell ref="I9:J9"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="G29" r:id="rId1"/>
@@ -4357,7 +4352,7 @@
     <hyperlink ref="J31" r:id="rId12" display="https://www.smartsheet.com/try-it?trp=8590&amp;utm_source=integrated+content&amp;utm_campaign=/free-daily-schedule-templates&amp;utm_medium=daily+work+schedule&amp;lx=8y8end44dKJOjkmzjFnZR12F3tjZfBYMXSEruozjq1E"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <pageSetup orientation="portrait" r:id="rId13"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
@@ -4422,10 +4417,10 @@
     </row>
     <row r="2" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.65">
       <c r="A2" s="8"/>
-      <c r="B2" s="37" t="s">
+      <c r="B2" s="70" t="s">
         <v>25</v>
       </c>
-      <c r="C2" s="37"/>
+      <c r="C2" s="70"/>
       <c r="D2" s="9"/>
       <c r="E2" s="12" t="s">
         <v>13</v>
@@ -4442,8 +4437,8 @@
     </row>
     <row r="3" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.65">
       <c r="A3" s="8"/>
-      <c r="B3" s="37"/>
-      <c r="C3" s="37"/>
+      <c r="B3" s="70"/>
+      <c r="C3" s="70"/>
       <c r="D3" s="9"/>
       <c r="E3" s="13">
         <f>'Daily Schedule SUN'!E3</f>
@@ -4476,38 +4471,38 @@
     </row>
     <row r="5" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="8"/>
-      <c r="B5" s="38" t="s">
+      <c r="B5" s="71" t="s">
         <v>0</v>
       </c>
       <c r="C5" s="23" t="s">
         <v>20</v>
       </c>
       <c r="D5" s="8"/>
-      <c r="E5" s="39" t="s">
+      <c r="E5" s="72" t="s">
         <v>14</v>
       </c>
       <c r="F5" s="8"/>
-      <c r="G5" s="80" t="s">
+      <c r="G5" s="79" t="s">
         <v>15</v>
       </c>
-      <c r="H5" s="81"/>
-      <c r="I5" s="80"/>
-      <c r="J5" s="80"/>
+      <c r="H5" s="80"/>
+      <c r="I5" s="79"/>
+      <c r="J5" s="79"/>
     </row>
     <row r="6" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="8"/>
-      <c r="B6" s="38"/>
+      <c r="B6" s="71"/>
       <c r="C6" s="24">
         <f>E3+4</f>
         <v>42880</v>
       </c>
       <c r="D6" s="8"/>
-      <c r="E6" s="39"/>
+      <c r="E6" s="72"/>
       <c r="F6" s="8"/>
-      <c r="G6" s="80"/>
-      <c r="H6" s="80"/>
-      <c r="I6" s="80"/>
-      <c r="J6" s="80"/>
+      <c r="G6" s="79"/>
+      <c r="H6" s="79"/>
+      <c r="I6" s="79"/>
+      <c r="J6" s="79"/>
     </row>
     <row r="7" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="8"/>
@@ -4519,16 +4514,16 @@
       <c r="D7" s="8"/>
       <c r="E7" s="16"/>
       <c r="F7" s="8"/>
-      <c r="G7" s="66">
+      <c r="G7" s="58">
         <f>E3</f>
         <v>42876</v>
       </c>
-      <c r="H7" s="67"/>
-      <c r="I7" s="68">
+      <c r="H7" s="59"/>
+      <c r="I7" s="64">
         <f>'Daily Schedule SUN'!I7:J7</f>
         <v>0</v>
       </c>
-      <c r="J7" s="69"/>
+      <c r="J7" s="65"/>
     </row>
     <row r="8" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="8"/>
@@ -4540,13 +4535,13 @@
       <c r="D8" s="8"/>
       <c r="E8" s="17"/>
       <c r="F8" s="8"/>
-      <c r="G8" s="40"/>
-      <c r="H8" s="41"/>
-      <c r="I8" s="46">
+      <c r="G8" s="60"/>
+      <c r="H8" s="61"/>
+      <c r="I8" s="52">
         <f>'Daily Schedule SUN'!I8:J8</f>
         <v>0</v>
       </c>
-      <c r="J8" s="47"/>
+      <c r="J8" s="53"/>
     </row>
     <row r="9" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="8"/>
@@ -4558,13 +4553,13 @@
       <c r="D9" s="8"/>
       <c r="E9" s="16"/>
       <c r="F9" s="8"/>
-      <c r="G9" s="42"/>
-      <c r="H9" s="43"/>
-      <c r="I9" s="48">
+      <c r="G9" s="62"/>
+      <c r="H9" s="63"/>
+      <c r="I9" s="66">
         <f>'Daily Schedule SUN'!I9:J9</f>
         <v>0</v>
       </c>
-      <c r="J9" s="49"/>
+      <c r="J9" s="67"/>
     </row>
     <row r="10" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="8"/>
@@ -4576,16 +4571,16 @@
       <c r="D10" s="8"/>
       <c r="E10" s="17"/>
       <c r="F10" s="8"/>
-      <c r="G10" s="56">
+      <c r="G10" s="46">
         <f>G7+1</f>
         <v>42877</v>
       </c>
-      <c r="H10" s="57"/>
-      <c r="I10" s="62">
+      <c r="H10" s="47"/>
+      <c r="I10" s="68">
         <f>'Daily Schedule SUN'!I10:J10</f>
         <v>0</v>
       </c>
-      <c r="J10" s="63"/>
+      <c r="J10" s="69"/>
     </row>
     <row r="11" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="8"/>
@@ -4597,13 +4592,13 @@
       <c r="D11" s="8"/>
       <c r="E11" s="16"/>
       <c r="F11" s="8"/>
-      <c r="G11" s="58"/>
-      <c r="H11" s="59"/>
-      <c r="I11" s="44">
+      <c r="G11" s="48"/>
+      <c r="H11" s="49"/>
+      <c r="I11" s="54">
         <f>'Daily Schedule SUN'!I11:J11</f>
         <v>0</v>
       </c>
-      <c r="J11" s="45"/>
+      <c r="J11" s="55"/>
     </row>
     <row r="12" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="8"/>
@@ -4615,13 +4610,13 @@
       <c r="D12" s="8"/>
       <c r="E12" s="17"/>
       <c r="F12" s="8"/>
-      <c r="G12" s="60"/>
-      <c r="H12" s="61"/>
-      <c r="I12" s="64">
+      <c r="G12" s="50"/>
+      <c r="H12" s="51"/>
+      <c r="I12" s="56">
         <f>'Daily Schedule SUN'!I12:J12</f>
         <v>0</v>
       </c>
-      <c r="J12" s="65"/>
+      <c r="J12" s="57"/>
     </row>
     <row r="13" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="8"/>
@@ -4633,16 +4628,16 @@
       <c r="D13" s="8"/>
       <c r="E13" s="16"/>
       <c r="F13" s="8"/>
-      <c r="G13" s="66">
+      <c r="G13" s="58">
         <f>G7+2</f>
         <v>42878</v>
       </c>
-      <c r="H13" s="67"/>
-      <c r="I13" s="68">
+      <c r="H13" s="59"/>
+      <c r="I13" s="64">
         <f>'Daily Schedule SUN'!I13:J13</f>
         <v>0</v>
       </c>
-      <c r="J13" s="69"/>
+      <c r="J13" s="65"/>
     </row>
     <row r="14" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="8"/>
@@ -4654,13 +4649,13 @@
       <c r="D14" s="8"/>
       <c r="E14" s="17"/>
       <c r="F14" s="8"/>
-      <c r="G14" s="40"/>
-      <c r="H14" s="41"/>
-      <c r="I14" s="46">
+      <c r="G14" s="60"/>
+      <c r="H14" s="61"/>
+      <c r="I14" s="52">
         <f>'Daily Schedule SUN'!I14:J14</f>
         <v>0</v>
       </c>
-      <c r="J14" s="47"/>
+      <c r="J14" s="53"/>
     </row>
     <row r="15" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="8"/>
@@ -4672,13 +4667,13 @@
       <c r="D15" s="8"/>
       <c r="E15" s="16"/>
       <c r="F15" s="8"/>
-      <c r="G15" s="42"/>
-      <c r="H15" s="43"/>
-      <c r="I15" s="48">
+      <c r="G15" s="62"/>
+      <c r="H15" s="63"/>
+      <c r="I15" s="66">
         <f>'Daily Schedule SUN'!I15:J15</f>
         <v>0</v>
       </c>
-      <c r="J15" s="49"/>
+      <c r="J15" s="67"/>
     </row>
     <row r="16" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="8"/>
@@ -4690,16 +4685,16 @@
       <c r="D16" s="8"/>
       <c r="E16" s="17"/>
       <c r="F16" s="8"/>
-      <c r="G16" s="56">
+      <c r="G16" s="46">
         <f>G7+3</f>
         <v>42879</v>
       </c>
-      <c r="H16" s="57"/>
-      <c r="I16" s="62">
+      <c r="H16" s="47"/>
+      <c r="I16" s="68">
         <f>'Daily Schedule SUN'!I16:J16</f>
         <v>0</v>
       </c>
-      <c r="J16" s="63"/>
+      <c r="J16" s="69"/>
     </row>
     <row r="17" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="8"/>
@@ -4711,13 +4706,13 @@
       <c r="D17" s="8"/>
       <c r="E17" s="16"/>
       <c r="F17" s="8"/>
-      <c r="G17" s="58"/>
-      <c r="H17" s="59"/>
-      <c r="I17" s="44">
+      <c r="G17" s="48"/>
+      <c r="H17" s="49"/>
+      <c r="I17" s="54">
         <f>'Daily Schedule SUN'!I17:J17</f>
         <v>0</v>
       </c>
-      <c r="J17" s="45"/>
+      <c r="J17" s="55"/>
     </row>
     <row r="18" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="8"/>
@@ -4729,13 +4724,13 @@
       <c r="D18" s="8"/>
       <c r="E18" s="17"/>
       <c r="F18" s="8"/>
-      <c r="G18" s="60"/>
-      <c r="H18" s="61"/>
-      <c r="I18" s="64">
+      <c r="G18" s="50"/>
+      <c r="H18" s="51"/>
+      <c r="I18" s="56">
         <f>'Daily Schedule SUN'!I18:J18</f>
         <v>0</v>
       </c>
-      <c r="J18" s="65"/>
+      <c r="J18" s="57"/>
     </row>
     <row r="19" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="8"/>
@@ -4747,16 +4742,16 @@
       <c r="D19" s="8"/>
       <c r="E19" s="16"/>
       <c r="F19" s="8"/>
-      <c r="G19" s="66">
+      <c r="G19" s="58">
         <f>G7+4</f>
         <v>42880</v>
       </c>
-      <c r="H19" s="67"/>
-      <c r="I19" s="68">
+      <c r="H19" s="59"/>
+      <c r="I19" s="64">
         <f>'Daily Schedule SUN'!I19:J19</f>
         <v>0</v>
       </c>
-      <c r="J19" s="69"/>
+      <c r="J19" s="65"/>
     </row>
     <row r="20" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="8"/>
@@ -4768,13 +4763,13 @@
       <c r="D20" s="8"/>
       <c r="E20" s="17"/>
       <c r="F20" s="8"/>
-      <c r="G20" s="40"/>
-      <c r="H20" s="41"/>
-      <c r="I20" s="46">
+      <c r="G20" s="60"/>
+      <c r="H20" s="61"/>
+      <c r="I20" s="52">
         <f>'Daily Schedule SUN'!I20:J20</f>
         <v>0</v>
       </c>
-      <c r="J20" s="47"/>
+      <c r="J20" s="53"/>
     </row>
     <row r="21" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="8"/>
@@ -4786,13 +4781,13 @@
       <c r="D21" s="8"/>
       <c r="E21" s="16"/>
       <c r="F21" s="8"/>
-      <c r="G21" s="42"/>
-      <c r="H21" s="43"/>
-      <c r="I21" s="48">
+      <c r="G21" s="62"/>
+      <c r="H21" s="63"/>
+      <c r="I21" s="66">
         <f>'Daily Schedule SUN'!I21:J21</f>
         <v>0</v>
       </c>
-      <c r="J21" s="49"/>
+      <c r="J21" s="67"/>
     </row>
     <row r="22" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="8"/>
@@ -4804,16 +4799,16 @@
       <c r="D22" s="8"/>
       <c r="E22" s="17"/>
       <c r="F22" s="8"/>
-      <c r="G22" s="56">
+      <c r="G22" s="46">
         <f>G7+5</f>
         <v>42881</v>
       </c>
-      <c r="H22" s="57"/>
-      <c r="I22" s="62">
+      <c r="H22" s="47"/>
+      <c r="I22" s="68">
         <f>'Daily Schedule SUN'!I22:J22</f>
         <v>0</v>
       </c>
-      <c r="J22" s="63"/>
+      <c r="J22" s="69"/>
     </row>
     <row r="23" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="8"/>
@@ -4825,13 +4820,13 @@
       <c r="D23" s="8"/>
       <c r="E23" s="16"/>
       <c r="F23" s="8"/>
-      <c r="G23" s="58"/>
-      <c r="H23" s="59"/>
-      <c r="I23" s="44">
+      <c r="G23" s="48"/>
+      <c r="H23" s="49"/>
+      <c r="I23" s="54">
         <f>'Daily Schedule SUN'!I23:J23</f>
         <v>0</v>
       </c>
-      <c r="J23" s="45"/>
+      <c r="J23" s="55"/>
     </row>
     <row r="24" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="8"/>
@@ -4843,13 +4838,13 @@
       <c r="D24" s="8"/>
       <c r="E24" s="17"/>
       <c r="F24" s="8"/>
-      <c r="G24" s="60"/>
-      <c r="H24" s="61"/>
-      <c r="I24" s="64">
+      <c r="G24" s="50"/>
+      <c r="H24" s="51"/>
+      <c r="I24" s="56">
         <f>'Daily Schedule SUN'!I24:J24</f>
         <v>0</v>
       </c>
-      <c r="J24" s="65"/>
+      <c r="J24" s="57"/>
     </row>
     <row r="25" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="8"/>
@@ -4861,16 +4856,16 @@
       <c r="D25" s="8"/>
       <c r="E25" s="16"/>
       <c r="F25" s="8"/>
-      <c r="G25" s="66">
+      <c r="G25" s="58">
         <f>G7+6</f>
         <v>42882</v>
       </c>
-      <c r="H25" s="67"/>
-      <c r="I25" s="68">
+      <c r="H25" s="59"/>
+      <c r="I25" s="64">
         <f>'Daily Schedule SUN'!I25:J25</f>
         <v>0</v>
       </c>
-      <c r="J25" s="69"/>
+      <c r="J25" s="65"/>
     </row>
     <row r="26" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="8"/>
@@ -4882,13 +4877,13 @@
       <c r="D26" s="8"/>
       <c r="E26" s="17"/>
       <c r="F26" s="8"/>
-      <c r="G26" s="40"/>
-      <c r="H26" s="41"/>
-      <c r="I26" s="46">
+      <c r="G26" s="60"/>
+      <c r="H26" s="61"/>
+      <c r="I26" s="52">
         <f>'Daily Schedule SUN'!I26:J26</f>
         <v>0</v>
       </c>
-      <c r="J26" s="47"/>
+      <c r="J26" s="53"/>
     </row>
     <row r="27" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="8"/>
@@ -4900,13 +4895,13 @@
       <c r="D27" s="8"/>
       <c r="E27" s="16"/>
       <c r="F27" s="8"/>
-      <c r="G27" s="42"/>
-      <c r="H27" s="43"/>
-      <c r="I27" s="48">
+      <c r="G27" s="62"/>
+      <c r="H27" s="63"/>
+      <c r="I27" s="66">
         <f>'Daily Schedule SUN'!I27:J27</f>
         <v>0</v>
       </c>
-      <c r="J27" s="49"/>
+      <c r="J27" s="67"/>
     </row>
     <row r="28" spans="1:10" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A28" s="8"/>
@@ -4933,12 +4928,12 @@
       <c r="D29" s="8"/>
       <c r="E29" s="16"/>
       <c r="F29" s="8"/>
-      <c r="G29" s="70" t="s">
+      <c r="G29" s="37" t="s">
         <v>26</v>
       </c>
-      <c r="H29" s="71"/>
-      <c r="I29" s="71"/>
-      <c r="J29" s="72"/>
+      <c r="H29" s="38"/>
+      <c r="I29" s="38"/>
+      <c r="J29" s="39"/>
     </row>
     <row r="30" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30" s="8"/>
@@ -4950,10 +4945,10 @@
       <c r="D30" s="8"/>
       <c r="E30" s="17"/>
       <c r="F30" s="8"/>
-      <c r="G30" s="73"/>
-      <c r="H30" s="74"/>
-      <c r="I30" s="74"/>
-      <c r="J30" s="75"/>
+      <c r="G30" s="40"/>
+      <c r="H30" s="41"/>
+      <c r="I30" s="41"/>
+      <c r="J30" s="42"/>
     </row>
     <row r="31" spans="1:10" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A31" s="8"/>
@@ -4965,10 +4960,10 @@
       <c r="D31" s="8"/>
       <c r="E31" s="16"/>
       <c r="F31" s="8"/>
-      <c r="G31" s="76"/>
-      <c r="H31" s="77"/>
-      <c r="I31" s="77"/>
-      <c r="J31" s="78"/>
+      <c r="G31" s="43"/>
+      <c r="H31" s="44"/>
+      <c r="I31" s="44"/>
+      <c r="J31" s="45"/>
     </row>
     <row r="32" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A32" s="8"/>
@@ -5092,6 +5087,30 @@
     </row>
   </sheetData>
   <mergeCells count="33">
+    <mergeCell ref="B2:C3"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="G5:J6"/>
+    <mergeCell ref="G7:H9"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="I8:J8"/>
+    <mergeCell ref="I9:J9"/>
+    <mergeCell ref="G10:H12"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="G13:H15"/>
+    <mergeCell ref="I13:J13"/>
+    <mergeCell ref="I14:J14"/>
+    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="G16:H18"/>
+    <mergeCell ref="I16:J16"/>
+    <mergeCell ref="I17:J17"/>
+    <mergeCell ref="I18:J18"/>
+    <mergeCell ref="G19:H21"/>
+    <mergeCell ref="I19:J19"/>
+    <mergeCell ref="I20:J20"/>
+    <mergeCell ref="I21:J21"/>
     <mergeCell ref="G29:J31"/>
     <mergeCell ref="G22:H24"/>
     <mergeCell ref="I22:J22"/>
@@ -5101,30 +5120,6 @@
     <mergeCell ref="I25:J25"/>
     <mergeCell ref="I26:J26"/>
     <mergeCell ref="I27:J27"/>
-    <mergeCell ref="G16:H18"/>
-    <mergeCell ref="I16:J16"/>
-    <mergeCell ref="I17:J17"/>
-    <mergeCell ref="I18:J18"/>
-    <mergeCell ref="G19:H21"/>
-    <mergeCell ref="I19:J19"/>
-    <mergeCell ref="I20:J20"/>
-    <mergeCell ref="I21:J21"/>
-    <mergeCell ref="G10:H12"/>
-    <mergeCell ref="I10:J10"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="I12:J12"/>
-    <mergeCell ref="G13:H15"/>
-    <mergeCell ref="I13:J13"/>
-    <mergeCell ref="I14:J14"/>
-    <mergeCell ref="I15:J15"/>
-    <mergeCell ref="B2:C3"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="G5:J6"/>
-    <mergeCell ref="G7:H9"/>
-    <mergeCell ref="I7:J7"/>
-    <mergeCell ref="I8:J8"/>
-    <mergeCell ref="I9:J9"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="G29" r:id="rId1"/>
@@ -5206,10 +5201,10 @@
     </row>
     <row r="2" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.65">
       <c r="A2" s="8"/>
-      <c r="B2" s="37" t="s">
+      <c r="B2" s="70" t="s">
         <v>25</v>
       </c>
-      <c r="C2" s="37"/>
+      <c r="C2" s="70"/>
       <c r="D2" s="9"/>
       <c r="E2" s="12" t="s">
         <v>13</v>
@@ -5226,8 +5221,8 @@
     </row>
     <row r="3" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.65">
       <c r="A3" s="8"/>
-      <c r="B3" s="37"/>
-      <c r="C3" s="37"/>
+      <c r="B3" s="70"/>
+      <c r="C3" s="70"/>
       <c r="D3" s="9"/>
       <c r="E3" s="13">
         <f>'Daily Schedule SUN'!E3</f>
@@ -5260,38 +5255,38 @@
     </row>
     <row r="5" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="8"/>
-      <c r="B5" s="38" t="s">
+      <c r="B5" s="71" t="s">
         <v>0</v>
       </c>
       <c r="C5" s="23" t="s">
         <v>21</v>
       </c>
       <c r="D5" s="8"/>
-      <c r="E5" s="39" t="s">
+      <c r="E5" s="72" t="s">
         <v>14</v>
       </c>
       <c r="F5" s="8"/>
-      <c r="G5" s="80" t="s">
+      <c r="G5" s="79" t="s">
         <v>15</v>
       </c>
-      <c r="H5" s="81"/>
-      <c r="I5" s="80"/>
-      <c r="J5" s="80"/>
+      <c r="H5" s="80"/>
+      <c r="I5" s="79"/>
+      <c r="J5" s="79"/>
     </row>
     <row r="6" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="8"/>
-      <c r="B6" s="38"/>
+      <c r="B6" s="71"/>
       <c r="C6" s="24">
         <f>E3+5</f>
         <v>42881</v>
       </c>
       <c r="D6" s="8"/>
-      <c r="E6" s="39"/>
+      <c r="E6" s="72"/>
       <c r="F6" s="8"/>
-      <c r="G6" s="80"/>
-      <c r="H6" s="80"/>
-      <c r="I6" s="80"/>
-      <c r="J6" s="80"/>
+      <c r="G6" s="79"/>
+      <c r="H6" s="79"/>
+      <c r="I6" s="79"/>
+      <c r="J6" s="79"/>
     </row>
     <row r="7" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="8"/>
@@ -5303,16 +5298,16 @@
       <c r="D7" s="8"/>
       <c r="E7" s="16"/>
       <c r="F7" s="8"/>
-      <c r="G7" s="66">
+      <c r="G7" s="58">
         <f>E3</f>
         <v>42876</v>
       </c>
-      <c r="H7" s="67"/>
-      <c r="I7" s="68">
+      <c r="H7" s="59"/>
+      <c r="I7" s="64">
         <f>'Daily Schedule SUN'!I7:J7</f>
         <v>0</v>
       </c>
-      <c r="J7" s="69"/>
+      <c r="J7" s="65"/>
     </row>
     <row r="8" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="8"/>
@@ -5324,13 +5319,13 @@
       <c r="D8" s="8"/>
       <c r="E8" s="17"/>
       <c r="F8" s="8"/>
-      <c r="G8" s="40"/>
-      <c r="H8" s="41"/>
-      <c r="I8" s="46">
+      <c r="G8" s="60"/>
+      <c r="H8" s="61"/>
+      <c r="I8" s="52">
         <f>'Daily Schedule SUN'!I8:J8</f>
         <v>0</v>
       </c>
-      <c r="J8" s="47"/>
+      <c r="J8" s="53"/>
     </row>
     <row r="9" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="8"/>
@@ -5342,13 +5337,13 @@
       <c r="D9" s="8"/>
       <c r="E9" s="16"/>
       <c r="F9" s="8"/>
-      <c r="G9" s="42"/>
-      <c r="H9" s="43"/>
-      <c r="I9" s="48">
+      <c r="G9" s="62"/>
+      <c r="H9" s="63"/>
+      <c r="I9" s="66">
         <f>'Daily Schedule SUN'!I9:J9</f>
         <v>0</v>
       </c>
-      <c r="J9" s="49"/>
+      <c r="J9" s="67"/>
     </row>
     <row r="10" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="8"/>
@@ -5360,16 +5355,16 @@
       <c r="D10" s="8"/>
       <c r="E10" s="17"/>
       <c r="F10" s="8"/>
-      <c r="G10" s="56">
+      <c r="G10" s="46">
         <f>G7+1</f>
         <v>42877</v>
       </c>
-      <c r="H10" s="57"/>
-      <c r="I10" s="62">
+      <c r="H10" s="47"/>
+      <c r="I10" s="68">
         <f>'Daily Schedule SUN'!I10:J10</f>
         <v>0</v>
       </c>
-      <c r="J10" s="63"/>
+      <c r="J10" s="69"/>
     </row>
     <row r="11" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="8"/>
@@ -5381,13 +5376,13 @@
       <c r="D11" s="8"/>
       <c r="E11" s="16"/>
       <c r="F11" s="8"/>
-      <c r="G11" s="58"/>
-      <c r="H11" s="59"/>
-      <c r="I11" s="44">
+      <c r="G11" s="48"/>
+      <c r="H11" s="49"/>
+      <c r="I11" s="54">
         <f>'Daily Schedule SUN'!I11:J11</f>
         <v>0</v>
       </c>
-      <c r="J11" s="45"/>
+      <c r="J11" s="55"/>
     </row>
     <row r="12" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="8"/>
@@ -5399,13 +5394,13 @@
       <c r="D12" s="8"/>
       <c r="E12" s="17"/>
       <c r="F12" s="8"/>
-      <c r="G12" s="60"/>
-      <c r="H12" s="61"/>
-      <c r="I12" s="64">
+      <c r="G12" s="50"/>
+      <c r="H12" s="51"/>
+      <c r="I12" s="56">
         <f>'Daily Schedule SUN'!I12:J12</f>
         <v>0</v>
       </c>
-      <c r="J12" s="65"/>
+      <c r="J12" s="57"/>
     </row>
     <row r="13" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="8"/>
@@ -5417,16 +5412,16 @@
       <c r="D13" s="8"/>
       <c r="E13" s="16"/>
       <c r="F13" s="8"/>
-      <c r="G13" s="66">
+      <c r="G13" s="58">
         <f>G7+2</f>
         <v>42878</v>
       </c>
-      <c r="H13" s="67"/>
-      <c r="I13" s="68">
+      <c r="H13" s="59"/>
+      <c r="I13" s="64">
         <f>'Daily Schedule SUN'!I13:J13</f>
         <v>0</v>
       </c>
-      <c r="J13" s="69"/>
+      <c r="J13" s="65"/>
     </row>
     <row r="14" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="8"/>
@@ -5438,13 +5433,13 @@
       <c r="D14" s="8"/>
       <c r="E14" s="17"/>
       <c r="F14" s="8"/>
-      <c r="G14" s="40"/>
-      <c r="H14" s="41"/>
-      <c r="I14" s="46">
+      <c r="G14" s="60"/>
+      <c r="H14" s="61"/>
+      <c r="I14" s="52">
         <f>'Daily Schedule SUN'!I14:J14</f>
         <v>0</v>
       </c>
-      <c r="J14" s="47"/>
+      <c r="J14" s="53"/>
     </row>
     <row r="15" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="8"/>
@@ -5456,13 +5451,13 @@
       <c r="D15" s="8"/>
       <c r="E15" s="16"/>
       <c r="F15" s="8"/>
-      <c r="G15" s="42"/>
-      <c r="H15" s="43"/>
-      <c r="I15" s="48">
+      <c r="G15" s="62"/>
+      <c r="H15" s="63"/>
+      <c r="I15" s="66">
         <f>'Daily Schedule SUN'!I15:J15</f>
         <v>0</v>
       </c>
-      <c r="J15" s="49"/>
+      <c r="J15" s="67"/>
     </row>
     <row r="16" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="8"/>
@@ -5474,16 +5469,16 @@
       <c r="D16" s="8"/>
       <c r="E16" s="17"/>
       <c r="F16" s="8"/>
-      <c r="G16" s="56">
+      <c r="G16" s="46">
         <f>G7+3</f>
         <v>42879</v>
       </c>
-      <c r="H16" s="57"/>
-      <c r="I16" s="62">
+      <c r="H16" s="47"/>
+      <c r="I16" s="68">
         <f>'Daily Schedule SUN'!I16:J16</f>
         <v>0</v>
       </c>
-      <c r="J16" s="63"/>
+      <c r="J16" s="69"/>
     </row>
     <row r="17" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="8"/>
@@ -5495,13 +5490,13 @@
       <c r="D17" s="8"/>
       <c r="E17" s="16"/>
       <c r="F17" s="8"/>
-      <c r="G17" s="58"/>
-      <c r="H17" s="59"/>
-      <c r="I17" s="44">
+      <c r="G17" s="48"/>
+      <c r="H17" s="49"/>
+      <c r="I17" s="54">
         <f>'Daily Schedule SUN'!I17:J17</f>
         <v>0</v>
       </c>
-      <c r="J17" s="45"/>
+      <c r="J17" s="55"/>
     </row>
     <row r="18" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="8"/>
@@ -5513,13 +5508,13 @@
       <c r="D18" s="8"/>
       <c r="E18" s="17"/>
       <c r="F18" s="8"/>
-      <c r="G18" s="60"/>
-      <c r="H18" s="61"/>
-      <c r="I18" s="64">
+      <c r="G18" s="50"/>
+      <c r="H18" s="51"/>
+      <c r="I18" s="56">
         <f>'Daily Schedule SUN'!I18:J18</f>
         <v>0</v>
       </c>
-      <c r="J18" s="65"/>
+      <c r="J18" s="57"/>
     </row>
     <row r="19" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="8"/>
@@ -5531,16 +5526,16 @@
       <c r="D19" s="8"/>
       <c r="E19" s="16"/>
       <c r="F19" s="8"/>
-      <c r="G19" s="66">
+      <c r="G19" s="58">
         <f>G7+4</f>
         <v>42880</v>
       </c>
-      <c r="H19" s="67"/>
-      <c r="I19" s="68">
+      <c r="H19" s="59"/>
+      <c r="I19" s="64">
         <f>'Daily Schedule SUN'!I19:J19</f>
         <v>0</v>
       </c>
-      <c r="J19" s="69"/>
+      <c r="J19" s="65"/>
     </row>
     <row r="20" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="8"/>
@@ -5552,13 +5547,13 @@
       <c r="D20" s="8"/>
       <c r="E20" s="17"/>
       <c r="F20" s="8"/>
-      <c r="G20" s="40"/>
-      <c r="H20" s="41"/>
-      <c r="I20" s="46">
+      <c r="G20" s="60"/>
+      <c r="H20" s="61"/>
+      <c r="I20" s="52">
         <f>'Daily Schedule SUN'!I20:J20</f>
         <v>0</v>
       </c>
-      <c r="J20" s="47"/>
+      <c r="J20" s="53"/>
     </row>
     <row r="21" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="8"/>
@@ -5570,13 +5565,13 @@
       <c r="D21" s="8"/>
       <c r="E21" s="16"/>
       <c r="F21" s="8"/>
-      <c r="G21" s="42"/>
-      <c r="H21" s="43"/>
-      <c r="I21" s="48">
+      <c r="G21" s="62"/>
+      <c r="H21" s="63"/>
+      <c r="I21" s="66">
         <f>'Daily Schedule SUN'!I21:J21</f>
         <v>0</v>
       </c>
-      <c r="J21" s="49"/>
+      <c r="J21" s="67"/>
     </row>
     <row r="22" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="8"/>
@@ -5588,16 +5583,16 @@
       <c r="D22" s="8"/>
       <c r="E22" s="17"/>
       <c r="F22" s="8"/>
-      <c r="G22" s="56">
+      <c r="G22" s="46">
         <f>G7+5</f>
         <v>42881</v>
       </c>
-      <c r="H22" s="57"/>
-      <c r="I22" s="62">
+      <c r="H22" s="47"/>
+      <c r="I22" s="68">
         <f>'Daily Schedule SUN'!I22:J22</f>
         <v>0</v>
       </c>
-      <c r="J22" s="63"/>
+      <c r="J22" s="69"/>
     </row>
     <row r="23" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="8"/>
@@ -5609,13 +5604,13 @@
       <c r="D23" s="8"/>
       <c r="E23" s="16"/>
       <c r="F23" s="8"/>
-      <c r="G23" s="58"/>
-      <c r="H23" s="59"/>
-      <c r="I23" s="44">
+      <c r="G23" s="48"/>
+      <c r="H23" s="49"/>
+      <c r="I23" s="54">
         <f>'Daily Schedule SUN'!I23:J23</f>
         <v>0</v>
       </c>
-      <c r="J23" s="45"/>
+      <c r="J23" s="55"/>
     </row>
     <row r="24" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="8"/>
@@ -5627,13 +5622,13 @@
       <c r="D24" s="8"/>
       <c r="E24" s="17"/>
       <c r="F24" s="8"/>
-      <c r="G24" s="60"/>
-      <c r="H24" s="61"/>
-      <c r="I24" s="64">
+      <c r="G24" s="50"/>
+      <c r="H24" s="51"/>
+      <c r="I24" s="56">
         <f>'Daily Schedule SUN'!I24:J24</f>
         <v>0</v>
       </c>
-      <c r="J24" s="65"/>
+      <c r="J24" s="57"/>
     </row>
     <row r="25" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="8"/>
@@ -5645,16 +5640,16 @@
       <c r="D25" s="8"/>
       <c r="E25" s="16"/>
       <c r="F25" s="8"/>
-      <c r="G25" s="66">
+      <c r="G25" s="58">
         <f>G7+6</f>
         <v>42882</v>
       </c>
-      <c r="H25" s="67"/>
-      <c r="I25" s="68">
+      <c r="H25" s="59"/>
+      <c r="I25" s="64">
         <f>'Daily Schedule SUN'!I25:J25</f>
         <v>0</v>
       </c>
-      <c r="J25" s="69"/>
+      <c r="J25" s="65"/>
     </row>
     <row r="26" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="8"/>
@@ -5666,13 +5661,13 @@
       <c r="D26" s="8"/>
       <c r="E26" s="17"/>
       <c r="F26" s="8"/>
-      <c r="G26" s="40"/>
-      <c r="H26" s="41"/>
-      <c r="I26" s="46">
+      <c r="G26" s="60"/>
+      <c r="H26" s="61"/>
+      <c r="I26" s="52">
         <f>'Daily Schedule SUN'!I26:J26</f>
         <v>0</v>
       </c>
-      <c r="J26" s="47"/>
+      <c r="J26" s="53"/>
     </row>
     <row r="27" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="8"/>
@@ -5684,13 +5679,13 @@
       <c r="D27" s="8"/>
       <c r="E27" s="16"/>
       <c r="F27" s="8"/>
-      <c r="G27" s="42"/>
-      <c r="H27" s="43"/>
-      <c r="I27" s="48">
+      <c r="G27" s="62"/>
+      <c r="H27" s="63"/>
+      <c r="I27" s="66">
         <f>'Daily Schedule SUN'!I27:J27</f>
         <v>0</v>
       </c>
-      <c r="J27" s="49"/>
+      <c r="J27" s="67"/>
     </row>
     <row r="28" spans="1:10" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A28" s="8"/>
@@ -5717,12 +5712,12 @@
       <c r="D29" s="8"/>
       <c r="E29" s="16"/>
       <c r="F29" s="8"/>
-      <c r="G29" s="70" t="s">
+      <c r="G29" s="37" t="s">
         <v>26</v>
       </c>
-      <c r="H29" s="71"/>
-      <c r="I29" s="71"/>
-      <c r="J29" s="72"/>
+      <c r="H29" s="38"/>
+      <c r="I29" s="38"/>
+      <c r="J29" s="39"/>
     </row>
     <row r="30" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30" s="8"/>
@@ -5734,10 +5729,10 @@
       <c r="D30" s="8"/>
       <c r="E30" s="17"/>
       <c r="F30" s="8"/>
-      <c r="G30" s="73"/>
-      <c r="H30" s="74"/>
-      <c r="I30" s="74"/>
-      <c r="J30" s="75"/>
+      <c r="G30" s="40"/>
+      <c r="H30" s="41"/>
+      <c r="I30" s="41"/>
+      <c r="J30" s="42"/>
     </row>
     <row r="31" spans="1:10" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A31" s="8"/>
@@ -5749,10 +5744,10 @@
       <c r="D31" s="8"/>
       <c r="E31" s="16"/>
       <c r="F31" s="8"/>
-      <c r="G31" s="76"/>
-      <c r="H31" s="77"/>
-      <c r="I31" s="77"/>
-      <c r="J31" s="78"/>
+      <c r="G31" s="43"/>
+      <c r="H31" s="44"/>
+      <c r="I31" s="44"/>
+      <c r="J31" s="45"/>
     </row>
     <row r="32" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A32" s="8"/>
@@ -5876,6 +5871,30 @@
     </row>
   </sheetData>
   <mergeCells count="33">
+    <mergeCell ref="B2:C3"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="G5:J6"/>
+    <mergeCell ref="G7:H9"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="I8:J8"/>
+    <mergeCell ref="I9:J9"/>
+    <mergeCell ref="G10:H12"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="G13:H15"/>
+    <mergeCell ref="I13:J13"/>
+    <mergeCell ref="I14:J14"/>
+    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="G16:H18"/>
+    <mergeCell ref="I16:J16"/>
+    <mergeCell ref="I17:J17"/>
+    <mergeCell ref="I18:J18"/>
+    <mergeCell ref="G19:H21"/>
+    <mergeCell ref="I19:J19"/>
+    <mergeCell ref="I20:J20"/>
+    <mergeCell ref="I21:J21"/>
     <mergeCell ref="G29:J31"/>
     <mergeCell ref="G22:H24"/>
     <mergeCell ref="I22:J22"/>
@@ -5885,30 +5904,6 @@
     <mergeCell ref="I25:J25"/>
     <mergeCell ref="I26:J26"/>
     <mergeCell ref="I27:J27"/>
-    <mergeCell ref="G16:H18"/>
-    <mergeCell ref="I16:J16"/>
-    <mergeCell ref="I17:J17"/>
-    <mergeCell ref="I18:J18"/>
-    <mergeCell ref="G19:H21"/>
-    <mergeCell ref="I19:J19"/>
-    <mergeCell ref="I20:J20"/>
-    <mergeCell ref="I21:J21"/>
-    <mergeCell ref="G10:H12"/>
-    <mergeCell ref="I10:J10"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="I12:J12"/>
-    <mergeCell ref="G13:H15"/>
-    <mergeCell ref="I13:J13"/>
-    <mergeCell ref="I14:J14"/>
-    <mergeCell ref="I15:J15"/>
-    <mergeCell ref="B2:C3"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="G5:J6"/>
-    <mergeCell ref="G7:H9"/>
-    <mergeCell ref="I7:J7"/>
-    <mergeCell ref="I8:J8"/>
-    <mergeCell ref="I9:J9"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="G29" r:id="rId1"/>
@@ -5990,10 +5985,10 @@
     </row>
     <row r="2" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.65">
       <c r="A2" s="8"/>
-      <c r="B2" s="37" t="s">
+      <c r="B2" s="70" t="s">
         <v>25</v>
       </c>
-      <c r="C2" s="37"/>
+      <c r="C2" s="70"/>
       <c r="D2" s="9"/>
       <c r="E2" s="12" t="s">
         <v>13</v>
@@ -6010,8 +6005,8 @@
     </row>
     <row r="3" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.65">
       <c r="A3" s="8"/>
-      <c r="B3" s="37"/>
-      <c r="C3" s="37"/>
+      <c r="B3" s="70"/>
+      <c r="C3" s="70"/>
       <c r="D3" s="9"/>
       <c r="E3" s="13">
         <f>'Daily Schedule SUN'!E3</f>
@@ -6044,38 +6039,38 @@
     </row>
     <row r="5" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="8"/>
-      <c r="B5" s="38" t="s">
+      <c r="B5" s="71" t="s">
         <v>0</v>
       </c>
       <c r="C5" s="23" t="s">
         <v>22</v>
       </c>
       <c r="D5" s="8"/>
-      <c r="E5" s="39" t="s">
+      <c r="E5" s="72" t="s">
         <v>14</v>
       </c>
       <c r="F5" s="8"/>
-      <c r="G5" s="80" t="s">
+      <c r="G5" s="79" t="s">
         <v>15</v>
       </c>
-      <c r="H5" s="81"/>
-      <c r="I5" s="80"/>
-      <c r="J5" s="80"/>
+      <c r="H5" s="80"/>
+      <c r="I5" s="79"/>
+      <c r="J5" s="79"/>
     </row>
     <row r="6" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="8"/>
-      <c r="B6" s="38"/>
+      <c r="B6" s="71"/>
       <c r="C6" s="24">
         <f>E3+6</f>
         <v>42882</v>
       </c>
       <c r="D6" s="8"/>
-      <c r="E6" s="39"/>
+      <c r="E6" s="72"/>
       <c r="F6" s="8"/>
-      <c r="G6" s="80"/>
-      <c r="H6" s="80"/>
-      <c r="I6" s="80"/>
-      <c r="J6" s="80"/>
+      <c r="G6" s="79"/>
+      <c r="H6" s="79"/>
+      <c r="I6" s="79"/>
+      <c r="J6" s="79"/>
     </row>
     <row r="7" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="8"/>
@@ -6087,16 +6082,16 @@
       <c r="D7" s="8"/>
       <c r="E7" s="16"/>
       <c r="F7" s="8"/>
-      <c r="G7" s="66">
+      <c r="G7" s="58">
         <f>E3</f>
         <v>42876</v>
       </c>
-      <c r="H7" s="67"/>
-      <c r="I7" s="68">
+      <c r="H7" s="59"/>
+      <c r="I7" s="64">
         <f>'Daily Schedule SUN'!I7:J7</f>
         <v>0</v>
       </c>
-      <c r="J7" s="69"/>
+      <c r="J7" s="65"/>
     </row>
     <row r="8" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="8"/>
@@ -6108,13 +6103,13 @@
       <c r="D8" s="8"/>
       <c r="E8" s="17"/>
       <c r="F8" s="8"/>
-      <c r="G8" s="40"/>
-      <c r="H8" s="41"/>
-      <c r="I8" s="46">
+      <c r="G8" s="60"/>
+      <c r="H8" s="61"/>
+      <c r="I8" s="52">
         <f>'Daily Schedule SUN'!I8:J8</f>
         <v>0</v>
       </c>
-      <c r="J8" s="47"/>
+      <c r="J8" s="53"/>
     </row>
     <row r="9" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="8"/>
@@ -6126,13 +6121,13 @@
       <c r="D9" s="8"/>
       <c r="E9" s="16"/>
       <c r="F9" s="8"/>
-      <c r="G9" s="42"/>
-      <c r="H9" s="43"/>
-      <c r="I9" s="48">
+      <c r="G9" s="62"/>
+      <c r="H9" s="63"/>
+      <c r="I9" s="66">
         <f>'Daily Schedule SUN'!I9:J9</f>
         <v>0</v>
       </c>
-      <c r="J9" s="49"/>
+      <c r="J9" s="67"/>
     </row>
     <row r="10" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="8"/>
@@ -6144,16 +6139,16 @@
       <c r="D10" s="8"/>
       <c r="E10" s="17"/>
       <c r="F10" s="8"/>
-      <c r="G10" s="56">
+      <c r="G10" s="46">
         <f>G7+1</f>
         <v>42877</v>
       </c>
-      <c r="H10" s="57"/>
-      <c r="I10" s="62">
+      <c r="H10" s="47"/>
+      <c r="I10" s="68">
         <f>'Daily Schedule SUN'!I10:J10</f>
         <v>0</v>
       </c>
-      <c r="J10" s="63"/>
+      <c r="J10" s="69"/>
     </row>
     <row r="11" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="8"/>
@@ -6165,13 +6160,13 @@
       <c r="D11" s="8"/>
       <c r="E11" s="16"/>
       <c r="F11" s="8"/>
-      <c r="G11" s="58"/>
-      <c r="H11" s="59"/>
-      <c r="I11" s="44">
+      <c r="G11" s="48"/>
+      <c r="H11" s="49"/>
+      <c r="I11" s="54">
         <f>'Daily Schedule SUN'!I11:J11</f>
         <v>0</v>
       </c>
-      <c r="J11" s="45"/>
+      <c r="J11" s="55"/>
     </row>
     <row r="12" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="8"/>
@@ -6183,13 +6178,13 @@
       <c r="D12" s="8"/>
       <c r="E12" s="17"/>
       <c r="F12" s="8"/>
-      <c r="G12" s="60"/>
-      <c r="H12" s="61"/>
-      <c r="I12" s="64">
+      <c r="G12" s="50"/>
+      <c r="H12" s="51"/>
+      <c r="I12" s="56">
         <f>'Daily Schedule SUN'!I12:J12</f>
         <v>0</v>
       </c>
-      <c r="J12" s="65"/>
+      <c r="J12" s="57"/>
     </row>
     <row r="13" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="8"/>
@@ -6201,16 +6196,16 @@
       <c r="D13" s="8"/>
       <c r="E13" s="16"/>
       <c r="F13" s="8"/>
-      <c r="G13" s="66">
+      <c r="G13" s="58">
         <f>G7+2</f>
         <v>42878</v>
       </c>
-      <c r="H13" s="67"/>
-      <c r="I13" s="68">
+      <c r="H13" s="59"/>
+      <c r="I13" s="64">
         <f>'Daily Schedule SUN'!I13:J13</f>
         <v>0</v>
       </c>
-      <c r="J13" s="69"/>
+      <c r="J13" s="65"/>
     </row>
     <row r="14" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="8"/>
@@ -6222,13 +6217,13 @@
       <c r="D14" s="8"/>
       <c r="E14" s="17"/>
       <c r="F14" s="8"/>
-      <c r="G14" s="40"/>
-      <c r="H14" s="41"/>
-      <c r="I14" s="46">
+      <c r="G14" s="60"/>
+      <c r="H14" s="61"/>
+      <c r="I14" s="52">
         <f>'Daily Schedule SUN'!I14:J14</f>
         <v>0</v>
       </c>
-      <c r="J14" s="47"/>
+      <c r="J14" s="53"/>
     </row>
     <row r="15" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="8"/>
@@ -6240,13 +6235,13 @@
       <c r="D15" s="8"/>
       <c r="E15" s="16"/>
       <c r="F15" s="8"/>
-      <c r="G15" s="42"/>
-      <c r="H15" s="43"/>
-      <c r="I15" s="48">
+      <c r="G15" s="62"/>
+      <c r="H15" s="63"/>
+      <c r="I15" s="66">
         <f>'Daily Schedule SUN'!I15:J15</f>
         <v>0</v>
       </c>
-      <c r="J15" s="49"/>
+      <c r="J15" s="67"/>
     </row>
     <row r="16" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="8"/>
@@ -6258,16 +6253,16 @@
       <c r="D16" s="8"/>
       <c r="E16" s="17"/>
       <c r="F16" s="8"/>
-      <c r="G16" s="56">
+      <c r="G16" s="46">
         <f>G7+3</f>
         <v>42879</v>
       </c>
-      <c r="H16" s="57"/>
-      <c r="I16" s="62">
+      <c r="H16" s="47"/>
+      <c r="I16" s="68">
         <f>'Daily Schedule SUN'!I16:J16</f>
         <v>0</v>
       </c>
-      <c r="J16" s="63"/>
+      <c r="J16" s="69"/>
     </row>
     <row r="17" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="8"/>
@@ -6279,13 +6274,13 @@
       <c r="D17" s="8"/>
       <c r="E17" s="16"/>
       <c r="F17" s="8"/>
-      <c r="G17" s="58"/>
-      <c r="H17" s="59"/>
-      <c r="I17" s="44">
+      <c r="G17" s="48"/>
+      <c r="H17" s="49"/>
+      <c r="I17" s="54">
         <f>'Daily Schedule SUN'!I17:J17</f>
         <v>0</v>
       </c>
-      <c r="J17" s="45"/>
+      <c r="J17" s="55"/>
     </row>
     <row r="18" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="8"/>
@@ -6297,13 +6292,13 @@
       <c r="D18" s="8"/>
       <c r="E18" s="17"/>
       <c r="F18" s="8"/>
-      <c r="G18" s="60"/>
-      <c r="H18" s="61"/>
-      <c r="I18" s="64">
+      <c r="G18" s="50"/>
+      <c r="H18" s="51"/>
+      <c r="I18" s="56">
         <f>'Daily Schedule SUN'!I18:J18</f>
         <v>0</v>
       </c>
-      <c r="J18" s="65"/>
+      <c r="J18" s="57"/>
     </row>
     <row r="19" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="8"/>
@@ -6315,16 +6310,16 @@
       <c r="D19" s="8"/>
       <c r="E19" s="16"/>
       <c r="F19" s="8"/>
-      <c r="G19" s="66">
+      <c r="G19" s="58">
         <f>G7+4</f>
         <v>42880</v>
       </c>
-      <c r="H19" s="67"/>
-      <c r="I19" s="68">
+      <c r="H19" s="59"/>
+      <c r="I19" s="64">
         <f>'Daily Schedule SUN'!I19:J19</f>
         <v>0</v>
       </c>
-      <c r="J19" s="69"/>
+      <c r="J19" s="65"/>
     </row>
     <row r="20" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="8"/>
@@ -6336,13 +6331,13 @@
       <c r="D20" s="8"/>
       <c r="E20" s="17"/>
       <c r="F20" s="8"/>
-      <c r="G20" s="40"/>
-      <c r="H20" s="41"/>
-      <c r="I20" s="46">
+      <c r="G20" s="60"/>
+      <c r="H20" s="61"/>
+      <c r="I20" s="52">
         <f>'Daily Schedule SUN'!I20:J20</f>
         <v>0</v>
       </c>
-      <c r="J20" s="47"/>
+      <c r="J20" s="53"/>
     </row>
     <row r="21" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="8"/>
@@ -6354,13 +6349,13 @@
       <c r="D21" s="8"/>
       <c r="E21" s="16"/>
       <c r="F21" s="8"/>
-      <c r="G21" s="42"/>
-      <c r="H21" s="43"/>
-      <c r="I21" s="48">
+      <c r="G21" s="62"/>
+      <c r="H21" s="63"/>
+      <c r="I21" s="66">
         <f>'Daily Schedule SUN'!I21:J21</f>
         <v>0</v>
       </c>
-      <c r="J21" s="49"/>
+      <c r="J21" s="67"/>
     </row>
     <row r="22" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="8"/>
@@ -6372,16 +6367,16 @@
       <c r="D22" s="8"/>
       <c r="E22" s="17"/>
       <c r="F22" s="8"/>
-      <c r="G22" s="56">
+      <c r="G22" s="46">
         <f>G7+5</f>
         <v>42881</v>
       </c>
-      <c r="H22" s="57"/>
-      <c r="I22" s="62">
+      <c r="H22" s="47"/>
+      <c r="I22" s="68">
         <f>'Daily Schedule SUN'!I22:J22</f>
         <v>0</v>
       </c>
-      <c r="J22" s="63"/>
+      <c r="J22" s="69"/>
     </row>
     <row r="23" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="8"/>
@@ -6393,13 +6388,13 @@
       <c r="D23" s="8"/>
       <c r="E23" s="16"/>
       <c r="F23" s="8"/>
-      <c r="G23" s="58"/>
-      <c r="H23" s="59"/>
-      <c r="I23" s="44">
+      <c r="G23" s="48"/>
+      <c r="H23" s="49"/>
+      <c r="I23" s="54">
         <f>'Daily Schedule SUN'!I23:J23</f>
         <v>0</v>
       </c>
-      <c r="J23" s="45"/>
+      <c r="J23" s="55"/>
     </row>
     <row r="24" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="8"/>
@@ -6411,13 +6406,13 @@
       <c r="D24" s="8"/>
       <c r="E24" s="17"/>
       <c r="F24" s="8"/>
-      <c r="G24" s="60"/>
-      <c r="H24" s="61"/>
-      <c r="I24" s="64">
+      <c r="G24" s="50"/>
+      <c r="H24" s="51"/>
+      <c r="I24" s="56">
         <f>'Daily Schedule SUN'!I24:J24</f>
         <v>0</v>
       </c>
-      <c r="J24" s="65"/>
+      <c r="J24" s="57"/>
     </row>
     <row r="25" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="8"/>
@@ -6429,16 +6424,16 @@
       <c r="D25" s="8"/>
       <c r="E25" s="16"/>
       <c r="F25" s="8"/>
-      <c r="G25" s="66">
+      <c r="G25" s="58">
         <f>G7+6</f>
         <v>42882</v>
       </c>
-      <c r="H25" s="67"/>
-      <c r="I25" s="68">
+      <c r="H25" s="59"/>
+      <c r="I25" s="64">
         <f>'Daily Schedule SUN'!I25:J25</f>
         <v>0</v>
       </c>
-      <c r="J25" s="69"/>
+      <c r="J25" s="65"/>
     </row>
     <row r="26" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="8"/>
@@ -6450,13 +6445,13 @@
       <c r="D26" s="8"/>
       <c r="E26" s="17"/>
       <c r="F26" s="8"/>
-      <c r="G26" s="40"/>
-      <c r="H26" s="41"/>
-      <c r="I26" s="46">
+      <c r="G26" s="60"/>
+      <c r="H26" s="61"/>
+      <c r="I26" s="52">
         <f>'Daily Schedule SUN'!I26:J26</f>
         <v>0</v>
       </c>
-      <c r="J26" s="47"/>
+      <c r="J26" s="53"/>
     </row>
     <row r="27" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="8"/>
@@ -6468,13 +6463,13 @@
       <c r="D27" s="8"/>
       <c r="E27" s="16"/>
       <c r="F27" s="8"/>
-      <c r="G27" s="42"/>
-      <c r="H27" s="43"/>
-      <c r="I27" s="48">
+      <c r="G27" s="62"/>
+      <c r="H27" s="63"/>
+      <c r="I27" s="66">
         <f>'Daily Schedule SUN'!I27:J27</f>
         <v>0</v>
       </c>
-      <c r="J27" s="49"/>
+      <c r="J27" s="67"/>
     </row>
     <row r="28" spans="1:10" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A28" s="8"/>
@@ -6501,12 +6496,12 @@
       <c r="D29" s="8"/>
       <c r="E29" s="16"/>
       <c r="F29" s="8"/>
-      <c r="G29" s="70" t="s">
+      <c r="G29" s="37" t="s">
         <v>26</v>
       </c>
-      <c r="H29" s="71"/>
-      <c r="I29" s="71"/>
-      <c r="J29" s="72"/>
+      <c r="H29" s="38"/>
+      <c r="I29" s="38"/>
+      <c r="J29" s="39"/>
     </row>
     <row r="30" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30" s="8"/>
@@ -6518,10 +6513,10 @@
       <c r="D30" s="8"/>
       <c r="E30" s="17"/>
       <c r="F30" s="8"/>
-      <c r="G30" s="73"/>
-      <c r="H30" s="74"/>
-      <c r="I30" s="74"/>
-      <c r="J30" s="75"/>
+      <c r="G30" s="40"/>
+      <c r="H30" s="41"/>
+      <c r="I30" s="41"/>
+      <c r="J30" s="42"/>
     </row>
     <row r="31" spans="1:10" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A31" s="8"/>
@@ -6533,10 +6528,10 @@
       <c r="D31" s="8"/>
       <c r="E31" s="16"/>
       <c r="F31" s="8"/>
-      <c r="G31" s="76"/>
-      <c r="H31" s="77"/>
-      <c r="I31" s="77"/>
-      <c r="J31" s="78"/>
+      <c r="G31" s="43"/>
+      <c r="H31" s="44"/>
+      <c r="I31" s="44"/>
+      <c r="J31" s="45"/>
     </row>
     <row r="32" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A32" s="8"/>
@@ -6660,6 +6655,30 @@
     </row>
   </sheetData>
   <mergeCells count="33">
+    <mergeCell ref="B2:C3"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="G5:J6"/>
+    <mergeCell ref="G7:H9"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="I8:J8"/>
+    <mergeCell ref="I9:J9"/>
+    <mergeCell ref="G10:H12"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="G13:H15"/>
+    <mergeCell ref="I13:J13"/>
+    <mergeCell ref="I14:J14"/>
+    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="G16:H18"/>
+    <mergeCell ref="I16:J16"/>
+    <mergeCell ref="I17:J17"/>
+    <mergeCell ref="I18:J18"/>
+    <mergeCell ref="G19:H21"/>
+    <mergeCell ref="I19:J19"/>
+    <mergeCell ref="I20:J20"/>
+    <mergeCell ref="I21:J21"/>
     <mergeCell ref="G29:J31"/>
     <mergeCell ref="G22:H24"/>
     <mergeCell ref="I22:J22"/>
@@ -6669,30 +6688,6 @@
     <mergeCell ref="I25:J25"/>
     <mergeCell ref="I26:J26"/>
     <mergeCell ref="I27:J27"/>
-    <mergeCell ref="G16:H18"/>
-    <mergeCell ref="I16:J16"/>
-    <mergeCell ref="I17:J17"/>
-    <mergeCell ref="I18:J18"/>
-    <mergeCell ref="G19:H21"/>
-    <mergeCell ref="I19:J19"/>
-    <mergeCell ref="I20:J20"/>
-    <mergeCell ref="I21:J21"/>
-    <mergeCell ref="G10:H12"/>
-    <mergeCell ref="I10:J10"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="I12:J12"/>
-    <mergeCell ref="G13:H15"/>
-    <mergeCell ref="I13:J13"/>
-    <mergeCell ref="I14:J14"/>
-    <mergeCell ref="I15:J15"/>
-    <mergeCell ref="B2:C3"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="G5:J6"/>
-    <mergeCell ref="G7:H9"/>
-    <mergeCell ref="I7:J7"/>
-    <mergeCell ref="I8:J8"/>
-    <mergeCell ref="I9:J9"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="G29" r:id="rId1"/>

--- a/daily-work-schedule-template.xlsx
+++ b/daily-work-schedule-template.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14380" windowHeight="4090" tabRatio="500" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14380" windowHeight="4090" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Daily Schedule SUN" sheetId="4" r:id="rId1"/>
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="35">
   <si>
     <t>TIME</t>
   </si>
@@ -135,43 +135,25 @@
     <t>Lunch</t>
   </si>
   <si>
-    <t>Get audio file to uploads folder</t>
-  </si>
-  <si>
-    <t>Put audio file path to database</t>
-  </si>
-  <si>
-    <t>Query database to play audio</t>
-  </si>
-  <si>
     <t>Done</t>
   </si>
   <si>
-    <t>Experienced problems</t>
+    <t>Implement page security</t>
   </si>
   <si>
-    <t>Closed at 6:09pm</t>
+    <t xml:space="preserve">Fix form </t>
   </si>
   <si>
-    <t>Fix sentence pages</t>
+    <t>Complete sentences database</t>
   </si>
   <si>
-    <t>Update Sentence table</t>
+    <t>Update server database</t>
   </si>
   <si>
-    <t>Update sentence table</t>
+    <t xml:space="preserve">Change form to Dutch </t>
   </si>
   <si>
-    <t>Work on page protection (login required)</t>
-  </si>
-  <si>
-    <t>Fix pager if end of sentences is reached</t>
-  </si>
-  <si>
-    <t>Add dutch and meestrech text to sentences</t>
-  </si>
-  <si>
-    <t>Done with randomizer added as well</t>
+    <t>Most of form fields are in Dutch already</t>
   </si>
 </sst>
 </file>
@@ -797,6 +779,108 @@
     <xf numFmtId="0" fontId="19" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="10" fillId="17" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="10" fillId="17" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="10" fillId="17" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="10" fillId="17" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="165" fontId="10" fillId="13" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="10" fillId="13" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="10" fillId="13" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="10" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="10" fillId="13" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="10" fillId="13" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="10" fillId="17" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="10" fillId="17" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="18" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -824,116 +908,14 @@
     <xf numFmtId="0" fontId="14" fillId="18" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="10" fillId="13" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="10" fillId="13" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="10" fillId="13" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="10" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="10" fillId="13" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="10" fillId="13" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="10" fillId="17" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="10" fillId="17" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="10" fillId="17" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="10" fillId="17" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="10" fillId="17" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="10" fillId="17" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="13" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="13" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="10" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -1258,7 +1240,7 @@
   <dimension ref="A1:J39"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="80" workbookViewId="0">
-      <selection activeCell="L11" sqref="L11"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.69140625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -1290,10 +1272,10 @@
     </row>
     <row r="2" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.65">
       <c r="A2" s="8"/>
-      <c r="B2" s="70" t="s">
+      <c r="B2" s="38" t="s">
         <v>25</v>
       </c>
-      <c r="C2" s="70"/>
+      <c r="C2" s="38"/>
       <c r="D2" s="9"/>
       <c r="E2" s="12" t="s">
         <v>13</v>
@@ -1310,11 +1292,11 @@
     </row>
     <row r="3" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.65">
       <c r="A3" s="8"/>
-      <c r="B3" s="70"/>
-      <c r="C3" s="70"/>
+      <c r="B3" s="38"/>
+      <c r="C3" s="38"/>
       <c r="D3" s="9"/>
       <c r="E3" s="13">
-        <v>42876</v>
+        <v>42883</v>
       </c>
       <c r="F3" s="9"/>
       <c r="G3" s="14">
@@ -1343,40 +1325,40 @@
     </row>
     <row r="5" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="8"/>
-      <c r="B5" s="71" t="s">
+      <c r="B5" s="39" t="s">
         <v>0</v>
       </c>
       <c r="C5" s="23" t="s">
         <v>17</v>
       </c>
       <c r="D5" s="8"/>
-      <c r="E5" s="72" t="s">
+      <c r="E5" s="40" t="s">
         <v>14</v>
       </c>
       <c r="F5" s="8"/>
-      <c r="G5" s="73" t="s">
+      <c r="G5" s="51" t="s">
         <v>23</v>
       </c>
-      <c r="H5" s="74"/>
-      <c r="I5" s="74"/>
-      <c r="J5" s="75"/>
+      <c r="H5" s="52"/>
+      <c r="I5" s="52"/>
+      <c r="J5" s="53"/>
     </row>
     <row r="6" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="8"/>
-      <c r="B6" s="71"/>
+      <c r="B6" s="39"/>
       <c r="C6" s="24">
         <f>E3</f>
-        <v>42876</v>
+        <v>42883</v>
       </c>
       <c r="D6" s="8"/>
-      <c r="E6" s="72"/>
+      <c r="E6" s="40"/>
       <c r="F6" s="8"/>
-      <c r="G6" s="76" t="s">
+      <c r="G6" s="54" t="s">
         <v>24</v>
       </c>
-      <c r="H6" s="77"/>
-      <c r="I6" s="77"/>
-      <c r="J6" s="78"/>
+      <c r="H6" s="55"/>
+      <c r="I6" s="55"/>
+      <c r="J6" s="56"/>
     </row>
     <row r="7" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="8"/>
@@ -1388,13 +1370,13 @@
       <c r="D7" s="8"/>
       <c r="E7" s="16"/>
       <c r="F7" s="8"/>
-      <c r="G7" s="60">
+      <c r="G7" s="41">
         <f>E3</f>
-        <v>42876</v>
-      </c>
-      <c r="H7" s="61"/>
-      <c r="I7" s="54"/>
-      <c r="J7" s="55"/>
+        <v>42883</v>
+      </c>
+      <c r="H7" s="42"/>
+      <c r="I7" s="45"/>
+      <c r="J7" s="46"/>
     </row>
     <row r="8" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="8"/>
@@ -1406,10 +1388,10 @@
       <c r="D8" s="8"/>
       <c r="E8" s="17"/>
       <c r="F8" s="8"/>
-      <c r="G8" s="60"/>
-      <c r="H8" s="61"/>
-      <c r="I8" s="52"/>
-      <c r="J8" s="53"/>
+      <c r="G8" s="41"/>
+      <c r="H8" s="42"/>
+      <c r="I8" s="47"/>
+      <c r="J8" s="48"/>
     </row>
     <row r="9" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="8"/>
@@ -1421,10 +1403,10 @@
       <c r="D9" s="8"/>
       <c r="E9" s="16"/>
       <c r="F9" s="8"/>
-      <c r="G9" s="62"/>
-      <c r="H9" s="63"/>
-      <c r="I9" s="66"/>
-      <c r="J9" s="67"/>
+      <c r="G9" s="43"/>
+      <c r="H9" s="44"/>
+      <c r="I9" s="49"/>
+      <c r="J9" s="50"/>
     </row>
     <row r="10" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="8"/>
@@ -1436,13 +1418,13 @@
       <c r="D10" s="8"/>
       <c r="E10" s="17"/>
       <c r="F10" s="8"/>
-      <c r="G10" s="46">
+      <c r="G10" s="57">
         <f>G7+1</f>
-        <v>42877</v>
-      </c>
-      <c r="H10" s="47"/>
-      <c r="I10" s="68"/>
-      <c r="J10" s="69"/>
+        <v>42884</v>
+      </c>
+      <c r="H10" s="58"/>
+      <c r="I10" s="63"/>
+      <c r="J10" s="64"/>
     </row>
     <row r="11" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="8"/>
@@ -1454,10 +1436,10 @@
       <c r="D11" s="8"/>
       <c r="E11" s="16"/>
       <c r="F11" s="8"/>
-      <c r="G11" s="48"/>
-      <c r="H11" s="49"/>
-      <c r="I11" s="54"/>
-      <c r="J11" s="55"/>
+      <c r="G11" s="59"/>
+      <c r="H11" s="60"/>
+      <c r="I11" s="45"/>
+      <c r="J11" s="46"/>
     </row>
     <row r="12" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="8"/>
@@ -1469,10 +1451,10 @@
       <c r="D12" s="8"/>
       <c r="E12" s="17"/>
       <c r="F12" s="8"/>
-      <c r="G12" s="50"/>
-      <c r="H12" s="51"/>
-      <c r="I12" s="56"/>
-      <c r="J12" s="57"/>
+      <c r="G12" s="61"/>
+      <c r="H12" s="62"/>
+      <c r="I12" s="65"/>
+      <c r="J12" s="66"/>
     </row>
     <row r="13" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="8"/>
@@ -1484,13 +1466,13 @@
       <c r="D13" s="8"/>
       <c r="E13" s="16"/>
       <c r="F13" s="8"/>
-      <c r="G13" s="58">
+      <c r="G13" s="67">
         <f>G7+2</f>
-        <v>42878</v>
-      </c>
-      <c r="H13" s="59"/>
-      <c r="I13" s="64"/>
-      <c r="J13" s="65"/>
+        <v>42885</v>
+      </c>
+      <c r="H13" s="68"/>
+      <c r="I13" s="69"/>
+      <c r="J13" s="70"/>
     </row>
     <row r="14" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="8"/>
@@ -1502,10 +1484,10 @@
       <c r="D14" s="8"/>
       <c r="E14" s="17"/>
       <c r="F14" s="8"/>
-      <c r="G14" s="60"/>
-      <c r="H14" s="61"/>
-      <c r="I14" s="52"/>
-      <c r="J14" s="53"/>
+      <c r="G14" s="41"/>
+      <c r="H14" s="42"/>
+      <c r="I14" s="47"/>
+      <c r="J14" s="48"/>
     </row>
     <row r="15" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="8"/>
@@ -1517,10 +1499,10 @@
       <c r="D15" s="8"/>
       <c r="E15" s="16"/>
       <c r="F15" s="8"/>
-      <c r="G15" s="62"/>
-      <c r="H15" s="63"/>
-      <c r="I15" s="66"/>
-      <c r="J15" s="67"/>
+      <c r="G15" s="43"/>
+      <c r="H15" s="44"/>
+      <c r="I15" s="49"/>
+      <c r="J15" s="50"/>
     </row>
     <row r="16" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="8"/>
@@ -1532,13 +1514,13 @@
       <c r="D16" s="8"/>
       <c r="E16" s="17"/>
       <c r="F16" s="8"/>
-      <c r="G16" s="46">
+      <c r="G16" s="57">
         <f>G7+3</f>
-        <v>42879</v>
-      </c>
-      <c r="H16" s="47"/>
-      <c r="I16" s="68"/>
-      <c r="J16" s="69"/>
+        <v>42886</v>
+      </c>
+      <c r="H16" s="58"/>
+      <c r="I16" s="63"/>
+      <c r="J16" s="64"/>
     </row>
     <row r="17" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="8"/>
@@ -1550,10 +1532,10 @@
       <c r="D17" s="8"/>
       <c r="E17" s="16"/>
       <c r="F17" s="8"/>
-      <c r="G17" s="48"/>
-      <c r="H17" s="49"/>
-      <c r="I17" s="54"/>
-      <c r="J17" s="55"/>
+      <c r="G17" s="59"/>
+      <c r="H17" s="60"/>
+      <c r="I17" s="45"/>
+      <c r="J17" s="46"/>
     </row>
     <row r="18" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="8"/>
@@ -1565,10 +1547,10 @@
       <c r="D18" s="8"/>
       <c r="E18" s="17"/>
       <c r="F18" s="8"/>
-      <c r="G18" s="50"/>
-      <c r="H18" s="51"/>
-      <c r="I18" s="56"/>
-      <c r="J18" s="57"/>
+      <c r="G18" s="61"/>
+      <c r="H18" s="62"/>
+      <c r="I18" s="65"/>
+      <c r="J18" s="66"/>
     </row>
     <row r="19" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="8"/>
@@ -1580,13 +1562,13 @@
       <c r="D19" s="8"/>
       <c r="E19" s="16"/>
       <c r="F19" s="8"/>
-      <c r="G19" s="58">
+      <c r="G19" s="67">
         <f>G7+4</f>
-        <v>42880</v>
-      </c>
-      <c r="H19" s="59"/>
-      <c r="I19" s="64"/>
-      <c r="J19" s="65"/>
+        <v>42887</v>
+      </c>
+      <c r="H19" s="68"/>
+      <c r="I19" s="69"/>
+      <c r="J19" s="70"/>
     </row>
     <row r="20" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="8"/>
@@ -1598,10 +1580,10 @@
       <c r="D20" s="8"/>
       <c r="E20" s="17"/>
       <c r="F20" s="8"/>
-      <c r="G20" s="60"/>
-      <c r="H20" s="61"/>
-      <c r="I20" s="52"/>
-      <c r="J20" s="53"/>
+      <c r="G20" s="41"/>
+      <c r="H20" s="42"/>
+      <c r="I20" s="47"/>
+      <c r="J20" s="48"/>
     </row>
     <row r="21" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="8"/>
@@ -1613,10 +1595,10 @@
       <c r="D21" s="8"/>
       <c r="E21" s="16"/>
       <c r="F21" s="8"/>
-      <c r="G21" s="62"/>
-      <c r="H21" s="63"/>
-      <c r="I21" s="66"/>
-      <c r="J21" s="67"/>
+      <c r="G21" s="43"/>
+      <c r="H21" s="44"/>
+      <c r="I21" s="49"/>
+      <c r="J21" s="50"/>
     </row>
     <row r="22" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="8"/>
@@ -1628,13 +1610,13 @@
       <c r="D22" s="8"/>
       <c r="E22" s="17"/>
       <c r="F22" s="8"/>
-      <c r="G22" s="46">
+      <c r="G22" s="57">
         <f>G7+5</f>
-        <v>42881</v>
-      </c>
-      <c r="H22" s="47"/>
-      <c r="I22" s="52"/>
-      <c r="J22" s="53"/>
+        <v>42888</v>
+      </c>
+      <c r="H22" s="58"/>
+      <c r="I22" s="47"/>
+      <c r="J22" s="48"/>
     </row>
     <row r="23" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="8"/>
@@ -1646,10 +1628,10 @@
       <c r="D23" s="8"/>
       <c r="E23" s="16"/>
       <c r="F23" s="8"/>
-      <c r="G23" s="48"/>
-      <c r="H23" s="49"/>
-      <c r="I23" s="54"/>
-      <c r="J23" s="55"/>
+      <c r="G23" s="59"/>
+      <c r="H23" s="60"/>
+      <c r="I23" s="45"/>
+      <c r="J23" s="46"/>
     </row>
     <row r="24" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="8"/>
@@ -1661,10 +1643,10 @@
       <c r="D24" s="8"/>
       <c r="E24" s="17"/>
       <c r="F24" s="8"/>
-      <c r="G24" s="50"/>
-      <c r="H24" s="51"/>
-      <c r="I24" s="56"/>
-      <c r="J24" s="57"/>
+      <c r="G24" s="61"/>
+      <c r="H24" s="62"/>
+      <c r="I24" s="65"/>
+      <c r="J24" s="66"/>
     </row>
     <row r="25" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="8"/>
@@ -1676,13 +1658,13 @@
       <c r="D25" s="8"/>
       <c r="E25" s="16"/>
       <c r="F25" s="8"/>
-      <c r="G25" s="58">
+      <c r="G25" s="67">
         <f>G7+6</f>
-        <v>42882</v>
-      </c>
-      <c r="H25" s="59"/>
-      <c r="I25" s="64"/>
-      <c r="J25" s="65"/>
+        <v>42889</v>
+      </c>
+      <c r="H25" s="68"/>
+      <c r="I25" s="69"/>
+      <c r="J25" s="70"/>
     </row>
     <row r="26" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="8"/>
@@ -1694,10 +1676,10 @@
       <c r="D26" s="8"/>
       <c r="E26" s="17"/>
       <c r="F26" s="8"/>
-      <c r="G26" s="60"/>
-      <c r="H26" s="61"/>
-      <c r="I26" s="52"/>
-      <c r="J26" s="53"/>
+      <c r="G26" s="41"/>
+      <c r="H26" s="42"/>
+      <c r="I26" s="47"/>
+      <c r="J26" s="48"/>
     </row>
     <row r="27" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="8"/>
@@ -1709,10 +1691,10 @@
       <c r="D27" s="8"/>
       <c r="E27" s="16"/>
       <c r="F27" s="8"/>
-      <c r="G27" s="62"/>
-      <c r="H27" s="63"/>
-      <c r="I27" s="66"/>
-      <c r="J27" s="67"/>
+      <c r="G27" s="43"/>
+      <c r="H27" s="44"/>
+      <c r="I27" s="49"/>
+      <c r="J27" s="50"/>
     </row>
     <row r="28" spans="1:10" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A28" s="8"/>
@@ -1739,12 +1721,12 @@
       <c r="D29" s="8"/>
       <c r="E29" s="16"/>
       <c r="F29" s="8"/>
-      <c r="G29" s="37" t="s">
+      <c r="G29" s="71" t="s">
         <v>26</v>
       </c>
-      <c r="H29" s="38"/>
-      <c r="I29" s="38"/>
-      <c r="J29" s="39"/>
+      <c r="H29" s="72"/>
+      <c r="I29" s="72"/>
+      <c r="J29" s="73"/>
     </row>
     <row r="30" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30" s="8"/>
@@ -1756,10 +1738,10 @@
       <c r="D30" s="8"/>
       <c r="E30" s="17"/>
       <c r="F30" s="8"/>
-      <c r="G30" s="40"/>
-      <c r="H30" s="41"/>
-      <c r="I30" s="41"/>
-      <c r="J30" s="42"/>
+      <c r="G30" s="74"/>
+      <c r="H30" s="75"/>
+      <c r="I30" s="75"/>
+      <c r="J30" s="76"/>
     </row>
     <row r="31" spans="1:10" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A31" s="8"/>
@@ -1771,10 +1753,10 @@
       <c r="D31" s="8"/>
       <c r="E31" s="16"/>
       <c r="F31" s="8"/>
-      <c r="G31" s="43"/>
-      <c r="H31" s="44"/>
-      <c r="I31" s="44"/>
-      <c r="J31" s="45"/>
+      <c r="G31" s="77"/>
+      <c r="H31" s="78"/>
+      <c r="I31" s="78"/>
+      <c r="J31" s="79"/>
     </row>
     <row r="32" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A32" s="8"/>
@@ -1898,6 +1880,31 @@
     </row>
   </sheetData>
   <mergeCells count="34">
+    <mergeCell ref="G29:J31"/>
+    <mergeCell ref="G22:H24"/>
+    <mergeCell ref="I22:J22"/>
+    <mergeCell ref="I23:J23"/>
+    <mergeCell ref="I24:J24"/>
+    <mergeCell ref="G25:H27"/>
+    <mergeCell ref="I25:J25"/>
+    <mergeCell ref="I26:J26"/>
+    <mergeCell ref="I27:J27"/>
+    <mergeCell ref="G16:H18"/>
+    <mergeCell ref="I16:J16"/>
+    <mergeCell ref="I17:J17"/>
+    <mergeCell ref="I18:J18"/>
+    <mergeCell ref="G19:H21"/>
+    <mergeCell ref="I19:J19"/>
+    <mergeCell ref="I20:J20"/>
+    <mergeCell ref="I21:J21"/>
+    <mergeCell ref="G10:H12"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="G13:H15"/>
+    <mergeCell ref="I13:J13"/>
+    <mergeCell ref="I14:J14"/>
+    <mergeCell ref="I15:J15"/>
     <mergeCell ref="B2:C3"/>
     <mergeCell ref="B5:B6"/>
     <mergeCell ref="E5:E6"/>
@@ -1907,31 +1914,6 @@
     <mergeCell ref="I9:J9"/>
     <mergeCell ref="G5:J5"/>
     <mergeCell ref="G6:J6"/>
-    <mergeCell ref="G10:H12"/>
-    <mergeCell ref="I10:J10"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="I12:J12"/>
-    <mergeCell ref="G13:H15"/>
-    <mergeCell ref="I13:J13"/>
-    <mergeCell ref="I14:J14"/>
-    <mergeCell ref="I15:J15"/>
-    <mergeCell ref="G16:H18"/>
-    <mergeCell ref="I16:J16"/>
-    <mergeCell ref="I17:J17"/>
-    <mergeCell ref="I18:J18"/>
-    <mergeCell ref="G19:H21"/>
-    <mergeCell ref="I19:J19"/>
-    <mergeCell ref="I20:J20"/>
-    <mergeCell ref="I21:J21"/>
-    <mergeCell ref="G29:J31"/>
-    <mergeCell ref="G22:H24"/>
-    <mergeCell ref="I22:J22"/>
-    <mergeCell ref="I23:J23"/>
-    <mergeCell ref="I24:J24"/>
-    <mergeCell ref="G25:H27"/>
-    <mergeCell ref="I25:J25"/>
-    <mergeCell ref="I26:J26"/>
-    <mergeCell ref="I27:J27"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="G29" r:id="rId1"/>
@@ -1980,8 +1962,8 @@
   </sheetPr>
   <dimension ref="A1:J39"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A14" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="80" workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A10" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="80" workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.69140625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -2013,10 +1995,10 @@
     </row>
     <row r="2" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.65">
       <c r="A2" s="8"/>
-      <c r="B2" s="70" t="s">
+      <c r="B2" s="38" t="s">
         <v>25</v>
       </c>
-      <c r="C2" s="70"/>
+      <c r="C2" s="38"/>
       <c r="D2" s="9"/>
       <c r="E2" s="12" t="s">
         <v>13</v>
@@ -2033,12 +2015,12 @@
     </row>
     <row r="3" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.65">
       <c r="A3" s="8"/>
-      <c r="B3" s="70"/>
-      <c r="C3" s="70"/>
+      <c r="B3" s="38"/>
+      <c r="C3" s="38"/>
       <c r="D3" s="9"/>
       <c r="E3" s="13">
         <f>'Daily Schedule SUN'!E3</f>
-        <v>42876</v>
+        <v>42883</v>
       </c>
       <c r="F3" s="9"/>
       <c r="G3" s="14">
@@ -2067,38 +2049,38 @@
     </row>
     <row r="5" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="8"/>
-      <c r="B5" s="81" t="s">
+      <c r="B5" s="80" t="s">
         <v>0</v>
       </c>
       <c r="C5" s="31" t="s">
         <v>16</v>
       </c>
       <c r="D5" s="8"/>
-      <c r="E5" s="72" t="s">
+      <c r="E5" s="40" t="s">
         <v>14</v>
       </c>
       <c r="F5" s="8"/>
-      <c r="G5" s="79" t="s">
+      <c r="G5" s="81" t="s">
         <v>15</v>
       </c>
-      <c r="H5" s="80"/>
-      <c r="I5" s="79"/>
-      <c r="J5" s="79"/>
+      <c r="H5" s="82"/>
+      <c r="I5" s="81"/>
+      <c r="J5" s="81"/>
     </row>
     <row r="6" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="8"/>
-      <c r="B6" s="81"/>
+      <c r="B6" s="80"/>
       <c r="C6" s="32">
         <f>E3+1</f>
-        <v>42877</v>
+        <v>42884</v>
       </c>
       <c r="D6" s="8"/>
-      <c r="E6" s="72"/>
+      <c r="E6" s="40"/>
       <c r="F6" s="8"/>
-      <c r="G6" s="79"/>
-      <c r="H6" s="79"/>
-      <c r="I6" s="79"/>
-      <c r="J6" s="79"/>
+      <c r="G6" s="81"/>
+      <c r="H6" s="81"/>
+      <c r="I6" s="81"/>
+      <c r="J6" s="81"/>
     </row>
     <row r="7" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="8"/>
@@ -2110,16 +2092,16 @@
       <c r="D7" s="8"/>
       <c r="E7" s="16"/>
       <c r="F7" s="8"/>
-      <c r="G7" s="58">
+      <c r="G7" s="67">
         <f>E3</f>
-        <v>42876</v>
-      </c>
-      <c r="H7" s="59"/>
-      <c r="I7" s="64">
+        <v>42883</v>
+      </c>
+      <c r="H7" s="68"/>
+      <c r="I7" s="69">
         <f>'Daily Schedule SUN'!I7:J7</f>
         <v>0</v>
       </c>
-      <c r="J7" s="65"/>
+      <c r="J7" s="70"/>
     </row>
     <row r="8" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="8"/>
@@ -2131,13 +2113,13 @@
       <c r="D8" s="8"/>
       <c r="E8" s="17"/>
       <c r="F8" s="8"/>
-      <c r="G8" s="60"/>
-      <c r="H8" s="61"/>
-      <c r="I8" s="52">
+      <c r="G8" s="41"/>
+      <c r="H8" s="42"/>
+      <c r="I8" s="47">
         <f>'Daily Schedule SUN'!I8:J8</f>
         <v>0</v>
       </c>
-      <c r="J8" s="53"/>
+      <c r="J8" s="48"/>
     </row>
     <row r="9" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="8"/>
@@ -2149,13 +2131,13 @@
       <c r="D9" s="8"/>
       <c r="E9" s="16"/>
       <c r="F9" s="8"/>
-      <c r="G9" s="62"/>
-      <c r="H9" s="63"/>
-      <c r="I9" s="66">
+      <c r="G9" s="43"/>
+      <c r="H9" s="44"/>
+      <c r="I9" s="49">
         <f>'Daily Schedule SUN'!I9:J9</f>
         <v>0</v>
       </c>
-      <c r="J9" s="67"/>
+      <c r="J9" s="50"/>
     </row>
     <row r="10" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="8"/>
@@ -2167,16 +2149,16 @@
       <c r="D10" s="8"/>
       <c r="E10" s="17"/>
       <c r="F10" s="8"/>
-      <c r="G10" s="46">
+      <c r="G10" s="57">
         <f>G7+1</f>
-        <v>42877</v>
-      </c>
-      <c r="H10" s="47"/>
-      <c r="I10" s="68">
+        <v>42884</v>
+      </c>
+      <c r="H10" s="58"/>
+      <c r="I10" s="63">
         <f>'Daily Schedule SUN'!I10:J10</f>
         <v>0</v>
       </c>
-      <c r="J10" s="69"/>
+      <c r="J10" s="64"/>
     </row>
     <row r="11" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="8"/>
@@ -2188,13 +2170,13 @@
       <c r="D11" s="8"/>
       <c r="E11" s="16"/>
       <c r="F11" s="8"/>
-      <c r="G11" s="48"/>
-      <c r="H11" s="49"/>
-      <c r="I11" s="54">
+      <c r="G11" s="59"/>
+      <c r="H11" s="60"/>
+      <c r="I11" s="45">
         <f>'Daily Schedule SUN'!I11:J11</f>
         <v>0</v>
       </c>
-      <c r="J11" s="55"/>
+      <c r="J11" s="46"/>
     </row>
     <row r="12" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="8"/>
@@ -2206,13 +2188,13 @@
       <c r="D12" s="8"/>
       <c r="E12" s="17"/>
       <c r="F12" s="8"/>
-      <c r="G12" s="50"/>
-      <c r="H12" s="51"/>
-      <c r="I12" s="56">
+      <c r="G12" s="61"/>
+      <c r="H12" s="62"/>
+      <c r="I12" s="65">
         <f>'Daily Schedule SUN'!I12:J12</f>
         <v>0</v>
       </c>
-      <c r="J12" s="57"/>
+      <c r="J12" s="66"/>
     </row>
     <row r="13" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="8"/>
@@ -2220,20 +2202,22 @@
         <f t="shared" si="0"/>
         <v>0.41666666666666657</v>
       </c>
-      <c r="C13" s="30"/>
+      <c r="C13" s="30" t="s">
+        <v>29</v>
+      </c>
       <c r="D13" s="8"/>
       <c r="E13" s="16"/>
       <c r="F13" s="8"/>
-      <c r="G13" s="58">
+      <c r="G13" s="67">
         <f>G7+2</f>
-        <v>42878</v>
-      </c>
-      <c r="H13" s="59"/>
-      <c r="I13" s="64">
+        <v>42885</v>
+      </c>
+      <c r="H13" s="68"/>
+      <c r="I13" s="69">
         <f>'Daily Schedule SUN'!I13:J13</f>
         <v>0</v>
       </c>
-      <c r="J13" s="65"/>
+      <c r="J13" s="70"/>
     </row>
     <row r="14" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="8"/>
@@ -2241,17 +2225,19 @@
         <f t="shared" si="0"/>
         <v>0.43749999999999989</v>
       </c>
-      <c r="C14" s="29"/>
+      <c r="C14" s="29" t="s">
+        <v>29</v>
+      </c>
       <c r="D14" s="8"/>
       <c r="E14" s="17"/>
       <c r="F14" s="8"/>
-      <c r="G14" s="60"/>
-      <c r="H14" s="61"/>
-      <c r="I14" s="52">
+      <c r="G14" s="41"/>
+      <c r="H14" s="42"/>
+      <c r="I14" s="47">
         <f>'Daily Schedule SUN'!I14:J14</f>
         <v>0</v>
       </c>
-      <c r="J14" s="53"/>
+      <c r="J14" s="48"/>
     </row>
     <row r="15" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="8"/>
@@ -2260,18 +2246,20 @@
         <v>0.4583333333333332</v>
       </c>
       <c r="C15" s="30" t="s">
+        <v>29</v>
+      </c>
+      <c r="D15" s="8"/>
+      <c r="E15" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="D15" s="8"/>
-      <c r="E15" s="16"/>
       <c r="F15" s="8"/>
-      <c r="G15" s="62"/>
-      <c r="H15" s="63"/>
-      <c r="I15" s="66">
+      <c r="G15" s="43"/>
+      <c r="H15" s="44"/>
+      <c r="I15" s="49">
         <f>'Daily Schedule SUN'!I15:J15</f>
         <v>0</v>
       </c>
-      <c r="J15" s="67"/>
+      <c r="J15" s="50"/>
     </row>
     <row r="16" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="8"/>
@@ -2280,23 +2268,21 @@
         <v>0.47916666666666652</v>
       </c>
       <c r="C16" s="29" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D16" s="8"/>
-      <c r="E16" s="17" t="s">
-        <v>31</v>
-      </c>
+      <c r="E16" s="17"/>
       <c r="F16" s="8"/>
-      <c r="G16" s="46">
+      <c r="G16" s="57">
         <f>G7+3</f>
-        <v>42879</v>
-      </c>
-      <c r="H16" s="47"/>
-      <c r="I16" s="68">
+        <v>42886</v>
+      </c>
+      <c r="H16" s="58"/>
+      <c r="I16" s="63">
         <f>'Daily Schedule SUN'!I16:J16</f>
         <v>0</v>
       </c>
-      <c r="J16" s="69"/>
+      <c r="J16" s="64"/>
     </row>
     <row r="17" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="8"/>
@@ -2305,18 +2291,18 @@
         <v>0.49999999999999983</v>
       </c>
       <c r="C17" s="30" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="36"/>
       <c r="F17" s="8"/>
-      <c r="G17" s="48"/>
-      <c r="H17" s="49"/>
-      <c r="I17" s="54">
+      <c r="G17" s="59"/>
+      <c r="H17" s="60"/>
+      <c r="I17" s="45">
         <f>'Daily Schedule SUN'!I17:J17</f>
         <v>0</v>
       </c>
-      <c r="J17" s="55"/>
+      <c r="J17" s="46"/>
     </row>
     <row r="18" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="8"/>
@@ -2325,18 +2311,20 @@
         <v>0.52083333333333315</v>
       </c>
       <c r="C18" s="29" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D18" s="8"/>
-      <c r="E18" s="17"/>
+      <c r="E18" s="17" t="s">
+        <v>28</v>
+      </c>
       <c r="F18" s="8"/>
-      <c r="G18" s="50"/>
-      <c r="H18" s="51"/>
-      <c r="I18" s="56">
+      <c r="G18" s="61"/>
+      <c r="H18" s="62"/>
+      <c r="I18" s="65">
         <f>'Daily Schedule SUN'!I18:J18</f>
         <v>0</v>
       </c>
-      <c r="J18" s="57"/>
+      <c r="J18" s="66"/>
     </row>
     <row r="19" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="8"/>
@@ -2350,16 +2338,16 @@
       <c r="D19" s="8"/>
       <c r="E19" s="36"/>
       <c r="F19" s="8"/>
-      <c r="G19" s="58">
+      <c r="G19" s="67">
         <f>G7+4</f>
-        <v>42880</v>
-      </c>
-      <c r="H19" s="59"/>
-      <c r="I19" s="64">
+        <v>42887</v>
+      </c>
+      <c r="H19" s="68"/>
+      <c r="I19" s="69">
         <f>'Daily Schedule SUN'!I19:J19</f>
         <v>0</v>
       </c>
-      <c r="J19" s="65"/>
+      <c r="J19" s="70"/>
     </row>
     <row r="20" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="8"/>
@@ -2368,18 +2356,18 @@
         <v>0.56249999999999989</v>
       </c>
       <c r="C20" s="29" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="17"/>
       <c r="F20" s="8"/>
-      <c r="G20" s="60"/>
-      <c r="H20" s="61"/>
-      <c r="I20" s="52">
+      <c r="G20" s="41"/>
+      <c r="H20" s="42"/>
+      <c r="I20" s="47">
         <f>'Daily Schedule SUN'!I20:J20</f>
         <v>0</v>
       </c>
-      <c r="J20" s="53"/>
+      <c r="J20" s="48"/>
     </row>
     <row r="21" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="8"/>
@@ -2388,20 +2376,18 @@
         <v>0.58333333333333326</v>
       </c>
       <c r="C21" s="30" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D21" s="8"/>
-      <c r="E21" s="16" t="s">
-        <v>31</v>
-      </c>
+      <c r="E21" s="16"/>
       <c r="F21" s="8"/>
-      <c r="G21" s="62"/>
-      <c r="H21" s="63"/>
-      <c r="I21" s="66">
+      <c r="G21" s="43"/>
+      <c r="H21" s="44"/>
+      <c r="I21" s="49">
         <f>'Daily Schedule SUN'!I21:J21</f>
         <v>0</v>
       </c>
-      <c r="J21" s="67"/>
+      <c r="J21" s="50"/>
     </row>
     <row r="22" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="8"/>
@@ -2410,21 +2396,21 @@
         <v>0.60416666666666663</v>
       </c>
       <c r="C22" s="29" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="17"/>
       <c r="F22" s="8"/>
-      <c r="G22" s="46">
+      <c r="G22" s="57">
         <f>G7+5</f>
-        <v>42881</v>
-      </c>
-      <c r="H22" s="47"/>
-      <c r="I22" s="68">
+        <v>42888</v>
+      </c>
+      <c r="H22" s="58"/>
+      <c r="I22" s="63">
         <f>'Daily Schedule SUN'!I22:J22</f>
         <v>0</v>
       </c>
-      <c r="J22" s="69"/>
+      <c r="J22" s="64"/>
     </row>
     <row r="23" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="8"/>
@@ -2433,18 +2419,18 @@
         <v>0.625</v>
       </c>
       <c r="C23" s="30" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="16"/>
       <c r="F23" s="8"/>
-      <c r="G23" s="48"/>
-      <c r="H23" s="49"/>
-      <c r="I23" s="54">
+      <c r="G23" s="59"/>
+      <c r="H23" s="60"/>
+      <c r="I23" s="45">
         <f>'Daily Schedule SUN'!I23:J23</f>
         <v>0</v>
       </c>
-      <c r="J23" s="55"/>
+      <c r="J23" s="46"/>
     </row>
     <row r="24" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="8"/>
@@ -2453,18 +2439,18 @@
         <v>0.64583333333333337</v>
       </c>
       <c r="C24" s="29" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="17"/>
       <c r="F24" s="8"/>
-      <c r="G24" s="50"/>
-      <c r="H24" s="51"/>
-      <c r="I24" s="56">
+      <c r="G24" s="61"/>
+      <c r="H24" s="62"/>
+      <c r="I24" s="65">
         <f>'Daily Schedule SUN'!I24:J24</f>
         <v>0</v>
       </c>
-      <c r="J24" s="57"/>
+      <c r="J24" s="66"/>
     </row>
     <row r="25" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="8"/>
@@ -2473,23 +2459,21 @@
         <v>0.66666666666666674</v>
       </c>
       <c r="C25" s="30" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="D25" s="8"/>
-      <c r="E25" s="16" t="s">
-        <v>32</v>
-      </c>
+      <c r="E25" s="16"/>
       <c r="F25" s="8"/>
-      <c r="G25" s="58">
+      <c r="G25" s="67">
         <f>G7+6</f>
-        <v>42882</v>
-      </c>
-      <c r="H25" s="59"/>
-      <c r="I25" s="64">
+        <v>42889</v>
+      </c>
+      <c r="H25" s="68"/>
+      <c r="I25" s="69">
         <f>'Daily Schedule SUN'!I25:J25</f>
         <v>0</v>
       </c>
-      <c r="J25" s="65"/>
+      <c r="J25" s="70"/>
     </row>
     <row r="26" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="8"/>
@@ -2497,19 +2481,21 @@
         <f t="shared" si="0"/>
         <v>0.68750000000000011</v>
       </c>
-      <c r="C26" s="29"/>
+      <c r="C26" s="29" t="s">
+        <v>33</v>
+      </c>
       <c r="D26" s="8"/>
       <c r="E26" s="17" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F26" s="8"/>
-      <c r="G26" s="60"/>
-      <c r="H26" s="61"/>
-      <c r="I26" s="52">
+      <c r="G26" s="41"/>
+      <c r="H26" s="42"/>
+      <c r="I26" s="47">
         <f>'Daily Schedule SUN'!I26:J26</f>
         <v>0</v>
       </c>
-      <c r="J26" s="53"/>
+      <c r="J26" s="48"/>
     </row>
     <row r="27" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="8"/>
@@ -2521,13 +2507,13 @@
       <c r="D27" s="8"/>
       <c r="E27" s="36"/>
       <c r="F27" s="8"/>
-      <c r="G27" s="62"/>
-      <c r="H27" s="63"/>
-      <c r="I27" s="66">
+      <c r="G27" s="43"/>
+      <c r="H27" s="44"/>
+      <c r="I27" s="49">
         <f>'Daily Schedule SUN'!I27:J27</f>
         <v>0</v>
       </c>
-      <c r="J27" s="67"/>
+      <c r="J27" s="50"/>
     </row>
     <row r="28" spans="1:10" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A28" s="8"/>
@@ -2554,12 +2540,12 @@
       <c r="D29" s="8"/>
       <c r="E29" s="16"/>
       <c r="F29" s="8"/>
-      <c r="G29" s="37" t="s">
+      <c r="G29" s="71" t="s">
         <v>26</v>
       </c>
-      <c r="H29" s="38"/>
-      <c r="I29" s="38"/>
-      <c r="J29" s="39"/>
+      <c r="H29" s="72"/>
+      <c r="I29" s="72"/>
+      <c r="J29" s="73"/>
     </row>
     <row r="30" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30" s="8"/>
@@ -2571,10 +2557,10 @@
       <c r="D30" s="8"/>
       <c r="E30" s="17"/>
       <c r="F30" s="8"/>
-      <c r="G30" s="40"/>
-      <c r="H30" s="41"/>
-      <c r="I30" s="41"/>
-      <c r="J30" s="42"/>
+      <c r="G30" s="74"/>
+      <c r="H30" s="75"/>
+      <c r="I30" s="75"/>
+      <c r="J30" s="76"/>
     </row>
     <row r="31" spans="1:10" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A31" s="8"/>
@@ -2586,10 +2572,10 @@
       <c r="D31" s="8"/>
       <c r="E31" s="36"/>
       <c r="F31" s="8"/>
-      <c r="G31" s="43"/>
-      <c r="H31" s="44"/>
-      <c r="I31" s="44"/>
-      <c r="J31" s="45"/>
+      <c r="G31" s="77"/>
+      <c r="H31" s="78"/>
+      <c r="I31" s="78"/>
+      <c r="J31" s="79"/>
     </row>
     <row r="32" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A32" s="8"/>
@@ -2713,23 +2699,6 @@
     </row>
   </sheetData>
   <mergeCells count="33">
-    <mergeCell ref="I15:J15"/>
-    <mergeCell ref="I10:J10"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="I12:J12"/>
-    <mergeCell ref="I13:J13"/>
-    <mergeCell ref="I14:J14"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="I7:J7"/>
-    <mergeCell ref="I8:J8"/>
-    <mergeCell ref="I9:J9"/>
-    <mergeCell ref="I25:J25"/>
-    <mergeCell ref="I16:J16"/>
-    <mergeCell ref="I17:J17"/>
-    <mergeCell ref="I18:J18"/>
-    <mergeCell ref="I19:J19"/>
-    <mergeCell ref="I20:J20"/>
     <mergeCell ref="G29:J31"/>
     <mergeCell ref="I26:J26"/>
     <mergeCell ref="I27:J27"/>
@@ -2746,6 +2715,23 @@
     <mergeCell ref="I22:J22"/>
     <mergeCell ref="I23:J23"/>
     <mergeCell ref="I24:J24"/>
+    <mergeCell ref="I25:J25"/>
+    <mergeCell ref="I16:J16"/>
+    <mergeCell ref="I17:J17"/>
+    <mergeCell ref="I18:J18"/>
+    <mergeCell ref="I19:J19"/>
+    <mergeCell ref="I20:J20"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="I8:J8"/>
+    <mergeCell ref="I9:J9"/>
+    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="I13:J13"/>
+    <mergeCell ref="I14:J14"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="G29" r:id="rId1"/>
@@ -2794,8 +2780,8 @@
   </sheetPr>
   <dimension ref="A1:J39"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A13" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="80" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView showGridLines="0" topLeftCell="A10" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="80" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.69140625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -2827,10 +2813,10 @@
     </row>
     <row r="2" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.65">
       <c r="A2" s="8"/>
-      <c r="B2" s="70" t="s">
+      <c r="B2" s="38" t="s">
         <v>25</v>
       </c>
-      <c r="C2" s="70"/>
+      <c r="C2" s="38"/>
       <c r="D2" s="9"/>
       <c r="E2" s="12" t="s">
         <v>13</v>
@@ -2847,12 +2833,12 @@
     </row>
     <row r="3" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.65">
       <c r="A3" s="8"/>
-      <c r="B3" s="70"/>
-      <c r="C3" s="70"/>
+      <c r="B3" s="38"/>
+      <c r="C3" s="38"/>
       <c r="D3" s="9"/>
       <c r="E3" s="13">
         <f>'Daily Schedule SUN'!E3</f>
-        <v>42876</v>
+        <v>42883</v>
       </c>
       <c r="F3" s="9"/>
       <c r="G3" s="14">
@@ -2881,38 +2867,38 @@
     </row>
     <row r="5" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="8"/>
-      <c r="B5" s="71" t="s">
+      <c r="B5" s="39" t="s">
         <v>0</v>
       </c>
       <c r="C5" s="23" t="s">
         <v>18</v>
       </c>
       <c r="D5" s="8"/>
-      <c r="E5" s="72" t="s">
+      <c r="E5" s="40" t="s">
         <v>14</v>
       </c>
       <c r="F5" s="8"/>
-      <c r="G5" s="79" t="s">
+      <c r="G5" s="81" t="s">
         <v>15</v>
       </c>
-      <c r="H5" s="80"/>
-      <c r="I5" s="79"/>
-      <c r="J5" s="79"/>
+      <c r="H5" s="82"/>
+      <c r="I5" s="81"/>
+      <c r="J5" s="81"/>
     </row>
     <row r="6" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="8"/>
-      <c r="B6" s="71"/>
+      <c r="B6" s="39"/>
       <c r="C6" s="24">
         <f>E3+2</f>
-        <v>42878</v>
+        <v>42885</v>
       </c>
       <c r="D6" s="8"/>
-      <c r="E6" s="72"/>
+      <c r="E6" s="40"/>
       <c r="F6" s="8"/>
-      <c r="G6" s="79"/>
-      <c r="H6" s="79"/>
-      <c r="I6" s="79"/>
-      <c r="J6" s="79"/>
+      <c r="G6" s="81"/>
+      <c r="H6" s="81"/>
+      <c r="I6" s="81"/>
+      <c r="J6" s="81"/>
     </row>
     <row r="7" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="8"/>
@@ -2924,16 +2910,16 @@
       <c r="D7" s="8"/>
       <c r="E7" s="16"/>
       <c r="F7" s="8"/>
-      <c r="G7" s="58">
+      <c r="G7" s="67">
         <f>E3</f>
-        <v>42876</v>
-      </c>
-      <c r="H7" s="59"/>
-      <c r="I7" s="64">
+        <v>42883</v>
+      </c>
+      <c r="H7" s="68"/>
+      <c r="I7" s="69">
         <f>'Daily Schedule SUN'!I7:J7</f>
         <v>0</v>
       </c>
-      <c r="J7" s="65"/>
+      <c r="J7" s="70"/>
     </row>
     <row r="8" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="8"/>
@@ -2945,13 +2931,13 @@
       <c r="D8" s="8"/>
       <c r="E8" s="17"/>
       <c r="F8" s="8"/>
-      <c r="G8" s="60"/>
-      <c r="H8" s="61"/>
-      <c r="I8" s="52">
+      <c r="G8" s="41"/>
+      <c r="H8" s="42"/>
+      <c r="I8" s="47">
         <f>'Daily Schedule SUN'!I8:J8</f>
         <v>0</v>
       </c>
-      <c r="J8" s="53"/>
+      <c r="J8" s="48"/>
     </row>
     <row r="9" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="8"/>
@@ -2963,13 +2949,13 @@
       <c r="D9" s="8"/>
       <c r="E9" s="16"/>
       <c r="F9" s="8"/>
-      <c r="G9" s="62"/>
-      <c r="H9" s="63"/>
-      <c r="I9" s="66">
+      <c r="G9" s="43"/>
+      <c r="H9" s="44"/>
+      <c r="I9" s="49">
         <f>'Daily Schedule SUN'!I9:J9</f>
         <v>0</v>
       </c>
-      <c r="J9" s="67"/>
+      <c r="J9" s="50"/>
     </row>
     <row r="10" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="8"/>
@@ -2981,16 +2967,16 @@
       <c r="D10" s="8"/>
       <c r="E10" s="17"/>
       <c r="F10" s="8"/>
-      <c r="G10" s="46">
+      <c r="G10" s="57">
         <f>G7+1</f>
-        <v>42877</v>
-      </c>
-      <c r="H10" s="47"/>
-      <c r="I10" s="68">
+        <v>42884</v>
+      </c>
+      <c r="H10" s="58"/>
+      <c r="I10" s="63">
         <f>'Daily Schedule SUN'!I10:J10</f>
         <v>0</v>
       </c>
-      <c r="J10" s="69"/>
+      <c r="J10" s="64"/>
     </row>
     <row r="11" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="8"/>
@@ -3002,13 +2988,13 @@
       <c r="D11" s="8"/>
       <c r="E11" s="16"/>
       <c r="F11" s="8"/>
-      <c r="G11" s="48"/>
-      <c r="H11" s="49"/>
-      <c r="I11" s="54">
+      <c r="G11" s="59"/>
+      <c r="H11" s="60"/>
+      <c r="I11" s="45">
         <f>'Daily Schedule SUN'!I11:J11</f>
         <v>0</v>
       </c>
-      <c r="J11" s="55"/>
+      <c r="J11" s="46"/>
     </row>
     <row r="12" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="8"/>
@@ -3020,13 +3006,13 @@
       <c r="D12" s="8"/>
       <c r="E12" s="17"/>
       <c r="F12" s="8"/>
-      <c r="G12" s="50"/>
-      <c r="H12" s="51"/>
-      <c r="I12" s="56">
+      <c r="G12" s="61"/>
+      <c r="H12" s="62"/>
+      <c r="I12" s="65">
         <f>'Daily Schedule SUN'!I12:J12</f>
         <v>0</v>
       </c>
-      <c r="J12" s="57"/>
+      <c r="J12" s="66"/>
     </row>
     <row r="13" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="8"/>
@@ -3038,16 +3024,16 @@
       <c r="D13" s="8"/>
       <c r="E13" s="16"/>
       <c r="F13" s="8"/>
-      <c r="G13" s="58">
+      <c r="G13" s="67">
         <f>G7+2</f>
-        <v>42878</v>
-      </c>
-      <c r="H13" s="59"/>
-      <c r="I13" s="64">
+        <v>42885</v>
+      </c>
+      <c r="H13" s="68"/>
+      <c r="I13" s="69">
         <f>'Daily Schedule SUN'!I13:J13</f>
         <v>0</v>
       </c>
-      <c r="J13" s="65"/>
+      <c r="J13" s="70"/>
     </row>
     <row r="14" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="8"/>
@@ -3059,13 +3045,13 @@
       <c r="D14" s="8"/>
       <c r="E14" s="17"/>
       <c r="F14" s="8"/>
-      <c r="G14" s="60"/>
-      <c r="H14" s="61"/>
-      <c r="I14" s="52">
+      <c r="G14" s="41"/>
+      <c r="H14" s="42"/>
+      <c r="I14" s="47">
         <f>'Daily Schedule SUN'!I14:J14</f>
         <v>0</v>
       </c>
-      <c r="J14" s="53"/>
+      <c r="J14" s="48"/>
     </row>
     <row r="15" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="8"/>
@@ -3073,21 +3059,17 @@
         <f t="shared" si="0"/>
         <v>0.4583333333333332</v>
       </c>
-      <c r="C15" s="30" t="s">
-        <v>34</v>
-      </c>
+      <c r="C15" s="30"/>
       <c r="D15" s="8"/>
-      <c r="E15" s="16" t="s">
-        <v>31</v>
-      </c>
+      <c r="E15" s="16"/>
       <c r="F15" s="8"/>
-      <c r="G15" s="62"/>
-      <c r="H15" s="63"/>
-      <c r="I15" s="66">
+      <c r="G15" s="43"/>
+      <c r="H15" s="44"/>
+      <c r="I15" s="49">
         <f>'Daily Schedule SUN'!I15:J15</f>
         <v>0</v>
       </c>
-      <c r="J15" s="67"/>
+      <c r="J15" s="50"/>
     </row>
     <row r="16" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="8"/>
@@ -3099,16 +3081,16 @@
       <c r="D16" s="8"/>
       <c r="E16" s="17"/>
       <c r="F16" s="8"/>
-      <c r="G16" s="46">
+      <c r="G16" s="57">
         <f>G7+3</f>
-        <v>42879</v>
-      </c>
-      <c r="H16" s="47"/>
-      <c r="I16" s="68">
+        <v>42886</v>
+      </c>
+      <c r="H16" s="58"/>
+      <c r="I16" s="63">
         <f>'Daily Schedule SUN'!I16:J16</f>
         <v>0</v>
       </c>
-      <c r="J16" s="69"/>
+      <c r="J16" s="64"/>
     </row>
     <row r="17" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="8"/>
@@ -3120,13 +3102,13 @@
       <c r="D17" s="8"/>
       <c r="E17" s="16"/>
       <c r="F17" s="8"/>
-      <c r="G17" s="48"/>
-      <c r="H17" s="49"/>
-      <c r="I17" s="54">
+      <c r="G17" s="59"/>
+      <c r="H17" s="60"/>
+      <c r="I17" s="45">
         <f>'Daily Schedule SUN'!I17:J17</f>
         <v>0</v>
       </c>
-      <c r="J17" s="55"/>
+      <c r="J17" s="46"/>
     </row>
     <row r="18" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="8"/>
@@ -3138,13 +3120,13 @@
       <c r="D18" s="8"/>
       <c r="E18" s="17"/>
       <c r="F18" s="8"/>
-      <c r="G18" s="50"/>
-      <c r="H18" s="51"/>
-      <c r="I18" s="56">
+      <c r="G18" s="61"/>
+      <c r="H18" s="62"/>
+      <c r="I18" s="65">
         <f>'Daily Schedule SUN'!I18:J18</f>
         <v>0</v>
       </c>
-      <c r="J18" s="57"/>
+      <c r="J18" s="66"/>
     </row>
     <row r="19" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="8"/>
@@ -3156,16 +3138,16 @@
       <c r="D19" s="8"/>
       <c r="E19" s="16"/>
       <c r="F19" s="8"/>
-      <c r="G19" s="58">
+      <c r="G19" s="67">
         <f>G7+4</f>
-        <v>42880</v>
-      </c>
-      <c r="H19" s="59"/>
-      <c r="I19" s="64">
+        <v>42887</v>
+      </c>
+      <c r="H19" s="68"/>
+      <c r="I19" s="69">
         <f>'Daily Schedule SUN'!I19:J19</f>
         <v>0</v>
       </c>
-      <c r="J19" s="65"/>
+      <c r="J19" s="70"/>
     </row>
     <row r="20" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="8"/>
@@ -3177,13 +3159,13 @@
       <c r="D20" s="8"/>
       <c r="E20" s="17"/>
       <c r="F20" s="8"/>
-      <c r="G20" s="60"/>
-      <c r="H20" s="61"/>
-      <c r="I20" s="52">
+      <c r="G20" s="41"/>
+      <c r="H20" s="42"/>
+      <c r="I20" s="47">
         <f>'Daily Schedule SUN'!I20:J20</f>
         <v>0</v>
       </c>
-      <c r="J20" s="53"/>
+      <c r="J20" s="48"/>
     </row>
     <row r="21" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="8"/>
@@ -3195,13 +3177,13 @@
       <c r="D21" s="8"/>
       <c r="E21" s="16"/>
       <c r="F21" s="8"/>
-      <c r="G21" s="62"/>
-      <c r="H21" s="63"/>
-      <c r="I21" s="66">
+      <c r="G21" s="43"/>
+      <c r="H21" s="44"/>
+      <c r="I21" s="49">
         <f>'Daily Schedule SUN'!I21:J21</f>
         <v>0</v>
       </c>
-      <c r="J21" s="67"/>
+      <c r="J21" s="50"/>
     </row>
     <row r="22" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="8"/>
@@ -3213,16 +3195,16 @@
       <c r="D22" s="8"/>
       <c r="E22" s="17"/>
       <c r="F22" s="8"/>
-      <c r="G22" s="46">
+      <c r="G22" s="57">
         <f>G7+5</f>
-        <v>42881</v>
-      </c>
-      <c r="H22" s="47"/>
-      <c r="I22" s="68">
+        <v>42888</v>
+      </c>
+      <c r="H22" s="58"/>
+      <c r="I22" s="63">
         <f>'Daily Schedule SUN'!I22:J22</f>
         <v>0</v>
       </c>
-      <c r="J22" s="69"/>
+      <c r="J22" s="64"/>
     </row>
     <row r="23" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="8"/>
@@ -3234,13 +3216,13 @@
       <c r="D23" s="8"/>
       <c r="E23" s="16"/>
       <c r="F23" s="8"/>
-      <c r="G23" s="48"/>
-      <c r="H23" s="49"/>
-      <c r="I23" s="54">
+      <c r="G23" s="59"/>
+      <c r="H23" s="60"/>
+      <c r="I23" s="45">
         <f>'Daily Schedule SUN'!I23:J23</f>
         <v>0</v>
       </c>
-      <c r="J23" s="55"/>
+      <c r="J23" s="46"/>
     </row>
     <row r="24" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="8"/>
@@ -3252,13 +3234,13 @@
       <c r="D24" s="8"/>
       <c r="E24" s="17"/>
       <c r="F24" s="8"/>
-      <c r="G24" s="50"/>
-      <c r="H24" s="51"/>
-      <c r="I24" s="56">
+      <c r="G24" s="61"/>
+      <c r="H24" s="62"/>
+      <c r="I24" s="65">
         <f>'Daily Schedule SUN'!I24:J24</f>
         <v>0</v>
       </c>
-      <c r="J24" s="57"/>
+      <c r="J24" s="66"/>
     </row>
     <row r="25" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="8"/>
@@ -3270,16 +3252,16 @@
       <c r="D25" s="8"/>
       <c r="E25" s="16"/>
       <c r="F25" s="8"/>
-      <c r="G25" s="58">
+      <c r="G25" s="67">
         <f>G7+6</f>
-        <v>42882</v>
-      </c>
-      <c r="H25" s="59"/>
-      <c r="I25" s="64">
+        <v>42889</v>
+      </c>
+      <c r="H25" s="68"/>
+      <c r="I25" s="69">
         <f>'Daily Schedule SUN'!I25:J25</f>
         <v>0</v>
       </c>
-      <c r="J25" s="65"/>
+      <c r="J25" s="70"/>
     </row>
     <row r="26" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="8"/>
@@ -3291,13 +3273,13 @@
       <c r="D26" s="8"/>
       <c r="E26" s="17"/>
       <c r="F26" s="8"/>
-      <c r="G26" s="60"/>
-      <c r="H26" s="61"/>
-      <c r="I26" s="52">
+      <c r="G26" s="41"/>
+      <c r="H26" s="42"/>
+      <c r="I26" s="47">
         <f>'Daily Schedule SUN'!I26:J26</f>
         <v>0</v>
       </c>
-      <c r="J26" s="53"/>
+      <c r="J26" s="48"/>
     </row>
     <row r="27" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="8"/>
@@ -3309,13 +3291,13 @@
       <c r="D27" s="8"/>
       <c r="E27" s="16"/>
       <c r="F27" s="8"/>
-      <c r="G27" s="62"/>
-      <c r="H27" s="63"/>
-      <c r="I27" s="66">
+      <c r="G27" s="43"/>
+      <c r="H27" s="44"/>
+      <c r="I27" s="49">
         <f>'Daily Schedule SUN'!I27:J27</f>
         <v>0</v>
       </c>
-      <c r="J27" s="67"/>
+      <c r="J27" s="50"/>
     </row>
     <row r="28" spans="1:10" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A28" s="8"/>
@@ -3342,12 +3324,12 @@
       <c r="D29" s="8"/>
       <c r="E29" s="16"/>
       <c r="F29" s="8"/>
-      <c r="G29" s="37" t="s">
+      <c r="G29" s="71" t="s">
         <v>26</v>
       </c>
-      <c r="H29" s="38"/>
-      <c r="I29" s="38"/>
-      <c r="J29" s="39"/>
+      <c r="H29" s="72"/>
+      <c r="I29" s="72"/>
+      <c r="J29" s="73"/>
     </row>
     <row r="30" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30" s="8"/>
@@ -3359,10 +3341,10 @@
       <c r="D30" s="8"/>
       <c r="E30" s="17"/>
       <c r="F30" s="8"/>
-      <c r="G30" s="40"/>
-      <c r="H30" s="41"/>
-      <c r="I30" s="41"/>
-      <c r="J30" s="42"/>
+      <c r="G30" s="74"/>
+      <c r="H30" s="75"/>
+      <c r="I30" s="75"/>
+      <c r="J30" s="76"/>
     </row>
     <row r="31" spans="1:10" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A31" s="8"/>
@@ -3374,10 +3356,10 @@
       <c r="D31" s="8"/>
       <c r="E31" s="16"/>
       <c r="F31" s="8"/>
-      <c r="G31" s="43"/>
-      <c r="H31" s="44"/>
-      <c r="I31" s="44"/>
-      <c r="J31" s="45"/>
+      <c r="G31" s="77"/>
+      <c r="H31" s="78"/>
+      <c r="I31" s="78"/>
+      <c r="J31" s="79"/>
     </row>
     <row r="32" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A32" s="8"/>
@@ -3501,30 +3483,6 @@
     </row>
   </sheetData>
   <mergeCells count="33">
-    <mergeCell ref="B2:C3"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="G5:J6"/>
-    <mergeCell ref="G7:H9"/>
-    <mergeCell ref="I7:J7"/>
-    <mergeCell ref="I8:J8"/>
-    <mergeCell ref="I9:J9"/>
-    <mergeCell ref="G10:H12"/>
-    <mergeCell ref="I10:J10"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="I12:J12"/>
-    <mergeCell ref="G13:H15"/>
-    <mergeCell ref="I13:J13"/>
-    <mergeCell ref="I14:J14"/>
-    <mergeCell ref="I15:J15"/>
-    <mergeCell ref="G16:H18"/>
-    <mergeCell ref="I16:J16"/>
-    <mergeCell ref="I17:J17"/>
-    <mergeCell ref="I18:J18"/>
-    <mergeCell ref="G19:H21"/>
-    <mergeCell ref="I19:J19"/>
-    <mergeCell ref="I20:J20"/>
-    <mergeCell ref="I21:J21"/>
     <mergeCell ref="G29:J31"/>
     <mergeCell ref="G22:H24"/>
     <mergeCell ref="I22:J22"/>
@@ -3534,6 +3492,30 @@
     <mergeCell ref="I25:J25"/>
     <mergeCell ref="I26:J26"/>
     <mergeCell ref="I27:J27"/>
+    <mergeCell ref="G16:H18"/>
+    <mergeCell ref="I16:J16"/>
+    <mergeCell ref="I17:J17"/>
+    <mergeCell ref="I18:J18"/>
+    <mergeCell ref="G19:H21"/>
+    <mergeCell ref="I19:J19"/>
+    <mergeCell ref="I20:J20"/>
+    <mergeCell ref="I21:J21"/>
+    <mergeCell ref="G10:H12"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="G13:H15"/>
+    <mergeCell ref="I13:J13"/>
+    <mergeCell ref="I14:J14"/>
+    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="B2:C3"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="G5:J6"/>
+    <mergeCell ref="G7:H9"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="I8:J8"/>
+    <mergeCell ref="I9:J9"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="G29" r:id="rId1"/>
@@ -3582,8 +3564,8 @@
   </sheetPr>
   <dimension ref="A1:J39"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A16" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="80" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+    <sheetView showGridLines="0" topLeftCell="A13" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="80" workbookViewId="0">
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.69140625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -3615,10 +3597,10 @@
     </row>
     <row r="2" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.65">
       <c r="A2" s="8"/>
-      <c r="B2" s="70" t="s">
+      <c r="B2" s="38" t="s">
         <v>25</v>
       </c>
-      <c r="C2" s="70"/>
+      <c r="C2" s="38"/>
       <c r="D2" s="9"/>
       <c r="E2" s="12" t="s">
         <v>13</v>
@@ -3635,12 +3617,12 @@
     </row>
     <row r="3" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.65">
       <c r="A3" s="8"/>
-      <c r="B3" s="70"/>
-      <c r="C3" s="70"/>
+      <c r="B3" s="38"/>
+      <c r="C3" s="38"/>
       <c r="D3" s="9"/>
       <c r="E3" s="13">
         <f>'Daily Schedule SUN'!E3</f>
-        <v>42876</v>
+        <v>42883</v>
       </c>
       <c r="F3" s="9"/>
       <c r="G3" s="14">
@@ -3669,38 +3651,38 @@
     </row>
     <row r="5" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="8"/>
-      <c r="B5" s="71" t="s">
+      <c r="B5" s="39" t="s">
         <v>0</v>
       </c>
       <c r="C5" s="23" t="s">
         <v>19</v>
       </c>
       <c r="D5" s="8"/>
-      <c r="E5" s="72" t="s">
+      <c r="E5" s="40" t="s">
         <v>14</v>
       </c>
       <c r="F5" s="8"/>
-      <c r="G5" s="79" t="s">
+      <c r="G5" s="81" t="s">
         <v>15</v>
       </c>
-      <c r="H5" s="80"/>
-      <c r="I5" s="79"/>
-      <c r="J5" s="79"/>
+      <c r="H5" s="82"/>
+      <c r="I5" s="81"/>
+      <c r="J5" s="81"/>
     </row>
     <row r="6" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="8"/>
-      <c r="B6" s="71"/>
+      <c r="B6" s="39"/>
       <c r="C6" s="24">
         <f>E3+3</f>
-        <v>42879</v>
+        <v>42886</v>
       </c>
       <c r="D6" s="8"/>
-      <c r="E6" s="72"/>
+      <c r="E6" s="40"/>
       <c r="F6" s="8"/>
-      <c r="G6" s="79"/>
-      <c r="H6" s="79"/>
-      <c r="I6" s="79"/>
-      <c r="J6" s="79"/>
+      <c r="G6" s="81"/>
+      <c r="H6" s="81"/>
+      <c r="I6" s="81"/>
+      <c r="J6" s="81"/>
     </row>
     <row r="7" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="8"/>
@@ -3712,16 +3694,16 @@
       <c r="D7" s="8"/>
       <c r="E7" s="16"/>
       <c r="F7" s="8"/>
-      <c r="G7" s="58">
+      <c r="G7" s="67">
         <f>E3</f>
-        <v>42876</v>
-      </c>
-      <c r="H7" s="59"/>
-      <c r="I7" s="64">
+        <v>42883</v>
+      </c>
+      <c r="H7" s="68"/>
+      <c r="I7" s="69">
         <f>'Daily Schedule SUN'!I7:J7</f>
         <v>0</v>
       </c>
-      <c r="J7" s="65"/>
+      <c r="J7" s="70"/>
     </row>
     <row r="8" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="8"/>
@@ -3733,13 +3715,13 @@
       <c r="D8" s="8"/>
       <c r="E8" s="17"/>
       <c r="F8" s="8"/>
-      <c r="G8" s="60"/>
-      <c r="H8" s="61"/>
-      <c r="I8" s="52">
+      <c r="G8" s="41"/>
+      <c r="H8" s="42"/>
+      <c r="I8" s="47">
         <f>'Daily Schedule SUN'!I8:J8</f>
         <v>0</v>
       </c>
-      <c r="J8" s="53"/>
+      <c r="J8" s="48"/>
     </row>
     <row r="9" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="8"/>
@@ -3751,13 +3733,13 @@
       <c r="D9" s="8"/>
       <c r="E9" s="16"/>
       <c r="F9" s="8"/>
-      <c r="G9" s="62"/>
-      <c r="H9" s="63"/>
-      <c r="I9" s="66">
+      <c r="G9" s="43"/>
+      <c r="H9" s="44"/>
+      <c r="I9" s="49">
         <f>'Daily Schedule SUN'!I9:J9</f>
         <v>0</v>
       </c>
-      <c r="J9" s="67"/>
+      <c r="J9" s="50"/>
     </row>
     <row r="10" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="8"/>
@@ -3769,16 +3751,16 @@
       <c r="D10" s="8"/>
       <c r="E10" s="17"/>
       <c r="F10" s="8"/>
-      <c r="G10" s="46">
+      <c r="G10" s="57">
         <f>G7+1</f>
-        <v>42877</v>
-      </c>
-      <c r="H10" s="47"/>
-      <c r="I10" s="68">
+        <v>42884</v>
+      </c>
+      <c r="H10" s="58"/>
+      <c r="I10" s="63">
         <f>'Daily Schedule SUN'!I10:J10</f>
         <v>0</v>
       </c>
-      <c r="J10" s="69"/>
+      <c r="J10" s="64"/>
     </row>
     <row r="11" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="8"/>
@@ -3790,13 +3772,13 @@
       <c r="D11" s="8"/>
       <c r="E11" s="16"/>
       <c r="F11" s="8"/>
-      <c r="G11" s="48"/>
-      <c r="H11" s="49"/>
-      <c r="I11" s="54">
+      <c r="G11" s="59"/>
+      <c r="H11" s="60"/>
+      <c r="I11" s="45">
         <f>'Daily Schedule SUN'!I11:J11</f>
         <v>0</v>
       </c>
-      <c r="J11" s="55"/>
+      <c r="J11" s="46"/>
     </row>
     <row r="12" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="8"/>
@@ -3808,13 +3790,13 @@
       <c r="D12" s="8"/>
       <c r="E12" s="17"/>
       <c r="F12" s="8"/>
-      <c r="G12" s="50"/>
-      <c r="H12" s="51"/>
-      <c r="I12" s="56">
+      <c r="G12" s="61"/>
+      <c r="H12" s="62"/>
+      <c r="I12" s="65">
         <f>'Daily Schedule SUN'!I12:J12</f>
         <v>0</v>
       </c>
-      <c r="J12" s="57"/>
+      <c r="J12" s="66"/>
     </row>
     <row r="13" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="8"/>
@@ -3826,16 +3808,16 @@
       <c r="D13" s="8"/>
       <c r="E13" s="16"/>
       <c r="F13" s="8"/>
-      <c r="G13" s="58">
+      <c r="G13" s="67">
         <f>G7+2</f>
-        <v>42878</v>
-      </c>
-      <c r="H13" s="59"/>
-      <c r="I13" s="64">
+        <v>42885</v>
+      </c>
+      <c r="H13" s="68"/>
+      <c r="I13" s="69">
         <f>'Daily Schedule SUN'!I13:J13</f>
         <v>0</v>
       </c>
-      <c r="J13" s="65"/>
+      <c r="J13" s="70"/>
     </row>
     <row r="14" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="8"/>
@@ -3847,13 +3829,13 @@
       <c r="D14" s="8"/>
       <c r="E14" s="17"/>
       <c r="F14" s="8"/>
-      <c r="G14" s="60"/>
-      <c r="H14" s="61"/>
-      <c r="I14" s="52">
+      <c r="G14" s="41"/>
+      <c r="H14" s="42"/>
+      <c r="I14" s="47">
         <f>'Daily Schedule SUN'!I14:J14</f>
         <v>0</v>
       </c>
-      <c r="J14" s="53"/>
+      <c r="J14" s="48"/>
     </row>
     <row r="15" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="8"/>
@@ -3865,13 +3847,13 @@
       <c r="D15" s="8"/>
       <c r="E15" s="16"/>
       <c r="F15" s="8"/>
-      <c r="G15" s="62"/>
-      <c r="H15" s="63"/>
-      <c r="I15" s="66">
+      <c r="G15" s="43"/>
+      <c r="H15" s="44"/>
+      <c r="I15" s="49">
         <f>'Daily Schedule SUN'!I15:J15</f>
         <v>0</v>
       </c>
-      <c r="J15" s="67"/>
+      <c r="J15" s="50"/>
     </row>
     <row r="16" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="8"/>
@@ -3883,16 +3865,16 @@
       <c r="D16" s="8"/>
       <c r="E16" s="17"/>
       <c r="F16" s="8"/>
-      <c r="G16" s="46">
+      <c r="G16" s="57">
         <f>G7+3</f>
-        <v>42879</v>
-      </c>
-      <c r="H16" s="47"/>
-      <c r="I16" s="68">
+        <v>42886</v>
+      </c>
+      <c r="H16" s="58"/>
+      <c r="I16" s="63">
         <f>'Daily Schedule SUN'!I16:J16</f>
         <v>0</v>
       </c>
-      <c r="J16" s="69"/>
+      <c r="J16" s="64"/>
     </row>
     <row r="17" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="8"/>
@@ -3904,13 +3886,13 @@
       <c r="D17" s="8"/>
       <c r="E17" s="16"/>
       <c r="F17" s="8"/>
-      <c r="G17" s="48"/>
-      <c r="H17" s="49"/>
-      <c r="I17" s="54">
+      <c r="G17" s="59"/>
+      <c r="H17" s="60"/>
+      <c r="I17" s="45">
         <f>'Daily Schedule SUN'!I17:J17</f>
         <v>0</v>
       </c>
-      <c r="J17" s="55"/>
+      <c r="J17" s="46"/>
     </row>
     <row r="18" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="8"/>
@@ -3922,13 +3904,13 @@
       <c r="D18" s="8"/>
       <c r="E18" s="17"/>
       <c r="F18" s="8"/>
-      <c r="G18" s="50"/>
-      <c r="H18" s="51"/>
-      <c r="I18" s="56">
+      <c r="G18" s="61"/>
+      <c r="H18" s="62"/>
+      <c r="I18" s="65">
         <f>'Daily Schedule SUN'!I18:J18</f>
         <v>0</v>
       </c>
-      <c r="J18" s="57"/>
+      <c r="J18" s="66"/>
     </row>
     <row r="19" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="8"/>
@@ -3936,22 +3918,20 @@
         <f t="shared" si="0"/>
         <v>0.54166666666666652</v>
       </c>
-      <c r="C19" s="30" t="s">
-        <v>35</v>
-      </c>
+      <c r="C19" s="30"/>
       <c r="D19" s="8"/>
       <c r="E19" s="16"/>
       <c r="F19" s="8"/>
-      <c r="G19" s="58">
+      <c r="G19" s="67">
         <f>G7+4</f>
-        <v>42880</v>
-      </c>
-      <c r="H19" s="59"/>
-      <c r="I19" s="64">
+        <v>42887</v>
+      </c>
+      <c r="H19" s="68"/>
+      <c r="I19" s="69">
         <f>'Daily Schedule SUN'!I19:J19</f>
         <v>0</v>
       </c>
-      <c r="J19" s="65"/>
+      <c r="J19" s="70"/>
     </row>
     <row r="20" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="8"/>
@@ -3959,19 +3939,17 @@
         <f t="shared" si="0"/>
         <v>0.56249999999999989</v>
       </c>
-      <c r="C20" s="29" t="s">
-        <v>36</v>
-      </c>
+      <c r="C20" s="29"/>
       <c r="D20" s="8"/>
       <c r="E20" s="17"/>
       <c r="F20" s="8"/>
-      <c r="G20" s="60"/>
-      <c r="H20" s="61"/>
-      <c r="I20" s="52">
+      <c r="G20" s="41"/>
+      <c r="H20" s="42"/>
+      <c r="I20" s="47">
         <f>'Daily Schedule SUN'!I20:J20</f>
         <v>0</v>
       </c>
-      <c r="J20" s="53"/>
+      <c r="J20" s="48"/>
     </row>
     <row r="21" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="8"/>
@@ -3979,19 +3957,17 @@
         <f t="shared" si="0"/>
         <v>0.58333333333333326</v>
       </c>
-      <c r="C21" s="30" t="s">
-        <v>37</v>
-      </c>
+      <c r="C21" s="30"/>
       <c r="D21" s="8"/>
       <c r="E21" s="16"/>
       <c r="F21" s="8"/>
-      <c r="G21" s="62"/>
-      <c r="H21" s="63"/>
-      <c r="I21" s="66">
+      <c r="G21" s="43"/>
+      <c r="H21" s="44"/>
+      <c r="I21" s="49">
         <f>'Daily Schedule SUN'!I21:J21</f>
         <v>0</v>
       </c>
-      <c r="J21" s="67"/>
+      <c r="J21" s="50"/>
     </row>
     <row r="22" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="8"/>
@@ -3999,22 +3975,20 @@
         <f t="shared" si="0"/>
         <v>0.60416666666666663</v>
       </c>
-      <c r="C22" s="29" t="s">
-        <v>37</v>
-      </c>
+      <c r="C22" s="29"/>
       <c r="D22" s="8"/>
       <c r="E22" s="17"/>
       <c r="F22" s="8"/>
-      <c r="G22" s="46">
+      <c r="G22" s="57">
         <f>G7+5</f>
-        <v>42881</v>
-      </c>
-      <c r="H22" s="47"/>
-      <c r="I22" s="68">
+        <v>42888</v>
+      </c>
+      <c r="H22" s="58"/>
+      <c r="I22" s="63">
         <f>'Daily Schedule SUN'!I22:J22</f>
         <v>0</v>
       </c>
-      <c r="J22" s="69"/>
+      <c r="J22" s="64"/>
     </row>
     <row r="23" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="8"/>
@@ -4022,19 +3996,17 @@
         <f t="shared" si="0"/>
         <v>0.625</v>
       </c>
-      <c r="C23" s="30" t="s">
-        <v>38</v>
-      </c>
+      <c r="C23" s="30"/>
       <c r="D23" s="8"/>
       <c r="E23" s="16"/>
       <c r="F23" s="8"/>
-      <c r="G23" s="48"/>
-      <c r="H23" s="49"/>
-      <c r="I23" s="54">
+      <c r="G23" s="59"/>
+      <c r="H23" s="60"/>
+      <c r="I23" s="45">
         <f>'Daily Schedule SUN'!I23:J23</f>
         <v>0</v>
       </c>
-      <c r="J23" s="55"/>
+      <c r="J23" s="46"/>
     </row>
     <row r="24" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="8"/>
@@ -4042,21 +4014,17 @@
         <f t="shared" si="0"/>
         <v>0.64583333333333337</v>
       </c>
-      <c r="C24" s="29" t="s">
-        <v>38</v>
-      </c>
+      <c r="C24" s="29"/>
       <c r="D24" s="8"/>
-      <c r="E24" s="82" t="s">
-        <v>40</v>
-      </c>
+      <c r="E24" s="37"/>
       <c r="F24" s="8"/>
-      <c r="G24" s="50"/>
-      <c r="H24" s="51"/>
-      <c r="I24" s="56">
+      <c r="G24" s="61"/>
+      <c r="H24" s="62"/>
+      <c r="I24" s="65">
         <f>'Daily Schedule SUN'!I24:J24</f>
         <v>0</v>
       </c>
-      <c r="J24" s="57"/>
+      <c r="J24" s="66"/>
     </row>
     <row r="25" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="8"/>
@@ -4064,22 +4032,20 @@
         <f t="shared" si="0"/>
         <v>0.66666666666666674</v>
       </c>
-      <c r="C25" s="30" t="s">
-        <v>39</v>
-      </c>
+      <c r="C25" s="30"/>
       <c r="D25" s="8"/>
       <c r="E25" s="16"/>
       <c r="F25" s="8"/>
-      <c r="G25" s="58">
+      <c r="G25" s="67">
         <f>G7+6</f>
-        <v>42882</v>
-      </c>
-      <c r="H25" s="59"/>
-      <c r="I25" s="64">
+        <v>42889</v>
+      </c>
+      <c r="H25" s="68"/>
+      <c r="I25" s="69">
         <f>'Daily Schedule SUN'!I25:J25</f>
         <v>0</v>
       </c>
-      <c r="J25" s="65"/>
+      <c r="J25" s="70"/>
     </row>
     <row r="26" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="8"/>
@@ -4087,19 +4053,17 @@
         <f t="shared" si="0"/>
         <v>0.68750000000000011</v>
       </c>
-      <c r="C26" s="29" t="s">
-        <v>39</v>
-      </c>
+      <c r="C26" s="29"/>
       <c r="D26" s="8"/>
       <c r="E26" s="17"/>
       <c r="F26" s="8"/>
-      <c r="G26" s="60"/>
-      <c r="H26" s="61"/>
-      <c r="I26" s="52">
+      <c r="G26" s="41"/>
+      <c r="H26" s="42"/>
+      <c r="I26" s="47">
         <f>'Daily Schedule SUN'!I26:J26</f>
         <v>0</v>
       </c>
-      <c r="J26" s="53"/>
+      <c r="J26" s="48"/>
     </row>
     <row r="27" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="8"/>
@@ -4111,13 +4075,13 @@
       <c r="D27" s="8"/>
       <c r="E27" s="16"/>
       <c r="F27" s="8"/>
-      <c r="G27" s="62"/>
-      <c r="H27" s="63"/>
-      <c r="I27" s="66">
+      <c r="G27" s="43"/>
+      <c r="H27" s="44"/>
+      <c r="I27" s="49">
         <f>'Daily Schedule SUN'!I27:J27</f>
         <v>0</v>
       </c>
-      <c r="J27" s="67"/>
+      <c r="J27" s="50"/>
     </row>
     <row r="28" spans="1:10" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A28" s="8"/>
@@ -4144,12 +4108,12 @@
       <c r="D29" s="8"/>
       <c r="E29" s="16"/>
       <c r="F29" s="8"/>
-      <c r="G29" s="37" t="s">
+      <c r="G29" s="71" t="s">
         <v>26</v>
       </c>
-      <c r="H29" s="38"/>
-      <c r="I29" s="38"/>
-      <c r="J29" s="39"/>
+      <c r="H29" s="72"/>
+      <c r="I29" s="72"/>
+      <c r="J29" s="73"/>
     </row>
     <row r="30" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30" s="8"/>
@@ -4161,10 +4125,10 @@
       <c r="D30" s="8"/>
       <c r="E30" s="17"/>
       <c r="F30" s="8"/>
-      <c r="G30" s="40"/>
-      <c r="H30" s="41"/>
-      <c r="I30" s="41"/>
-      <c r="J30" s="42"/>
+      <c r="G30" s="74"/>
+      <c r="H30" s="75"/>
+      <c r="I30" s="75"/>
+      <c r="J30" s="76"/>
     </row>
     <row r="31" spans="1:10" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A31" s="8"/>
@@ -4176,10 +4140,10 @@
       <c r="D31" s="8"/>
       <c r="E31" s="16"/>
       <c r="F31" s="8"/>
-      <c r="G31" s="43"/>
-      <c r="H31" s="44"/>
-      <c r="I31" s="44"/>
-      <c r="J31" s="45"/>
+      <c r="G31" s="77"/>
+      <c r="H31" s="78"/>
+      <c r="I31" s="78"/>
+      <c r="J31" s="79"/>
     </row>
     <row r="32" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A32" s="8"/>
@@ -4303,30 +4267,6 @@
     </row>
   </sheetData>
   <mergeCells count="33">
-    <mergeCell ref="B2:C3"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="G5:J6"/>
-    <mergeCell ref="G7:H9"/>
-    <mergeCell ref="I7:J7"/>
-    <mergeCell ref="I8:J8"/>
-    <mergeCell ref="I9:J9"/>
-    <mergeCell ref="G10:H12"/>
-    <mergeCell ref="I10:J10"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="I12:J12"/>
-    <mergeCell ref="G13:H15"/>
-    <mergeCell ref="I13:J13"/>
-    <mergeCell ref="I14:J14"/>
-    <mergeCell ref="I15:J15"/>
-    <mergeCell ref="G16:H18"/>
-    <mergeCell ref="I16:J16"/>
-    <mergeCell ref="I17:J17"/>
-    <mergeCell ref="I18:J18"/>
-    <mergeCell ref="G19:H21"/>
-    <mergeCell ref="I19:J19"/>
-    <mergeCell ref="I20:J20"/>
-    <mergeCell ref="I21:J21"/>
     <mergeCell ref="G29:J31"/>
     <mergeCell ref="G22:H24"/>
     <mergeCell ref="I22:J22"/>
@@ -4336,6 +4276,30 @@
     <mergeCell ref="I25:J25"/>
     <mergeCell ref="I26:J26"/>
     <mergeCell ref="I27:J27"/>
+    <mergeCell ref="G16:H18"/>
+    <mergeCell ref="I16:J16"/>
+    <mergeCell ref="I17:J17"/>
+    <mergeCell ref="I18:J18"/>
+    <mergeCell ref="G19:H21"/>
+    <mergeCell ref="I19:J19"/>
+    <mergeCell ref="I20:J20"/>
+    <mergeCell ref="I21:J21"/>
+    <mergeCell ref="G10:H12"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="G13:H15"/>
+    <mergeCell ref="I13:J13"/>
+    <mergeCell ref="I14:J14"/>
+    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="B2:C3"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="G5:J6"/>
+    <mergeCell ref="G7:H9"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="I8:J8"/>
+    <mergeCell ref="I9:J9"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="G29" r:id="rId1"/>
@@ -4384,7 +4348,7 @@
   </sheetPr>
   <dimension ref="A1:J39"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="80" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A25" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="80" workbookViewId="0">
       <selection activeCell="G29" sqref="G29:J31"/>
     </sheetView>
   </sheetViews>
@@ -4417,10 +4381,10 @@
     </row>
     <row r="2" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.65">
       <c r="A2" s="8"/>
-      <c r="B2" s="70" t="s">
+      <c r="B2" s="38" t="s">
         <v>25</v>
       </c>
-      <c r="C2" s="70"/>
+      <c r="C2" s="38"/>
       <c r="D2" s="9"/>
       <c r="E2" s="12" t="s">
         <v>13</v>
@@ -4437,12 +4401,12 @@
     </row>
     <row r="3" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.65">
       <c r="A3" s="8"/>
-      <c r="B3" s="70"/>
-      <c r="C3" s="70"/>
+      <c r="B3" s="38"/>
+      <c r="C3" s="38"/>
       <c r="D3" s="9"/>
       <c r="E3" s="13">
         <f>'Daily Schedule SUN'!E3</f>
-        <v>42876</v>
+        <v>42883</v>
       </c>
       <c r="F3" s="9"/>
       <c r="G3" s="14">
@@ -4471,38 +4435,38 @@
     </row>
     <row r="5" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="8"/>
-      <c r="B5" s="71" t="s">
+      <c r="B5" s="39" t="s">
         <v>0</v>
       </c>
       <c r="C5" s="23" t="s">
         <v>20</v>
       </c>
       <c r="D5" s="8"/>
-      <c r="E5" s="72" t="s">
+      <c r="E5" s="40" t="s">
         <v>14</v>
       </c>
       <c r="F5" s="8"/>
-      <c r="G5" s="79" t="s">
+      <c r="G5" s="81" t="s">
         <v>15</v>
       </c>
-      <c r="H5" s="80"/>
-      <c r="I5" s="79"/>
-      <c r="J5" s="79"/>
+      <c r="H5" s="82"/>
+      <c r="I5" s="81"/>
+      <c r="J5" s="81"/>
     </row>
     <row r="6" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="8"/>
-      <c r="B6" s="71"/>
+      <c r="B6" s="39"/>
       <c r="C6" s="24">
         <f>E3+4</f>
-        <v>42880</v>
+        <v>42887</v>
       </c>
       <c r="D6" s="8"/>
-      <c r="E6" s="72"/>
+      <c r="E6" s="40"/>
       <c r="F6" s="8"/>
-      <c r="G6" s="79"/>
-      <c r="H6" s="79"/>
-      <c r="I6" s="79"/>
-      <c r="J6" s="79"/>
+      <c r="G6" s="81"/>
+      <c r="H6" s="81"/>
+      <c r="I6" s="81"/>
+      <c r="J6" s="81"/>
     </row>
     <row r="7" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="8"/>
@@ -4514,16 +4478,16 @@
       <c r="D7" s="8"/>
       <c r="E7" s="16"/>
       <c r="F7" s="8"/>
-      <c r="G7" s="58">
+      <c r="G7" s="67">
         <f>E3</f>
-        <v>42876</v>
-      </c>
-      <c r="H7" s="59"/>
-      <c r="I7" s="64">
+        <v>42883</v>
+      </c>
+      <c r="H7" s="68"/>
+      <c r="I7" s="69">
         <f>'Daily Schedule SUN'!I7:J7</f>
         <v>0</v>
       </c>
-      <c r="J7" s="65"/>
+      <c r="J7" s="70"/>
     </row>
     <row r="8" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="8"/>
@@ -4535,13 +4499,13 @@
       <c r="D8" s="8"/>
       <c r="E8" s="17"/>
       <c r="F8" s="8"/>
-      <c r="G8" s="60"/>
-      <c r="H8" s="61"/>
-      <c r="I8" s="52">
+      <c r="G8" s="41"/>
+      <c r="H8" s="42"/>
+      <c r="I8" s="47">
         <f>'Daily Schedule SUN'!I8:J8</f>
         <v>0</v>
       </c>
-      <c r="J8" s="53"/>
+      <c r="J8" s="48"/>
     </row>
     <row r="9" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="8"/>
@@ -4553,13 +4517,13 @@
       <c r="D9" s="8"/>
       <c r="E9" s="16"/>
       <c r="F9" s="8"/>
-      <c r="G9" s="62"/>
-      <c r="H9" s="63"/>
-      <c r="I9" s="66">
+      <c r="G9" s="43"/>
+      <c r="H9" s="44"/>
+      <c r="I9" s="49">
         <f>'Daily Schedule SUN'!I9:J9</f>
         <v>0</v>
       </c>
-      <c r="J9" s="67"/>
+      <c r="J9" s="50"/>
     </row>
     <row r="10" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="8"/>
@@ -4571,16 +4535,16 @@
       <c r="D10" s="8"/>
       <c r="E10" s="17"/>
       <c r="F10" s="8"/>
-      <c r="G10" s="46">
+      <c r="G10" s="57">
         <f>G7+1</f>
-        <v>42877</v>
-      </c>
-      <c r="H10" s="47"/>
-      <c r="I10" s="68">
+        <v>42884</v>
+      </c>
+      <c r="H10" s="58"/>
+      <c r="I10" s="63">
         <f>'Daily Schedule SUN'!I10:J10</f>
         <v>0</v>
       </c>
-      <c r="J10" s="69"/>
+      <c r="J10" s="64"/>
     </row>
     <row r="11" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="8"/>
@@ -4592,13 +4556,13 @@
       <c r="D11" s="8"/>
       <c r="E11" s="16"/>
       <c r="F11" s="8"/>
-      <c r="G11" s="48"/>
-      <c r="H11" s="49"/>
-      <c r="I11" s="54">
+      <c r="G11" s="59"/>
+      <c r="H11" s="60"/>
+      <c r="I11" s="45">
         <f>'Daily Schedule SUN'!I11:J11</f>
         <v>0</v>
       </c>
-      <c r="J11" s="55"/>
+      <c r="J11" s="46"/>
     </row>
     <row r="12" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="8"/>
@@ -4610,13 +4574,13 @@
       <c r="D12" s="8"/>
       <c r="E12" s="17"/>
       <c r="F12" s="8"/>
-      <c r="G12" s="50"/>
-      <c r="H12" s="51"/>
-      <c r="I12" s="56">
+      <c r="G12" s="61"/>
+      <c r="H12" s="62"/>
+      <c r="I12" s="65">
         <f>'Daily Schedule SUN'!I12:J12</f>
         <v>0</v>
       </c>
-      <c r="J12" s="57"/>
+      <c r="J12" s="66"/>
     </row>
     <row r="13" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="8"/>
@@ -4628,16 +4592,16 @@
       <c r="D13" s="8"/>
       <c r="E13" s="16"/>
       <c r="F13" s="8"/>
-      <c r="G13" s="58">
+      <c r="G13" s="67">
         <f>G7+2</f>
-        <v>42878</v>
-      </c>
-      <c r="H13" s="59"/>
-      <c r="I13" s="64">
+        <v>42885</v>
+      </c>
+      <c r="H13" s="68"/>
+      <c r="I13" s="69">
         <f>'Daily Schedule SUN'!I13:J13</f>
         <v>0</v>
       </c>
-      <c r="J13" s="65"/>
+      <c r="J13" s="70"/>
     </row>
     <row r="14" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="8"/>
@@ -4649,13 +4613,13 @@
       <c r="D14" s="8"/>
       <c r="E14" s="17"/>
       <c r="F14" s="8"/>
-      <c r="G14" s="60"/>
-      <c r="H14" s="61"/>
-      <c r="I14" s="52">
+      <c r="G14" s="41"/>
+      <c r="H14" s="42"/>
+      <c r="I14" s="47">
         <f>'Daily Schedule SUN'!I14:J14</f>
         <v>0</v>
       </c>
-      <c r="J14" s="53"/>
+      <c r="J14" s="48"/>
     </row>
     <row r="15" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="8"/>
@@ -4667,13 +4631,13 @@
       <c r="D15" s="8"/>
       <c r="E15" s="16"/>
       <c r="F15" s="8"/>
-      <c r="G15" s="62"/>
-      <c r="H15" s="63"/>
-      <c r="I15" s="66">
+      <c r="G15" s="43"/>
+      <c r="H15" s="44"/>
+      <c r="I15" s="49">
         <f>'Daily Schedule SUN'!I15:J15</f>
         <v>0</v>
       </c>
-      <c r="J15" s="67"/>
+      <c r="J15" s="50"/>
     </row>
     <row r="16" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="8"/>
@@ -4685,16 +4649,16 @@
       <c r="D16" s="8"/>
       <c r="E16" s="17"/>
       <c r="F16" s="8"/>
-      <c r="G16" s="46">
+      <c r="G16" s="57">
         <f>G7+3</f>
-        <v>42879</v>
-      </c>
-      <c r="H16" s="47"/>
-      <c r="I16" s="68">
+        <v>42886</v>
+      </c>
+      <c r="H16" s="58"/>
+      <c r="I16" s="63">
         <f>'Daily Schedule SUN'!I16:J16</f>
         <v>0</v>
       </c>
-      <c r="J16" s="69"/>
+      <c r="J16" s="64"/>
     </row>
     <row r="17" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="8"/>
@@ -4706,13 +4670,13 @@
       <c r="D17" s="8"/>
       <c r="E17" s="16"/>
       <c r="F17" s="8"/>
-      <c r="G17" s="48"/>
-      <c r="H17" s="49"/>
-      <c r="I17" s="54">
+      <c r="G17" s="59"/>
+      <c r="H17" s="60"/>
+      <c r="I17" s="45">
         <f>'Daily Schedule SUN'!I17:J17</f>
         <v>0</v>
       </c>
-      <c r="J17" s="55"/>
+      <c r="J17" s="46"/>
     </row>
     <row r="18" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="8"/>
@@ -4724,13 +4688,13 @@
       <c r="D18" s="8"/>
       <c r="E18" s="17"/>
       <c r="F18" s="8"/>
-      <c r="G18" s="50"/>
-      <c r="H18" s="51"/>
-      <c r="I18" s="56">
+      <c r="G18" s="61"/>
+      <c r="H18" s="62"/>
+      <c r="I18" s="65">
         <f>'Daily Schedule SUN'!I18:J18</f>
         <v>0</v>
       </c>
-      <c r="J18" s="57"/>
+      <c r="J18" s="66"/>
     </row>
     <row r="19" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="8"/>
@@ -4742,16 +4706,16 @@
       <c r="D19" s="8"/>
       <c r="E19" s="16"/>
       <c r="F19" s="8"/>
-      <c r="G19" s="58">
+      <c r="G19" s="67">
         <f>G7+4</f>
-        <v>42880</v>
-      </c>
-      <c r="H19" s="59"/>
-      <c r="I19" s="64">
+        <v>42887</v>
+      </c>
+      <c r="H19" s="68"/>
+      <c r="I19" s="69">
         <f>'Daily Schedule SUN'!I19:J19</f>
         <v>0</v>
       </c>
-      <c r="J19" s="65"/>
+      <c r="J19" s="70"/>
     </row>
     <row r="20" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="8"/>
@@ -4763,13 +4727,13 @@
       <c r="D20" s="8"/>
       <c r="E20" s="17"/>
       <c r="F20" s="8"/>
-      <c r="G20" s="60"/>
-      <c r="H20" s="61"/>
-      <c r="I20" s="52">
+      <c r="G20" s="41"/>
+      <c r="H20" s="42"/>
+      <c r="I20" s="47">
         <f>'Daily Schedule SUN'!I20:J20</f>
         <v>0</v>
       </c>
-      <c r="J20" s="53"/>
+      <c r="J20" s="48"/>
     </row>
     <row r="21" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="8"/>
@@ -4781,13 +4745,13 @@
       <c r="D21" s="8"/>
       <c r="E21" s="16"/>
       <c r="F21" s="8"/>
-      <c r="G21" s="62"/>
-      <c r="H21" s="63"/>
-      <c r="I21" s="66">
+      <c r="G21" s="43"/>
+      <c r="H21" s="44"/>
+      <c r="I21" s="49">
         <f>'Daily Schedule SUN'!I21:J21</f>
         <v>0</v>
       </c>
-      <c r="J21" s="67"/>
+      <c r="J21" s="50"/>
     </row>
     <row r="22" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="8"/>
@@ -4799,16 +4763,16 @@
       <c r="D22" s="8"/>
       <c r="E22" s="17"/>
       <c r="F22" s="8"/>
-      <c r="G22" s="46">
+      <c r="G22" s="57">
         <f>G7+5</f>
-        <v>42881</v>
-      </c>
-      <c r="H22" s="47"/>
-      <c r="I22" s="68">
+        <v>42888</v>
+      </c>
+      <c r="H22" s="58"/>
+      <c r="I22" s="63">
         <f>'Daily Schedule SUN'!I22:J22</f>
         <v>0</v>
       </c>
-      <c r="J22" s="69"/>
+      <c r="J22" s="64"/>
     </row>
     <row r="23" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="8"/>
@@ -4820,13 +4784,13 @@
       <c r="D23" s="8"/>
       <c r="E23" s="16"/>
       <c r="F23" s="8"/>
-      <c r="G23" s="48"/>
-      <c r="H23" s="49"/>
-      <c r="I23" s="54">
+      <c r="G23" s="59"/>
+      <c r="H23" s="60"/>
+      <c r="I23" s="45">
         <f>'Daily Schedule SUN'!I23:J23</f>
         <v>0</v>
       </c>
-      <c r="J23" s="55"/>
+      <c r="J23" s="46"/>
     </row>
     <row r="24" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="8"/>
@@ -4838,13 +4802,13 @@
       <c r="D24" s="8"/>
       <c r="E24" s="17"/>
       <c r="F24" s="8"/>
-      <c r="G24" s="50"/>
-      <c r="H24" s="51"/>
-      <c r="I24" s="56">
+      <c r="G24" s="61"/>
+      <c r="H24" s="62"/>
+      <c r="I24" s="65">
         <f>'Daily Schedule SUN'!I24:J24</f>
         <v>0</v>
       </c>
-      <c r="J24" s="57"/>
+      <c r="J24" s="66"/>
     </row>
     <row r="25" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="8"/>
@@ -4856,16 +4820,16 @@
       <c r="D25" s="8"/>
       <c r="E25" s="16"/>
       <c r="F25" s="8"/>
-      <c r="G25" s="58">
+      <c r="G25" s="67">
         <f>G7+6</f>
-        <v>42882</v>
-      </c>
-      <c r="H25" s="59"/>
-      <c r="I25" s="64">
+        <v>42889</v>
+      </c>
+      <c r="H25" s="68"/>
+      <c r="I25" s="69">
         <f>'Daily Schedule SUN'!I25:J25</f>
         <v>0</v>
       </c>
-      <c r="J25" s="65"/>
+      <c r="J25" s="70"/>
     </row>
     <row r="26" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="8"/>
@@ -4877,13 +4841,13 @@
       <c r="D26" s="8"/>
       <c r="E26" s="17"/>
       <c r="F26" s="8"/>
-      <c r="G26" s="60"/>
-      <c r="H26" s="61"/>
-      <c r="I26" s="52">
+      <c r="G26" s="41"/>
+      <c r="H26" s="42"/>
+      <c r="I26" s="47">
         <f>'Daily Schedule SUN'!I26:J26</f>
         <v>0</v>
       </c>
-      <c r="J26" s="53"/>
+      <c r="J26" s="48"/>
     </row>
     <row r="27" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="8"/>
@@ -4895,13 +4859,13 @@
       <c r="D27" s="8"/>
       <c r="E27" s="16"/>
       <c r="F27" s="8"/>
-      <c r="G27" s="62"/>
-      <c r="H27" s="63"/>
-      <c r="I27" s="66">
+      <c r="G27" s="43"/>
+      <c r="H27" s="44"/>
+      <c r="I27" s="49">
         <f>'Daily Schedule SUN'!I27:J27</f>
         <v>0</v>
       </c>
-      <c r="J27" s="67"/>
+      <c r="J27" s="50"/>
     </row>
     <row r="28" spans="1:10" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A28" s="8"/>
@@ -4928,12 +4892,12 @@
       <c r="D29" s="8"/>
       <c r="E29" s="16"/>
       <c r="F29" s="8"/>
-      <c r="G29" s="37" t="s">
+      <c r="G29" s="71" t="s">
         <v>26</v>
       </c>
-      <c r="H29" s="38"/>
-      <c r="I29" s="38"/>
-      <c r="J29" s="39"/>
+      <c r="H29" s="72"/>
+      <c r="I29" s="72"/>
+      <c r="J29" s="73"/>
     </row>
     <row r="30" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30" s="8"/>
@@ -4945,10 +4909,10 @@
       <c r="D30" s="8"/>
       <c r="E30" s="17"/>
       <c r="F30" s="8"/>
-      <c r="G30" s="40"/>
-      <c r="H30" s="41"/>
-      <c r="I30" s="41"/>
-      <c r="J30" s="42"/>
+      <c r="G30" s="74"/>
+      <c r="H30" s="75"/>
+      <c r="I30" s="75"/>
+      <c r="J30" s="76"/>
     </row>
     <row r="31" spans="1:10" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A31" s="8"/>
@@ -4960,10 +4924,10 @@
       <c r="D31" s="8"/>
       <c r="E31" s="16"/>
       <c r="F31" s="8"/>
-      <c r="G31" s="43"/>
-      <c r="H31" s="44"/>
-      <c r="I31" s="44"/>
-      <c r="J31" s="45"/>
+      <c r="G31" s="77"/>
+      <c r="H31" s="78"/>
+      <c r="I31" s="78"/>
+      <c r="J31" s="79"/>
     </row>
     <row r="32" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A32" s="8"/>
@@ -5087,30 +5051,6 @@
     </row>
   </sheetData>
   <mergeCells count="33">
-    <mergeCell ref="B2:C3"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="G5:J6"/>
-    <mergeCell ref="G7:H9"/>
-    <mergeCell ref="I7:J7"/>
-    <mergeCell ref="I8:J8"/>
-    <mergeCell ref="I9:J9"/>
-    <mergeCell ref="G10:H12"/>
-    <mergeCell ref="I10:J10"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="I12:J12"/>
-    <mergeCell ref="G13:H15"/>
-    <mergeCell ref="I13:J13"/>
-    <mergeCell ref="I14:J14"/>
-    <mergeCell ref="I15:J15"/>
-    <mergeCell ref="G16:H18"/>
-    <mergeCell ref="I16:J16"/>
-    <mergeCell ref="I17:J17"/>
-    <mergeCell ref="I18:J18"/>
-    <mergeCell ref="G19:H21"/>
-    <mergeCell ref="I19:J19"/>
-    <mergeCell ref="I20:J20"/>
-    <mergeCell ref="I21:J21"/>
     <mergeCell ref="G29:J31"/>
     <mergeCell ref="G22:H24"/>
     <mergeCell ref="I22:J22"/>
@@ -5120,6 +5060,30 @@
     <mergeCell ref="I25:J25"/>
     <mergeCell ref="I26:J26"/>
     <mergeCell ref="I27:J27"/>
+    <mergeCell ref="G16:H18"/>
+    <mergeCell ref="I16:J16"/>
+    <mergeCell ref="I17:J17"/>
+    <mergeCell ref="I18:J18"/>
+    <mergeCell ref="G19:H21"/>
+    <mergeCell ref="I19:J19"/>
+    <mergeCell ref="I20:J20"/>
+    <mergeCell ref="I21:J21"/>
+    <mergeCell ref="G10:H12"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="G13:H15"/>
+    <mergeCell ref="I13:J13"/>
+    <mergeCell ref="I14:J14"/>
+    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="B2:C3"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="G5:J6"/>
+    <mergeCell ref="G7:H9"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="I8:J8"/>
+    <mergeCell ref="I9:J9"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="G29" r:id="rId1"/>
@@ -5168,7 +5132,7 @@
   </sheetPr>
   <dimension ref="A1:J39"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="80" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A7" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="80" workbookViewId="0">
       <selection activeCell="G29" sqref="G29:J31"/>
     </sheetView>
   </sheetViews>
@@ -5201,10 +5165,10 @@
     </row>
     <row r="2" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.65">
       <c r="A2" s="8"/>
-      <c r="B2" s="70" t="s">
+      <c r="B2" s="38" t="s">
         <v>25</v>
       </c>
-      <c r="C2" s="70"/>
+      <c r="C2" s="38"/>
       <c r="D2" s="9"/>
       <c r="E2" s="12" t="s">
         <v>13</v>
@@ -5221,12 +5185,12 @@
     </row>
     <row r="3" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.65">
       <c r="A3" s="8"/>
-      <c r="B3" s="70"/>
-      <c r="C3" s="70"/>
+      <c r="B3" s="38"/>
+      <c r="C3" s="38"/>
       <c r="D3" s="9"/>
       <c r="E3" s="13">
         <f>'Daily Schedule SUN'!E3</f>
-        <v>42876</v>
+        <v>42883</v>
       </c>
       <c r="F3" s="9"/>
       <c r="G3" s="14">
@@ -5255,38 +5219,38 @@
     </row>
     <row r="5" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="8"/>
-      <c r="B5" s="71" t="s">
+      <c r="B5" s="39" t="s">
         <v>0</v>
       </c>
       <c r="C5" s="23" t="s">
         <v>21</v>
       </c>
       <c r="D5" s="8"/>
-      <c r="E5" s="72" t="s">
+      <c r="E5" s="40" t="s">
         <v>14</v>
       </c>
       <c r="F5" s="8"/>
-      <c r="G5" s="79" t="s">
+      <c r="G5" s="81" t="s">
         <v>15</v>
       </c>
-      <c r="H5" s="80"/>
-      <c r="I5" s="79"/>
-      <c r="J5" s="79"/>
+      <c r="H5" s="82"/>
+      <c r="I5" s="81"/>
+      <c r="J5" s="81"/>
     </row>
     <row r="6" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="8"/>
-      <c r="B6" s="71"/>
+      <c r="B6" s="39"/>
       <c r="C6" s="24">
         <f>E3+5</f>
-        <v>42881</v>
+        <v>42888</v>
       </c>
       <c r="D6" s="8"/>
-      <c r="E6" s="72"/>
+      <c r="E6" s="40"/>
       <c r="F6" s="8"/>
-      <c r="G6" s="79"/>
-      <c r="H6" s="79"/>
-      <c r="I6" s="79"/>
-      <c r="J6" s="79"/>
+      <c r="G6" s="81"/>
+      <c r="H6" s="81"/>
+      <c r="I6" s="81"/>
+      <c r="J6" s="81"/>
     </row>
     <row r="7" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="8"/>
@@ -5298,16 +5262,16 @@
       <c r="D7" s="8"/>
       <c r="E7" s="16"/>
       <c r="F7" s="8"/>
-      <c r="G7" s="58">
+      <c r="G7" s="67">
         <f>E3</f>
-        <v>42876</v>
-      </c>
-      <c r="H7" s="59"/>
-      <c r="I7" s="64">
+        <v>42883</v>
+      </c>
+      <c r="H7" s="68"/>
+      <c r="I7" s="69">
         <f>'Daily Schedule SUN'!I7:J7</f>
         <v>0</v>
       </c>
-      <c r="J7" s="65"/>
+      <c r="J7" s="70"/>
     </row>
     <row r="8" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="8"/>
@@ -5319,13 +5283,13 @@
       <c r="D8" s="8"/>
       <c r="E8" s="17"/>
       <c r="F8" s="8"/>
-      <c r="G8" s="60"/>
-      <c r="H8" s="61"/>
-      <c r="I8" s="52">
+      <c r="G8" s="41"/>
+      <c r="H8" s="42"/>
+      <c r="I8" s="47">
         <f>'Daily Schedule SUN'!I8:J8</f>
         <v>0</v>
       </c>
-      <c r="J8" s="53"/>
+      <c r="J8" s="48"/>
     </row>
     <row r="9" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="8"/>
@@ -5337,13 +5301,13 @@
       <c r="D9" s="8"/>
       <c r="E9" s="16"/>
       <c r="F9" s="8"/>
-      <c r="G9" s="62"/>
-      <c r="H9" s="63"/>
-      <c r="I9" s="66">
+      <c r="G9" s="43"/>
+      <c r="H9" s="44"/>
+      <c r="I9" s="49">
         <f>'Daily Schedule SUN'!I9:J9</f>
         <v>0</v>
       </c>
-      <c r="J9" s="67"/>
+      <c r="J9" s="50"/>
     </row>
     <row r="10" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="8"/>
@@ -5355,16 +5319,16 @@
       <c r="D10" s="8"/>
       <c r="E10" s="17"/>
       <c r="F10" s="8"/>
-      <c r="G10" s="46">
+      <c r="G10" s="57">
         <f>G7+1</f>
-        <v>42877</v>
-      </c>
-      <c r="H10" s="47"/>
-      <c r="I10" s="68">
+        <v>42884</v>
+      </c>
+      <c r="H10" s="58"/>
+      <c r="I10" s="63">
         <f>'Daily Schedule SUN'!I10:J10</f>
         <v>0</v>
       </c>
-      <c r="J10" s="69"/>
+      <c r="J10" s="64"/>
     </row>
     <row r="11" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="8"/>
@@ -5376,13 +5340,13 @@
       <c r="D11" s="8"/>
       <c r="E11" s="16"/>
       <c r="F11" s="8"/>
-      <c r="G11" s="48"/>
-      <c r="H11" s="49"/>
-      <c r="I11" s="54">
+      <c r="G11" s="59"/>
+      <c r="H11" s="60"/>
+      <c r="I11" s="45">
         <f>'Daily Schedule SUN'!I11:J11</f>
         <v>0</v>
       </c>
-      <c r="J11" s="55"/>
+      <c r="J11" s="46"/>
     </row>
     <row r="12" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="8"/>
@@ -5394,13 +5358,13 @@
       <c r="D12" s="8"/>
       <c r="E12" s="17"/>
       <c r="F12" s="8"/>
-      <c r="G12" s="50"/>
-      <c r="H12" s="51"/>
-      <c r="I12" s="56">
+      <c r="G12" s="61"/>
+      <c r="H12" s="62"/>
+      <c r="I12" s="65">
         <f>'Daily Schedule SUN'!I12:J12</f>
         <v>0</v>
       </c>
-      <c r="J12" s="57"/>
+      <c r="J12" s="66"/>
     </row>
     <row r="13" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="8"/>
@@ -5412,16 +5376,16 @@
       <c r="D13" s="8"/>
       <c r="E13" s="16"/>
       <c r="F13" s="8"/>
-      <c r="G13" s="58">
+      <c r="G13" s="67">
         <f>G7+2</f>
-        <v>42878</v>
-      </c>
-      <c r="H13" s="59"/>
-      <c r="I13" s="64">
+        <v>42885</v>
+      </c>
+      <c r="H13" s="68"/>
+      <c r="I13" s="69">
         <f>'Daily Schedule SUN'!I13:J13</f>
         <v>0</v>
       </c>
-      <c r="J13" s="65"/>
+      <c r="J13" s="70"/>
     </row>
     <row r="14" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="8"/>
@@ -5433,13 +5397,13 @@
       <c r="D14" s="8"/>
       <c r="E14" s="17"/>
       <c r="F14" s="8"/>
-      <c r="G14" s="60"/>
-      <c r="H14" s="61"/>
-      <c r="I14" s="52">
+      <c r="G14" s="41"/>
+      <c r="H14" s="42"/>
+      <c r="I14" s="47">
         <f>'Daily Schedule SUN'!I14:J14</f>
         <v>0</v>
       </c>
-      <c r="J14" s="53"/>
+      <c r="J14" s="48"/>
     </row>
     <row r="15" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="8"/>
@@ -5451,13 +5415,13 @@
       <c r="D15" s="8"/>
       <c r="E15" s="16"/>
       <c r="F15" s="8"/>
-      <c r="G15" s="62"/>
-      <c r="H15" s="63"/>
-      <c r="I15" s="66">
+      <c r="G15" s="43"/>
+      <c r="H15" s="44"/>
+      <c r="I15" s="49">
         <f>'Daily Schedule SUN'!I15:J15</f>
         <v>0</v>
       </c>
-      <c r="J15" s="67"/>
+      <c r="J15" s="50"/>
     </row>
     <row r="16" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="8"/>
@@ -5469,16 +5433,16 @@
       <c r="D16" s="8"/>
       <c r="E16" s="17"/>
       <c r="F16" s="8"/>
-      <c r="G16" s="46">
+      <c r="G16" s="57">
         <f>G7+3</f>
-        <v>42879</v>
-      </c>
-      <c r="H16" s="47"/>
-      <c r="I16" s="68">
+        <v>42886</v>
+      </c>
+      <c r="H16" s="58"/>
+      <c r="I16" s="63">
         <f>'Daily Schedule SUN'!I16:J16</f>
         <v>0</v>
       </c>
-      <c r="J16" s="69"/>
+      <c r="J16" s="64"/>
     </row>
     <row r="17" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="8"/>
@@ -5490,13 +5454,13 @@
       <c r="D17" s="8"/>
       <c r="E17" s="16"/>
       <c r="F17" s="8"/>
-      <c r="G17" s="48"/>
-      <c r="H17" s="49"/>
-      <c r="I17" s="54">
+      <c r="G17" s="59"/>
+      <c r="H17" s="60"/>
+      <c r="I17" s="45">
         <f>'Daily Schedule SUN'!I17:J17</f>
         <v>0</v>
       </c>
-      <c r="J17" s="55"/>
+      <c r="J17" s="46"/>
     </row>
     <row r="18" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="8"/>
@@ -5508,13 +5472,13 @@
       <c r="D18" s="8"/>
       <c r="E18" s="17"/>
       <c r="F18" s="8"/>
-      <c r="G18" s="50"/>
-      <c r="H18" s="51"/>
-      <c r="I18" s="56">
+      <c r="G18" s="61"/>
+      <c r="H18" s="62"/>
+      <c r="I18" s="65">
         <f>'Daily Schedule SUN'!I18:J18</f>
         <v>0</v>
       </c>
-      <c r="J18" s="57"/>
+      <c r="J18" s="66"/>
     </row>
     <row r="19" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="8"/>
@@ -5526,16 +5490,16 @@
       <c r="D19" s="8"/>
       <c r="E19" s="16"/>
       <c r="F19" s="8"/>
-      <c r="G19" s="58">
+      <c r="G19" s="67">
         <f>G7+4</f>
-        <v>42880</v>
-      </c>
-      <c r="H19" s="59"/>
-      <c r="I19" s="64">
+        <v>42887</v>
+      </c>
+      <c r="H19" s="68"/>
+      <c r="I19" s="69">
         <f>'Daily Schedule SUN'!I19:J19</f>
         <v>0</v>
       </c>
-      <c r="J19" s="65"/>
+      <c r="J19" s="70"/>
     </row>
     <row r="20" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="8"/>
@@ -5547,13 +5511,13 @@
       <c r="D20" s="8"/>
       <c r="E20" s="17"/>
       <c r="F20" s="8"/>
-      <c r="G20" s="60"/>
-      <c r="H20" s="61"/>
-      <c r="I20" s="52">
+      <c r="G20" s="41"/>
+      <c r="H20" s="42"/>
+      <c r="I20" s="47">
         <f>'Daily Schedule SUN'!I20:J20</f>
         <v>0</v>
       </c>
-      <c r="J20" s="53"/>
+      <c r="J20" s="48"/>
     </row>
     <row r="21" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="8"/>
@@ -5565,13 +5529,13 @@
       <c r="D21" s="8"/>
       <c r="E21" s="16"/>
       <c r="F21" s="8"/>
-      <c r="G21" s="62"/>
-      <c r="H21" s="63"/>
-      <c r="I21" s="66">
+      <c r="G21" s="43"/>
+      <c r="H21" s="44"/>
+      <c r="I21" s="49">
         <f>'Daily Schedule SUN'!I21:J21</f>
         <v>0</v>
       </c>
-      <c r="J21" s="67"/>
+      <c r="J21" s="50"/>
     </row>
     <row r="22" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="8"/>
@@ -5583,16 +5547,16 @@
       <c r="D22" s="8"/>
       <c r="E22" s="17"/>
       <c r="F22" s="8"/>
-      <c r="G22" s="46">
+      <c r="G22" s="57">
         <f>G7+5</f>
-        <v>42881</v>
-      </c>
-      <c r="H22" s="47"/>
-      <c r="I22" s="68">
+        <v>42888</v>
+      </c>
+      <c r="H22" s="58"/>
+      <c r="I22" s="63">
         <f>'Daily Schedule SUN'!I22:J22</f>
         <v>0</v>
       </c>
-      <c r="J22" s="69"/>
+      <c r="J22" s="64"/>
     </row>
     <row r="23" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="8"/>
@@ -5604,13 +5568,13 @@
       <c r="D23" s="8"/>
       <c r="E23" s="16"/>
       <c r="F23" s="8"/>
-      <c r="G23" s="48"/>
-      <c r="H23" s="49"/>
-      <c r="I23" s="54">
+      <c r="G23" s="59"/>
+      <c r="H23" s="60"/>
+      <c r="I23" s="45">
         <f>'Daily Schedule SUN'!I23:J23</f>
         <v>0</v>
       </c>
-      <c r="J23" s="55"/>
+      <c r="J23" s="46"/>
     </row>
     <row r="24" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="8"/>
@@ -5622,13 +5586,13 @@
       <c r="D24" s="8"/>
       <c r="E24" s="17"/>
       <c r="F24" s="8"/>
-      <c r="G24" s="50"/>
-      <c r="H24" s="51"/>
-      <c r="I24" s="56">
+      <c r="G24" s="61"/>
+      <c r="H24" s="62"/>
+      <c r="I24" s="65">
         <f>'Daily Schedule SUN'!I24:J24</f>
         <v>0</v>
       </c>
-      <c r="J24" s="57"/>
+      <c r="J24" s="66"/>
     </row>
     <row r="25" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="8"/>
@@ -5640,16 +5604,16 @@
       <c r="D25" s="8"/>
       <c r="E25" s="16"/>
       <c r="F25" s="8"/>
-      <c r="G25" s="58">
+      <c r="G25" s="67">
         <f>G7+6</f>
-        <v>42882</v>
-      </c>
-      <c r="H25" s="59"/>
-      <c r="I25" s="64">
+        <v>42889</v>
+      </c>
+      <c r="H25" s="68"/>
+      <c r="I25" s="69">
         <f>'Daily Schedule SUN'!I25:J25</f>
         <v>0</v>
       </c>
-      <c r="J25" s="65"/>
+      <c r="J25" s="70"/>
     </row>
     <row r="26" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="8"/>
@@ -5661,13 +5625,13 @@
       <c r="D26" s="8"/>
       <c r="E26" s="17"/>
       <c r="F26" s="8"/>
-      <c r="G26" s="60"/>
-      <c r="H26" s="61"/>
-      <c r="I26" s="52">
+      <c r="G26" s="41"/>
+      <c r="H26" s="42"/>
+      <c r="I26" s="47">
         <f>'Daily Schedule SUN'!I26:J26</f>
         <v>0</v>
       </c>
-      <c r="J26" s="53"/>
+      <c r="J26" s="48"/>
     </row>
     <row r="27" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="8"/>
@@ -5679,13 +5643,13 @@
       <c r="D27" s="8"/>
       <c r="E27" s="16"/>
       <c r="F27" s="8"/>
-      <c r="G27" s="62"/>
-      <c r="H27" s="63"/>
-      <c r="I27" s="66">
+      <c r="G27" s="43"/>
+      <c r="H27" s="44"/>
+      <c r="I27" s="49">
         <f>'Daily Schedule SUN'!I27:J27</f>
         <v>0</v>
       </c>
-      <c r="J27" s="67"/>
+      <c r="J27" s="50"/>
     </row>
     <row r="28" spans="1:10" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A28" s="8"/>
@@ -5712,12 +5676,12 @@
       <c r="D29" s="8"/>
       <c r="E29" s="16"/>
       <c r="F29" s="8"/>
-      <c r="G29" s="37" t="s">
+      <c r="G29" s="71" t="s">
         <v>26</v>
       </c>
-      <c r="H29" s="38"/>
-      <c r="I29" s="38"/>
-      <c r="J29" s="39"/>
+      <c r="H29" s="72"/>
+      <c r="I29" s="72"/>
+      <c r="J29" s="73"/>
     </row>
     <row r="30" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30" s="8"/>
@@ -5729,10 +5693,10 @@
       <c r="D30" s="8"/>
       <c r="E30" s="17"/>
       <c r="F30" s="8"/>
-      <c r="G30" s="40"/>
-      <c r="H30" s="41"/>
-      <c r="I30" s="41"/>
-      <c r="J30" s="42"/>
+      <c r="G30" s="74"/>
+      <c r="H30" s="75"/>
+      <c r="I30" s="75"/>
+      <c r="J30" s="76"/>
     </row>
     <row r="31" spans="1:10" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A31" s="8"/>
@@ -5744,10 +5708,10 @@
       <c r="D31" s="8"/>
       <c r="E31" s="16"/>
       <c r="F31" s="8"/>
-      <c r="G31" s="43"/>
-      <c r="H31" s="44"/>
-      <c r="I31" s="44"/>
-      <c r="J31" s="45"/>
+      <c r="G31" s="77"/>
+      <c r="H31" s="78"/>
+      <c r="I31" s="78"/>
+      <c r="J31" s="79"/>
     </row>
     <row r="32" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A32" s="8"/>
@@ -5871,30 +5835,6 @@
     </row>
   </sheetData>
   <mergeCells count="33">
-    <mergeCell ref="B2:C3"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="G5:J6"/>
-    <mergeCell ref="G7:H9"/>
-    <mergeCell ref="I7:J7"/>
-    <mergeCell ref="I8:J8"/>
-    <mergeCell ref="I9:J9"/>
-    <mergeCell ref="G10:H12"/>
-    <mergeCell ref="I10:J10"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="I12:J12"/>
-    <mergeCell ref="G13:H15"/>
-    <mergeCell ref="I13:J13"/>
-    <mergeCell ref="I14:J14"/>
-    <mergeCell ref="I15:J15"/>
-    <mergeCell ref="G16:H18"/>
-    <mergeCell ref="I16:J16"/>
-    <mergeCell ref="I17:J17"/>
-    <mergeCell ref="I18:J18"/>
-    <mergeCell ref="G19:H21"/>
-    <mergeCell ref="I19:J19"/>
-    <mergeCell ref="I20:J20"/>
-    <mergeCell ref="I21:J21"/>
     <mergeCell ref="G29:J31"/>
     <mergeCell ref="G22:H24"/>
     <mergeCell ref="I22:J22"/>
@@ -5904,6 +5844,30 @@
     <mergeCell ref="I25:J25"/>
     <mergeCell ref="I26:J26"/>
     <mergeCell ref="I27:J27"/>
+    <mergeCell ref="G16:H18"/>
+    <mergeCell ref="I16:J16"/>
+    <mergeCell ref="I17:J17"/>
+    <mergeCell ref="I18:J18"/>
+    <mergeCell ref="G19:H21"/>
+    <mergeCell ref="I19:J19"/>
+    <mergeCell ref="I20:J20"/>
+    <mergeCell ref="I21:J21"/>
+    <mergeCell ref="G10:H12"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="G13:H15"/>
+    <mergeCell ref="I13:J13"/>
+    <mergeCell ref="I14:J14"/>
+    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="B2:C3"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="G5:J6"/>
+    <mergeCell ref="G7:H9"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="I8:J8"/>
+    <mergeCell ref="I9:J9"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="G29" r:id="rId1"/>
@@ -5985,10 +5949,10 @@
     </row>
     <row r="2" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.65">
       <c r="A2" s="8"/>
-      <c r="B2" s="70" t="s">
+      <c r="B2" s="38" t="s">
         <v>25</v>
       </c>
-      <c r="C2" s="70"/>
+      <c r="C2" s="38"/>
       <c r="D2" s="9"/>
       <c r="E2" s="12" t="s">
         <v>13</v>
@@ -6005,12 +5969,12 @@
     </row>
     <row r="3" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.65">
       <c r="A3" s="8"/>
-      <c r="B3" s="70"/>
-      <c r="C3" s="70"/>
+      <c r="B3" s="38"/>
+      <c r="C3" s="38"/>
       <c r="D3" s="9"/>
       <c r="E3" s="13">
         <f>'Daily Schedule SUN'!E3</f>
-        <v>42876</v>
+        <v>42883</v>
       </c>
       <c r="F3" s="9"/>
       <c r="G3" s="14">
@@ -6039,38 +6003,38 @@
     </row>
     <row r="5" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="8"/>
-      <c r="B5" s="71" t="s">
+      <c r="B5" s="39" t="s">
         <v>0</v>
       </c>
       <c r="C5" s="23" t="s">
         <v>22</v>
       </c>
       <c r="D5" s="8"/>
-      <c r="E5" s="72" t="s">
+      <c r="E5" s="40" t="s">
         <v>14</v>
       </c>
       <c r="F5" s="8"/>
-      <c r="G5" s="79" t="s">
+      <c r="G5" s="81" t="s">
         <v>15</v>
       </c>
-      <c r="H5" s="80"/>
-      <c r="I5" s="79"/>
-      <c r="J5" s="79"/>
+      <c r="H5" s="82"/>
+      <c r="I5" s="81"/>
+      <c r="J5" s="81"/>
     </row>
     <row r="6" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="8"/>
-      <c r="B6" s="71"/>
+      <c r="B6" s="39"/>
       <c r="C6" s="24">
         <f>E3+6</f>
-        <v>42882</v>
+        <v>42889</v>
       </c>
       <c r="D6" s="8"/>
-      <c r="E6" s="72"/>
+      <c r="E6" s="40"/>
       <c r="F6" s="8"/>
-      <c r="G6" s="79"/>
-      <c r="H6" s="79"/>
-      <c r="I6" s="79"/>
-      <c r="J6" s="79"/>
+      <c r="G6" s="81"/>
+      <c r="H6" s="81"/>
+      <c r="I6" s="81"/>
+      <c r="J6" s="81"/>
     </row>
     <row r="7" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="8"/>
@@ -6082,16 +6046,16 @@
       <c r="D7" s="8"/>
       <c r="E7" s="16"/>
       <c r="F7" s="8"/>
-      <c r="G7" s="58">
+      <c r="G7" s="67">
         <f>E3</f>
-        <v>42876</v>
-      </c>
-      <c r="H7" s="59"/>
-      <c r="I7" s="64">
+        <v>42883</v>
+      </c>
+      <c r="H7" s="68"/>
+      <c r="I7" s="69">
         <f>'Daily Schedule SUN'!I7:J7</f>
         <v>0</v>
       </c>
-      <c r="J7" s="65"/>
+      <c r="J7" s="70"/>
     </row>
     <row r="8" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="8"/>
@@ -6103,13 +6067,13 @@
       <c r="D8" s="8"/>
       <c r="E8" s="17"/>
       <c r="F8" s="8"/>
-      <c r="G8" s="60"/>
-      <c r="H8" s="61"/>
-      <c r="I8" s="52">
+      <c r="G8" s="41"/>
+      <c r="H8" s="42"/>
+      <c r="I8" s="47">
         <f>'Daily Schedule SUN'!I8:J8</f>
         <v>0</v>
       </c>
-      <c r="J8" s="53"/>
+      <c r="J8" s="48"/>
     </row>
     <row r="9" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="8"/>
@@ -6121,13 +6085,13 @@
       <c r="D9" s="8"/>
       <c r="E9" s="16"/>
       <c r="F9" s="8"/>
-      <c r="G9" s="62"/>
-      <c r="H9" s="63"/>
-      <c r="I9" s="66">
+      <c r="G9" s="43"/>
+      <c r="H9" s="44"/>
+      <c r="I9" s="49">
         <f>'Daily Schedule SUN'!I9:J9</f>
         <v>0</v>
       </c>
-      <c r="J9" s="67"/>
+      <c r="J9" s="50"/>
     </row>
     <row r="10" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="8"/>
@@ -6139,16 +6103,16 @@
       <c r="D10" s="8"/>
       <c r="E10" s="17"/>
       <c r="F10" s="8"/>
-      <c r="G10" s="46">
+      <c r="G10" s="57">
         <f>G7+1</f>
-        <v>42877</v>
-      </c>
-      <c r="H10" s="47"/>
-      <c r="I10" s="68">
+        <v>42884</v>
+      </c>
+      <c r="H10" s="58"/>
+      <c r="I10" s="63">
         <f>'Daily Schedule SUN'!I10:J10</f>
         <v>0</v>
       </c>
-      <c r="J10" s="69"/>
+      <c r="J10" s="64"/>
     </row>
     <row r="11" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="8"/>
@@ -6160,13 +6124,13 @@
       <c r="D11" s="8"/>
       <c r="E11" s="16"/>
       <c r="F11" s="8"/>
-      <c r="G11" s="48"/>
-      <c r="H11" s="49"/>
-      <c r="I11" s="54">
+      <c r="G11" s="59"/>
+      <c r="H11" s="60"/>
+      <c r="I11" s="45">
         <f>'Daily Schedule SUN'!I11:J11</f>
         <v>0</v>
       </c>
-      <c r="J11" s="55"/>
+      <c r="J11" s="46"/>
     </row>
     <row r="12" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="8"/>
@@ -6178,13 +6142,13 @@
       <c r="D12" s="8"/>
       <c r="E12" s="17"/>
       <c r="F12" s="8"/>
-      <c r="G12" s="50"/>
-      <c r="H12" s="51"/>
-      <c r="I12" s="56">
+      <c r="G12" s="61"/>
+      <c r="H12" s="62"/>
+      <c r="I12" s="65">
         <f>'Daily Schedule SUN'!I12:J12</f>
         <v>0</v>
       </c>
-      <c r="J12" s="57"/>
+      <c r="J12" s="66"/>
     </row>
     <row r="13" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="8"/>
@@ -6196,16 +6160,16 @@
       <c r="D13" s="8"/>
       <c r="E13" s="16"/>
       <c r="F13" s="8"/>
-      <c r="G13" s="58">
+      <c r="G13" s="67">
         <f>G7+2</f>
-        <v>42878</v>
-      </c>
-      <c r="H13" s="59"/>
-      <c r="I13" s="64">
+        <v>42885</v>
+      </c>
+      <c r="H13" s="68"/>
+      <c r="I13" s="69">
         <f>'Daily Schedule SUN'!I13:J13</f>
         <v>0</v>
       </c>
-      <c r="J13" s="65"/>
+      <c r="J13" s="70"/>
     </row>
     <row r="14" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="8"/>
@@ -6217,13 +6181,13 @@
       <c r="D14" s="8"/>
       <c r="E14" s="17"/>
       <c r="F14" s="8"/>
-      <c r="G14" s="60"/>
-      <c r="H14" s="61"/>
-      <c r="I14" s="52">
+      <c r="G14" s="41"/>
+      <c r="H14" s="42"/>
+      <c r="I14" s="47">
         <f>'Daily Schedule SUN'!I14:J14</f>
         <v>0</v>
       </c>
-      <c r="J14" s="53"/>
+      <c r="J14" s="48"/>
     </row>
     <row r="15" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="8"/>
@@ -6235,13 +6199,13 @@
       <c r="D15" s="8"/>
       <c r="E15" s="16"/>
       <c r="F15" s="8"/>
-      <c r="G15" s="62"/>
-      <c r="H15" s="63"/>
-      <c r="I15" s="66">
+      <c r="G15" s="43"/>
+      <c r="H15" s="44"/>
+      <c r="I15" s="49">
         <f>'Daily Schedule SUN'!I15:J15</f>
         <v>0</v>
       </c>
-      <c r="J15" s="67"/>
+      <c r="J15" s="50"/>
     </row>
     <row r="16" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="8"/>
@@ -6253,16 +6217,16 @@
       <c r="D16" s="8"/>
       <c r="E16" s="17"/>
       <c r="F16" s="8"/>
-      <c r="G16" s="46">
+      <c r="G16" s="57">
         <f>G7+3</f>
-        <v>42879</v>
-      </c>
-      <c r="H16" s="47"/>
-      <c r="I16" s="68">
+        <v>42886</v>
+      </c>
+      <c r="H16" s="58"/>
+      <c r="I16" s="63">
         <f>'Daily Schedule SUN'!I16:J16</f>
         <v>0</v>
       </c>
-      <c r="J16" s="69"/>
+      <c r="J16" s="64"/>
     </row>
     <row r="17" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="8"/>
@@ -6274,13 +6238,13 @@
       <c r="D17" s="8"/>
       <c r="E17" s="16"/>
       <c r="F17" s="8"/>
-      <c r="G17" s="48"/>
-      <c r="H17" s="49"/>
-      <c r="I17" s="54">
+      <c r="G17" s="59"/>
+      <c r="H17" s="60"/>
+      <c r="I17" s="45">
         <f>'Daily Schedule SUN'!I17:J17</f>
         <v>0</v>
       </c>
-      <c r="J17" s="55"/>
+      <c r="J17" s="46"/>
     </row>
     <row r="18" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="8"/>
@@ -6292,13 +6256,13 @@
       <c r="D18" s="8"/>
       <c r="E18" s="17"/>
       <c r="F18" s="8"/>
-      <c r="G18" s="50"/>
-      <c r="H18" s="51"/>
-      <c r="I18" s="56">
+      <c r="G18" s="61"/>
+      <c r="H18" s="62"/>
+      <c r="I18" s="65">
         <f>'Daily Schedule SUN'!I18:J18</f>
         <v>0</v>
       </c>
-      <c r="J18" s="57"/>
+      <c r="J18" s="66"/>
     </row>
     <row r="19" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="8"/>
@@ -6310,16 +6274,16 @@
       <c r="D19" s="8"/>
       <c r="E19" s="16"/>
       <c r="F19" s="8"/>
-      <c r="G19" s="58">
+      <c r="G19" s="67">
         <f>G7+4</f>
-        <v>42880</v>
-      </c>
-      <c r="H19" s="59"/>
-      <c r="I19" s="64">
+        <v>42887</v>
+      </c>
+      <c r="H19" s="68"/>
+      <c r="I19" s="69">
         <f>'Daily Schedule SUN'!I19:J19</f>
         <v>0</v>
       </c>
-      <c r="J19" s="65"/>
+      <c r="J19" s="70"/>
     </row>
     <row r="20" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="8"/>
@@ -6331,13 +6295,13 @@
       <c r="D20" s="8"/>
       <c r="E20" s="17"/>
       <c r="F20" s="8"/>
-      <c r="G20" s="60"/>
-      <c r="H20" s="61"/>
-      <c r="I20" s="52">
+      <c r="G20" s="41"/>
+      <c r="H20" s="42"/>
+      <c r="I20" s="47">
         <f>'Daily Schedule SUN'!I20:J20</f>
         <v>0</v>
       </c>
-      <c r="J20" s="53"/>
+      <c r="J20" s="48"/>
     </row>
     <row r="21" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="8"/>
@@ -6349,13 +6313,13 @@
       <c r="D21" s="8"/>
       <c r="E21" s="16"/>
       <c r="F21" s="8"/>
-      <c r="G21" s="62"/>
-      <c r="H21" s="63"/>
-      <c r="I21" s="66">
+      <c r="G21" s="43"/>
+      <c r="H21" s="44"/>
+      <c r="I21" s="49">
         <f>'Daily Schedule SUN'!I21:J21</f>
         <v>0</v>
       </c>
-      <c r="J21" s="67"/>
+      <c r="J21" s="50"/>
     </row>
     <row r="22" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="8"/>
@@ -6367,16 +6331,16 @@
       <c r="D22" s="8"/>
       <c r="E22" s="17"/>
       <c r="F22" s="8"/>
-      <c r="G22" s="46">
+      <c r="G22" s="57">
         <f>G7+5</f>
-        <v>42881</v>
-      </c>
-      <c r="H22" s="47"/>
-      <c r="I22" s="68">
+        <v>42888</v>
+      </c>
+      <c r="H22" s="58"/>
+      <c r="I22" s="63">
         <f>'Daily Schedule SUN'!I22:J22</f>
         <v>0</v>
       </c>
-      <c r="J22" s="69"/>
+      <c r="J22" s="64"/>
     </row>
     <row r="23" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="8"/>
@@ -6388,13 +6352,13 @@
       <c r="D23" s="8"/>
       <c r="E23" s="16"/>
       <c r="F23" s="8"/>
-      <c r="G23" s="48"/>
-      <c r="H23" s="49"/>
-      <c r="I23" s="54">
+      <c r="G23" s="59"/>
+      <c r="H23" s="60"/>
+      <c r="I23" s="45">
         <f>'Daily Schedule SUN'!I23:J23</f>
         <v>0</v>
       </c>
-      <c r="J23" s="55"/>
+      <c r="J23" s="46"/>
     </row>
     <row r="24" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="8"/>
@@ -6406,13 +6370,13 @@
       <c r="D24" s="8"/>
       <c r="E24" s="17"/>
       <c r="F24" s="8"/>
-      <c r="G24" s="50"/>
-      <c r="H24" s="51"/>
-      <c r="I24" s="56">
+      <c r="G24" s="61"/>
+      <c r="H24" s="62"/>
+      <c r="I24" s="65">
         <f>'Daily Schedule SUN'!I24:J24</f>
         <v>0</v>
       </c>
-      <c r="J24" s="57"/>
+      <c r="J24" s="66"/>
     </row>
     <row r="25" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="8"/>
@@ -6424,16 +6388,16 @@
       <c r="D25" s="8"/>
       <c r="E25" s="16"/>
       <c r="F25" s="8"/>
-      <c r="G25" s="58">
+      <c r="G25" s="67">
         <f>G7+6</f>
-        <v>42882</v>
-      </c>
-      <c r="H25" s="59"/>
-      <c r="I25" s="64">
+        <v>42889</v>
+      </c>
+      <c r="H25" s="68"/>
+      <c r="I25" s="69">
         <f>'Daily Schedule SUN'!I25:J25</f>
         <v>0</v>
       </c>
-      <c r="J25" s="65"/>
+      <c r="J25" s="70"/>
     </row>
     <row r="26" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="8"/>
@@ -6445,13 +6409,13 @@
       <c r="D26" s="8"/>
       <c r="E26" s="17"/>
       <c r="F26" s="8"/>
-      <c r="G26" s="60"/>
-      <c r="H26" s="61"/>
-      <c r="I26" s="52">
+      <c r="G26" s="41"/>
+      <c r="H26" s="42"/>
+      <c r="I26" s="47">
         <f>'Daily Schedule SUN'!I26:J26</f>
         <v>0</v>
       </c>
-      <c r="J26" s="53"/>
+      <c r="J26" s="48"/>
     </row>
     <row r="27" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="8"/>
@@ -6463,13 +6427,13 @@
       <c r="D27" s="8"/>
       <c r="E27" s="16"/>
       <c r="F27" s="8"/>
-      <c r="G27" s="62"/>
-      <c r="H27" s="63"/>
-      <c r="I27" s="66">
+      <c r="G27" s="43"/>
+      <c r="H27" s="44"/>
+      <c r="I27" s="49">
         <f>'Daily Schedule SUN'!I27:J27</f>
         <v>0</v>
       </c>
-      <c r="J27" s="67"/>
+      <c r="J27" s="50"/>
     </row>
     <row r="28" spans="1:10" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A28" s="8"/>
@@ -6496,12 +6460,12 @@
       <c r="D29" s="8"/>
       <c r="E29" s="16"/>
       <c r="F29" s="8"/>
-      <c r="G29" s="37" t="s">
+      <c r="G29" s="71" t="s">
         <v>26</v>
       </c>
-      <c r="H29" s="38"/>
-      <c r="I29" s="38"/>
-      <c r="J29" s="39"/>
+      <c r="H29" s="72"/>
+      <c r="I29" s="72"/>
+      <c r="J29" s="73"/>
     </row>
     <row r="30" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30" s="8"/>
@@ -6513,10 +6477,10 @@
       <c r="D30" s="8"/>
       <c r="E30" s="17"/>
       <c r="F30" s="8"/>
-      <c r="G30" s="40"/>
-      <c r="H30" s="41"/>
-      <c r="I30" s="41"/>
-      <c r="J30" s="42"/>
+      <c r="G30" s="74"/>
+      <c r="H30" s="75"/>
+      <c r="I30" s="75"/>
+      <c r="J30" s="76"/>
     </row>
     <row r="31" spans="1:10" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A31" s="8"/>
@@ -6528,10 +6492,10 @@
       <c r="D31" s="8"/>
       <c r="E31" s="16"/>
       <c r="F31" s="8"/>
-      <c r="G31" s="43"/>
-      <c r="H31" s="44"/>
-      <c r="I31" s="44"/>
-      <c r="J31" s="45"/>
+      <c r="G31" s="77"/>
+      <c r="H31" s="78"/>
+      <c r="I31" s="78"/>
+      <c r="J31" s="79"/>
     </row>
     <row r="32" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A32" s="8"/>
@@ -6655,30 +6619,6 @@
     </row>
   </sheetData>
   <mergeCells count="33">
-    <mergeCell ref="B2:C3"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="G5:J6"/>
-    <mergeCell ref="G7:H9"/>
-    <mergeCell ref="I7:J7"/>
-    <mergeCell ref="I8:J8"/>
-    <mergeCell ref="I9:J9"/>
-    <mergeCell ref="G10:H12"/>
-    <mergeCell ref="I10:J10"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="I12:J12"/>
-    <mergeCell ref="G13:H15"/>
-    <mergeCell ref="I13:J13"/>
-    <mergeCell ref="I14:J14"/>
-    <mergeCell ref="I15:J15"/>
-    <mergeCell ref="G16:H18"/>
-    <mergeCell ref="I16:J16"/>
-    <mergeCell ref="I17:J17"/>
-    <mergeCell ref="I18:J18"/>
-    <mergeCell ref="G19:H21"/>
-    <mergeCell ref="I19:J19"/>
-    <mergeCell ref="I20:J20"/>
-    <mergeCell ref="I21:J21"/>
     <mergeCell ref="G29:J31"/>
     <mergeCell ref="G22:H24"/>
     <mergeCell ref="I22:J22"/>
@@ -6688,6 +6628,30 @@
     <mergeCell ref="I25:J25"/>
     <mergeCell ref="I26:J26"/>
     <mergeCell ref="I27:J27"/>
+    <mergeCell ref="G16:H18"/>
+    <mergeCell ref="I16:J16"/>
+    <mergeCell ref="I17:J17"/>
+    <mergeCell ref="I18:J18"/>
+    <mergeCell ref="G19:H21"/>
+    <mergeCell ref="I19:J19"/>
+    <mergeCell ref="I20:J20"/>
+    <mergeCell ref="I21:J21"/>
+    <mergeCell ref="G10:H12"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="G13:H15"/>
+    <mergeCell ref="I13:J13"/>
+    <mergeCell ref="I14:J14"/>
+    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="B2:C3"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="G5:J6"/>
+    <mergeCell ref="G7:H9"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="I8:J8"/>
+    <mergeCell ref="I9:J9"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="G29" r:id="rId1"/>

--- a/daily-work-schedule-template.xlsx
+++ b/daily-work-schedule-template.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17927"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18067"/>
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14380" windowHeight="4090" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14380" windowHeight="4090" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Daily Schedule SUN" sheetId="4" r:id="rId1"/>
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="38">
   <si>
     <t>TIME</t>
   </si>
@@ -154,6 +154,15 @@
   </si>
   <si>
     <t>Most of form fields are in Dutch already</t>
+  </si>
+  <si>
+    <t>Complete sentences table</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Update server database </t>
+  </si>
+  <si>
+    <t>Move application to server</t>
   </si>
 </sst>
 </file>
@@ -782,6 +791,105 @@
     <xf numFmtId="0" fontId="19" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="10" fillId="13" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="10" fillId="13" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="10" fillId="13" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="10" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="10" fillId="13" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="10" fillId="13" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="10" fillId="17" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="10" fillId="17" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="10" fillId="17" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="10" fillId="17" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="10" fillId="17" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="10" fillId="17" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -791,36 +899,6 @@
     <xf numFmtId="0" fontId="6" fillId="12" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="10" fillId="17" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="10" fillId="17" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="10" fillId="17" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="10" fillId="17" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="13" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -839,82 +917,13 @@
     <xf numFmtId="0" fontId="11" fillId="13" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="165" fontId="10" fillId="13" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="10" fillId="13" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="10" fillId="13" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="10" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="10" fillId="13" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="10" fillId="13" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="10" fillId="17" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="10" fillId="17" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="10" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="13" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="13" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1272,10 +1281,10 @@
     </row>
     <row r="2" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.65">
       <c r="A2" s="8"/>
-      <c r="B2" s="38" t="s">
+      <c r="B2" s="71" t="s">
         <v>25</v>
       </c>
-      <c r="C2" s="38"/>
+      <c r="C2" s="71"/>
       <c r="D2" s="9"/>
       <c r="E2" s="12" t="s">
         <v>13</v>
@@ -1292,8 +1301,8 @@
     </row>
     <row r="3" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.65">
       <c r="A3" s="8"/>
-      <c r="B3" s="38"/>
-      <c r="C3" s="38"/>
+      <c r="B3" s="71"/>
+      <c r="C3" s="71"/>
       <c r="D3" s="9"/>
       <c r="E3" s="13">
         <v>42883</v>
@@ -1325,40 +1334,40 @@
     </row>
     <row r="5" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="8"/>
-      <c r="B5" s="39" t="s">
+      <c r="B5" s="72" t="s">
         <v>0</v>
       </c>
       <c r="C5" s="23" t="s">
         <v>17</v>
       </c>
       <c r="D5" s="8"/>
-      <c r="E5" s="40" t="s">
+      <c r="E5" s="73" t="s">
         <v>14</v>
       </c>
       <c r="F5" s="8"/>
-      <c r="G5" s="51" t="s">
+      <c r="G5" s="74" t="s">
         <v>23</v>
       </c>
-      <c r="H5" s="52"/>
-      <c r="I5" s="52"/>
-      <c r="J5" s="53"/>
+      <c r="H5" s="75"/>
+      <c r="I5" s="75"/>
+      <c r="J5" s="76"/>
     </row>
     <row r="6" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="8"/>
-      <c r="B6" s="39"/>
+      <c r="B6" s="72"/>
       <c r="C6" s="24">
         <f>E3</f>
         <v>42883</v>
       </c>
       <c r="D6" s="8"/>
-      <c r="E6" s="40"/>
+      <c r="E6" s="73"/>
       <c r="F6" s="8"/>
-      <c r="G6" s="54" t="s">
+      <c r="G6" s="77" t="s">
         <v>24</v>
       </c>
-      <c r="H6" s="55"/>
-      <c r="I6" s="55"/>
-      <c r="J6" s="56"/>
+      <c r="H6" s="78"/>
+      <c r="I6" s="78"/>
+      <c r="J6" s="79"/>
     </row>
     <row r="7" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="8"/>
@@ -1370,13 +1379,13 @@
       <c r="D7" s="8"/>
       <c r="E7" s="16"/>
       <c r="F7" s="8"/>
-      <c r="G7" s="41">
+      <c r="G7" s="61">
         <f>E3</f>
         <v>42883</v>
       </c>
-      <c r="H7" s="42"/>
-      <c r="I7" s="45"/>
-      <c r="J7" s="46"/>
+      <c r="H7" s="62"/>
+      <c r="I7" s="55"/>
+      <c r="J7" s="56"/>
     </row>
     <row r="8" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="8"/>
@@ -1388,10 +1397,10 @@
       <c r="D8" s="8"/>
       <c r="E8" s="17"/>
       <c r="F8" s="8"/>
-      <c r="G8" s="41"/>
-      <c r="H8" s="42"/>
-      <c r="I8" s="47"/>
-      <c r="J8" s="48"/>
+      <c r="G8" s="61"/>
+      <c r="H8" s="62"/>
+      <c r="I8" s="53"/>
+      <c r="J8" s="54"/>
     </row>
     <row r="9" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="8"/>
@@ -1403,10 +1412,10 @@
       <c r="D9" s="8"/>
       <c r="E9" s="16"/>
       <c r="F9" s="8"/>
-      <c r="G9" s="43"/>
-      <c r="H9" s="44"/>
-      <c r="I9" s="49"/>
-      <c r="J9" s="50"/>
+      <c r="G9" s="63"/>
+      <c r="H9" s="64"/>
+      <c r="I9" s="67"/>
+      <c r="J9" s="68"/>
     </row>
     <row r="10" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="8"/>
@@ -1418,13 +1427,13 @@
       <c r="D10" s="8"/>
       <c r="E10" s="17"/>
       <c r="F10" s="8"/>
-      <c r="G10" s="57">
+      <c r="G10" s="47">
         <f>G7+1</f>
         <v>42884</v>
       </c>
-      <c r="H10" s="58"/>
-      <c r="I10" s="63"/>
-      <c r="J10" s="64"/>
+      <c r="H10" s="48"/>
+      <c r="I10" s="69"/>
+      <c r="J10" s="70"/>
     </row>
     <row r="11" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="8"/>
@@ -1436,10 +1445,10 @@
       <c r="D11" s="8"/>
       <c r="E11" s="16"/>
       <c r="F11" s="8"/>
-      <c r="G11" s="59"/>
-      <c r="H11" s="60"/>
-      <c r="I11" s="45"/>
-      <c r="J11" s="46"/>
+      <c r="G11" s="49"/>
+      <c r="H11" s="50"/>
+      <c r="I11" s="55"/>
+      <c r="J11" s="56"/>
     </row>
     <row r="12" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="8"/>
@@ -1451,10 +1460,10 @@
       <c r="D12" s="8"/>
       <c r="E12" s="17"/>
       <c r="F12" s="8"/>
-      <c r="G12" s="61"/>
-      <c r="H12" s="62"/>
-      <c r="I12" s="65"/>
-      <c r="J12" s="66"/>
+      <c r="G12" s="51"/>
+      <c r="H12" s="52"/>
+      <c r="I12" s="57"/>
+      <c r="J12" s="58"/>
     </row>
     <row r="13" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="8"/>
@@ -1466,13 +1475,13 @@
       <c r="D13" s="8"/>
       <c r="E13" s="16"/>
       <c r="F13" s="8"/>
-      <c r="G13" s="67">
+      <c r="G13" s="59">
         <f>G7+2</f>
         <v>42885</v>
       </c>
-      <c r="H13" s="68"/>
-      <c r="I13" s="69"/>
-      <c r="J13" s="70"/>
+      <c r="H13" s="60"/>
+      <c r="I13" s="65"/>
+      <c r="J13" s="66"/>
     </row>
     <row r="14" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="8"/>
@@ -1484,10 +1493,10 @@
       <c r="D14" s="8"/>
       <c r="E14" s="17"/>
       <c r="F14" s="8"/>
-      <c r="G14" s="41"/>
-      <c r="H14" s="42"/>
-      <c r="I14" s="47"/>
-      <c r="J14" s="48"/>
+      <c r="G14" s="61"/>
+      <c r="H14" s="62"/>
+      <c r="I14" s="53"/>
+      <c r="J14" s="54"/>
     </row>
     <row r="15" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="8"/>
@@ -1499,10 +1508,10 @@
       <c r="D15" s="8"/>
       <c r="E15" s="16"/>
       <c r="F15" s="8"/>
-      <c r="G15" s="43"/>
-      <c r="H15" s="44"/>
-      <c r="I15" s="49"/>
-      <c r="J15" s="50"/>
+      <c r="G15" s="63"/>
+      <c r="H15" s="64"/>
+      <c r="I15" s="67"/>
+      <c r="J15" s="68"/>
     </row>
     <row r="16" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="8"/>
@@ -1514,13 +1523,13 @@
       <c r="D16" s="8"/>
       <c r="E16" s="17"/>
       <c r="F16" s="8"/>
-      <c r="G16" s="57">
+      <c r="G16" s="47">
         <f>G7+3</f>
         <v>42886</v>
       </c>
-      <c r="H16" s="58"/>
-      <c r="I16" s="63"/>
-      <c r="J16" s="64"/>
+      <c r="H16" s="48"/>
+      <c r="I16" s="69"/>
+      <c r="J16" s="70"/>
     </row>
     <row r="17" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="8"/>
@@ -1532,10 +1541,10 @@
       <c r="D17" s="8"/>
       <c r="E17" s="16"/>
       <c r="F17" s="8"/>
-      <c r="G17" s="59"/>
-      <c r="H17" s="60"/>
-      <c r="I17" s="45"/>
-      <c r="J17" s="46"/>
+      <c r="G17" s="49"/>
+      <c r="H17" s="50"/>
+      <c r="I17" s="55"/>
+      <c r="J17" s="56"/>
     </row>
     <row r="18" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="8"/>
@@ -1547,10 +1556,10 @@
       <c r="D18" s="8"/>
       <c r="E18" s="17"/>
       <c r="F18" s="8"/>
-      <c r="G18" s="61"/>
-      <c r="H18" s="62"/>
-      <c r="I18" s="65"/>
-      <c r="J18" s="66"/>
+      <c r="G18" s="51"/>
+      <c r="H18" s="52"/>
+      <c r="I18" s="57"/>
+      <c r="J18" s="58"/>
     </row>
     <row r="19" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="8"/>
@@ -1562,13 +1571,13 @@
       <c r="D19" s="8"/>
       <c r="E19" s="16"/>
       <c r="F19" s="8"/>
-      <c r="G19" s="67">
+      <c r="G19" s="59">
         <f>G7+4</f>
         <v>42887</v>
       </c>
-      <c r="H19" s="68"/>
-      <c r="I19" s="69"/>
-      <c r="J19" s="70"/>
+      <c r="H19" s="60"/>
+      <c r="I19" s="65"/>
+      <c r="J19" s="66"/>
     </row>
     <row r="20" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="8"/>
@@ -1580,10 +1589,10 @@
       <c r="D20" s="8"/>
       <c r="E20" s="17"/>
       <c r="F20" s="8"/>
-      <c r="G20" s="41"/>
-      <c r="H20" s="42"/>
-      <c r="I20" s="47"/>
-      <c r="J20" s="48"/>
+      <c r="G20" s="61"/>
+      <c r="H20" s="62"/>
+      <c r="I20" s="53"/>
+      <c r="J20" s="54"/>
     </row>
     <row r="21" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="8"/>
@@ -1595,10 +1604,10 @@
       <c r="D21" s="8"/>
       <c r="E21" s="16"/>
       <c r="F21" s="8"/>
-      <c r="G21" s="43"/>
-      <c r="H21" s="44"/>
-      <c r="I21" s="49"/>
-      <c r="J21" s="50"/>
+      <c r="G21" s="63"/>
+      <c r="H21" s="64"/>
+      <c r="I21" s="67"/>
+      <c r="J21" s="68"/>
     </row>
     <row r="22" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="8"/>
@@ -1610,13 +1619,13 @@
       <c r="D22" s="8"/>
       <c r="E22" s="17"/>
       <c r="F22" s="8"/>
-      <c r="G22" s="57">
+      <c r="G22" s="47">
         <f>G7+5</f>
         <v>42888</v>
       </c>
-      <c r="H22" s="58"/>
-      <c r="I22" s="47"/>
-      <c r="J22" s="48"/>
+      <c r="H22" s="48"/>
+      <c r="I22" s="53"/>
+      <c r="J22" s="54"/>
     </row>
     <row r="23" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="8"/>
@@ -1628,10 +1637,10 @@
       <c r="D23" s="8"/>
       <c r="E23" s="16"/>
       <c r="F23" s="8"/>
-      <c r="G23" s="59"/>
-      <c r="H23" s="60"/>
-      <c r="I23" s="45"/>
-      <c r="J23" s="46"/>
+      <c r="G23" s="49"/>
+      <c r="H23" s="50"/>
+      <c r="I23" s="55"/>
+      <c r="J23" s="56"/>
     </row>
     <row r="24" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="8"/>
@@ -1643,10 +1652,10 @@
       <c r="D24" s="8"/>
       <c r="E24" s="17"/>
       <c r="F24" s="8"/>
-      <c r="G24" s="61"/>
-      <c r="H24" s="62"/>
-      <c r="I24" s="65"/>
-      <c r="J24" s="66"/>
+      <c r="G24" s="51"/>
+      <c r="H24" s="52"/>
+      <c r="I24" s="57"/>
+      <c r="J24" s="58"/>
     </row>
     <row r="25" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="8"/>
@@ -1658,13 +1667,13 @@
       <c r="D25" s="8"/>
       <c r="E25" s="16"/>
       <c r="F25" s="8"/>
-      <c r="G25" s="67">
+      <c r="G25" s="59">
         <f>G7+6</f>
         <v>42889</v>
       </c>
-      <c r="H25" s="68"/>
-      <c r="I25" s="69"/>
-      <c r="J25" s="70"/>
+      <c r="H25" s="60"/>
+      <c r="I25" s="65"/>
+      <c r="J25" s="66"/>
     </row>
     <row r="26" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="8"/>
@@ -1676,10 +1685,10 @@
       <c r="D26" s="8"/>
       <c r="E26" s="17"/>
       <c r="F26" s="8"/>
-      <c r="G26" s="41"/>
-      <c r="H26" s="42"/>
-      <c r="I26" s="47"/>
-      <c r="J26" s="48"/>
+      <c r="G26" s="61"/>
+      <c r="H26" s="62"/>
+      <c r="I26" s="53"/>
+      <c r="J26" s="54"/>
     </row>
     <row r="27" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="8"/>
@@ -1691,10 +1700,10 @@
       <c r="D27" s="8"/>
       <c r="E27" s="16"/>
       <c r="F27" s="8"/>
-      <c r="G27" s="43"/>
-      <c r="H27" s="44"/>
-      <c r="I27" s="49"/>
-      <c r="J27" s="50"/>
+      <c r="G27" s="63"/>
+      <c r="H27" s="64"/>
+      <c r="I27" s="67"/>
+      <c r="J27" s="68"/>
     </row>
     <row r="28" spans="1:10" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A28" s="8"/>
@@ -1721,12 +1730,12 @@
       <c r="D29" s="8"/>
       <c r="E29" s="16"/>
       <c r="F29" s="8"/>
-      <c r="G29" s="71" t="s">
+      <c r="G29" s="38" t="s">
         <v>26</v>
       </c>
-      <c r="H29" s="72"/>
-      <c r="I29" s="72"/>
-      <c r="J29" s="73"/>
+      <c r="H29" s="39"/>
+      <c r="I29" s="39"/>
+      <c r="J29" s="40"/>
     </row>
     <row r="30" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30" s="8"/>
@@ -1738,10 +1747,10 @@
       <c r="D30" s="8"/>
       <c r="E30" s="17"/>
       <c r="F30" s="8"/>
-      <c r="G30" s="74"/>
-      <c r="H30" s="75"/>
-      <c r="I30" s="75"/>
-      <c r="J30" s="76"/>
+      <c r="G30" s="41"/>
+      <c r="H30" s="42"/>
+      <c r="I30" s="42"/>
+      <c r="J30" s="43"/>
     </row>
     <row r="31" spans="1:10" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A31" s="8"/>
@@ -1753,10 +1762,10 @@
       <c r="D31" s="8"/>
       <c r="E31" s="16"/>
       <c r="F31" s="8"/>
-      <c r="G31" s="77"/>
-      <c r="H31" s="78"/>
-      <c r="I31" s="78"/>
-      <c r="J31" s="79"/>
+      <c r="G31" s="44"/>
+      <c r="H31" s="45"/>
+      <c r="I31" s="45"/>
+      <c r="J31" s="46"/>
     </row>
     <row r="32" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A32" s="8"/>
@@ -1880,6 +1889,31 @@
     </row>
   </sheetData>
   <mergeCells count="34">
+    <mergeCell ref="B2:C3"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="G7:H9"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="I8:J8"/>
+    <mergeCell ref="I9:J9"/>
+    <mergeCell ref="G5:J5"/>
+    <mergeCell ref="G6:J6"/>
+    <mergeCell ref="G10:H12"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="G13:H15"/>
+    <mergeCell ref="I13:J13"/>
+    <mergeCell ref="I14:J14"/>
+    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="G16:H18"/>
+    <mergeCell ref="I16:J16"/>
+    <mergeCell ref="I17:J17"/>
+    <mergeCell ref="I18:J18"/>
+    <mergeCell ref="G19:H21"/>
+    <mergeCell ref="I19:J19"/>
+    <mergeCell ref="I20:J20"/>
+    <mergeCell ref="I21:J21"/>
     <mergeCell ref="G29:J31"/>
     <mergeCell ref="G22:H24"/>
     <mergeCell ref="I22:J22"/>
@@ -1889,31 +1923,6 @@
     <mergeCell ref="I25:J25"/>
     <mergeCell ref="I26:J26"/>
     <mergeCell ref="I27:J27"/>
-    <mergeCell ref="G16:H18"/>
-    <mergeCell ref="I16:J16"/>
-    <mergeCell ref="I17:J17"/>
-    <mergeCell ref="I18:J18"/>
-    <mergeCell ref="G19:H21"/>
-    <mergeCell ref="I19:J19"/>
-    <mergeCell ref="I20:J20"/>
-    <mergeCell ref="I21:J21"/>
-    <mergeCell ref="G10:H12"/>
-    <mergeCell ref="I10:J10"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="I12:J12"/>
-    <mergeCell ref="G13:H15"/>
-    <mergeCell ref="I13:J13"/>
-    <mergeCell ref="I14:J14"/>
-    <mergeCell ref="I15:J15"/>
-    <mergeCell ref="B2:C3"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="G7:H9"/>
-    <mergeCell ref="I7:J7"/>
-    <mergeCell ref="I8:J8"/>
-    <mergeCell ref="I9:J9"/>
-    <mergeCell ref="G5:J5"/>
-    <mergeCell ref="G6:J6"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="G29" r:id="rId1"/>
@@ -1962,7 +1971,7 @@
   </sheetPr>
   <dimension ref="A1:J39"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A10" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="80" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A10" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="80" workbookViewId="0">
       <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
@@ -1995,10 +2004,10 @@
     </row>
     <row r="2" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.65">
       <c r="A2" s="8"/>
-      <c r="B2" s="38" t="s">
+      <c r="B2" s="71" t="s">
         <v>25</v>
       </c>
-      <c r="C2" s="38"/>
+      <c r="C2" s="71"/>
       <c r="D2" s="9"/>
       <c r="E2" s="12" t="s">
         <v>13</v>
@@ -2015,8 +2024,8 @@
     </row>
     <row r="3" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.65">
       <c r="A3" s="8"/>
-      <c r="B3" s="38"/>
-      <c r="C3" s="38"/>
+      <c r="B3" s="71"/>
+      <c r="C3" s="71"/>
       <c r="D3" s="9"/>
       <c r="E3" s="13">
         <f>'Daily Schedule SUN'!E3</f>
@@ -2049,38 +2058,38 @@
     </row>
     <row r="5" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="8"/>
-      <c r="B5" s="80" t="s">
+      <c r="B5" s="82" t="s">
         <v>0</v>
       </c>
       <c r="C5" s="31" t="s">
         <v>16</v>
       </c>
       <c r="D5" s="8"/>
-      <c r="E5" s="40" t="s">
+      <c r="E5" s="73" t="s">
         <v>14</v>
       </c>
       <c r="F5" s="8"/>
-      <c r="G5" s="81" t="s">
+      <c r="G5" s="80" t="s">
         <v>15</v>
       </c>
-      <c r="H5" s="82"/>
-      <c r="I5" s="81"/>
-      <c r="J5" s="81"/>
+      <c r="H5" s="81"/>
+      <c r="I5" s="80"/>
+      <c r="J5" s="80"/>
     </row>
     <row r="6" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="8"/>
-      <c r="B6" s="80"/>
+      <c r="B6" s="82"/>
       <c r="C6" s="32">
         <f>E3+1</f>
         <v>42884</v>
       </c>
       <c r="D6" s="8"/>
-      <c r="E6" s="40"/>
+      <c r="E6" s="73"/>
       <c r="F6" s="8"/>
-      <c r="G6" s="81"/>
-      <c r="H6" s="81"/>
-      <c r="I6" s="81"/>
-      <c r="J6" s="81"/>
+      <c r="G6" s="80"/>
+      <c r="H6" s="80"/>
+      <c r="I6" s="80"/>
+      <c r="J6" s="80"/>
     </row>
     <row r="7" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="8"/>
@@ -2092,16 +2101,16 @@
       <c r="D7" s="8"/>
       <c r="E7" s="16"/>
       <c r="F7" s="8"/>
-      <c r="G7" s="67">
+      <c r="G7" s="59">
         <f>E3</f>
         <v>42883</v>
       </c>
-      <c r="H7" s="68"/>
-      <c r="I7" s="69">
+      <c r="H7" s="60"/>
+      <c r="I7" s="65">
         <f>'Daily Schedule SUN'!I7:J7</f>
         <v>0</v>
       </c>
-      <c r="J7" s="70"/>
+      <c r="J7" s="66"/>
     </row>
     <row r="8" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="8"/>
@@ -2113,13 +2122,13 @@
       <c r="D8" s="8"/>
       <c r="E8" s="17"/>
       <c r="F8" s="8"/>
-      <c r="G8" s="41"/>
-      <c r="H8" s="42"/>
-      <c r="I8" s="47">
+      <c r="G8" s="61"/>
+      <c r="H8" s="62"/>
+      <c r="I8" s="53">
         <f>'Daily Schedule SUN'!I8:J8</f>
         <v>0</v>
       </c>
-      <c r="J8" s="48"/>
+      <c r="J8" s="54"/>
     </row>
     <row r="9" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="8"/>
@@ -2131,13 +2140,13 @@
       <c r="D9" s="8"/>
       <c r="E9" s="16"/>
       <c r="F9" s="8"/>
-      <c r="G9" s="43"/>
-      <c r="H9" s="44"/>
-      <c r="I9" s="49">
+      <c r="G9" s="63"/>
+      <c r="H9" s="64"/>
+      <c r="I9" s="67">
         <f>'Daily Schedule SUN'!I9:J9</f>
         <v>0</v>
       </c>
-      <c r="J9" s="50"/>
+      <c r="J9" s="68"/>
     </row>
     <row r="10" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="8"/>
@@ -2149,16 +2158,16 @@
       <c r="D10" s="8"/>
       <c r="E10" s="17"/>
       <c r="F10" s="8"/>
-      <c r="G10" s="57">
+      <c r="G10" s="47">
         <f>G7+1</f>
         <v>42884</v>
       </c>
-      <c r="H10" s="58"/>
-      <c r="I10" s="63">
+      <c r="H10" s="48"/>
+      <c r="I10" s="69">
         <f>'Daily Schedule SUN'!I10:J10</f>
         <v>0</v>
       </c>
-      <c r="J10" s="64"/>
+      <c r="J10" s="70"/>
     </row>
     <row r="11" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="8"/>
@@ -2170,13 +2179,13 @@
       <c r="D11" s="8"/>
       <c r="E11" s="16"/>
       <c r="F11" s="8"/>
-      <c r="G11" s="59"/>
-      <c r="H11" s="60"/>
-      <c r="I11" s="45">
+      <c r="G11" s="49"/>
+      <c r="H11" s="50"/>
+      <c r="I11" s="55">
         <f>'Daily Schedule SUN'!I11:J11</f>
         <v>0</v>
       </c>
-      <c r="J11" s="46"/>
+      <c r="J11" s="56"/>
     </row>
     <row r="12" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="8"/>
@@ -2188,13 +2197,13 @@
       <c r="D12" s="8"/>
       <c r="E12" s="17"/>
       <c r="F12" s="8"/>
-      <c r="G12" s="61"/>
-      <c r="H12" s="62"/>
-      <c r="I12" s="65">
+      <c r="G12" s="51"/>
+      <c r="H12" s="52"/>
+      <c r="I12" s="57">
         <f>'Daily Schedule SUN'!I12:J12</f>
         <v>0</v>
       </c>
-      <c r="J12" s="66"/>
+      <c r="J12" s="58"/>
     </row>
     <row r="13" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="8"/>
@@ -2208,16 +2217,16 @@
       <c r="D13" s="8"/>
       <c r="E13" s="16"/>
       <c r="F13" s="8"/>
-      <c r="G13" s="67">
+      <c r="G13" s="59">
         <f>G7+2</f>
         <v>42885</v>
       </c>
-      <c r="H13" s="68"/>
-      <c r="I13" s="69">
+      <c r="H13" s="60"/>
+      <c r="I13" s="65">
         <f>'Daily Schedule SUN'!I13:J13</f>
         <v>0</v>
       </c>
-      <c r="J13" s="70"/>
+      <c r="J13" s="66"/>
     </row>
     <row r="14" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="8"/>
@@ -2231,13 +2240,13 @@
       <c r="D14" s="8"/>
       <c r="E14" s="17"/>
       <c r="F14" s="8"/>
-      <c r="G14" s="41"/>
-      <c r="H14" s="42"/>
-      <c r="I14" s="47">
+      <c r="G14" s="61"/>
+      <c r="H14" s="62"/>
+      <c r="I14" s="53">
         <f>'Daily Schedule SUN'!I14:J14</f>
         <v>0</v>
       </c>
-      <c r="J14" s="48"/>
+      <c r="J14" s="54"/>
     </row>
     <row r="15" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="8"/>
@@ -2253,13 +2262,13 @@
         <v>28</v>
       </c>
       <c r="F15" s="8"/>
-      <c r="G15" s="43"/>
-      <c r="H15" s="44"/>
-      <c r="I15" s="49">
+      <c r="G15" s="63"/>
+      <c r="H15" s="64"/>
+      <c r="I15" s="67">
         <f>'Daily Schedule SUN'!I15:J15</f>
         <v>0</v>
       </c>
-      <c r="J15" s="50"/>
+      <c r="J15" s="68"/>
     </row>
     <row r="16" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="8"/>
@@ -2273,16 +2282,16 @@
       <c r="D16" s="8"/>
       <c r="E16" s="17"/>
       <c r="F16" s="8"/>
-      <c r="G16" s="57">
+      <c r="G16" s="47">
         <f>G7+3</f>
         <v>42886</v>
       </c>
-      <c r="H16" s="58"/>
-      <c r="I16" s="63">
+      <c r="H16" s="48"/>
+      <c r="I16" s="69">
         <f>'Daily Schedule SUN'!I16:J16</f>
         <v>0</v>
       </c>
-      <c r="J16" s="64"/>
+      <c r="J16" s="70"/>
     </row>
     <row r="17" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="8"/>
@@ -2296,13 +2305,13 @@
       <c r="D17" s="8"/>
       <c r="E17" s="36"/>
       <c r="F17" s="8"/>
-      <c r="G17" s="59"/>
-      <c r="H17" s="60"/>
-      <c r="I17" s="45">
+      <c r="G17" s="49"/>
+      <c r="H17" s="50"/>
+      <c r="I17" s="55">
         <f>'Daily Schedule SUN'!I17:J17</f>
         <v>0</v>
       </c>
-      <c r="J17" s="46"/>
+      <c r="J17" s="56"/>
     </row>
     <row r="18" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="8"/>
@@ -2318,13 +2327,13 @@
         <v>28</v>
       </c>
       <c r="F18" s="8"/>
-      <c r="G18" s="61"/>
-      <c r="H18" s="62"/>
-      <c r="I18" s="65">
+      <c r="G18" s="51"/>
+      <c r="H18" s="52"/>
+      <c r="I18" s="57">
         <f>'Daily Schedule SUN'!I18:J18</f>
         <v>0</v>
       </c>
-      <c r="J18" s="66"/>
+      <c r="J18" s="58"/>
     </row>
     <row r="19" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="8"/>
@@ -2338,16 +2347,16 @@
       <c r="D19" s="8"/>
       <c r="E19" s="36"/>
       <c r="F19" s="8"/>
-      <c r="G19" s="67">
+      <c r="G19" s="59">
         <f>G7+4</f>
         <v>42887</v>
       </c>
-      <c r="H19" s="68"/>
-      <c r="I19" s="69">
+      <c r="H19" s="60"/>
+      <c r="I19" s="65">
         <f>'Daily Schedule SUN'!I19:J19</f>
         <v>0</v>
       </c>
-      <c r="J19" s="70"/>
+      <c r="J19" s="66"/>
     </row>
     <row r="20" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="8"/>
@@ -2361,13 +2370,13 @@
       <c r="D20" s="8"/>
       <c r="E20" s="17"/>
       <c r="F20" s="8"/>
-      <c r="G20" s="41"/>
-      <c r="H20" s="42"/>
-      <c r="I20" s="47">
+      <c r="G20" s="61"/>
+      <c r="H20" s="62"/>
+      <c r="I20" s="53">
         <f>'Daily Schedule SUN'!I20:J20</f>
         <v>0</v>
       </c>
-      <c r="J20" s="48"/>
+      <c r="J20" s="54"/>
     </row>
     <row r="21" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="8"/>
@@ -2381,13 +2390,13 @@
       <c r="D21" s="8"/>
       <c r="E21" s="16"/>
       <c r="F21" s="8"/>
-      <c r="G21" s="43"/>
-      <c r="H21" s="44"/>
-      <c r="I21" s="49">
+      <c r="G21" s="63"/>
+      <c r="H21" s="64"/>
+      <c r="I21" s="67">
         <f>'Daily Schedule SUN'!I21:J21</f>
         <v>0</v>
       </c>
-      <c r="J21" s="50"/>
+      <c r="J21" s="68"/>
     </row>
     <row r="22" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="8"/>
@@ -2401,16 +2410,16 @@
       <c r="D22" s="8"/>
       <c r="E22" s="17"/>
       <c r="F22" s="8"/>
-      <c r="G22" s="57">
+      <c r="G22" s="47">
         <f>G7+5</f>
         <v>42888</v>
       </c>
-      <c r="H22" s="58"/>
-      <c r="I22" s="63">
+      <c r="H22" s="48"/>
+      <c r="I22" s="69">
         <f>'Daily Schedule SUN'!I22:J22</f>
         <v>0</v>
       </c>
-      <c r="J22" s="64"/>
+      <c r="J22" s="70"/>
     </row>
     <row r="23" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="8"/>
@@ -2424,13 +2433,13 @@
       <c r="D23" s="8"/>
       <c r="E23" s="16"/>
       <c r="F23" s="8"/>
-      <c r="G23" s="59"/>
-      <c r="H23" s="60"/>
-      <c r="I23" s="45">
+      <c r="G23" s="49"/>
+      <c r="H23" s="50"/>
+      <c r="I23" s="55">
         <f>'Daily Schedule SUN'!I23:J23</f>
         <v>0</v>
       </c>
-      <c r="J23" s="46"/>
+      <c r="J23" s="56"/>
     </row>
     <row r="24" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="8"/>
@@ -2444,13 +2453,13 @@
       <c r="D24" s="8"/>
       <c r="E24" s="17"/>
       <c r="F24" s="8"/>
-      <c r="G24" s="61"/>
-      <c r="H24" s="62"/>
-      <c r="I24" s="65">
+      <c r="G24" s="51"/>
+      <c r="H24" s="52"/>
+      <c r="I24" s="57">
         <f>'Daily Schedule SUN'!I24:J24</f>
         <v>0</v>
       </c>
-      <c r="J24" s="66"/>
+      <c r="J24" s="58"/>
     </row>
     <row r="25" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="8"/>
@@ -2464,16 +2473,16 @@
       <c r="D25" s="8"/>
       <c r="E25" s="16"/>
       <c r="F25" s="8"/>
-      <c r="G25" s="67">
+      <c r="G25" s="59">
         <f>G7+6</f>
         <v>42889</v>
       </c>
-      <c r="H25" s="68"/>
-      <c r="I25" s="69">
+      <c r="H25" s="60"/>
+      <c r="I25" s="65">
         <f>'Daily Schedule SUN'!I25:J25</f>
         <v>0</v>
       </c>
-      <c r="J25" s="70"/>
+      <c r="J25" s="66"/>
     </row>
     <row r="26" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="8"/>
@@ -2489,13 +2498,13 @@
         <v>34</v>
       </c>
       <c r="F26" s="8"/>
-      <c r="G26" s="41"/>
-      <c r="H26" s="42"/>
-      <c r="I26" s="47">
+      <c r="G26" s="61"/>
+      <c r="H26" s="62"/>
+      <c r="I26" s="53">
         <f>'Daily Schedule SUN'!I26:J26</f>
         <v>0</v>
       </c>
-      <c r="J26" s="48"/>
+      <c r="J26" s="54"/>
     </row>
     <row r="27" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="8"/>
@@ -2507,13 +2516,13 @@
       <c r="D27" s="8"/>
       <c r="E27" s="36"/>
       <c r="F27" s="8"/>
-      <c r="G27" s="43"/>
-      <c r="H27" s="44"/>
-      <c r="I27" s="49">
+      <c r="G27" s="63"/>
+      <c r="H27" s="64"/>
+      <c r="I27" s="67">
         <f>'Daily Schedule SUN'!I27:J27</f>
         <v>0</v>
       </c>
-      <c r="J27" s="50"/>
+      <c r="J27" s="68"/>
     </row>
     <row r="28" spans="1:10" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A28" s="8"/>
@@ -2540,12 +2549,12 @@
       <c r="D29" s="8"/>
       <c r="E29" s="16"/>
       <c r="F29" s="8"/>
-      <c r="G29" s="71" t="s">
+      <c r="G29" s="38" t="s">
         <v>26</v>
       </c>
-      <c r="H29" s="72"/>
-      <c r="I29" s="72"/>
-      <c r="J29" s="73"/>
+      <c r="H29" s="39"/>
+      <c r="I29" s="39"/>
+      <c r="J29" s="40"/>
     </row>
     <row r="30" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30" s="8"/>
@@ -2557,10 +2566,10 @@
       <c r="D30" s="8"/>
       <c r="E30" s="17"/>
       <c r="F30" s="8"/>
-      <c r="G30" s="74"/>
-      <c r="H30" s="75"/>
-      <c r="I30" s="75"/>
-      <c r="J30" s="76"/>
+      <c r="G30" s="41"/>
+      <c r="H30" s="42"/>
+      <c r="I30" s="42"/>
+      <c r="J30" s="43"/>
     </row>
     <row r="31" spans="1:10" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A31" s="8"/>
@@ -2572,10 +2581,10 @@
       <c r="D31" s="8"/>
       <c r="E31" s="36"/>
       <c r="F31" s="8"/>
-      <c r="G31" s="77"/>
-      <c r="H31" s="78"/>
-      <c r="I31" s="78"/>
-      <c r="J31" s="79"/>
+      <c r="G31" s="44"/>
+      <c r="H31" s="45"/>
+      <c r="I31" s="45"/>
+      <c r="J31" s="46"/>
     </row>
     <row r="32" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A32" s="8"/>
@@ -2699,6 +2708,23 @@
     </row>
   </sheetData>
   <mergeCells count="33">
+    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="I13:J13"/>
+    <mergeCell ref="I14:J14"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="I8:J8"/>
+    <mergeCell ref="I9:J9"/>
+    <mergeCell ref="I25:J25"/>
+    <mergeCell ref="I16:J16"/>
+    <mergeCell ref="I17:J17"/>
+    <mergeCell ref="I18:J18"/>
+    <mergeCell ref="I19:J19"/>
+    <mergeCell ref="I20:J20"/>
     <mergeCell ref="G29:J31"/>
     <mergeCell ref="I26:J26"/>
     <mergeCell ref="I27:J27"/>
@@ -2715,23 +2741,6 @@
     <mergeCell ref="I22:J22"/>
     <mergeCell ref="I23:J23"/>
     <mergeCell ref="I24:J24"/>
-    <mergeCell ref="I25:J25"/>
-    <mergeCell ref="I16:J16"/>
-    <mergeCell ref="I17:J17"/>
-    <mergeCell ref="I18:J18"/>
-    <mergeCell ref="I19:J19"/>
-    <mergeCell ref="I20:J20"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="I7:J7"/>
-    <mergeCell ref="I8:J8"/>
-    <mergeCell ref="I9:J9"/>
-    <mergeCell ref="I15:J15"/>
-    <mergeCell ref="I10:J10"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="I12:J12"/>
-    <mergeCell ref="I13:J13"/>
-    <mergeCell ref="I14:J14"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="G29" r:id="rId1"/>
@@ -2780,8 +2789,8 @@
   </sheetPr>
   <dimension ref="A1:J39"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A10" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="80" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A13" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="80" workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.69140625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -2813,10 +2822,10 @@
     </row>
     <row r="2" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.65">
       <c r="A2" s="8"/>
-      <c r="B2" s="38" t="s">
+      <c r="B2" s="71" t="s">
         <v>25</v>
       </c>
-      <c r="C2" s="38"/>
+      <c r="C2" s="71"/>
       <c r="D2" s="9"/>
       <c r="E2" s="12" t="s">
         <v>13</v>
@@ -2833,8 +2842,8 @@
     </row>
     <row r="3" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.65">
       <c r="A3" s="8"/>
-      <c r="B3" s="38"/>
-      <c r="C3" s="38"/>
+      <c r="B3" s="71"/>
+      <c r="C3" s="71"/>
       <c r="D3" s="9"/>
       <c r="E3" s="13">
         <f>'Daily Schedule SUN'!E3</f>
@@ -2867,38 +2876,38 @@
     </row>
     <row r="5" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="8"/>
-      <c r="B5" s="39" t="s">
+      <c r="B5" s="72" t="s">
         <v>0</v>
       </c>
       <c r="C5" s="23" t="s">
         <v>18</v>
       </c>
       <c r="D5" s="8"/>
-      <c r="E5" s="40" t="s">
+      <c r="E5" s="73" t="s">
         <v>14</v>
       </c>
       <c r="F5" s="8"/>
-      <c r="G5" s="81" t="s">
+      <c r="G5" s="80" t="s">
         <v>15</v>
       </c>
-      <c r="H5" s="82"/>
-      <c r="I5" s="81"/>
-      <c r="J5" s="81"/>
+      <c r="H5" s="81"/>
+      <c r="I5" s="80"/>
+      <c r="J5" s="80"/>
     </row>
     <row r="6" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="8"/>
-      <c r="B6" s="39"/>
+      <c r="B6" s="72"/>
       <c r="C6" s="24">
         <f>E3+2</f>
         <v>42885</v>
       </c>
       <c r="D6" s="8"/>
-      <c r="E6" s="40"/>
+      <c r="E6" s="73"/>
       <c r="F6" s="8"/>
-      <c r="G6" s="81"/>
-      <c r="H6" s="81"/>
-      <c r="I6" s="81"/>
-      <c r="J6" s="81"/>
+      <c r="G6" s="80"/>
+      <c r="H6" s="80"/>
+      <c r="I6" s="80"/>
+      <c r="J6" s="80"/>
     </row>
     <row r="7" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="8"/>
@@ -2910,16 +2919,16 @@
       <c r="D7" s="8"/>
       <c r="E7" s="16"/>
       <c r="F7" s="8"/>
-      <c r="G7" s="67">
+      <c r="G7" s="59">
         <f>E3</f>
         <v>42883</v>
       </c>
-      <c r="H7" s="68"/>
-      <c r="I7" s="69">
+      <c r="H7" s="60"/>
+      <c r="I7" s="65">
         <f>'Daily Schedule SUN'!I7:J7</f>
         <v>0</v>
       </c>
-      <c r="J7" s="70"/>
+      <c r="J7" s="66"/>
     </row>
     <row r="8" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="8"/>
@@ -2931,13 +2940,13 @@
       <c r="D8" s="8"/>
       <c r="E8" s="17"/>
       <c r="F8" s="8"/>
-      <c r="G8" s="41"/>
-      <c r="H8" s="42"/>
-      <c r="I8" s="47">
+      <c r="G8" s="61"/>
+      <c r="H8" s="62"/>
+      <c r="I8" s="53">
         <f>'Daily Schedule SUN'!I8:J8</f>
         <v>0</v>
       </c>
-      <c r="J8" s="48"/>
+      <c r="J8" s="54"/>
     </row>
     <row r="9" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="8"/>
@@ -2949,13 +2958,13 @@
       <c r="D9" s="8"/>
       <c r="E9" s="16"/>
       <c r="F9" s="8"/>
-      <c r="G9" s="43"/>
-      <c r="H9" s="44"/>
-      <c r="I9" s="49">
+      <c r="G9" s="63"/>
+      <c r="H9" s="64"/>
+      <c r="I9" s="67">
         <f>'Daily Schedule SUN'!I9:J9</f>
         <v>0</v>
       </c>
-      <c r="J9" s="50"/>
+      <c r="J9" s="68"/>
     </row>
     <row r="10" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="8"/>
@@ -2967,16 +2976,16 @@
       <c r="D10" s="8"/>
       <c r="E10" s="17"/>
       <c r="F10" s="8"/>
-      <c r="G10" s="57">
+      <c r="G10" s="47">
         <f>G7+1</f>
         <v>42884</v>
       </c>
-      <c r="H10" s="58"/>
-      <c r="I10" s="63">
+      <c r="H10" s="48"/>
+      <c r="I10" s="69">
         <f>'Daily Schedule SUN'!I10:J10</f>
         <v>0</v>
       </c>
-      <c r="J10" s="64"/>
+      <c r="J10" s="70"/>
     </row>
     <row r="11" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="8"/>
@@ -2988,13 +2997,13 @@
       <c r="D11" s="8"/>
       <c r="E11" s="16"/>
       <c r="F11" s="8"/>
-      <c r="G11" s="59"/>
-      <c r="H11" s="60"/>
-      <c r="I11" s="45">
+      <c r="G11" s="49"/>
+      <c r="H11" s="50"/>
+      <c r="I11" s="55">
         <f>'Daily Schedule SUN'!I11:J11</f>
         <v>0</v>
       </c>
-      <c r="J11" s="46"/>
+      <c r="J11" s="56"/>
     </row>
     <row r="12" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="8"/>
@@ -3006,13 +3015,13 @@
       <c r="D12" s="8"/>
       <c r="E12" s="17"/>
       <c r="F12" s="8"/>
-      <c r="G12" s="61"/>
-      <c r="H12" s="62"/>
-      <c r="I12" s="65">
+      <c r="G12" s="51"/>
+      <c r="H12" s="52"/>
+      <c r="I12" s="57">
         <f>'Daily Schedule SUN'!I12:J12</f>
         <v>0</v>
       </c>
-      <c r="J12" s="66"/>
+      <c r="J12" s="58"/>
     </row>
     <row r="13" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="8"/>
@@ -3024,16 +3033,16 @@
       <c r="D13" s="8"/>
       <c r="E13" s="16"/>
       <c r="F13" s="8"/>
-      <c r="G13" s="67">
+      <c r="G13" s="59">
         <f>G7+2</f>
         <v>42885</v>
       </c>
-      <c r="H13" s="68"/>
-      <c r="I13" s="69">
+      <c r="H13" s="60"/>
+      <c r="I13" s="65">
         <f>'Daily Schedule SUN'!I13:J13</f>
         <v>0</v>
       </c>
-      <c r="J13" s="70"/>
+      <c r="J13" s="66"/>
     </row>
     <row r="14" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="8"/>
@@ -3045,13 +3054,13 @@
       <c r="D14" s="8"/>
       <c r="E14" s="17"/>
       <c r="F14" s="8"/>
-      <c r="G14" s="41"/>
-      <c r="H14" s="42"/>
-      <c r="I14" s="47">
+      <c r="G14" s="61"/>
+      <c r="H14" s="62"/>
+      <c r="I14" s="53">
         <f>'Daily Schedule SUN'!I14:J14</f>
         <v>0</v>
       </c>
-      <c r="J14" s="48"/>
+      <c r="J14" s="54"/>
     </row>
     <row r="15" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="8"/>
@@ -3059,17 +3068,19 @@
         <f t="shared" si="0"/>
         <v>0.4583333333333332</v>
       </c>
-      <c r="C15" s="30"/>
+      <c r="C15" s="30" t="s">
+        <v>35</v>
+      </c>
       <c r="D15" s="8"/>
       <c r="E15" s="16"/>
       <c r="F15" s="8"/>
-      <c r="G15" s="43"/>
-      <c r="H15" s="44"/>
-      <c r="I15" s="49">
+      <c r="G15" s="63"/>
+      <c r="H15" s="64"/>
+      <c r="I15" s="67">
         <f>'Daily Schedule SUN'!I15:J15</f>
         <v>0</v>
       </c>
-      <c r="J15" s="50"/>
+      <c r="J15" s="68"/>
     </row>
     <row r="16" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="8"/>
@@ -3077,20 +3088,24 @@
         <f t="shared" si="0"/>
         <v>0.47916666666666652</v>
       </c>
-      <c r="C16" s="29"/>
+      <c r="C16" s="29" t="s">
+        <v>35</v>
+      </c>
       <c r="D16" s="8"/>
-      <c r="E16" s="17"/>
+      <c r="E16" s="17" t="s">
+        <v>28</v>
+      </c>
       <c r="F16" s="8"/>
-      <c r="G16" s="57">
+      <c r="G16" s="47">
         <f>G7+3</f>
         <v>42886</v>
       </c>
-      <c r="H16" s="58"/>
-      <c r="I16" s="63">
+      <c r="H16" s="48"/>
+      <c r="I16" s="69">
         <f>'Daily Schedule SUN'!I16:J16</f>
         <v>0</v>
       </c>
-      <c r="J16" s="64"/>
+      <c r="J16" s="70"/>
     </row>
     <row r="17" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="8"/>
@@ -3098,17 +3113,19 @@
         <f t="shared" si="0"/>
         <v>0.49999999999999983</v>
       </c>
-      <c r="C17" s="30"/>
+      <c r="C17" s="30" t="s">
+        <v>36</v>
+      </c>
       <c r="D17" s="8"/>
       <c r="E17" s="16"/>
       <c r="F17" s="8"/>
-      <c r="G17" s="59"/>
-      <c r="H17" s="60"/>
-      <c r="I17" s="45">
+      <c r="G17" s="49"/>
+      <c r="H17" s="50"/>
+      <c r="I17" s="55">
         <f>'Daily Schedule SUN'!I17:J17</f>
         <v>0</v>
       </c>
-      <c r="J17" s="46"/>
+      <c r="J17" s="56"/>
     </row>
     <row r="18" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="8"/>
@@ -3116,17 +3133,21 @@
         <f t="shared" si="0"/>
         <v>0.52083333333333315</v>
       </c>
-      <c r="C18" s="29"/>
+      <c r="C18" s="29" t="s">
+        <v>36</v>
+      </c>
       <c r="D18" s="8"/>
-      <c r="E18" s="17"/>
+      <c r="E18" s="17" t="s">
+        <v>28</v>
+      </c>
       <c r="F18" s="8"/>
-      <c r="G18" s="61"/>
-      <c r="H18" s="62"/>
-      <c r="I18" s="65">
+      <c r="G18" s="51"/>
+      <c r="H18" s="52"/>
+      <c r="I18" s="57">
         <f>'Daily Schedule SUN'!I18:J18</f>
         <v>0</v>
       </c>
-      <c r="J18" s="66"/>
+      <c r="J18" s="58"/>
     </row>
     <row r="19" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="8"/>
@@ -3134,20 +3155,22 @@
         <f t="shared" si="0"/>
         <v>0.54166666666666652</v>
       </c>
-      <c r="C19" s="30"/>
+      <c r="C19" s="30" t="s">
+        <v>27</v>
+      </c>
       <c r="D19" s="8"/>
       <c r="E19" s="16"/>
       <c r="F19" s="8"/>
-      <c r="G19" s="67">
+      <c r="G19" s="59">
         <f>G7+4</f>
         <v>42887</v>
       </c>
-      <c r="H19" s="68"/>
-      <c r="I19" s="69">
+      <c r="H19" s="60"/>
+      <c r="I19" s="65">
         <f>'Daily Schedule SUN'!I19:J19</f>
         <v>0</v>
       </c>
-      <c r="J19" s="70"/>
+      <c r="J19" s="66"/>
     </row>
     <row r="20" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="8"/>
@@ -3155,17 +3178,19 @@
         <f t="shared" si="0"/>
         <v>0.56249999999999989</v>
       </c>
-      <c r="C20" s="29"/>
+      <c r="C20" s="29" t="s">
+        <v>37</v>
+      </c>
       <c r="D20" s="8"/>
       <c r="E20" s="17"/>
       <c r="F20" s="8"/>
-      <c r="G20" s="41"/>
-      <c r="H20" s="42"/>
-      <c r="I20" s="47">
+      <c r="G20" s="61"/>
+      <c r="H20" s="62"/>
+      <c r="I20" s="53">
         <f>'Daily Schedule SUN'!I20:J20</f>
         <v>0</v>
       </c>
-      <c r="J20" s="48"/>
+      <c r="J20" s="54"/>
     </row>
     <row r="21" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="8"/>
@@ -3173,17 +3198,19 @@
         <f t="shared" si="0"/>
         <v>0.58333333333333326</v>
       </c>
-      <c r="C21" s="30"/>
+      <c r="C21" s="30" t="s">
+        <v>37</v>
+      </c>
       <c r="D21" s="8"/>
       <c r="E21" s="16"/>
       <c r="F21" s="8"/>
-      <c r="G21" s="43"/>
-      <c r="H21" s="44"/>
-      <c r="I21" s="49">
+      <c r="G21" s="63"/>
+      <c r="H21" s="64"/>
+      <c r="I21" s="67">
         <f>'Daily Schedule SUN'!I21:J21</f>
         <v>0</v>
       </c>
-      <c r="J21" s="50"/>
+      <c r="J21" s="68"/>
     </row>
     <row r="22" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="8"/>
@@ -3191,20 +3218,22 @@
         <f t="shared" si="0"/>
         <v>0.60416666666666663</v>
       </c>
-      <c r="C22" s="29"/>
+      <c r="C22" s="29" t="s">
+        <v>37</v>
+      </c>
       <c r="D22" s="8"/>
       <c r="E22" s="17"/>
       <c r="F22" s="8"/>
-      <c r="G22" s="57">
+      <c r="G22" s="47">
         <f>G7+5</f>
         <v>42888</v>
       </c>
-      <c r="H22" s="58"/>
-      <c r="I22" s="63">
+      <c r="H22" s="48"/>
+      <c r="I22" s="69">
         <f>'Daily Schedule SUN'!I22:J22</f>
         <v>0</v>
       </c>
-      <c r="J22" s="64"/>
+      <c r="J22" s="70"/>
     </row>
     <row r="23" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="8"/>
@@ -3212,17 +3241,19 @@
         <f t="shared" si="0"/>
         <v>0.625</v>
       </c>
-      <c r="C23" s="30"/>
+      <c r="C23" s="30" t="s">
+        <v>37</v>
+      </c>
       <c r="D23" s="8"/>
       <c r="E23" s="16"/>
       <c r="F23" s="8"/>
-      <c r="G23" s="59"/>
-      <c r="H23" s="60"/>
-      <c r="I23" s="45">
+      <c r="G23" s="49"/>
+      <c r="H23" s="50"/>
+      <c r="I23" s="55">
         <f>'Daily Schedule SUN'!I23:J23</f>
         <v>0</v>
       </c>
-      <c r="J23" s="46"/>
+      <c r="J23" s="56"/>
     </row>
     <row r="24" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="8"/>
@@ -3230,17 +3261,19 @@
         <f t="shared" si="0"/>
         <v>0.64583333333333337</v>
       </c>
-      <c r="C24" s="29"/>
+      <c r="C24" s="29" t="s">
+        <v>37</v>
+      </c>
       <c r="D24" s="8"/>
       <c r="E24" s="17"/>
       <c r="F24" s="8"/>
-      <c r="G24" s="61"/>
-      <c r="H24" s="62"/>
-      <c r="I24" s="65">
+      <c r="G24" s="51"/>
+      <c r="H24" s="52"/>
+      <c r="I24" s="57">
         <f>'Daily Schedule SUN'!I24:J24</f>
         <v>0</v>
       </c>
-      <c r="J24" s="66"/>
+      <c r="J24" s="58"/>
     </row>
     <row r="25" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="8"/>
@@ -3252,16 +3285,16 @@
       <c r="D25" s="8"/>
       <c r="E25" s="16"/>
       <c r="F25" s="8"/>
-      <c r="G25" s="67">
+      <c r="G25" s="59">
         <f>G7+6</f>
         <v>42889</v>
       </c>
-      <c r="H25" s="68"/>
-      <c r="I25" s="69">
+      <c r="H25" s="60"/>
+      <c r="I25" s="65">
         <f>'Daily Schedule SUN'!I25:J25</f>
         <v>0</v>
       </c>
-      <c r="J25" s="70"/>
+      <c r="J25" s="66"/>
     </row>
     <row r="26" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="8"/>
@@ -3273,13 +3306,13 @@
       <c r="D26" s="8"/>
       <c r="E26" s="17"/>
       <c r="F26" s="8"/>
-      <c r="G26" s="41"/>
-      <c r="H26" s="42"/>
-      <c r="I26" s="47">
+      <c r="G26" s="61"/>
+      <c r="H26" s="62"/>
+      <c r="I26" s="53">
         <f>'Daily Schedule SUN'!I26:J26</f>
         <v>0</v>
       </c>
-      <c r="J26" s="48"/>
+      <c r="J26" s="54"/>
     </row>
     <row r="27" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="8"/>
@@ -3291,13 +3324,13 @@
       <c r="D27" s="8"/>
       <c r="E27" s="16"/>
       <c r="F27" s="8"/>
-      <c r="G27" s="43"/>
-      <c r="H27" s="44"/>
-      <c r="I27" s="49">
+      <c r="G27" s="63"/>
+      <c r="H27" s="64"/>
+      <c r="I27" s="67">
         <f>'Daily Schedule SUN'!I27:J27</f>
         <v>0</v>
       </c>
-      <c r="J27" s="50"/>
+      <c r="J27" s="68"/>
     </row>
     <row r="28" spans="1:10" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A28" s="8"/>
@@ -3324,12 +3357,12 @@
       <c r="D29" s="8"/>
       <c r="E29" s="16"/>
       <c r="F29" s="8"/>
-      <c r="G29" s="71" t="s">
+      <c r="G29" s="38" t="s">
         <v>26</v>
       </c>
-      <c r="H29" s="72"/>
-      <c r="I29" s="72"/>
-      <c r="J29" s="73"/>
+      <c r="H29" s="39"/>
+      <c r="I29" s="39"/>
+      <c r="J29" s="40"/>
     </row>
     <row r="30" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30" s="8"/>
@@ -3341,10 +3374,10 @@
       <c r="D30" s="8"/>
       <c r="E30" s="17"/>
       <c r="F30" s="8"/>
-      <c r="G30" s="74"/>
-      <c r="H30" s="75"/>
-      <c r="I30" s="75"/>
-      <c r="J30" s="76"/>
+      <c r="G30" s="41"/>
+      <c r="H30" s="42"/>
+      <c r="I30" s="42"/>
+      <c r="J30" s="43"/>
     </row>
     <row r="31" spans="1:10" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A31" s="8"/>
@@ -3356,10 +3389,10 @@
       <c r="D31" s="8"/>
       <c r="E31" s="16"/>
       <c r="F31" s="8"/>
-      <c r="G31" s="77"/>
-      <c r="H31" s="78"/>
-      <c r="I31" s="78"/>
-      <c r="J31" s="79"/>
+      <c r="G31" s="44"/>
+      <c r="H31" s="45"/>
+      <c r="I31" s="45"/>
+      <c r="J31" s="46"/>
     </row>
     <row r="32" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A32" s="8"/>
@@ -3483,6 +3516,30 @@
     </row>
   </sheetData>
   <mergeCells count="33">
+    <mergeCell ref="B2:C3"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="G5:J6"/>
+    <mergeCell ref="G7:H9"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="I8:J8"/>
+    <mergeCell ref="I9:J9"/>
+    <mergeCell ref="G10:H12"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="G13:H15"/>
+    <mergeCell ref="I13:J13"/>
+    <mergeCell ref="I14:J14"/>
+    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="G16:H18"/>
+    <mergeCell ref="I16:J16"/>
+    <mergeCell ref="I17:J17"/>
+    <mergeCell ref="I18:J18"/>
+    <mergeCell ref="G19:H21"/>
+    <mergeCell ref="I19:J19"/>
+    <mergeCell ref="I20:J20"/>
+    <mergeCell ref="I21:J21"/>
     <mergeCell ref="G29:J31"/>
     <mergeCell ref="G22:H24"/>
     <mergeCell ref="I22:J22"/>
@@ -3492,30 +3549,6 @@
     <mergeCell ref="I25:J25"/>
     <mergeCell ref="I26:J26"/>
     <mergeCell ref="I27:J27"/>
-    <mergeCell ref="G16:H18"/>
-    <mergeCell ref="I16:J16"/>
-    <mergeCell ref="I17:J17"/>
-    <mergeCell ref="I18:J18"/>
-    <mergeCell ref="G19:H21"/>
-    <mergeCell ref="I19:J19"/>
-    <mergeCell ref="I20:J20"/>
-    <mergeCell ref="I21:J21"/>
-    <mergeCell ref="G10:H12"/>
-    <mergeCell ref="I10:J10"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="I12:J12"/>
-    <mergeCell ref="G13:H15"/>
-    <mergeCell ref="I13:J13"/>
-    <mergeCell ref="I14:J14"/>
-    <mergeCell ref="I15:J15"/>
-    <mergeCell ref="B2:C3"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="G5:J6"/>
-    <mergeCell ref="G7:H9"/>
-    <mergeCell ref="I7:J7"/>
-    <mergeCell ref="I8:J8"/>
-    <mergeCell ref="I9:J9"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="G29" r:id="rId1"/>
@@ -3597,10 +3630,10 @@
     </row>
     <row r="2" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.65">
       <c r="A2" s="8"/>
-      <c r="B2" s="38" t="s">
+      <c r="B2" s="71" t="s">
         <v>25</v>
       </c>
-      <c r="C2" s="38"/>
+      <c r="C2" s="71"/>
       <c r="D2" s="9"/>
       <c r="E2" s="12" t="s">
         <v>13</v>
@@ -3617,8 +3650,8 @@
     </row>
     <row r="3" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.65">
       <c r="A3" s="8"/>
-      <c r="B3" s="38"/>
-      <c r="C3" s="38"/>
+      <c r="B3" s="71"/>
+      <c r="C3" s="71"/>
       <c r="D3" s="9"/>
       <c r="E3" s="13">
         <f>'Daily Schedule SUN'!E3</f>
@@ -3651,38 +3684,38 @@
     </row>
     <row r="5" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="8"/>
-      <c r="B5" s="39" t="s">
+      <c r="B5" s="72" t="s">
         <v>0</v>
       </c>
       <c r="C5" s="23" t="s">
         <v>19</v>
       </c>
       <c r="D5" s="8"/>
-      <c r="E5" s="40" t="s">
+      <c r="E5" s="73" t="s">
         <v>14</v>
       </c>
       <c r="F5" s="8"/>
-      <c r="G5" s="81" t="s">
+      <c r="G5" s="80" t="s">
         <v>15</v>
       </c>
-      <c r="H5" s="82"/>
-      <c r="I5" s="81"/>
-      <c r="J5" s="81"/>
+      <c r="H5" s="81"/>
+      <c r="I5" s="80"/>
+      <c r="J5" s="80"/>
     </row>
     <row r="6" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="8"/>
-      <c r="B6" s="39"/>
+      <c r="B6" s="72"/>
       <c r="C6" s="24">
         <f>E3+3</f>
         <v>42886</v>
       </c>
       <c r="D6" s="8"/>
-      <c r="E6" s="40"/>
+      <c r="E6" s="73"/>
       <c r="F6" s="8"/>
-      <c r="G6" s="81"/>
-      <c r="H6" s="81"/>
-      <c r="I6" s="81"/>
-      <c r="J6" s="81"/>
+      <c r="G6" s="80"/>
+      <c r="H6" s="80"/>
+      <c r="I6" s="80"/>
+      <c r="J6" s="80"/>
     </row>
     <row r="7" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="8"/>
@@ -3694,16 +3727,16 @@
       <c r="D7" s="8"/>
       <c r="E7" s="16"/>
       <c r="F7" s="8"/>
-      <c r="G7" s="67">
+      <c r="G7" s="59">
         <f>E3</f>
         <v>42883</v>
       </c>
-      <c r="H7" s="68"/>
-      <c r="I7" s="69">
+      <c r="H7" s="60"/>
+      <c r="I7" s="65">
         <f>'Daily Schedule SUN'!I7:J7</f>
         <v>0</v>
       </c>
-      <c r="J7" s="70"/>
+      <c r="J7" s="66"/>
     </row>
     <row r="8" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="8"/>
@@ -3715,13 +3748,13 @@
       <c r="D8" s="8"/>
       <c r="E8" s="17"/>
       <c r="F8" s="8"/>
-      <c r="G8" s="41"/>
-      <c r="H8" s="42"/>
-      <c r="I8" s="47">
+      <c r="G8" s="61"/>
+      <c r="H8" s="62"/>
+      <c r="I8" s="53">
         <f>'Daily Schedule SUN'!I8:J8</f>
         <v>0</v>
       </c>
-      <c r="J8" s="48"/>
+      <c r="J8" s="54"/>
     </row>
     <row r="9" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="8"/>
@@ -3733,13 +3766,13 @@
       <c r="D9" s="8"/>
       <c r="E9" s="16"/>
       <c r="F9" s="8"/>
-      <c r="G9" s="43"/>
-      <c r="H9" s="44"/>
-      <c r="I9" s="49">
+      <c r="G9" s="63"/>
+      <c r="H9" s="64"/>
+      <c r="I9" s="67">
         <f>'Daily Schedule SUN'!I9:J9</f>
         <v>0</v>
       </c>
-      <c r="J9" s="50"/>
+      <c r="J9" s="68"/>
     </row>
     <row r="10" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="8"/>
@@ -3751,16 +3784,16 @@
       <c r="D10" s="8"/>
       <c r="E10" s="17"/>
       <c r="F10" s="8"/>
-      <c r="G10" s="57">
+      <c r="G10" s="47">
         <f>G7+1</f>
         <v>42884</v>
       </c>
-      <c r="H10" s="58"/>
-      <c r="I10" s="63">
+      <c r="H10" s="48"/>
+      <c r="I10" s="69">
         <f>'Daily Schedule SUN'!I10:J10</f>
         <v>0</v>
       </c>
-      <c r="J10" s="64"/>
+      <c r="J10" s="70"/>
     </row>
     <row r="11" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="8"/>
@@ -3772,13 +3805,13 @@
       <c r="D11" s="8"/>
       <c r="E11" s="16"/>
       <c r="F11" s="8"/>
-      <c r="G11" s="59"/>
-      <c r="H11" s="60"/>
-      <c r="I11" s="45">
+      <c r="G11" s="49"/>
+      <c r="H11" s="50"/>
+      <c r="I11" s="55">
         <f>'Daily Schedule SUN'!I11:J11</f>
         <v>0</v>
       </c>
-      <c r="J11" s="46"/>
+      <c r="J11" s="56"/>
     </row>
     <row r="12" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="8"/>
@@ -3790,13 +3823,13 @@
       <c r="D12" s="8"/>
       <c r="E12" s="17"/>
       <c r="F12" s="8"/>
-      <c r="G12" s="61"/>
-      <c r="H12" s="62"/>
-      <c r="I12" s="65">
+      <c r="G12" s="51"/>
+      <c r="H12" s="52"/>
+      <c r="I12" s="57">
         <f>'Daily Schedule SUN'!I12:J12</f>
         <v>0</v>
       </c>
-      <c r="J12" s="66"/>
+      <c r="J12" s="58"/>
     </row>
     <row r="13" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="8"/>
@@ -3808,16 +3841,16 @@
       <c r="D13" s="8"/>
       <c r="E13" s="16"/>
       <c r="F13" s="8"/>
-      <c r="G13" s="67">
+      <c r="G13" s="59">
         <f>G7+2</f>
         <v>42885</v>
       </c>
-      <c r="H13" s="68"/>
-      <c r="I13" s="69">
+      <c r="H13" s="60"/>
+      <c r="I13" s="65">
         <f>'Daily Schedule SUN'!I13:J13</f>
         <v>0</v>
       </c>
-      <c r="J13" s="70"/>
+      <c r="J13" s="66"/>
     </row>
     <row r="14" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="8"/>
@@ -3829,13 +3862,13 @@
       <c r="D14" s="8"/>
       <c r="E14" s="17"/>
       <c r="F14" s="8"/>
-      <c r="G14" s="41"/>
-      <c r="H14" s="42"/>
-      <c r="I14" s="47">
+      <c r="G14" s="61"/>
+      <c r="H14" s="62"/>
+      <c r="I14" s="53">
         <f>'Daily Schedule SUN'!I14:J14</f>
         <v>0</v>
       </c>
-      <c r="J14" s="48"/>
+      <c r="J14" s="54"/>
     </row>
     <row r="15" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="8"/>
@@ -3847,13 +3880,13 @@
       <c r="D15" s="8"/>
       <c r="E15" s="16"/>
       <c r="F15" s="8"/>
-      <c r="G15" s="43"/>
-      <c r="H15" s="44"/>
-      <c r="I15" s="49">
+      <c r="G15" s="63"/>
+      <c r="H15" s="64"/>
+      <c r="I15" s="67">
         <f>'Daily Schedule SUN'!I15:J15</f>
         <v>0</v>
       </c>
-      <c r="J15" s="50"/>
+      <c r="J15" s="68"/>
     </row>
     <row r="16" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="8"/>
@@ -3865,16 +3898,16 @@
       <c r="D16" s="8"/>
       <c r="E16" s="17"/>
       <c r="F16" s="8"/>
-      <c r="G16" s="57">
+      <c r="G16" s="47">
         <f>G7+3</f>
         <v>42886</v>
       </c>
-      <c r="H16" s="58"/>
-      <c r="I16" s="63">
+      <c r="H16" s="48"/>
+      <c r="I16" s="69">
         <f>'Daily Schedule SUN'!I16:J16</f>
         <v>0</v>
       </c>
-      <c r="J16" s="64"/>
+      <c r="J16" s="70"/>
     </row>
     <row r="17" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="8"/>
@@ -3886,13 +3919,13 @@
       <c r="D17" s="8"/>
       <c r="E17" s="16"/>
       <c r="F17" s="8"/>
-      <c r="G17" s="59"/>
-      <c r="H17" s="60"/>
-      <c r="I17" s="45">
+      <c r="G17" s="49"/>
+      <c r="H17" s="50"/>
+      <c r="I17" s="55">
         <f>'Daily Schedule SUN'!I17:J17</f>
         <v>0</v>
       </c>
-      <c r="J17" s="46"/>
+      <c r="J17" s="56"/>
     </row>
     <row r="18" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="8"/>
@@ -3904,13 +3937,13 @@
       <c r="D18" s="8"/>
       <c r="E18" s="17"/>
       <c r="F18" s="8"/>
-      <c r="G18" s="61"/>
-      <c r="H18" s="62"/>
-      <c r="I18" s="65">
+      <c r="G18" s="51"/>
+      <c r="H18" s="52"/>
+      <c r="I18" s="57">
         <f>'Daily Schedule SUN'!I18:J18</f>
         <v>0</v>
       </c>
-      <c r="J18" s="66"/>
+      <c r="J18" s="58"/>
     </row>
     <row r="19" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="8"/>
@@ -3922,16 +3955,16 @@
       <c r="D19" s="8"/>
       <c r="E19" s="16"/>
       <c r="F19" s="8"/>
-      <c r="G19" s="67">
+      <c r="G19" s="59">
         <f>G7+4</f>
         <v>42887</v>
       </c>
-      <c r="H19" s="68"/>
-      <c r="I19" s="69">
+      <c r="H19" s="60"/>
+      <c r="I19" s="65">
         <f>'Daily Schedule SUN'!I19:J19</f>
         <v>0</v>
       </c>
-      <c r="J19" s="70"/>
+      <c r="J19" s="66"/>
     </row>
     <row r="20" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="8"/>
@@ -3943,13 +3976,13 @@
       <c r="D20" s="8"/>
       <c r="E20" s="17"/>
       <c r="F20" s="8"/>
-      <c r="G20" s="41"/>
-      <c r="H20" s="42"/>
-      <c r="I20" s="47">
+      <c r="G20" s="61"/>
+      <c r="H20" s="62"/>
+      <c r="I20" s="53">
         <f>'Daily Schedule SUN'!I20:J20</f>
         <v>0</v>
       </c>
-      <c r="J20" s="48"/>
+      <c r="J20" s="54"/>
     </row>
     <row r="21" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="8"/>
@@ -3961,13 +3994,13 @@
       <c r="D21" s="8"/>
       <c r="E21" s="16"/>
       <c r="F21" s="8"/>
-      <c r="G21" s="43"/>
-      <c r="H21" s="44"/>
-      <c r="I21" s="49">
+      <c r="G21" s="63"/>
+      <c r="H21" s="64"/>
+      <c r="I21" s="67">
         <f>'Daily Schedule SUN'!I21:J21</f>
         <v>0</v>
       </c>
-      <c r="J21" s="50"/>
+      <c r="J21" s="68"/>
     </row>
     <row r="22" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="8"/>
@@ -3979,16 +4012,16 @@
       <c r="D22" s="8"/>
       <c r="E22" s="17"/>
       <c r="F22" s="8"/>
-      <c r="G22" s="57">
+      <c r="G22" s="47">
         <f>G7+5</f>
         <v>42888</v>
       </c>
-      <c r="H22" s="58"/>
-      <c r="I22" s="63">
+      <c r="H22" s="48"/>
+      <c r="I22" s="69">
         <f>'Daily Schedule SUN'!I22:J22</f>
         <v>0</v>
       </c>
-      <c r="J22" s="64"/>
+      <c r="J22" s="70"/>
     </row>
     <row r="23" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="8"/>
@@ -4000,13 +4033,13 @@
       <c r="D23" s="8"/>
       <c r="E23" s="16"/>
       <c r="F23" s="8"/>
-      <c r="G23" s="59"/>
-      <c r="H23" s="60"/>
-      <c r="I23" s="45">
+      <c r="G23" s="49"/>
+      <c r="H23" s="50"/>
+      <c r="I23" s="55">
         <f>'Daily Schedule SUN'!I23:J23</f>
         <v>0</v>
       </c>
-      <c r="J23" s="46"/>
+      <c r="J23" s="56"/>
     </row>
     <row r="24" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="8"/>
@@ -4018,13 +4051,13 @@
       <c r="D24" s="8"/>
       <c r="E24" s="37"/>
       <c r="F24" s="8"/>
-      <c r="G24" s="61"/>
-      <c r="H24" s="62"/>
-      <c r="I24" s="65">
+      <c r="G24" s="51"/>
+      <c r="H24" s="52"/>
+      <c r="I24" s="57">
         <f>'Daily Schedule SUN'!I24:J24</f>
         <v>0</v>
       </c>
-      <c r="J24" s="66"/>
+      <c r="J24" s="58"/>
     </row>
     <row r="25" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="8"/>
@@ -4036,16 +4069,16 @@
       <c r="D25" s="8"/>
       <c r="E25" s="16"/>
       <c r="F25" s="8"/>
-      <c r="G25" s="67">
+      <c r="G25" s="59">
         <f>G7+6</f>
         <v>42889</v>
       </c>
-      <c r="H25" s="68"/>
-      <c r="I25" s="69">
+      <c r="H25" s="60"/>
+      <c r="I25" s="65">
         <f>'Daily Schedule SUN'!I25:J25</f>
         <v>0</v>
       </c>
-      <c r="J25" s="70"/>
+      <c r="J25" s="66"/>
     </row>
     <row r="26" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="8"/>
@@ -4057,13 +4090,13 @@
       <c r="D26" s="8"/>
       <c r="E26" s="17"/>
       <c r="F26" s="8"/>
-      <c r="G26" s="41"/>
-      <c r="H26" s="42"/>
-      <c r="I26" s="47">
+      <c r="G26" s="61"/>
+      <c r="H26" s="62"/>
+      <c r="I26" s="53">
         <f>'Daily Schedule SUN'!I26:J26</f>
         <v>0</v>
       </c>
-      <c r="J26" s="48"/>
+      <c r="J26" s="54"/>
     </row>
     <row r="27" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="8"/>
@@ -4075,13 +4108,13 @@
       <c r="D27" s="8"/>
       <c r="E27" s="16"/>
       <c r="F27" s="8"/>
-      <c r="G27" s="43"/>
-      <c r="H27" s="44"/>
-      <c r="I27" s="49">
+      <c r="G27" s="63"/>
+      <c r="H27" s="64"/>
+      <c r="I27" s="67">
         <f>'Daily Schedule SUN'!I27:J27</f>
         <v>0</v>
       </c>
-      <c r="J27" s="50"/>
+      <c r="J27" s="68"/>
     </row>
     <row r="28" spans="1:10" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A28" s="8"/>
@@ -4108,12 +4141,12 @@
       <c r="D29" s="8"/>
       <c r="E29" s="16"/>
       <c r="F29" s="8"/>
-      <c r="G29" s="71" t="s">
+      <c r="G29" s="38" t="s">
         <v>26</v>
       </c>
-      <c r="H29" s="72"/>
-      <c r="I29" s="72"/>
-      <c r="J29" s="73"/>
+      <c r="H29" s="39"/>
+      <c r="I29" s="39"/>
+      <c r="J29" s="40"/>
     </row>
     <row r="30" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30" s="8"/>
@@ -4125,10 +4158,10 @@
       <c r="D30" s="8"/>
       <c r="E30" s="17"/>
       <c r="F30" s="8"/>
-      <c r="G30" s="74"/>
-      <c r="H30" s="75"/>
-      <c r="I30" s="75"/>
-      <c r="J30" s="76"/>
+      <c r="G30" s="41"/>
+      <c r="H30" s="42"/>
+      <c r="I30" s="42"/>
+      <c r="J30" s="43"/>
     </row>
     <row r="31" spans="1:10" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A31" s="8"/>
@@ -4140,10 +4173,10 @@
       <c r="D31" s="8"/>
       <c r="E31" s="16"/>
       <c r="F31" s="8"/>
-      <c r="G31" s="77"/>
-      <c r="H31" s="78"/>
-      <c r="I31" s="78"/>
-      <c r="J31" s="79"/>
+      <c r="G31" s="44"/>
+      <c r="H31" s="45"/>
+      <c r="I31" s="45"/>
+      <c r="J31" s="46"/>
     </row>
     <row r="32" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A32" s="8"/>
@@ -4267,6 +4300,30 @@
     </row>
   </sheetData>
   <mergeCells count="33">
+    <mergeCell ref="B2:C3"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="G5:J6"/>
+    <mergeCell ref="G7:H9"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="I8:J8"/>
+    <mergeCell ref="I9:J9"/>
+    <mergeCell ref="G10:H12"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="G13:H15"/>
+    <mergeCell ref="I13:J13"/>
+    <mergeCell ref="I14:J14"/>
+    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="G16:H18"/>
+    <mergeCell ref="I16:J16"/>
+    <mergeCell ref="I17:J17"/>
+    <mergeCell ref="I18:J18"/>
+    <mergeCell ref="G19:H21"/>
+    <mergeCell ref="I19:J19"/>
+    <mergeCell ref="I20:J20"/>
+    <mergeCell ref="I21:J21"/>
     <mergeCell ref="G29:J31"/>
     <mergeCell ref="G22:H24"/>
     <mergeCell ref="I22:J22"/>
@@ -4276,30 +4333,6 @@
     <mergeCell ref="I25:J25"/>
     <mergeCell ref="I26:J26"/>
     <mergeCell ref="I27:J27"/>
-    <mergeCell ref="G16:H18"/>
-    <mergeCell ref="I16:J16"/>
-    <mergeCell ref="I17:J17"/>
-    <mergeCell ref="I18:J18"/>
-    <mergeCell ref="G19:H21"/>
-    <mergeCell ref="I19:J19"/>
-    <mergeCell ref="I20:J20"/>
-    <mergeCell ref="I21:J21"/>
-    <mergeCell ref="G10:H12"/>
-    <mergeCell ref="I10:J10"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="I12:J12"/>
-    <mergeCell ref="G13:H15"/>
-    <mergeCell ref="I13:J13"/>
-    <mergeCell ref="I14:J14"/>
-    <mergeCell ref="I15:J15"/>
-    <mergeCell ref="B2:C3"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="G5:J6"/>
-    <mergeCell ref="G7:H9"/>
-    <mergeCell ref="I7:J7"/>
-    <mergeCell ref="I8:J8"/>
-    <mergeCell ref="I9:J9"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="G29" r:id="rId1"/>
@@ -4381,10 +4414,10 @@
     </row>
     <row r="2" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.65">
       <c r="A2" s="8"/>
-      <c r="B2" s="38" t="s">
+      <c r="B2" s="71" t="s">
         <v>25</v>
       </c>
-      <c r="C2" s="38"/>
+      <c r="C2" s="71"/>
       <c r="D2" s="9"/>
       <c r="E2" s="12" t="s">
         <v>13</v>
@@ -4401,8 +4434,8 @@
     </row>
     <row r="3" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.65">
       <c r="A3" s="8"/>
-      <c r="B3" s="38"/>
-      <c r="C3" s="38"/>
+      <c r="B3" s="71"/>
+      <c r="C3" s="71"/>
       <c r="D3" s="9"/>
       <c r="E3" s="13">
         <f>'Daily Schedule SUN'!E3</f>
@@ -4435,38 +4468,38 @@
     </row>
     <row r="5" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="8"/>
-      <c r="B5" s="39" t="s">
+      <c r="B5" s="72" t="s">
         <v>0</v>
       </c>
       <c r="C5" s="23" t="s">
         <v>20</v>
       </c>
       <c r="D5" s="8"/>
-      <c r="E5" s="40" t="s">
+      <c r="E5" s="73" t="s">
         <v>14</v>
       </c>
       <c r="F5" s="8"/>
-      <c r="G5" s="81" t="s">
+      <c r="G5" s="80" t="s">
         <v>15</v>
       </c>
-      <c r="H5" s="82"/>
-      <c r="I5" s="81"/>
-      <c r="J5" s="81"/>
+      <c r="H5" s="81"/>
+      <c r="I5" s="80"/>
+      <c r="J5" s="80"/>
     </row>
     <row r="6" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="8"/>
-      <c r="B6" s="39"/>
+      <c r="B6" s="72"/>
       <c r="C6" s="24">
         <f>E3+4</f>
         <v>42887</v>
       </c>
       <c r="D6" s="8"/>
-      <c r="E6" s="40"/>
+      <c r="E6" s="73"/>
       <c r="F6" s="8"/>
-      <c r="G6" s="81"/>
-      <c r="H6" s="81"/>
-      <c r="I6" s="81"/>
-      <c r="J6" s="81"/>
+      <c r="G6" s="80"/>
+      <c r="H6" s="80"/>
+      <c r="I6" s="80"/>
+      <c r="J6" s="80"/>
     </row>
     <row r="7" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="8"/>
@@ -4478,16 +4511,16 @@
       <c r="D7" s="8"/>
       <c r="E7" s="16"/>
       <c r="F7" s="8"/>
-      <c r="G7" s="67">
+      <c r="G7" s="59">
         <f>E3</f>
         <v>42883</v>
       </c>
-      <c r="H7" s="68"/>
-      <c r="I7" s="69">
+      <c r="H7" s="60"/>
+      <c r="I7" s="65">
         <f>'Daily Schedule SUN'!I7:J7</f>
         <v>0</v>
       </c>
-      <c r="J7" s="70"/>
+      <c r="J7" s="66"/>
     </row>
     <row r="8" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="8"/>
@@ -4499,13 +4532,13 @@
       <c r="D8" s="8"/>
       <c r="E8" s="17"/>
       <c r="F8" s="8"/>
-      <c r="G8" s="41"/>
-      <c r="H8" s="42"/>
-      <c r="I8" s="47">
+      <c r="G8" s="61"/>
+      <c r="H8" s="62"/>
+      <c r="I8" s="53">
         <f>'Daily Schedule SUN'!I8:J8</f>
         <v>0</v>
       </c>
-      <c r="J8" s="48"/>
+      <c r="J8" s="54"/>
     </row>
     <row r="9" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="8"/>
@@ -4517,13 +4550,13 @@
       <c r="D9" s="8"/>
       <c r="E9" s="16"/>
       <c r="F9" s="8"/>
-      <c r="G9" s="43"/>
-      <c r="H9" s="44"/>
-      <c r="I9" s="49">
+      <c r="G9" s="63"/>
+      <c r="H9" s="64"/>
+      <c r="I9" s="67">
         <f>'Daily Schedule SUN'!I9:J9</f>
         <v>0</v>
       </c>
-      <c r="J9" s="50"/>
+      <c r="J9" s="68"/>
     </row>
     <row r="10" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="8"/>
@@ -4535,16 +4568,16 @@
       <c r="D10" s="8"/>
       <c r="E10" s="17"/>
       <c r="F10" s="8"/>
-      <c r="G10" s="57">
+      <c r="G10" s="47">
         <f>G7+1</f>
         <v>42884</v>
       </c>
-      <c r="H10" s="58"/>
-      <c r="I10" s="63">
+      <c r="H10" s="48"/>
+      <c r="I10" s="69">
         <f>'Daily Schedule SUN'!I10:J10</f>
         <v>0</v>
       </c>
-      <c r="J10" s="64"/>
+      <c r="J10" s="70"/>
     </row>
     <row r="11" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="8"/>
@@ -4556,13 +4589,13 @@
       <c r="D11" s="8"/>
       <c r="E11" s="16"/>
       <c r="F11" s="8"/>
-      <c r="G11" s="59"/>
-      <c r="H11" s="60"/>
-      <c r="I11" s="45">
+      <c r="G11" s="49"/>
+      <c r="H11" s="50"/>
+      <c r="I11" s="55">
         <f>'Daily Schedule SUN'!I11:J11</f>
         <v>0</v>
       </c>
-      <c r="J11" s="46"/>
+      <c r="J11" s="56"/>
     </row>
     <row r="12" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="8"/>
@@ -4574,13 +4607,13 @@
       <c r="D12" s="8"/>
       <c r="E12" s="17"/>
       <c r="F12" s="8"/>
-      <c r="G12" s="61"/>
-      <c r="H12" s="62"/>
-      <c r="I12" s="65">
+      <c r="G12" s="51"/>
+      <c r="H12" s="52"/>
+      <c r="I12" s="57">
         <f>'Daily Schedule SUN'!I12:J12</f>
         <v>0</v>
       </c>
-      <c r="J12" s="66"/>
+      <c r="J12" s="58"/>
     </row>
     <row r="13" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="8"/>
@@ -4592,16 +4625,16 @@
       <c r="D13" s="8"/>
       <c r="E13" s="16"/>
       <c r="F13" s="8"/>
-      <c r="G13" s="67">
+      <c r="G13" s="59">
         <f>G7+2</f>
         <v>42885</v>
       </c>
-      <c r="H13" s="68"/>
-      <c r="I13" s="69">
+      <c r="H13" s="60"/>
+      <c r="I13" s="65">
         <f>'Daily Schedule SUN'!I13:J13</f>
         <v>0</v>
       </c>
-      <c r="J13" s="70"/>
+      <c r="J13" s="66"/>
     </row>
     <row r="14" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="8"/>
@@ -4613,13 +4646,13 @@
       <c r="D14" s="8"/>
       <c r="E14" s="17"/>
       <c r="F14" s="8"/>
-      <c r="G14" s="41"/>
-      <c r="H14" s="42"/>
-      <c r="I14" s="47">
+      <c r="G14" s="61"/>
+      <c r="H14" s="62"/>
+      <c r="I14" s="53">
         <f>'Daily Schedule SUN'!I14:J14</f>
         <v>0</v>
       </c>
-      <c r="J14" s="48"/>
+      <c r="J14" s="54"/>
     </row>
     <row r="15" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="8"/>
@@ -4631,13 +4664,13 @@
       <c r="D15" s="8"/>
       <c r="E15" s="16"/>
       <c r="F15" s="8"/>
-      <c r="G15" s="43"/>
-      <c r="H15" s="44"/>
-      <c r="I15" s="49">
+      <c r="G15" s="63"/>
+      <c r="H15" s="64"/>
+      <c r="I15" s="67">
         <f>'Daily Schedule SUN'!I15:J15</f>
         <v>0</v>
       </c>
-      <c r="J15" s="50"/>
+      <c r="J15" s="68"/>
     </row>
     <row r="16" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="8"/>
@@ -4649,16 +4682,16 @@
       <c r="D16" s="8"/>
       <c r="E16" s="17"/>
       <c r="F16" s="8"/>
-      <c r="G16" s="57">
+      <c r="G16" s="47">
         <f>G7+3</f>
         <v>42886</v>
       </c>
-      <c r="H16" s="58"/>
-      <c r="I16" s="63">
+      <c r="H16" s="48"/>
+      <c r="I16" s="69">
         <f>'Daily Schedule SUN'!I16:J16</f>
         <v>0</v>
       </c>
-      <c r="J16" s="64"/>
+      <c r="J16" s="70"/>
     </row>
     <row r="17" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="8"/>
@@ -4670,13 +4703,13 @@
       <c r="D17" s="8"/>
       <c r="E17" s="16"/>
       <c r="F17" s="8"/>
-      <c r="G17" s="59"/>
-      <c r="H17" s="60"/>
-      <c r="I17" s="45">
+      <c r="G17" s="49"/>
+      <c r="H17" s="50"/>
+      <c r="I17" s="55">
         <f>'Daily Schedule SUN'!I17:J17</f>
         <v>0</v>
       </c>
-      <c r="J17" s="46"/>
+      <c r="J17" s="56"/>
     </row>
     <row r="18" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="8"/>
@@ -4688,13 +4721,13 @@
       <c r="D18" s="8"/>
       <c r="E18" s="17"/>
       <c r="F18" s="8"/>
-      <c r="G18" s="61"/>
-      <c r="H18" s="62"/>
-      <c r="I18" s="65">
+      <c r="G18" s="51"/>
+      <c r="H18" s="52"/>
+      <c r="I18" s="57">
         <f>'Daily Schedule SUN'!I18:J18</f>
         <v>0</v>
       </c>
-      <c r="J18" s="66"/>
+      <c r="J18" s="58"/>
     </row>
     <row r="19" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="8"/>
@@ -4706,16 +4739,16 @@
       <c r="D19" s="8"/>
       <c r="E19" s="16"/>
       <c r="F19" s="8"/>
-      <c r="G19" s="67">
+      <c r="G19" s="59">
         <f>G7+4</f>
         <v>42887</v>
       </c>
-      <c r="H19" s="68"/>
-      <c r="I19" s="69">
+      <c r="H19" s="60"/>
+      <c r="I19" s="65">
         <f>'Daily Schedule SUN'!I19:J19</f>
         <v>0</v>
       </c>
-      <c r="J19" s="70"/>
+      <c r="J19" s="66"/>
     </row>
     <row r="20" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="8"/>
@@ -4727,13 +4760,13 @@
       <c r="D20" s="8"/>
       <c r="E20" s="17"/>
       <c r="F20" s="8"/>
-      <c r="G20" s="41"/>
-      <c r="H20" s="42"/>
-      <c r="I20" s="47">
+      <c r="G20" s="61"/>
+      <c r="H20" s="62"/>
+      <c r="I20" s="53">
         <f>'Daily Schedule SUN'!I20:J20</f>
         <v>0</v>
       </c>
-      <c r="J20" s="48"/>
+      <c r="J20" s="54"/>
     </row>
     <row r="21" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="8"/>
@@ -4745,13 +4778,13 @@
       <c r="D21" s="8"/>
       <c r="E21" s="16"/>
       <c r="F21" s="8"/>
-      <c r="G21" s="43"/>
-      <c r="H21" s="44"/>
-      <c r="I21" s="49">
+      <c r="G21" s="63"/>
+      <c r="H21" s="64"/>
+      <c r="I21" s="67">
         <f>'Daily Schedule SUN'!I21:J21</f>
         <v>0</v>
       </c>
-      <c r="J21" s="50"/>
+      <c r="J21" s="68"/>
     </row>
     <row r="22" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="8"/>
@@ -4763,16 +4796,16 @@
       <c r="D22" s="8"/>
       <c r="E22" s="17"/>
       <c r="F22" s="8"/>
-      <c r="G22" s="57">
+      <c r="G22" s="47">
         <f>G7+5</f>
         <v>42888</v>
       </c>
-      <c r="H22" s="58"/>
-      <c r="I22" s="63">
+      <c r="H22" s="48"/>
+      <c r="I22" s="69">
         <f>'Daily Schedule SUN'!I22:J22</f>
         <v>0</v>
       </c>
-      <c r="J22" s="64"/>
+      <c r="J22" s="70"/>
     </row>
     <row r="23" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="8"/>
@@ -4784,13 +4817,13 @@
       <c r="D23" s="8"/>
       <c r="E23" s="16"/>
       <c r="F23" s="8"/>
-      <c r="G23" s="59"/>
-      <c r="H23" s="60"/>
-      <c r="I23" s="45">
+      <c r="G23" s="49"/>
+      <c r="H23" s="50"/>
+      <c r="I23" s="55">
         <f>'Daily Schedule SUN'!I23:J23</f>
         <v>0</v>
       </c>
-      <c r="J23" s="46"/>
+      <c r="J23" s="56"/>
     </row>
     <row r="24" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="8"/>
@@ -4802,13 +4835,13 @@
       <c r="D24" s="8"/>
       <c r="E24" s="17"/>
       <c r="F24" s="8"/>
-      <c r="G24" s="61"/>
-      <c r="H24" s="62"/>
-      <c r="I24" s="65">
+      <c r="G24" s="51"/>
+      <c r="H24" s="52"/>
+      <c r="I24" s="57">
         <f>'Daily Schedule SUN'!I24:J24</f>
         <v>0</v>
       </c>
-      <c r="J24" s="66"/>
+      <c r="J24" s="58"/>
     </row>
     <row r="25" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="8"/>
@@ -4820,16 +4853,16 @@
       <c r="D25" s="8"/>
       <c r="E25" s="16"/>
       <c r="F25" s="8"/>
-      <c r="G25" s="67">
+      <c r="G25" s="59">
         <f>G7+6</f>
         <v>42889</v>
       </c>
-      <c r="H25" s="68"/>
-      <c r="I25" s="69">
+      <c r="H25" s="60"/>
+      <c r="I25" s="65">
         <f>'Daily Schedule SUN'!I25:J25</f>
         <v>0</v>
       </c>
-      <c r="J25" s="70"/>
+      <c r="J25" s="66"/>
     </row>
     <row r="26" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="8"/>
@@ -4841,13 +4874,13 @@
       <c r="D26" s="8"/>
       <c r="E26" s="17"/>
       <c r="F26" s="8"/>
-      <c r="G26" s="41"/>
-      <c r="H26" s="42"/>
-      <c r="I26" s="47">
+      <c r="G26" s="61"/>
+      <c r="H26" s="62"/>
+      <c r="I26" s="53">
         <f>'Daily Schedule SUN'!I26:J26</f>
         <v>0</v>
       </c>
-      <c r="J26" s="48"/>
+      <c r="J26" s="54"/>
     </row>
     <row r="27" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="8"/>
@@ -4859,13 +4892,13 @@
       <c r="D27" s="8"/>
       <c r="E27" s="16"/>
       <c r="F27" s="8"/>
-      <c r="G27" s="43"/>
-      <c r="H27" s="44"/>
-      <c r="I27" s="49">
+      <c r="G27" s="63"/>
+      <c r="H27" s="64"/>
+      <c r="I27" s="67">
         <f>'Daily Schedule SUN'!I27:J27</f>
         <v>0</v>
       </c>
-      <c r="J27" s="50"/>
+      <c r="J27" s="68"/>
     </row>
     <row r="28" spans="1:10" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A28" s="8"/>
@@ -4892,12 +4925,12 @@
       <c r="D29" s="8"/>
       <c r="E29" s="16"/>
       <c r="F29" s="8"/>
-      <c r="G29" s="71" t="s">
+      <c r="G29" s="38" t="s">
         <v>26</v>
       </c>
-      <c r="H29" s="72"/>
-      <c r="I29" s="72"/>
-      <c r="J29" s="73"/>
+      <c r="H29" s="39"/>
+      <c r="I29" s="39"/>
+      <c r="J29" s="40"/>
     </row>
     <row r="30" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30" s="8"/>
@@ -4909,10 +4942,10 @@
       <c r="D30" s="8"/>
       <c r="E30" s="17"/>
       <c r="F30" s="8"/>
-      <c r="G30" s="74"/>
-      <c r="H30" s="75"/>
-      <c r="I30" s="75"/>
-      <c r="J30" s="76"/>
+      <c r="G30" s="41"/>
+      <c r="H30" s="42"/>
+      <c r="I30" s="42"/>
+      <c r="J30" s="43"/>
     </row>
     <row r="31" spans="1:10" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A31" s="8"/>
@@ -4924,10 +4957,10 @@
       <c r="D31" s="8"/>
       <c r="E31" s="16"/>
       <c r="F31" s="8"/>
-      <c r="G31" s="77"/>
-      <c r="H31" s="78"/>
-      <c r="I31" s="78"/>
-      <c r="J31" s="79"/>
+      <c r="G31" s="44"/>
+      <c r="H31" s="45"/>
+      <c r="I31" s="45"/>
+      <c r="J31" s="46"/>
     </row>
     <row r="32" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A32" s="8"/>
@@ -5051,6 +5084,30 @@
     </row>
   </sheetData>
   <mergeCells count="33">
+    <mergeCell ref="B2:C3"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="G5:J6"/>
+    <mergeCell ref="G7:H9"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="I8:J8"/>
+    <mergeCell ref="I9:J9"/>
+    <mergeCell ref="G10:H12"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="G13:H15"/>
+    <mergeCell ref="I13:J13"/>
+    <mergeCell ref="I14:J14"/>
+    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="G16:H18"/>
+    <mergeCell ref="I16:J16"/>
+    <mergeCell ref="I17:J17"/>
+    <mergeCell ref="I18:J18"/>
+    <mergeCell ref="G19:H21"/>
+    <mergeCell ref="I19:J19"/>
+    <mergeCell ref="I20:J20"/>
+    <mergeCell ref="I21:J21"/>
     <mergeCell ref="G29:J31"/>
     <mergeCell ref="G22:H24"/>
     <mergeCell ref="I22:J22"/>
@@ -5060,30 +5117,6 @@
     <mergeCell ref="I25:J25"/>
     <mergeCell ref="I26:J26"/>
     <mergeCell ref="I27:J27"/>
-    <mergeCell ref="G16:H18"/>
-    <mergeCell ref="I16:J16"/>
-    <mergeCell ref="I17:J17"/>
-    <mergeCell ref="I18:J18"/>
-    <mergeCell ref="G19:H21"/>
-    <mergeCell ref="I19:J19"/>
-    <mergeCell ref="I20:J20"/>
-    <mergeCell ref="I21:J21"/>
-    <mergeCell ref="G10:H12"/>
-    <mergeCell ref="I10:J10"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="I12:J12"/>
-    <mergeCell ref="G13:H15"/>
-    <mergeCell ref="I13:J13"/>
-    <mergeCell ref="I14:J14"/>
-    <mergeCell ref="I15:J15"/>
-    <mergeCell ref="B2:C3"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="G5:J6"/>
-    <mergeCell ref="G7:H9"/>
-    <mergeCell ref="I7:J7"/>
-    <mergeCell ref="I8:J8"/>
-    <mergeCell ref="I9:J9"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="G29" r:id="rId1"/>
@@ -5165,10 +5198,10 @@
     </row>
     <row r="2" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.65">
       <c r="A2" s="8"/>
-      <c r="B2" s="38" t="s">
+      <c r="B2" s="71" t="s">
         <v>25</v>
       </c>
-      <c r="C2" s="38"/>
+      <c r="C2" s="71"/>
       <c r="D2" s="9"/>
       <c r="E2" s="12" t="s">
         <v>13</v>
@@ -5185,8 +5218,8 @@
     </row>
     <row r="3" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.65">
       <c r="A3" s="8"/>
-      <c r="B3" s="38"/>
-      <c r="C3" s="38"/>
+      <c r="B3" s="71"/>
+      <c r="C3" s="71"/>
       <c r="D3" s="9"/>
       <c r="E3" s="13">
         <f>'Daily Schedule SUN'!E3</f>
@@ -5219,38 +5252,38 @@
     </row>
     <row r="5" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="8"/>
-      <c r="B5" s="39" t="s">
+      <c r="B5" s="72" t="s">
         <v>0</v>
       </c>
       <c r="C5" s="23" t="s">
         <v>21</v>
       </c>
       <c r="D5" s="8"/>
-      <c r="E5" s="40" t="s">
+      <c r="E5" s="73" t="s">
         <v>14</v>
       </c>
       <c r="F5" s="8"/>
-      <c r="G5" s="81" t="s">
+      <c r="G5" s="80" t="s">
         <v>15</v>
       </c>
-      <c r="H5" s="82"/>
-      <c r="I5" s="81"/>
-      <c r="J5" s="81"/>
+      <c r="H5" s="81"/>
+      <c r="I5" s="80"/>
+      <c r="J5" s="80"/>
     </row>
     <row r="6" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="8"/>
-      <c r="B6" s="39"/>
+      <c r="B6" s="72"/>
       <c r="C6" s="24">
         <f>E3+5</f>
         <v>42888</v>
       </c>
       <c r="D6" s="8"/>
-      <c r="E6" s="40"/>
+      <c r="E6" s="73"/>
       <c r="F6" s="8"/>
-      <c r="G6" s="81"/>
-      <c r="H6" s="81"/>
-      <c r="I6" s="81"/>
-      <c r="J6" s="81"/>
+      <c r="G6" s="80"/>
+      <c r="H6" s="80"/>
+      <c r="I6" s="80"/>
+      <c r="J6" s="80"/>
     </row>
     <row r="7" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="8"/>
@@ -5262,16 +5295,16 @@
       <c r="D7" s="8"/>
       <c r="E7" s="16"/>
       <c r="F7" s="8"/>
-      <c r="G7" s="67">
+      <c r="G7" s="59">
         <f>E3</f>
         <v>42883</v>
       </c>
-      <c r="H7" s="68"/>
-      <c r="I7" s="69">
+      <c r="H7" s="60"/>
+      <c r="I7" s="65">
         <f>'Daily Schedule SUN'!I7:J7</f>
         <v>0</v>
       </c>
-      <c r="J7" s="70"/>
+      <c r="J7" s="66"/>
     </row>
     <row r="8" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="8"/>
@@ -5283,13 +5316,13 @@
       <c r="D8" s="8"/>
       <c r="E8" s="17"/>
       <c r="F8" s="8"/>
-      <c r="G8" s="41"/>
-      <c r="H8" s="42"/>
-      <c r="I8" s="47">
+      <c r="G8" s="61"/>
+      <c r="H8" s="62"/>
+      <c r="I8" s="53">
         <f>'Daily Schedule SUN'!I8:J8</f>
         <v>0</v>
       </c>
-      <c r="J8" s="48"/>
+      <c r="J8" s="54"/>
     </row>
     <row r="9" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="8"/>
@@ -5301,13 +5334,13 @@
       <c r="D9" s="8"/>
       <c r="E9" s="16"/>
       <c r="F9" s="8"/>
-      <c r="G9" s="43"/>
-      <c r="H9" s="44"/>
-      <c r="I9" s="49">
+      <c r="G9" s="63"/>
+      <c r="H9" s="64"/>
+      <c r="I9" s="67">
         <f>'Daily Schedule SUN'!I9:J9</f>
         <v>0</v>
       </c>
-      <c r="J9" s="50"/>
+      <c r="J9" s="68"/>
     </row>
     <row r="10" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="8"/>
@@ -5319,16 +5352,16 @@
       <c r="D10" s="8"/>
       <c r="E10" s="17"/>
       <c r="F10" s="8"/>
-      <c r="G10" s="57">
+      <c r="G10" s="47">
         <f>G7+1</f>
         <v>42884</v>
       </c>
-      <c r="H10" s="58"/>
-      <c r="I10" s="63">
+      <c r="H10" s="48"/>
+      <c r="I10" s="69">
         <f>'Daily Schedule SUN'!I10:J10</f>
         <v>0</v>
       </c>
-      <c r="J10" s="64"/>
+      <c r="J10" s="70"/>
     </row>
     <row r="11" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="8"/>
@@ -5340,13 +5373,13 @@
       <c r="D11" s="8"/>
       <c r="E11" s="16"/>
       <c r="F11" s="8"/>
-      <c r="G11" s="59"/>
-      <c r="H11" s="60"/>
-      <c r="I11" s="45">
+      <c r="G11" s="49"/>
+      <c r="H11" s="50"/>
+      <c r="I11" s="55">
         <f>'Daily Schedule SUN'!I11:J11</f>
         <v>0</v>
       </c>
-      <c r="J11" s="46"/>
+      <c r="J11" s="56"/>
     </row>
     <row r="12" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="8"/>
@@ -5358,13 +5391,13 @@
       <c r="D12" s="8"/>
       <c r="E12" s="17"/>
       <c r="F12" s="8"/>
-      <c r="G12" s="61"/>
-      <c r="H12" s="62"/>
-      <c r="I12" s="65">
+      <c r="G12" s="51"/>
+      <c r="H12" s="52"/>
+      <c r="I12" s="57">
         <f>'Daily Schedule SUN'!I12:J12</f>
         <v>0</v>
       </c>
-      <c r="J12" s="66"/>
+      <c r="J12" s="58"/>
     </row>
     <row r="13" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="8"/>
@@ -5376,16 +5409,16 @@
       <c r="D13" s="8"/>
       <c r="E13" s="16"/>
       <c r="F13" s="8"/>
-      <c r="G13" s="67">
+      <c r="G13" s="59">
         <f>G7+2</f>
         <v>42885</v>
       </c>
-      <c r="H13" s="68"/>
-      <c r="I13" s="69">
+      <c r="H13" s="60"/>
+      <c r="I13" s="65">
         <f>'Daily Schedule SUN'!I13:J13</f>
         <v>0</v>
       </c>
-      <c r="J13" s="70"/>
+      <c r="J13" s="66"/>
     </row>
     <row r="14" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="8"/>
@@ -5397,13 +5430,13 @@
       <c r="D14" s="8"/>
       <c r="E14" s="17"/>
       <c r="F14" s="8"/>
-      <c r="G14" s="41"/>
-      <c r="H14" s="42"/>
-      <c r="I14" s="47">
+      <c r="G14" s="61"/>
+      <c r="H14" s="62"/>
+      <c r="I14" s="53">
         <f>'Daily Schedule SUN'!I14:J14</f>
         <v>0</v>
       </c>
-      <c r="J14" s="48"/>
+      <c r="J14" s="54"/>
     </row>
     <row r="15" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="8"/>
@@ -5415,13 +5448,13 @@
       <c r="D15" s="8"/>
       <c r="E15" s="16"/>
       <c r="F15" s="8"/>
-      <c r="G15" s="43"/>
-      <c r="H15" s="44"/>
-      <c r="I15" s="49">
+      <c r="G15" s="63"/>
+      <c r="H15" s="64"/>
+      <c r="I15" s="67">
         <f>'Daily Schedule SUN'!I15:J15</f>
         <v>0</v>
       </c>
-      <c r="J15" s="50"/>
+      <c r="J15" s="68"/>
     </row>
     <row r="16" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="8"/>
@@ -5433,16 +5466,16 @@
       <c r="D16" s="8"/>
       <c r="E16" s="17"/>
       <c r="F16" s="8"/>
-      <c r="G16" s="57">
+      <c r="G16" s="47">
         <f>G7+3</f>
         <v>42886</v>
       </c>
-      <c r="H16" s="58"/>
-      <c r="I16" s="63">
+      <c r="H16" s="48"/>
+      <c r="I16" s="69">
         <f>'Daily Schedule SUN'!I16:J16</f>
         <v>0</v>
       </c>
-      <c r="J16" s="64"/>
+      <c r="J16" s="70"/>
     </row>
     <row r="17" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="8"/>
@@ -5454,13 +5487,13 @@
       <c r="D17" s="8"/>
       <c r="E17" s="16"/>
       <c r="F17" s="8"/>
-      <c r="G17" s="59"/>
-      <c r="H17" s="60"/>
-      <c r="I17" s="45">
+      <c r="G17" s="49"/>
+      <c r="H17" s="50"/>
+      <c r="I17" s="55">
         <f>'Daily Schedule SUN'!I17:J17</f>
         <v>0</v>
       </c>
-      <c r="J17" s="46"/>
+      <c r="J17" s="56"/>
     </row>
     <row r="18" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="8"/>
@@ -5472,13 +5505,13 @@
       <c r="D18" s="8"/>
       <c r="E18" s="17"/>
       <c r="F18" s="8"/>
-      <c r="G18" s="61"/>
-      <c r="H18" s="62"/>
-      <c r="I18" s="65">
+      <c r="G18" s="51"/>
+      <c r="H18" s="52"/>
+      <c r="I18" s="57">
         <f>'Daily Schedule SUN'!I18:J18</f>
         <v>0</v>
       </c>
-      <c r="J18" s="66"/>
+      <c r="J18" s="58"/>
     </row>
     <row r="19" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="8"/>
@@ -5490,16 +5523,16 @@
       <c r="D19" s="8"/>
       <c r="E19" s="16"/>
       <c r="F19" s="8"/>
-      <c r="G19" s="67">
+      <c r="G19" s="59">
         <f>G7+4</f>
         <v>42887</v>
       </c>
-      <c r="H19" s="68"/>
-      <c r="I19" s="69">
+      <c r="H19" s="60"/>
+      <c r="I19" s="65">
         <f>'Daily Schedule SUN'!I19:J19</f>
         <v>0</v>
       </c>
-      <c r="J19" s="70"/>
+      <c r="J19" s="66"/>
     </row>
     <row r="20" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="8"/>
@@ -5511,13 +5544,13 @@
       <c r="D20" s="8"/>
       <c r="E20" s="17"/>
       <c r="F20" s="8"/>
-      <c r="G20" s="41"/>
-      <c r="H20" s="42"/>
-      <c r="I20" s="47">
+      <c r="G20" s="61"/>
+      <c r="H20" s="62"/>
+      <c r="I20" s="53">
         <f>'Daily Schedule SUN'!I20:J20</f>
         <v>0</v>
       </c>
-      <c r="J20" s="48"/>
+      <c r="J20" s="54"/>
     </row>
     <row r="21" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="8"/>
@@ -5529,13 +5562,13 @@
       <c r="D21" s="8"/>
       <c r="E21" s="16"/>
       <c r="F21" s="8"/>
-      <c r="G21" s="43"/>
-      <c r="H21" s="44"/>
-      <c r="I21" s="49">
+      <c r="G21" s="63"/>
+      <c r="H21" s="64"/>
+      <c r="I21" s="67">
         <f>'Daily Schedule SUN'!I21:J21</f>
         <v>0</v>
       </c>
-      <c r="J21" s="50"/>
+      <c r="J21" s="68"/>
     </row>
     <row r="22" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="8"/>
@@ -5547,16 +5580,16 @@
       <c r="D22" s="8"/>
       <c r="E22" s="17"/>
       <c r="F22" s="8"/>
-      <c r="G22" s="57">
+      <c r="G22" s="47">
         <f>G7+5</f>
         <v>42888</v>
       </c>
-      <c r="H22" s="58"/>
-      <c r="I22" s="63">
+      <c r="H22" s="48"/>
+      <c r="I22" s="69">
         <f>'Daily Schedule SUN'!I22:J22</f>
         <v>0</v>
       </c>
-      <c r="J22" s="64"/>
+      <c r="J22" s="70"/>
     </row>
     <row r="23" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="8"/>
@@ -5568,13 +5601,13 @@
       <c r="D23" s="8"/>
       <c r="E23" s="16"/>
       <c r="F23" s="8"/>
-      <c r="G23" s="59"/>
-      <c r="H23" s="60"/>
-      <c r="I23" s="45">
+      <c r="G23" s="49"/>
+      <c r="H23" s="50"/>
+      <c r="I23" s="55">
         <f>'Daily Schedule SUN'!I23:J23</f>
         <v>0</v>
       </c>
-      <c r="J23" s="46"/>
+      <c r="J23" s="56"/>
     </row>
     <row r="24" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="8"/>
@@ -5586,13 +5619,13 @@
       <c r="D24" s="8"/>
       <c r="E24" s="17"/>
       <c r="F24" s="8"/>
-      <c r="G24" s="61"/>
-      <c r="H24" s="62"/>
-      <c r="I24" s="65">
+      <c r="G24" s="51"/>
+      <c r="H24" s="52"/>
+      <c r="I24" s="57">
         <f>'Daily Schedule SUN'!I24:J24</f>
         <v>0</v>
       </c>
-      <c r="J24" s="66"/>
+      <c r="J24" s="58"/>
     </row>
     <row r="25" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="8"/>
@@ -5604,16 +5637,16 @@
       <c r="D25" s="8"/>
       <c r="E25" s="16"/>
       <c r="F25" s="8"/>
-      <c r="G25" s="67">
+      <c r="G25" s="59">
         <f>G7+6</f>
         <v>42889</v>
       </c>
-      <c r="H25" s="68"/>
-      <c r="I25" s="69">
+      <c r="H25" s="60"/>
+      <c r="I25" s="65">
         <f>'Daily Schedule SUN'!I25:J25</f>
         <v>0</v>
       </c>
-      <c r="J25" s="70"/>
+      <c r="J25" s="66"/>
     </row>
     <row r="26" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="8"/>
@@ -5625,13 +5658,13 @@
       <c r="D26" s="8"/>
       <c r="E26" s="17"/>
       <c r="F26" s="8"/>
-      <c r="G26" s="41"/>
-      <c r="H26" s="42"/>
-      <c r="I26" s="47">
+      <c r="G26" s="61"/>
+      <c r="H26" s="62"/>
+      <c r="I26" s="53">
         <f>'Daily Schedule SUN'!I26:J26</f>
         <v>0</v>
       </c>
-      <c r="J26" s="48"/>
+      <c r="J26" s="54"/>
     </row>
     <row r="27" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="8"/>
@@ -5643,13 +5676,13 @@
       <c r="D27" s="8"/>
       <c r="E27" s="16"/>
       <c r="F27" s="8"/>
-      <c r="G27" s="43"/>
-      <c r="H27" s="44"/>
-      <c r="I27" s="49">
+      <c r="G27" s="63"/>
+      <c r="H27" s="64"/>
+      <c r="I27" s="67">
         <f>'Daily Schedule SUN'!I27:J27</f>
         <v>0</v>
       </c>
-      <c r="J27" s="50"/>
+      <c r="J27" s="68"/>
     </row>
     <row r="28" spans="1:10" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A28" s="8"/>
@@ -5676,12 +5709,12 @@
       <c r="D29" s="8"/>
       <c r="E29" s="16"/>
       <c r="F29" s="8"/>
-      <c r="G29" s="71" t="s">
+      <c r="G29" s="38" t="s">
         <v>26</v>
       </c>
-      <c r="H29" s="72"/>
-      <c r="I29" s="72"/>
-      <c r="J29" s="73"/>
+      <c r="H29" s="39"/>
+      <c r="I29" s="39"/>
+      <c r="J29" s="40"/>
     </row>
     <row r="30" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30" s="8"/>
@@ -5693,10 +5726,10 @@
       <c r="D30" s="8"/>
       <c r="E30" s="17"/>
       <c r="F30" s="8"/>
-      <c r="G30" s="74"/>
-      <c r="H30" s="75"/>
-      <c r="I30" s="75"/>
-      <c r="J30" s="76"/>
+      <c r="G30" s="41"/>
+      <c r="H30" s="42"/>
+      <c r="I30" s="42"/>
+      <c r="J30" s="43"/>
     </row>
     <row r="31" spans="1:10" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A31" s="8"/>
@@ -5708,10 +5741,10 @@
       <c r="D31" s="8"/>
       <c r="E31" s="16"/>
       <c r="F31" s="8"/>
-      <c r="G31" s="77"/>
-      <c r="H31" s="78"/>
-      <c r="I31" s="78"/>
-      <c r="J31" s="79"/>
+      <c r="G31" s="44"/>
+      <c r="H31" s="45"/>
+      <c r="I31" s="45"/>
+      <c r="J31" s="46"/>
     </row>
     <row r="32" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A32" s="8"/>
@@ -5835,6 +5868,30 @@
     </row>
   </sheetData>
   <mergeCells count="33">
+    <mergeCell ref="B2:C3"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="G5:J6"/>
+    <mergeCell ref="G7:H9"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="I8:J8"/>
+    <mergeCell ref="I9:J9"/>
+    <mergeCell ref="G10:H12"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="G13:H15"/>
+    <mergeCell ref="I13:J13"/>
+    <mergeCell ref="I14:J14"/>
+    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="G16:H18"/>
+    <mergeCell ref="I16:J16"/>
+    <mergeCell ref="I17:J17"/>
+    <mergeCell ref="I18:J18"/>
+    <mergeCell ref="G19:H21"/>
+    <mergeCell ref="I19:J19"/>
+    <mergeCell ref="I20:J20"/>
+    <mergeCell ref="I21:J21"/>
     <mergeCell ref="G29:J31"/>
     <mergeCell ref="G22:H24"/>
     <mergeCell ref="I22:J22"/>
@@ -5844,30 +5901,6 @@
     <mergeCell ref="I25:J25"/>
     <mergeCell ref="I26:J26"/>
     <mergeCell ref="I27:J27"/>
-    <mergeCell ref="G16:H18"/>
-    <mergeCell ref="I16:J16"/>
-    <mergeCell ref="I17:J17"/>
-    <mergeCell ref="I18:J18"/>
-    <mergeCell ref="G19:H21"/>
-    <mergeCell ref="I19:J19"/>
-    <mergeCell ref="I20:J20"/>
-    <mergeCell ref="I21:J21"/>
-    <mergeCell ref="G10:H12"/>
-    <mergeCell ref="I10:J10"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="I12:J12"/>
-    <mergeCell ref="G13:H15"/>
-    <mergeCell ref="I13:J13"/>
-    <mergeCell ref="I14:J14"/>
-    <mergeCell ref="I15:J15"/>
-    <mergeCell ref="B2:C3"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="G5:J6"/>
-    <mergeCell ref="G7:H9"/>
-    <mergeCell ref="I7:J7"/>
-    <mergeCell ref="I8:J8"/>
-    <mergeCell ref="I9:J9"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="G29" r:id="rId1"/>
@@ -5949,10 +5982,10 @@
     </row>
     <row r="2" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.65">
       <c r="A2" s="8"/>
-      <c r="B2" s="38" t="s">
+      <c r="B2" s="71" t="s">
         <v>25</v>
       </c>
-      <c r="C2" s="38"/>
+      <c r="C2" s="71"/>
       <c r="D2" s="9"/>
       <c r="E2" s="12" t="s">
         <v>13</v>
@@ -5969,8 +6002,8 @@
     </row>
     <row r="3" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.65">
       <c r="A3" s="8"/>
-      <c r="B3" s="38"/>
-      <c r="C3" s="38"/>
+      <c r="B3" s="71"/>
+      <c r="C3" s="71"/>
       <c r="D3" s="9"/>
       <c r="E3" s="13">
         <f>'Daily Schedule SUN'!E3</f>
@@ -6003,38 +6036,38 @@
     </row>
     <row r="5" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="8"/>
-      <c r="B5" s="39" t="s">
+      <c r="B5" s="72" t="s">
         <v>0</v>
       </c>
       <c r="C5" s="23" t="s">
         <v>22</v>
       </c>
       <c r="D5" s="8"/>
-      <c r="E5" s="40" t="s">
+      <c r="E5" s="73" t="s">
         <v>14</v>
       </c>
       <c r="F5" s="8"/>
-      <c r="G5" s="81" t="s">
+      <c r="G5" s="80" t="s">
         <v>15</v>
       </c>
-      <c r="H5" s="82"/>
-      <c r="I5" s="81"/>
-      <c r="J5" s="81"/>
+      <c r="H5" s="81"/>
+      <c r="I5" s="80"/>
+      <c r="J5" s="80"/>
     </row>
     <row r="6" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="8"/>
-      <c r="B6" s="39"/>
+      <c r="B6" s="72"/>
       <c r="C6" s="24">
         <f>E3+6</f>
         <v>42889</v>
       </c>
       <c r="D6" s="8"/>
-      <c r="E6" s="40"/>
+      <c r="E6" s="73"/>
       <c r="F6" s="8"/>
-      <c r="G6" s="81"/>
-      <c r="H6" s="81"/>
-      <c r="I6" s="81"/>
-      <c r="J6" s="81"/>
+      <c r="G6" s="80"/>
+      <c r="H6" s="80"/>
+      <c r="I6" s="80"/>
+      <c r="J6" s="80"/>
     </row>
     <row r="7" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="8"/>
@@ -6046,16 +6079,16 @@
       <c r="D7" s="8"/>
       <c r="E7" s="16"/>
       <c r="F7" s="8"/>
-      <c r="G7" s="67">
+      <c r="G7" s="59">
         <f>E3</f>
         <v>42883</v>
       </c>
-      <c r="H7" s="68"/>
-      <c r="I7" s="69">
+      <c r="H7" s="60"/>
+      <c r="I7" s="65">
         <f>'Daily Schedule SUN'!I7:J7</f>
         <v>0</v>
       </c>
-      <c r="J7" s="70"/>
+      <c r="J7" s="66"/>
     </row>
     <row r="8" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="8"/>
@@ -6067,13 +6100,13 @@
       <c r="D8" s="8"/>
       <c r="E8" s="17"/>
       <c r="F8" s="8"/>
-      <c r="G8" s="41"/>
-      <c r="H8" s="42"/>
-      <c r="I8" s="47">
+      <c r="G8" s="61"/>
+      <c r="H8" s="62"/>
+      <c r="I8" s="53">
         <f>'Daily Schedule SUN'!I8:J8</f>
         <v>0</v>
       </c>
-      <c r="J8" s="48"/>
+      <c r="J8" s="54"/>
     </row>
     <row r="9" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="8"/>
@@ -6085,13 +6118,13 @@
       <c r="D9" s="8"/>
       <c r="E9" s="16"/>
       <c r="F9" s="8"/>
-      <c r="G9" s="43"/>
-      <c r="H9" s="44"/>
-      <c r="I9" s="49">
+      <c r="G9" s="63"/>
+      <c r="H9" s="64"/>
+      <c r="I9" s="67">
         <f>'Daily Schedule SUN'!I9:J9</f>
         <v>0</v>
       </c>
-      <c r="J9" s="50"/>
+      <c r="J9" s="68"/>
     </row>
     <row r="10" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="8"/>
@@ -6103,16 +6136,16 @@
       <c r="D10" s="8"/>
       <c r="E10" s="17"/>
       <c r="F10" s="8"/>
-      <c r="G10" s="57">
+      <c r="G10" s="47">
         <f>G7+1</f>
         <v>42884</v>
       </c>
-      <c r="H10" s="58"/>
-      <c r="I10" s="63">
+      <c r="H10" s="48"/>
+      <c r="I10" s="69">
         <f>'Daily Schedule SUN'!I10:J10</f>
         <v>0</v>
       </c>
-      <c r="J10" s="64"/>
+      <c r="J10" s="70"/>
     </row>
     <row r="11" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="8"/>
@@ -6124,13 +6157,13 @@
       <c r="D11" s="8"/>
       <c r="E11" s="16"/>
       <c r="F11" s="8"/>
-      <c r="G11" s="59"/>
-      <c r="H11" s="60"/>
-      <c r="I11" s="45">
+      <c r="G11" s="49"/>
+      <c r="H11" s="50"/>
+      <c r="I11" s="55">
         <f>'Daily Schedule SUN'!I11:J11</f>
         <v>0</v>
       </c>
-      <c r="J11" s="46"/>
+      <c r="J11" s="56"/>
     </row>
     <row r="12" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="8"/>
@@ -6142,13 +6175,13 @@
       <c r="D12" s="8"/>
       <c r="E12" s="17"/>
       <c r="F12" s="8"/>
-      <c r="G12" s="61"/>
-      <c r="H12" s="62"/>
-      <c r="I12" s="65">
+      <c r="G12" s="51"/>
+      <c r="H12" s="52"/>
+      <c r="I12" s="57">
         <f>'Daily Schedule SUN'!I12:J12</f>
         <v>0</v>
       </c>
-      <c r="J12" s="66"/>
+      <c r="J12" s="58"/>
     </row>
     <row r="13" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="8"/>
@@ -6160,16 +6193,16 @@
       <c r="D13" s="8"/>
       <c r="E13" s="16"/>
       <c r="F13" s="8"/>
-      <c r="G13" s="67">
+      <c r="G13" s="59">
         <f>G7+2</f>
         <v>42885</v>
       </c>
-      <c r="H13" s="68"/>
-      <c r="I13" s="69">
+      <c r="H13" s="60"/>
+      <c r="I13" s="65">
         <f>'Daily Schedule SUN'!I13:J13</f>
         <v>0</v>
       </c>
-      <c r="J13" s="70"/>
+      <c r="J13" s="66"/>
     </row>
     <row r="14" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="8"/>
@@ -6181,13 +6214,13 @@
       <c r="D14" s="8"/>
       <c r="E14" s="17"/>
       <c r="F14" s="8"/>
-      <c r="G14" s="41"/>
-      <c r="H14" s="42"/>
-      <c r="I14" s="47">
+      <c r="G14" s="61"/>
+      <c r="H14" s="62"/>
+      <c r="I14" s="53">
         <f>'Daily Schedule SUN'!I14:J14</f>
         <v>0</v>
       </c>
-      <c r="J14" s="48"/>
+      <c r="J14" s="54"/>
     </row>
     <row r="15" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="8"/>
@@ -6199,13 +6232,13 @@
       <c r="D15" s="8"/>
       <c r="E15" s="16"/>
       <c r="F15" s="8"/>
-      <c r="G15" s="43"/>
-      <c r="H15" s="44"/>
-      <c r="I15" s="49">
+      <c r="G15" s="63"/>
+      <c r="H15" s="64"/>
+      <c r="I15" s="67">
         <f>'Daily Schedule SUN'!I15:J15</f>
         <v>0</v>
       </c>
-      <c r="J15" s="50"/>
+      <c r="J15" s="68"/>
     </row>
     <row r="16" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="8"/>
@@ -6217,16 +6250,16 @@
       <c r="D16" s="8"/>
       <c r="E16" s="17"/>
       <c r="F16" s="8"/>
-      <c r="G16" s="57">
+      <c r="G16" s="47">
         <f>G7+3</f>
         <v>42886</v>
       </c>
-      <c r="H16" s="58"/>
-      <c r="I16" s="63">
+      <c r="H16" s="48"/>
+      <c r="I16" s="69">
         <f>'Daily Schedule SUN'!I16:J16</f>
         <v>0</v>
       </c>
-      <c r="J16" s="64"/>
+      <c r="J16" s="70"/>
     </row>
     <row r="17" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="8"/>
@@ -6238,13 +6271,13 @@
       <c r="D17" s="8"/>
       <c r="E17" s="16"/>
       <c r="F17" s="8"/>
-      <c r="G17" s="59"/>
-      <c r="H17" s="60"/>
-      <c r="I17" s="45">
+      <c r="G17" s="49"/>
+      <c r="H17" s="50"/>
+      <c r="I17" s="55">
         <f>'Daily Schedule SUN'!I17:J17</f>
         <v>0</v>
       </c>
-      <c r="J17" s="46"/>
+      <c r="J17" s="56"/>
     </row>
     <row r="18" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="8"/>
@@ -6256,13 +6289,13 @@
       <c r="D18" s="8"/>
       <c r="E18" s="17"/>
       <c r="F18" s="8"/>
-      <c r="G18" s="61"/>
-      <c r="H18" s="62"/>
-      <c r="I18" s="65">
+      <c r="G18" s="51"/>
+      <c r="H18" s="52"/>
+      <c r="I18" s="57">
         <f>'Daily Schedule SUN'!I18:J18</f>
         <v>0</v>
       </c>
-      <c r="J18" s="66"/>
+      <c r="J18" s="58"/>
     </row>
     <row r="19" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="8"/>
@@ -6274,16 +6307,16 @@
       <c r="D19" s="8"/>
       <c r="E19" s="16"/>
       <c r="F19" s="8"/>
-      <c r="G19" s="67">
+      <c r="G19" s="59">
         <f>G7+4</f>
         <v>42887</v>
       </c>
-      <c r="H19" s="68"/>
-      <c r="I19" s="69">
+      <c r="H19" s="60"/>
+      <c r="I19" s="65">
         <f>'Daily Schedule SUN'!I19:J19</f>
         <v>0</v>
       </c>
-      <c r="J19" s="70"/>
+      <c r="J19" s="66"/>
     </row>
     <row r="20" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="8"/>
@@ -6295,13 +6328,13 @@
       <c r="D20" s="8"/>
       <c r="E20" s="17"/>
       <c r="F20" s="8"/>
-      <c r="G20" s="41"/>
-      <c r="H20" s="42"/>
-      <c r="I20" s="47">
+      <c r="G20" s="61"/>
+      <c r="H20" s="62"/>
+      <c r="I20" s="53">
         <f>'Daily Schedule SUN'!I20:J20</f>
         <v>0</v>
       </c>
-      <c r="J20" s="48"/>
+      <c r="J20" s="54"/>
     </row>
     <row r="21" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="8"/>
@@ -6313,13 +6346,13 @@
       <c r="D21" s="8"/>
       <c r="E21" s="16"/>
       <c r="F21" s="8"/>
-      <c r="G21" s="43"/>
-      <c r="H21" s="44"/>
-      <c r="I21" s="49">
+      <c r="G21" s="63"/>
+      <c r="H21" s="64"/>
+      <c r="I21" s="67">
         <f>'Daily Schedule SUN'!I21:J21</f>
         <v>0</v>
       </c>
-      <c r="J21" s="50"/>
+      <c r="J21" s="68"/>
     </row>
     <row r="22" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="8"/>
@@ -6331,16 +6364,16 @@
       <c r="D22" s="8"/>
       <c r="E22" s="17"/>
       <c r="F22" s="8"/>
-      <c r="G22" s="57">
+      <c r="G22" s="47">
         <f>G7+5</f>
         <v>42888</v>
       </c>
-      <c r="H22" s="58"/>
-      <c r="I22" s="63">
+      <c r="H22" s="48"/>
+      <c r="I22" s="69">
         <f>'Daily Schedule SUN'!I22:J22</f>
         <v>0</v>
       </c>
-      <c r="J22" s="64"/>
+      <c r="J22" s="70"/>
     </row>
     <row r="23" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="8"/>
@@ -6352,13 +6385,13 @@
       <c r="D23" s="8"/>
       <c r="E23" s="16"/>
       <c r="F23" s="8"/>
-      <c r="G23" s="59"/>
-      <c r="H23" s="60"/>
-      <c r="I23" s="45">
+      <c r="G23" s="49"/>
+      <c r="H23" s="50"/>
+      <c r="I23" s="55">
         <f>'Daily Schedule SUN'!I23:J23</f>
         <v>0</v>
       </c>
-      <c r="J23" s="46"/>
+      <c r="J23" s="56"/>
     </row>
     <row r="24" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="8"/>
@@ -6370,13 +6403,13 @@
       <c r="D24" s="8"/>
       <c r="E24" s="17"/>
       <c r="F24" s="8"/>
-      <c r="G24" s="61"/>
-      <c r="H24" s="62"/>
-      <c r="I24" s="65">
+      <c r="G24" s="51"/>
+      <c r="H24" s="52"/>
+      <c r="I24" s="57">
         <f>'Daily Schedule SUN'!I24:J24</f>
         <v>0</v>
       </c>
-      <c r="J24" s="66"/>
+      <c r="J24" s="58"/>
     </row>
     <row r="25" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="8"/>
@@ -6388,16 +6421,16 @@
       <c r="D25" s="8"/>
       <c r="E25" s="16"/>
       <c r="F25" s="8"/>
-      <c r="G25" s="67">
+      <c r="G25" s="59">
         <f>G7+6</f>
         <v>42889</v>
       </c>
-      <c r="H25" s="68"/>
-      <c r="I25" s="69">
+      <c r="H25" s="60"/>
+      <c r="I25" s="65">
         <f>'Daily Schedule SUN'!I25:J25</f>
         <v>0</v>
       </c>
-      <c r="J25" s="70"/>
+      <c r="J25" s="66"/>
     </row>
     <row r="26" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="8"/>
@@ -6409,13 +6442,13 @@
       <c r="D26" s="8"/>
       <c r="E26" s="17"/>
       <c r="F26" s="8"/>
-      <c r="G26" s="41"/>
-      <c r="H26" s="42"/>
-      <c r="I26" s="47">
+      <c r="G26" s="61"/>
+      <c r="H26" s="62"/>
+      <c r="I26" s="53">
         <f>'Daily Schedule SUN'!I26:J26</f>
         <v>0</v>
       </c>
-      <c r="J26" s="48"/>
+      <c r="J26" s="54"/>
     </row>
     <row r="27" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="8"/>
@@ -6427,13 +6460,13 @@
       <c r="D27" s="8"/>
       <c r="E27" s="16"/>
       <c r="F27" s="8"/>
-      <c r="G27" s="43"/>
-      <c r="H27" s="44"/>
-      <c r="I27" s="49">
+      <c r="G27" s="63"/>
+      <c r="H27" s="64"/>
+      <c r="I27" s="67">
         <f>'Daily Schedule SUN'!I27:J27</f>
         <v>0</v>
       </c>
-      <c r="J27" s="50"/>
+      <c r="J27" s="68"/>
     </row>
     <row r="28" spans="1:10" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A28" s="8"/>
@@ -6460,12 +6493,12 @@
       <c r="D29" s="8"/>
       <c r="E29" s="16"/>
       <c r="F29" s="8"/>
-      <c r="G29" s="71" t="s">
+      <c r="G29" s="38" t="s">
         <v>26</v>
       </c>
-      <c r="H29" s="72"/>
-      <c r="I29" s="72"/>
-      <c r="J29" s="73"/>
+      <c r="H29" s="39"/>
+      <c r="I29" s="39"/>
+      <c r="J29" s="40"/>
     </row>
     <row r="30" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30" s="8"/>
@@ -6477,10 +6510,10 @@
       <c r="D30" s="8"/>
       <c r="E30" s="17"/>
       <c r="F30" s="8"/>
-      <c r="G30" s="74"/>
-      <c r="H30" s="75"/>
-      <c r="I30" s="75"/>
-      <c r="J30" s="76"/>
+      <c r="G30" s="41"/>
+      <c r="H30" s="42"/>
+      <c r="I30" s="42"/>
+      <c r="J30" s="43"/>
     </row>
     <row r="31" spans="1:10" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A31" s="8"/>
@@ -6492,10 +6525,10 @@
       <c r="D31" s="8"/>
       <c r="E31" s="16"/>
       <c r="F31" s="8"/>
-      <c r="G31" s="77"/>
-      <c r="H31" s="78"/>
-      <c r="I31" s="78"/>
-      <c r="J31" s="79"/>
+      <c r="G31" s="44"/>
+      <c r="H31" s="45"/>
+      <c r="I31" s="45"/>
+      <c r="J31" s="46"/>
     </row>
     <row r="32" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A32" s="8"/>
@@ -6619,6 +6652,30 @@
     </row>
   </sheetData>
   <mergeCells count="33">
+    <mergeCell ref="B2:C3"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="G5:J6"/>
+    <mergeCell ref="G7:H9"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="I8:J8"/>
+    <mergeCell ref="I9:J9"/>
+    <mergeCell ref="G10:H12"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="G13:H15"/>
+    <mergeCell ref="I13:J13"/>
+    <mergeCell ref="I14:J14"/>
+    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="G16:H18"/>
+    <mergeCell ref="I16:J16"/>
+    <mergeCell ref="I17:J17"/>
+    <mergeCell ref="I18:J18"/>
+    <mergeCell ref="G19:H21"/>
+    <mergeCell ref="I19:J19"/>
+    <mergeCell ref="I20:J20"/>
+    <mergeCell ref="I21:J21"/>
     <mergeCell ref="G29:J31"/>
     <mergeCell ref="G22:H24"/>
     <mergeCell ref="I22:J22"/>
@@ -6628,30 +6685,6 @@
     <mergeCell ref="I25:J25"/>
     <mergeCell ref="I26:J26"/>
     <mergeCell ref="I27:J27"/>
-    <mergeCell ref="G16:H18"/>
-    <mergeCell ref="I16:J16"/>
-    <mergeCell ref="I17:J17"/>
-    <mergeCell ref="I18:J18"/>
-    <mergeCell ref="G19:H21"/>
-    <mergeCell ref="I19:J19"/>
-    <mergeCell ref="I20:J20"/>
-    <mergeCell ref="I21:J21"/>
-    <mergeCell ref="G10:H12"/>
-    <mergeCell ref="I10:J10"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="I12:J12"/>
-    <mergeCell ref="G13:H15"/>
-    <mergeCell ref="I13:J13"/>
-    <mergeCell ref="I14:J14"/>
-    <mergeCell ref="I15:J15"/>
-    <mergeCell ref="B2:C3"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="G5:J6"/>
-    <mergeCell ref="G7:H9"/>
-    <mergeCell ref="I7:J7"/>
-    <mergeCell ref="I8:J8"/>
-    <mergeCell ref="I9:J9"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="G29" r:id="rId1"/>

--- a/daily-work-schedule-template.xlsx
+++ b/daily-work-schedule-template.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14380" windowHeight="4090" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14380" windowHeight="4090" tabRatio="500" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Daily Schedule SUN" sheetId="4" r:id="rId1"/>
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="40">
   <si>
     <t>TIME</t>
   </si>
@@ -163,6 +163,12 @@
   </si>
   <si>
     <t>Move application to server</t>
+  </si>
+  <si>
+    <t>Change to WAV</t>
+  </si>
+  <si>
+    <t>Move app to server</t>
   </si>
 </sst>
 </file>
@@ -791,6 +797,105 @@
     <xf numFmtId="0" fontId="19" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="10" fillId="17" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="10" fillId="17" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="10" fillId="17" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="10" fillId="17" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="165" fontId="10" fillId="13" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="10" fillId="13" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="10" fillId="13" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="10" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="10" fillId="13" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="10" fillId="13" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="10" fillId="17" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="10" fillId="17" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="18" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -818,112 +923,13 @@
     <xf numFmtId="0" fontId="14" fillId="18" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="10" fillId="13" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="10" fillId="13" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="10" fillId="13" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="10" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="10" fillId="13" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="10" fillId="13" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="10" fillId="17" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="10" fillId="17" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="10" fillId="17" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="10" fillId="17" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="10" fillId="17" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="10" fillId="17" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="13" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="13" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="10" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1281,10 +1287,10 @@
     </row>
     <row r="2" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.65">
       <c r="A2" s="8"/>
-      <c r="B2" s="71" t="s">
+      <c r="B2" s="38" t="s">
         <v>25</v>
       </c>
-      <c r="C2" s="71"/>
+      <c r="C2" s="38"/>
       <c r="D2" s="9"/>
       <c r="E2" s="12" t="s">
         <v>13</v>
@@ -1301,8 +1307,8 @@
     </row>
     <row r="3" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.65">
       <c r="A3" s="8"/>
-      <c r="B3" s="71"/>
-      <c r="C3" s="71"/>
+      <c r="B3" s="38"/>
+      <c r="C3" s="38"/>
       <c r="D3" s="9"/>
       <c r="E3" s="13">
         <v>42883</v>
@@ -1334,40 +1340,40 @@
     </row>
     <row r="5" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="8"/>
-      <c r="B5" s="72" t="s">
+      <c r="B5" s="39" t="s">
         <v>0</v>
       </c>
       <c r="C5" s="23" t="s">
         <v>17</v>
       </c>
       <c r="D5" s="8"/>
-      <c r="E5" s="73" t="s">
+      <c r="E5" s="40" t="s">
         <v>14</v>
       </c>
       <c r="F5" s="8"/>
-      <c r="G5" s="74" t="s">
+      <c r="G5" s="51" t="s">
         <v>23</v>
       </c>
-      <c r="H5" s="75"/>
-      <c r="I5" s="75"/>
-      <c r="J5" s="76"/>
+      <c r="H5" s="52"/>
+      <c r="I5" s="52"/>
+      <c r="J5" s="53"/>
     </row>
     <row r="6" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="8"/>
-      <c r="B6" s="72"/>
+      <c r="B6" s="39"/>
       <c r="C6" s="24">
         <f>E3</f>
         <v>42883</v>
       </c>
       <c r="D6" s="8"/>
-      <c r="E6" s="73"/>
+      <c r="E6" s="40"/>
       <c r="F6" s="8"/>
-      <c r="G6" s="77" t="s">
+      <c r="G6" s="54" t="s">
         <v>24</v>
       </c>
-      <c r="H6" s="78"/>
-      <c r="I6" s="78"/>
-      <c r="J6" s="79"/>
+      <c r="H6" s="55"/>
+      <c r="I6" s="55"/>
+      <c r="J6" s="56"/>
     </row>
     <row r="7" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="8"/>
@@ -1379,13 +1385,13 @@
       <c r="D7" s="8"/>
       <c r="E7" s="16"/>
       <c r="F7" s="8"/>
-      <c r="G7" s="61">
+      <c r="G7" s="41">
         <f>E3</f>
         <v>42883</v>
       </c>
-      <c r="H7" s="62"/>
-      <c r="I7" s="55"/>
-      <c r="J7" s="56"/>
+      <c r="H7" s="42"/>
+      <c r="I7" s="45"/>
+      <c r="J7" s="46"/>
     </row>
     <row r="8" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="8"/>
@@ -1397,10 +1403,10 @@
       <c r="D8" s="8"/>
       <c r="E8" s="17"/>
       <c r="F8" s="8"/>
-      <c r="G8" s="61"/>
-      <c r="H8" s="62"/>
-      <c r="I8" s="53"/>
-      <c r="J8" s="54"/>
+      <c r="G8" s="41"/>
+      <c r="H8" s="42"/>
+      <c r="I8" s="47"/>
+      <c r="J8" s="48"/>
     </row>
     <row r="9" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="8"/>
@@ -1412,10 +1418,10 @@
       <c r="D9" s="8"/>
       <c r="E9" s="16"/>
       <c r="F9" s="8"/>
-      <c r="G9" s="63"/>
-      <c r="H9" s="64"/>
-      <c r="I9" s="67"/>
-      <c r="J9" s="68"/>
+      <c r="G9" s="43"/>
+      <c r="H9" s="44"/>
+      <c r="I9" s="49"/>
+      <c r="J9" s="50"/>
     </row>
     <row r="10" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="8"/>
@@ -1427,13 +1433,13 @@
       <c r="D10" s="8"/>
       <c r="E10" s="17"/>
       <c r="F10" s="8"/>
-      <c r="G10" s="47">
+      <c r="G10" s="57">
         <f>G7+1</f>
         <v>42884</v>
       </c>
-      <c r="H10" s="48"/>
-      <c r="I10" s="69"/>
-      <c r="J10" s="70"/>
+      <c r="H10" s="58"/>
+      <c r="I10" s="63"/>
+      <c r="J10" s="64"/>
     </row>
     <row r="11" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="8"/>
@@ -1445,10 +1451,10 @@
       <c r="D11" s="8"/>
       <c r="E11" s="16"/>
       <c r="F11" s="8"/>
-      <c r="G11" s="49"/>
-      <c r="H11" s="50"/>
-      <c r="I11" s="55"/>
-      <c r="J11" s="56"/>
+      <c r="G11" s="59"/>
+      <c r="H11" s="60"/>
+      <c r="I11" s="45"/>
+      <c r="J11" s="46"/>
     </row>
     <row r="12" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="8"/>
@@ -1460,10 +1466,10 @@
       <c r="D12" s="8"/>
       <c r="E12" s="17"/>
       <c r="F12" s="8"/>
-      <c r="G12" s="51"/>
-      <c r="H12" s="52"/>
-      <c r="I12" s="57"/>
-      <c r="J12" s="58"/>
+      <c r="G12" s="61"/>
+      <c r="H12" s="62"/>
+      <c r="I12" s="65"/>
+      <c r="J12" s="66"/>
     </row>
     <row r="13" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="8"/>
@@ -1475,13 +1481,13 @@
       <c r="D13" s="8"/>
       <c r="E13" s="16"/>
       <c r="F13" s="8"/>
-      <c r="G13" s="59">
+      <c r="G13" s="67">
         <f>G7+2</f>
         <v>42885</v>
       </c>
-      <c r="H13" s="60"/>
-      <c r="I13" s="65"/>
-      <c r="J13" s="66"/>
+      <c r="H13" s="68"/>
+      <c r="I13" s="69"/>
+      <c r="J13" s="70"/>
     </row>
     <row r="14" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="8"/>
@@ -1493,10 +1499,10 @@
       <c r="D14" s="8"/>
       <c r="E14" s="17"/>
       <c r="F14" s="8"/>
-      <c r="G14" s="61"/>
-      <c r="H14" s="62"/>
-      <c r="I14" s="53"/>
-      <c r="J14" s="54"/>
+      <c r="G14" s="41"/>
+      <c r="H14" s="42"/>
+      <c r="I14" s="47"/>
+      <c r="J14" s="48"/>
     </row>
     <row r="15" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="8"/>
@@ -1508,10 +1514,10 @@
       <c r="D15" s="8"/>
       <c r="E15" s="16"/>
       <c r="F15" s="8"/>
-      <c r="G15" s="63"/>
-      <c r="H15" s="64"/>
-      <c r="I15" s="67"/>
-      <c r="J15" s="68"/>
+      <c r="G15" s="43"/>
+      <c r="H15" s="44"/>
+      <c r="I15" s="49"/>
+      <c r="J15" s="50"/>
     </row>
     <row r="16" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="8"/>
@@ -1523,13 +1529,13 @@
       <c r="D16" s="8"/>
       <c r="E16" s="17"/>
       <c r="F16" s="8"/>
-      <c r="G16" s="47">
+      <c r="G16" s="57">
         <f>G7+3</f>
         <v>42886</v>
       </c>
-      <c r="H16" s="48"/>
-      <c r="I16" s="69"/>
-      <c r="J16" s="70"/>
+      <c r="H16" s="58"/>
+      <c r="I16" s="63"/>
+      <c r="J16" s="64"/>
     </row>
     <row r="17" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="8"/>
@@ -1541,10 +1547,10 @@
       <c r="D17" s="8"/>
       <c r="E17" s="16"/>
       <c r="F17" s="8"/>
-      <c r="G17" s="49"/>
-      <c r="H17" s="50"/>
-      <c r="I17" s="55"/>
-      <c r="J17" s="56"/>
+      <c r="G17" s="59"/>
+      <c r="H17" s="60"/>
+      <c r="I17" s="45"/>
+      <c r="J17" s="46"/>
     </row>
     <row r="18" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="8"/>
@@ -1556,10 +1562,10 @@
       <c r="D18" s="8"/>
       <c r="E18" s="17"/>
       <c r="F18" s="8"/>
-      <c r="G18" s="51"/>
-      <c r="H18" s="52"/>
-      <c r="I18" s="57"/>
-      <c r="J18" s="58"/>
+      <c r="G18" s="61"/>
+      <c r="H18" s="62"/>
+      <c r="I18" s="65"/>
+      <c r="J18" s="66"/>
     </row>
     <row r="19" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="8"/>
@@ -1571,13 +1577,13 @@
       <c r="D19" s="8"/>
       <c r="E19" s="16"/>
       <c r="F19" s="8"/>
-      <c r="G19" s="59">
+      <c r="G19" s="67">
         <f>G7+4</f>
         <v>42887</v>
       </c>
-      <c r="H19" s="60"/>
-      <c r="I19" s="65"/>
-      <c r="J19" s="66"/>
+      <c r="H19" s="68"/>
+      <c r="I19" s="69"/>
+      <c r="J19" s="70"/>
     </row>
     <row r="20" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="8"/>
@@ -1589,10 +1595,10 @@
       <c r="D20" s="8"/>
       <c r="E20" s="17"/>
       <c r="F20" s="8"/>
-      <c r="G20" s="61"/>
-      <c r="H20" s="62"/>
-      <c r="I20" s="53"/>
-      <c r="J20" s="54"/>
+      <c r="G20" s="41"/>
+      <c r="H20" s="42"/>
+      <c r="I20" s="47"/>
+      <c r="J20" s="48"/>
     </row>
     <row r="21" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="8"/>
@@ -1604,10 +1610,10 @@
       <c r="D21" s="8"/>
       <c r="E21" s="16"/>
       <c r="F21" s="8"/>
-      <c r="G21" s="63"/>
-      <c r="H21" s="64"/>
-      <c r="I21" s="67"/>
-      <c r="J21" s="68"/>
+      <c r="G21" s="43"/>
+      <c r="H21" s="44"/>
+      <c r="I21" s="49"/>
+      <c r="J21" s="50"/>
     </row>
     <row r="22" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="8"/>
@@ -1619,13 +1625,13 @@
       <c r="D22" s="8"/>
       <c r="E22" s="17"/>
       <c r="F22" s="8"/>
-      <c r="G22" s="47">
+      <c r="G22" s="57">
         <f>G7+5</f>
         <v>42888</v>
       </c>
-      <c r="H22" s="48"/>
-      <c r="I22" s="53"/>
-      <c r="J22" s="54"/>
+      <c r="H22" s="58"/>
+      <c r="I22" s="47"/>
+      <c r="J22" s="48"/>
     </row>
     <row r="23" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="8"/>
@@ -1637,10 +1643,10 @@
       <c r="D23" s="8"/>
       <c r="E23" s="16"/>
       <c r="F23" s="8"/>
-      <c r="G23" s="49"/>
-      <c r="H23" s="50"/>
-      <c r="I23" s="55"/>
-      <c r="J23" s="56"/>
+      <c r="G23" s="59"/>
+      <c r="H23" s="60"/>
+      <c r="I23" s="45"/>
+      <c r="J23" s="46"/>
     </row>
     <row r="24" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="8"/>
@@ -1652,10 +1658,10 @@
       <c r="D24" s="8"/>
       <c r="E24" s="17"/>
       <c r="F24" s="8"/>
-      <c r="G24" s="51"/>
-      <c r="H24" s="52"/>
-      <c r="I24" s="57"/>
-      <c r="J24" s="58"/>
+      <c r="G24" s="61"/>
+      <c r="H24" s="62"/>
+      <c r="I24" s="65"/>
+      <c r="J24" s="66"/>
     </row>
     <row r="25" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="8"/>
@@ -1667,13 +1673,13 @@
       <c r="D25" s="8"/>
       <c r="E25" s="16"/>
       <c r="F25" s="8"/>
-      <c r="G25" s="59">
+      <c r="G25" s="67">
         <f>G7+6</f>
         <v>42889</v>
       </c>
-      <c r="H25" s="60"/>
-      <c r="I25" s="65"/>
-      <c r="J25" s="66"/>
+      <c r="H25" s="68"/>
+      <c r="I25" s="69"/>
+      <c r="J25" s="70"/>
     </row>
     <row r="26" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="8"/>
@@ -1685,10 +1691,10 @@
       <c r="D26" s="8"/>
       <c r="E26" s="17"/>
       <c r="F26" s="8"/>
-      <c r="G26" s="61"/>
-      <c r="H26" s="62"/>
-      <c r="I26" s="53"/>
-      <c r="J26" s="54"/>
+      <c r="G26" s="41"/>
+      <c r="H26" s="42"/>
+      <c r="I26" s="47"/>
+      <c r="J26" s="48"/>
     </row>
     <row r="27" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="8"/>
@@ -1700,10 +1706,10 @@
       <c r="D27" s="8"/>
       <c r="E27" s="16"/>
       <c r="F27" s="8"/>
-      <c r="G27" s="63"/>
-      <c r="H27" s="64"/>
-      <c r="I27" s="67"/>
-      <c r="J27" s="68"/>
+      <c r="G27" s="43"/>
+      <c r="H27" s="44"/>
+      <c r="I27" s="49"/>
+      <c r="J27" s="50"/>
     </row>
     <row r="28" spans="1:10" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A28" s="8"/>
@@ -1730,12 +1736,12 @@
       <c r="D29" s="8"/>
       <c r="E29" s="16"/>
       <c r="F29" s="8"/>
-      <c r="G29" s="38" t="s">
+      <c r="G29" s="71" t="s">
         <v>26</v>
       </c>
-      <c r="H29" s="39"/>
-      <c r="I29" s="39"/>
-      <c r="J29" s="40"/>
+      <c r="H29" s="72"/>
+      <c r="I29" s="72"/>
+      <c r="J29" s="73"/>
     </row>
     <row r="30" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30" s="8"/>
@@ -1747,10 +1753,10 @@
       <c r="D30" s="8"/>
       <c r="E30" s="17"/>
       <c r="F30" s="8"/>
-      <c r="G30" s="41"/>
-      <c r="H30" s="42"/>
-      <c r="I30" s="42"/>
-      <c r="J30" s="43"/>
+      <c r="G30" s="74"/>
+      <c r="H30" s="75"/>
+      <c r="I30" s="75"/>
+      <c r="J30" s="76"/>
     </row>
     <row r="31" spans="1:10" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A31" s="8"/>
@@ -1762,10 +1768,10 @@
       <c r="D31" s="8"/>
       <c r="E31" s="16"/>
       <c r="F31" s="8"/>
-      <c r="G31" s="44"/>
-      <c r="H31" s="45"/>
-      <c r="I31" s="45"/>
-      <c r="J31" s="46"/>
+      <c r="G31" s="77"/>
+      <c r="H31" s="78"/>
+      <c r="I31" s="78"/>
+      <c r="J31" s="79"/>
     </row>
     <row r="32" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A32" s="8"/>
@@ -1889,6 +1895,31 @@
     </row>
   </sheetData>
   <mergeCells count="34">
+    <mergeCell ref="G29:J31"/>
+    <mergeCell ref="G22:H24"/>
+    <mergeCell ref="I22:J22"/>
+    <mergeCell ref="I23:J23"/>
+    <mergeCell ref="I24:J24"/>
+    <mergeCell ref="G25:H27"/>
+    <mergeCell ref="I25:J25"/>
+    <mergeCell ref="I26:J26"/>
+    <mergeCell ref="I27:J27"/>
+    <mergeCell ref="G16:H18"/>
+    <mergeCell ref="I16:J16"/>
+    <mergeCell ref="I17:J17"/>
+    <mergeCell ref="I18:J18"/>
+    <mergeCell ref="G19:H21"/>
+    <mergeCell ref="I19:J19"/>
+    <mergeCell ref="I20:J20"/>
+    <mergeCell ref="I21:J21"/>
+    <mergeCell ref="G10:H12"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="G13:H15"/>
+    <mergeCell ref="I13:J13"/>
+    <mergeCell ref="I14:J14"/>
+    <mergeCell ref="I15:J15"/>
     <mergeCell ref="B2:C3"/>
     <mergeCell ref="B5:B6"/>
     <mergeCell ref="E5:E6"/>
@@ -1898,31 +1929,6 @@
     <mergeCell ref="I9:J9"/>
     <mergeCell ref="G5:J5"/>
     <mergeCell ref="G6:J6"/>
-    <mergeCell ref="G10:H12"/>
-    <mergeCell ref="I10:J10"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="I12:J12"/>
-    <mergeCell ref="G13:H15"/>
-    <mergeCell ref="I13:J13"/>
-    <mergeCell ref="I14:J14"/>
-    <mergeCell ref="I15:J15"/>
-    <mergeCell ref="G16:H18"/>
-    <mergeCell ref="I16:J16"/>
-    <mergeCell ref="I17:J17"/>
-    <mergeCell ref="I18:J18"/>
-    <mergeCell ref="G19:H21"/>
-    <mergeCell ref="I19:J19"/>
-    <mergeCell ref="I20:J20"/>
-    <mergeCell ref="I21:J21"/>
-    <mergeCell ref="G29:J31"/>
-    <mergeCell ref="G22:H24"/>
-    <mergeCell ref="I22:J22"/>
-    <mergeCell ref="I23:J23"/>
-    <mergeCell ref="I24:J24"/>
-    <mergeCell ref="G25:H27"/>
-    <mergeCell ref="I25:J25"/>
-    <mergeCell ref="I26:J26"/>
-    <mergeCell ref="I27:J27"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="G29" r:id="rId1"/>
@@ -2004,10 +2010,10 @@
     </row>
     <row r="2" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.65">
       <c r="A2" s="8"/>
-      <c r="B2" s="71" t="s">
+      <c r="B2" s="38" t="s">
         <v>25</v>
       </c>
-      <c r="C2" s="71"/>
+      <c r="C2" s="38"/>
       <c r="D2" s="9"/>
       <c r="E2" s="12" t="s">
         <v>13</v>
@@ -2024,8 +2030,8 @@
     </row>
     <row r="3" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.65">
       <c r="A3" s="8"/>
-      <c r="B3" s="71"/>
-      <c r="C3" s="71"/>
+      <c r="B3" s="38"/>
+      <c r="C3" s="38"/>
       <c r="D3" s="9"/>
       <c r="E3" s="13">
         <f>'Daily Schedule SUN'!E3</f>
@@ -2058,38 +2064,38 @@
     </row>
     <row r="5" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="8"/>
-      <c r="B5" s="82" t="s">
+      <c r="B5" s="80" t="s">
         <v>0</v>
       </c>
       <c r="C5" s="31" t="s">
         <v>16</v>
       </c>
       <c r="D5" s="8"/>
-      <c r="E5" s="73" t="s">
+      <c r="E5" s="40" t="s">
         <v>14</v>
       </c>
       <c r="F5" s="8"/>
-      <c r="G5" s="80" t="s">
+      <c r="G5" s="81" t="s">
         <v>15</v>
       </c>
-      <c r="H5" s="81"/>
-      <c r="I5" s="80"/>
-      <c r="J5" s="80"/>
+      <c r="H5" s="82"/>
+      <c r="I5" s="81"/>
+      <c r="J5" s="81"/>
     </row>
     <row r="6" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="8"/>
-      <c r="B6" s="82"/>
+      <c r="B6" s="80"/>
       <c r="C6" s="32">
         <f>E3+1</f>
         <v>42884</v>
       </c>
       <c r="D6" s="8"/>
-      <c r="E6" s="73"/>
+      <c r="E6" s="40"/>
       <c r="F6" s="8"/>
-      <c r="G6" s="80"/>
-      <c r="H6" s="80"/>
-      <c r="I6" s="80"/>
-      <c r="J6" s="80"/>
+      <c r="G6" s="81"/>
+      <c r="H6" s="81"/>
+      <c r="I6" s="81"/>
+      <c r="J6" s="81"/>
     </row>
     <row r="7" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="8"/>
@@ -2101,16 +2107,16 @@
       <c r="D7" s="8"/>
       <c r="E7" s="16"/>
       <c r="F7" s="8"/>
-      <c r="G7" s="59">
+      <c r="G7" s="67">
         <f>E3</f>
         <v>42883</v>
       </c>
-      <c r="H7" s="60"/>
-      <c r="I7" s="65">
+      <c r="H7" s="68"/>
+      <c r="I7" s="69">
         <f>'Daily Schedule SUN'!I7:J7</f>
         <v>0</v>
       </c>
-      <c r="J7" s="66"/>
+      <c r="J7" s="70"/>
     </row>
     <row r="8" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="8"/>
@@ -2122,13 +2128,13 @@
       <c r="D8" s="8"/>
       <c r="E8" s="17"/>
       <c r="F8" s="8"/>
-      <c r="G8" s="61"/>
-      <c r="H8" s="62"/>
-      <c r="I8" s="53">
+      <c r="G8" s="41"/>
+      <c r="H8" s="42"/>
+      <c r="I8" s="47">
         <f>'Daily Schedule SUN'!I8:J8</f>
         <v>0</v>
       </c>
-      <c r="J8" s="54"/>
+      <c r="J8" s="48"/>
     </row>
     <row r="9" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="8"/>
@@ -2140,13 +2146,13 @@
       <c r="D9" s="8"/>
       <c r="E9" s="16"/>
       <c r="F9" s="8"/>
-      <c r="G9" s="63"/>
-      <c r="H9" s="64"/>
-      <c r="I9" s="67">
+      <c r="G9" s="43"/>
+      <c r="H9" s="44"/>
+      <c r="I9" s="49">
         <f>'Daily Schedule SUN'!I9:J9</f>
         <v>0</v>
       </c>
-      <c r="J9" s="68"/>
+      <c r="J9" s="50"/>
     </row>
     <row r="10" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="8"/>
@@ -2158,16 +2164,16 @@
       <c r="D10" s="8"/>
       <c r="E10" s="17"/>
       <c r="F10" s="8"/>
-      <c r="G10" s="47">
+      <c r="G10" s="57">
         <f>G7+1</f>
         <v>42884</v>
       </c>
-      <c r="H10" s="48"/>
-      <c r="I10" s="69">
+      <c r="H10" s="58"/>
+      <c r="I10" s="63">
         <f>'Daily Schedule SUN'!I10:J10</f>
         <v>0</v>
       </c>
-      <c r="J10" s="70"/>
+      <c r="J10" s="64"/>
     </row>
     <row r="11" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="8"/>
@@ -2179,13 +2185,13 @@
       <c r="D11" s="8"/>
       <c r="E11" s="16"/>
       <c r="F11" s="8"/>
-      <c r="G11" s="49"/>
-      <c r="H11" s="50"/>
-      <c r="I11" s="55">
+      <c r="G11" s="59"/>
+      <c r="H11" s="60"/>
+      <c r="I11" s="45">
         <f>'Daily Schedule SUN'!I11:J11</f>
         <v>0</v>
       </c>
-      <c r="J11" s="56"/>
+      <c r="J11" s="46"/>
     </row>
     <row r="12" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="8"/>
@@ -2197,13 +2203,13 @@
       <c r="D12" s="8"/>
       <c r="E12" s="17"/>
       <c r="F12" s="8"/>
-      <c r="G12" s="51"/>
-      <c r="H12" s="52"/>
-      <c r="I12" s="57">
+      <c r="G12" s="61"/>
+      <c r="H12" s="62"/>
+      <c r="I12" s="65">
         <f>'Daily Schedule SUN'!I12:J12</f>
         <v>0</v>
       </c>
-      <c r="J12" s="58"/>
+      <c r="J12" s="66"/>
     </row>
     <row r="13" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="8"/>
@@ -2217,16 +2223,16 @@
       <c r="D13" s="8"/>
       <c r="E13" s="16"/>
       <c r="F13" s="8"/>
-      <c r="G13" s="59">
+      <c r="G13" s="67">
         <f>G7+2</f>
         <v>42885</v>
       </c>
-      <c r="H13" s="60"/>
-      <c r="I13" s="65">
+      <c r="H13" s="68"/>
+      <c r="I13" s="69">
         <f>'Daily Schedule SUN'!I13:J13</f>
         <v>0</v>
       </c>
-      <c r="J13" s="66"/>
+      <c r="J13" s="70"/>
     </row>
     <row r="14" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="8"/>
@@ -2240,13 +2246,13 @@
       <c r="D14" s="8"/>
       <c r="E14" s="17"/>
       <c r="F14" s="8"/>
-      <c r="G14" s="61"/>
-      <c r="H14" s="62"/>
-      <c r="I14" s="53">
+      <c r="G14" s="41"/>
+      <c r="H14" s="42"/>
+      <c r="I14" s="47">
         <f>'Daily Schedule SUN'!I14:J14</f>
         <v>0</v>
       </c>
-      <c r="J14" s="54"/>
+      <c r="J14" s="48"/>
     </row>
     <row r="15" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="8"/>
@@ -2262,13 +2268,13 @@
         <v>28</v>
       </c>
       <c r="F15" s="8"/>
-      <c r="G15" s="63"/>
-      <c r="H15" s="64"/>
-      <c r="I15" s="67">
+      <c r="G15" s="43"/>
+      <c r="H15" s="44"/>
+      <c r="I15" s="49">
         <f>'Daily Schedule SUN'!I15:J15</f>
         <v>0</v>
       </c>
-      <c r="J15" s="68"/>
+      <c r="J15" s="50"/>
     </row>
     <row r="16" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="8"/>
@@ -2282,16 +2288,16 @@
       <c r="D16" s="8"/>
       <c r="E16" s="17"/>
       <c r="F16" s="8"/>
-      <c r="G16" s="47">
+      <c r="G16" s="57">
         <f>G7+3</f>
         <v>42886</v>
       </c>
-      <c r="H16" s="48"/>
-      <c r="I16" s="69">
+      <c r="H16" s="58"/>
+      <c r="I16" s="63">
         <f>'Daily Schedule SUN'!I16:J16</f>
         <v>0</v>
       </c>
-      <c r="J16" s="70"/>
+      <c r="J16" s="64"/>
     </row>
     <row r="17" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="8"/>
@@ -2305,13 +2311,13 @@
       <c r="D17" s="8"/>
       <c r="E17" s="36"/>
       <c r="F17" s="8"/>
-      <c r="G17" s="49"/>
-      <c r="H17" s="50"/>
-      <c r="I17" s="55">
+      <c r="G17" s="59"/>
+      <c r="H17" s="60"/>
+      <c r="I17" s="45">
         <f>'Daily Schedule SUN'!I17:J17</f>
         <v>0</v>
       </c>
-      <c r="J17" s="56"/>
+      <c r="J17" s="46"/>
     </row>
     <row r="18" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="8"/>
@@ -2327,13 +2333,13 @@
         <v>28</v>
       </c>
       <c r="F18" s="8"/>
-      <c r="G18" s="51"/>
-      <c r="H18" s="52"/>
-      <c r="I18" s="57">
+      <c r="G18" s="61"/>
+      <c r="H18" s="62"/>
+      <c r="I18" s="65">
         <f>'Daily Schedule SUN'!I18:J18</f>
         <v>0</v>
       </c>
-      <c r="J18" s="58"/>
+      <c r="J18" s="66"/>
     </row>
     <row r="19" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="8"/>
@@ -2347,16 +2353,16 @@
       <c r="D19" s="8"/>
       <c r="E19" s="36"/>
       <c r="F19" s="8"/>
-      <c r="G19" s="59">
+      <c r="G19" s="67">
         <f>G7+4</f>
         <v>42887</v>
       </c>
-      <c r="H19" s="60"/>
-      <c r="I19" s="65">
+      <c r="H19" s="68"/>
+      <c r="I19" s="69">
         <f>'Daily Schedule SUN'!I19:J19</f>
         <v>0</v>
       </c>
-      <c r="J19" s="66"/>
+      <c r="J19" s="70"/>
     </row>
     <row r="20" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="8"/>
@@ -2370,13 +2376,13 @@
       <c r="D20" s="8"/>
       <c r="E20" s="17"/>
       <c r="F20" s="8"/>
-      <c r="G20" s="61"/>
-      <c r="H20" s="62"/>
-      <c r="I20" s="53">
+      <c r="G20" s="41"/>
+      <c r="H20" s="42"/>
+      <c r="I20" s="47">
         <f>'Daily Schedule SUN'!I20:J20</f>
         <v>0</v>
       </c>
-      <c r="J20" s="54"/>
+      <c r="J20" s="48"/>
     </row>
     <row r="21" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="8"/>
@@ -2390,13 +2396,13 @@
       <c r="D21" s="8"/>
       <c r="E21" s="16"/>
       <c r="F21" s="8"/>
-      <c r="G21" s="63"/>
-      <c r="H21" s="64"/>
-      <c r="I21" s="67">
+      <c r="G21" s="43"/>
+      <c r="H21" s="44"/>
+      <c r="I21" s="49">
         <f>'Daily Schedule SUN'!I21:J21</f>
         <v>0</v>
       </c>
-      <c r="J21" s="68"/>
+      <c r="J21" s="50"/>
     </row>
     <row r="22" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="8"/>
@@ -2410,16 +2416,16 @@
       <c r="D22" s="8"/>
       <c r="E22" s="17"/>
       <c r="F22" s="8"/>
-      <c r="G22" s="47">
+      <c r="G22" s="57">
         <f>G7+5</f>
         <v>42888</v>
       </c>
-      <c r="H22" s="48"/>
-      <c r="I22" s="69">
+      <c r="H22" s="58"/>
+      <c r="I22" s="63">
         <f>'Daily Schedule SUN'!I22:J22</f>
         <v>0</v>
       </c>
-      <c r="J22" s="70"/>
+      <c r="J22" s="64"/>
     </row>
     <row r="23" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="8"/>
@@ -2433,13 +2439,13 @@
       <c r="D23" s="8"/>
       <c r="E23" s="16"/>
       <c r="F23" s="8"/>
-      <c r="G23" s="49"/>
-      <c r="H23" s="50"/>
-      <c r="I23" s="55">
+      <c r="G23" s="59"/>
+      <c r="H23" s="60"/>
+      <c r="I23" s="45">
         <f>'Daily Schedule SUN'!I23:J23</f>
         <v>0</v>
       </c>
-      <c r="J23" s="56"/>
+      <c r="J23" s="46"/>
     </row>
     <row r="24" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="8"/>
@@ -2453,13 +2459,13 @@
       <c r="D24" s="8"/>
       <c r="E24" s="17"/>
       <c r="F24" s="8"/>
-      <c r="G24" s="51"/>
-      <c r="H24" s="52"/>
-      <c r="I24" s="57">
+      <c r="G24" s="61"/>
+      <c r="H24" s="62"/>
+      <c r="I24" s="65">
         <f>'Daily Schedule SUN'!I24:J24</f>
         <v>0</v>
       </c>
-      <c r="J24" s="58"/>
+      <c r="J24" s="66"/>
     </row>
     <row r="25" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="8"/>
@@ -2473,16 +2479,16 @@
       <c r="D25" s="8"/>
       <c r="E25" s="16"/>
       <c r="F25" s="8"/>
-      <c r="G25" s="59">
+      <c r="G25" s="67">
         <f>G7+6</f>
         <v>42889</v>
       </c>
-      <c r="H25" s="60"/>
-      <c r="I25" s="65">
+      <c r="H25" s="68"/>
+      <c r="I25" s="69">
         <f>'Daily Schedule SUN'!I25:J25</f>
         <v>0</v>
       </c>
-      <c r="J25" s="66"/>
+      <c r="J25" s="70"/>
     </row>
     <row r="26" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="8"/>
@@ -2498,13 +2504,13 @@
         <v>34</v>
       </c>
       <c r="F26" s="8"/>
-      <c r="G26" s="61"/>
-      <c r="H26" s="62"/>
-      <c r="I26" s="53">
+      <c r="G26" s="41"/>
+      <c r="H26" s="42"/>
+      <c r="I26" s="47">
         <f>'Daily Schedule SUN'!I26:J26</f>
         <v>0</v>
       </c>
-      <c r="J26" s="54"/>
+      <c r="J26" s="48"/>
     </row>
     <row r="27" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="8"/>
@@ -2516,13 +2522,13 @@
       <c r="D27" s="8"/>
       <c r="E27" s="36"/>
       <c r="F27" s="8"/>
-      <c r="G27" s="63"/>
-      <c r="H27" s="64"/>
-      <c r="I27" s="67">
+      <c r="G27" s="43"/>
+      <c r="H27" s="44"/>
+      <c r="I27" s="49">
         <f>'Daily Schedule SUN'!I27:J27</f>
         <v>0</v>
       </c>
-      <c r="J27" s="68"/>
+      <c r="J27" s="50"/>
     </row>
     <row r="28" spans="1:10" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A28" s="8"/>
@@ -2549,12 +2555,12 @@
       <c r="D29" s="8"/>
       <c r="E29" s="16"/>
       <c r="F29" s="8"/>
-      <c r="G29" s="38" t="s">
+      <c r="G29" s="71" t="s">
         <v>26</v>
       </c>
-      <c r="H29" s="39"/>
-      <c r="I29" s="39"/>
-      <c r="J29" s="40"/>
+      <c r="H29" s="72"/>
+      <c r="I29" s="72"/>
+      <c r="J29" s="73"/>
     </row>
     <row r="30" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30" s="8"/>
@@ -2566,10 +2572,10 @@
       <c r="D30" s="8"/>
       <c r="E30" s="17"/>
       <c r="F30" s="8"/>
-      <c r="G30" s="41"/>
-      <c r="H30" s="42"/>
-      <c r="I30" s="42"/>
-      <c r="J30" s="43"/>
+      <c r="G30" s="74"/>
+      <c r="H30" s="75"/>
+      <c r="I30" s="75"/>
+      <c r="J30" s="76"/>
     </row>
     <row r="31" spans="1:10" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A31" s="8"/>
@@ -2581,10 +2587,10 @@
       <c r="D31" s="8"/>
       <c r="E31" s="36"/>
       <c r="F31" s="8"/>
-      <c r="G31" s="44"/>
-      <c r="H31" s="45"/>
-      <c r="I31" s="45"/>
-      <c r="J31" s="46"/>
+      <c r="G31" s="77"/>
+      <c r="H31" s="78"/>
+      <c r="I31" s="78"/>
+      <c r="J31" s="79"/>
     </row>
     <row r="32" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A32" s="8"/>
@@ -2708,23 +2714,6 @@
     </row>
   </sheetData>
   <mergeCells count="33">
-    <mergeCell ref="I15:J15"/>
-    <mergeCell ref="I10:J10"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="I12:J12"/>
-    <mergeCell ref="I13:J13"/>
-    <mergeCell ref="I14:J14"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="I7:J7"/>
-    <mergeCell ref="I8:J8"/>
-    <mergeCell ref="I9:J9"/>
-    <mergeCell ref="I25:J25"/>
-    <mergeCell ref="I16:J16"/>
-    <mergeCell ref="I17:J17"/>
-    <mergeCell ref="I18:J18"/>
-    <mergeCell ref="I19:J19"/>
-    <mergeCell ref="I20:J20"/>
     <mergeCell ref="G29:J31"/>
     <mergeCell ref="I26:J26"/>
     <mergeCell ref="I27:J27"/>
@@ -2741,6 +2730,23 @@
     <mergeCell ref="I22:J22"/>
     <mergeCell ref="I23:J23"/>
     <mergeCell ref="I24:J24"/>
+    <mergeCell ref="I25:J25"/>
+    <mergeCell ref="I16:J16"/>
+    <mergeCell ref="I17:J17"/>
+    <mergeCell ref="I18:J18"/>
+    <mergeCell ref="I19:J19"/>
+    <mergeCell ref="I20:J20"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="I8:J8"/>
+    <mergeCell ref="I9:J9"/>
+    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="I13:J13"/>
+    <mergeCell ref="I14:J14"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="G29" r:id="rId1"/>
@@ -2789,7 +2795,7 @@
   </sheetPr>
   <dimension ref="A1:J39"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A13" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="80" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A13" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="80" workbookViewId="0">
       <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
@@ -2822,10 +2828,10 @@
     </row>
     <row r="2" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.65">
       <c r="A2" s="8"/>
-      <c r="B2" s="71" t="s">
+      <c r="B2" s="38" t="s">
         <v>25</v>
       </c>
-      <c r="C2" s="71"/>
+      <c r="C2" s="38"/>
       <c r="D2" s="9"/>
       <c r="E2" s="12" t="s">
         <v>13</v>
@@ -2842,8 +2848,8 @@
     </row>
     <row r="3" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.65">
       <c r="A3" s="8"/>
-      <c r="B3" s="71"/>
-      <c r="C3" s="71"/>
+      <c r="B3" s="38"/>
+      <c r="C3" s="38"/>
       <c r="D3" s="9"/>
       <c r="E3" s="13">
         <f>'Daily Schedule SUN'!E3</f>
@@ -2876,38 +2882,38 @@
     </row>
     <row r="5" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="8"/>
-      <c r="B5" s="72" t="s">
+      <c r="B5" s="39" t="s">
         <v>0</v>
       </c>
       <c r="C5" s="23" t="s">
         <v>18</v>
       </c>
       <c r="D5" s="8"/>
-      <c r="E5" s="73" t="s">
+      <c r="E5" s="40" t="s">
         <v>14</v>
       </c>
       <c r="F5" s="8"/>
-      <c r="G5" s="80" t="s">
+      <c r="G5" s="81" t="s">
         <v>15</v>
       </c>
-      <c r="H5" s="81"/>
-      <c r="I5" s="80"/>
-      <c r="J5" s="80"/>
+      <c r="H5" s="82"/>
+      <c r="I5" s="81"/>
+      <c r="J5" s="81"/>
     </row>
     <row r="6" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="8"/>
-      <c r="B6" s="72"/>
+      <c r="B6" s="39"/>
       <c r="C6" s="24">
         <f>E3+2</f>
         <v>42885</v>
       </c>
       <c r="D6" s="8"/>
-      <c r="E6" s="73"/>
+      <c r="E6" s="40"/>
       <c r="F6" s="8"/>
-      <c r="G6" s="80"/>
-      <c r="H6" s="80"/>
-      <c r="I6" s="80"/>
-      <c r="J6" s="80"/>
+      <c r="G6" s="81"/>
+      <c r="H6" s="81"/>
+      <c r="I6" s="81"/>
+      <c r="J6" s="81"/>
     </row>
     <row r="7" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="8"/>
@@ -2919,16 +2925,16 @@
       <c r="D7" s="8"/>
       <c r="E7" s="16"/>
       <c r="F7" s="8"/>
-      <c r="G7" s="59">
+      <c r="G7" s="67">
         <f>E3</f>
         <v>42883</v>
       </c>
-      <c r="H7" s="60"/>
-      <c r="I7" s="65">
+      <c r="H7" s="68"/>
+      <c r="I7" s="69">
         <f>'Daily Schedule SUN'!I7:J7</f>
         <v>0</v>
       </c>
-      <c r="J7" s="66"/>
+      <c r="J7" s="70"/>
     </row>
     <row r="8" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="8"/>
@@ -2940,13 +2946,13 @@
       <c r="D8" s="8"/>
       <c r="E8" s="17"/>
       <c r="F8" s="8"/>
-      <c r="G8" s="61"/>
-      <c r="H8" s="62"/>
-      <c r="I8" s="53">
+      <c r="G8" s="41"/>
+      <c r="H8" s="42"/>
+      <c r="I8" s="47">
         <f>'Daily Schedule SUN'!I8:J8</f>
         <v>0</v>
       </c>
-      <c r="J8" s="54"/>
+      <c r="J8" s="48"/>
     </row>
     <row r="9" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="8"/>
@@ -2958,13 +2964,13 @@
       <c r="D9" s="8"/>
       <c r="E9" s="16"/>
       <c r="F9" s="8"/>
-      <c r="G9" s="63"/>
-      <c r="H9" s="64"/>
-      <c r="I9" s="67">
+      <c r="G9" s="43"/>
+      <c r="H9" s="44"/>
+      <c r="I9" s="49">
         <f>'Daily Schedule SUN'!I9:J9</f>
         <v>0</v>
       </c>
-      <c r="J9" s="68"/>
+      <c r="J9" s="50"/>
     </row>
     <row r="10" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="8"/>
@@ -2976,16 +2982,16 @@
       <c r="D10" s="8"/>
       <c r="E10" s="17"/>
       <c r="F10" s="8"/>
-      <c r="G10" s="47">
+      <c r="G10" s="57">
         <f>G7+1</f>
         <v>42884</v>
       </c>
-      <c r="H10" s="48"/>
-      <c r="I10" s="69">
+      <c r="H10" s="58"/>
+      <c r="I10" s="63">
         <f>'Daily Schedule SUN'!I10:J10</f>
         <v>0</v>
       </c>
-      <c r="J10" s="70"/>
+      <c r="J10" s="64"/>
     </row>
     <row r="11" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="8"/>
@@ -2997,13 +3003,13 @@
       <c r="D11" s="8"/>
       <c r="E11" s="16"/>
       <c r="F11" s="8"/>
-      <c r="G11" s="49"/>
-      <c r="H11" s="50"/>
-      <c r="I11" s="55">
+      <c r="G11" s="59"/>
+      <c r="H11" s="60"/>
+      <c r="I11" s="45">
         <f>'Daily Schedule SUN'!I11:J11</f>
         <v>0</v>
       </c>
-      <c r="J11" s="56"/>
+      <c r="J11" s="46"/>
     </row>
     <row r="12" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="8"/>
@@ -3015,13 +3021,13 @@
       <c r="D12" s="8"/>
       <c r="E12" s="17"/>
       <c r="F12" s="8"/>
-      <c r="G12" s="51"/>
-      <c r="H12" s="52"/>
-      <c r="I12" s="57">
+      <c r="G12" s="61"/>
+      <c r="H12" s="62"/>
+      <c r="I12" s="65">
         <f>'Daily Schedule SUN'!I12:J12</f>
         <v>0</v>
       </c>
-      <c r="J12" s="58"/>
+      <c r="J12" s="66"/>
     </row>
     <row r="13" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="8"/>
@@ -3033,16 +3039,16 @@
       <c r="D13" s="8"/>
       <c r="E13" s="16"/>
       <c r="F13" s="8"/>
-      <c r="G13" s="59">
+      <c r="G13" s="67">
         <f>G7+2</f>
         <v>42885</v>
       </c>
-      <c r="H13" s="60"/>
-      <c r="I13" s="65">
+      <c r="H13" s="68"/>
+      <c r="I13" s="69">
         <f>'Daily Schedule SUN'!I13:J13</f>
         <v>0</v>
       </c>
-      <c r="J13" s="66"/>
+      <c r="J13" s="70"/>
     </row>
     <row r="14" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="8"/>
@@ -3054,13 +3060,13 @@
       <c r="D14" s="8"/>
       <c r="E14" s="17"/>
       <c r="F14" s="8"/>
-      <c r="G14" s="61"/>
-      <c r="H14" s="62"/>
-      <c r="I14" s="53">
+      <c r="G14" s="41"/>
+      <c r="H14" s="42"/>
+      <c r="I14" s="47">
         <f>'Daily Schedule SUN'!I14:J14</f>
         <v>0</v>
       </c>
-      <c r="J14" s="54"/>
+      <c r="J14" s="48"/>
     </row>
     <row r="15" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="8"/>
@@ -3074,13 +3080,13 @@
       <c r="D15" s="8"/>
       <c r="E15" s="16"/>
       <c r="F15" s="8"/>
-      <c r="G15" s="63"/>
-      <c r="H15" s="64"/>
-      <c r="I15" s="67">
+      <c r="G15" s="43"/>
+      <c r="H15" s="44"/>
+      <c r="I15" s="49">
         <f>'Daily Schedule SUN'!I15:J15</f>
         <v>0</v>
       </c>
-      <c r="J15" s="68"/>
+      <c r="J15" s="50"/>
     </row>
     <row r="16" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="8"/>
@@ -3096,16 +3102,16 @@
         <v>28</v>
       </c>
       <c r="F16" s="8"/>
-      <c r="G16" s="47">
+      <c r="G16" s="57">
         <f>G7+3</f>
         <v>42886</v>
       </c>
-      <c r="H16" s="48"/>
-      <c r="I16" s="69">
+      <c r="H16" s="58"/>
+      <c r="I16" s="63">
         <f>'Daily Schedule SUN'!I16:J16</f>
         <v>0</v>
       </c>
-      <c r="J16" s="70"/>
+      <c r="J16" s="64"/>
     </row>
     <row r="17" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="8"/>
@@ -3119,13 +3125,13 @@
       <c r="D17" s="8"/>
       <c r="E17" s="16"/>
       <c r="F17" s="8"/>
-      <c r="G17" s="49"/>
-      <c r="H17" s="50"/>
-      <c r="I17" s="55">
+      <c r="G17" s="59"/>
+      <c r="H17" s="60"/>
+      <c r="I17" s="45">
         <f>'Daily Schedule SUN'!I17:J17</f>
         <v>0</v>
       </c>
-      <c r="J17" s="56"/>
+      <c r="J17" s="46"/>
     </row>
     <row r="18" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="8"/>
@@ -3141,13 +3147,13 @@
         <v>28</v>
       </c>
       <c r="F18" s="8"/>
-      <c r="G18" s="51"/>
-      <c r="H18" s="52"/>
-      <c r="I18" s="57">
+      <c r="G18" s="61"/>
+      <c r="H18" s="62"/>
+      <c r="I18" s="65">
         <f>'Daily Schedule SUN'!I18:J18</f>
         <v>0</v>
       </c>
-      <c r="J18" s="58"/>
+      <c r="J18" s="66"/>
     </row>
     <row r="19" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="8"/>
@@ -3161,16 +3167,16 @@
       <c r="D19" s="8"/>
       <c r="E19" s="16"/>
       <c r="F19" s="8"/>
-      <c r="G19" s="59">
+      <c r="G19" s="67">
         <f>G7+4</f>
         <v>42887</v>
       </c>
-      <c r="H19" s="60"/>
-      <c r="I19" s="65">
+      <c r="H19" s="68"/>
+      <c r="I19" s="69">
         <f>'Daily Schedule SUN'!I19:J19</f>
         <v>0</v>
       </c>
-      <c r="J19" s="66"/>
+      <c r="J19" s="70"/>
     </row>
     <row r="20" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="8"/>
@@ -3184,13 +3190,13 @@
       <c r="D20" s="8"/>
       <c r="E20" s="17"/>
       <c r="F20" s="8"/>
-      <c r="G20" s="61"/>
-      <c r="H20" s="62"/>
-      <c r="I20" s="53">
+      <c r="G20" s="41"/>
+      <c r="H20" s="42"/>
+      <c r="I20" s="47">
         <f>'Daily Schedule SUN'!I20:J20</f>
         <v>0</v>
       </c>
-      <c r="J20" s="54"/>
+      <c r="J20" s="48"/>
     </row>
     <row r="21" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="8"/>
@@ -3204,13 +3210,13 @@
       <c r="D21" s="8"/>
       <c r="E21" s="16"/>
       <c r="F21" s="8"/>
-      <c r="G21" s="63"/>
-      <c r="H21" s="64"/>
-      <c r="I21" s="67">
+      <c r="G21" s="43"/>
+      <c r="H21" s="44"/>
+      <c r="I21" s="49">
         <f>'Daily Schedule SUN'!I21:J21</f>
         <v>0</v>
       </c>
-      <c r="J21" s="68"/>
+      <c r="J21" s="50"/>
     </row>
     <row r="22" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="8"/>
@@ -3224,16 +3230,16 @@
       <c r="D22" s="8"/>
       <c r="E22" s="17"/>
       <c r="F22" s="8"/>
-      <c r="G22" s="47">
+      <c r="G22" s="57">
         <f>G7+5</f>
         <v>42888</v>
       </c>
-      <c r="H22" s="48"/>
-      <c r="I22" s="69">
+      <c r="H22" s="58"/>
+      <c r="I22" s="63">
         <f>'Daily Schedule SUN'!I22:J22</f>
         <v>0</v>
       </c>
-      <c r="J22" s="70"/>
+      <c r="J22" s="64"/>
     </row>
     <row r="23" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="8"/>
@@ -3247,13 +3253,13 @@
       <c r="D23" s="8"/>
       <c r="E23" s="16"/>
       <c r="F23" s="8"/>
-      <c r="G23" s="49"/>
-      <c r="H23" s="50"/>
-      <c r="I23" s="55">
+      <c r="G23" s="59"/>
+      <c r="H23" s="60"/>
+      <c r="I23" s="45">
         <f>'Daily Schedule SUN'!I23:J23</f>
         <v>0</v>
       </c>
-      <c r="J23" s="56"/>
+      <c r="J23" s="46"/>
     </row>
     <row r="24" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="8"/>
@@ -3267,13 +3273,13 @@
       <c r="D24" s="8"/>
       <c r="E24" s="17"/>
       <c r="F24" s="8"/>
-      <c r="G24" s="51"/>
-      <c r="H24" s="52"/>
-      <c r="I24" s="57">
+      <c r="G24" s="61"/>
+      <c r="H24" s="62"/>
+      <c r="I24" s="65">
         <f>'Daily Schedule SUN'!I24:J24</f>
         <v>0</v>
       </c>
-      <c r="J24" s="58"/>
+      <c r="J24" s="66"/>
     </row>
     <row r="25" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="8"/>
@@ -3285,16 +3291,16 @@
       <c r="D25" s="8"/>
       <c r="E25" s="16"/>
       <c r="F25" s="8"/>
-      <c r="G25" s="59">
+      <c r="G25" s="67">
         <f>G7+6</f>
         <v>42889</v>
       </c>
-      <c r="H25" s="60"/>
-      <c r="I25" s="65">
+      <c r="H25" s="68"/>
+      <c r="I25" s="69">
         <f>'Daily Schedule SUN'!I25:J25</f>
         <v>0</v>
       </c>
-      <c r="J25" s="66"/>
+      <c r="J25" s="70"/>
     </row>
     <row r="26" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="8"/>
@@ -3306,13 +3312,13 @@
       <c r="D26" s="8"/>
       <c r="E26" s="17"/>
       <c r="F26" s="8"/>
-      <c r="G26" s="61"/>
-      <c r="H26" s="62"/>
-      <c r="I26" s="53">
+      <c r="G26" s="41"/>
+      <c r="H26" s="42"/>
+      <c r="I26" s="47">
         <f>'Daily Schedule SUN'!I26:J26</f>
         <v>0</v>
       </c>
-      <c r="J26" s="54"/>
+      <c r="J26" s="48"/>
     </row>
     <row r="27" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="8"/>
@@ -3324,13 +3330,13 @@
       <c r="D27" s="8"/>
       <c r="E27" s="16"/>
       <c r="F27" s="8"/>
-      <c r="G27" s="63"/>
-      <c r="H27" s="64"/>
-      <c r="I27" s="67">
+      <c r="G27" s="43"/>
+      <c r="H27" s="44"/>
+      <c r="I27" s="49">
         <f>'Daily Schedule SUN'!I27:J27</f>
         <v>0</v>
       </c>
-      <c r="J27" s="68"/>
+      <c r="J27" s="50"/>
     </row>
     <row r="28" spans="1:10" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A28" s="8"/>
@@ -3357,12 +3363,12 @@
       <c r="D29" s="8"/>
       <c r="E29" s="16"/>
       <c r="F29" s="8"/>
-      <c r="G29" s="38" t="s">
+      <c r="G29" s="71" t="s">
         <v>26</v>
       </c>
-      <c r="H29" s="39"/>
-      <c r="I29" s="39"/>
-      <c r="J29" s="40"/>
+      <c r="H29" s="72"/>
+      <c r="I29" s="72"/>
+      <c r="J29" s="73"/>
     </row>
     <row r="30" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30" s="8"/>
@@ -3374,10 +3380,10 @@
       <c r="D30" s="8"/>
       <c r="E30" s="17"/>
       <c r="F30" s="8"/>
-      <c r="G30" s="41"/>
-      <c r="H30" s="42"/>
-      <c r="I30" s="42"/>
-      <c r="J30" s="43"/>
+      <c r="G30" s="74"/>
+      <c r="H30" s="75"/>
+      <c r="I30" s="75"/>
+      <c r="J30" s="76"/>
     </row>
     <row r="31" spans="1:10" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A31" s="8"/>
@@ -3389,10 +3395,10 @@
       <c r="D31" s="8"/>
       <c r="E31" s="16"/>
       <c r="F31" s="8"/>
-      <c r="G31" s="44"/>
-      <c r="H31" s="45"/>
-      <c r="I31" s="45"/>
-      <c r="J31" s="46"/>
+      <c r="G31" s="77"/>
+      <c r="H31" s="78"/>
+      <c r="I31" s="78"/>
+      <c r="J31" s="79"/>
     </row>
     <row r="32" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A32" s="8"/>
@@ -3516,30 +3522,6 @@
     </row>
   </sheetData>
   <mergeCells count="33">
-    <mergeCell ref="B2:C3"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="G5:J6"/>
-    <mergeCell ref="G7:H9"/>
-    <mergeCell ref="I7:J7"/>
-    <mergeCell ref="I8:J8"/>
-    <mergeCell ref="I9:J9"/>
-    <mergeCell ref="G10:H12"/>
-    <mergeCell ref="I10:J10"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="I12:J12"/>
-    <mergeCell ref="G13:H15"/>
-    <mergeCell ref="I13:J13"/>
-    <mergeCell ref="I14:J14"/>
-    <mergeCell ref="I15:J15"/>
-    <mergeCell ref="G16:H18"/>
-    <mergeCell ref="I16:J16"/>
-    <mergeCell ref="I17:J17"/>
-    <mergeCell ref="I18:J18"/>
-    <mergeCell ref="G19:H21"/>
-    <mergeCell ref="I19:J19"/>
-    <mergeCell ref="I20:J20"/>
-    <mergeCell ref="I21:J21"/>
     <mergeCell ref="G29:J31"/>
     <mergeCell ref="G22:H24"/>
     <mergeCell ref="I22:J22"/>
@@ -3549,6 +3531,30 @@
     <mergeCell ref="I25:J25"/>
     <mergeCell ref="I26:J26"/>
     <mergeCell ref="I27:J27"/>
+    <mergeCell ref="G16:H18"/>
+    <mergeCell ref="I16:J16"/>
+    <mergeCell ref="I17:J17"/>
+    <mergeCell ref="I18:J18"/>
+    <mergeCell ref="G19:H21"/>
+    <mergeCell ref="I19:J19"/>
+    <mergeCell ref="I20:J20"/>
+    <mergeCell ref="I21:J21"/>
+    <mergeCell ref="G10:H12"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="G13:H15"/>
+    <mergeCell ref="I13:J13"/>
+    <mergeCell ref="I14:J14"/>
+    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="B2:C3"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="G5:J6"/>
+    <mergeCell ref="G7:H9"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="I8:J8"/>
+    <mergeCell ref="I9:J9"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="G29" r:id="rId1"/>
@@ -3597,8 +3603,8 @@
   </sheetPr>
   <dimension ref="A1:J39"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A13" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="80" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A8" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="80" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.69140625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -3630,10 +3636,10 @@
     </row>
     <row r="2" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.65">
       <c r="A2" s="8"/>
-      <c r="B2" s="71" t="s">
+      <c r="B2" s="38" t="s">
         <v>25</v>
       </c>
-      <c r="C2" s="71"/>
+      <c r="C2" s="38"/>
       <c r="D2" s="9"/>
       <c r="E2" s="12" t="s">
         <v>13</v>
@@ -3650,8 +3656,8 @@
     </row>
     <row r="3" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.65">
       <c r="A3" s="8"/>
-      <c r="B3" s="71"/>
-      <c r="C3" s="71"/>
+      <c r="B3" s="38"/>
+      <c r="C3" s="38"/>
       <c r="D3" s="9"/>
       <c r="E3" s="13">
         <f>'Daily Schedule SUN'!E3</f>
@@ -3684,38 +3690,38 @@
     </row>
     <row r="5" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="8"/>
-      <c r="B5" s="72" t="s">
+      <c r="B5" s="39" t="s">
         <v>0</v>
       </c>
       <c r="C5" s="23" t="s">
         <v>19</v>
       </c>
       <c r="D5" s="8"/>
-      <c r="E5" s="73" t="s">
+      <c r="E5" s="40" t="s">
         <v>14</v>
       </c>
       <c r="F5" s="8"/>
-      <c r="G5" s="80" t="s">
+      <c r="G5" s="81" t="s">
         <v>15</v>
       </c>
-      <c r="H5" s="81"/>
-      <c r="I5" s="80"/>
-      <c r="J5" s="80"/>
+      <c r="H5" s="82"/>
+      <c r="I5" s="81"/>
+      <c r="J5" s="81"/>
     </row>
     <row r="6" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="8"/>
-      <c r="B6" s="72"/>
+      <c r="B6" s="39"/>
       <c r="C6" s="24">
         <f>E3+3</f>
         <v>42886</v>
       </c>
       <c r="D6" s="8"/>
-      <c r="E6" s="73"/>
+      <c r="E6" s="40"/>
       <c r="F6" s="8"/>
-      <c r="G6" s="80"/>
-      <c r="H6" s="80"/>
-      <c r="I6" s="80"/>
-      <c r="J6" s="80"/>
+      <c r="G6" s="81"/>
+      <c r="H6" s="81"/>
+      <c r="I6" s="81"/>
+      <c r="J6" s="81"/>
     </row>
     <row r="7" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="8"/>
@@ -3727,16 +3733,16 @@
       <c r="D7" s="8"/>
       <c r="E7" s="16"/>
       <c r="F7" s="8"/>
-      <c r="G7" s="59">
+      <c r="G7" s="67">
         <f>E3</f>
         <v>42883</v>
       </c>
-      <c r="H7" s="60"/>
-      <c r="I7" s="65">
+      <c r="H7" s="68"/>
+      <c r="I7" s="69">
         <f>'Daily Schedule SUN'!I7:J7</f>
         <v>0</v>
       </c>
-      <c r="J7" s="66"/>
+      <c r="J7" s="70"/>
     </row>
     <row r="8" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="8"/>
@@ -3748,13 +3754,13 @@
       <c r="D8" s="8"/>
       <c r="E8" s="17"/>
       <c r="F8" s="8"/>
-      <c r="G8" s="61"/>
-      <c r="H8" s="62"/>
-      <c r="I8" s="53">
+      <c r="G8" s="41"/>
+      <c r="H8" s="42"/>
+      <c r="I8" s="47">
         <f>'Daily Schedule SUN'!I8:J8</f>
         <v>0</v>
       </c>
-      <c r="J8" s="54"/>
+      <c r="J8" s="48"/>
     </row>
     <row r="9" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="8"/>
@@ -3766,13 +3772,13 @@
       <c r="D9" s="8"/>
       <c r="E9" s="16"/>
       <c r="F9" s="8"/>
-      <c r="G9" s="63"/>
-      <c r="H9" s="64"/>
-      <c r="I9" s="67">
+      <c r="G9" s="43"/>
+      <c r="H9" s="44"/>
+      <c r="I9" s="49">
         <f>'Daily Schedule SUN'!I9:J9</f>
         <v>0</v>
       </c>
-      <c r="J9" s="68"/>
+      <c r="J9" s="50"/>
     </row>
     <row r="10" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="8"/>
@@ -3784,16 +3790,16 @@
       <c r="D10" s="8"/>
       <c r="E10" s="17"/>
       <c r="F10" s="8"/>
-      <c r="G10" s="47">
+      <c r="G10" s="57">
         <f>G7+1</f>
         <v>42884</v>
       </c>
-      <c r="H10" s="48"/>
-      <c r="I10" s="69">
+      <c r="H10" s="58"/>
+      <c r="I10" s="63">
         <f>'Daily Schedule SUN'!I10:J10</f>
         <v>0</v>
       </c>
-      <c r="J10" s="70"/>
+      <c r="J10" s="64"/>
     </row>
     <row r="11" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="8"/>
@@ -3805,13 +3811,13 @@
       <c r="D11" s="8"/>
       <c r="E11" s="16"/>
       <c r="F11" s="8"/>
-      <c r="G11" s="49"/>
-      <c r="H11" s="50"/>
-      <c r="I11" s="55">
+      <c r="G11" s="59"/>
+      <c r="H11" s="60"/>
+      <c r="I11" s="45">
         <f>'Daily Schedule SUN'!I11:J11</f>
         <v>0</v>
       </c>
-      <c r="J11" s="56"/>
+      <c r="J11" s="46"/>
     </row>
     <row r="12" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="8"/>
@@ -3823,13 +3829,13 @@
       <c r="D12" s="8"/>
       <c r="E12" s="17"/>
       <c r="F12" s="8"/>
-      <c r="G12" s="51"/>
-      <c r="H12" s="52"/>
-      <c r="I12" s="57">
+      <c r="G12" s="61"/>
+      <c r="H12" s="62"/>
+      <c r="I12" s="65">
         <f>'Daily Schedule SUN'!I12:J12</f>
         <v>0</v>
       </c>
-      <c r="J12" s="58"/>
+      <c r="J12" s="66"/>
     </row>
     <row r="13" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="8"/>
@@ -3837,20 +3843,22 @@
         <f t="shared" si="0"/>
         <v>0.41666666666666657</v>
       </c>
-      <c r="C13" s="20"/>
+      <c r="C13" s="30" t="s">
+        <v>38</v>
+      </c>
       <c r="D13" s="8"/>
       <c r="E13" s="16"/>
       <c r="F13" s="8"/>
-      <c r="G13" s="59">
+      <c r="G13" s="67">
         <f>G7+2</f>
         <v>42885</v>
       </c>
-      <c r="H13" s="60"/>
-      <c r="I13" s="65">
+      <c r="H13" s="68"/>
+      <c r="I13" s="69">
         <f>'Daily Schedule SUN'!I13:J13</f>
         <v>0</v>
       </c>
-      <c r="J13" s="66"/>
+      <c r="J13" s="70"/>
     </row>
     <row r="14" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="8"/>
@@ -3858,17 +3866,19 @@
         <f t="shared" si="0"/>
         <v>0.43749999999999989</v>
       </c>
-      <c r="C14" s="21"/>
+      <c r="C14" s="29" t="s">
+        <v>38</v>
+      </c>
       <c r="D14" s="8"/>
       <c r="E14" s="17"/>
       <c r="F14" s="8"/>
-      <c r="G14" s="61"/>
-      <c r="H14" s="62"/>
-      <c r="I14" s="53">
+      <c r="G14" s="41"/>
+      <c r="H14" s="42"/>
+      <c r="I14" s="47">
         <f>'Daily Schedule SUN'!I14:J14</f>
         <v>0</v>
       </c>
-      <c r="J14" s="54"/>
+      <c r="J14" s="48"/>
     </row>
     <row r="15" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="8"/>
@@ -3876,17 +3886,19 @@
         <f t="shared" si="0"/>
         <v>0.4583333333333332</v>
       </c>
-      <c r="C15" s="20"/>
+      <c r="C15" s="30" t="s">
+        <v>38</v>
+      </c>
       <c r="D15" s="8"/>
       <c r="E15" s="16"/>
       <c r="F15" s="8"/>
-      <c r="G15" s="63"/>
-      <c r="H15" s="64"/>
-      <c r="I15" s="67">
+      <c r="G15" s="43"/>
+      <c r="H15" s="44"/>
+      <c r="I15" s="49">
         <f>'Daily Schedule SUN'!I15:J15</f>
         <v>0</v>
       </c>
-      <c r="J15" s="68"/>
+      <c r="J15" s="50"/>
     </row>
     <row r="16" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="8"/>
@@ -3894,20 +3906,22 @@
         <f t="shared" si="0"/>
         <v>0.47916666666666652</v>
       </c>
-      <c r="C16" s="21"/>
+      <c r="C16" s="29" t="s">
+        <v>39</v>
+      </c>
       <c r="D16" s="8"/>
       <c r="E16" s="17"/>
       <c r="F16" s="8"/>
-      <c r="G16" s="47">
+      <c r="G16" s="57">
         <f>G7+3</f>
         <v>42886</v>
       </c>
-      <c r="H16" s="48"/>
-      <c r="I16" s="69">
+      <c r="H16" s="58"/>
+      <c r="I16" s="63">
         <f>'Daily Schedule SUN'!I16:J16</f>
         <v>0</v>
       </c>
-      <c r="J16" s="70"/>
+      <c r="J16" s="64"/>
     </row>
     <row r="17" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="8"/>
@@ -3915,17 +3929,19 @@
         <f t="shared" si="0"/>
         <v>0.49999999999999983</v>
       </c>
-      <c r="C17" s="20"/>
+      <c r="C17" s="30" t="s">
+        <v>39</v>
+      </c>
       <c r="D17" s="8"/>
       <c r="E17" s="16"/>
       <c r="F17" s="8"/>
-      <c r="G17" s="49"/>
-      <c r="H17" s="50"/>
-      <c r="I17" s="55">
+      <c r="G17" s="59"/>
+      <c r="H17" s="60"/>
+      <c r="I17" s="45">
         <f>'Daily Schedule SUN'!I17:J17</f>
         <v>0</v>
       </c>
-      <c r="J17" s="56"/>
+      <c r="J17" s="46"/>
     </row>
     <row r="18" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="8"/>
@@ -3933,17 +3949,19 @@
         <f t="shared" si="0"/>
         <v>0.52083333333333315</v>
       </c>
-      <c r="C18" s="21"/>
+      <c r="C18" s="29" t="s">
+        <v>39</v>
+      </c>
       <c r="D18" s="8"/>
       <c r="E18" s="17"/>
       <c r="F18" s="8"/>
-      <c r="G18" s="51"/>
-      <c r="H18" s="52"/>
-      <c r="I18" s="57">
+      <c r="G18" s="61"/>
+      <c r="H18" s="62"/>
+      <c r="I18" s="65">
         <f>'Daily Schedule SUN'!I18:J18</f>
         <v>0</v>
       </c>
-      <c r="J18" s="58"/>
+      <c r="J18" s="66"/>
     </row>
     <row r="19" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="8"/>
@@ -3951,20 +3969,22 @@
         <f t="shared" si="0"/>
         <v>0.54166666666666652</v>
       </c>
-      <c r="C19" s="30"/>
+      <c r="C19" s="30" t="s">
+        <v>27</v>
+      </c>
       <c r="D19" s="8"/>
       <c r="E19" s="16"/>
       <c r="F19" s="8"/>
-      <c r="G19" s="59">
+      <c r="G19" s="67">
         <f>G7+4</f>
         <v>42887</v>
       </c>
-      <c r="H19" s="60"/>
-      <c r="I19" s="65">
+      <c r="H19" s="68"/>
+      <c r="I19" s="69">
         <f>'Daily Schedule SUN'!I19:J19</f>
         <v>0</v>
       </c>
-      <c r="J19" s="66"/>
+      <c r="J19" s="70"/>
     </row>
     <row r="20" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="8"/>
@@ -3976,13 +3996,13 @@
       <c r="D20" s="8"/>
       <c r="E20" s="17"/>
       <c r="F20" s="8"/>
-      <c r="G20" s="61"/>
-      <c r="H20" s="62"/>
-      <c r="I20" s="53">
+      <c r="G20" s="41"/>
+      <c r="H20" s="42"/>
+      <c r="I20" s="47">
         <f>'Daily Schedule SUN'!I20:J20</f>
         <v>0</v>
       </c>
-      <c r="J20" s="54"/>
+      <c r="J20" s="48"/>
     </row>
     <row r="21" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="8"/>
@@ -3994,13 +4014,13 @@
       <c r="D21" s="8"/>
       <c r="E21" s="16"/>
       <c r="F21" s="8"/>
-      <c r="G21" s="63"/>
-      <c r="H21" s="64"/>
-      <c r="I21" s="67">
+      <c r="G21" s="43"/>
+      <c r="H21" s="44"/>
+      <c r="I21" s="49">
         <f>'Daily Schedule SUN'!I21:J21</f>
         <v>0</v>
       </c>
-      <c r="J21" s="68"/>
+      <c r="J21" s="50"/>
     </row>
     <row r="22" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="8"/>
@@ -4012,16 +4032,16 @@
       <c r="D22" s="8"/>
       <c r="E22" s="17"/>
       <c r="F22" s="8"/>
-      <c r="G22" s="47">
+      <c r="G22" s="57">
         <f>G7+5</f>
         <v>42888</v>
       </c>
-      <c r="H22" s="48"/>
-      <c r="I22" s="69">
+      <c r="H22" s="58"/>
+      <c r="I22" s="63">
         <f>'Daily Schedule SUN'!I22:J22</f>
         <v>0</v>
       </c>
-      <c r="J22" s="70"/>
+      <c r="J22" s="64"/>
     </row>
     <row r="23" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="8"/>
@@ -4033,13 +4053,13 @@
       <c r="D23" s="8"/>
       <c r="E23" s="16"/>
       <c r="F23" s="8"/>
-      <c r="G23" s="49"/>
-      <c r="H23" s="50"/>
-      <c r="I23" s="55">
+      <c r="G23" s="59"/>
+      <c r="H23" s="60"/>
+      <c r="I23" s="45">
         <f>'Daily Schedule SUN'!I23:J23</f>
         <v>0</v>
       </c>
-      <c r="J23" s="56"/>
+      <c r="J23" s="46"/>
     </row>
     <row r="24" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="8"/>
@@ -4051,13 +4071,13 @@
       <c r="D24" s="8"/>
       <c r="E24" s="37"/>
       <c r="F24" s="8"/>
-      <c r="G24" s="51"/>
-      <c r="H24" s="52"/>
-      <c r="I24" s="57">
+      <c r="G24" s="61"/>
+      <c r="H24" s="62"/>
+      <c r="I24" s="65">
         <f>'Daily Schedule SUN'!I24:J24</f>
         <v>0</v>
       </c>
-      <c r="J24" s="58"/>
+      <c r="J24" s="66"/>
     </row>
     <row r="25" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="8"/>
@@ -4069,16 +4089,16 @@
       <c r="D25" s="8"/>
       <c r="E25" s="16"/>
       <c r="F25" s="8"/>
-      <c r="G25" s="59">
+      <c r="G25" s="67">
         <f>G7+6</f>
         <v>42889</v>
       </c>
-      <c r="H25" s="60"/>
-      <c r="I25" s="65">
+      <c r="H25" s="68"/>
+      <c r="I25" s="69">
         <f>'Daily Schedule SUN'!I25:J25</f>
         <v>0</v>
       </c>
-      <c r="J25" s="66"/>
+      <c r="J25" s="70"/>
     </row>
     <row r="26" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="8"/>
@@ -4090,13 +4110,13 @@
       <c r="D26" s="8"/>
       <c r="E26" s="17"/>
       <c r="F26" s="8"/>
-      <c r="G26" s="61"/>
-      <c r="H26" s="62"/>
-      <c r="I26" s="53">
+      <c r="G26" s="41"/>
+      <c r="H26" s="42"/>
+      <c r="I26" s="47">
         <f>'Daily Schedule SUN'!I26:J26</f>
         <v>0</v>
       </c>
-      <c r="J26" s="54"/>
+      <c r="J26" s="48"/>
     </row>
     <row r="27" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="8"/>
@@ -4108,13 +4128,13 @@
       <c r="D27" s="8"/>
       <c r="E27" s="16"/>
       <c r="F27" s="8"/>
-      <c r="G27" s="63"/>
-      <c r="H27" s="64"/>
-      <c r="I27" s="67">
+      <c r="G27" s="43"/>
+      <c r="H27" s="44"/>
+      <c r="I27" s="49">
         <f>'Daily Schedule SUN'!I27:J27</f>
         <v>0</v>
       </c>
-      <c r="J27" s="68"/>
+      <c r="J27" s="50"/>
     </row>
     <row r="28" spans="1:10" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A28" s="8"/>
@@ -4141,12 +4161,12 @@
       <c r="D29" s="8"/>
       <c r="E29" s="16"/>
       <c r="F29" s="8"/>
-      <c r="G29" s="38" t="s">
+      <c r="G29" s="71" t="s">
         <v>26</v>
       </c>
-      <c r="H29" s="39"/>
-      <c r="I29" s="39"/>
-      <c r="J29" s="40"/>
+      <c r="H29" s="72"/>
+      <c r="I29" s="72"/>
+      <c r="J29" s="73"/>
     </row>
     <row r="30" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30" s="8"/>
@@ -4158,10 +4178,10 @@
       <c r="D30" s="8"/>
       <c r="E30" s="17"/>
       <c r="F30" s="8"/>
-      <c r="G30" s="41"/>
-      <c r="H30" s="42"/>
-      <c r="I30" s="42"/>
-      <c r="J30" s="43"/>
+      <c r="G30" s="74"/>
+      <c r="H30" s="75"/>
+      <c r="I30" s="75"/>
+      <c r="J30" s="76"/>
     </row>
     <row r="31" spans="1:10" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A31" s="8"/>
@@ -4173,10 +4193,10 @@
       <c r="D31" s="8"/>
       <c r="E31" s="16"/>
       <c r="F31" s="8"/>
-      <c r="G31" s="44"/>
-      <c r="H31" s="45"/>
-      <c r="I31" s="45"/>
-      <c r="J31" s="46"/>
+      <c r="G31" s="77"/>
+      <c r="H31" s="78"/>
+      <c r="I31" s="78"/>
+      <c r="J31" s="79"/>
     </row>
     <row r="32" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A32" s="8"/>
@@ -4300,30 +4320,6 @@
     </row>
   </sheetData>
   <mergeCells count="33">
-    <mergeCell ref="B2:C3"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="G5:J6"/>
-    <mergeCell ref="G7:H9"/>
-    <mergeCell ref="I7:J7"/>
-    <mergeCell ref="I8:J8"/>
-    <mergeCell ref="I9:J9"/>
-    <mergeCell ref="G10:H12"/>
-    <mergeCell ref="I10:J10"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="I12:J12"/>
-    <mergeCell ref="G13:H15"/>
-    <mergeCell ref="I13:J13"/>
-    <mergeCell ref="I14:J14"/>
-    <mergeCell ref="I15:J15"/>
-    <mergeCell ref="G16:H18"/>
-    <mergeCell ref="I16:J16"/>
-    <mergeCell ref="I17:J17"/>
-    <mergeCell ref="I18:J18"/>
-    <mergeCell ref="G19:H21"/>
-    <mergeCell ref="I19:J19"/>
-    <mergeCell ref="I20:J20"/>
-    <mergeCell ref="I21:J21"/>
     <mergeCell ref="G29:J31"/>
     <mergeCell ref="G22:H24"/>
     <mergeCell ref="I22:J22"/>
@@ -4333,6 +4329,30 @@
     <mergeCell ref="I25:J25"/>
     <mergeCell ref="I26:J26"/>
     <mergeCell ref="I27:J27"/>
+    <mergeCell ref="G16:H18"/>
+    <mergeCell ref="I16:J16"/>
+    <mergeCell ref="I17:J17"/>
+    <mergeCell ref="I18:J18"/>
+    <mergeCell ref="G19:H21"/>
+    <mergeCell ref="I19:J19"/>
+    <mergeCell ref="I20:J20"/>
+    <mergeCell ref="I21:J21"/>
+    <mergeCell ref="G10:H12"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="G13:H15"/>
+    <mergeCell ref="I13:J13"/>
+    <mergeCell ref="I14:J14"/>
+    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="B2:C3"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="G5:J6"/>
+    <mergeCell ref="G7:H9"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="I8:J8"/>
+    <mergeCell ref="I9:J9"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="G29" r:id="rId1"/>
@@ -4414,10 +4434,10 @@
     </row>
     <row r="2" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.65">
       <c r="A2" s="8"/>
-      <c r="B2" s="71" t="s">
+      <c r="B2" s="38" t="s">
         <v>25</v>
       </c>
-      <c r="C2" s="71"/>
+      <c r="C2" s="38"/>
       <c r="D2" s="9"/>
       <c r="E2" s="12" t="s">
         <v>13</v>
@@ -4434,8 +4454,8 @@
     </row>
     <row r="3" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.65">
       <c r="A3" s="8"/>
-      <c r="B3" s="71"/>
-      <c r="C3" s="71"/>
+      <c r="B3" s="38"/>
+      <c r="C3" s="38"/>
       <c r="D3" s="9"/>
       <c r="E3" s="13">
         <f>'Daily Schedule SUN'!E3</f>
@@ -4468,38 +4488,38 @@
     </row>
     <row r="5" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="8"/>
-      <c r="B5" s="72" t="s">
+      <c r="B5" s="39" t="s">
         <v>0</v>
       </c>
       <c r="C5" s="23" t="s">
         <v>20</v>
       </c>
       <c r="D5" s="8"/>
-      <c r="E5" s="73" t="s">
+      <c r="E5" s="40" t="s">
         <v>14</v>
       </c>
       <c r="F5" s="8"/>
-      <c r="G5" s="80" t="s">
+      <c r="G5" s="81" t="s">
         <v>15</v>
       </c>
-      <c r="H5" s="81"/>
-      <c r="I5" s="80"/>
-      <c r="J5" s="80"/>
+      <c r="H5" s="82"/>
+      <c r="I5" s="81"/>
+      <c r="J5" s="81"/>
     </row>
     <row r="6" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="8"/>
-      <c r="B6" s="72"/>
+      <c r="B6" s="39"/>
       <c r="C6" s="24">
         <f>E3+4</f>
         <v>42887</v>
       </c>
       <c r="D6" s="8"/>
-      <c r="E6" s="73"/>
+      <c r="E6" s="40"/>
       <c r="F6" s="8"/>
-      <c r="G6" s="80"/>
-      <c r="H6" s="80"/>
-      <c r="I6" s="80"/>
-      <c r="J6" s="80"/>
+      <c r="G6" s="81"/>
+      <c r="H6" s="81"/>
+      <c r="I6" s="81"/>
+      <c r="J6" s="81"/>
     </row>
     <row r="7" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="8"/>
@@ -4511,16 +4531,16 @@
       <c r="D7" s="8"/>
       <c r="E7" s="16"/>
       <c r="F7" s="8"/>
-      <c r="G7" s="59">
+      <c r="G7" s="67">
         <f>E3</f>
         <v>42883</v>
       </c>
-      <c r="H7" s="60"/>
-      <c r="I7" s="65">
+      <c r="H7" s="68"/>
+      <c r="I7" s="69">
         <f>'Daily Schedule SUN'!I7:J7</f>
         <v>0</v>
       </c>
-      <c r="J7" s="66"/>
+      <c r="J7" s="70"/>
     </row>
     <row r="8" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="8"/>
@@ -4532,13 +4552,13 @@
       <c r="D8" s="8"/>
       <c r="E8" s="17"/>
       <c r="F8" s="8"/>
-      <c r="G8" s="61"/>
-      <c r="H8" s="62"/>
-      <c r="I8" s="53">
+      <c r="G8" s="41"/>
+      <c r="H8" s="42"/>
+      <c r="I8" s="47">
         <f>'Daily Schedule SUN'!I8:J8</f>
         <v>0</v>
       </c>
-      <c r="J8" s="54"/>
+      <c r="J8" s="48"/>
     </row>
     <row r="9" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="8"/>
@@ -4550,13 +4570,13 @@
       <c r="D9" s="8"/>
       <c r="E9" s="16"/>
       <c r="F9" s="8"/>
-      <c r="G9" s="63"/>
-      <c r="H9" s="64"/>
-      <c r="I9" s="67">
+      <c r="G9" s="43"/>
+      <c r="H9" s="44"/>
+      <c r="I9" s="49">
         <f>'Daily Schedule SUN'!I9:J9</f>
         <v>0</v>
       </c>
-      <c r="J9" s="68"/>
+      <c r="J9" s="50"/>
     </row>
     <row r="10" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="8"/>
@@ -4568,16 +4588,16 @@
       <c r="D10" s="8"/>
       <c r="E10" s="17"/>
       <c r="F10" s="8"/>
-      <c r="G10" s="47">
+      <c r="G10" s="57">
         <f>G7+1</f>
         <v>42884</v>
       </c>
-      <c r="H10" s="48"/>
-      <c r="I10" s="69">
+      <c r="H10" s="58"/>
+      <c r="I10" s="63">
         <f>'Daily Schedule SUN'!I10:J10</f>
         <v>0</v>
       </c>
-      <c r="J10" s="70"/>
+      <c r="J10" s="64"/>
     </row>
     <row r="11" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="8"/>
@@ -4589,13 +4609,13 @@
       <c r="D11" s="8"/>
       <c r="E11" s="16"/>
       <c r="F11" s="8"/>
-      <c r="G11" s="49"/>
-      <c r="H11" s="50"/>
-      <c r="I11" s="55">
+      <c r="G11" s="59"/>
+      <c r="H11" s="60"/>
+      <c r="I11" s="45">
         <f>'Daily Schedule SUN'!I11:J11</f>
         <v>0</v>
       </c>
-      <c r="J11" s="56"/>
+      <c r="J11" s="46"/>
     </row>
     <row r="12" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="8"/>
@@ -4607,13 +4627,13 @@
       <c r="D12" s="8"/>
       <c r="E12" s="17"/>
       <c r="F12" s="8"/>
-      <c r="G12" s="51"/>
-      <c r="H12" s="52"/>
-      <c r="I12" s="57">
+      <c r="G12" s="61"/>
+      <c r="H12" s="62"/>
+      <c r="I12" s="65">
         <f>'Daily Schedule SUN'!I12:J12</f>
         <v>0</v>
       </c>
-      <c r="J12" s="58"/>
+      <c r="J12" s="66"/>
     </row>
     <row r="13" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="8"/>
@@ -4625,16 +4645,16 @@
       <c r="D13" s="8"/>
       <c r="E13" s="16"/>
       <c r="F13" s="8"/>
-      <c r="G13" s="59">
+      <c r="G13" s="67">
         <f>G7+2</f>
         <v>42885</v>
       </c>
-      <c r="H13" s="60"/>
-      <c r="I13" s="65">
+      <c r="H13" s="68"/>
+      <c r="I13" s="69">
         <f>'Daily Schedule SUN'!I13:J13</f>
         <v>0</v>
       </c>
-      <c r="J13" s="66"/>
+      <c r="J13" s="70"/>
     </row>
     <row r="14" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="8"/>
@@ -4646,13 +4666,13 @@
       <c r="D14" s="8"/>
       <c r="E14" s="17"/>
       <c r="F14" s="8"/>
-      <c r="G14" s="61"/>
-      <c r="H14" s="62"/>
-      <c r="I14" s="53">
+      <c r="G14" s="41"/>
+      <c r="H14" s="42"/>
+      <c r="I14" s="47">
         <f>'Daily Schedule SUN'!I14:J14</f>
         <v>0</v>
       </c>
-      <c r="J14" s="54"/>
+      <c r="J14" s="48"/>
     </row>
     <row r="15" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="8"/>
@@ -4664,13 +4684,13 @@
       <c r="D15" s="8"/>
       <c r="E15" s="16"/>
       <c r="F15" s="8"/>
-      <c r="G15" s="63"/>
-      <c r="H15" s="64"/>
-      <c r="I15" s="67">
+      <c r="G15" s="43"/>
+      <c r="H15" s="44"/>
+      <c r="I15" s="49">
         <f>'Daily Schedule SUN'!I15:J15</f>
         <v>0</v>
       </c>
-      <c r="J15" s="68"/>
+      <c r="J15" s="50"/>
     </row>
     <row r="16" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="8"/>
@@ -4682,16 +4702,16 @@
       <c r="D16" s="8"/>
       <c r="E16" s="17"/>
       <c r="F16" s="8"/>
-      <c r="G16" s="47">
+      <c r="G16" s="57">
         <f>G7+3</f>
         <v>42886</v>
       </c>
-      <c r="H16" s="48"/>
-      <c r="I16" s="69">
+      <c r="H16" s="58"/>
+      <c r="I16" s="63">
         <f>'Daily Schedule SUN'!I16:J16</f>
         <v>0</v>
       </c>
-      <c r="J16" s="70"/>
+      <c r="J16" s="64"/>
     </row>
     <row r="17" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="8"/>
@@ -4703,13 +4723,13 @@
       <c r="D17" s="8"/>
       <c r="E17" s="16"/>
       <c r="F17" s="8"/>
-      <c r="G17" s="49"/>
-      <c r="H17" s="50"/>
-      <c r="I17" s="55">
+      <c r="G17" s="59"/>
+      <c r="H17" s="60"/>
+      <c r="I17" s="45">
         <f>'Daily Schedule SUN'!I17:J17</f>
         <v>0</v>
       </c>
-      <c r="J17" s="56"/>
+      <c r="J17" s="46"/>
     </row>
     <row r="18" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="8"/>
@@ -4721,13 +4741,13 @@
       <c r="D18" s="8"/>
       <c r="E18" s="17"/>
       <c r="F18" s="8"/>
-      <c r="G18" s="51"/>
-      <c r="H18" s="52"/>
-      <c r="I18" s="57">
+      <c r="G18" s="61"/>
+      <c r="H18" s="62"/>
+      <c r="I18" s="65">
         <f>'Daily Schedule SUN'!I18:J18</f>
         <v>0</v>
       </c>
-      <c r="J18" s="58"/>
+      <c r="J18" s="66"/>
     </row>
     <row r="19" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="8"/>
@@ -4739,16 +4759,16 @@
       <c r="D19" s="8"/>
       <c r="E19" s="16"/>
       <c r="F19" s="8"/>
-      <c r="G19" s="59">
+      <c r="G19" s="67">
         <f>G7+4</f>
         <v>42887</v>
       </c>
-      <c r="H19" s="60"/>
-      <c r="I19" s="65">
+      <c r="H19" s="68"/>
+      <c r="I19" s="69">
         <f>'Daily Schedule SUN'!I19:J19</f>
         <v>0</v>
       </c>
-      <c r="J19" s="66"/>
+      <c r="J19" s="70"/>
     </row>
     <row r="20" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="8"/>
@@ -4760,13 +4780,13 @@
       <c r="D20" s="8"/>
       <c r="E20" s="17"/>
       <c r="F20" s="8"/>
-      <c r="G20" s="61"/>
-      <c r="H20" s="62"/>
-      <c r="I20" s="53">
+      <c r="G20" s="41"/>
+      <c r="H20" s="42"/>
+      <c r="I20" s="47">
         <f>'Daily Schedule SUN'!I20:J20</f>
         <v>0</v>
       </c>
-      <c r="J20" s="54"/>
+      <c r="J20" s="48"/>
     </row>
     <row r="21" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="8"/>
@@ -4778,13 +4798,13 @@
       <c r="D21" s="8"/>
       <c r="E21" s="16"/>
       <c r="F21" s="8"/>
-      <c r="G21" s="63"/>
-      <c r="H21" s="64"/>
-      <c r="I21" s="67">
+      <c r="G21" s="43"/>
+      <c r="H21" s="44"/>
+      <c r="I21" s="49">
         <f>'Daily Schedule SUN'!I21:J21</f>
         <v>0</v>
       </c>
-      <c r="J21" s="68"/>
+      <c r="J21" s="50"/>
     </row>
     <row r="22" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="8"/>
@@ -4796,16 +4816,16 @@
       <c r="D22" s="8"/>
       <c r="E22" s="17"/>
       <c r="F22" s="8"/>
-      <c r="G22" s="47">
+      <c r="G22" s="57">
         <f>G7+5</f>
         <v>42888</v>
       </c>
-      <c r="H22" s="48"/>
-      <c r="I22" s="69">
+      <c r="H22" s="58"/>
+      <c r="I22" s="63">
         <f>'Daily Schedule SUN'!I22:J22</f>
         <v>0</v>
       </c>
-      <c r="J22" s="70"/>
+      <c r="J22" s="64"/>
     </row>
     <row r="23" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="8"/>
@@ -4817,13 +4837,13 @@
       <c r="D23" s="8"/>
       <c r="E23" s="16"/>
       <c r="F23" s="8"/>
-      <c r="G23" s="49"/>
-      <c r="H23" s="50"/>
-      <c r="I23" s="55">
+      <c r="G23" s="59"/>
+      <c r="H23" s="60"/>
+      <c r="I23" s="45">
         <f>'Daily Schedule SUN'!I23:J23</f>
         <v>0</v>
       </c>
-      <c r="J23" s="56"/>
+      <c r="J23" s="46"/>
     </row>
     <row r="24" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="8"/>
@@ -4835,13 +4855,13 @@
       <c r="D24" s="8"/>
       <c r="E24" s="17"/>
       <c r="F24" s="8"/>
-      <c r="G24" s="51"/>
-      <c r="H24" s="52"/>
-      <c r="I24" s="57">
+      <c r="G24" s="61"/>
+      <c r="H24" s="62"/>
+      <c r="I24" s="65">
         <f>'Daily Schedule SUN'!I24:J24</f>
         <v>0</v>
       </c>
-      <c r="J24" s="58"/>
+      <c r="J24" s="66"/>
     </row>
     <row r="25" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="8"/>
@@ -4853,16 +4873,16 @@
       <c r="D25" s="8"/>
       <c r="E25" s="16"/>
       <c r="F25" s="8"/>
-      <c r="G25" s="59">
+      <c r="G25" s="67">
         <f>G7+6</f>
         <v>42889</v>
       </c>
-      <c r="H25" s="60"/>
-      <c r="I25" s="65">
+      <c r="H25" s="68"/>
+      <c r="I25" s="69">
         <f>'Daily Schedule SUN'!I25:J25</f>
         <v>0</v>
       </c>
-      <c r="J25" s="66"/>
+      <c r="J25" s="70"/>
     </row>
     <row r="26" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="8"/>
@@ -4874,13 +4894,13 @@
       <c r="D26" s="8"/>
       <c r="E26" s="17"/>
       <c r="F26" s="8"/>
-      <c r="G26" s="61"/>
-      <c r="H26" s="62"/>
-      <c r="I26" s="53">
+      <c r="G26" s="41"/>
+      <c r="H26" s="42"/>
+      <c r="I26" s="47">
         <f>'Daily Schedule SUN'!I26:J26</f>
         <v>0</v>
       </c>
-      <c r="J26" s="54"/>
+      <c r="J26" s="48"/>
     </row>
     <row r="27" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="8"/>
@@ -4892,13 +4912,13 @@
       <c r="D27" s="8"/>
       <c r="E27" s="16"/>
       <c r="F27" s="8"/>
-      <c r="G27" s="63"/>
-      <c r="H27" s="64"/>
-      <c r="I27" s="67">
+      <c r="G27" s="43"/>
+      <c r="H27" s="44"/>
+      <c r="I27" s="49">
         <f>'Daily Schedule SUN'!I27:J27</f>
         <v>0</v>
       </c>
-      <c r="J27" s="68"/>
+      <c r="J27" s="50"/>
     </row>
     <row r="28" spans="1:10" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A28" s="8"/>
@@ -4925,12 +4945,12 @@
       <c r="D29" s="8"/>
       <c r="E29" s="16"/>
       <c r="F29" s="8"/>
-      <c r="G29" s="38" t="s">
+      <c r="G29" s="71" t="s">
         <v>26</v>
       </c>
-      <c r="H29" s="39"/>
-      <c r="I29" s="39"/>
-      <c r="J29" s="40"/>
+      <c r="H29" s="72"/>
+      <c r="I29" s="72"/>
+      <c r="J29" s="73"/>
     </row>
     <row r="30" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30" s="8"/>
@@ -4942,10 +4962,10 @@
       <c r="D30" s="8"/>
       <c r="E30" s="17"/>
       <c r="F30" s="8"/>
-      <c r="G30" s="41"/>
-      <c r="H30" s="42"/>
-      <c r="I30" s="42"/>
-      <c r="J30" s="43"/>
+      <c r="G30" s="74"/>
+      <c r="H30" s="75"/>
+      <c r="I30" s="75"/>
+      <c r="J30" s="76"/>
     </row>
     <row r="31" spans="1:10" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A31" s="8"/>
@@ -4957,10 +4977,10 @@
       <c r="D31" s="8"/>
       <c r="E31" s="16"/>
       <c r="F31" s="8"/>
-      <c r="G31" s="44"/>
-      <c r="H31" s="45"/>
-      <c r="I31" s="45"/>
-      <c r="J31" s="46"/>
+      <c r="G31" s="77"/>
+      <c r="H31" s="78"/>
+      <c r="I31" s="78"/>
+      <c r="J31" s="79"/>
     </row>
     <row r="32" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A32" s="8"/>
@@ -5084,30 +5104,6 @@
     </row>
   </sheetData>
   <mergeCells count="33">
-    <mergeCell ref="B2:C3"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="G5:J6"/>
-    <mergeCell ref="G7:H9"/>
-    <mergeCell ref="I7:J7"/>
-    <mergeCell ref="I8:J8"/>
-    <mergeCell ref="I9:J9"/>
-    <mergeCell ref="G10:H12"/>
-    <mergeCell ref="I10:J10"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="I12:J12"/>
-    <mergeCell ref="G13:H15"/>
-    <mergeCell ref="I13:J13"/>
-    <mergeCell ref="I14:J14"/>
-    <mergeCell ref="I15:J15"/>
-    <mergeCell ref="G16:H18"/>
-    <mergeCell ref="I16:J16"/>
-    <mergeCell ref="I17:J17"/>
-    <mergeCell ref="I18:J18"/>
-    <mergeCell ref="G19:H21"/>
-    <mergeCell ref="I19:J19"/>
-    <mergeCell ref="I20:J20"/>
-    <mergeCell ref="I21:J21"/>
     <mergeCell ref="G29:J31"/>
     <mergeCell ref="G22:H24"/>
     <mergeCell ref="I22:J22"/>
@@ -5117,6 +5113,30 @@
     <mergeCell ref="I25:J25"/>
     <mergeCell ref="I26:J26"/>
     <mergeCell ref="I27:J27"/>
+    <mergeCell ref="G16:H18"/>
+    <mergeCell ref="I16:J16"/>
+    <mergeCell ref="I17:J17"/>
+    <mergeCell ref="I18:J18"/>
+    <mergeCell ref="G19:H21"/>
+    <mergeCell ref="I19:J19"/>
+    <mergeCell ref="I20:J20"/>
+    <mergeCell ref="I21:J21"/>
+    <mergeCell ref="G10:H12"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="G13:H15"/>
+    <mergeCell ref="I13:J13"/>
+    <mergeCell ref="I14:J14"/>
+    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="B2:C3"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="G5:J6"/>
+    <mergeCell ref="G7:H9"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="I8:J8"/>
+    <mergeCell ref="I9:J9"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="G29" r:id="rId1"/>
@@ -5198,10 +5218,10 @@
     </row>
     <row r="2" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.65">
       <c r="A2" s="8"/>
-      <c r="B2" s="71" t="s">
+      <c r="B2" s="38" t="s">
         <v>25</v>
       </c>
-      <c r="C2" s="71"/>
+      <c r="C2" s="38"/>
       <c r="D2" s="9"/>
       <c r="E2" s="12" t="s">
         <v>13</v>
@@ -5218,8 +5238,8 @@
     </row>
     <row r="3" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.65">
       <c r="A3" s="8"/>
-      <c r="B3" s="71"/>
-      <c r="C3" s="71"/>
+      <c r="B3" s="38"/>
+      <c r="C3" s="38"/>
       <c r="D3" s="9"/>
       <c r="E3" s="13">
         <f>'Daily Schedule SUN'!E3</f>
@@ -5252,38 +5272,38 @@
     </row>
     <row r="5" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="8"/>
-      <c r="B5" s="72" t="s">
+      <c r="B5" s="39" t="s">
         <v>0</v>
       </c>
       <c r="C5" s="23" t="s">
         <v>21</v>
       </c>
       <c r="D5" s="8"/>
-      <c r="E5" s="73" t="s">
+      <c r="E5" s="40" t="s">
         <v>14</v>
       </c>
       <c r="F5" s="8"/>
-      <c r="G5" s="80" t="s">
+      <c r="G5" s="81" t="s">
         <v>15</v>
       </c>
-      <c r="H5" s="81"/>
-      <c r="I5" s="80"/>
-      <c r="J5" s="80"/>
+      <c r="H5" s="82"/>
+      <c r="I5" s="81"/>
+      <c r="J5" s="81"/>
     </row>
     <row r="6" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="8"/>
-      <c r="B6" s="72"/>
+      <c r="B6" s="39"/>
       <c r="C6" s="24">
         <f>E3+5</f>
         <v>42888</v>
       </c>
       <c r="D6" s="8"/>
-      <c r="E6" s="73"/>
+      <c r="E6" s="40"/>
       <c r="F6" s="8"/>
-      <c r="G6" s="80"/>
-      <c r="H6" s="80"/>
-      <c r="I6" s="80"/>
-      <c r="J6" s="80"/>
+      <c r="G6" s="81"/>
+      <c r="H6" s="81"/>
+      <c r="I6" s="81"/>
+      <c r="J6" s="81"/>
     </row>
     <row r="7" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="8"/>
@@ -5295,16 +5315,16 @@
       <c r="D7" s="8"/>
       <c r="E7" s="16"/>
       <c r="F7" s="8"/>
-      <c r="G7" s="59">
+      <c r="G7" s="67">
         <f>E3</f>
         <v>42883</v>
       </c>
-      <c r="H7" s="60"/>
-      <c r="I7" s="65">
+      <c r="H7" s="68"/>
+      <c r="I7" s="69">
         <f>'Daily Schedule SUN'!I7:J7</f>
         <v>0</v>
       </c>
-      <c r="J7" s="66"/>
+      <c r="J7" s="70"/>
     </row>
     <row r="8" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="8"/>
@@ -5316,13 +5336,13 @@
       <c r="D8" s="8"/>
       <c r="E8" s="17"/>
       <c r="F8" s="8"/>
-      <c r="G8" s="61"/>
-      <c r="H8" s="62"/>
-      <c r="I8" s="53">
+      <c r="G8" s="41"/>
+      <c r="H8" s="42"/>
+      <c r="I8" s="47">
         <f>'Daily Schedule SUN'!I8:J8</f>
         <v>0</v>
       </c>
-      <c r="J8" s="54"/>
+      <c r="J8" s="48"/>
     </row>
     <row r="9" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="8"/>
@@ -5334,13 +5354,13 @@
       <c r="D9" s="8"/>
       <c r="E9" s="16"/>
       <c r="F9" s="8"/>
-      <c r="G9" s="63"/>
-      <c r="H9" s="64"/>
-      <c r="I9" s="67">
+      <c r="G9" s="43"/>
+      <c r="H9" s="44"/>
+      <c r="I9" s="49">
         <f>'Daily Schedule SUN'!I9:J9</f>
         <v>0</v>
       </c>
-      <c r="J9" s="68"/>
+      <c r="J9" s="50"/>
     </row>
     <row r="10" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="8"/>
@@ -5352,16 +5372,16 @@
       <c r="D10" s="8"/>
       <c r="E10" s="17"/>
       <c r="F10" s="8"/>
-      <c r="G10" s="47">
+      <c r="G10" s="57">
         <f>G7+1</f>
         <v>42884</v>
       </c>
-      <c r="H10" s="48"/>
-      <c r="I10" s="69">
+      <c r="H10" s="58"/>
+      <c r="I10" s="63">
         <f>'Daily Schedule SUN'!I10:J10</f>
         <v>0</v>
       </c>
-      <c r="J10" s="70"/>
+      <c r="J10" s="64"/>
     </row>
     <row r="11" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="8"/>
@@ -5373,13 +5393,13 @@
       <c r="D11" s="8"/>
       <c r="E11" s="16"/>
       <c r="F11" s="8"/>
-      <c r="G11" s="49"/>
-      <c r="H11" s="50"/>
-      <c r="I11" s="55">
+      <c r="G11" s="59"/>
+      <c r="H11" s="60"/>
+      <c r="I11" s="45">
         <f>'Daily Schedule SUN'!I11:J11</f>
         <v>0</v>
       </c>
-      <c r="J11" s="56"/>
+      <c r="J11" s="46"/>
     </row>
     <row r="12" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="8"/>
@@ -5391,13 +5411,13 @@
       <c r="D12" s="8"/>
       <c r="E12" s="17"/>
       <c r="F12" s="8"/>
-      <c r="G12" s="51"/>
-      <c r="H12" s="52"/>
-      <c r="I12" s="57">
+      <c r="G12" s="61"/>
+      <c r="H12" s="62"/>
+      <c r="I12" s="65">
         <f>'Daily Schedule SUN'!I12:J12</f>
         <v>0</v>
       </c>
-      <c r="J12" s="58"/>
+      <c r="J12" s="66"/>
     </row>
     <row r="13" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="8"/>
@@ -5409,16 +5429,16 @@
       <c r="D13" s="8"/>
       <c r="E13" s="16"/>
       <c r="F13" s="8"/>
-      <c r="G13" s="59">
+      <c r="G13" s="67">
         <f>G7+2</f>
         <v>42885</v>
       </c>
-      <c r="H13" s="60"/>
-      <c r="I13" s="65">
+      <c r="H13" s="68"/>
+      <c r="I13" s="69">
         <f>'Daily Schedule SUN'!I13:J13</f>
         <v>0</v>
       </c>
-      <c r="J13" s="66"/>
+      <c r="J13" s="70"/>
     </row>
     <row r="14" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="8"/>
@@ -5430,13 +5450,13 @@
       <c r="D14" s="8"/>
       <c r="E14" s="17"/>
       <c r="F14" s="8"/>
-      <c r="G14" s="61"/>
-      <c r="H14" s="62"/>
-      <c r="I14" s="53">
+      <c r="G14" s="41"/>
+      <c r="H14" s="42"/>
+      <c r="I14" s="47">
         <f>'Daily Schedule SUN'!I14:J14</f>
         <v>0</v>
       </c>
-      <c r="J14" s="54"/>
+      <c r="J14" s="48"/>
     </row>
     <row r="15" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="8"/>
@@ -5448,13 +5468,13 @@
       <c r="D15" s="8"/>
       <c r="E15" s="16"/>
       <c r="F15" s="8"/>
-      <c r="G15" s="63"/>
-      <c r="H15" s="64"/>
-      <c r="I15" s="67">
+      <c r="G15" s="43"/>
+      <c r="H15" s="44"/>
+      <c r="I15" s="49">
         <f>'Daily Schedule SUN'!I15:J15</f>
         <v>0</v>
       </c>
-      <c r="J15" s="68"/>
+      <c r="J15" s="50"/>
     </row>
     <row r="16" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="8"/>
@@ -5466,16 +5486,16 @@
       <c r="D16" s="8"/>
       <c r="E16" s="17"/>
       <c r="F16" s="8"/>
-      <c r="G16" s="47">
+      <c r="G16" s="57">
         <f>G7+3</f>
         <v>42886</v>
       </c>
-      <c r="H16" s="48"/>
-      <c r="I16" s="69">
+      <c r="H16" s="58"/>
+      <c r="I16" s="63">
         <f>'Daily Schedule SUN'!I16:J16</f>
         <v>0</v>
       </c>
-      <c r="J16" s="70"/>
+      <c r="J16" s="64"/>
     </row>
     <row r="17" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="8"/>
@@ -5487,13 +5507,13 @@
       <c r="D17" s="8"/>
       <c r="E17" s="16"/>
       <c r="F17" s="8"/>
-      <c r="G17" s="49"/>
-      <c r="H17" s="50"/>
-      <c r="I17" s="55">
+      <c r="G17" s="59"/>
+      <c r="H17" s="60"/>
+      <c r="I17" s="45">
         <f>'Daily Schedule SUN'!I17:J17</f>
         <v>0</v>
       </c>
-      <c r="J17" s="56"/>
+      <c r="J17" s="46"/>
     </row>
     <row r="18" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="8"/>
@@ -5505,13 +5525,13 @@
       <c r="D18" s="8"/>
       <c r="E18" s="17"/>
       <c r="F18" s="8"/>
-      <c r="G18" s="51"/>
-      <c r="H18" s="52"/>
-      <c r="I18" s="57">
+      <c r="G18" s="61"/>
+      <c r="H18" s="62"/>
+      <c r="I18" s="65">
         <f>'Daily Schedule SUN'!I18:J18</f>
         <v>0</v>
       </c>
-      <c r="J18" s="58"/>
+      <c r="J18" s="66"/>
     </row>
     <row r="19" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="8"/>
@@ -5523,16 +5543,16 @@
       <c r="D19" s="8"/>
       <c r="E19" s="16"/>
       <c r="F19" s="8"/>
-      <c r="G19" s="59">
+      <c r="G19" s="67">
         <f>G7+4</f>
         <v>42887</v>
       </c>
-      <c r="H19" s="60"/>
-      <c r="I19" s="65">
+      <c r="H19" s="68"/>
+      <c r="I19" s="69">
         <f>'Daily Schedule SUN'!I19:J19</f>
         <v>0</v>
       </c>
-      <c r="J19" s="66"/>
+      <c r="J19" s="70"/>
     </row>
     <row r="20" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="8"/>
@@ -5544,13 +5564,13 @@
       <c r="D20" s="8"/>
       <c r="E20" s="17"/>
       <c r="F20" s="8"/>
-      <c r="G20" s="61"/>
-      <c r="H20" s="62"/>
-      <c r="I20" s="53">
+      <c r="G20" s="41"/>
+      <c r="H20" s="42"/>
+      <c r="I20" s="47">
         <f>'Daily Schedule SUN'!I20:J20</f>
         <v>0</v>
       </c>
-      <c r="J20" s="54"/>
+      <c r="J20" s="48"/>
     </row>
     <row r="21" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="8"/>
@@ -5562,13 +5582,13 @@
       <c r="D21" s="8"/>
       <c r="E21" s="16"/>
       <c r="F21" s="8"/>
-      <c r="G21" s="63"/>
-      <c r="H21" s="64"/>
-      <c r="I21" s="67">
+      <c r="G21" s="43"/>
+      <c r="H21" s="44"/>
+      <c r="I21" s="49">
         <f>'Daily Schedule SUN'!I21:J21</f>
         <v>0</v>
       </c>
-      <c r="J21" s="68"/>
+      <c r="J21" s="50"/>
     </row>
     <row r="22" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="8"/>
@@ -5580,16 +5600,16 @@
       <c r="D22" s="8"/>
       <c r="E22" s="17"/>
       <c r="F22" s="8"/>
-      <c r="G22" s="47">
+      <c r="G22" s="57">
         <f>G7+5</f>
         <v>42888</v>
       </c>
-      <c r="H22" s="48"/>
-      <c r="I22" s="69">
+      <c r="H22" s="58"/>
+      <c r="I22" s="63">
         <f>'Daily Schedule SUN'!I22:J22</f>
         <v>0</v>
       </c>
-      <c r="J22" s="70"/>
+      <c r="J22" s="64"/>
     </row>
     <row r="23" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="8"/>
@@ -5601,13 +5621,13 @@
       <c r="D23" s="8"/>
       <c r="E23" s="16"/>
       <c r="F23" s="8"/>
-      <c r="G23" s="49"/>
-      <c r="H23" s="50"/>
-      <c r="I23" s="55">
+      <c r="G23" s="59"/>
+      <c r="H23" s="60"/>
+      <c r="I23" s="45">
         <f>'Daily Schedule SUN'!I23:J23</f>
         <v>0</v>
       </c>
-      <c r="J23" s="56"/>
+      <c r="J23" s="46"/>
     </row>
     <row r="24" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="8"/>
@@ -5619,13 +5639,13 @@
       <c r="D24" s="8"/>
       <c r="E24" s="17"/>
       <c r="F24" s="8"/>
-      <c r="G24" s="51"/>
-      <c r="H24" s="52"/>
-      <c r="I24" s="57">
+      <c r="G24" s="61"/>
+      <c r="H24" s="62"/>
+      <c r="I24" s="65">
         <f>'Daily Schedule SUN'!I24:J24</f>
         <v>0</v>
       </c>
-      <c r="J24" s="58"/>
+      <c r="J24" s="66"/>
     </row>
     <row r="25" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="8"/>
@@ -5637,16 +5657,16 @@
       <c r="D25" s="8"/>
       <c r="E25" s="16"/>
       <c r="F25" s="8"/>
-      <c r="G25" s="59">
+      <c r="G25" s="67">
         <f>G7+6</f>
         <v>42889</v>
       </c>
-      <c r="H25" s="60"/>
-      <c r="I25" s="65">
+      <c r="H25" s="68"/>
+      <c r="I25" s="69">
         <f>'Daily Schedule SUN'!I25:J25</f>
         <v>0</v>
       </c>
-      <c r="J25" s="66"/>
+      <c r="J25" s="70"/>
     </row>
     <row r="26" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="8"/>
@@ -5658,13 +5678,13 @@
       <c r="D26" s="8"/>
       <c r="E26" s="17"/>
       <c r="F26" s="8"/>
-      <c r="G26" s="61"/>
-      <c r="H26" s="62"/>
-      <c r="I26" s="53">
+      <c r="G26" s="41"/>
+      <c r="H26" s="42"/>
+      <c r="I26" s="47">
         <f>'Daily Schedule SUN'!I26:J26</f>
         <v>0</v>
       </c>
-      <c r="J26" s="54"/>
+      <c r="J26" s="48"/>
     </row>
     <row r="27" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="8"/>
@@ -5676,13 +5696,13 @@
       <c r="D27" s="8"/>
       <c r="E27" s="16"/>
       <c r="F27" s="8"/>
-      <c r="G27" s="63"/>
-      <c r="H27" s="64"/>
-      <c r="I27" s="67">
+      <c r="G27" s="43"/>
+      <c r="H27" s="44"/>
+      <c r="I27" s="49">
         <f>'Daily Schedule SUN'!I27:J27</f>
         <v>0</v>
       </c>
-      <c r="J27" s="68"/>
+      <c r="J27" s="50"/>
     </row>
     <row r="28" spans="1:10" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A28" s="8"/>
@@ -5709,12 +5729,12 @@
       <c r="D29" s="8"/>
       <c r="E29" s="16"/>
       <c r="F29" s="8"/>
-      <c r="G29" s="38" t="s">
+      <c r="G29" s="71" t="s">
         <v>26</v>
       </c>
-      <c r="H29" s="39"/>
-      <c r="I29" s="39"/>
-      <c r="J29" s="40"/>
+      <c r="H29" s="72"/>
+      <c r="I29" s="72"/>
+      <c r="J29" s="73"/>
     </row>
     <row r="30" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30" s="8"/>
@@ -5726,10 +5746,10 @@
       <c r="D30" s="8"/>
       <c r="E30" s="17"/>
       <c r="F30" s="8"/>
-      <c r="G30" s="41"/>
-      <c r="H30" s="42"/>
-      <c r="I30" s="42"/>
-      <c r="J30" s="43"/>
+      <c r="G30" s="74"/>
+      <c r="H30" s="75"/>
+      <c r="I30" s="75"/>
+      <c r="J30" s="76"/>
     </row>
     <row r="31" spans="1:10" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A31" s="8"/>
@@ -5741,10 +5761,10 @@
       <c r="D31" s="8"/>
       <c r="E31" s="16"/>
       <c r="F31" s="8"/>
-      <c r="G31" s="44"/>
-      <c r="H31" s="45"/>
-      <c r="I31" s="45"/>
-      <c r="J31" s="46"/>
+      <c r="G31" s="77"/>
+      <c r="H31" s="78"/>
+      <c r="I31" s="78"/>
+      <c r="J31" s="79"/>
     </row>
     <row r="32" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A32" s="8"/>
@@ -5868,30 +5888,6 @@
     </row>
   </sheetData>
   <mergeCells count="33">
-    <mergeCell ref="B2:C3"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="G5:J6"/>
-    <mergeCell ref="G7:H9"/>
-    <mergeCell ref="I7:J7"/>
-    <mergeCell ref="I8:J8"/>
-    <mergeCell ref="I9:J9"/>
-    <mergeCell ref="G10:H12"/>
-    <mergeCell ref="I10:J10"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="I12:J12"/>
-    <mergeCell ref="G13:H15"/>
-    <mergeCell ref="I13:J13"/>
-    <mergeCell ref="I14:J14"/>
-    <mergeCell ref="I15:J15"/>
-    <mergeCell ref="G16:H18"/>
-    <mergeCell ref="I16:J16"/>
-    <mergeCell ref="I17:J17"/>
-    <mergeCell ref="I18:J18"/>
-    <mergeCell ref="G19:H21"/>
-    <mergeCell ref="I19:J19"/>
-    <mergeCell ref="I20:J20"/>
-    <mergeCell ref="I21:J21"/>
     <mergeCell ref="G29:J31"/>
     <mergeCell ref="G22:H24"/>
     <mergeCell ref="I22:J22"/>
@@ -5901,6 +5897,30 @@
     <mergeCell ref="I25:J25"/>
     <mergeCell ref="I26:J26"/>
     <mergeCell ref="I27:J27"/>
+    <mergeCell ref="G16:H18"/>
+    <mergeCell ref="I16:J16"/>
+    <mergeCell ref="I17:J17"/>
+    <mergeCell ref="I18:J18"/>
+    <mergeCell ref="G19:H21"/>
+    <mergeCell ref="I19:J19"/>
+    <mergeCell ref="I20:J20"/>
+    <mergeCell ref="I21:J21"/>
+    <mergeCell ref="G10:H12"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="G13:H15"/>
+    <mergeCell ref="I13:J13"/>
+    <mergeCell ref="I14:J14"/>
+    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="B2:C3"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="G5:J6"/>
+    <mergeCell ref="G7:H9"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="I8:J8"/>
+    <mergeCell ref="I9:J9"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="G29" r:id="rId1"/>
@@ -5982,10 +6002,10 @@
     </row>
     <row r="2" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.65">
       <c r="A2" s="8"/>
-      <c r="B2" s="71" t="s">
+      <c r="B2" s="38" t="s">
         <v>25</v>
       </c>
-      <c r="C2" s="71"/>
+      <c r="C2" s="38"/>
       <c r="D2" s="9"/>
       <c r="E2" s="12" t="s">
         <v>13</v>
@@ -6002,8 +6022,8 @@
     </row>
     <row r="3" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.65">
       <c r="A3" s="8"/>
-      <c r="B3" s="71"/>
-      <c r="C3" s="71"/>
+      <c r="B3" s="38"/>
+      <c r="C3" s="38"/>
       <c r="D3" s="9"/>
       <c r="E3" s="13">
         <f>'Daily Schedule SUN'!E3</f>
@@ -6036,38 +6056,38 @@
     </row>
     <row r="5" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="8"/>
-      <c r="B5" s="72" t="s">
+      <c r="B5" s="39" t="s">
         <v>0</v>
       </c>
       <c r="C5" s="23" t="s">
         <v>22</v>
       </c>
       <c r="D5" s="8"/>
-      <c r="E5" s="73" t="s">
+      <c r="E5" s="40" t="s">
         <v>14</v>
       </c>
       <c r="F5" s="8"/>
-      <c r="G5" s="80" t="s">
+      <c r="G5" s="81" t="s">
         <v>15</v>
       </c>
-      <c r="H5" s="81"/>
-      <c r="I5" s="80"/>
-      <c r="J5" s="80"/>
+      <c r="H5" s="82"/>
+      <c r="I5" s="81"/>
+      <c r="J5" s="81"/>
     </row>
     <row r="6" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="8"/>
-      <c r="B6" s="72"/>
+      <c r="B6" s="39"/>
       <c r="C6" s="24">
         <f>E3+6</f>
         <v>42889</v>
       </c>
       <c r="D6" s="8"/>
-      <c r="E6" s="73"/>
+      <c r="E6" s="40"/>
       <c r="F6" s="8"/>
-      <c r="G6" s="80"/>
-      <c r="H6" s="80"/>
-      <c r="I6" s="80"/>
-      <c r="J6" s="80"/>
+      <c r="G6" s="81"/>
+      <c r="H6" s="81"/>
+      <c r="I6" s="81"/>
+      <c r="J6" s="81"/>
     </row>
     <row r="7" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="8"/>
@@ -6079,16 +6099,16 @@
       <c r="D7" s="8"/>
       <c r="E7" s="16"/>
       <c r="F7" s="8"/>
-      <c r="G7" s="59">
+      <c r="G7" s="67">
         <f>E3</f>
         <v>42883</v>
       </c>
-      <c r="H7" s="60"/>
-      <c r="I7" s="65">
+      <c r="H7" s="68"/>
+      <c r="I7" s="69">
         <f>'Daily Schedule SUN'!I7:J7</f>
         <v>0</v>
       </c>
-      <c r="J7" s="66"/>
+      <c r="J7" s="70"/>
     </row>
     <row r="8" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="8"/>
@@ -6100,13 +6120,13 @@
       <c r="D8" s="8"/>
       <c r="E8" s="17"/>
       <c r="F8" s="8"/>
-      <c r="G8" s="61"/>
-      <c r="H8" s="62"/>
-      <c r="I8" s="53">
+      <c r="G8" s="41"/>
+      <c r="H8" s="42"/>
+      <c r="I8" s="47">
         <f>'Daily Schedule SUN'!I8:J8</f>
         <v>0</v>
       </c>
-      <c r="J8" s="54"/>
+      <c r="J8" s="48"/>
     </row>
     <row r="9" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="8"/>
@@ -6118,13 +6138,13 @@
       <c r="D9" s="8"/>
       <c r="E9" s="16"/>
       <c r="F9" s="8"/>
-      <c r="G9" s="63"/>
-      <c r="H9" s="64"/>
-      <c r="I9" s="67">
+      <c r="G9" s="43"/>
+      <c r="H9" s="44"/>
+      <c r="I9" s="49">
         <f>'Daily Schedule SUN'!I9:J9</f>
         <v>0</v>
       </c>
-      <c r="J9" s="68"/>
+      <c r="J9" s="50"/>
     </row>
     <row r="10" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="8"/>
@@ -6136,16 +6156,16 @@
       <c r="D10" s="8"/>
       <c r="E10" s="17"/>
       <c r="F10" s="8"/>
-      <c r="G10" s="47">
+      <c r="G10" s="57">
         <f>G7+1</f>
         <v>42884</v>
       </c>
-      <c r="H10" s="48"/>
-      <c r="I10" s="69">
+      <c r="H10" s="58"/>
+      <c r="I10" s="63">
         <f>'Daily Schedule SUN'!I10:J10</f>
         <v>0</v>
       </c>
-      <c r="J10" s="70"/>
+      <c r="J10" s="64"/>
     </row>
     <row r="11" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="8"/>
@@ -6157,13 +6177,13 @@
       <c r="D11" s="8"/>
       <c r="E11" s="16"/>
       <c r="F11" s="8"/>
-      <c r="G11" s="49"/>
-      <c r="H11" s="50"/>
-      <c r="I11" s="55">
+      <c r="G11" s="59"/>
+      <c r="H11" s="60"/>
+      <c r="I11" s="45">
         <f>'Daily Schedule SUN'!I11:J11</f>
         <v>0</v>
       </c>
-      <c r="J11" s="56"/>
+      <c r="J11" s="46"/>
     </row>
     <row r="12" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="8"/>
@@ -6175,13 +6195,13 @@
       <c r="D12" s="8"/>
       <c r="E12" s="17"/>
       <c r="F12" s="8"/>
-      <c r="G12" s="51"/>
-      <c r="H12" s="52"/>
-      <c r="I12" s="57">
+      <c r="G12" s="61"/>
+      <c r="H12" s="62"/>
+      <c r="I12" s="65">
         <f>'Daily Schedule SUN'!I12:J12</f>
         <v>0</v>
       </c>
-      <c r="J12" s="58"/>
+      <c r="J12" s="66"/>
     </row>
     <row r="13" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="8"/>
@@ -6193,16 +6213,16 @@
       <c r="D13" s="8"/>
       <c r="E13" s="16"/>
       <c r="F13" s="8"/>
-      <c r="G13" s="59">
+      <c r="G13" s="67">
         <f>G7+2</f>
         <v>42885</v>
       </c>
-      <c r="H13" s="60"/>
-      <c r="I13" s="65">
+      <c r="H13" s="68"/>
+      <c r="I13" s="69">
         <f>'Daily Schedule SUN'!I13:J13</f>
         <v>0</v>
       </c>
-      <c r="J13" s="66"/>
+      <c r="J13" s="70"/>
     </row>
     <row r="14" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="8"/>
@@ -6214,13 +6234,13 @@
       <c r="D14" s="8"/>
       <c r="E14" s="17"/>
       <c r="F14" s="8"/>
-      <c r="G14" s="61"/>
-      <c r="H14" s="62"/>
-      <c r="I14" s="53">
+      <c r="G14" s="41"/>
+      <c r="H14" s="42"/>
+      <c r="I14" s="47">
         <f>'Daily Schedule SUN'!I14:J14</f>
         <v>0</v>
       </c>
-      <c r="J14" s="54"/>
+      <c r="J14" s="48"/>
     </row>
     <row r="15" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="8"/>
@@ -6232,13 +6252,13 @@
       <c r="D15" s="8"/>
       <c r="E15" s="16"/>
       <c r="F15" s="8"/>
-      <c r="G15" s="63"/>
-      <c r="H15" s="64"/>
-      <c r="I15" s="67">
+      <c r="G15" s="43"/>
+      <c r="H15" s="44"/>
+      <c r="I15" s="49">
         <f>'Daily Schedule SUN'!I15:J15</f>
         <v>0</v>
       </c>
-      <c r="J15" s="68"/>
+      <c r="J15" s="50"/>
     </row>
     <row r="16" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="8"/>
@@ -6250,16 +6270,16 @@
       <c r="D16" s="8"/>
       <c r="E16" s="17"/>
       <c r="F16" s="8"/>
-      <c r="G16" s="47">
+      <c r="G16" s="57">
         <f>G7+3</f>
         <v>42886</v>
       </c>
-      <c r="H16" s="48"/>
-      <c r="I16" s="69">
+      <c r="H16" s="58"/>
+      <c r="I16" s="63">
         <f>'Daily Schedule SUN'!I16:J16</f>
         <v>0</v>
       </c>
-      <c r="J16" s="70"/>
+      <c r="J16" s="64"/>
     </row>
     <row r="17" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="8"/>
@@ -6271,13 +6291,13 @@
       <c r="D17" s="8"/>
       <c r="E17" s="16"/>
       <c r="F17" s="8"/>
-      <c r="G17" s="49"/>
-      <c r="H17" s="50"/>
-      <c r="I17" s="55">
+      <c r="G17" s="59"/>
+      <c r="H17" s="60"/>
+      <c r="I17" s="45">
         <f>'Daily Schedule SUN'!I17:J17</f>
         <v>0</v>
       </c>
-      <c r="J17" s="56"/>
+      <c r="J17" s="46"/>
     </row>
     <row r="18" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="8"/>
@@ -6289,13 +6309,13 @@
       <c r="D18" s="8"/>
       <c r="E18" s="17"/>
       <c r="F18" s="8"/>
-      <c r="G18" s="51"/>
-      <c r="H18" s="52"/>
-      <c r="I18" s="57">
+      <c r="G18" s="61"/>
+      <c r="H18" s="62"/>
+      <c r="I18" s="65">
         <f>'Daily Schedule SUN'!I18:J18</f>
         <v>0</v>
       </c>
-      <c r="J18" s="58"/>
+      <c r="J18" s="66"/>
     </row>
     <row r="19" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="8"/>
@@ -6307,16 +6327,16 @@
       <c r="D19" s="8"/>
       <c r="E19" s="16"/>
       <c r="F19" s="8"/>
-      <c r="G19" s="59">
+      <c r="G19" s="67">
         <f>G7+4</f>
         <v>42887</v>
       </c>
-      <c r="H19" s="60"/>
-      <c r="I19" s="65">
+      <c r="H19" s="68"/>
+      <c r="I19" s="69">
         <f>'Daily Schedule SUN'!I19:J19</f>
         <v>0</v>
       </c>
-      <c r="J19" s="66"/>
+      <c r="J19" s="70"/>
     </row>
     <row r="20" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="8"/>
@@ -6328,13 +6348,13 @@
       <c r="D20" s="8"/>
       <c r="E20" s="17"/>
       <c r="F20" s="8"/>
-      <c r="G20" s="61"/>
-      <c r="H20" s="62"/>
-      <c r="I20" s="53">
+      <c r="G20" s="41"/>
+      <c r="H20" s="42"/>
+      <c r="I20" s="47">
         <f>'Daily Schedule SUN'!I20:J20</f>
         <v>0</v>
       </c>
-      <c r="J20" s="54"/>
+      <c r="J20" s="48"/>
     </row>
     <row r="21" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="8"/>
@@ -6346,13 +6366,13 @@
       <c r="D21" s="8"/>
       <c r="E21" s="16"/>
       <c r="F21" s="8"/>
-      <c r="G21" s="63"/>
-      <c r="H21" s="64"/>
-      <c r="I21" s="67">
+      <c r="G21" s="43"/>
+      <c r="H21" s="44"/>
+      <c r="I21" s="49">
         <f>'Daily Schedule SUN'!I21:J21</f>
         <v>0</v>
       </c>
-      <c r="J21" s="68"/>
+      <c r="J21" s="50"/>
     </row>
     <row r="22" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="8"/>
@@ -6364,16 +6384,16 @@
       <c r="D22" s="8"/>
       <c r="E22" s="17"/>
       <c r="F22" s="8"/>
-      <c r="G22" s="47">
+      <c r="G22" s="57">
         <f>G7+5</f>
         <v>42888</v>
       </c>
-      <c r="H22" s="48"/>
-      <c r="I22" s="69">
+      <c r="H22" s="58"/>
+      <c r="I22" s="63">
         <f>'Daily Schedule SUN'!I22:J22</f>
         <v>0</v>
       </c>
-      <c r="J22" s="70"/>
+      <c r="J22" s="64"/>
     </row>
     <row r="23" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="8"/>
@@ -6385,13 +6405,13 @@
       <c r="D23" s="8"/>
       <c r="E23" s="16"/>
       <c r="F23" s="8"/>
-      <c r="G23" s="49"/>
-      <c r="H23" s="50"/>
-      <c r="I23" s="55">
+      <c r="G23" s="59"/>
+      <c r="H23" s="60"/>
+      <c r="I23" s="45">
         <f>'Daily Schedule SUN'!I23:J23</f>
         <v>0</v>
       </c>
-      <c r="J23" s="56"/>
+      <c r="J23" s="46"/>
     </row>
     <row r="24" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="8"/>
@@ -6403,13 +6423,13 @@
       <c r="D24" s="8"/>
       <c r="E24" s="17"/>
       <c r="F24" s="8"/>
-      <c r="G24" s="51"/>
-      <c r="H24" s="52"/>
-      <c r="I24" s="57">
+      <c r="G24" s="61"/>
+      <c r="H24" s="62"/>
+      <c r="I24" s="65">
         <f>'Daily Schedule SUN'!I24:J24</f>
         <v>0</v>
       </c>
-      <c r="J24" s="58"/>
+      <c r="J24" s="66"/>
     </row>
     <row r="25" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="8"/>
@@ -6421,16 +6441,16 @@
       <c r="D25" s="8"/>
       <c r="E25" s="16"/>
       <c r="F25" s="8"/>
-      <c r="G25" s="59">
+      <c r="G25" s="67">
         <f>G7+6</f>
         <v>42889</v>
       </c>
-      <c r="H25" s="60"/>
-      <c r="I25" s="65">
+      <c r="H25" s="68"/>
+      <c r="I25" s="69">
         <f>'Daily Schedule SUN'!I25:J25</f>
         <v>0</v>
       </c>
-      <c r="J25" s="66"/>
+      <c r="J25" s="70"/>
     </row>
     <row r="26" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="8"/>
@@ -6442,13 +6462,13 @@
       <c r="D26" s="8"/>
       <c r="E26" s="17"/>
       <c r="F26" s="8"/>
-      <c r="G26" s="61"/>
-      <c r="H26" s="62"/>
-      <c r="I26" s="53">
+      <c r="G26" s="41"/>
+      <c r="H26" s="42"/>
+      <c r="I26" s="47">
         <f>'Daily Schedule SUN'!I26:J26</f>
         <v>0</v>
       </c>
-      <c r="J26" s="54"/>
+      <c r="J26" s="48"/>
     </row>
     <row r="27" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="8"/>
@@ -6460,13 +6480,13 @@
       <c r="D27" s="8"/>
       <c r="E27" s="16"/>
       <c r="F27" s="8"/>
-      <c r="G27" s="63"/>
-      <c r="H27" s="64"/>
-      <c r="I27" s="67">
+      <c r="G27" s="43"/>
+      <c r="H27" s="44"/>
+      <c r="I27" s="49">
         <f>'Daily Schedule SUN'!I27:J27</f>
         <v>0</v>
       </c>
-      <c r="J27" s="68"/>
+      <c r="J27" s="50"/>
     </row>
     <row r="28" spans="1:10" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A28" s="8"/>
@@ -6493,12 +6513,12 @@
       <c r="D29" s="8"/>
       <c r="E29" s="16"/>
       <c r="F29" s="8"/>
-      <c r="G29" s="38" t="s">
+      <c r="G29" s="71" t="s">
         <v>26</v>
       </c>
-      <c r="H29" s="39"/>
-      <c r="I29" s="39"/>
-      <c r="J29" s="40"/>
+      <c r="H29" s="72"/>
+      <c r="I29" s="72"/>
+      <c r="J29" s="73"/>
     </row>
     <row r="30" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30" s="8"/>
@@ -6510,10 +6530,10 @@
       <c r="D30" s="8"/>
       <c r="E30" s="17"/>
       <c r="F30" s="8"/>
-      <c r="G30" s="41"/>
-      <c r="H30" s="42"/>
-      <c r="I30" s="42"/>
-      <c r="J30" s="43"/>
+      <c r="G30" s="74"/>
+      <c r="H30" s="75"/>
+      <c r="I30" s="75"/>
+      <c r="J30" s="76"/>
     </row>
     <row r="31" spans="1:10" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A31" s="8"/>
@@ -6525,10 +6545,10 @@
       <c r="D31" s="8"/>
       <c r="E31" s="16"/>
       <c r="F31" s="8"/>
-      <c r="G31" s="44"/>
-      <c r="H31" s="45"/>
-      <c r="I31" s="45"/>
-      <c r="J31" s="46"/>
+      <c r="G31" s="77"/>
+      <c r="H31" s="78"/>
+      <c r="I31" s="78"/>
+      <c r="J31" s="79"/>
     </row>
     <row r="32" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A32" s="8"/>
@@ -6652,30 +6672,6 @@
     </row>
   </sheetData>
   <mergeCells count="33">
-    <mergeCell ref="B2:C3"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="G5:J6"/>
-    <mergeCell ref="G7:H9"/>
-    <mergeCell ref="I7:J7"/>
-    <mergeCell ref="I8:J8"/>
-    <mergeCell ref="I9:J9"/>
-    <mergeCell ref="G10:H12"/>
-    <mergeCell ref="I10:J10"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="I12:J12"/>
-    <mergeCell ref="G13:H15"/>
-    <mergeCell ref="I13:J13"/>
-    <mergeCell ref="I14:J14"/>
-    <mergeCell ref="I15:J15"/>
-    <mergeCell ref="G16:H18"/>
-    <mergeCell ref="I16:J16"/>
-    <mergeCell ref="I17:J17"/>
-    <mergeCell ref="I18:J18"/>
-    <mergeCell ref="G19:H21"/>
-    <mergeCell ref="I19:J19"/>
-    <mergeCell ref="I20:J20"/>
-    <mergeCell ref="I21:J21"/>
     <mergeCell ref="G29:J31"/>
     <mergeCell ref="G22:H24"/>
     <mergeCell ref="I22:J22"/>
@@ -6685,6 +6681,30 @@
     <mergeCell ref="I25:J25"/>
     <mergeCell ref="I26:J26"/>
     <mergeCell ref="I27:J27"/>
+    <mergeCell ref="G16:H18"/>
+    <mergeCell ref="I16:J16"/>
+    <mergeCell ref="I17:J17"/>
+    <mergeCell ref="I18:J18"/>
+    <mergeCell ref="G19:H21"/>
+    <mergeCell ref="I19:J19"/>
+    <mergeCell ref="I20:J20"/>
+    <mergeCell ref="I21:J21"/>
+    <mergeCell ref="G10:H12"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="G13:H15"/>
+    <mergeCell ref="I13:J13"/>
+    <mergeCell ref="I14:J14"/>
+    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="B2:C3"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="G5:J6"/>
+    <mergeCell ref="G7:H9"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="I8:J8"/>
+    <mergeCell ref="I9:J9"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="G29" r:id="rId1"/>

--- a/daily-work-schedule-template.xlsx
+++ b/daily-work-schedule-template.xlsx
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="40">
   <si>
     <t>TIME</t>
   </si>
@@ -797,6 +797,105 @@
     <xf numFmtId="0" fontId="19" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="10" fillId="13" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="10" fillId="13" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="10" fillId="13" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="10" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="10" fillId="13" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="10" fillId="13" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="10" fillId="17" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="10" fillId="17" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="10" fillId="17" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="10" fillId="17" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="10" fillId="17" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="10" fillId="17" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -806,36 +905,6 @@
     <xf numFmtId="0" fontId="6" fillId="12" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="10" fillId="17" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="10" fillId="17" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="10" fillId="17" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="10" fillId="17" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="13" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -854,82 +923,13 @@
     <xf numFmtId="0" fontId="11" fillId="13" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="165" fontId="10" fillId="13" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="10" fillId="13" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="10" fillId="13" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="10" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="10" fillId="13" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="10" fillId="13" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="10" fillId="17" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="10" fillId="17" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="10" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="13" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="13" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1287,10 +1287,10 @@
     </row>
     <row r="2" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.65">
       <c r="A2" s="8"/>
-      <c r="B2" s="38" t="s">
+      <c r="B2" s="71" t="s">
         <v>25</v>
       </c>
-      <c r="C2" s="38"/>
+      <c r="C2" s="71"/>
       <c r="D2" s="9"/>
       <c r="E2" s="12" t="s">
         <v>13</v>
@@ -1307,8 +1307,8 @@
     </row>
     <row r="3" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.65">
       <c r="A3" s="8"/>
-      <c r="B3" s="38"/>
-      <c r="C3" s="38"/>
+      <c r="B3" s="71"/>
+      <c r="C3" s="71"/>
       <c r="D3" s="9"/>
       <c r="E3" s="13">
         <v>42883</v>
@@ -1340,40 +1340,40 @@
     </row>
     <row r="5" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="8"/>
-      <c r="B5" s="39" t="s">
+      <c r="B5" s="72" t="s">
         <v>0</v>
       </c>
       <c r="C5" s="23" t="s">
         <v>17</v>
       </c>
       <c r="D5" s="8"/>
-      <c r="E5" s="40" t="s">
+      <c r="E5" s="73" t="s">
         <v>14</v>
       </c>
       <c r="F5" s="8"/>
-      <c r="G5" s="51" t="s">
+      <c r="G5" s="74" t="s">
         <v>23</v>
       </c>
-      <c r="H5" s="52"/>
-      <c r="I5" s="52"/>
-      <c r="J5" s="53"/>
+      <c r="H5" s="75"/>
+      <c r="I5" s="75"/>
+      <c r="J5" s="76"/>
     </row>
     <row r="6" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="8"/>
-      <c r="B6" s="39"/>
+      <c r="B6" s="72"/>
       <c r="C6" s="24">
         <f>E3</f>
         <v>42883</v>
       </c>
       <c r="D6" s="8"/>
-      <c r="E6" s="40"/>
+      <c r="E6" s="73"/>
       <c r="F6" s="8"/>
-      <c r="G6" s="54" t="s">
+      <c r="G6" s="77" t="s">
         <v>24</v>
       </c>
-      <c r="H6" s="55"/>
-      <c r="I6" s="55"/>
-      <c r="J6" s="56"/>
+      <c r="H6" s="78"/>
+      <c r="I6" s="78"/>
+      <c r="J6" s="79"/>
     </row>
     <row r="7" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="8"/>
@@ -1385,13 +1385,13 @@
       <c r="D7" s="8"/>
       <c r="E7" s="16"/>
       <c r="F7" s="8"/>
-      <c r="G7" s="41">
+      <c r="G7" s="61">
         <f>E3</f>
         <v>42883</v>
       </c>
-      <c r="H7" s="42"/>
-      <c r="I7" s="45"/>
-      <c r="J7" s="46"/>
+      <c r="H7" s="62"/>
+      <c r="I7" s="55"/>
+      <c r="J7" s="56"/>
     </row>
     <row r="8" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="8"/>
@@ -1403,10 +1403,10 @@
       <c r="D8" s="8"/>
       <c r="E8" s="17"/>
       <c r="F8" s="8"/>
-      <c r="G8" s="41"/>
-      <c r="H8" s="42"/>
-      <c r="I8" s="47"/>
-      <c r="J8" s="48"/>
+      <c r="G8" s="61"/>
+      <c r="H8" s="62"/>
+      <c r="I8" s="53"/>
+      <c r="J8" s="54"/>
     </row>
     <row r="9" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="8"/>
@@ -1418,10 +1418,10 @@
       <c r="D9" s="8"/>
       <c r="E9" s="16"/>
       <c r="F9" s="8"/>
-      <c r="G9" s="43"/>
-      <c r="H9" s="44"/>
-      <c r="I9" s="49"/>
-      <c r="J9" s="50"/>
+      <c r="G9" s="63"/>
+      <c r="H9" s="64"/>
+      <c r="I9" s="67"/>
+      <c r="J9" s="68"/>
     </row>
     <row r="10" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="8"/>
@@ -1433,13 +1433,13 @@
       <c r="D10" s="8"/>
       <c r="E10" s="17"/>
       <c r="F10" s="8"/>
-      <c r="G10" s="57">
+      <c r="G10" s="47">
         <f>G7+1</f>
         <v>42884</v>
       </c>
-      <c r="H10" s="58"/>
-      <c r="I10" s="63"/>
-      <c r="J10" s="64"/>
+      <c r="H10" s="48"/>
+      <c r="I10" s="69"/>
+      <c r="J10" s="70"/>
     </row>
     <row r="11" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="8"/>
@@ -1451,10 +1451,10 @@
       <c r="D11" s="8"/>
       <c r="E11" s="16"/>
       <c r="F11" s="8"/>
-      <c r="G11" s="59"/>
-      <c r="H11" s="60"/>
-      <c r="I11" s="45"/>
-      <c r="J11" s="46"/>
+      <c r="G11" s="49"/>
+      <c r="H11" s="50"/>
+      <c r="I11" s="55"/>
+      <c r="J11" s="56"/>
     </row>
     <row r="12" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="8"/>
@@ -1466,10 +1466,10 @@
       <c r="D12" s="8"/>
       <c r="E12" s="17"/>
       <c r="F12" s="8"/>
-      <c r="G12" s="61"/>
-      <c r="H12" s="62"/>
-      <c r="I12" s="65"/>
-      <c r="J12" s="66"/>
+      <c r="G12" s="51"/>
+      <c r="H12" s="52"/>
+      <c r="I12" s="57"/>
+      <c r="J12" s="58"/>
     </row>
     <row r="13" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="8"/>
@@ -1481,13 +1481,13 @@
       <c r="D13" s="8"/>
       <c r="E13" s="16"/>
       <c r="F13" s="8"/>
-      <c r="G13" s="67">
+      <c r="G13" s="59">
         <f>G7+2</f>
         <v>42885</v>
       </c>
-      <c r="H13" s="68"/>
-      <c r="I13" s="69"/>
-      <c r="J13" s="70"/>
+      <c r="H13" s="60"/>
+      <c r="I13" s="65"/>
+      <c r="J13" s="66"/>
     </row>
     <row r="14" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="8"/>
@@ -1499,10 +1499,10 @@
       <c r="D14" s="8"/>
       <c r="E14" s="17"/>
       <c r="F14" s="8"/>
-      <c r="G14" s="41"/>
-      <c r="H14" s="42"/>
-      <c r="I14" s="47"/>
-      <c r="J14" s="48"/>
+      <c r="G14" s="61"/>
+      <c r="H14" s="62"/>
+      <c r="I14" s="53"/>
+      <c r="J14" s="54"/>
     </row>
     <row r="15" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="8"/>
@@ -1514,10 +1514,10 @@
       <c r="D15" s="8"/>
       <c r="E15" s="16"/>
       <c r="F15" s="8"/>
-      <c r="G15" s="43"/>
-      <c r="H15" s="44"/>
-      <c r="I15" s="49"/>
-      <c r="J15" s="50"/>
+      <c r="G15" s="63"/>
+      <c r="H15" s="64"/>
+      <c r="I15" s="67"/>
+      <c r="J15" s="68"/>
     </row>
     <row r="16" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="8"/>
@@ -1529,13 +1529,13 @@
       <c r="D16" s="8"/>
       <c r="E16" s="17"/>
       <c r="F16" s="8"/>
-      <c r="G16" s="57">
+      <c r="G16" s="47">
         <f>G7+3</f>
         <v>42886</v>
       </c>
-      <c r="H16" s="58"/>
-      <c r="I16" s="63"/>
-      <c r="J16" s="64"/>
+      <c r="H16" s="48"/>
+      <c r="I16" s="69"/>
+      <c r="J16" s="70"/>
     </row>
     <row r="17" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="8"/>
@@ -1547,10 +1547,10 @@
       <c r="D17" s="8"/>
       <c r="E17" s="16"/>
       <c r="F17" s="8"/>
-      <c r="G17" s="59"/>
-      <c r="H17" s="60"/>
-      <c r="I17" s="45"/>
-      <c r="J17" s="46"/>
+      <c r="G17" s="49"/>
+      <c r="H17" s="50"/>
+      <c r="I17" s="55"/>
+      <c r="J17" s="56"/>
     </row>
     <row r="18" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="8"/>
@@ -1562,10 +1562,10 @@
       <c r="D18" s="8"/>
       <c r="E18" s="17"/>
       <c r="F18" s="8"/>
-      <c r="G18" s="61"/>
-      <c r="H18" s="62"/>
-      <c r="I18" s="65"/>
-      <c r="J18" s="66"/>
+      <c r="G18" s="51"/>
+      <c r="H18" s="52"/>
+      <c r="I18" s="57"/>
+      <c r="J18" s="58"/>
     </row>
     <row r="19" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="8"/>
@@ -1577,13 +1577,13 @@
       <c r="D19" s="8"/>
       <c r="E19" s="16"/>
       <c r="F19" s="8"/>
-      <c r="G19" s="67">
+      <c r="G19" s="59">
         <f>G7+4</f>
         <v>42887</v>
       </c>
-      <c r="H19" s="68"/>
-      <c r="I19" s="69"/>
-      <c r="J19" s="70"/>
+      <c r="H19" s="60"/>
+      <c r="I19" s="65"/>
+      <c r="J19" s="66"/>
     </row>
     <row r="20" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="8"/>
@@ -1595,10 +1595,10 @@
       <c r="D20" s="8"/>
       <c r="E20" s="17"/>
       <c r="F20" s="8"/>
-      <c r="G20" s="41"/>
-      <c r="H20" s="42"/>
-      <c r="I20" s="47"/>
-      <c r="J20" s="48"/>
+      <c r="G20" s="61"/>
+      <c r="H20" s="62"/>
+      <c r="I20" s="53"/>
+      <c r="J20" s="54"/>
     </row>
     <row r="21" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="8"/>
@@ -1610,10 +1610,10 @@
       <c r="D21" s="8"/>
       <c r="E21" s="16"/>
       <c r="F21" s="8"/>
-      <c r="G21" s="43"/>
-      <c r="H21" s="44"/>
-      <c r="I21" s="49"/>
-      <c r="J21" s="50"/>
+      <c r="G21" s="63"/>
+      <c r="H21" s="64"/>
+      <c r="I21" s="67"/>
+      <c r="J21" s="68"/>
     </row>
     <row r="22" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="8"/>
@@ -1625,13 +1625,13 @@
       <c r="D22" s="8"/>
       <c r="E22" s="17"/>
       <c r="F22" s="8"/>
-      <c r="G22" s="57">
+      <c r="G22" s="47">
         <f>G7+5</f>
         <v>42888</v>
       </c>
-      <c r="H22" s="58"/>
-      <c r="I22" s="47"/>
-      <c r="J22" s="48"/>
+      <c r="H22" s="48"/>
+      <c r="I22" s="53"/>
+      <c r="J22" s="54"/>
     </row>
     <row r="23" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="8"/>
@@ -1643,10 +1643,10 @@
       <c r="D23" s="8"/>
       <c r="E23" s="16"/>
       <c r="F23" s="8"/>
-      <c r="G23" s="59"/>
-      <c r="H23" s="60"/>
-      <c r="I23" s="45"/>
-      <c r="J23" s="46"/>
+      <c r="G23" s="49"/>
+      <c r="H23" s="50"/>
+      <c r="I23" s="55"/>
+      <c r="J23" s="56"/>
     </row>
     <row r="24" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="8"/>
@@ -1658,10 +1658,10 @@
       <c r="D24" s="8"/>
       <c r="E24" s="17"/>
       <c r="F24" s="8"/>
-      <c r="G24" s="61"/>
-      <c r="H24" s="62"/>
-      <c r="I24" s="65"/>
-      <c r="J24" s="66"/>
+      <c r="G24" s="51"/>
+      <c r="H24" s="52"/>
+      <c r="I24" s="57"/>
+      <c r="J24" s="58"/>
     </row>
     <row r="25" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="8"/>
@@ -1673,13 +1673,13 @@
       <c r="D25" s="8"/>
       <c r="E25" s="16"/>
       <c r="F25" s="8"/>
-      <c r="G25" s="67">
+      <c r="G25" s="59">
         <f>G7+6</f>
         <v>42889</v>
       </c>
-      <c r="H25" s="68"/>
-      <c r="I25" s="69"/>
-      <c r="J25" s="70"/>
+      <c r="H25" s="60"/>
+      <c r="I25" s="65"/>
+      <c r="J25" s="66"/>
     </row>
     <row r="26" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="8"/>
@@ -1691,10 +1691,10 @@
       <c r="D26" s="8"/>
       <c r="E26" s="17"/>
       <c r="F26" s="8"/>
-      <c r="G26" s="41"/>
-      <c r="H26" s="42"/>
-      <c r="I26" s="47"/>
-      <c r="J26" s="48"/>
+      <c r="G26" s="61"/>
+      <c r="H26" s="62"/>
+      <c r="I26" s="53"/>
+      <c r="J26" s="54"/>
     </row>
     <row r="27" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="8"/>
@@ -1706,10 +1706,10 @@
       <c r="D27" s="8"/>
       <c r="E27" s="16"/>
       <c r="F27" s="8"/>
-      <c r="G27" s="43"/>
-      <c r="H27" s="44"/>
-      <c r="I27" s="49"/>
-      <c r="J27" s="50"/>
+      <c r="G27" s="63"/>
+      <c r="H27" s="64"/>
+      <c r="I27" s="67"/>
+      <c r="J27" s="68"/>
     </row>
     <row r="28" spans="1:10" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A28" s="8"/>
@@ -1736,12 +1736,12 @@
       <c r="D29" s="8"/>
       <c r="E29" s="16"/>
       <c r="F29" s="8"/>
-      <c r="G29" s="71" t="s">
+      <c r="G29" s="38" t="s">
         <v>26</v>
       </c>
-      <c r="H29" s="72"/>
-      <c r="I29" s="72"/>
-      <c r="J29" s="73"/>
+      <c r="H29" s="39"/>
+      <c r="I29" s="39"/>
+      <c r="J29" s="40"/>
     </row>
     <row r="30" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30" s="8"/>
@@ -1753,10 +1753,10 @@
       <c r="D30" s="8"/>
       <c r="E30" s="17"/>
       <c r="F30" s="8"/>
-      <c r="G30" s="74"/>
-      <c r="H30" s="75"/>
-      <c r="I30" s="75"/>
-      <c r="J30" s="76"/>
+      <c r="G30" s="41"/>
+      <c r="H30" s="42"/>
+      <c r="I30" s="42"/>
+      <c r="J30" s="43"/>
     </row>
     <row r="31" spans="1:10" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A31" s="8"/>
@@ -1768,10 +1768,10 @@
       <c r="D31" s="8"/>
       <c r="E31" s="16"/>
       <c r="F31" s="8"/>
-      <c r="G31" s="77"/>
-      <c r="H31" s="78"/>
-      <c r="I31" s="78"/>
-      <c r="J31" s="79"/>
+      <c r="G31" s="44"/>
+      <c r="H31" s="45"/>
+      <c r="I31" s="45"/>
+      <c r="J31" s="46"/>
     </row>
     <row r="32" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A32" s="8"/>
@@ -1895,6 +1895,31 @@
     </row>
   </sheetData>
   <mergeCells count="34">
+    <mergeCell ref="B2:C3"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="G7:H9"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="I8:J8"/>
+    <mergeCell ref="I9:J9"/>
+    <mergeCell ref="G5:J5"/>
+    <mergeCell ref="G6:J6"/>
+    <mergeCell ref="G10:H12"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="G13:H15"/>
+    <mergeCell ref="I13:J13"/>
+    <mergeCell ref="I14:J14"/>
+    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="G16:H18"/>
+    <mergeCell ref="I16:J16"/>
+    <mergeCell ref="I17:J17"/>
+    <mergeCell ref="I18:J18"/>
+    <mergeCell ref="G19:H21"/>
+    <mergeCell ref="I19:J19"/>
+    <mergeCell ref="I20:J20"/>
+    <mergeCell ref="I21:J21"/>
     <mergeCell ref="G29:J31"/>
     <mergeCell ref="G22:H24"/>
     <mergeCell ref="I22:J22"/>
@@ -1904,31 +1929,6 @@
     <mergeCell ref="I25:J25"/>
     <mergeCell ref="I26:J26"/>
     <mergeCell ref="I27:J27"/>
-    <mergeCell ref="G16:H18"/>
-    <mergeCell ref="I16:J16"/>
-    <mergeCell ref="I17:J17"/>
-    <mergeCell ref="I18:J18"/>
-    <mergeCell ref="G19:H21"/>
-    <mergeCell ref="I19:J19"/>
-    <mergeCell ref="I20:J20"/>
-    <mergeCell ref="I21:J21"/>
-    <mergeCell ref="G10:H12"/>
-    <mergeCell ref="I10:J10"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="I12:J12"/>
-    <mergeCell ref="G13:H15"/>
-    <mergeCell ref="I13:J13"/>
-    <mergeCell ref="I14:J14"/>
-    <mergeCell ref="I15:J15"/>
-    <mergeCell ref="B2:C3"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="G7:H9"/>
-    <mergeCell ref="I7:J7"/>
-    <mergeCell ref="I8:J8"/>
-    <mergeCell ref="I9:J9"/>
-    <mergeCell ref="G5:J5"/>
-    <mergeCell ref="G6:J6"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="G29" r:id="rId1"/>
@@ -2010,10 +2010,10 @@
     </row>
     <row r="2" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.65">
       <c r="A2" s="8"/>
-      <c r="B2" s="38" t="s">
+      <c r="B2" s="71" t="s">
         <v>25</v>
       </c>
-      <c r="C2" s="38"/>
+      <c r="C2" s="71"/>
       <c r="D2" s="9"/>
       <c r="E2" s="12" t="s">
         <v>13</v>
@@ -2030,8 +2030,8 @@
     </row>
     <row r="3" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.65">
       <c r="A3" s="8"/>
-      <c r="B3" s="38"/>
-      <c r="C3" s="38"/>
+      <c r="B3" s="71"/>
+      <c r="C3" s="71"/>
       <c r="D3" s="9"/>
       <c r="E3" s="13">
         <f>'Daily Schedule SUN'!E3</f>
@@ -2064,38 +2064,38 @@
     </row>
     <row r="5" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="8"/>
-      <c r="B5" s="80" t="s">
+      <c r="B5" s="82" t="s">
         <v>0</v>
       </c>
       <c r="C5" s="31" t="s">
         <v>16</v>
       </c>
       <c r="D5" s="8"/>
-      <c r="E5" s="40" t="s">
+      <c r="E5" s="73" t="s">
         <v>14</v>
       </c>
       <c r="F5" s="8"/>
-      <c r="G5" s="81" t="s">
+      <c r="G5" s="80" t="s">
         <v>15</v>
       </c>
-      <c r="H5" s="82"/>
-      <c r="I5" s="81"/>
-      <c r="J5" s="81"/>
+      <c r="H5" s="81"/>
+      <c r="I5" s="80"/>
+      <c r="J5" s="80"/>
     </row>
     <row r="6" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="8"/>
-      <c r="B6" s="80"/>
+      <c r="B6" s="82"/>
       <c r="C6" s="32">
         <f>E3+1</f>
         <v>42884</v>
       </c>
       <c r="D6" s="8"/>
-      <c r="E6" s="40"/>
+      <c r="E6" s="73"/>
       <c r="F6" s="8"/>
-      <c r="G6" s="81"/>
-      <c r="H6" s="81"/>
-      <c r="I6" s="81"/>
-      <c r="J6" s="81"/>
+      <c r="G6" s="80"/>
+      <c r="H6" s="80"/>
+      <c r="I6" s="80"/>
+      <c r="J6" s="80"/>
     </row>
     <row r="7" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="8"/>
@@ -2107,16 +2107,16 @@
       <c r="D7" s="8"/>
       <c r="E7" s="16"/>
       <c r="F7" s="8"/>
-      <c r="G7" s="67">
+      <c r="G7" s="59">
         <f>E3</f>
         <v>42883</v>
       </c>
-      <c r="H7" s="68"/>
-      <c r="I7" s="69">
+      <c r="H7" s="60"/>
+      <c r="I7" s="65">
         <f>'Daily Schedule SUN'!I7:J7</f>
         <v>0</v>
       </c>
-      <c r="J7" s="70"/>
+      <c r="J7" s="66"/>
     </row>
     <row r="8" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="8"/>
@@ -2128,13 +2128,13 @@
       <c r="D8" s="8"/>
       <c r="E8" s="17"/>
       <c r="F8" s="8"/>
-      <c r="G8" s="41"/>
-      <c r="H8" s="42"/>
-      <c r="I8" s="47">
+      <c r="G8" s="61"/>
+      <c r="H8" s="62"/>
+      <c r="I8" s="53">
         <f>'Daily Schedule SUN'!I8:J8</f>
         <v>0</v>
       </c>
-      <c r="J8" s="48"/>
+      <c r="J8" s="54"/>
     </row>
     <row r="9" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="8"/>
@@ -2146,13 +2146,13 @@
       <c r="D9" s="8"/>
       <c r="E9" s="16"/>
       <c r="F9" s="8"/>
-      <c r="G9" s="43"/>
-      <c r="H9" s="44"/>
-      <c r="I9" s="49">
+      <c r="G9" s="63"/>
+      <c r="H9" s="64"/>
+      <c r="I9" s="67">
         <f>'Daily Schedule SUN'!I9:J9</f>
         <v>0</v>
       </c>
-      <c r="J9" s="50"/>
+      <c r="J9" s="68"/>
     </row>
     <row r="10" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="8"/>
@@ -2164,16 +2164,16 @@
       <c r="D10" s="8"/>
       <c r="E10" s="17"/>
       <c r="F10" s="8"/>
-      <c r="G10" s="57">
+      <c r="G10" s="47">
         <f>G7+1</f>
         <v>42884</v>
       </c>
-      <c r="H10" s="58"/>
-      <c r="I10" s="63">
+      <c r="H10" s="48"/>
+      <c r="I10" s="69">
         <f>'Daily Schedule SUN'!I10:J10</f>
         <v>0</v>
       </c>
-      <c r="J10" s="64"/>
+      <c r="J10" s="70"/>
     </row>
     <row r="11" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="8"/>
@@ -2185,13 +2185,13 @@
       <c r="D11" s="8"/>
       <c r="E11" s="16"/>
       <c r="F11" s="8"/>
-      <c r="G11" s="59"/>
-      <c r="H11" s="60"/>
-      <c r="I11" s="45">
+      <c r="G11" s="49"/>
+      <c r="H11" s="50"/>
+      <c r="I11" s="55">
         <f>'Daily Schedule SUN'!I11:J11</f>
         <v>0</v>
       </c>
-      <c r="J11" s="46"/>
+      <c r="J11" s="56"/>
     </row>
     <row r="12" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="8"/>
@@ -2203,13 +2203,13 @@
       <c r="D12" s="8"/>
       <c r="E12" s="17"/>
       <c r="F12" s="8"/>
-      <c r="G12" s="61"/>
-      <c r="H12" s="62"/>
-      <c r="I12" s="65">
+      <c r="G12" s="51"/>
+      <c r="H12" s="52"/>
+      <c r="I12" s="57">
         <f>'Daily Schedule SUN'!I12:J12</f>
         <v>0</v>
       </c>
-      <c r="J12" s="66"/>
+      <c r="J12" s="58"/>
     </row>
     <row r="13" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="8"/>
@@ -2223,16 +2223,16 @@
       <c r="D13" s="8"/>
       <c r="E13" s="16"/>
       <c r="F13" s="8"/>
-      <c r="G13" s="67">
+      <c r="G13" s="59">
         <f>G7+2</f>
         <v>42885</v>
       </c>
-      <c r="H13" s="68"/>
-      <c r="I13" s="69">
+      <c r="H13" s="60"/>
+      <c r="I13" s="65">
         <f>'Daily Schedule SUN'!I13:J13</f>
         <v>0</v>
       </c>
-      <c r="J13" s="70"/>
+      <c r="J13" s="66"/>
     </row>
     <row r="14" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="8"/>
@@ -2246,13 +2246,13 @@
       <c r="D14" s="8"/>
       <c r="E14" s="17"/>
       <c r="F14" s="8"/>
-      <c r="G14" s="41"/>
-      <c r="H14" s="42"/>
-      <c r="I14" s="47">
+      <c r="G14" s="61"/>
+      <c r="H14" s="62"/>
+      <c r="I14" s="53">
         <f>'Daily Schedule SUN'!I14:J14</f>
         <v>0</v>
       </c>
-      <c r="J14" s="48"/>
+      <c r="J14" s="54"/>
     </row>
     <row r="15" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="8"/>
@@ -2268,13 +2268,13 @@
         <v>28</v>
       </c>
       <c r="F15" s="8"/>
-      <c r="G15" s="43"/>
-      <c r="H15" s="44"/>
-      <c r="I15" s="49">
+      <c r="G15" s="63"/>
+      <c r="H15" s="64"/>
+      <c r="I15" s="67">
         <f>'Daily Schedule SUN'!I15:J15</f>
         <v>0</v>
       </c>
-      <c r="J15" s="50"/>
+      <c r="J15" s="68"/>
     </row>
     <row r="16" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="8"/>
@@ -2288,16 +2288,16 @@
       <c r="D16" s="8"/>
       <c r="E16" s="17"/>
       <c r="F16" s="8"/>
-      <c r="G16" s="57">
+      <c r="G16" s="47">
         <f>G7+3</f>
         <v>42886</v>
       </c>
-      <c r="H16" s="58"/>
-      <c r="I16" s="63">
+      <c r="H16" s="48"/>
+      <c r="I16" s="69">
         <f>'Daily Schedule SUN'!I16:J16</f>
         <v>0</v>
       </c>
-      <c r="J16" s="64"/>
+      <c r="J16" s="70"/>
     </row>
     <row r="17" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="8"/>
@@ -2311,13 +2311,13 @@
       <c r="D17" s="8"/>
       <c r="E17" s="36"/>
       <c r="F17" s="8"/>
-      <c r="G17" s="59"/>
-      <c r="H17" s="60"/>
-      <c r="I17" s="45">
+      <c r="G17" s="49"/>
+      <c r="H17" s="50"/>
+      <c r="I17" s="55">
         <f>'Daily Schedule SUN'!I17:J17</f>
         <v>0</v>
       </c>
-      <c r="J17" s="46"/>
+      <c r="J17" s="56"/>
     </row>
     <row r="18" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="8"/>
@@ -2333,13 +2333,13 @@
         <v>28</v>
       </c>
       <c r="F18" s="8"/>
-      <c r="G18" s="61"/>
-      <c r="H18" s="62"/>
-      <c r="I18" s="65">
+      <c r="G18" s="51"/>
+      <c r="H18" s="52"/>
+      <c r="I18" s="57">
         <f>'Daily Schedule SUN'!I18:J18</f>
         <v>0</v>
       </c>
-      <c r="J18" s="66"/>
+      <c r="J18" s="58"/>
     </row>
     <row r="19" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="8"/>
@@ -2353,16 +2353,16 @@
       <c r="D19" s="8"/>
       <c r="E19" s="36"/>
       <c r="F19" s="8"/>
-      <c r="G19" s="67">
+      <c r="G19" s="59">
         <f>G7+4</f>
         <v>42887</v>
       </c>
-      <c r="H19" s="68"/>
-      <c r="I19" s="69">
+      <c r="H19" s="60"/>
+      <c r="I19" s="65">
         <f>'Daily Schedule SUN'!I19:J19</f>
         <v>0</v>
       </c>
-      <c r="J19" s="70"/>
+      <c r="J19" s="66"/>
     </row>
     <row r="20" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="8"/>
@@ -2376,13 +2376,13 @@
       <c r="D20" s="8"/>
       <c r="E20" s="17"/>
       <c r="F20" s="8"/>
-      <c r="G20" s="41"/>
-      <c r="H20" s="42"/>
-      <c r="I20" s="47">
+      <c r="G20" s="61"/>
+      <c r="H20" s="62"/>
+      <c r="I20" s="53">
         <f>'Daily Schedule SUN'!I20:J20</f>
         <v>0</v>
       </c>
-      <c r="J20" s="48"/>
+      <c r="J20" s="54"/>
     </row>
     <row r="21" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="8"/>
@@ -2396,13 +2396,13 @@
       <c r="D21" s="8"/>
       <c r="E21" s="16"/>
       <c r="F21" s="8"/>
-      <c r="G21" s="43"/>
-      <c r="H21" s="44"/>
-      <c r="I21" s="49">
+      <c r="G21" s="63"/>
+      <c r="H21" s="64"/>
+      <c r="I21" s="67">
         <f>'Daily Schedule SUN'!I21:J21</f>
         <v>0</v>
       </c>
-      <c r="J21" s="50"/>
+      <c r="J21" s="68"/>
     </row>
     <row r="22" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="8"/>
@@ -2416,16 +2416,16 @@
       <c r="D22" s="8"/>
       <c r="E22" s="17"/>
       <c r="F22" s="8"/>
-      <c r="G22" s="57">
+      <c r="G22" s="47">
         <f>G7+5</f>
         <v>42888</v>
       </c>
-      <c r="H22" s="58"/>
-      <c r="I22" s="63">
+      <c r="H22" s="48"/>
+      <c r="I22" s="69">
         <f>'Daily Schedule SUN'!I22:J22</f>
         <v>0</v>
       </c>
-      <c r="J22" s="64"/>
+      <c r="J22" s="70"/>
     </row>
     <row r="23" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="8"/>
@@ -2439,13 +2439,13 @@
       <c r="D23" s="8"/>
       <c r="E23" s="16"/>
       <c r="F23" s="8"/>
-      <c r="G23" s="59"/>
-      <c r="H23" s="60"/>
-      <c r="I23" s="45">
+      <c r="G23" s="49"/>
+      <c r="H23" s="50"/>
+      <c r="I23" s="55">
         <f>'Daily Schedule SUN'!I23:J23</f>
         <v>0</v>
       </c>
-      <c r="J23" s="46"/>
+      <c r="J23" s="56"/>
     </row>
     <row r="24" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="8"/>
@@ -2459,13 +2459,13 @@
       <c r="D24" s="8"/>
       <c r="E24" s="17"/>
       <c r="F24" s="8"/>
-      <c r="G24" s="61"/>
-      <c r="H24" s="62"/>
-      <c r="I24" s="65">
+      <c r="G24" s="51"/>
+      <c r="H24" s="52"/>
+      <c r="I24" s="57">
         <f>'Daily Schedule SUN'!I24:J24</f>
         <v>0</v>
       </c>
-      <c r="J24" s="66"/>
+      <c r="J24" s="58"/>
     </row>
     <row r="25" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="8"/>
@@ -2479,16 +2479,16 @@
       <c r="D25" s="8"/>
       <c r="E25" s="16"/>
       <c r="F25" s="8"/>
-      <c r="G25" s="67">
+      <c r="G25" s="59">
         <f>G7+6</f>
         <v>42889</v>
       </c>
-      <c r="H25" s="68"/>
-      <c r="I25" s="69">
+      <c r="H25" s="60"/>
+      <c r="I25" s="65">
         <f>'Daily Schedule SUN'!I25:J25</f>
         <v>0</v>
       </c>
-      <c r="J25" s="70"/>
+      <c r="J25" s="66"/>
     </row>
     <row r="26" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="8"/>
@@ -2504,13 +2504,13 @@
         <v>34</v>
       </c>
       <c r="F26" s="8"/>
-      <c r="G26" s="41"/>
-      <c r="H26" s="42"/>
-      <c r="I26" s="47">
+      <c r="G26" s="61"/>
+      <c r="H26" s="62"/>
+      <c r="I26" s="53">
         <f>'Daily Schedule SUN'!I26:J26</f>
         <v>0</v>
       </c>
-      <c r="J26" s="48"/>
+      <c r="J26" s="54"/>
     </row>
     <row r="27" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="8"/>
@@ -2522,13 +2522,13 @@
       <c r="D27" s="8"/>
       <c r="E27" s="36"/>
       <c r="F27" s="8"/>
-      <c r="G27" s="43"/>
-      <c r="H27" s="44"/>
-      <c r="I27" s="49">
+      <c r="G27" s="63"/>
+      <c r="H27" s="64"/>
+      <c r="I27" s="67">
         <f>'Daily Schedule SUN'!I27:J27</f>
         <v>0</v>
       </c>
-      <c r="J27" s="50"/>
+      <c r="J27" s="68"/>
     </row>
     <row r="28" spans="1:10" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A28" s="8"/>
@@ -2555,12 +2555,12 @@
       <c r="D29" s="8"/>
       <c r="E29" s="16"/>
       <c r="F29" s="8"/>
-      <c r="G29" s="71" t="s">
+      <c r="G29" s="38" t="s">
         <v>26</v>
       </c>
-      <c r="H29" s="72"/>
-      <c r="I29" s="72"/>
-      <c r="J29" s="73"/>
+      <c r="H29" s="39"/>
+      <c r="I29" s="39"/>
+      <c r="J29" s="40"/>
     </row>
     <row r="30" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30" s="8"/>
@@ -2572,10 +2572,10 @@
       <c r="D30" s="8"/>
       <c r="E30" s="17"/>
       <c r="F30" s="8"/>
-      <c r="G30" s="74"/>
-      <c r="H30" s="75"/>
-      <c r="I30" s="75"/>
-      <c r="J30" s="76"/>
+      <c r="G30" s="41"/>
+      <c r="H30" s="42"/>
+      <c r="I30" s="42"/>
+      <c r="J30" s="43"/>
     </row>
     <row r="31" spans="1:10" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A31" s="8"/>
@@ -2587,10 +2587,10 @@
       <c r="D31" s="8"/>
       <c r="E31" s="36"/>
       <c r="F31" s="8"/>
-      <c r="G31" s="77"/>
-      <c r="H31" s="78"/>
-      <c r="I31" s="78"/>
-      <c r="J31" s="79"/>
+      <c r="G31" s="44"/>
+      <c r="H31" s="45"/>
+      <c r="I31" s="45"/>
+      <c r="J31" s="46"/>
     </row>
     <row r="32" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A32" s="8"/>
@@ -2714,6 +2714,23 @@
     </row>
   </sheetData>
   <mergeCells count="33">
+    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="I13:J13"/>
+    <mergeCell ref="I14:J14"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="I8:J8"/>
+    <mergeCell ref="I9:J9"/>
+    <mergeCell ref="I25:J25"/>
+    <mergeCell ref="I16:J16"/>
+    <mergeCell ref="I17:J17"/>
+    <mergeCell ref="I18:J18"/>
+    <mergeCell ref="I19:J19"/>
+    <mergeCell ref="I20:J20"/>
     <mergeCell ref="G29:J31"/>
     <mergeCell ref="I26:J26"/>
     <mergeCell ref="I27:J27"/>
@@ -2730,23 +2747,6 @@
     <mergeCell ref="I22:J22"/>
     <mergeCell ref="I23:J23"/>
     <mergeCell ref="I24:J24"/>
-    <mergeCell ref="I25:J25"/>
-    <mergeCell ref="I16:J16"/>
-    <mergeCell ref="I17:J17"/>
-    <mergeCell ref="I18:J18"/>
-    <mergeCell ref="I19:J19"/>
-    <mergeCell ref="I20:J20"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="I7:J7"/>
-    <mergeCell ref="I8:J8"/>
-    <mergeCell ref="I9:J9"/>
-    <mergeCell ref="I15:J15"/>
-    <mergeCell ref="I10:J10"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="I12:J12"/>
-    <mergeCell ref="I13:J13"/>
-    <mergeCell ref="I14:J14"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="G29" r:id="rId1"/>
@@ -2828,10 +2828,10 @@
     </row>
     <row r="2" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.65">
       <c r="A2" s="8"/>
-      <c r="B2" s="38" t="s">
+      <c r="B2" s="71" t="s">
         <v>25</v>
       </c>
-      <c r="C2" s="38"/>
+      <c r="C2" s="71"/>
       <c r="D2" s="9"/>
       <c r="E2" s="12" t="s">
         <v>13</v>
@@ -2848,8 +2848,8 @@
     </row>
     <row r="3" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.65">
       <c r="A3" s="8"/>
-      <c r="B3" s="38"/>
-      <c r="C3" s="38"/>
+      <c r="B3" s="71"/>
+      <c r="C3" s="71"/>
       <c r="D3" s="9"/>
       <c r="E3" s="13">
         <f>'Daily Schedule SUN'!E3</f>
@@ -2882,38 +2882,38 @@
     </row>
     <row r="5" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="8"/>
-      <c r="B5" s="39" t="s">
+      <c r="B5" s="72" t="s">
         <v>0</v>
       </c>
       <c r="C5" s="23" t="s">
         <v>18</v>
       </c>
       <c r="D5" s="8"/>
-      <c r="E5" s="40" t="s">
+      <c r="E5" s="73" t="s">
         <v>14</v>
       </c>
       <c r="F5" s="8"/>
-      <c r="G5" s="81" t="s">
+      <c r="G5" s="80" t="s">
         <v>15</v>
       </c>
-      <c r="H5" s="82"/>
-      <c r="I5" s="81"/>
-      <c r="J5" s="81"/>
+      <c r="H5" s="81"/>
+      <c r="I5" s="80"/>
+      <c r="J5" s="80"/>
     </row>
     <row r="6" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="8"/>
-      <c r="B6" s="39"/>
+      <c r="B6" s="72"/>
       <c r="C6" s="24">
         <f>E3+2</f>
         <v>42885</v>
       </c>
       <c r="D6" s="8"/>
-      <c r="E6" s="40"/>
+      <c r="E6" s="73"/>
       <c r="F6" s="8"/>
-      <c r="G6" s="81"/>
-      <c r="H6" s="81"/>
-      <c r="I6" s="81"/>
-      <c r="J6" s="81"/>
+      <c r="G6" s="80"/>
+      <c r="H6" s="80"/>
+      <c r="I6" s="80"/>
+      <c r="J6" s="80"/>
     </row>
     <row r="7" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="8"/>
@@ -2925,16 +2925,16 @@
       <c r="D7" s="8"/>
       <c r="E7" s="16"/>
       <c r="F7" s="8"/>
-      <c r="G7" s="67">
+      <c r="G7" s="59">
         <f>E3</f>
         <v>42883</v>
       </c>
-      <c r="H7" s="68"/>
-      <c r="I7" s="69">
+      <c r="H7" s="60"/>
+      <c r="I7" s="65">
         <f>'Daily Schedule SUN'!I7:J7</f>
         <v>0</v>
       </c>
-      <c r="J7" s="70"/>
+      <c r="J7" s="66"/>
     </row>
     <row r="8" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="8"/>
@@ -2946,13 +2946,13 @@
       <c r="D8" s="8"/>
       <c r="E8" s="17"/>
       <c r="F8" s="8"/>
-      <c r="G8" s="41"/>
-      <c r="H8" s="42"/>
-      <c r="I8" s="47">
+      <c r="G8" s="61"/>
+      <c r="H8" s="62"/>
+      <c r="I8" s="53">
         <f>'Daily Schedule SUN'!I8:J8</f>
         <v>0</v>
       </c>
-      <c r="J8" s="48"/>
+      <c r="J8" s="54"/>
     </row>
     <row r="9" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="8"/>
@@ -2964,13 +2964,13 @@
       <c r="D9" s="8"/>
       <c r="E9" s="16"/>
       <c r="F9" s="8"/>
-      <c r="G9" s="43"/>
-      <c r="H9" s="44"/>
-      <c r="I9" s="49">
+      <c r="G9" s="63"/>
+      <c r="H9" s="64"/>
+      <c r="I9" s="67">
         <f>'Daily Schedule SUN'!I9:J9</f>
         <v>0</v>
       </c>
-      <c r="J9" s="50"/>
+      <c r="J9" s="68"/>
     </row>
     <row r="10" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="8"/>
@@ -2982,16 +2982,16 @@
       <c r="D10" s="8"/>
       <c r="E10" s="17"/>
       <c r="F10" s="8"/>
-      <c r="G10" s="57">
+      <c r="G10" s="47">
         <f>G7+1</f>
         <v>42884</v>
       </c>
-      <c r="H10" s="58"/>
-      <c r="I10" s="63">
+      <c r="H10" s="48"/>
+      <c r="I10" s="69">
         <f>'Daily Schedule SUN'!I10:J10</f>
         <v>0</v>
       </c>
-      <c r="J10" s="64"/>
+      <c r="J10" s="70"/>
     </row>
     <row r="11" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="8"/>
@@ -3003,13 +3003,13 @@
       <c r="D11" s="8"/>
       <c r="E11" s="16"/>
       <c r="F11" s="8"/>
-      <c r="G11" s="59"/>
-      <c r="H11" s="60"/>
-      <c r="I11" s="45">
+      <c r="G11" s="49"/>
+      <c r="H11" s="50"/>
+      <c r="I11" s="55">
         <f>'Daily Schedule SUN'!I11:J11</f>
         <v>0</v>
       </c>
-      <c r="J11" s="46"/>
+      <c r="J11" s="56"/>
     </row>
     <row r="12" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="8"/>
@@ -3021,13 +3021,13 @@
       <c r="D12" s="8"/>
       <c r="E12" s="17"/>
       <c r="F12" s="8"/>
-      <c r="G12" s="61"/>
-      <c r="H12" s="62"/>
-      <c r="I12" s="65">
+      <c r="G12" s="51"/>
+      <c r="H12" s="52"/>
+      <c r="I12" s="57">
         <f>'Daily Schedule SUN'!I12:J12</f>
         <v>0</v>
       </c>
-      <c r="J12" s="66"/>
+      <c r="J12" s="58"/>
     </row>
     <row r="13" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="8"/>
@@ -3039,16 +3039,16 @@
       <c r="D13" s="8"/>
       <c r="E13" s="16"/>
       <c r="F13" s="8"/>
-      <c r="G13" s="67">
+      <c r="G13" s="59">
         <f>G7+2</f>
         <v>42885</v>
       </c>
-      <c r="H13" s="68"/>
-      <c r="I13" s="69">
+      <c r="H13" s="60"/>
+      <c r="I13" s="65">
         <f>'Daily Schedule SUN'!I13:J13</f>
         <v>0</v>
       </c>
-      <c r="J13" s="70"/>
+      <c r="J13" s="66"/>
     </row>
     <row r="14" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="8"/>
@@ -3060,13 +3060,13 @@
       <c r="D14" s="8"/>
       <c r="E14" s="17"/>
       <c r="F14" s="8"/>
-      <c r="G14" s="41"/>
-      <c r="H14" s="42"/>
-      <c r="I14" s="47">
+      <c r="G14" s="61"/>
+      <c r="H14" s="62"/>
+      <c r="I14" s="53">
         <f>'Daily Schedule SUN'!I14:J14</f>
         <v>0</v>
       </c>
-      <c r="J14" s="48"/>
+      <c r="J14" s="54"/>
     </row>
     <row r="15" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="8"/>
@@ -3080,13 +3080,13 @@
       <c r="D15" s="8"/>
       <c r="E15" s="16"/>
       <c r="F15" s="8"/>
-      <c r="G15" s="43"/>
-      <c r="H15" s="44"/>
-      <c r="I15" s="49">
+      <c r="G15" s="63"/>
+      <c r="H15" s="64"/>
+      <c r="I15" s="67">
         <f>'Daily Schedule SUN'!I15:J15</f>
         <v>0</v>
       </c>
-      <c r="J15" s="50"/>
+      <c r="J15" s="68"/>
     </row>
     <row r="16" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="8"/>
@@ -3102,16 +3102,16 @@
         <v>28</v>
       </c>
       <c r="F16" s="8"/>
-      <c r="G16" s="57">
+      <c r="G16" s="47">
         <f>G7+3</f>
         <v>42886</v>
       </c>
-      <c r="H16" s="58"/>
-      <c r="I16" s="63">
+      <c r="H16" s="48"/>
+      <c r="I16" s="69">
         <f>'Daily Schedule SUN'!I16:J16</f>
         <v>0</v>
       </c>
-      <c r="J16" s="64"/>
+      <c r="J16" s="70"/>
     </row>
     <row r="17" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="8"/>
@@ -3125,13 +3125,13 @@
       <c r="D17" s="8"/>
       <c r="E17" s="16"/>
       <c r="F17" s="8"/>
-      <c r="G17" s="59"/>
-      <c r="H17" s="60"/>
-      <c r="I17" s="45">
+      <c r="G17" s="49"/>
+      <c r="H17" s="50"/>
+      <c r="I17" s="55">
         <f>'Daily Schedule SUN'!I17:J17</f>
         <v>0</v>
       </c>
-      <c r="J17" s="46"/>
+      <c r="J17" s="56"/>
     </row>
     <row r="18" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="8"/>
@@ -3147,13 +3147,13 @@
         <v>28</v>
       </c>
       <c r="F18" s="8"/>
-      <c r="G18" s="61"/>
-      <c r="H18" s="62"/>
-      <c r="I18" s="65">
+      <c r="G18" s="51"/>
+      <c r="H18" s="52"/>
+      <c r="I18" s="57">
         <f>'Daily Schedule SUN'!I18:J18</f>
         <v>0</v>
       </c>
-      <c r="J18" s="66"/>
+      <c r="J18" s="58"/>
     </row>
     <row r="19" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="8"/>
@@ -3167,16 +3167,16 @@
       <c r="D19" s="8"/>
       <c r="E19" s="16"/>
       <c r="F19" s="8"/>
-      <c r="G19" s="67">
+      <c r="G19" s="59">
         <f>G7+4</f>
         <v>42887</v>
       </c>
-      <c r="H19" s="68"/>
-      <c r="I19" s="69">
+      <c r="H19" s="60"/>
+      <c r="I19" s="65">
         <f>'Daily Schedule SUN'!I19:J19</f>
         <v>0</v>
       </c>
-      <c r="J19" s="70"/>
+      <c r="J19" s="66"/>
     </row>
     <row r="20" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="8"/>
@@ -3190,13 +3190,13 @@
       <c r="D20" s="8"/>
       <c r="E20" s="17"/>
       <c r="F20" s="8"/>
-      <c r="G20" s="41"/>
-      <c r="H20" s="42"/>
-      <c r="I20" s="47">
+      <c r="G20" s="61"/>
+      <c r="H20" s="62"/>
+      <c r="I20" s="53">
         <f>'Daily Schedule SUN'!I20:J20</f>
         <v>0</v>
       </c>
-      <c r="J20" s="48"/>
+      <c r="J20" s="54"/>
     </row>
     <row r="21" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="8"/>
@@ -3210,13 +3210,13 @@
       <c r="D21" s="8"/>
       <c r="E21" s="16"/>
       <c r="F21" s="8"/>
-      <c r="G21" s="43"/>
-      <c r="H21" s="44"/>
-      <c r="I21" s="49">
+      <c r="G21" s="63"/>
+      <c r="H21" s="64"/>
+      <c r="I21" s="67">
         <f>'Daily Schedule SUN'!I21:J21</f>
         <v>0</v>
       </c>
-      <c r="J21" s="50"/>
+      <c r="J21" s="68"/>
     </row>
     <row r="22" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="8"/>
@@ -3230,16 +3230,16 @@
       <c r="D22" s="8"/>
       <c r="E22" s="17"/>
       <c r="F22" s="8"/>
-      <c r="G22" s="57">
+      <c r="G22" s="47">
         <f>G7+5</f>
         <v>42888</v>
       </c>
-      <c r="H22" s="58"/>
-      <c r="I22" s="63">
+      <c r="H22" s="48"/>
+      <c r="I22" s="69">
         <f>'Daily Schedule SUN'!I22:J22</f>
         <v>0</v>
       </c>
-      <c r="J22" s="64"/>
+      <c r="J22" s="70"/>
     </row>
     <row r="23" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="8"/>
@@ -3253,13 +3253,13 @@
       <c r="D23" s="8"/>
       <c r="E23" s="16"/>
       <c r="F23" s="8"/>
-      <c r="G23" s="59"/>
-      <c r="H23" s="60"/>
-      <c r="I23" s="45">
+      <c r="G23" s="49"/>
+      <c r="H23" s="50"/>
+      <c r="I23" s="55">
         <f>'Daily Schedule SUN'!I23:J23</f>
         <v>0</v>
       </c>
-      <c r="J23" s="46"/>
+      <c r="J23" s="56"/>
     </row>
     <row r="24" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="8"/>
@@ -3273,13 +3273,13 @@
       <c r="D24" s="8"/>
       <c r="E24" s="17"/>
       <c r="F24" s="8"/>
-      <c r="G24" s="61"/>
-      <c r="H24" s="62"/>
-      <c r="I24" s="65">
+      <c r="G24" s="51"/>
+      <c r="H24" s="52"/>
+      <c r="I24" s="57">
         <f>'Daily Schedule SUN'!I24:J24</f>
         <v>0</v>
       </c>
-      <c r="J24" s="66"/>
+      <c r="J24" s="58"/>
     </row>
     <row r="25" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="8"/>
@@ -3291,16 +3291,16 @@
       <c r="D25" s="8"/>
       <c r="E25" s="16"/>
       <c r="F25" s="8"/>
-      <c r="G25" s="67">
+      <c r="G25" s="59">
         <f>G7+6</f>
         <v>42889</v>
       </c>
-      <c r="H25" s="68"/>
-      <c r="I25" s="69">
+      <c r="H25" s="60"/>
+      <c r="I25" s="65">
         <f>'Daily Schedule SUN'!I25:J25</f>
         <v>0</v>
       </c>
-      <c r="J25" s="70"/>
+      <c r="J25" s="66"/>
     </row>
     <row r="26" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="8"/>
@@ -3312,13 +3312,13 @@
       <c r="D26" s="8"/>
       <c r="E26" s="17"/>
       <c r="F26" s="8"/>
-      <c r="G26" s="41"/>
-      <c r="H26" s="42"/>
-      <c r="I26" s="47">
+      <c r="G26" s="61"/>
+      <c r="H26" s="62"/>
+      <c r="I26" s="53">
         <f>'Daily Schedule SUN'!I26:J26</f>
         <v>0</v>
       </c>
-      <c r="J26" s="48"/>
+      <c r="J26" s="54"/>
     </row>
     <row r="27" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="8"/>
@@ -3330,13 +3330,13 @@
       <c r="D27" s="8"/>
       <c r="E27" s="16"/>
       <c r="F27" s="8"/>
-      <c r="G27" s="43"/>
-      <c r="H27" s="44"/>
-      <c r="I27" s="49">
+      <c r="G27" s="63"/>
+      <c r="H27" s="64"/>
+      <c r="I27" s="67">
         <f>'Daily Schedule SUN'!I27:J27</f>
         <v>0</v>
       </c>
-      <c r="J27" s="50"/>
+      <c r="J27" s="68"/>
     </row>
     <row r="28" spans="1:10" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A28" s="8"/>
@@ -3363,12 +3363,12 @@
       <c r="D29" s="8"/>
       <c r="E29" s="16"/>
       <c r="F29" s="8"/>
-      <c r="G29" s="71" t="s">
+      <c r="G29" s="38" t="s">
         <v>26</v>
       </c>
-      <c r="H29" s="72"/>
-      <c r="I29" s="72"/>
-      <c r="J29" s="73"/>
+      <c r="H29" s="39"/>
+      <c r="I29" s="39"/>
+      <c r="J29" s="40"/>
     </row>
     <row r="30" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30" s="8"/>
@@ -3380,10 +3380,10 @@
       <c r="D30" s="8"/>
       <c r="E30" s="17"/>
       <c r="F30" s="8"/>
-      <c r="G30" s="74"/>
-      <c r="H30" s="75"/>
-      <c r="I30" s="75"/>
-      <c r="J30" s="76"/>
+      <c r="G30" s="41"/>
+      <c r="H30" s="42"/>
+      <c r="I30" s="42"/>
+      <c r="J30" s="43"/>
     </row>
     <row r="31" spans="1:10" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A31" s="8"/>
@@ -3395,10 +3395,10 @@
       <c r="D31" s="8"/>
       <c r="E31" s="16"/>
       <c r="F31" s="8"/>
-      <c r="G31" s="77"/>
-      <c r="H31" s="78"/>
-      <c r="I31" s="78"/>
-      <c r="J31" s="79"/>
+      <c r="G31" s="44"/>
+      <c r="H31" s="45"/>
+      <c r="I31" s="45"/>
+      <c r="J31" s="46"/>
     </row>
     <row r="32" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A32" s="8"/>
@@ -3522,6 +3522,30 @@
     </row>
   </sheetData>
   <mergeCells count="33">
+    <mergeCell ref="B2:C3"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="G5:J6"/>
+    <mergeCell ref="G7:H9"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="I8:J8"/>
+    <mergeCell ref="I9:J9"/>
+    <mergeCell ref="G10:H12"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="G13:H15"/>
+    <mergeCell ref="I13:J13"/>
+    <mergeCell ref="I14:J14"/>
+    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="G16:H18"/>
+    <mergeCell ref="I16:J16"/>
+    <mergeCell ref="I17:J17"/>
+    <mergeCell ref="I18:J18"/>
+    <mergeCell ref="G19:H21"/>
+    <mergeCell ref="I19:J19"/>
+    <mergeCell ref="I20:J20"/>
+    <mergeCell ref="I21:J21"/>
     <mergeCell ref="G29:J31"/>
     <mergeCell ref="G22:H24"/>
     <mergeCell ref="I22:J22"/>
@@ -3531,30 +3555,6 @@
     <mergeCell ref="I25:J25"/>
     <mergeCell ref="I26:J26"/>
     <mergeCell ref="I27:J27"/>
-    <mergeCell ref="G16:H18"/>
-    <mergeCell ref="I16:J16"/>
-    <mergeCell ref="I17:J17"/>
-    <mergeCell ref="I18:J18"/>
-    <mergeCell ref="G19:H21"/>
-    <mergeCell ref="I19:J19"/>
-    <mergeCell ref="I20:J20"/>
-    <mergeCell ref="I21:J21"/>
-    <mergeCell ref="G10:H12"/>
-    <mergeCell ref="I10:J10"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="I12:J12"/>
-    <mergeCell ref="G13:H15"/>
-    <mergeCell ref="I13:J13"/>
-    <mergeCell ref="I14:J14"/>
-    <mergeCell ref="I15:J15"/>
-    <mergeCell ref="B2:C3"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="G5:J6"/>
-    <mergeCell ref="G7:H9"/>
-    <mergeCell ref="I7:J7"/>
-    <mergeCell ref="I8:J8"/>
-    <mergeCell ref="I9:J9"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="G29" r:id="rId1"/>
@@ -3603,8 +3603,8 @@
   </sheetPr>
   <dimension ref="A1:J39"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A8" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="80" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A23" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="80" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.69140625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -3636,10 +3636,10 @@
     </row>
     <row r="2" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.65">
       <c r="A2" s="8"/>
-      <c r="B2" s="38" t="s">
+      <c r="B2" s="71" t="s">
         <v>25</v>
       </c>
-      <c r="C2" s="38"/>
+      <c r="C2" s="71"/>
       <c r="D2" s="9"/>
       <c r="E2" s="12" t="s">
         <v>13</v>
@@ -3656,8 +3656,8 @@
     </row>
     <row r="3" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.65">
       <c r="A3" s="8"/>
-      <c r="B3" s="38"/>
-      <c r="C3" s="38"/>
+      <c r="B3" s="71"/>
+      <c r="C3" s="71"/>
       <c r="D3" s="9"/>
       <c r="E3" s="13">
         <f>'Daily Schedule SUN'!E3</f>
@@ -3690,38 +3690,38 @@
     </row>
     <row r="5" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="8"/>
-      <c r="B5" s="39" t="s">
+      <c r="B5" s="72" t="s">
         <v>0</v>
       </c>
       <c r="C5" s="23" t="s">
         <v>19</v>
       </c>
       <c r="D5" s="8"/>
-      <c r="E5" s="40" t="s">
+      <c r="E5" s="73" t="s">
         <v>14</v>
       </c>
       <c r="F5" s="8"/>
-      <c r="G5" s="81" t="s">
+      <c r="G5" s="80" t="s">
         <v>15</v>
       </c>
-      <c r="H5" s="82"/>
-      <c r="I5" s="81"/>
-      <c r="J5" s="81"/>
+      <c r="H5" s="81"/>
+      <c r="I5" s="80"/>
+      <c r="J5" s="80"/>
     </row>
     <row r="6" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="8"/>
-      <c r="B6" s="39"/>
+      <c r="B6" s="72"/>
       <c r="C6" s="24">
         <f>E3+3</f>
         <v>42886</v>
       </c>
       <c r="D6" s="8"/>
-      <c r="E6" s="40"/>
+      <c r="E6" s="73"/>
       <c r="F6" s="8"/>
-      <c r="G6" s="81"/>
-      <c r="H6" s="81"/>
-      <c r="I6" s="81"/>
-      <c r="J6" s="81"/>
+      <c r="G6" s="80"/>
+      <c r="H6" s="80"/>
+      <c r="I6" s="80"/>
+      <c r="J6" s="80"/>
     </row>
     <row r="7" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="8"/>
@@ -3733,16 +3733,16 @@
       <c r="D7" s="8"/>
       <c r="E7" s="16"/>
       <c r="F7" s="8"/>
-      <c r="G7" s="67">
+      <c r="G7" s="59">
         <f>E3</f>
         <v>42883</v>
       </c>
-      <c r="H7" s="68"/>
-      <c r="I7" s="69">
+      <c r="H7" s="60"/>
+      <c r="I7" s="65">
         <f>'Daily Schedule SUN'!I7:J7</f>
         <v>0</v>
       </c>
-      <c r="J7" s="70"/>
+      <c r="J7" s="66"/>
     </row>
     <row r="8" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="8"/>
@@ -3754,13 +3754,13 @@
       <c r="D8" s="8"/>
       <c r="E8" s="17"/>
       <c r="F8" s="8"/>
-      <c r="G8" s="41"/>
-      <c r="H8" s="42"/>
-      <c r="I8" s="47">
+      <c r="G8" s="61"/>
+      <c r="H8" s="62"/>
+      <c r="I8" s="53">
         <f>'Daily Schedule SUN'!I8:J8</f>
         <v>0</v>
       </c>
-      <c r="J8" s="48"/>
+      <c r="J8" s="54"/>
     </row>
     <row r="9" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="8"/>
@@ -3772,13 +3772,13 @@
       <c r="D9" s="8"/>
       <c r="E9" s="16"/>
       <c r="F9" s="8"/>
-      <c r="G9" s="43"/>
-      <c r="H9" s="44"/>
-      <c r="I9" s="49">
+      <c r="G9" s="63"/>
+      <c r="H9" s="64"/>
+      <c r="I9" s="67">
         <f>'Daily Schedule SUN'!I9:J9</f>
         <v>0</v>
       </c>
-      <c r="J9" s="50"/>
+      <c r="J9" s="68"/>
     </row>
     <row r="10" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="8"/>
@@ -3790,16 +3790,16 @@
       <c r="D10" s="8"/>
       <c r="E10" s="17"/>
       <c r="F10" s="8"/>
-      <c r="G10" s="57">
+      <c r="G10" s="47">
         <f>G7+1</f>
         <v>42884</v>
       </c>
-      <c r="H10" s="58"/>
-      <c r="I10" s="63">
+      <c r="H10" s="48"/>
+      <c r="I10" s="69">
         <f>'Daily Schedule SUN'!I10:J10</f>
         <v>0</v>
       </c>
-      <c r="J10" s="64"/>
+      <c r="J10" s="70"/>
     </row>
     <row r="11" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="8"/>
@@ -3811,13 +3811,13 @@
       <c r="D11" s="8"/>
       <c r="E11" s="16"/>
       <c r="F11" s="8"/>
-      <c r="G11" s="59"/>
-      <c r="H11" s="60"/>
-      <c r="I11" s="45">
+      <c r="G11" s="49"/>
+      <c r="H11" s="50"/>
+      <c r="I11" s="55">
         <f>'Daily Schedule SUN'!I11:J11</f>
         <v>0</v>
       </c>
-      <c r="J11" s="46"/>
+      <c r="J11" s="56"/>
     </row>
     <row r="12" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="8"/>
@@ -3829,13 +3829,13 @@
       <c r="D12" s="8"/>
       <c r="E12" s="17"/>
       <c r="F12" s="8"/>
-      <c r="G12" s="61"/>
-      <c r="H12" s="62"/>
-      <c r="I12" s="65">
+      <c r="G12" s="51"/>
+      <c r="H12" s="52"/>
+      <c r="I12" s="57">
         <f>'Daily Schedule SUN'!I12:J12</f>
         <v>0</v>
       </c>
-      <c r="J12" s="66"/>
+      <c r="J12" s="58"/>
     </row>
     <row r="13" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="8"/>
@@ -3849,16 +3849,16 @@
       <c r="D13" s="8"/>
       <c r="E13" s="16"/>
       <c r="F13" s="8"/>
-      <c r="G13" s="67">
+      <c r="G13" s="59">
         <f>G7+2</f>
         <v>42885</v>
       </c>
-      <c r="H13" s="68"/>
-      <c r="I13" s="69">
+      <c r="H13" s="60"/>
+      <c r="I13" s="65">
         <f>'Daily Schedule SUN'!I13:J13</f>
         <v>0</v>
       </c>
-      <c r="J13" s="70"/>
+      <c r="J13" s="66"/>
     </row>
     <row r="14" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="8"/>
@@ -3872,13 +3872,13 @@
       <c r="D14" s="8"/>
       <c r="E14" s="17"/>
       <c r="F14" s="8"/>
-      <c r="G14" s="41"/>
-      <c r="H14" s="42"/>
-      <c r="I14" s="47">
+      <c r="G14" s="61"/>
+      <c r="H14" s="62"/>
+      <c r="I14" s="53">
         <f>'Daily Schedule SUN'!I14:J14</f>
         <v>0</v>
       </c>
-      <c r="J14" s="48"/>
+      <c r="J14" s="54"/>
     </row>
     <row r="15" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="8"/>
@@ -3890,15 +3890,17 @@
         <v>38</v>
       </c>
       <c r="D15" s="8"/>
-      <c r="E15" s="16"/>
+      <c r="E15" s="16" t="s">
+        <v>28</v>
+      </c>
       <c r="F15" s="8"/>
-      <c r="G15" s="43"/>
-      <c r="H15" s="44"/>
-      <c r="I15" s="49">
+      <c r="G15" s="63"/>
+      <c r="H15" s="64"/>
+      <c r="I15" s="67">
         <f>'Daily Schedule SUN'!I15:J15</f>
         <v>0</v>
       </c>
-      <c r="J15" s="50"/>
+      <c r="J15" s="68"/>
     </row>
     <row r="16" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="8"/>
@@ -3912,16 +3914,16 @@
       <c r="D16" s="8"/>
       <c r="E16" s="17"/>
       <c r="F16" s="8"/>
-      <c r="G16" s="57">
+      <c r="G16" s="47">
         <f>G7+3</f>
         <v>42886</v>
       </c>
-      <c r="H16" s="58"/>
-      <c r="I16" s="63">
+      <c r="H16" s="48"/>
+      <c r="I16" s="69">
         <f>'Daily Schedule SUN'!I16:J16</f>
         <v>0</v>
       </c>
-      <c r="J16" s="64"/>
+      <c r="J16" s="70"/>
     </row>
     <row r="17" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="8"/>
@@ -3935,13 +3937,13 @@
       <c r="D17" s="8"/>
       <c r="E17" s="16"/>
       <c r="F17" s="8"/>
-      <c r="G17" s="59"/>
-      <c r="H17" s="60"/>
-      <c r="I17" s="45">
+      <c r="G17" s="49"/>
+      <c r="H17" s="50"/>
+      <c r="I17" s="55">
         <f>'Daily Schedule SUN'!I17:J17</f>
         <v>0</v>
       </c>
-      <c r="J17" s="46"/>
+      <c r="J17" s="56"/>
     </row>
     <row r="18" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="8"/>
@@ -3955,13 +3957,13 @@
       <c r="D18" s="8"/>
       <c r="E18" s="17"/>
       <c r="F18" s="8"/>
-      <c r="G18" s="61"/>
-      <c r="H18" s="62"/>
-      <c r="I18" s="65">
+      <c r="G18" s="51"/>
+      <c r="H18" s="52"/>
+      <c r="I18" s="57">
         <f>'Daily Schedule SUN'!I18:J18</f>
         <v>0</v>
       </c>
-      <c r="J18" s="66"/>
+      <c r="J18" s="58"/>
     </row>
     <row r="19" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="8"/>
@@ -3975,16 +3977,16 @@
       <c r="D19" s="8"/>
       <c r="E19" s="16"/>
       <c r="F19" s="8"/>
-      <c r="G19" s="67">
+      <c r="G19" s="59">
         <f>G7+4</f>
         <v>42887</v>
       </c>
-      <c r="H19" s="68"/>
-      <c r="I19" s="69">
+      <c r="H19" s="60"/>
+      <c r="I19" s="65">
         <f>'Daily Schedule SUN'!I19:J19</f>
         <v>0</v>
       </c>
-      <c r="J19" s="70"/>
+      <c r="J19" s="66"/>
     </row>
     <row r="20" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="8"/>
@@ -3996,13 +3998,13 @@
       <c r="D20" s="8"/>
       <c r="E20" s="17"/>
       <c r="F20" s="8"/>
-      <c r="G20" s="41"/>
-      <c r="H20" s="42"/>
-      <c r="I20" s="47">
+      <c r="G20" s="61"/>
+      <c r="H20" s="62"/>
+      <c r="I20" s="53">
         <f>'Daily Schedule SUN'!I20:J20</f>
         <v>0</v>
       </c>
-      <c r="J20" s="48"/>
+      <c r="J20" s="54"/>
     </row>
     <row r="21" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="8"/>
@@ -4014,13 +4016,13 @@
       <c r="D21" s="8"/>
       <c r="E21" s="16"/>
       <c r="F21" s="8"/>
-      <c r="G21" s="43"/>
-      <c r="H21" s="44"/>
-      <c r="I21" s="49">
+      <c r="G21" s="63"/>
+      <c r="H21" s="64"/>
+      <c r="I21" s="67">
         <f>'Daily Schedule SUN'!I21:J21</f>
         <v>0</v>
       </c>
-      <c r="J21" s="50"/>
+      <c r="J21" s="68"/>
     </row>
     <row r="22" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="8"/>
@@ -4032,16 +4034,16 @@
       <c r="D22" s="8"/>
       <c r="E22" s="17"/>
       <c r="F22" s="8"/>
-      <c r="G22" s="57">
+      <c r="G22" s="47">
         <f>G7+5</f>
         <v>42888</v>
       </c>
-      <c r="H22" s="58"/>
-      <c r="I22" s="63">
+      <c r="H22" s="48"/>
+      <c r="I22" s="69">
         <f>'Daily Schedule SUN'!I22:J22</f>
         <v>0</v>
       </c>
-      <c r="J22" s="64"/>
+      <c r="J22" s="70"/>
     </row>
     <row r="23" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="8"/>
@@ -4053,13 +4055,13 @@
       <c r="D23" s="8"/>
       <c r="E23" s="16"/>
       <c r="F23" s="8"/>
-      <c r="G23" s="59"/>
-      <c r="H23" s="60"/>
-      <c r="I23" s="45">
+      <c r="G23" s="49"/>
+      <c r="H23" s="50"/>
+      <c r="I23" s="55">
         <f>'Daily Schedule SUN'!I23:J23</f>
         <v>0</v>
       </c>
-      <c r="J23" s="46"/>
+      <c r="J23" s="56"/>
     </row>
     <row r="24" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="8"/>
@@ -4071,13 +4073,13 @@
       <c r="D24" s="8"/>
       <c r="E24" s="37"/>
       <c r="F24" s="8"/>
-      <c r="G24" s="61"/>
-      <c r="H24" s="62"/>
-      <c r="I24" s="65">
+      <c r="G24" s="51"/>
+      <c r="H24" s="52"/>
+      <c r="I24" s="57">
         <f>'Daily Schedule SUN'!I24:J24</f>
         <v>0</v>
       </c>
-      <c r="J24" s="66"/>
+      <c r="J24" s="58"/>
     </row>
     <row r="25" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="8"/>
@@ -4089,16 +4091,16 @@
       <c r="D25" s="8"/>
       <c r="E25" s="16"/>
       <c r="F25" s="8"/>
-      <c r="G25" s="67">
+      <c r="G25" s="59">
         <f>G7+6</f>
         <v>42889</v>
       </c>
-      <c r="H25" s="68"/>
-      <c r="I25" s="69">
+      <c r="H25" s="60"/>
+      <c r="I25" s="65">
         <f>'Daily Schedule SUN'!I25:J25</f>
         <v>0</v>
       </c>
-      <c r="J25" s="70"/>
+      <c r="J25" s="66"/>
     </row>
     <row r="26" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="8"/>
@@ -4110,13 +4112,13 @@
       <c r="D26" s="8"/>
       <c r="E26" s="17"/>
       <c r="F26" s="8"/>
-      <c r="G26" s="41"/>
-      <c r="H26" s="42"/>
-      <c r="I26" s="47">
+      <c r="G26" s="61"/>
+      <c r="H26" s="62"/>
+      <c r="I26" s="53">
         <f>'Daily Schedule SUN'!I26:J26</f>
         <v>0</v>
       </c>
-      <c r="J26" s="48"/>
+      <c r="J26" s="54"/>
     </row>
     <row r="27" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="8"/>
@@ -4128,13 +4130,13 @@
       <c r="D27" s="8"/>
       <c r="E27" s="16"/>
       <c r="F27" s="8"/>
-      <c r="G27" s="43"/>
-      <c r="H27" s="44"/>
-      <c r="I27" s="49">
+      <c r="G27" s="63"/>
+      <c r="H27" s="64"/>
+      <c r="I27" s="67">
         <f>'Daily Schedule SUN'!I27:J27</f>
         <v>0</v>
       </c>
-      <c r="J27" s="50"/>
+      <c r="J27" s="68"/>
     </row>
     <row r="28" spans="1:10" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A28" s="8"/>
@@ -4161,12 +4163,12 @@
       <c r="D29" s="8"/>
       <c r="E29" s="16"/>
       <c r="F29" s="8"/>
-      <c r="G29" s="71" t="s">
+      <c r="G29" s="38" t="s">
         <v>26</v>
       </c>
-      <c r="H29" s="72"/>
-      <c r="I29" s="72"/>
-      <c r="J29" s="73"/>
+      <c r="H29" s="39"/>
+      <c r="I29" s="39"/>
+      <c r="J29" s="40"/>
     </row>
     <row r="30" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30" s="8"/>
@@ -4178,10 +4180,10 @@
       <c r="D30" s="8"/>
       <c r="E30" s="17"/>
       <c r="F30" s="8"/>
-      <c r="G30" s="74"/>
-      <c r="H30" s="75"/>
-      <c r="I30" s="75"/>
-      <c r="J30" s="76"/>
+      <c r="G30" s="41"/>
+      <c r="H30" s="42"/>
+      <c r="I30" s="42"/>
+      <c r="J30" s="43"/>
     </row>
     <row r="31" spans="1:10" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A31" s="8"/>
@@ -4193,10 +4195,10 @@
       <c r="D31" s="8"/>
       <c r="E31" s="16"/>
       <c r="F31" s="8"/>
-      <c r="G31" s="77"/>
-      <c r="H31" s="78"/>
-      <c r="I31" s="78"/>
-      <c r="J31" s="79"/>
+      <c r="G31" s="44"/>
+      <c r="H31" s="45"/>
+      <c r="I31" s="45"/>
+      <c r="J31" s="46"/>
     </row>
     <row r="32" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A32" s="8"/>
@@ -4320,6 +4322,30 @@
     </row>
   </sheetData>
   <mergeCells count="33">
+    <mergeCell ref="B2:C3"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="G5:J6"/>
+    <mergeCell ref="G7:H9"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="I8:J8"/>
+    <mergeCell ref="I9:J9"/>
+    <mergeCell ref="G10:H12"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="G13:H15"/>
+    <mergeCell ref="I13:J13"/>
+    <mergeCell ref="I14:J14"/>
+    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="G16:H18"/>
+    <mergeCell ref="I16:J16"/>
+    <mergeCell ref="I17:J17"/>
+    <mergeCell ref="I18:J18"/>
+    <mergeCell ref="G19:H21"/>
+    <mergeCell ref="I19:J19"/>
+    <mergeCell ref="I20:J20"/>
+    <mergeCell ref="I21:J21"/>
     <mergeCell ref="G29:J31"/>
     <mergeCell ref="G22:H24"/>
     <mergeCell ref="I22:J22"/>
@@ -4329,30 +4355,6 @@
     <mergeCell ref="I25:J25"/>
     <mergeCell ref="I26:J26"/>
     <mergeCell ref="I27:J27"/>
-    <mergeCell ref="G16:H18"/>
-    <mergeCell ref="I16:J16"/>
-    <mergeCell ref="I17:J17"/>
-    <mergeCell ref="I18:J18"/>
-    <mergeCell ref="G19:H21"/>
-    <mergeCell ref="I19:J19"/>
-    <mergeCell ref="I20:J20"/>
-    <mergeCell ref="I21:J21"/>
-    <mergeCell ref="G10:H12"/>
-    <mergeCell ref="I10:J10"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="I12:J12"/>
-    <mergeCell ref="G13:H15"/>
-    <mergeCell ref="I13:J13"/>
-    <mergeCell ref="I14:J14"/>
-    <mergeCell ref="I15:J15"/>
-    <mergeCell ref="B2:C3"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="G5:J6"/>
-    <mergeCell ref="G7:H9"/>
-    <mergeCell ref="I7:J7"/>
-    <mergeCell ref="I8:J8"/>
-    <mergeCell ref="I9:J9"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="G29" r:id="rId1"/>
@@ -4434,10 +4436,10 @@
     </row>
     <row r="2" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.65">
       <c r="A2" s="8"/>
-      <c r="B2" s="38" t="s">
+      <c r="B2" s="71" t="s">
         <v>25</v>
       </c>
-      <c r="C2" s="38"/>
+      <c r="C2" s="71"/>
       <c r="D2" s="9"/>
       <c r="E2" s="12" t="s">
         <v>13</v>
@@ -4454,8 +4456,8 @@
     </row>
     <row r="3" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.65">
       <c r="A3" s="8"/>
-      <c r="B3" s="38"/>
-      <c r="C3" s="38"/>
+      <c r="B3" s="71"/>
+      <c r="C3" s="71"/>
       <c r="D3" s="9"/>
       <c r="E3" s="13">
         <f>'Daily Schedule SUN'!E3</f>
@@ -4488,38 +4490,38 @@
     </row>
     <row r="5" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="8"/>
-      <c r="B5" s="39" t="s">
+      <c r="B5" s="72" t="s">
         <v>0</v>
       </c>
       <c r="C5" s="23" t="s">
         <v>20</v>
       </c>
       <c r="D5" s="8"/>
-      <c r="E5" s="40" t="s">
+      <c r="E5" s="73" t="s">
         <v>14</v>
       </c>
       <c r="F5" s="8"/>
-      <c r="G5" s="81" t="s">
+      <c r="G5" s="80" t="s">
         <v>15</v>
       </c>
-      <c r="H5" s="82"/>
-      <c r="I5" s="81"/>
-      <c r="J5" s="81"/>
+      <c r="H5" s="81"/>
+      <c r="I5" s="80"/>
+      <c r="J5" s="80"/>
     </row>
     <row r="6" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="8"/>
-      <c r="B6" s="39"/>
+      <c r="B6" s="72"/>
       <c r="C6" s="24">
         <f>E3+4</f>
         <v>42887</v>
       </c>
       <c r="D6" s="8"/>
-      <c r="E6" s="40"/>
+      <c r="E6" s="73"/>
       <c r="F6" s="8"/>
-      <c r="G6" s="81"/>
-      <c r="H6" s="81"/>
-      <c r="I6" s="81"/>
-      <c r="J6" s="81"/>
+      <c r="G6" s="80"/>
+      <c r="H6" s="80"/>
+      <c r="I6" s="80"/>
+      <c r="J6" s="80"/>
     </row>
     <row r="7" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="8"/>
@@ -4531,16 +4533,16 @@
       <c r="D7" s="8"/>
       <c r="E7" s="16"/>
       <c r="F7" s="8"/>
-      <c r="G7" s="67">
+      <c r="G7" s="59">
         <f>E3</f>
         <v>42883</v>
       </c>
-      <c r="H7" s="68"/>
-      <c r="I7" s="69">
+      <c r="H7" s="60"/>
+      <c r="I7" s="65">
         <f>'Daily Schedule SUN'!I7:J7</f>
         <v>0</v>
       </c>
-      <c r="J7" s="70"/>
+      <c r="J7" s="66"/>
     </row>
     <row r="8" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="8"/>
@@ -4552,13 +4554,13 @@
       <c r="D8" s="8"/>
       <c r="E8" s="17"/>
       <c r="F8" s="8"/>
-      <c r="G8" s="41"/>
-      <c r="H8" s="42"/>
-      <c r="I8" s="47">
+      <c r="G8" s="61"/>
+      <c r="H8" s="62"/>
+      <c r="I8" s="53">
         <f>'Daily Schedule SUN'!I8:J8</f>
         <v>0</v>
       </c>
-      <c r="J8" s="48"/>
+      <c r="J8" s="54"/>
     </row>
     <row r="9" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="8"/>
@@ -4570,13 +4572,13 @@
       <c r="D9" s="8"/>
       <c r="E9" s="16"/>
       <c r="F9" s="8"/>
-      <c r="G9" s="43"/>
-      <c r="H9" s="44"/>
-      <c r="I9" s="49">
+      <c r="G9" s="63"/>
+      <c r="H9" s="64"/>
+      <c r="I9" s="67">
         <f>'Daily Schedule SUN'!I9:J9</f>
         <v>0</v>
       </c>
-      <c r="J9" s="50"/>
+      <c r="J9" s="68"/>
     </row>
     <row r="10" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="8"/>
@@ -4588,16 +4590,16 @@
       <c r="D10" s="8"/>
       <c r="E10" s="17"/>
       <c r="F10" s="8"/>
-      <c r="G10" s="57">
+      <c r="G10" s="47">
         <f>G7+1</f>
         <v>42884</v>
       </c>
-      <c r="H10" s="58"/>
-      <c r="I10" s="63">
+      <c r="H10" s="48"/>
+      <c r="I10" s="69">
         <f>'Daily Schedule SUN'!I10:J10</f>
         <v>0</v>
       </c>
-      <c r="J10" s="64"/>
+      <c r="J10" s="70"/>
     </row>
     <row r="11" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="8"/>
@@ -4609,13 +4611,13 @@
       <c r="D11" s="8"/>
       <c r="E11" s="16"/>
       <c r="F11" s="8"/>
-      <c r="G11" s="59"/>
-      <c r="H11" s="60"/>
-      <c r="I11" s="45">
+      <c r="G11" s="49"/>
+      <c r="H11" s="50"/>
+      <c r="I11" s="55">
         <f>'Daily Schedule SUN'!I11:J11</f>
         <v>0</v>
       </c>
-      <c r="J11" s="46"/>
+      <c r="J11" s="56"/>
     </row>
     <row r="12" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="8"/>
@@ -4627,13 +4629,13 @@
       <c r="D12" s="8"/>
       <c r="E12" s="17"/>
       <c r="F12" s="8"/>
-      <c r="G12" s="61"/>
-      <c r="H12" s="62"/>
-      <c r="I12" s="65">
+      <c r="G12" s="51"/>
+      <c r="H12" s="52"/>
+      <c r="I12" s="57">
         <f>'Daily Schedule SUN'!I12:J12</f>
         <v>0</v>
       </c>
-      <c r="J12" s="66"/>
+      <c r="J12" s="58"/>
     </row>
     <row r="13" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="8"/>
@@ -4645,16 +4647,16 @@
       <c r="D13" s="8"/>
       <c r="E13" s="16"/>
       <c r="F13" s="8"/>
-      <c r="G13" s="67">
+      <c r="G13" s="59">
         <f>G7+2</f>
         <v>42885</v>
       </c>
-      <c r="H13" s="68"/>
-      <c r="I13" s="69">
+      <c r="H13" s="60"/>
+      <c r="I13" s="65">
         <f>'Daily Schedule SUN'!I13:J13</f>
         <v>0</v>
       </c>
-      <c r="J13" s="70"/>
+      <c r="J13" s="66"/>
     </row>
     <row r="14" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="8"/>
@@ -4666,13 +4668,13 @@
       <c r="D14" s="8"/>
       <c r="E14" s="17"/>
       <c r="F14" s="8"/>
-      <c r="G14" s="41"/>
-      <c r="H14" s="42"/>
-      <c r="I14" s="47">
+      <c r="G14" s="61"/>
+      <c r="H14" s="62"/>
+      <c r="I14" s="53">
         <f>'Daily Schedule SUN'!I14:J14</f>
         <v>0</v>
       </c>
-      <c r="J14" s="48"/>
+      <c r="J14" s="54"/>
     </row>
     <row r="15" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="8"/>
@@ -4684,13 +4686,13 @@
       <c r="D15" s="8"/>
       <c r="E15" s="16"/>
       <c r="F15" s="8"/>
-      <c r="G15" s="43"/>
-      <c r="H15" s="44"/>
-      <c r="I15" s="49">
+      <c r="G15" s="63"/>
+      <c r="H15" s="64"/>
+      <c r="I15" s="67">
         <f>'Daily Schedule SUN'!I15:J15</f>
         <v>0</v>
       </c>
-      <c r="J15" s="50"/>
+      <c r="J15" s="68"/>
     </row>
     <row r="16" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="8"/>
@@ -4702,16 +4704,16 @@
       <c r="D16" s="8"/>
       <c r="E16" s="17"/>
       <c r="F16" s="8"/>
-      <c r="G16" s="57">
+      <c r="G16" s="47">
         <f>G7+3</f>
         <v>42886</v>
       </c>
-      <c r="H16" s="58"/>
-      <c r="I16" s="63">
+      <c r="H16" s="48"/>
+      <c r="I16" s="69">
         <f>'Daily Schedule SUN'!I16:J16</f>
         <v>0</v>
       </c>
-      <c r="J16" s="64"/>
+      <c r="J16" s="70"/>
     </row>
     <row r="17" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="8"/>
@@ -4723,13 +4725,13 @@
       <c r="D17" s="8"/>
       <c r="E17" s="16"/>
       <c r="F17" s="8"/>
-      <c r="G17" s="59"/>
-      <c r="H17" s="60"/>
-      <c r="I17" s="45">
+      <c r="G17" s="49"/>
+      <c r="H17" s="50"/>
+      <c r="I17" s="55">
         <f>'Daily Schedule SUN'!I17:J17</f>
         <v>0</v>
       </c>
-      <c r="J17" s="46"/>
+      <c r="J17" s="56"/>
     </row>
     <row r="18" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="8"/>
@@ -4741,13 +4743,13 @@
       <c r="D18" s="8"/>
       <c r="E18" s="17"/>
       <c r="F18" s="8"/>
-      <c r="G18" s="61"/>
-      <c r="H18" s="62"/>
-      <c r="I18" s="65">
+      <c r="G18" s="51"/>
+      <c r="H18" s="52"/>
+      <c r="I18" s="57">
         <f>'Daily Schedule SUN'!I18:J18</f>
         <v>0</v>
       </c>
-      <c r="J18" s="66"/>
+      <c r="J18" s="58"/>
     </row>
     <row r="19" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="8"/>
@@ -4759,16 +4761,16 @@
       <c r="D19" s="8"/>
       <c r="E19" s="16"/>
       <c r="F19" s="8"/>
-      <c r="G19" s="67">
+      <c r="G19" s="59">
         <f>G7+4</f>
         <v>42887</v>
       </c>
-      <c r="H19" s="68"/>
-      <c r="I19" s="69">
+      <c r="H19" s="60"/>
+      <c r="I19" s="65">
         <f>'Daily Schedule SUN'!I19:J19</f>
         <v>0</v>
       </c>
-      <c r="J19" s="70"/>
+      <c r="J19" s="66"/>
     </row>
     <row r="20" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="8"/>
@@ -4780,13 +4782,13 @@
       <c r="D20" s="8"/>
       <c r="E20" s="17"/>
       <c r="F20" s="8"/>
-      <c r="G20" s="41"/>
-      <c r="H20" s="42"/>
-      <c r="I20" s="47">
+      <c r="G20" s="61"/>
+      <c r="H20" s="62"/>
+      <c r="I20" s="53">
         <f>'Daily Schedule SUN'!I20:J20</f>
         <v>0</v>
       </c>
-      <c r="J20" s="48"/>
+      <c r="J20" s="54"/>
     </row>
     <row r="21" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="8"/>
@@ -4798,13 +4800,13 @@
       <c r="D21" s="8"/>
       <c r="E21" s="16"/>
       <c r="F21" s="8"/>
-      <c r="G21" s="43"/>
-      <c r="H21" s="44"/>
-      <c r="I21" s="49">
+      <c r="G21" s="63"/>
+      <c r="H21" s="64"/>
+      <c r="I21" s="67">
         <f>'Daily Schedule SUN'!I21:J21</f>
         <v>0</v>
       </c>
-      <c r="J21" s="50"/>
+      <c r="J21" s="68"/>
     </row>
     <row r="22" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="8"/>
@@ -4816,16 +4818,16 @@
       <c r="D22" s="8"/>
       <c r="E22" s="17"/>
       <c r="F22" s="8"/>
-      <c r="G22" s="57">
+      <c r="G22" s="47">
         <f>G7+5</f>
         <v>42888</v>
       </c>
-      <c r="H22" s="58"/>
-      <c r="I22" s="63">
+      <c r="H22" s="48"/>
+      <c r="I22" s="69">
         <f>'Daily Schedule SUN'!I22:J22</f>
         <v>0</v>
       </c>
-      <c r="J22" s="64"/>
+      <c r="J22" s="70"/>
     </row>
     <row r="23" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="8"/>
@@ -4837,13 +4839,13 @@
       <c r="D23" s="8"/>
       <c r="E23" s="16"/>
       <c r="F23" s="8"/>
-      <c r="G23" s="59"/>
-      <c r="H23" s="60"/>
-      <c r="I23" s="45">
+      <c r="G23" s="49"/>
+      <c r="H23" s="50"/>
+      <c r="I23" s="55">
         <f>'Daily Schedule SUN'!I23:J23</f>
         <v>0</v>
       </c>
-      <c r="J23" s="46"/>
+      <c r="J23" s="56"/>
     </row>
     <row r="24" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="8"/>
@@ -4855,13 +4857,13 @@
       <c r="D24" s="8"/>
       <c r="E24" s="17"/>
       <c r="F24" s="8"/>
-      <c r="G24" s="61"/>
-      <c r="H24" s="62"/>
-      <c r="I24" s="65">
+      <c r="G24" s="51"/>
+      <c r="H24" s="52"/>
+      <c r="I24" s="57">
         <f>'Daily Schedule SUN'!I24:J24</f>
         <v>0</v>
       </c>
-      <c r="J24" s="66"/>
+      <c r="J24" s="58"/>
     </row>
     <row r="25" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="8"/>
@@ -4873,16 +4875,16 @@
       <c r="D25" s="8"/>
       <c r="E25" s="16"/>
       <c r="F25" s="8"/>
-      <c r="G25" s="67">
+      <c r="G25" s="59">
         <f>G7+6</f>
         <v>42889</v>
       </c>
-      <c r="H25" s="68"/>
-      <c r="I25" s="69">
+      <c r="H25" s="60"/>
+      <c r="I25" s="65">
         <f>'Daily Schedule SUN'!I25:J25</f>
         <v>0</v>
       </c>
-      <c r="J25" s="70"/>
+      <c r="J25" s="66"/>
     </row>
     <row r="26" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="8"/>
@@ -4894,13 +4896,13 @@
       <c r="D26" s="8"/>
       <c r="E26" s="17"/>
       <c r="F26" s="8"/>
-      <c r="G26" s="41"/>
-      <c r="H26" s="42"/>
-      <c r="I26" s="47">
+      <c r="G26" s="61"/>
+      <c r="H26" s="62"/>
+      <c r="I26" s="53">
         <f>'Daily Schedule SUN'!I26:J26</f>
         <v>0</v>
       </c>
-      <c r="J26" s="48"/>
+      <c r="J26" s="54"/>
     </row>
     <row r="27" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="8"/>
@@ -4912,13 +4914,13 @@
       <c r="D27" s="8"/>
       <c r="E27" s="16"/>
       <c r="F27" s="8"/>
-      <c r="G27" s="43"/>
-      <c r="H27" s="44"/>
-      <c r="I27" s="49">
+      <c r="G27" s="63"/>
+      <c r="H27" s="64"/>
+      <c r="I27" s="67">
         <f>'Daily Schedule SUN'!I27:J27</f>
         <v>0</v>
       </c>
-      <c r="J27" s="50"/>
+      <c r="J27" s="68"/>
     </row>
     <row r="28" spans="1:10" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A28" s="8"/>
@@ -4945,12 +4947,12 @@
       <c r="D29" s="8"/>
       <c r="E29" s="16"/>
       <c r="F29" s="8"/>
-      <c r="G29" s="71" t="s">
+      <c r="G29" s="38" t="s">
         <v>26</v>
       </c>
-      <c r="H29" s="72"/>
-      <c r="I29" s="72"/>
-      <c r="J29" s="73"/>
+      <c r="H29" s="39"/>
+      <c r="I29" s="39"/>
+      <c r="J29" s="40"/>
     </row>
     <row r="30" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30" s="8"/>
@@ -4962,10 +4964,10 @@
       <c r="D30" s="8"/>
       <c r="E30" s="17"/>
       <c r="F30" s="8"/>
-      <c r="G30" s="74"/>
-      <c r="H30" s="75"/>
-      <c r="I30" s="75"/>
-      <c r="J30" s="76"/>
+      <c r="G30" s="41"/>
+      <c r="H30" s="42"/>
+      <c r="I30" s="42"/>
+      <c r="J30" s="43"/>
     </row>
     <row r="31" spans="1:10" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A31" s="8"/>
@@ -4977,10 +4979,10 @@
       <c r="D31" s="8"/>
       <c r="E31" s="16"/>
       <c r="F31" s="8"/>
-      <c r="G31" s="77"/>
-      <c r="H31" s="78"/>
-      <c r="I31" s="78"/>
-      <c r="J31" s="79"/>
+      <c r="G31" s="44"/>
+      <c r="H31" s="45"/>
+      <c r="I31" s="45"/>
+      <c r="J31" s="46"/>
     </row>
     <row r="32" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A32" s="8"/>
@@ -5104,6 +5106,30 @@
     </row>
   </sheetData>
   <mergeCells count="33">
+    <mergeCell ref="B2:C3"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="G5:J6"/>
+    <mergeCell ref="G7:H9"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="I8:J8"/>
+    <mergeCell ref="I9:J9"/>
+    <mergeCell ref="G10:H12"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="G13:H15"/>
+    <mergeCell ref="I13:J13"/>
+    <mergeCell ref="I14:J14"/>
+    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="G16:H18"/>
+    <mergeCell ref="I16:J16"/>
+    <mergeCell ref="I17:J17"/>
+    <mergeCell ref="I18:J18"/>
+    <mergeCell ref="G19:H21"/>
+    <mergeCell ref="I19:J19"/>
+    <mergeCell ref="I20:J20"/>
+    <mergeCell ref="I21:J21"/>
     <mergeCell ref="G29:J31"/>
     <mergeCell ref="G22:H24"/>
     <mergeCell ref="I22:J22"/>
@@ -5113,30 +5139,6 @@
     <mergeCell ref="I25:J25"/>
     <mergeCell ref="I26:J26"/>
     <mergeCell ref="I27:J27"/>
-    <mergeCell ref="G16:H18"/>
-    <mergeCell ref="I16:J16"/>
-    <mergeCell ref="I17:J17"/>
-    <mergeCell ref="I18:J18"/>
-    <mergeCell ref="G19:H21"/>
-    <mergeCell ref="I19:J19"/>
-    <mergeCell ref="I20:J20"/>
-    <mergeCell ref="I21:J21"/>
-    <mergeCell ref="G10:H12"/>
-    <mergeCell ref="I10:J10"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="I12:J12"/>
-    <mergeCell ref="G13:H15"/>
-    <mergeCell ref="I13:J13"/>
-    <mergeCell ref="I14:J14"/>
-    <mergeCell ref="I15:J15"/>
-    <mergeCell ref="B2:C3"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="G5:J6"/>
-    <mergeCell ref="G7:H9"/>
-    <mergeCell ref="I7:J7"/>
-    <mergeCell ref="I8:J8"/>
-    <mergeCell ref="I9:J9"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="G29" r:id="rId1"/>
@@ -5218,10 +5220,10 @@
     </row>
     <row r="2" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.65">
       <c r="A2" s="8"/>
-      <c r="B2" s="38" t="s">
+      <c r="B2" s="71" t="s">
         <v>25</v>
       </c>
-      <c r="C2" s="38"/>
+      <c r="C2" s="71"/>
       <c r="D2" s="9"/>
       <c r="E2" s="12" t="s">
         <v>13</v>
@@ -5238,8 +5240,8 @@
     </row>
     <row r="3" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.65">
       <c r="A3" s="8"/>
-      <c r="B3" s="38"/>
-      <c r="C3" s="38"/>
+      <c r="B3" s="71"/>
+      <c r="C3" s="71"/>
       <c r="D3" s="9"/>
       <c r="E3" s="13">
         <f>'Daily Schedule SUN'!E3</f>
@@ -5272,38 +5274,38 @@
     </row>
     <row r="5" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="8"/>
-      <c r="B5" s="39" t="s">
+      <c r="B5" s="72" t="s">
         <v>0</v>
       </c>
       <c r="C5" s="23" t="s">
         <v>21</v>
       </c>
       <c r="D5" s="8"/>
-      <c r="E5" s="40" t="s">
+      <c r="E5" s="73" t="s">
         <v>14</v>
       </c>
       <c r="F5" s="8"/>
-      <c r="G5" s="81" t="s">
+      <c r="G5" s="80" t="s">
         <v>15</v>
       </c>
-      <c r="H5" s="82"/>
-      <c r="I5" s="81"/>
-      <c r="J5" s="81"/>
+      <c r="H5" s="81"/>
+      <c r="I5" s="80"/>
+      <c r="J5" s="80"/>
     </row>
     <row r="6" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="8"/>
-      <c r="B6" s="39"/>
+      <c r="B6" s="72"/>
       <c r="C6" s="24">
         <f>E3+5</f>
         <v>42888</v>
       </c>
       <c r="D6" s="8"/>
-      <c r="E6" s="40"/>
+      <c r="E6" s="73"/>
       <c r="F6" s="8"/>
-      <c r="G6" s="81"/>
-      <c r="H6" s="81"/>
-      <c r="I6" s="81"/>
-      <c r="J6" s="81"/>
+      <c r="G6" s="80"/>
+      <c r="H6" s="80"/>
+      <c r="I6" s="80"/>
+      <c r="J6" s="80"/>
     </row>
     <row r="7" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="8"/>
@@ -5315,16 +5317,16 @@
       <c r="D7" s="8"/>
       <c r="E7" s="16"/>
       <c r="F7" s="8"/>
-      <c r="G7" s="67">
+      <c r="G7" s="59">
         <f>E3</f>
         <v>42883</v>
       </c>
-      <c r="H7" s="68"/>
-      <c r="I7" s="69">
+      <c r="H7" s="60"/>
+      <c r="I7" s="65">
         <f>'Daily Schedule SUN'!I7:J7</f>
         <v>0</v>
       </c>
-      <c r="J7" s="70"/>
+      <c r="J7" s="66"/>
     </row>
     <row r="8" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="8"/>
@@ -5336,13 +5338,13 @@
       <c r="D8" s="8"/>
       <c r="E8" s="17"/>
       <c r="F8" s="8"/>
-      <c r="G8" s="41"/>
-      <c r="H8" s="42"/>
-      <c r="I8" s="47">
+      <c r="G8" s="61"/>
+      <c r="H8" s="62"/>
+      <c r="I8" s="53">
         <f>'Daily Schedule SUN'!I8:J8</f>
         <v>0</v>
       </c>
-      <c r="J8" s="48"/>
+      <c r="J8" s="54"/>
     </row>
     <row r="9" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="8"/>
@@ -5354,13 +5356,13 @@
       <c r="D9" s="8"/>
       <c r="E9" s="16"/>
       <c r="F9" s="8"/>
-      <c r="G9" s="43"/>
-      <c r="H9" s="44"/>
-      <c r="I9" s="49">
+      <c r="G9" s="63"/>
+      <c r="H9" s="64"/>
+      <c r="I9" s="67">
         <f>'Daily Schedule SUN'!I9:J9</f>
         <v>0</v>
       </c>
-      <c r="J9" s="50"/>
+      <c r="J9" s="68"/>
     </row>
     <row r="10" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="8"/>
@@ -5372,16 +5374,16 @@
       <c r="D10" s="8"/>
       <c r="E10" s="17"/>
       <c r="F10" s="8"/>
-      <c r="G10" s="57">
+      <c r="G10" s="47">
         <f>G7+1</f>
         <v>42884</v>
       </c>
-      <c r="H10" s="58"/>
-      <c r="I10" s="63">
+      <c r="H10" s="48"/>
+      <c r="I10" s="69">
         <f>'Daily Schedule SUN'!I10:J10</f>
         <v>0</v>
       </c>
-      <c r="J10" s="64"/>
+      <c r="J10" s="70"/>
     </row>
     <row r="11" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="8"/>
@@ -5393,13 +5395,13 @@
       <c r="D11" s="8"/>
       <c r="E11" s="16"/>
       <c r="F11" s="8"/>
-      <c r="G11" s="59"/>
-      <c r="H11" s="60"/>
-      <c r="I11" s="45">
+      <c r="G11" s="49"/>
+      <c r="H11" s="50"/>
+      <c r="I11" s="55">
         <f>'Daily Schedule SUN'!I11:J11</f>
         <v>0</v>
       </c>
-      <c r="J11" s="46"/>
+      <c r="J11" s="56"/>
     </row>
     <row r="12" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="8"/>
@@ -5411,13 +5413,13 @@
       <c r="D12" s="8"/>
       <c r="E12" s="17"/>
       <c r="F12" s="8"/>
-      <c r="G12" s="61"/>
-      <c r="H12" s="62"/>
-      <c r="I12" s="65">
+      <c r="G12" s="51"/>
+      <c r="H12" s="52"/>
+      <c r="I12" s="57">
         <f>'Daily Schedule SUN'!I12:J12</f>
         <v>0</v>
       </c>
-      <c r="J12" s="66"/>
+      <c r="J12" s="58"/>
     </row>
     <row r="13" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="8"/>
@@ -5429,16 +5431,16 @@
       <c r="D13" s="8"/>
       <c r="E13" s="16"/>
       <c r="F13" s="8"/>
-      <c r="G13" s="67">
+      <c r="G13" s="59">
         <f>G7+2</f>
         <v>42885</v>
       </c>
-      <c r="H13" s="68"/>
-      <c r="I13" s="69">
+      <c r="H13" s="60"/>
+      <c r="I13" s="65">
         <f>'Daily Schedule SUN'!I13:J13</f>
         <v>0</v>
       </c>
-      <c r="J13" s="70"/>
+      <c r="J13" s="66"/>
     </row>
     <row r="14" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="8"/>
@@ -5450,13 +5452,13 @@
       <c r="D14" s="8"/>
       <c r="E14" s="17"/>
       <c r="F14" s="8"/>
-      <c r="G14" s="41"/>
-      <c r="H14" s="42"/>
-      <c r="I14" s="47">
+      <c r="G14" s="61"/>
+      <c r="H14" s="62"/>
+      <c r="I14" s="53">
         <f>'Daily Schedule SUN'!I14:J14</f>
         <v>0</v>
       </c>
-      <c r="J14" s="48"/>
+      <c r="J14" s="54"/>
     </row>
     <row r="15" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="8"/>
@@ -5468,13 +5470,13 @@
       <c r="D15" s="8"/>
       <c r="E15" s="16"/>
       <c r="F15" s="8"/>
-      <c r="G15" s="43"/>
-      <c r="H15" s="44"/>
-      <c r="I15" s="49">
+      <c r="G15" s="63"/>
+      <c r="H15" s="64"/>
+      <c r="I15" s="67">
         <f>'Daily Schedule SUN'!I15:J15</f>
         <v>0</v>
       </c>
-      <c r="J15" s="50"/>
+      <c r="J15" s="68"/>
     </row>
     <row r="16" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="8"/>
@@ -5486,16 +5488,16 @@
       <c r="D16" s="8"/>
       <c r="E16" s="17"/>
       <c r="F16" s="8"/>
-      <c r="G16" s="57">
+      <c r="G16" s="47">
         <f>G7+3</f>
         <v>42886</v>
       </c>
-      <c r="H16" s="58"/>
-      <c r="I16" s="63">
+      <c r="H16" s="48"/>
+      <c r="I16" s="69">
         <f>'Daily Schedule SUN'!I16:J16</f>
         <v>0</v>
       </c>
-      <c r="J16" s="64"/>
+      <c r="J16" s="70"/>
     </row>
     <row r="17" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="8"/>
@@ -5507,13 +5509,13 @@
       <c r="D17" s="8"/>
       <c r="E17" s="16"/>
       <c r="F17" s="8"/>
-      <c r="G17" s="59"/>
-      <c r="H17" s="60"/>
-      <c r="I17" s="45">
+      <c r="G17" s="49"/>
+      <c r="H17" s="50"/>
+      <c r="I17" s="55">
         <f>'Daily Schedule SUN'!I17:J17</f>
         <v>0</v>
       </c>
-      <c r="J17" s="46"/>
+      <c r="J17" s="56"/>
     </row>
     <row r="18" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="8"/>
@@ -5525,13 +5527,13 @@
       <c r="D18" s="8"/>
       <c r="E18" s="17"/>
       <c r="F18" s="8"/>
-      <c r="G18" s="61"/>
-      <c r="H18" s="62"/>
-      <c r="I18" s="65">
+      <c r="G18" s="51"/>
+      <c r="H18" s="52"/>
+      <c r="I18" s="57">
         <f>'Daily Schedule SUN'!I18:J18</f>
         <v>0</v>
       </c>
-      <c r="J18" s="66"/>
+      <c r="J18" s="58"/>
     </row>
     <row r="19" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="8"/>
@@ -5543,16 +5545,16 @@
       <c r="D19" s="8"/>
       <c r="E19" s="16"/>
       <c r="F19" s="8"/>
-      <c r="G19" s="67">
+      <c r="G19" s="59">
         <f>G7+4</f>
         <v>42887</v>
       </c>
-      <c r="H19" s="68"/>
-      <c r="I19" s="69">
+      <c r="H19" s="60"/>
+      <c r="I19" s="65">
         <f>'Daily Schedule SUN'!I19:J19</f>
         <v>0</v>
       </c>
-      <c r="J19" s="70"/>
+      <c r="J19" s="66"/>
     </row>
     <row r="20" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="8"/>
@@ -5564,13 +5566,13 @@
       <c r="D20" s="8"/>
       <c r="E20" s="17"/>
       <c r="F20" s="8"/>
-      <c r="G20" s="41"/>
-      <c r="H20" s="42"/>
-      <c r="I20" s="47">
+      <c r="G20" s="61"/>
+      <c r="H20" s="62"/>
+      <c r="I20" s="53">
         <f>'Daily Schedule SUN'!I20:J20</f>
         <v>0</v>
       </c>
-      <c r="J20" s="48"/>
+      <c r="J20" s="54"/>
     </row>
     <row r="21" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="8"/>
@@ -5582,13 +5584,13 @@
       <c r="D21" s="8"/>
       <c r="E21" s="16"/>
       <c r="F21" s="8"/>
-      <c r="G21" s="43"/>
-      <c r="H21" s="44"/>
-      <c r="I21" s="49">
+      <c r="G21" s="63"/>
+      <c r="H21" s="64"/>
+      <c r="I21" s="67">
         <f>'Daily Schedule SUN'!I21:J21</f>
         <v>0</v>
       </c>
-      <c r="J21" s="50"/>
+      <c r="J21" s="68"/>
     </row>
     <row r="22" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="8"/>
@@ -5600,16 +5602,16 @@
       <c r="D22" s="8"/>
       <c r="E22" s="17"/>
       <c r="F22" s="8"/>
-      <c r="G22" s="57">
+      <c r="G22" s="47">
         <f>G7+5</f>
         <v>42888</v>
       </c>
-      <c r="H22" s="58"/>
-      <c r="I22" s="63">
+      <c r="H22" s="48"/>
+      <c r="I22" s="69">
         <f>'Daily Schedule SUN'!I22:J22</f>
         <v>0</v>
       </c>
-      <c r="J22" s="64"/>
+      <c r="J22" s="70"/>
     </row>
     <row r="23" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="8"/>
@@ -5621,13 +5623,13 @@
       <c r="D23" s="8"/>
       <c r="E23" s="16"/>
       <c r="F23" s="8"/>
-      <c r="G23" s="59"/>
-      <c r="H23" s="60"/>
-      <c r="I23" s="45">
+      <c r="G23" s="49"/>
+      <c r="H23" s="50"/>
+      <c r="I23" s="55">
         <f>'Daily Schedule SUN'!I23:J23</f>
         <v>0</v>
       </c>
-      <c r="J23" s="46"/>
+      <c r="J23" s="56"/>
     </row>
     <row r="24" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="8"/>
@@ -5639,13 +5641,13 @@
       <c r="D24" s="8"/>
       <c r="E24" s="17"/>
       <c r="F24" s="8"/>
-      <c r="G24" s="61"/>
-      <c r="H24" s="62"/>
-      <c r="I24" s="65">
+      <c r="G24" s="51"/>
+      <c r="H24" s="52"/>
+      <c r="I24" s="57">
         <f>'Daily Schedule SUN'!I24:J24</f>
         <v>0</v>
       </c>
-      <c r="J24" s="66"/>
+      <c r="J24" s="58"/>
     </row>
     <row r="25" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="8"/>
@@ -5657,16 +5659,16 @@
       <c r="D25" s="8"/>
       <c r="E25" s="16"/>
       <c r="F25" s="8"/>
-      <c r="G25" s="67">
+      <c r="G25" s="59">
         <f>G7+6</f>
         <v>42889</v>
       </c>
-      <c r="H25" s="68"/>
-      <c r="I25" s="69">
+      <c r="H25" s="60"/>
+      <c r="I25" s="65">
         <f>'Daily Schedule SUN'!I25:J25</f>
         <v>0</v>
       </c>
-      <c r="J25" s="70"/>
+      <c r="J25" s="66"/>
     </row>
     <row r="26" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="8"/>
@@ -5678,13 +5680,13 @@
       <c r="D26" s="8"/>
       <c r="E26" s="17"/>
       <c r="F26" s="8"/>
-      <c r="G26" s="41"/>
-      <c r="H26" s="42"/>
-      <c r="I26" s="47">
+      <c r="G26" s="61"/>
+      <c r="H26" s="62"/>
+      <c r="I26" s="53">
         <f>'Daily Schedule SUN'!I26:J26</f>
         <v>0</v>
       </c>
-      <c r="J26" s="48"/>
+      <c r="J26" s="54"/>
     </row>
     <row r="27" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="8"/>
@@ -5696,13 +5698,13 @@
       <c r="D27" s="8"/>
       <c r="E27" s="16"/>
       <c r="F27" s="8"/>
-      <c r="G27" s="43"/>
-      <c r="H27" s="44"/>
-      <c r="I27" s="49">
+      <c r="G27" s="63"/>
+      <c r="H27" s="64"/>
+      <c r="I27" s="67">
         <f>'Daily Schedule SUN'!I27:J27</f>
         <v>0</v>
       </c>
-      <c r="J27" s="50"/>
+      <c r="J27" s="68"/>
     </row>
     <row r="28" spans="1:10" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A28" s="8"/>
@@ -5729,12 +5731,12 @@
       <c r="D29" s="8"/>
       <c r="E29" s="16"/>
       <c r="F29" s="8"/>
-      <c r="G29" s="71" t="s">
+      <c r="G29" s="38" t="s">
         <v>26</v>
       </c>
-      <c r="H29" s="72"/>
-      <c r="I29" s="72"/>
-      <c r="J29" s="73"/>
+      <c r="H29" s="39"/>
+      <c r="I29" s="39"/>
+      <c r="J29" s="40"/>
     </row>
     <row r="30" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30" s="8"/>
@@ -5746,10 +5748,10 @@
       <c r="D30" s="8"/>
       <c r="E30" s="17"/>
       <c r="F30" s="8"/>
-      <c r="G30" s="74"/>
-      <c r="H30" s="75"/>
-      <c r="I30" s="75"/>
-      <c r="J30" s="76"/>
+      <c r="G30" s="41"/>
+      <c r="H30" s="42"/>
+      <c r="I30" s="42"/>
+      <c r="J30" s="43"/>
     </row>
     <row r="31" spans="1:10" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A31" s="8"/>
@@ -5761,10 +5763,10 @@
       <c r="D31" s="8"/>
       <c r="E31" s="16"/>
       <c r="F31" s="8"/>
-      <c r="G31" s="77"/>
-      <c r="H31" s="78"/>
-      <c r="I31" s="78"/>
-      <c r="J31" s="79"/>
+      <c r="G31" s="44"/>
+      <c r="H31" s="45"/>
+      <c r="I31" s="45"/>
+      <c r="J31" s="46"/>
     </row>
     <row r="32" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A32" s="8"/>
@@ -5888,6 +5890,30 @@
     </row>
   </sheetData>
   <mergeCells count="33">
+    <mergeCell ref="B2:C3"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="G5:J6"/>
+    <mergeCell ref="G7:H9"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="I8:J8"/>
+    <mergeCell ref="I9:J9"/>
+    <mergeCell ref="G10:H12"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="G13:H15"/>
+    <mergeCell ref="I13:J13"/>
+    <mergeCell ref="I14:J14"/>
+    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="G16:H18"/>
+    <mergeCell ref="I16:J16"/>
+    <mergeCell ref="I17:J17"/>
+    <mergeCell ref="I18:J18"/>
+    <mergeCell ref="G19:H21"/>
+    <mergeCell ref="I19:J19"/>
+    <mergeCell ref="I20:J20"/>
+    <mergeCell ref="I21:J21"/>
     <mergeCell ref="G29:J31"/>
     <mergeCell ref="G22:H24"/>
     <mergeCell ref="I22:J22"/>
@@ -5897,30 +5923,6 @@
     <mergeCell ref="I25:J25"/>
     <mergeCell ref="I26:J26"/>
     <mergeCell ref="I27:J27"/>
-    <mergeCell ref="G16:H18"/>
-    <mergeCell ref="I16:J16"/>
-    <mergeCell ref="I17:J17"/>
-    <mergeCell ref="I18:J18"/>
-    <mergeCell ref="G19:H21"/>
-    <mergeCell ref="I19:J19"/>
-    <mergeCell ref="I20:J20"/>
-    <mergeCell ref="I21:J21"/>
-    <mergeCell ref="G10:H12"/>
-    <mergeCell ref="I10:J10"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="I12:J12"/>
-    <mergeCell ref="G13:H15"/>
-    <mergeCell ref="I13:J13"/>
-    <mergeCell ref="I14:J14"/>
-    <mergeCell ref="I15:J15"/>
-    <mergeCell ref="B2:C3"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="G5:J6"/>
-    <mergeCell ref="G7:H9"/>
-    <mergeCell ref="I7:J7"/>
-    <mergeCell ref="I8:J8"/>
-    <mergeCell ref="I9:J9"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="G29" r:id="rId1"/>
@@ -6002,10 +6004,10 @@
     </row>
     <row r="2" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.65">
       <c r="A2" s="8"/>
-      <c r="B2" s="38" t="s">
+      <c r="B2" s="71" t="s">
         <v>25</v>
       </c>
-      <c r="C2" s="38"/>
+      <c r="C2" s="71"/>
       <c r="D2" s="9"/>
       <c r="E2" s="12" t="s">
         <v>13</v>
@@ -6022,8 +6024,8 @@
     </row>
     <row r="3" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.65">
       <c r="A3" s="8"/>
-      <c r="B3" s="38"/>
-      <c r="C3" s="38"/>
+      <c r="B3" s="71"/>
+      <c r="C3" s="71"/>
       <c r="D3" s="9"/>
       <c r="E3" s="13">
         <f>'Daily Schedule SUN'!E3</f>
@@ -6056,38 +6058,38 @@
     </row>
     <row r="5" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="8"/>
-      <c r="B5" s="39" t="s">
+      <c r="B5" s="72" t="s">
         <v>0</v>
       </c>
       <c r="C5" s="23" t="s">
         <v>22</v>
       </c>
       <c r="D5" s="8"/>
-      <c r="E5" s="40" t="s">
+      <c r="E5" s="73" t="s">
         <v>14</v>
       </c>
       <c r="F5" s="8"/>
-      <c r="G5" s="81" t="s">
+      <c r="G5" s="80" t="s">
         <v>15</v>
       </c>
-      <c r="H5" s="82"/>
-      <c r="I5" s="81"/>
-      <c r="J5" s="81"/>
+      <c r="H5" s="81"/>
+      <c r="I5" s="80"/>
+      <c r="J5" s="80"/>
     </row>
     <row r="6" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="8"/>
-      <c r="B6" s="39"/>
+      <c r="B6" s="72"/>
       <c r="C6" s="24">
         <f>E3+6</f>
         <v>42889</v>
       </c>
       <c r="D6" s="8"/>
-      <c r="E6" s="40"/>
+      <c r="E6" s="73"/>
       <c r="F6" s="8"/>
-      <c r="G6" s="81"/>
-      <c r="H6" s="81"/>
-      <c r="I6" s="81"/>
-      <c r="J6" s="81"/>
+      <c r="G6" s="80"/>
+      <c r="H6" s="80"/>
+      <c r="I6" s="80"/>
+      <c r="J6" s="80"/>
     </row>
     <row r="7" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="8"/>
@@ -6099,16 +6101,16 @@
       <c r="D7" s="8"/>
       <c r="E7" s="16"/>
       <c r="F7" s="8"/>
-      <c r="G7" s="67">
+      <c r="G7" s="59">
         <f>E3</f>
         <v>42883</v>
       </c>
-      <c r="H7" s="68"/>
-      <c r="I7" s="69">
+      <c r="H7" s="60"/>
+      <c r="I7" s="65">
         <f>'Daily Schedule SUN'!I7:J7</f>
         <v>0</v>
       </c>
-      <c r="J7" s="70"/>
+      <c r="J7" s="66"/>
     </row>
     <row r="8" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="8"/>
@@ -6120,13 +6122,13 @@
       <c r="D8" s="8"/>
       <c r="E8" s="17"/>
       <c r="F8" s="8"/>
-      <c r="G8" s="41"/>
-      <c r="H8" s="42"/>
-      <c r="I8" s="47">
+      <c r="G8" s="61"/>
+      <c r="H8" s="62"/>
+      <c r="I8" s="53">
         <f>'Daily Schedule SUN'!I8:J8</f>
         <v>0</v>
       </c>
-      <c r="J8" s="48"/>
+      <c r="J8" s="54"/>
     </row>
     <row r="9" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="8"/>
@@ -6138,13 +6140,13 @@
       <c r="D9" s="8"/>
       <c r="E9" s="16"/>
       <c r="F9" s="8"/>
-      <c r="G9" s="43"/>
-      <c r="H9" s="44"/>
-      <c r="I9" s="49">
+      <c r="G9" s="63"/>
+      <c r="H9" s="64"/>
+      <c r="I9" s="67">
         <f>'Daily Schedule SUN'!I9:J9</f>
         <v>0</v>
       </c>
-      <c r="J9" s="50"/>
+      <c r="J9" s="68"/>
     </row>
     <row r="10" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="8"/>
@@ -6156,16 +6158,16 @@
       <c r="D10" s="8"/>
       <c r="E10" s="17"/>
       <c r="F10" s="8"/>
-      <c r="G10" s="57">
+      <c r="G10" s="47">
         <f>G7+1</f>
         <v>42884</v>
       </c>
-      <c r="H10" s="58"/>
-      <c r="I10" s="63">
+      <c r="H10" s="48"/>
+      <c r="I10" s="69">
         <f>'Daily Schedule SUN'!I10:J10</f>
         <v>0</v>
       </c>
-      <c r="J10" s="64"/>
+      <c r="J10" s="70"/>
     </row>
     <row r="11" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="8"/>
@@ -6177,13 +6179,13 @@
       <c r="D11" s="8"/>
       <c r="E11" s="16"/>
       <c r="F11" s="8"/>
-      <c r="G11" s="59"/>
-      <c r="H11" s="60"/>
-      <c r="I11" s="45">
+      <c r="G11" s="49"/>
+      <c r="H11" s="50"/>
+      <c r="I11" s="55">
         <f>'Daily Schedule SUN'!I11:J11</f>
         <v>0</v>
       </c>
-      <c r="J11" s="46"/>
+      <c r="J11" s="56"/>
     </row>
     <row r="12" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="8"/>
@@ -6195,13 +6197,13 @@
       <c r="D12" s="8"/>
       <c r="E12" s="17"/>
       <c r="F12" s="8"/>
-      <c r="G12" s="61"/>
-      <c r="H12" s="62"/>
-      <c r="I12" s="65">
+      <c r="G12" s="51"/>
+      <c r="H12" s="52"/>
+      <c r="I12" s="57">
         <f>'Daily Schedule SUN'!I12:J12</f>
         <v>0</v>
       </c>
-      <c r="J12" s="66"/>
+      <c r="J12" s="58"/>
     </row>
     <row r="13" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="8"/>
@@ -6213,16 +6215,16 @@
       <c r="D13" s="8"/>
       <c r="E13" s="16"/>
       <c r="F13" s="8"/>
-      <c r="G13" s="67">
+      <c r="G13" s="59">
         <f>G7+2</f>
         <v>42885</v>
       </c>
-      <c r="H13" s="68"/>
-      <c r="I13" s="69">
+      <c r="H13" s="60"/>
+      <c r="I13" s="65">
         <f>'Daily Schedule SUN'!I13:J13</f>
         <v>0</v>
       </c>
-      <c r="J13" s="70"/>
+      <c r="J13" s="66"/>
     </row>
     <row r="14" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="8"/>
@@ -6234,13 +6236,13 @@
       <c r="D14" s="8"/>
       <c r="E14" s="17"/>
       <c r="F14" s="8"/>
-      <c r="G14" s="41"/>
-      <c r="H14" s="42"/>
-      <c r="I14" s="47">
+      <c r="G14" s="61"/>
+      <c r="H14" s="62"/>
+      <c r="I14" s="53">
         <f>'Daily Schedule SUN'!I14:J14</f>
         <v>0</v>
       </c>
-      <c r="J14" s="48"/>
+      <c r="J14" s="54"/>
     </row>
     <row r="15" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="8"/>
@@ -6252,13 +6254,13 @@
       <c r="D15" s="8"/>
       <c r="E15" s="16"/>
       <c r="F15" s="8"/>
-      <c r="G15" s="43"/>
-      <c r="H15" s="44"/>
-      <c r="I15" s="49">
+      <c r="G15" s="63"/>
+      <c r="H15" s="64"/>
+      <c r="I15" s="67">
         <f>'Daily Schedule SUN'!I15:J15</f>
         <v>0</v>
       </c>
-      <c r="J15" s="50"/>
+      <c r="J15" s="68"/>
     </row>
     <row r="16" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="8"/>
@@ -6270,16 +6272,16 @@
       <c r="D16" s="8"/>
       <c r="E16" s="17"/>
       <c r="F16" s="8"/>
-      <c r="G16" s="57">
+      <c r="G16" s="47">
         <f>G7+3</f>
         <v>42886</v>
       </c>
-      <c r="H16" s="58"/>
-      <c r="I16" s="63">
+      <c r="H16" s="48"/>
+      <c r="I16" s="69">
         <f>'Daily Schedule SUN'!I16:J16</f>
         <v>0</v>
       </c>
-      <c r="J16" s="64"/>
+      <c r="J16" s="70"/>
     </row>
     <row r="17" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="8"/>
@@ -6291,13 +6293,13 @@
       <c r="D17" s="8"/>
       <c r="E17" s="16"/>
       <c r="F17" s="8"/>
-      <c r="G17" s="59"/>
-      <c r="H17" s="60"/>
-      <c r="I17" s="45">
+      <c r="G17" s="49"/>
+      <c r="H17" s="50"/>
+      <c r="I17" s="55">
         <f>'Daily Schedule SUN'!I17:J17</f>
         <v>0</v>
       </c>
-      <c r="J17" s="46"/>
+      <c r="J17" s="56"/>
     </row>
     <row r="18" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="8"/>
@@ -6309,13 +6311,13 @@
       <c r="D18" s="8"/>
       <c r="E18" s="17"/>
       <c r="F18" s="8"/>
-      <c r="G18" s="61"/>
-      <c r="H18" s="62"/>
-      <c r="I18" s="65">
+      <c r="G18" s="51"/>
+      <c r="H18" s="52"/>
+      <c r="I18" s="57">
         <f>'Daily Schedule SUN'!I18:J18</f>
         <v>0</v>
       </c>
-      <c r="J18" s="66"/>
+      <c r="J18" s="58"/>
     </row>
     <row r="19" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="8"/>
@@ -6327,16 +6329,16 @@
       <c r="D19" s="8"/>
       <c r="E19" s="16"/>
       <c r="F19" s="8"/>
-      <c r="G19" s="67">
+      <c r="G19" s="59">
         <f>G7+4</f>
         <v>42887</v>
       </c>
-      <c r="H19" s="68"/>
-      <c r="I19" s="69">
+      <c r="H19" s="60"/>
+      <c r="I19" s="65">
         <f>'Daily Schedule SUN'!I19:J19</f>
         <v>0</v>
       </c>
-      <c r="J19" s="70"/>
+      <c r="J19" s="66"/>
     </row>
     <row r="20" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="8"/>
@@ -6348,13 +6350,13 @@
       <c r="D20" s="8"/>
       <c r="E20" s="17"/>
       <c r="F20" s="8"/>
-      <c r="G20" s="41"/>
-      <c r="H20" s="42"/>
-      <c r="I20" s="47">
+      <c r="G20" s="61"/>
+      <c r="H20" s="62"/>
+      <c r="I20" s="53">
         <f>'Daily Schedule SUN'!I20:J20</f>
         <v>0</v>
       </c>
-      <c r="J20" s="48"/>
+      <c r="J20" s="54"/>
     </row>
     <row r="21" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="8"/>
@@ -6366,13 +6368,13 @@
       <c r="D21" s="8"/>
       <c r="E21" s="16"/>
       <c r="F21" s="8"/>
-      <c r="G21" s="43"/>
-      <c r="H21" s="44"/>
-      <c r="I21" s="49">
+      <c r="G21" s="63"/>
+      <c r="H21" s="64"/>
+      <c r="I21" s="67">
         <f>'Daily Schedule SUN'!I21:J21</f>
         <v>0</v>
       </c>
-      <c r="J21" s="50"/>
+      <c r="J21" s="68"/>
     </row>
     <row r="22" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="8"/>
@@ -6384,16 +6386,16 @@
       <c r="D22" s="8"/>
       <c r="E22" s="17"/>
       <c r="F22" s="8"/>
-      <c r="G22" s="57">
+      <c r="G22" s="47">
         <f>G7+5</f>
         <v>42888</v>
       </c>
-      <c r="H22" s="58"/>
-      <c r="I22" s="63">
+      <c r="H22" s="48"/>
+      <c r="I22" s="69">
         <f>'Daily Schedule SUN'!I22:J22</f>
         <v>0</v>
       </c>
-      <c r="J22" s="64"/>
+      <c r="J22" s="70"/>
     </row>
     <row r="23" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="8"/>
@@ -6405,13 +6407,13 @@
       <c r="D23" s="8"/>
       <c r="E23" s="16"/>
       <c r="F23" s="8"/>
-      <c r="G23" s="59"/>
-      <c r="H23" s="60"/>
-      <c r="I23" s="45">
+      <c r="G23" s="49"/>
+      <c r="H23" s="50"/>
+      <c r="I23" s="55">
         <f>'Daily Schedule SUN'!I23:J23</f>
         <v>0</v>
       </c>
-      <c r="J23" s="46"/>
+      <c r="J23" s="56"/>
     </row>
     <row r="24" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="8"/>
@@ -6423,13 +6425,13 @@
       <c r="D24" s="8"/>
       <c r="E24" s="17"/>
       <c r="F24" s="8"/>
-      <c r="G24" s="61"/>
-      <c r="H24" s="62"/>
-      <c r="I24" s="65">
+      <c r="G24" s="51"/>
+      <c r="H24" s="52"/>
+      <c r="I24" s="57">
         <f>'Daily Schedule SUN'!I24:J24</f>
         <v>0</v>
       </c>
-      <c r="J24" s="66"/>
+      <c r="J24" s="58"/>
     </row>
     <row r="25" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="8"/>
@@ -6441,16 +6443,16 @@
       <c r="D25" s="8"/>
       <c r="E25" s="16"/>
       <c r="F25" s="8"/>
-      <c r="G25" s="67">
+      <c r="G25" s="59">
         <f>G7+6</f>
         <v>42889</v>
       </c>
-      <c r="H25" s="68"/>
-      <c r="I25" s="69">
+      <c r="H25" s="60"/>
+      <c r="I25" s="65">
         <f>'Daily Schedule SUN'!I25:J25</f>
         <v>0</v>
       </c>
-      <c r="J25" s="70"/>
+      <c r="J25" s="66"/>
     </row>
     <row r="26" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="8"/>
@@ -6462,13 +6464,13 @@
       <c r="D26" s="8"/>
       <c r="E26" s="17"/>
       <c r="F26" s="8"/>
-      <c r="G26" s="41"/>
-      <c r="H26" s="42"/>
-      <c r="I26" s="47">
+      <c r="G26" s="61"/>
+      <c r="H26" s="62"/>
+      <c r="I26" s="53">
         <f>'Daily Schedule SUN'!I26:J26</f>
         <v>0</v>
       </c>
-      <c r="J26" s="48"/>
+      <c r="J26" s="54"/>
     </row>
     <row r="27" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="8"/>
@@ -6480,13 +6482,13 @@
       <c r="D27" s="8"/>
       <c r="E27" s="16"/>
       <c r="F27" s="8"/>
-      <c r="G27" s="43"/>
-      <c r="H27" s="44"/>
-      <c r="I27" s="49">
+      <c r="G27" s="63"/>
+      <c r="H27" s="64"/>
+      <c r="I27" s="67">
         <f>'Daily Schedule SUN'!I27:J27</f>
         <v>0</v>
       </c>
-      <c r="J27" s="50"/>
+      <c r="J27" s="68"/>
     </row>
     <row r="28" spans="1:10" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A28" s="8"/>
@@ -6513,12 +6515,12 @@
       <c r="D29" s="8"/>
       <c r="E29" s="16"/>
       <c r="F29" s="8"/>
-      <c r="G29" s="71" t="s">
+      <c r="G29" s="38" t="s">
         <v>26</v>
       </c>
-      <c r="H29" s="72"/>
-      <c r="I29" s="72"/>
-      <c r="J29" s="73"/>
+      <c r="H29" s="39"/>
+      <c r="I29" s="39"/>
+      <c r="J29" s="40"/>
     </row>
     <row r="30" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30" s="8"/>
@@ -6530,10 +6532,10 @@
       <c r="D30" s="8"/>
       <c r="E30" s="17"/>
       <c r="F30" s="8"/>
-      <c r="G30" s="74"/>
-      <c r="H30" s="75"/>
-      <c r="I30" s="75"/>
-      <c r="J30" s="76"/>
+      <c r="G30" s="41"/>
+      <c r="H30" s="42"/>
+      <c r="I30" s="42"/>
+      <c r="J30" s="43"/>
     </row>
     <row r="31" spans="1:10" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A31" s="8"/>
@@ -6545,10 +6547,10 @@
       <c r="D31" s="8"/>
       <c r="E31" s="16"/>
       <c r="F31" s="8"/>
-      <c r="G31" s="77"/>
-      <c r="H31" s="78"/>
-      <c r="I31" s="78"/>
-      <c r="J31" s="79"/>
+      <c r="G31" s="44"/>
+      <c r="H31" s="45"/>
+      <c r="I31" s="45"/>
+      <c r="J31" s="46"/>
     </row>
     <row r="32" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A32" s="8"/>
@@ -6672,6 +6674,30 @@
     </row>
   </sheetData>
   <mergeCells count="33">
+    <mergeCell ref="B2:C3"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="G5:J6"/>
+    <mergeCell ref="G7:H9"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="I8:J8"/>
+    <mergeCell ref="I9:J9"/>
+    <mergeCell ref="G10:H12"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="G13:H15"/>
+    <mergeCell ref="I13:J13"/>
+    <mergeCell ref="I14:J14"/>
+    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="G16:H18"/>
+    <mergeCell ref="I16:J16"/>
+    <mergeCell ref="I17:J17"/>
+    <mergeCell ref="I18:J18"/>
+    <mergeCell ref="G19:H21"/>
+    <mergeCell ref="I19:J19"/>
+    <mergeCell ref="I20:J20"/>
+    <mergeCell ref="I21:J21"/>
     <mergeCell ref="G29:J31"/>
     <mergeCell ref="G22:H24"/>
     <mergeCell ref="I22:J22"/>
@@ -6681,30 +6707,6 @@
     <mergeCell ref="I25:J25"/>
     <mergeCell ref="I26:J26"/>
     <mergeCell ref="I27:J27"/>
-    <mergeCell ref="G16:H18"/>
-    <mergeCell ref="I16:J16"/>
-    <mergeCell ref="I17:J17"/>
-    <mergeCell ref="I18:J18"/>
-    <mergeCell ref="G19:H21"/>
-    <mergeCell ref="I19:J19"/>
-    <mergeCell ref="I20:J20"/>
-    <mergeCell ref="I21:J21"/>
-    <mergeCell ref="G10:H12"/>
-    <mergeCell ref="I10:J10"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="I12:J12"/>
-    <mergeCell ref="G13:H15"/>
-    <mergeCell ref="I13:J13"/>
-    <mergeCell ref="I14:J14"/>
-    <mergeCell ref="I15:J15"/>
-    <mergeCell ref="B2:C3"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="G5:J6"/>
-    <mergeCell ref="G7:H9"/>
-    <mergeCell ref="I7:J7"/>
-    <mergeCell ref="I8:J8"/>
-    <mergeCell ref="I9:J9"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="G29" r:id="rId1"/>
